--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-KMC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF25FF8A-1023-4664-A31B-11769AE5B361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -22,9 +23,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +35,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="254">
   <si>
     <t>No</t>
   </si>
@@ -715,12 +717,105 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>PPH</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Author List edit/delete</t>
+  </si>
+  <si>
+    <t>Author Add</t>
+  </si>
+  <si>
+    <t>Book List edit/delete</t>
+  </si>
+  <si>
+    <t>Book Add</t>
+  </si>
+  <si>
+    <t>Order Info</t>
+  </si>
+  <si>
+    <t>Admin Settings</t>
+  </si>
+  <si>
+    <t>Home Screen</t>
+  </si>
+  <si>
+    <t>Categories List edit/delete</t>
+  </si>
+  <si>
+    <t>Categories Add</t>
+  </si>
+  <si>
+    <t>Website Info "contact edit"</t>
+  </si>
+  <si>
+    <t>Website Info "add admin"</t>
+  </si>
+  <si>
+    <t>Privicy "Privicy &amp; policy"</t>
+  </si>
+  <si>
+    <t>Privicy "Guide"</t>
+  </si>
+  <si>
+    <t>Privicy "Service"</t>
+  </si>
+  <si>
+    <t>Privicy "FAQ list"</t>
+  </si>
+  <si>
+    <t>Privicy "FAQ add"</t>
+  </si>
+  <si>
+    <t>User_Login</t>
+  </si>
+  <si>
+    <t>User_Register</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>KNH</t>
+  </si>
+  <si>
+    <t>Book Description</t>
+  </si>
+  <si>
+    <t>Author Profile</t>
+  </si>
+  <si>
+    <t>Author List</t>
+  </si>
+  <si>
+    <t>Book Categories</t>
+  </si>
+  <si>
+    <t>Order Page</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>THL</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Privicy &amp; Policy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -874,7 +969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,6 +1003,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1671,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1693,6 +1800,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1797,73 +1966,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1899,7 +2023,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +2086,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2143,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2206,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2269,7 @@
         <xdr:cNvPr id="114" name="Diamond 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2337,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2393,7 @@
         <xdr:cNvPr id="202" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2456,7 @@
         <xdr:cNvPr id="145" name="Rectangle 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2524,7 @@
         <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2580,7 @@
         <xdr:cNvPr id="222" name="Rectangle 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2643,7 @@
         <xdr:cNvPr id="223" name="Rectangle 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2706,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2769,7 @@
         <xdr:cNvPr id="225" name="Rectangle 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2832,7 @@
         <xdr:cNvPr id="226" name="Rectangle 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2895,7 @@
         <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,7 +2951,7 @@
         <xdr:cNvPr id="203" name="Connector: Elbow 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,7 +3007,7 @@
         <xdr:cNvPr id="204" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +3077,7 @@
         <xdr:cNvPr id="277" name="Rectangle 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3037,7 +3161,7 @@
         <xdr:cNvPr id="291" name="Rectangle 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3224,7 @@
         <xdr:cNvPr id="293" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3292,7 @@
         <xdr:cNvPr id="300" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3374,7 @@
         <xdr:cNvPr id="301" name="Rectangle 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3449,7 @@
         <xdr:cNvPr id="302" name="Rectangle 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3395,7 +3519,7 @@
         <xdr:cNvPr id="303" name="Rectangle 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3611,7 @@
         <xdr:cNvPr id="304" name="Rectangle 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3627,7 +3751,7 @@
         <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3807,7 @@
         <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3739,7 +3863,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3795,7 +3919,7 @@
         <xdr:cNvPr id="245" name="Straight Arrow Connector 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3851,7 +3975,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,7 +4031,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3963,7 +4087,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4019,7 +4143,7 @@
         <xdr:cNvPr id="344" name="Rectangle 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4082,7 +4206,7 @@
         <xdr:cNvPr id="272" name="Straight Arrow Connector 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4138,7 +4262,7 @@
         <xdr:cNvPr id="348" name="Rectangle 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4325,7 @@
         <xdr:cNvPr id="349" name="Rectangle 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4264,7 +4388,7 @@
         <xdr:cNvPr id="350" name="Rectangle 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4332,7 +4456,7 @@
         <xdr:cNvPr id="353" name="Rectangle 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4395,7 +4519,7 @@
         <xdr:cNvPr id="354" name="Rectangle 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4458,7 +4582,7 @@
         <xdr:cNvPr id="275" name="Connector: Elbow 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4514,7 +4638,7 @@
         <xdr:cNvPr id="284" name="Connector: Elbow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4570,7 +4694,7 @@
         <xdr:cNvPr id="286" name="Connector: Elbow 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4626,7 +4750,7 @@
         <xdr:cNvPr id="288" name="Connector: Elbow 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4682,7 +4806,7 @@
         <xdr:cNvPr id="290" name="Connector: Elbow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4738,7 +4862,7 @@
         <xdr:cNvPr id="297" name="Connector: Elbow 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4794,7 +4918,7 @@
         <xdr:cNvPr id="299" name="Connector: Elbow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4850,7 +4974,7 @@
         <xdr:cNvPr id="306" name="Connector: Elbow 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4906,7 +5030,7 @@
         <xdr:cNvPr id="308" name="Connector: Elbow 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4962,7 +5086,7 @@
         <xdr:cNvPr id="310" name="Connector: Elbow 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5018,7 +5142,7 @@
         <xdr:cNvPr id="312" name="Straight Arrow Connector 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5074,7 +5198,7 @@
         <xdr:cNvPr id="320" name="Straight Arrow Connector 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5254,7 @@
         <xdr:cNvPr id="322" name="Rectangle 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5193,7 +5317,7 @@
         <xdr:cNvPr id="395" name="Rectangle 394">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5256,7 +5380,7 @@
         <xdr:cNvPr id="396" name="Rectangle 395">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5319,7 +5443,7 @@
         <xdr:cNvPr id="399" name="Rectangle 398">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5387,7 +5511,7 @@
         <xdr:cNvPr id="402" name="Rectangle 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5455,7 +5579,7 @@
         <xdr:cNvPr id="403" name="Rectangle 402">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5523,7 +5647,7 @@
         <xdr:cNvPr id="324" name="Connector: Elbow 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5581,7 +5705,7 @@
         <xdr:cNvPr id="326" name="Connector: Elbow 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5639,7 +5763,7 @@
         <xdr:cNvPr id="328" name="Connector: Elbow 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5697,7 +5821,7 @@
         <xdr:cNvPr id="330" name="Straight Arrow Connector 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5753,7 +5877,7 @@
         <xdr:cNvPr id="333" name="Straight Arrow Connector 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5809,7 +5933,7 @@
         <xdr:cNvPr id="336" name="Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5865,7 +5989,7 @@
         <xdr:cNvPr id="337" name="Diamond 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5928,7 +6052,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5984,7 +6108,7 @@
         <xdr:cNvPr id="345" name="Connector: Elbow 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6040,7 +6164,7 @@
         <xdr:cNvPr id="357" name="Rectangle 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6103,7 +6227,7 @@
         <xdr:cNvPr id="359" name="Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,7 +6283,7 @@
         <xdr:cNvPr id="434" name="Rectangle 433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6222,7 +6346,7 @@
         <xdr:cNvPr id="364" name="Connector: Elbow 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6278,7 +6402,7 @@
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6335,7 +6459,7 @@
         <xdr:cNvPr id="450" name="Rectangle 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6398,7 +6522,7 @@
         <xdr:cNvPr id="376" name="Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6455,7 +6579,7 @@
         <xdr:cNvPr id="464" name="Diamond 463">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6526,7 +6650,7 @@
         <xdr:cNvPr id="454" name="Straight Arrow Connector 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6583,7 +6707,7 @@
         <xdr:cNvPr id="461" name="Connector: Elbow 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6639,7 +6763,7 @@
         <xdr:cNvPr id="478" name="Rectangle 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6702,7 +6826,7 @@
         <xdr:cNvPr id="482" name="Rectangle 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6765,7 +6889,7 @@
         <xdr:cNvPr id="492" name="Rectangle 491">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6828,7 +6952,7 @@
         <xdr:cNvPr id="481" name="Connector: Elbow 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6884,7 +7008,7 @@
         <xdr:cNvPr id="488" name="Connector: Elbow 487">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6940,7 +7064,7 @@
         <xdr:cNvPr id="503" name="Rectangle 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7003,7 +7127,7 @@
         <xdr:cNvPr id="504" name="Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7066,7 +7190,7 @@
         <xdr:cNvPr id="506" name="Rectangle 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7129,7 +7253,7 @@
         <xdr:cNvPr id="493" name="Straight Arrow Connector 492">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7185,7 +7309,7 @@
         <xdr:cNvPr id="496" name="Connector: Elbow 495">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7244,7 +7368,7 @@
         <xdr:cNvPr id="500" name="Connector: Elbow 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7303,7 +7427,7 @@
         <xdr:cNvPr id="511" name="Connector: Elbow 510">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7361,7 +7485,7 @@
         <xdr:cNvPr id="386" name="Connector: Elbow 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7419,7 +7543,7 @@
         <xdr:cNvPr id="389" name="Connector: Elbow 388">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7477,7 +7601,7 @@
         <xdr:cNvPr id="412" name="Straight Arrow Connector 411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7533,7 +7657,7 @@
         <xdr:cNvPr id="549" name="Rectangle 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7601,7 +7725,7 @@
         <xdr:cNvPr id="416" name="Connector: Elbow 415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7657,7 +7781,7 @@
         <xdr:cNvPr id="557" name="Rectangle 556">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7720,7 +7844,7 @@
         <xdr:cNvPr id="558" name="Rectangle 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7783,7 +7907,7 @@
         <xdr:cNvPr id="559" name="Rectangle 558">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7846,7 +7970,7 @@
         <xdr:cNvPr id="560" name="Rectangle 559">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7909,7 +8033,7 @@
         <xdr:cNvPr id="561" name="Rectangle 560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7977,7 +8101,7 @@
         <xdr:cNvPr id="571" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8045,7 +8169,7 @@
         <xdr:cNvPr id="429" name="Straight Arrow Connector 428">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8101,7 +8225,7 @@
         <xdr:cNvPr id="431" name="Connector: Elbow 430">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8156,7 +8280,7 @@
         <xdr:cNvPr id="441" name="Connector: Elbow 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8212,7 +8336,7 @@
         <xdr:cNvPr id="444" name="Connector: Elbow 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8268,7 +8392,7 @@
         <xdr:cNvPr id="447" name="Straight Arrow Connector 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8324,7 +8448,7 @@
         <xdr:cNvPr id="603" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8388,7 +8512,7 @@
         <xdr:cNvPr id="526" name="Connector: Elbow 525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8444,7 +8568,7 @@
         <xdr:cNvPr id="536" name="Connector: Elbow 535">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8500,7 +8624,7 @@
         <xdr:cNvPr id="542" name="Connector: Elbow 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8560,7 +8684,7 @@
         <xdr:cNvPr id="625" name="Rectangle 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8628,7 +8752,7 @@
         <xdr:cNvPr id="627" name="Rectangle 626">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8691,7 +8815,7 @@
         <xdr:cNvPr id="565" name="Connector: Elbow 564">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8750,7 +8874,7 @@
         <xdr:cNvPr id="117" name="Rectangle 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8813,7 +8937,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9150,7 +9274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
@@ -9450,22 +9574,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="95"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -9500,22 +9624,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="92"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="126"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -9823,10 +9947,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="88"/>
+      <c r="C42" s="122"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -9950,13 +10074,13 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="89" t="s">
+      <c r="K48" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="89"/>
+      <c r="L48" s="123"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44701.767206944445</v>
+        <v>44702.524398611109</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -9971,13 +10095,13 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="89" t="s">
+      <c r="K49" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="89"/>
+      <c r="L49" s="123"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44701.767206944445</v>
+        <v>44702.524398611109</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -10027,7 +10151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A43" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
@@ -10040,54 +10164,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="100" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="104">
+      <c r="P2" s="138">
         <v>44698</v>
       </c>
-      <c r="Q2" s="105"/>
+      <c r="Q2" s="139"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="106">
+      <c r="P3" s="140">
         <v>44698</v>
       </c>
-      <c r="Q3" s="107"/>
+      <c r="Q3" s="141"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -11126,11 +11250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11148,50 +11272,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="100" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="104">
+      <c r="N2" s="138">
         <v>44698</v>
       </c>
-      <c r="O2" s="105"/>
+      <c r="O2" s="139"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="106">
+      <c r="N3" s="140">
         <v>44698</v>
       </c>
-      <c r="O3" s="107"/>
+      <c r="O3" s="141"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -11282,7 +11406,7 @@
         <v>44701</v>
       </c>
       <c r="G7" s="60">
-        <f t="shared" ref="G7:G16" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G47" si="0">F7-E7</f>
         <v>3</v>
       </c>
       <c r="H7" s="61">
@@ -11292,7 +11416,7 @@
         <v>44698</v>
       </c>
       <c r="J7" s="62">
-        <f t="shared" ref="J7:J16" si="1">I7-H7</f>
+        <f t="shared" ref="J7:J47" si="1">I7-H7</f>
         <v>0</v>
       </c>
       <c r="K7" s="63">
@@ -11331,266 +11455,1019 @@
       <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59">
+      <c r="A9" s="171"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="172" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="172"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="63"/>
+    </row>
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="158"/>
+      <c r="B10" s="159">
         <v>1</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C10" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
-    </row>
-    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
+      <c r="D10" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="162">
+        <v>44698</v>
+      </c>
+      <c r="F10" s="162">
+        <v>44703</v>
+      </c>
+      <c r="G10" s="161"/>
+      <c r="H10" s="162">
+        <v>44698</v>
+      </c>
+      <c r="I10" s="162">
+        <v>44699</v>
+      </c>
+      <c r="J10" s="163"/>
+      <c r="K10" s="164"/>
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="159">
+        <v>2</v>
+      </c>
+      <c r="C11" s="160" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="162">
+        <v>44698</v>
+      </c>
+      <c r="F11" s="162">
+        <v>44703</v>
+      </c>
+      <c r="G11" s="161"/>
+      <c r="H11" s="162">
+        <v>44698</v>
+      </c>
+      <c r="I11" s="162">
+        <v>44699</v>
+      </c>
+      <c r="J11" s="163"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="159">
+        <v>3</v>
+      </c>
+      <c r="C12" s="160" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="162">
+        <v>44698</v>
+      </c>
+      <c r="F12" s="162">
+        <v>44703</v>
+      </c>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162">
+        <v>44698</v>
+      </c>
+      <c r="I12" s="162">
+        <v>44699</v>
+      </c>
+      <c r="J12" s="163"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="58">
+      <c r="A13" s="165"/>
+      <c r="B13" s="166">
         <v>4</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="160" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F13" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G13" s="167"/>
+      <c r="H13" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I13" s="168">
+        <v>44699</v>
+      </c>
+      <c r="J13" s="169"/>
+      <c r="K13" s="170"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="158"/>
+      <c r="B14" s="159">
+        <v>5</v>
+      </c>
+      <c r="C14" s="160" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="162">
+        <v>44698</v>
+      </c>
+      <c r="F14" s="162">
+        <v>44703</v>
+      </c>
+      <c r="G14" s="161"/>
+      <c r="H14" s="162">
+        <v>44698</v>
+      </c>
+      <c r="I14" s="162">
+        <v>44699</v>
+      </c>
+      <c r="J14" s="163"/>
+      <c r="K14" s="164"/>
+    </row>
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="165"/>
+      <c r="B15" s="166">
+        <v>6</v>
+      </c>
+      <c r="C15" s="160" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F15" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G15" s="167"/>
+      <c r="H15" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I15" s="168">
+        <v>44699</v>
+      </c>
+      <c r="J15" s="169"/>
+      <c r="K15" s="170"/>
+    </row>
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="158"/>
+      <c r="B16" s="159">
+        <v>7</v>
+      </c>
+      <c r="C16" s="160" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="162">
+        <v>44698</v>
+      </c>
+      <c r="F16" s="162">
+        <v>44703</v>
+      </c>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162">
+        <v>44698</v>
+      </c>
+      <c r="I16" s="162">
+        <v>44700</v>
+      </c>
+      <c r="J16" s="163"/>
+      <c r="K16" s="164"/>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="165"/>
+      <c r="B17" s="166">
+        <v>8</v>
+      </c>
+      <c r="C17" s="160" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F17" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I17" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J17" s="169"/>
+      <c r="K17" s="170"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="165"/>
+      <c r="B18" s="166">
+        <v>9</v>
+      </c>
+      <c r="C18" s="160" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F18" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I18" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J18" s="169"/>
+      <c r="K18" s="170"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="165"/>
+      <c r="B19" s="166">
+        <v>10</v>
+      </c>
+      <c r="C19" s="160" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F19" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G19" s="167"/>
+      <c r="H19" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I19" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J19" s="169"/>
+      <c r="K19" s="170"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="165"/>
+      <c r="B20" s="166">
+        <v>11</v>
+      </c>
+      <c r="C20" s="160" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F20" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I20" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J20" s="169"/>
+      <c r="K20" s="170"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="165"/>
+      <c r="B21" s="166">
+        <v>12</v>
+      </c>
+      <c r="C21" s="160" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F21" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I21" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J21" s="169"/>
+      <c r="K21" s="170"/>
+    </row>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="165"/>
+      <c r="B22" s="166">
+        <v>13</v>
+      </c>
+      <c r="C22" s="160" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F22" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G22" s="167"/>
+      <c r="H22" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I22" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J22" s="169"/>
+      <c r="K22" s="170"/>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="165"/>
+      <c r="B23" s="166">
+        <v>14</v>
+      </c>
+      <c r="C23" s="160" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F23" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G23" s="167"/>
+      <c r="H23" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I23" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="165"/>
+      <c r="B24" s="166">
         <v>15</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="C24" s="160" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F24" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G24" s="167"/>
+      <c r="H24" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I24" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J24" s="169"/>
+      <c r="K24" s="170"/>
+    </row>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="165"/>
+      <c r="B25" s="166">
+        <v>16</v>
+      </c>
+      <c r="C25" s="160" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F25" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G25" s="167"/>
+      <c r="H25" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I25" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J25" s="169"/>
+      <c r="K25" s="170"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="165"/>
+      <c r="B26" s="166">
+        <v>17</v>
+      </c>
+      <c r="C26" s="160" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F26" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G26" s="167"/>
+      <c r="H26" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I26" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J26" s="169"/>
+      <c r="K26" s="170"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="165"/>
+      <c r="B27" s="166">
+        <v>18</v>
+      </c>
+      <c r="C27" s="160" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F27" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G27" s="167"/>
+      <c r="H27" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I27" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J27" s="169"/>
+      <c r="K27" s="170"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="165"/>
+      <c r="B28" s="166">
+        <v>19</v>
+      </c>
+      <c r="C28" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="168">
+        <v>44698</v>
+      </c>
+      <c r="F28" s="168">
+        <v>44703</v>
+      </c>
+      <c r="G28" s="167"/>
+      <c r="H28" s="168">
+        <v>44698</v>
+      </c>
+      <c r="I28" s="168">
+        <v>44700</v>
+      </c>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="158"/>
+      <c r="B29" s="159">
+        <v>20</v>
+      </c>
+      <c r="C29" s="160" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" s="162">
+        <v>44698</v>
+      </c>
+      <c r="F29" s="162">
+        <v>44703</v>
+      </c>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162">
+        <v>44698</v>
+      </c>
+      <c r="I29" s="162">
+        <v>44700</v>
+      </c>
+      <c r="J29" s="163"/>
+      <c r="K29" s="164"/>
+    </row>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="171"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="172"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="63"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="171"/>
+      <c r="B31" s="59">
+        <v>1</v>
+      </c>
+      <c r="C31" s="172" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="63"/>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="171"/>
+      <c r="B32" s="59">
+        <v>2</v>
+      </c>
+      <c r="C32" s="172" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="172" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="63"/>
+    </row>
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="171"/>
+      <c r="B33" s="59">
+        <v>3</v>
+      </c>
+      <c r="C33" s="172" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="172" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="63"/>
+    </row>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="171"/>
+      <c r="B34" s="59">
+        <v>4</v>
+      </c>
+      <c r="C34" s="172" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="172" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="63"/>
+    </row>
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="171"/>
+      <c r="B35" s="59">
+        <v>5</v>
+      </c>
+      <c r="C35" s="172" t="s">
+        <v>246</v>
+      </c>
+      <c r="D35" s="172" t="s">
+        <v>244</v>
+      </c>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="63"/>
+    </row>
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="171"/>
+      <c r="B36" s="59">
+        <v>6</v>
+      </c>
+      <c r="C36" s="172" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="172" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="63"/>
+    </row>
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="171"/>
+      <c r="B37" s="59">
+        <v>7</v>
+      </c>
+      <c r="C37" s="172" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="172" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="63"/>
+    </row>
+    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="171"/>
+      <c r="B38" s="59">
+        <v>8</v>
+      </c>
+      <c r="C38" s="172" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" s="172" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="63"/>
+    </row>
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="171"/>
+      <c r="B39" s="59">
+        <v>9</v>
+      </c>
+      <c r="C39" s="172" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="63"/>
+    </row>
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="171"/>
+      <c r="B40" s="59">
+        <v>10</v>
+      </c>
+      <c r="C40" s="172" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="174"/>
+      <c r="K40" s="63"/>
+    </row>
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="171"/>
+      <c r="B41" s="59">
+        <v>11</v>
+      </c>
+      <c r="C41" s="172" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="63"/>
+    </row>
+    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="171"/>
+      <c r="B42" s="59">
+        <v>12</v>
+      </c>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="63"/>
+    </row>
+    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="171"/>
+      <c r="B43" s="59">
+        <v>13</v>
+      </c>
+      <c r="C43" s="172"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="63"/>
+    </row>
+    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="58">
+        <v>4</v>
+      </c>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="61">
         <v>44701</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F44" s="61">
         <v>44704</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G44" s="60">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62">
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="63"/>
-    </row>
-    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="58">
+      <c r="K44" s="63"/>
+    </row>
+    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="58">
         <v>5</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60" t="s">
+      <c r="B45" s="59"/>
+      <c r="C45" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D45" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E45" s="61">
         <v>44704</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F45" s="61">
         <v>44714</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G45" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62">
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="63"/>
-    </row>
-    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="58">
+      <c r="K45" s="63"/>
+    </row>
+    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="58">
         <v>6</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60" t="s">
+      <c r="B46" s="59"/>
+      <c r="C46" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="60">
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62">
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="63"/>
-    </row>
-    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="58">
+      <c r="K46" s="63"/>
+    </row>
+    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="58">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60" t="s">
+      <c r="B47" s="59"/>
+      <c r="C47" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="60">
+      <c r="D47" s="60"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62">
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68" t="str">
-        <f>IF(I17="","",I17-H17)</f>
+      <c r="K47" s="63"/>
+    </row>
+    <row r="48" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="64"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68" t="str">
+        <f>IF(I48="","",I48-H48)</f>
         <v/>
       </c>
-      <c r="K17" s="69"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18">
-        <f>SUM(G6:G17)</f>
+      <c r="K48" s="69"/>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49">
+        <f>SUM(G6:G48)</f>
         <v>38</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2">
-        <f>G18/30</f>
+      <c r="G50" s="2">
+        <f>G49/30</f>
         <v>1.2666666666666666</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11605,10 +12482,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11620,68 +12497,68 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="100" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
       <c r="V2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="104">
+      <c r="W2" s="138">
         <v>44698</v>
       </c>
-      <c r="X2" s="105"/>
+      <c r="X2" s="139"/>
     </row>
     <row r="3" spans="1:24" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
       <c r="V3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="106">
+      <c r="W3" s="140">
         <v>44698</v>
       </c>
-      <c r="X3" s="107"/>
+      <c r="X3" s="141"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -11715,26 +12592,26 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="117"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="151"/>
       <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -11743,104 +12620,104 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="120"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="153"/>
+      <c r="Q6" s="153"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="154"/>
       <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="120"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="153"/>
+      <c r="W7" s="154"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="120"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
+      <c r="Q8" s="153"/>
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="154"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="123"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="157"/>
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -11870,58 +12747,58 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="110"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="144"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="114"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="146"/>
+      <c r="U12" s="146"/>
+      <c r="V12" s="146"/>
+      <c r="W12" s="146"/>
+      <c r="X12" s="148"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
@@ -13732,10 +14609,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13745,54 +14622,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="100" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="104">
+      <c r="P2" s="138">
         <v>44698</v>
       </c>
-      <c r="Q2" s="105"/>
+      <c r="Q2" s="139"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="106">
+      <c r="P3" s="140">
         <v>44698</v>
       </c>
-      <c r="Q3" s="107"/>
+      <c r="Q3" s="141"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -15120,12 +15997,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15140,50 +16015,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="100" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="104">
+      <c r="N2" s="138">
         <v>44698</v>
       </c>
-      <c r="O2" s="105"/>
+      <c r="O2" s="139"/>
     </row>
     <row r="3" spans="1:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="106">
+      <c r="N3" s="140">
         <v>44698</v>
       </c>
-      <c r="O3" s="107"/>
+      <c r="O3" s="141"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -15617,7 +16492,7 @@
       <c r="G18" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="157" t="s">
+      <c r="H18" s="121" t="s">
         <v>150</v>
       </c>
       <c r="I18" s="39">
@@ -15702,32 +16577,32 @@
     </row>
     <row r="21" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
-      <c r="B21" s="132">
+      <c r="B21" s="96">
         <v>12</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="137" t="s">
+      <c r="E21" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="F21" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="134" t="s">
+      <c r="G21" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="135" t="s">
+      <c r="H21" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I21" s="134">
+      <c r="I21" s="98">
         <v>11</v>
       </c>
-      <c r="J21" s="134"/>
-      <c r="K21" s="136"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="100"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -15735,13 +16610,13 @@
     </row>
     <row r="22" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
-      <c r="B22" s="124">
+      <c r="B22" s="88">
         <v>13</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="89" t="s">
         <v>162</v>
       </c>
       <c r="E22" s="39" t="s">
@@ -15750,17 +16625,17 @@
       <c r="F22" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="126" t="s">
+      <c r="G22" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="127" t="s">
+      <c r="H22" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="126">
+      <c r="I22" s="90">
         <v>256</v>
       </c>
-      <c r="J22" s="126"/>
-      <c r="K22" s="128"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -15768,13 +16643,13 @@
     </row>
     <row r="23" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
-      <c r="B23" s="124">
+      <c r="B23" s="88">
         <v>14</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="89" t="s">
         <v>160</v>
       </c>
       <c r="E23" s="39" t="s">
@@ -15783,17 +16658,17 @@
       <c r="F23" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="126" t="s">
+      <c r="G23" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="127" t="s">
+      <c r="H23" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="I23" s="126">
+      <c r="I23" s="90">
         <v>11</v>
       </c>
-      <c r="J23" s="126"/>
-      <c r="K23" s="128"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="92"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -15834,16 +16709,16 @@
     </row>
     <row r="25" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -15851,16 +16726,16 @@
     </row>
     <row r="26" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -16113,10 +16988,10 @@
       <c r="B35" s="37">
         <v>6</v>
       </c>
-      <c r="C35" s="133" t="s">
+      <c r="C35" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="133" t="s">
+      <c r="D35" s="97" t="s">
         <v>161</v>
       </c>
       <c r="E35" s="39" t="s">
@@ -16125,17 +17000,17 @@
       <c r="F35" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="134" t="s">
+      <c r="G35" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="135" t="s">
+      <c r="H35" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="I35" s="134">
+      <c r="I35" s="98">
         <v>11</v>
       </c>
-      <c r="J35" s="134"/>
-      <c r="K35" s="136"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="100"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -16146,10 +17021,10 @@
       <c r="B36" s="37">
         <v>7</v>
       </c>
-      <c r="C36" s="125" t="s">
+      <c r="C36" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="125" t="s">
+      <c r="D36" s="89" t="s">
         <v>162</v>
       </c>
       <c r="E36" s="39" t="s">
@@ -16158,17 +17033,17 @@
       <c r="F36" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="126" t="s">
+      <c r="G36" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="127" t="s">
+      <c r="H36" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I36" s="126">
+      <c r="I36" s="90">
         <v>256</v>
       </c>
-      <c r="J36" s="126"/>
-      <c r="K36" s="128"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="92"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -16179,10 +17054,10 @@
       <c r="B37" s="37">
         <v>8</v>
       </c>
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="125" t="s">
+      <c r="D37" s="89" t="s">
         <v>160</v>
       </c>
       <c r="E37" s="39" t="s">
@@ -16191,17 +17066,17 @@
       <c r="F37" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="126" t="s">
+      <c r="G37" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="127" t="s">
+      <c r="H37" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="I37" s="126">
+      <c r="I37" s="90">
         <v>11</v>
       </c>
-      <c r="J37" s="126"/>
-      <c r="K37" s="128"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="92"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -16242,16 +17117,16 @@
     </row>
     <row r="39" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -16351,7 +17226,7 @@
     </row>
     <row r="44" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
-      <c r="B44" s="124">
+      <c r="B44" s="88">
         <v>1</v>
       </c>
       <c r="C44" s="38" t="s">
@@ -16387,7 +17262,7 @@
       <c r="B45" s="37">
         <v>2</v>
       </c>
-      <c r="C45" s="142" t="s">
+      <c r="C45" s="106" t="s">
         <v>175</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -16417,32 +17292,32 @@
     </row>
     <row r="46" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
-      <c r="B46" s="138">
+      <c r="B46" s="102">
         <v>3</v>
       </c>
-      <c r="C46" s="139" t="s">
+      <c r="C46" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="139" t="s">
+      <c r="D46" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="137" t="s">
+      <c r="E46" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="137" t="s">
+      <c r="F46" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="137" t="s">
+      <c r="G46" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="H46" s="140" t="s">
+      <c r="H46" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="I46" s="137">
+      <c r="I46" s="101">
         <v>11</v>
       </c>
-      <c r="J46" s="137"/>
-      <c r="K46" s="141" t="s">
+      <c r="J46" s="101"/>
+      <c r="K46" s="105" t="s">
         <v>172</v>
       </c>
       <c r="L46" s="6"/>
@@ -16455,10 +17330,10 @@
       <c r="B47" s="37">
         <v>4</v>
       </c>
-      <c r="C47" s="125" t="s">
+      <c r="C47" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="125" t="s">
+      <c r="D47" s="89" t="s">
         <v>162</v>
       </c>
       <c r="E47" s="39" t="s">
@@ -16467,17 +17342,17 @@
       <c r="F47" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G47" s="126" t="s">
+      <c r="G47" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H47" s="127" t="s">
+      <c r="H47" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I47" s="126">
+      <c r="I47" s="90">
         <v>256</v>
       </c>
-      <c r="J47" s="126"/>
-      <c r="K47" s="128"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="92"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -16488,10 +17363,10 @@
       <c r="B48" s="37">
         <v>5</v>
       </c>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="125" t="s">
+      <c r="D48" s="89" t="s">
         <v>160</v>
       </c>
       <c r="E48" s="39" t="s">
@@ -16500,17 +17375,17 @@
       <c r="F48" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G48" s="126" t="s">
+      <c r="G48" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H48" s="127" t="s">
+      <c r="H48" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="I48" s="126">
+      <c r="I48" s="90">
         <v>11</v>
       </c>
-      <c r="J48" s="126"/>
-      <c r="K48" s="128"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="92"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -16551,16 +17426,16 @@
     </row>
     <row r="50" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
-      <c r="B50" s="129"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="130"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -16568,16 +17443,16 @@
     </row>
     <row r="51" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="130"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -16764,10 +17639,10 @@
       <c r="B58" s="37">
         <v>4</v>
       </c>
-      <c r="C58" s="133" t="s">
+      <c r="C58" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="133" t="s">
+      <c r="D58" s="97" t="s">
         <v>161</v>
       </c>
       <c r="E58" s="39" t="s">
@@ -16776,17 +17651,17 @@
       <c r="F58" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G58" s="134" t="s">
+      <c r="G58" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="H58" s="135" t="s">
+      <c r="H58" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="I58" s="134">
+      <c r="I58" s="98">
         <v>11</v>
       </c>
-      <c r="J58" s="134"/>
-      <c r="K58" s="136"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="100"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -16797,10 +17672,10 @@
       <c r="B59" s="37">
         <v>5</v>
       </c>
-      <c r="C59" s="125" t="s">
+      <c r="C59" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="125" t="s">
+      <c r="D59" s="89" t="s">
         <v>162</v>
       </c>
       <c r="E59" s="39" t="s">
@@ -16809,17 +17684,17 @@
       <c r="F59" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="126" t="s">
+      <c r="G59" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H59" s="127" t="s">
+      <c r="H59" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I59" s="126">
+      <c r="I59" s="90">
         <v>256</v>
       </c>
-      <c r="J59" s="126"/>
-      <c r="K59" s="128"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="92"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -16830,10 +17705,10 @@
       <c r="B60" s="37">
         <v>6</v>
       </c>
-      <c r="C60" s="125" t="s">
+      <c r="C60" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="125" t="s">
+      <c r="D60" s="89" t="s">
         <v>160</v>
       </c>
       <c r="E60" s="39" t="s">
@@ -16842,17 +17717,17 @@
       <c r="F60" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G60" s="126" t="s">
+      <c r="G60" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H60" s="127" t="s">
+      <c r="H60" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="I60" s="126">
+      <c r="I60" s="90">
         <v>11</v>
       </c>
-      <c r="J60" s="126"/>
-      <c r="K60" s="128"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="92"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -16893,16 +17768,16 @@
     </row>
     <row r="62" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A62" s="13"/>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="130"/>
-      <c r="J62" s="130"/>
-      <c r="K62" s="130"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="94"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -17174,10 +18049,10 @@
       <c r="B72" s="37">
         <v>6</v>
       </c>
-      <c r="C72" s="133" t="s">
+      <c r="C72" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D72" s="133" t="s">
+      <c r="D72" s="97" t="s">
         <v>161</v>
       </c>
       <c r="E72" s="39" t="s">
@@ -17186,17 +18061,17 @@
       <c r="F72" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G72" s="134" t="s">
+      <c r="G72" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="H72" s="135" t="s">
+      <c r="H72" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="I72" s="134">
+      <c r="I72" s="98">
         <v>11</v>
       </c>
-      <c r="J72" s="134"/>
-      <c r="K72" s="136"/>
+      <c r="J72" s="98"/>
+      <c r="K72" s="100"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -17207,10 +18082,10 @@
       <c r="B73" s="37">
         <v>7</v>
       </c>
-      <c r="C73" s="125" t="s">
+      <c r="C73" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="125" t="s">
+      <c r="D73" s="89" t="s">
         <v>162</v>
       </c>
       <c r="E73" s="39" t="s">
@@ -17219,17 +18094,17 @@
       <c r="F73" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G73" s="126" t="s">
+      <c r="G73" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H73" s="127" t="s">
+      <c r="H73" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I73" s="126">
+      <c r="I73" s="90">
         <v>256</v>
       </c>
-      <c r="J73" s="126"/>
-      <c r="K73" s="128"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="92"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -17240,10 +18115,10 @@
       <c r="B74" s="37">
         <v>8</v>
       </c>
-      <c r="C74" s="125" t="s">
+      <c r="C74" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D74" s="125" t="s">
+      <c r="D74" s="89" t="s">
         <v>160</v>
       </c>
       <c r="E74" s="39" t="s">
@@ -17252,17 +18127,17 @@
       <c r="F74" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G74" s="126" t="s">
+      <c r="G74" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H74" s="127" t="s">
+      <c r="H74" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="I74" s="126">
+      <c r="I74" s="90">
         <v>11</v>
       </c>
-      <c r="J74" s="126"/>
-      <c r="K74" s="128"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="92"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -17303,16 +18178,16 @@
     </row>
     <row r="76" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A76" s="13"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="129"/>
-      <c r="D76" s="129"/>
-      <c r="E76" s="130"/>
-      <c r="F76" s="130"/>
-      <c r="G76" s="130"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="130"/>
-      <c r="J76" s="130"/>
-      <c r="K76" s="130"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="95"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="94"/>
+      <c r="K76" s="94"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -17615,10 +18490,10 @@
       <c r="B87" s="37">
         <v>7</v>
       </c>
-      <c r="C87" s="133" t="s">
+      <c r="C87" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="133" t="s">
+      <c r="D87" s="97" t="s">
         <v>161</v>
       </c>
       <c r="E87" s="39" t="s">
@@ -17627,17 +18502,17 @@
       <c r="F87" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G87" s="134" t="s">
+      <c r="G87" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="H87" s="135" t="s">
+      <c r="H87" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="I87" s="134">
+      <c r="I87" s="98">
         <v>11</v>
       </c>
-      <c r="J87" s="134"/>
-      <c r="K87" s="136"/>
+      <c r="J87" s="98"/>
+      <c r="K87" s="100"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -17648,10 +18523,10 @@
       <c r="B88" s="37">
         <v>8</v>
       </c>
-      <c r="C88" s="125" t="s">
+      <c r="C88" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D88" s="125" t="s">
+      <c r="D88" s="89" t="s">
         <v>162</v>
       </c>
       <c r="E88" s="39" t="s">
@@ -17660,17 +18535,17 @@
       <c r="F88" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G88" s="126" t="s">
+      <c r="G88" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H88" s="127" t="s">
+      <c r="H88" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I88" s="126">
+      <c r="I88" s="90">
         <v>256</v>
       </c>
-      <c r="J88" s="126"/>
-      <c r="K88" s="128"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="92"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -17681,10 +18556,10 @@
       <c r="B89" s="37">
         <v>9</v>
       </c>
-      <c r="C89" s="125" t="s">
+      <c r="C89" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D89" s="125" t="s">
+      <c r="D89" s="89" t="s">
         <v>160</v>
       </c>
       <c r="E89" s="39" t="s">
@@ -17693,17 +18568,17 @@
       <c r="F89" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G89" s="126" t="s">
+      <c r="G89" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H89" s="127" t="s">
+      <c r="H89" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="I89" s="126">
+      <c r="I89" s="90">
         <v>11</v>
       </c>
-      <c r="J89" s="126"/>
-      <c r="K89" s="128"/>
+      <c r="J89" s="90"/>
+      <c r="K89" s="92"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -17744,16 +18619,16 @@
     </row>
     <row r="91" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A91" s="13"/>
-      <c r="B91" s="129"/>
-      <c r="C91" s="129"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="130"/>
-      <c r="F91" s="130"/>
-      <c r="G91" s="130"/>
-      <c r="H91" s="131"/>
-      <c r="I91" s="130"/>
-      <c r="J91" s="130"/>
-      <c r="K91" s="130"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="94"/>
+      <c r="H91" s="95"/>
+      <c r="I91" s="94"/>
+      <c r="J91" s="94"/>
+      <c r="K91" s="94"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -17761,16 +18636,16 @@
     </row>
     <row r="92" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A92" s="13"/>
-      <c r="B92" s="129"/>
-      <c r="C92" s="129"/>
-      <c r="D92" s="129"/>
-      <c r="E92" s="130"/>
-      <c r="F92" s="130"/>
-      <c r="G92" s="130"/>
-      <c r="H92" s="131"/>
-      <c r="I92" s="130"/>
-      <c r="J92" s="130"/>
-      <c r="K92" s="130"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="94"/>
+      <c r="H92" s="95"/>
+      <c r="I92" s="94"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="94"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
@@ -17778,16 +18653,16 @@
     </row>
     <row r="93" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="13"/>
-      <c r="B93" s="129"/>
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="130"/>
-      <c r="F93" s="130"/>
-      <c r="G93" s="130"/>
-      <c r="H93" s="131"/>
-      <c r="I93" s="130"/>
-      <c r="J93" s="130"/>
-      <c r="K93" s="130"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="94"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="94"/>
+      <c r="H93" s="95"/>
+      <c r="I93" s="94"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="94"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -18066,32 +18941,32 @@
       <c r="N102" s="6"/>
       <c r="O102" s="14"/>
     </row>
-    <row r="103" spans="1:15" s="150" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A103" s="143"/>
-      <c r="B103" s="144">
+    <row r="103" spans="1:15" s="114" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A103" s="107"/>
+      <c r="B103" s="108">
         <v>7</v>
       </c>
-      <c r="C103" s="145" t="s">
+      <c r="C103" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="145"/>
-      <c r="E103" s="146" t="s">
+      <c r="D103" s="109"/>
+      <c r="E103" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="F103" s="146" t="s">
+      <c r="F103" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="G103" s="146" t="s">
+      <c r="G103" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="H103" s="145"/>
-      <c r="I103" s="146"/>
-      <c r="J103" s="146"/>
-      <c r="K103" s="147"/>
-      <c r="L103" s="148"/>
-      <c r="M103" s="148"/>
-      <c r="N103" s="148"/>
-      <c r="O103" s="149"/>
+      <c r="H103" s="109"/>
+      <c r="I103" s="110"/>
+      <c r="J103" s="110"/>
+      <c r="K103" s="111"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="112"/>
+      <c r="N103" s="112"/>
+      <c r="O103" s="113"/>
     </row>
     <row r="104" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A104" s="13"/>
@@ -18190,32 +19065,32 @@
       <c r="N106" s="6"/>
       <c r="O106" s="14"/>
     </row>
-    <row r="107" spans="1:15" s="150" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A107" s="143"/>
-      <c r="B107" s="144">
+    <row r="107" spans="1:15" s="114" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A107" s="107"/>
+      <c r="B107" s="108">
         <v>11</v>
       </c>
-      <c r="C107" s="145" t="s">
+      <c r="C107" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="D107" s="145" t="s">
+      <c r="D107" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="E107" s="146" t="s">
+      <c r="E107" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="F107" s="146" t="s">
+      <c r="F107" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="G107" s="146"/>
-      <c r="H107" s="145"/>
-      <c r="I107" s="146"/>
-      <c r="J107" s="146"/>
-      <c r="K107" s="147"/>
-      <c r="L107" s="148"/>
-      <c r="M107" s="148"/>
-      <c r="N107" s="148"/>
-      <c r="O107" s="149"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="109"/>
+      <c r="I107" s="110"/>
+      <c r="J107" s="110"/>
+      <c r="K107" s="111"/>
+      <c r="L107" s="112"/>
+      <c r="M107" s="112"/>
+      <c r="N107" s="112"/>
+      <c r="O107" s="113"/>
     </row>
     <row r="108" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A108" s="13"/>
@@ -18257,10 +19132,10 @@
       <c r="B109" s="37">
         <v>13</v>
       </c>
-      <c r="C109" s="133" t="s">
+      <c r="C109" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D109" s="133" t="s">
+      <c r="D109" s="97" t="s">
         <v>161</v>
       </c>
       <c r="E109" s="39" t="s">
@@ -18269,17 +19144,17 @@
       <c r="F109" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G109" s="134" t="s">
+      <c r="G109" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="H109" s="135" t="s">
+      <c r="H109" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="I109" s="134">
+      <c r="I109" s="98">
         <v>11</v>
       </c>
-      <c r="J109" s="134"/>
-      <c r="K109" s="136"/>
+      <c r="J109" s="98"/>
+      <c r="K109" s="100"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
@@ -18290,10 +19165,10 @@
       <c r="B110" s="37">
         <v>14</v>
       </c>
-      <c r="C110" s="125" t="s">
+      <c r="C110" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D110" s="125" t="s">
+      <c r="D110" s="89" t="s">
         <v>162</v>
       </c>
       <c r="E110" s="39" t="s">
@@ -18302,17 +19177,17 @@
       <c r="F110" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G110" s="126" t="s">
+      <c r="G110" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H110" s="127" t="s">
+      <c r="H110" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I110" s="126">
+      <c r="I110" s="90">
         <v>256</v>
       </c>
-      <c r="J110" s="126"/>
-      <c r="K110" s="128"/>
+      <c r="J110" s="90"/>
+      <c r="K110" s="92"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
@@ -18323,10 +19198,10 @@
       <c r="B111" s="37">
         <v>15</v>
       </c>
-      <c r="C111" s="125" t="s">
+      <c r="C111" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D111" s="125" t="s">
+      <c r="D111" s="89" t="s">
         <v>160</v>
       </c>
       <c r="E111" s="39" t="s">
@@ -18335,17 +19210,17 @@
       <c r="F111" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G111" s="126" t="s">
+      <c r="G111" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H111" s="127" t="s">
+      <c r="H111" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="I111" s="126">
+      <c r="I111" s="90">
         <v>11</v>
       </c>
-      <c r="J111" s="126"/>
-      <c r="K111" s="128"/>
+      <c r="J111" s="90"/>
+      <c r="K111" s="92"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
@@ -18386,16 +19261,16 @@
     </row>
     <row r="113" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A113" s="13"/>
-      <c r="B113" s="129"/>
-      <c r="C113" s="129"/>
-      <c r="D113" s="129"/>
-      <c r="E113" s="130"/>
-      <c r="F113" s="130"/>
-      <c r="G113" s="130"/>
-      <c r="H113" s="131"/>
-      <c r="I113" s="130"/>
-      <c r="J113" s="130"/>
-      <c r="K113" s="130"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="94"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="94"/>
+      <c r="H113" s="95"/>
+      <c r="I113" s="94"/>
+      <c r="J113" s="94"/>
+      <c r="K113" s="94"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
@@ -18403,41 +19278,41 @@
     </row>
     <row r="114" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="13"/>
-      <c r="B114" s="129"/>
-      <c r="C114" s="129"/>
-      <c r="D114" s="129"/>
-      <c r="E114" s="130"/>
-      <c r="F114" s="130"/>
-      <c r="G114" s="130"/>
-      <c r="H114" s="131"/>
-      <c r="I114" s="130"/>
-      <c r="J114" s="130"/>
-      <c r="K114" s="130"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="93"/>
+      <c r="D114" s="93"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
+      <c r="G114" s="94"/>
+      <c r="H114" s="95"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="94"/>
+      <c r="K114" s="94"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
       <c r="O114" s="14"/>
     </row>
-    <row r="115" spans="1:15" s="150" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="143"/>
-      <c r="B115" s="151" t="s">
+    <row r="115" spans="1:15" s="114" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="107"/>
+      <c r="B115" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="148"/>
-      <c r="D115" s="152" t="s">
+      <c r="C115" s="112"/>
+      <c r="D115" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="E115" s="153"/>
-      <c r="F115" s="153"/>
-      <c r="G115" s="154"/>
-      <c r="H115" s="148"/>
-      <c r="I115" s="148"/>
-      <c r="J115" s="148"/>
-      <c r="K115" s="148"/>
-      <c r="L115" s="148"/>
-      <c r="M115" s="148"/>
-      <c r="N115" s="148"/>
-      <c r="O115" s="149"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="117"/>
+      <c r="G115" s="118"/>
+      <c r="H115" s="112"/>
+      <c r="I115" s="112"/>
+      <c r="J115" s="112"/>
+      <c r="K115" s="112"/>
+      <c r="L115" s="112"/>
+      <c r="M115" s="112"/>
+      <c r="N115" s="112"/>
+      <c r="O115" s="113"/>
     </row>
     <row r="116" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
@@ -18495,7 +19370,7 @@
     </row>
     <row r="118" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A118" s="13"/>
-      <c r="B118" s="124">
+      <c r="B118" s="88">
         <v>1</v>
       </c>
       <c r="C118" s="38" t="s">
@@ -18520,7 +19395,7 @@
         <v>11</v>
       </c>
       <c r="J118" s="39"/>
-      <c r="K118" s="128"/>
+      <c r="K118" s="92"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
@@ -18531,17 +19406,17 @@
       <c r="B119" s="37">
         <v>2</v>
       </c>
-      <c r="C119" s="142" t="s">
+      <c r="C119" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="D119" s="142"/>
-      <c r="E119" s="142"/>
-      <c r="F119" s="142"/>
-      <c r="G119" s="142"/>
-      <c r="H119" s="142"/>
-      <c r="I119" s="142"/>
-      <c r="J119" s="155"/>
-      <c r="K119" s="156"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="106"/>
+      <c r="F119" s="106"/>
+      <c r="G119" s="106"/>
+      <c r="H119" s="106"/>
+      <c r="I119" s="106"/>
+      <c r="J119" s="119"/>
+      <c r="K119" s="120"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
@@ -18549,20 +19424,20 @@
     </row>
     <row r="120" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A120" s="13"/>
-      <c r="B120" s="138">
+      <c r="B120" s="102">
         <v>3</v>
       </c>
-      <c r="C120" s="142" t="s">
+      <c r="C120" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="D120" s="142"/>
-      <c r="E120" s="142"/>
-      <c r="F120" s="142"/>
-      <c r="G120" s="142"/>
-      <c r="H120" s="142"/>
-      <c r="I120" s="142"/>
-      <c r="J120" s="155"/>
-      <c r="K120" s="156"/>
+      <c r="D120" s="106"/>
+      <c r="E120" s="106"/>
+      <c r="F120" s="106"/>
+      <c r="G120" s="106"/>
+      <c r="H120" s="106"/>
+      <c r="I120" s="106"/>
+      <c r="J120" s="119"/>
+      <c r="K120" s="120"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
@@ -18595,7 +19470,7 @@
         <v>11</v>
       </c>
       <c r="J121" s="39"/>
-      <c r="K121" s="141" t="s">
+      <c r="K121" s="105" t="s">
         <v>172</v>
       </c>
       <c r="L121" s="6"/>
@@ -18608,10 +19483,10 @@
       <c r="B122" s="37">
         <v>5</v>
       </c>
-      <c r="C122" s="133" t="s">
+      <c r="C122" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D122" s="133" t="s">
+      <c r="D122" s="97" t="s">
         <v>161</v>
       </c>
       <c r="E122" s="39" t="s">
@@ -18620,17 +19495,17 @@
       <c r="F122" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G122" s="134" t="s">
+      <c r="G122" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="H122" s="135" t="s">
+      <c r="H122" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="I122" s="134">
+      <c r="I122" s="98">
         <v>11</v>
       </c>
-      <c r="J122" s="134"/>
-      <c r="K122" s="136"/>
+      <c r="J122" s="98"/>
+      <c r="K122" s="100"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
@@ -18641,10 +19516,10 @@
       <c r="B123" s="37">
         <v>6</v>
       </c>
-      <c r="C123" s="125" t="s">
+      <c r="C123" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D123" s="125" t="s">
+      <c r="D123" s="89" t="s">
         <v>162</v>
       </c>
       <c r="E123" s="39" t="s">
@@ -18653,17 +19528,17 @@
       <c r="F123" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G123" s="126" t="s">
+      <c r="G123" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H123" s="127" t="s">
+      <c r="H123" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I123" s="126">
+      <c r="I123" s="90">
         <v>256</v>
       </c>
-      <c r="J123" s="126"/>
-      <c r="K123" s="128"/>
+      <c r="J123" s="90"/>
+      <c r="K123" s="92"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
@@ -18674,10 +19549,10 @@
       <c r="B124" s="37">
         <v>7</v>
       </c>
-      <c r="C124" s="125" t="s">
+      <c r="C124" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D124" s="125" t="s">
+      <c r="D124" s="89" t="s">
         <v>160</v>
       </c>
       <c r="E124" s="39" t="s">
@@ -18686,17 +19561,17 @@
       <c r="F124" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G124" s="126" t="s">
+      <c r="G124" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H124" s="127" t="s">
+      <c r="H124" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="I124" s="126">
+      <c r="I124" s="90">
         <v>11</v>
       </c>
-      <c r="J124" s="126"/>
-      <c r="K124" s="128"/>
+      <c r="J124" s="90"/>
+      <c r="K124" s="92"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
@@ -18737,16 +19612,16 @@
     </row>
     <row r="126" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
-      <c r="B126" s="129"/>
-      <c r="C126" s="129"/>
-      <c r="D126" s="129"/>
-      <c r="E126" s="129"/>
-      <c r="F126" s="129"/>
-      <c r="G126" s="129"/>
-      <c r="H126" s="129"/>
-      <c r="I126" s="129"/>
-      <c r="J126" s="129"/>
-      <c r="K126" s="129"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="93"/>
+      <c r="D126" s="93"/>
+      <c r="E126" s="93"/>
+      <c r="F126" s="93"/>
+      <c r="G126" s="93"/>
+      <c r="H126" s="93"/>
+      <c r="I126" s="93"/>
+      <c r="J126" s="93"/>
+      <c r="K126" s="93"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
@@ -18754,16 +19629,16 @@
     </row>
     <row r="127" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
-      <c r="B127" s="129"/>
-      <c r="C127" s="129"/>
-      <c r="D127" s="129"/>
-      <c r="E127" s="129"/>
-      <c r="F127" s="129"/>
-      <c r="G127" s="129"/>
-      <c r="H127" s="129"/>
-      <c r="I127" s="129"/>
-      <c r="J127" s="129"/>
-      <c r="K127" s="129"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="93"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="93"/>
+      <c r="G127" s="93"/>
+      <c r="H127" s="93"/>
+      <c r="I127" s="93"/>
+      <c r="J127" s="93"/>
+      <c r="K127" s="93"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
@@ -18771,16 +19646,16 @@
     </row>
     <row r="128" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
-      <c r="B128" s="129"/>
-      <c r="C128" s="129"/>
-      <c r="D128" s="129"/>
-      <c r="E128" s="129"/>
-      <c r="F128" s="129"/>
-      <c r="G128" s="129"/>
-      <c r="H128" s="129"/>
-      <c r="I128" s="129"/>
-      <c r="J128" s="129"/>
-      <c r="K128" s="129"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="93"/>
+      <c r="E128" s="93"/>
+      <c r="F128" s="93"/>
+      <c r="G128" s="93"/>
+      <c r="H128" s="93"/>
+      <c r="I128" s="93"/>
+      <c r="J128" s="93"/>
+      <c r="K128" s="93"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
@@ -18788,16 +19663,16 @@
     </row>
     <row r="129" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
-      <c r="B129" s="129"/>
-      <c r="C129" s="129"/>
-      <c r="D129" s="129"/>
-      <c r="E129" s="129"/>
-      <c r="F129" s="129"/>
-      <c r="G129" s="129"/>
-      <c r="H129" s="129"/>
-      <c r="I129" s="129"/>
-      <c r="J129" s="129"/>
-      <c r="K129" s="129"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="93"/>
+      <c r="E129" s="93"/>
+      <c r="F129" s="93"/>
+      <c r="G129" s="93"/>
+      <c r="H129" s="93"/>
+      <c r="I129" s="93"/>
+      <c r="J129" s="93"/>
+      <c r="K129" s="93"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
@@ -18805,16 +19680,16 @@
     </row>
     <row r="130" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
-      <c r="B130" s="129"/>
-      <c r="C130" s="129"/>
-      <c r="D130" s="129"/>
-      <c r="E130" s="129"/>
-      <c r="F130" s="129"/>
-      <c r="G130" s="129"/>
-      <c r="H130" s="129"/>
-      <c r="I130" s="129"/>
-      <c r="J130" s="129"/>
-      <c r="K130" s="129"/>
+      <c r="B130" s="93"/>
+      <c r="C130" s="93"/>
+      <c r="D130" s="93"/>
+      <c r="E130" s="93"/>
+      <c r="F130" s="93"/>
+      <c r="G130" s="93"/>
+      <c r="H130" s="93"/>
+      <c r="I130" s="93"/>
+      <c r="J130" s="93"/>
+      <c r="K130" s="93"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
@@ -18822,16 +19697,16 @@
     </row>
     <row r="131" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
-      <c r="B131" s="129"/>
-      <c r="C131" s="129"/>
-      <c r="D131" s="129"/>
-      <c r="E131" s="129"/>
-      <c r="F131" s="129"/>
-      <c r="G131" s="129"/>
-      <c r="H131" s="129"/>
-      <c r="I131" s="129"/>
-      <c r="J131" s="129"/>
-      <c r="K131" s="129"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="93"/>
+      <c r="E131" s="93"/>
+      <c r="F131" s="93"/>
+      <c r="G131" s="93"/>
+      <c r="H131" s="93"/>
+      <c r="I131" s="93"/>
+      <c r="J131" s="93"/>
+      <c r="K131" s="93"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
@@ -18839,16 +19714,16 @@
     </row>
     <row r="132" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
-      <c r="B132" s="129"/>
-      <c r="C132" s="129"/>
-      <c r="D132" s="129"/>
-      <c r="E132" s="129"/>
-      <c r="F132" s="129"/>
-      <c r="G132" s="129"/>
-      <c r="H132" s="129"/>
-      <c r="I132" s="129"/>
-      <c r="J132" s="129"/>
-      <c r="K132" s="129"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="93"/>
+      <c r="E132" s="93"/>
+      <c r="F132" s="93"/>
+      <c r="G132" s="93"/>
+      <c r="H132" s="93"/>
+      <c r="I132" s="93"/>
+      <c r="J132" s="93"/>
+      <c r="K132" s="93"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
       <c r="N132" s="6"/>
@@ -18856,16 +19731,16 @@
     </row>
     <row r="133" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
-      <c r="B133" s="129"/>
-      <c r="C133" s="129"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="129"/>
-      <c r="F133" s="129"/>
-      <c r="G133" s="129"/>
-      <c r="H133" s="129"/>
-      <c r="I133" s="129"/>
-      <c r="J133" s="129"/>
-      <c r="K133" s="129"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="93"/>
+      <c r="D133" s="93"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="93"/>
+      <c r="G133" s="93"/>
+      <c r="H133" s="93"/>
+      <c r="I133" s="93"/>
+      <c r="J133" s="93"/>
+      <c r="K133" s="93"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
@@ -18873,16 +19748,16 @@
     </row>
     <row r="134" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
-      <c r="B134" s="129"/>
-      <c r="C134" s="129"/>
-      <c r="D134" s="129"/>
-      <c r="E134" s="129"/>
-      <c r="F134" s="129"/>
-      <c r="G134" s="129"/>
-      <c r="H134" s="129"/>
-      <c r="I134" s="129"/>
-      <c r="J134" s="129"/>
-      <c r="K134" s="129"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="93"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="93"/>
+      <c r="G134" s="93"/>
+      <c r="H134" s="93"/>
+      <c r="I134" s="93"/>
+      <c r="J134" s="93"/>
+      <c r="K134" s="93"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
       <c r="N134" s="6"/>
@@ -18890,16 +19765,16 @@
     </row>
     <row r="135" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
-      <c r="B135" s="129"/>
-      <c r="C135" s="129"/>
-      <c r="D135" s="129"/>
-      <c r="E135" s="129"/>
-      <c r="F135" s="129"/>
-      <c r="G135" s="129"/>
-      <c r="H135" s="129"/>
-      <c r="I135" s="129"/>
-      <c r="J135" s="129"/>
-      <c r="K135" s="129"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="93"/>
+      <c r="D135" s="93"/>
+      <c r="E135" s="93"/>
+      <c r="F135" s="93"/>
+      <c r="G135" s="93"/>
+      <c r="H135" s="93"/>
+      <c r="I135" s="93"/>
+      <c r="J135" s="93"/>
+      <c r="K135" s="93"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
@@ -18907,16 +19782,16 @@
     </row>
     <row r="136" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
-      <c r="B136" s="129"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="129"/>
-      <c r="E136" s="129"/>
-      <c r="F136" s="129"/>
-      <c r="G136" s="129"/>
-      <c r="H136" s="129"/>
-      <c r="I136" s="129"/>
-      <c r="J136" s="129"/>
-      <c r="K136" s="129"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="93"/>
+      <c r="E136" s="93"/>
+      <c r="F136" s="93"/>
+      <c r="G136" s="93"/>
+      <c r="H136" s="93"/>
+      <c r="I136" s="93"/>
+      <c r="J136" s="93"/>
+      <c r="K136" s="93"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
@@ -18924,16 +19799,16 @@
     </row>
     <row r="137" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
-      <c r="B137" s="129"/>
-      <c r="C137" s="129"/>
-      <c r="D137" s="129"/>
-      <c r="E137" s="129"/>
-      <c r="F137" s="129"/>
-      <c r="G137" s="129"/>
-      <c r="H137" s="129"/>
-      <c r="I137" s="129"/>
-      <c r="J137" s="129"/>
-      <c r="K137" s="129"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="93"/>
+      <c r="E137" s="93"/>
+      <c r="F137" s="93"/>
+      <c r="G137" s="93"/>
+      <c r="H137" s="93"/>
+      <c r="I137" s="93"/>
+      <c r="J137" s="93"/>
+      <c r="K137" s="93"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
@@ -18941,16 +19816,16 @@
     </row>
     <row r="138" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
-      <c r="B138" s="129"/>
-      <c r="C138" s="129"/>
-      <c r="D138" s="129"/>
-      <c r="E138" s="129"/>
-      <c r="F138" s="129"/>
-      <c r="G138" s="129"/>
-      <c r="H138" s="129"/>
-      <c r="I138" s="129"/>
-      <c r="J138" s="129"/>
-      <c r="K138" s="129"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="93"/>
+      <c r="D138" s="93"/>
+      <c r="E138" s="93"/>
+      <c r="F138" s="93"/>
+      <c r="G138" s="93"/>
+      <c r="H138" s="93"/>
+      <c r="I138" s="93"/>
+      <c r="J138" s="93"/>
+      <c r="K138" s="93"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
@@ -18958,16 +19833,16 @@
     </row>
     <row r="139" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
-      <c r="B139" s="129"/>
-      <c r="C139" s="129"/>
-      <c r="D139" s="129"/>
-      <c r="E139" s="130"/>
-      <c r="F139" s="130"/>
-      <c r="G139" s="130"/>
-      <c r="H139" s="131"/>
-      <c r="I139" s="130"/>
-      <c r="J139" s="130"/>
-      <c r="K139" s="130"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="93"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="94"/>
+      <c r="G139" s="94"/>
+      <c r="H139" s="95"/>
+      <c r="I139" s="94"/>
+      <c r="J139" s="94"/>
+      <c r="K139" s="94"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
@@ -18975,16 +19850,16 @@
     </row>
     <row r="140" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A140" s="13"/>
-      <c r="B140" s="129"/>
-      <c r="C140" s="129"/>
-      <c r="D140" s="129"/>
-      <c r="E140" s="130"/>
-      <c r="F140" s="130"/>
-      <c r="G140" s="130"/>
-      <c r="H140" s="131"/>
-      <c r="I140" s="130"/>
-      <c r="J140" s="130"/>
-      <c r="K140" s="130"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="93"/>
+      <c r="E140" s="94"/>
+      <c r="F140" s="94"/>
+      <c r="G140" s="94"/>
+      <c r="H140" s="95"/>
+      <c r="I140" s="94"/>
+      <c r="J140" s="94"/>
+      <c r="K140" s="94"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
@@ -19111,16 +19986,16 @@
     </row>
     <row r="148" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A148" s="13"/>
-      <c r="B148" s="129"/>
-      <c r="C148" s="129"/>
-      <c r="D148" s="129"/>
-      <c r="E148" s="130"/>
-      <c r="F148" s="130"/>
-      <c r="G148" s="130"/>
-      <c r="H148" s="131"/>
-      <c r="I148" s="130"/>
-      <c r="J148" s="130"/>
-      <c r="K148" s="130"/>
+      <c r="B148" s="93"/>
+      <c r="C148" s="93"/>
+      <c r="D148" s="93"/>
+      <c r="E148" s="94"/>
+      <c r="F148" s="94"/>
+      <c r="G148" s="94"/>
+      <c r="H148" s="95"/>
+      <c r="I148" s="94"/>
+      <c r="J148" s="94"/>
+      <c r="K148" s="94"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
@@ -19128,16 +20003,16 @@
     </row>
     <row r="149" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A149" s="13"/>
-      <c r="B149" s="129"/>
-      <c r="C149" s="129"/>
-      <c r="D149" s="129"/>
-      <c r="E149" s="130"/>
-      <c r="F149" s="130"/>
-      <c r="G149" s="130"/>
-      <c r="H149" s="131"/>
-      <c r="I149" s="130"/>
-      <c r="J149" s="130"/>
-      <c r="K149" s="130"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="93"/>
+      <c r="E149" s="94"/>
+      <c r="F149" s="94"/>
+      <c r="G149" s="94"/>
+      <c r="H149" s="95"/>
+      <c r="I149" s="94"/>
+      <c r="J149" s="94"/>
+      <c r="K149" s="94"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
@@ -19145,16 +20020,16 @@
     </row>
     <row r="150" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A150" s="13"/>
-      <c r="B150" s="129"/>
-      <c r="C150" s="129"/>
-      <c r="D150" s="129"/>
-      <c r="E150" s="130"/>
-      <c r="F150" s="130"/>
-      <c r="G150" s="130"/>
-      <c r="H150" s="131"/>
-      <c r="I150" s="130"/>
-      <c r="J150" s="130"/>
-      <c r="K150" s="130"/>
+      <c r="B150" s="93"/>
+      <c r="C150" s="93"/>
+      <c r="D150" s="93"/>
+      <c r="E150" s="94"/>
+      <c r="F150" s="94"/>
+      <c r="G150" s="94"/>
+      <c r="H150" s="95"/>
+      <c r="I150" s="94"/>
+      <c r="J150" s="94"/>
+      <c r="K150" s="94"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
@@ -19162,16 +20037,16 @@
     </row>
     <row r="151" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A151" s="13"/>
-      <c r="B151" s="129"/>
-      <c r="C151" s="129"/>
-      <c r="D151" s="129"/>
-      <c r="E151" s="130"/>
-      <c r="F151" s="130"/>
-      <c r="G151" s="130"/>
-      <c r="H151" s="131"/>
-      <c r="I151" s="130"/>
-      <c r="J151" s="130"/>
-      <c r="K151" s="130"/>
+      <c r="B151" s="93"/>
+      <c r="C151" s="93"/>
+      <c r="D151" s="93"/>
+      <c r="E151" s="94"/>
+      <c r="F151" s="94"/>
+      <c r="G151" s="94"/>
+      <c r="H151" s="95"/>
+      <c r="I151" s="94"/>
+      <c r="J151" s="94"/>
+      <c r="K151" s="94"/>
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
@@ -19230,16 +20105,16 @@
     </row>
     <row r="155" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A155" s="13"/>
-      <c r="B155" s="129"/>
-      <c r="C155" s="129"/>
-      <c r="D155" s="129"/>
-      <c r="E155" s="130"/>
-      <c r="F155" s="130"/>
-      <c r="G155" s="130"/>
-      <c r="H155" s="131"/>
-      <c r="I155" s="130"/>
-      <c r="J155" s="130"/>
-      <c r="K155" s="130"/>
+      <c r="B155" s="93"/>
+      <c r="C155" s="93"/>
+      <c r="D155" s="93"/>
+      <c r="E155" s="94"/>
+      <c r="F155" s="94"/>
+      <c r="G155" s="94"/>
+      <c r="H155" s="95"/>
+      <c r="I155" s="94"/>
+      <c r="J155" s="94"/>
+      <c r="K155" s="94"/>
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
@@ -19247,16 +20122,16 @@
     </row>
     <row r="156" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A156" s="13"/>
-      <c r="B156" s="129"/>
-      <c r="C156" s="129"/>
-      <c r="D156" s="129"/>
-      <c r="E156" s="130"/>
-      <c r="F156" s="130"/>
-      <c r="G156" s="130"/>
-      <c r="H156" s="131"/>
-      <c r="I156" s="130"/>
-      <c r="J156" s="130"/>
-      <c r="K156" s="130"/>
+      <c r="B156" s="93"/>
+      <c r="C156" s="93"/>
+      <c r="D156" s="93"/>
+      <c r="E156" s="94"/>
+      <c r="F156" s="94"/>
+      <c r="G156" s="94"/>
+      <c r="H156" s="95"/>
+      <c r="I156" s="94"/>
+      <c r="J156" s="94"/>
+      <c r="K156" s="94"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF25FF8A-1023-4664-A31B-11769AE5B361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3088FD31-D460-47ED-874D-76BED1F0253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1862,6 +1862,23 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1966,23 +1983,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -9574,22 +9574,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="146"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -9624,22 +9624,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="126"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="143"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -9947,10 +9947,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
-      <c r="B42" s="122" t="s">
+      <c r="B42" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="122"/>
+      <c r="C42" s="139"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -10074,13 +10074,13 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="123" t="s">
+      <c r="K48" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="123"/>
+      <c r="L48" s="140"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44702.524398611109</v>
+        <v>44702.538515624998</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -10095,13 +10095,13 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="123" t="s">
+      <c r="K49" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="123"/>
+      <c r="L49" s="140"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44702.524398611109</v>
+        <v>44702.538515624998</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -10164,54 +10164,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="138">
+      <c r="P2" s="155">
         <v>44698</v>
       </c>
-      <c r="Q2" s="139"/>
+      <c r="Q2" s="156"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="140">
+      <c r="P3" s="157">
         <v>44698</v>
       </c>
-      <c r="Q3" s="141"/>
+      <c r="Q3" s="158"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -11253,9 +11253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11272,50 +11270,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="138">
+      <c r="N2" s="155">
         <v>44698</v>
       </c>
-      <c r="O2" s="139"/>
+      <c r="O2" s="156"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="140">
+      <c r="N3" s="157">
         <v>44698</v>
       </c>
-      <c r="O3" s="141"/>
+      <c r="O3" s="158"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -11455,812 +11453,812 @@
       <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="171"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="59"/>
-      <c r="C9" s="172" t="s">
+      <c r="C9" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="174"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
       <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="158"/>
-      <c r="B10" s="159">
+      <c r="A10" s="122"/>
+      <c r="B10" s="123">
         <v>1</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="126">
         <v>44698</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="126">
         <v>44703</v>
       </c>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162">
+      <c r="G10" s="125"/>
+      <c r="H10" s="126">
         <v>44698</v>
       </c>
-      <c r="I10" s="162">
+      <c r="I10" s="126">
         <v>44699</v>
       </c>
-      <c r="J10" s="163"/>
-      <c r="K10" s="164"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="158"/>
-      <c r="B11" s="159">
+      <c r="A11" s="122"/>
+      <c r="B11" s="123">
         <v>2</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="124" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="126">
         <v>44698</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="126">
         <v>44703</v>
       </c>
-      <c r="G11" s="161"/>
-      <c r="H11" s="162">
+      <c r="G11" s="125"/>
+      <c r="H11" s="126">
         <v>44698</v>
       </c>
-      <c r="I11" s="162">
+      <c r="I11" s="126">
         <v>44699</v>
       </c>
-      <c r="J11" s="163"/>
-      <c r="K11" s="164"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="158"/>
-      <c r="B12" s="159">
+      <c r="A12" s="122"/>
+      <c r="B12" s="123">
         <v>3</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="126">
         <v>44698</v>
       </c>
-      <c r="F12" s="162">
+      <c r="F12" s="126">
         <v>44703</v>
       </c>
-      <c r="G12" s="161"/>
-      <c r="H12" s="162">
+      <c r="G12" s="125"/>
+      <c r="H12" s="126">
         <v>44698</v>
       </c>
-      <c r="I12" s="162">
+      <c r="I12" s="126">
         <v>44699</v>
       </c>
-      <c r="J12" s="163"/>
-      <c r="K12" s="164"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="128"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="165"/>
-      <c r="B13" s="166">
+      <c r="A13" s="129"/>
+      <c r="B13" s="130">
         <v>4</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="168">
+      <c r="E13" s="132">
         <v>44698</v>
       </c>
-      <c r="F13" s="168">
+      <c r="F13" s="132">
         <v>44703</v>
       </c>
-      <c r="G13" s="167"/>
-      <c r="H13" s="168">
+      <c r="G13" s="131"/>
+      <c r="H13" s="132">
         <v>44698</v>
       </c>
-      <c r="I13" s="168">
+      <c r="I13" s="132">
         <v>44699</v>
       </c>
-      <c r="J13" s="169"/>
-      <c r="K13" s="170"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="134"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="158"/>
-      <c r="B14" s="159">
+      <c r="A14" s="122"/>
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="162">
+      <c r="E14" s="126">
         <v>44698</v>
       </c>
-      <c r="F14" s="162">
+      <c r="F14" s="126">
         <v>44703</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="162">
+      <c r="G14" s="125"/>
+      <c r="H14" s="126">
         <v>44698</v>
       </c>
-      <c r="I14" s="162">
+      <c r="I14" s="126">
         <v>44699</v>
       </c>
-      <c r="J14" s="163"/>
-      <c r="K14" s="164"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="128"/>
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166">
+      <c r="A15" s="129"/>
+      <c r="B15" s="130">
         <v>6</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="167" t="s">
+      <c r="D15" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="168">
+      <c r="E15" s="132">
         <v>44698</v>
       </c>
-      <c r="F15" s="168">
+      <c r="F15" s="132">
         <v>44703</v>
       </c>
-      <c r="G15" s="167"/>
-      <c r="H15" s="168">
+      <c r="G15" s="131"/>
+      <c r="H15" s="132">
         <v>44698</v>
       </c>
-      <c r="I15" s="168">
+      <c r="I15" s="132">
         <v>44699</v>
       </c>
-      <c r="J15" s="169"/>
-      <c r="K15" s="170"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="134"/>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="158"/>
-      <c r="B16" s="159">
+      <c r="A16" s="122"/>
+      <c r="B16" s="123">
         <v>7</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="126">
         <v>44698</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="126">
         <v>44703</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162">
+      <c r="G16" s="125"/>
+      <c r="H16" s="126">
         <v>44698</v>
       </c>
-      <c r="I16" s="162">
+      <c r="I16" s="126">
         <v>44700</v>
       </c>
-      <c r="J16" s="163"/>
-      <c r="K16" s="164"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
     </row>
     <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166">
+      <c r="A17" s="129"/>
+      <c r="B17" s="130">
         <v>8</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="168">
+      <c r="E17" s="132">
         <v>44698</v>
       </c>
-      <c r="F17" s="168">
+      <c r="F17" s="132">
         <v>44703</v>
       </c>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168">
+      <c r="G17" s="131"/>
+      <c r="H17" s="132">
         <v>44698</v>
       </c>
-      <c r="I17" s="168">
+      <c r="I17" s="132">
         <v>44700</v>
       </c>
-      <c r="J17" s="169"/>
-      <c r="K17" s="170"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="134"/>
     </row>
     <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="165"/>
-      <c r="B18" s="166">
+      <c r="A18" s="129"/>
+      <c r="B18" s="130">
         <v>9</v>
       </c>
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="124" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="168">
+      <c r="E18" s="132">
         <v>44698</v>
       </c>
-      <c r="F18" s="168">
+      <c r="F18" s="132">
         <v>44703</v>
       </c>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168">
+      <c r="G18" s="131"/>
+      <c r="H18" s="132">
         <v>44698</v>
       </c>
-      <c r="I18" s="168">
+      <c r="I18" s="132">
         <v>44700</v>
       </c>
-      <c r="J18" s="169"/>
-      <c r="K18" s="170"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="134"/>
     </row>
     <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="165"/>
-      <c r="B19" s="166">
+      <c r="A19" s="129"/>
+      <c r="B19" s="130">
         <v>10</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="124" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="168">
+      <c r="E19" s="132">
         <v>44698</v>
       </c>
-      <c r="F19" s="168">
+      <c r="F19" s="132">
         <v>44703</v>
       </c>
-      <c r="G19" s="167"/>
-      <c r="H19" s="168">
+      <c r="G19" s="131"/>
+      <c r="H19" s="132">
         <v>44698</v>
       </c>
-      <c r="I19" s="168">
+      <c r="I19" s="132">
         <v>44700</v>
       </c>
-      <c r="J19" s="169"/>
-      <c r="K19" s="170"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="134"/>
     </row>
     <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166">
+      <c r="A20" s="129"/>
+      <c r="B20" s="130">
         <v>11</v>
       </c>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="168">
+      <c r="E20" s="132">
         <v>44698</v>
       </c>
-      <c r="F20" s="168">
+      <c r="F20" s="132">
         <v>44703</v>
       </c>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168">
+      <c r="G20" s="131"/>
+      <c r="H20" s="132">
         <v>44698</v>
       </c>
-      <c r="I20" s="168">
+      <c r="I20" s="132">
         <v>44700</v>
       </c>
-      <c r="J20" s="169"/>
-      <c r="K20" s="170"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="134"/>
     </row>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166">
+      <c r="A21" s="129"/>
+      <c r="B21" s="130">
         <v>12</v>
       </c>
-      <c r="C21" s="160" t="s">
+      <c r="C21" s="124" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="168">
+      <c r="E21" s="132">
         <v>44698</v>
       </c>
-      <c r="F21" s="168">
+      <c r="F21" s="132">
         <v>44703</v>
       </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="168">
+      <c r="G21" s="131"/>
+      <c r="H21" s="132">
         <v>44698</v>
       </c>
-      <c r="I21" s="168">
+      <c r="I21" s="132">
         <v>44700</v>
       </c>
-      <c r="J21" s="169"/>
-      <c r="K21" s="170"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="134"/>
     </row>
     <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="165"/>
-      <c r="B22" s="166">
+      <c r="A22" s="129"/>
+      <c r="B22" s="130">
         <v>13</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="168">
+      <c r="E22" s="132">
         <v>44698</v>
       </c>
-      <c r="F22" s="168">
+      <c r="F22" s="132">
         <v>44703</v>
       </c>
-      <c r="G22" s="167"/>
-      <c r="H22" s="168">
+      <c r="G22" s="131"/>
+      <c r="H22" s="132">
         <v>44698</v>
       </c>
-      <c r="I22" s="168">
+      <c r="I22" s="132">
         <v>44700</v>
       </c>
-      <c r="J22" s="169"/>
-      <c r="K22" s="170"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
     </row>
     <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="165"/>
-      <c r="B23" s="166">
+      <c r="A23" s="129"/>
+      <c r="B23" s="130">
         <v>14</v>
       </c>
-      <c r="C23" s="160" t="s">
+      <c r="C23" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="168">
+      <c r="E23" s="132">
         <v>44698</v>
       </c>
-      <c r="F23" s="168">
+      <c r="F23" s="132">
         <v>44703</v>
       </c>
-      <c r="G23" s="167"/>
-      <c r="H23" s="168">
+      <c r="G23" s="131"/>
+      <c r="H23" s="132">
         <v>44698</v>
       </c>
-      <c r="I23" s="168">
+      <c r="I23" s="132">
         <v>44700</v>
       </c>
-      <c r="J23" s="169"/>
-      <c r="K23" s="170"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="134"/>
     </row>
     <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="165"/>
-      <c r="B24" s="166">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130">
         <v>15</v>
       </c>
-      <c r="C24" s="160" t="s">
+      <c r="C24" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="167" t="s">
+      <c r="D24" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="168">
+      <c r="E24" s="132">
         <v>44698</v>
       </c>
-      <c r="F24" s="168">
+      <c r="F24" s="132">
         <v>44703</v>
       </c>
-      <c r="G24" s="167"/>
-      <c r="H24" s="168">
+      <c r="G24" s="131"/>
+      <c r="H24" s="132">
         <v>44698</v>
       </c>
-      <c r="I24" s="168">
+      <c r="I24" s="132">
         <v>44700</v>
       </c>
-      <c r="J24" s="169"/>
-      <c r="K24" s="170"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="134"/>
     </row>
     <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="165"/>
-      <c r="B25" s="166">
+      <c r="A25" s="129"/>
+      <c r="B25" s="130">
         <v>16</v>
       </c>
-      <c r="C25" s="160" t="s">
+      <c r="C25" s="124" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="167" t="s">
+      <c r="D25" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="168">
+      <c r="E25" s="132">
         <v>44698</v>
       </c>
-      <c r="F25" s="168">
+      <c r="F25" s="132">
         <v>44703</v>
       </c>
-      <c r="G25" s="167"/>
-      <c r="H25" s="168">
+      <c r="G25" s="131"/>
+      <c r="H25" s="132">
         <v>44698</v>
       </c>
-      <c r="I25" s="168">
+      <c r="I25" s="132">
         <v>44700</v>
       </c>
-      <c r="J25" s="169"/>
-      <c r="K25" s="170"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="134"/>
     </row>
     <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="165"/>
-      <c r="B26" s="166">
+      <c r="A26" s="129"/>
+      <c r="B26" s="130">
         <v>17</v>
       </c>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="124" t="s">
         <v>238</v>
       </c>
-      <c r="D26" s="167" t="s">
+      <c r="D26" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="168">
+      <c r="E26" s="132">
         <v>44698</v>
       </c>
-      <c r="F26" s="168">
+      <c r="F26" s="132">
         <v>44703</v>
       </c>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168">
+      <c r="G26" s="131"/>
+      <c r="H26" s="132">
         <v>44698</v>
       </c>
-      <c r="I26" s="168">
+      <c r="I26" s="132">
         <v>44700</v>
       </c>
-      <c r="J26" s="169"/>
-      <c r="K26" s="170"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
     </row>
     <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="165"/>
-      <c r="B27" s="166">
+      <c r="A27" s="129"/>
+      <c r="B27" s="130">
         <v>18</v>
       </c>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="124" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="168">
+      <c r="E27" s="132">
         <v>44698</v>
       </c>
-      <c r="F27" s="168">
+      <c r="F27" s="132">
         <v>44703</v>
       </c>
-      <c r="G27" s="167"/>
-      <c r="H27" s="168">
+      <c r="G27" s="131"/>
+      <c r="H27" s="132">
         <v>44698</v>
       </c>
-      <c r="I27" s="168">
+      <c r="I27" s="132">
         <v>44700</v>
       </c>
-      <c r="J27" s="169"/>
-      <c r="K27" s="170"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="134"/>
     </row>
     <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="165"/>
-      <c r="B28" s="166">
+      <c r="A28" s="129"/>
+      <c r="B28" s="130">
         <v>19</v>
       </c>
-      <c r="C28" s="160" t="s">
+      <c r="C28" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="167" t="s">
+      <c r="D28" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="168">
+      <c r="E28" s="132">
         <v>44698</v>
       </c>
-      <c r="F28" s="168">
+      <c r="F28" s="132">
         <v>44703</v>
       </c>
-      <c r="G28" s="167"/>
-      <c r="H28" s="168">
+      <c r="G28" s="131"/>
+      <c r="H28" s="132">
         <v>44698</v>
       </c>
-      <c r="I28" s="168">
+      <c r="I28" s="132">
         <v>44700</v>
       </c>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
     </row>
     <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="158"/>
-      <c r="B29" s="159">
+      <c r="A29" s="122"/>
+      <c r="B29" s="123">
         <v>20</v>
       </c>
-      <c r="C29" s="160" t="s">
+      <c r="C29" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="161" t="s">
+      <c r="D29" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="162">
+      <c r="E29" s="126">
         <v>44698</v>
       </c>
-      <c r="F29" s="162">
+      <c r="F29" s="126">
         <v>44703</v>
       </c>
-      <c r="G29" s="161"/>
-      <c r="H29" s="162">
+      <c r="G29" s="125"/>
+      <c r="H29" s="126">
         <v>44698</v>
       </c>
-      <c r="I29" s="162">
+      <c r="I29" s="126">
         <v>44700</v>
       </c>
-      <c r="J29" s="163"/>
-      <c r="K29" s="164"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="128"/>
     </row>
     <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="171"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="59"/>
-      <c r="C30" s="172" t="s">
+      <c r="C30" s="136" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="138"/>
       <c r="K30" s="63"/>
     </row>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="171"/>
+      <c r="A31" s="135"/>
       <c r="B31" s="59">
         <v>1</v>
       </c>
-      <c r="C31" s="172" t="s">
+      <c r="C31" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D31" s="172" t="s">
+      <c r="D31" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="174"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="138"/>
       <c r="K31" s="63"/>
     </row>
     <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="171"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="59">
         <v>2</v>
       </c>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="136" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="172" t="s">
+      <c r="D32" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="138"/>
       <c r="K32" s="63"/>
     </row>
     <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="171"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="59">
         <v>3</v>
       </c>
-      <c r="C33" s="172" t="s">
+      <c r="C33" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="D33" s="172" t="s">
+      <c r="D33" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="138"/>
       <c r="K33" s="63"/>
     </row>
     <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="171"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="59">
         <v>4</v>
       </c>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="172" t="s">
+      <c r="D34" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="138"/>
       <c r="K34" s="63"/>
     </row>
     <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="171"/>
+      <c r="A35" s="135"/>
       <c r="B35" s="59">
         <v>5</v>
       </c>
-      <c r="C35" s="172" t="s">
+      <c r="C35" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="D35" s="172" t="s">
+      <c r="D35" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="174"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="138"/>
       <c r="K35" s="63"/>
     </row>
     <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="171"/>
+      <c r="A36" s="135"/>
       <c r="B36" s="59">
         <v>6</v>
       </c>
-      <c r="C36" s="172" t="s">
+      <c r="C36" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="D36" s="172" t="s">
+      <c r="D36" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="138"/>
       <c r="K36" s="63"/>
     </row>
     <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="171"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="59">
         <v>7</v>
       </c>
-      <c r="C37" s="172" t="s">
+      <c r="C37" s="136" t="s">
         <v>248</v>
       </c>
-      <c r="D37" s="172" t="s">
+      <c r="D37" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="174"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="138"/>
       <c r="K37" s="63"/>
     </row>
     <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="171"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="59">
         <v>8</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="D38" s="172" t="s">
+      <c r="D38" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="138"/>
       <c r="K38" s="63"/>
     </row>
     <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="171"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="59">
         <v>9</v>
       </c>
-      <c r="C39" s="172" t="s">
+      <c r="C39" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="D39" s="172" t="s">
+      <c r="D39" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="174"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="138"/>
       <c r="K39" s="63"/>
     </row>
     <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="171"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="59">
         <v>10</v>
       </c>
-      <c r="C40" s="172" t="s">
+      <c r="C40" s="136" t="s">
         <v>252</v>
       </c>
-      <c r="D40" s="172" t="s">
+      <c r="D40" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="138"/>
       <c r="K40" s="63"/>
     </row>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="171"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="59">
         <v>11</v>
       </c>
-      <c r="C41" s="172" t="s">
+      <c r="C41" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="172" t="s">
+      <c r="D41" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="174"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="138"/>
       <c r="K41" s="63"/>
     </row>
     <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="171"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="59">
         <v>12</v>
       </c>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="174"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="138"/>
       <c r="K42" s="63"/>
     </row>
     <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="171"/>
+      <c r="A43" s="135"/>
       <c r="B43" s="59">
         <v>13</v>
       </c>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="174"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="138"/>
       <c r="K43" s="63"/>
     </row>
     <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -12497,68 +12495,68 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
       <c r="V2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="138">
+      <c r="W2" s="155">
         <v>44698</v>
       </c>
-      <c r="X2" s="139"/>
+      <c r="X2" s="156"/>
     </row>
     <row r="3" spans="1:24" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
       <c r="V3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="140">
+      <c r="W3" s="157">
         <v>44698</v>
       </c>
-      <c r="X3" s="141"/>
+      <c r="X3" s="158"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -12592,26 +12590,26 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150"/>
-      <c r="W5" s="151"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
+      <c r="W5" s="168"/>
       <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -12620,104 +12618,104 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="154"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="170"/>
+      <c r="V6" s="170"/>
+      <c r="W6" s="171"/>
       <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="154"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="170"/>
+      <c r="R7" s="170"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="171"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="154"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="171"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="156"/>
-      <c r="W9" s="157"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="174"/>
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -12747,58 +12745,58 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="143"/>
-      <c r="X11" s="144"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="160"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="160"/>
+      <c r="R11" s="160"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="161"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="148"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="165"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
@@ -14622,54 +14620,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="138">
+      <c r="P2" s="155">
         <v>44698</v>
       </c>
-      <c r="Q2" s="139"/>
+      <c r="Q2" s="156"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="140">
+      <c r="P3" s="157">
         <v>44698</v>
       </c>
-      <c r="Q3" s="141"/>
+      <c r="Q3" s="158"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -16000,7 +15998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A112" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16015,50 +16013,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="138">
+      <c r="N2" s="155">
         <v>44698</v>
       </c>
-      <c r="O2" s="139"/>
+      <c r="O2" s="156"/>
     </row>
     <row r="3" spans="1:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="140">
+      <c r="N3" s="157">
         <v>44698</v>
       </c>
-      <c r="O3" s="141"/>
+      <c r="O3" s="158"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05F717E-79D4-47DB-A1AD-ECE6808FDB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582BAE2E-C6A9-42EA-8C22-9AAE913D83DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$285</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$311</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$93</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="336">
   <si>
     <t>No</t>
   </si>
@@ -1015,6 +1015,48 @@
   </si>
   <si>
     <t>Admim</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>shop's icon</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>shop's facebook</t>
+  </si>
+  <si>
+    <t>shop's instagram</t>
+  </si>
+  <si>
+    <t>shop's twitter</t>
+  </si>
+  <si>
+    <t>shop list</t>
+  </si>
+  <si>
+    <t>shop's categories</t>
+  </si>
+  <si>
+    <t>phone no.</t>
+  </si>
+  <si>
+    <t>shop's phone</t>
+  </si>
+  <si>
+    <t>shop_Cate</t>
+  </si>
+  <si>
+    <t>shop_name</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1950,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="574">
+  <cellXfs count="575">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2787,6 +2829,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2891,12 +2939,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -10192,7 +10237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10489,22 +10534,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="537" t="s">
+      <c r="A19" s="543" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="538"/>
-      <c r="C19" s="538"/>
-      <c r="D19" s="538"/>
-      <c r="E19" s="538"/>
-      <c r="F19" s="538"/>
-      <c r="G19" s="538"/>
-      <c r="H19" s="538"/>
-      <c r="I19" s="538"/>
-      <c r="J19" s="538"/>
-      <c r="K19" s="538"/>
-      <c r="L19" s="538"/>
-      <c r="M19" s="538"/>
-      <c r="N19" s="539"/>
+      <c r="B19" s="544"/>
+      <c r="C19" s="544"/>
+      <c r="D19" s="544"/>
+      <c r="E19" s="544"/>
+      <c r="F19" s="544"/>
+      <c r="G19" s="544"/>
+      <c r="H19" s="544"/>
+      <c r="I19" s="544"/>
+      <c r="J19" s="544"/>
+      <c r="K19" s="544"/>
+      <c r="L19" s="544"/>
+      <c r="M19" s="544"/>
+      <c r="N19" s="545"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -10539,22 +10584,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A22" s="534" t="s">
+      <c r="A22" s="540" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="535"/>
-      <c r="C22" s="535"/>
-      <c r="D22" s="535"/>
-      <c r="E22" s="535"/>
-      <c r="F22" s="535"/>
-      <c r="G22" s="535"/>
-      <c r="H22" s="535"/>
-      <c r="I22" s="535"/>
-      <c r="J22" s="535"/>
-      <c r="K22" s="535"/>
-      <c r="L22" s="535"/>
-      <c r="M22" s="535"/>
-      <c r="N22" s="536"/>
+      <c r="B22" s="541"/>
+      <c r="C22" s="541"/>
+      <c r="D22" s="541"/>
+      <c r="E22" s="541"/>
+      <c r="F22" s="541"/>
+      <c r="G22" s="541"/>
+      <c r="H22" s="541"/>
+      <c r="I22" s="541"/>
+      <c r="J22" s="541"/>
+      <c r="K22" s="541"/>
+      <c r="L22" s="541"/>
+      <c r="M22" s="541"/>
+      <c r="N22" s="542"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -10862,10 +10907,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
-      <c r="B42" s="532" t="s">
+      <c r="B42" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="532"/>
+      <c r="C42" s="538"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -10989,13 +11034,13 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="533" t="s">
+      <c r="K48" s="539" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="533"/>
+      <c r="L48" s="539"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.063063541667</v>
+        <v>44703.41012083333</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11010,13 +11055,13 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="533" t="s">
+      <c r="K49" s="539" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="533"/>
+      <c r="L49" s="539"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.063063541667</v>
+        <v>44703.41012083333</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -11079,54 +11124,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="546" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="544" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="550" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
-      <c r="M2" s="545"/>
-      <c r="N2" s="545"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="551"/>
+      <c r="M2" s="551"/>
+      <c r="N2" s="551"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="548">
+      <c r="P2" s="554">
         <v>44698</v>
       </c>
-      <c r="Q2" s="549"/>
+      <c r="Q2" s="555"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="542"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="547"/>
-      <c r="F3" s="547"/>
-      <c r="G3" s="547"/>
-      <c r="H3" s="547"/>
-      <c r="I3" s="547"/>
-      <c r="J3" s="547"/>
-      <c r="K3" s="547"/>
-      <c r="L3" s="547"/>
-      <c r="M3" s="547"/>
-      <c r="N3" s="547"/>
+      <c r="A3" s="548"/>
+      <c r="B3" s="549"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="553"/>
+      <c r="F3" s="553"/>
+      <c r="G3" s="553"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="553"/>
+      <c r="J3" s="553"/>
+      <c r="K3" s="553"/>
+      <c r="L3" s="553"/>
+      <c r="M3" s="553"/>
+      <c r="N3" s="553"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="550">
+      <c r="P3" s="556">
         <v>44698</v>
       </c>
-      <c r="Q3" s="551"/>
+      <c r="Q3" s="557"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -12168,7 +12213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="140" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12185,50 +12230,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="546" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="544" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="550" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="551"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="548">
+      <c r="N2" s="554">
         <v>44698</v>
       </c>
-      <c r="O2" s="549"/>
+      <c r="O2" s="555"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="542"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="547"/>
-      <c r="F3" s="547"/>
-      <c r="G3" s="547"/>
-      <c r="H3" s="547"/>
-      <c r="I3" s="547"/>
-      <c r="J3" s="547"/>
-      <c r="K3" s="547"/>
-      <c r="L3" s="547"/>
+      <c r="A3" s="548"/>
+      <c r="B3" s="549"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="553"/>
+      <c r="F3" s="553"/>
+      <c r="G3" s="553"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="553"/>
+      <c r="J3" s="553"/>
+      <c r="K3" s="553"/>
+      <c r="L3" s="553"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="550">
+      <c r="N3" s="556">
         <v>44698</v>
       </c>
-      <c r="O3" s="551"/>
+      <c r="O3" s="557"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -12417,7 +12462,7 @@
       <c r="I10" s="82">
         <v>44699</v>
       </c>
-      <c r="J10" s="571">
+      <c r="J10" s="535">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12452,7 +12497,7 @@
       <c r="I11" s="82">
         <v>44699</v>
       </c>
-      <c r="J11" s="571">
+      <c r="J11" s="535">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12487,7 +12532,7 @@
       <c r="I12" s="82">
         <v>44699</v>
       </c>
-      <c r="J12" s="571">
+      <c r="J12" s="535">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12522,7 +12567,7 @@
       <c r="I13" s="87">
         <v>44699</v>
       </c>
-      <c r="J13" s="572">
+      <c r="J13" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12557,7 +12602,7 @@
       <c r="I14" s="82">
         <v>44699</v>
       </c>
-      <c r="J14" s="571">
+      <c r="J14" s="535">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12592,7 +12637,7 @@
       <c r="I15" s="87">
         <v>44699</v>
       </c>
-      <c r="J15" s="572">
+      <c r="J15" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12627,7 +12672,7 @@
       <c r="I16" s="82">
         <v>44700</v>
       </c>
-      <c r="J16" s="571">
+      <c r="J16" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12662,7 +12707,7 @@
       <c r="I17" s="87">
         <v>44700</v>
       </c>
-      <c r="J17" s="572">
+      <c r="J17" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12697,7 +12742,7 @@
       <c r="I18" s="87">
         <v>44700</v>
       </c>
-      <c r="J18" s="572">
+      <c r="J18" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12732,7 +12777,7 @@
       <c r="I19" s="87">
         <v>44700</v>
       </c>
-      <c r="J19" s="572">
+      <c r="J19" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12767,7 +12812,7 @@
       <c r="I20" s="87">
         <v>44700</v>
       </c>
-      <c r="J20" s="572">
+      <c r="J20" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12802,7 +12847,7 @@
       <c r="I21" s="87">
         <v>44700</v>
       </c>
-      <c r="J21" s="572">
+      <c r="J21" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12837,7 +12882,7 @@
       <c r="I22" s="87">
         <v>44700</v>
       </c>
-      <c r="J22" s="572">
+      <c r="J22" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12872,7 +12917,7 @@
       <c r="I23" s="87">
         <v>44700</v>
       </c>
-      <c r="J23" s="572">
+      <c r="J23" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12907,7 +12952,7 @@
       <c r="I24" s="87">
         <v>44700</v>
       </c>
-      <c r="J24" s="572">
+      <c r="J24" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12942,7 +12987,7 @@
       <c r="I25" s="87">
         <v>44700</v>
       </c>
-      <c r="J25" s="572">
+      <c r="J25" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12977,7 +13022,7 @@
       <c r="I26" s="87">
         <v>44700</v>
       </c>
-      <c r="J26" s="572">
+      <c r="J26" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13012,7 +13057,7 @@
       <c r="I27" s="87">
         <v>44700</v>
       </c>
-      <c r="J27" s="572">
+      <c r="J27" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13047,7 +13092,7 @@
       <c r="I28" s="87">
         <v>44700</v>
       </c>
-      <c r="J28" s="572">
+      <c r="J28" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13082,7 +13127,7 @@
       <c r="I29" s="82">
         <v>44700</v>
       </c>
-      <c r="J29" s="571">
+      <c r="J29" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13138,7 +13183,7 @@
       <c r="I31" s="481">
         <v>44699</v>
       </c>
-      <c r="J31" s="569">
+      <c r="J31" s="533">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13173,7 +13218,7 @@
       <c r="I32" s="481">
         <v>44699</v>
       </c>
-      <c r="J32" s="569">
+      <c r="J32" s="533">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13208,7 +13253,7 @@
       <c r="I33" s="491">
         <v>44700</v>
       </c>
-      <c r="J33" s="568">
+      <c r="J33" s="532">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13243,7 +13288,7 @@
       <c r="I34" s="481">
         <v>44700</v>
       </c>
-      <c r="J34" s="569">
+      <c r="J34" s="533">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13278,7 +13323,7 @@
       <c r="I35" s="491">
         <v>44701</v>
       </c>
-      <c r="J35" s="568">
+      <c r="J35" s="532">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -13313,7 +13358,7 @@
       <c r="I36" s="491">
         <v>44701</v>
       </c>
-      <c r="J36" s="568">
+      <c r="J36" s="532">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -13348,7 +13393,7 @@
       <c r="I37" s="481">
         <v>44700</v>
       </c>
-      <c r="J37" s="569">
+      <c r="J37" s="533">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13383,7 +13428,7 @@
       <c r="I38" s="481">
         <v>44701</v>
       </c>
-      <c r="J38" s="569">
+      <c r="J38" s="533">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -13418,7 +13463,7 @@
       <c r="I39" s="486">
         <v>44699</v>
       </c>
-      <c r="J39" s="570">
+      <c r="J39" s="534">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13453,7 +13498,7 @@
       <c r="I40" s="486">
         <v>44700</v>
       </c>
-      <c r="J40" s="570">
+      <c r="J40" s="534">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13488,7 +13533,7 @@
       <c r="I41" s="486">
         <v>44700</v>
       </c>
-      <c r="J41" s="570">
+      <c r="J41" s="534">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13523,7 +13568,7 @@
       <c r="I42" s="481">
         <v>44702</v>
       </c>
-      <c r="J42" s="569">
+      <c r="J42" s="533">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -13558,7 +13603,7 @@
       <c r="I43" s="481">
         <v>44702</v>
       </c>
-      <c r="J43" s="569">
+      <c r="J43" s="533">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -13593,7 +13638,7 @@
       <c r="I44" s="486">
         <v>44699</v>
       </c>
-      <c r="J44" s="570">
+      <c r="J44" s="534">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13628,7 +13673,7 @@
       <c r="I45" s="481">
         <v>44701</v>
       </c>
-      <c r="J45" s="569">
+      <c r="J45" s="533">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -13660,12 +13705,16 @@
       <c r="H46" s="491">
         <v>44698</v>
       </c>
-      <c r="I46" s="491"/>
-      <c r="J46" s="568">
+      <c r="I46" s="491">
+        <v>44703</v>
+      </c>
+      <c r="J46" s="532">
         <f t="shared" si="1"/>
-        <v>-44698</v>
-      </c>
-      <c r="K46" s="492"/>
+        <v>5</v>
+      </c>
+      <c r="K46" s="492">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="47" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="478"/>
@@ -14758,68 +14807,68 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="546" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="544" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="550" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
-      <c r="M2" s="545"/>
-      <c r="N2" s="545"/>
-      <c r="O2" s="545"/>
-      <c r="P2" s="545"/>
-      <c r="Q2" s="545"/>
-      <c r="R2" s="545"/>
-      <c r="S2" s="545"/>
-      <c r="T2" s="545"/>
-      <c r="U2" s="545"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="551"/>
+      <c r="M2" s="551"/>
+      <c r="N2" s="551"/>
+      <c r="O2" s="551"/>
+      <c r="P2" s="551"/>
+      <c r="Q2" s="551"/>
+      <c r="R2" s="551"/>
+      <c r="S2" s="551"/>
+      <c r="T2" s="551"/>
+      <c r="U2" s="551"/>
       <c r="V2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="548">
+      <c r="W2" s="554">
         <v>44698</v>
       </c>
-      <c r="X2" s="549"/>
+      <c r="X2" s="555"/>
     </row>
     <row r="3" spans="1:24" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="542"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="547"/>
-      <c r="F3" s="547"/>
-      <c r="G3" s="547"/>
-      <c r="H3" s="547"/>
-      <c r="I3" s="547"/>
-      <c r="J3" s="547"/>
-      <c r="K3" s="547"/>
-      <c r="L3" s="547"/>
-      <c r="M3" s="547"/>
-      <c r="N3" s="547"/>
-      <c r="O3" s="547"/>
-      <c r="P3" s="547"/>
-      <c r="Q3" s="547"/>
-      <c r="R3" s="547"/>
-      <c r="S3" s="547"/>
-      <c r="T3" s="547"/>
-      <c r="U3" s="547"/>
+      <c r="A3" s="548"/>
+      <c r="B3" s="549"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="553"/>
+      <c r="F3" s="553"/>
+      <c r="G3" s="553"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="553"/>
+      <c r="J3" s="553"/>
+      <c r="K3" s="553"/>
+      <c r="L3" s="553"/>
+      <c r="M3" s="553"/>
+      <c r="N3" s="553"/>
+      <c r="O3" s="553"/>
+      <c r="P3" s="553"/>
+      <c r="Q3" s="553"/>
+      <c r="R3" s="553"/>
+      <c r="S3" s="553"/>
+      <c r="T3" s="553"/>
+      <c r="U3" s="553"/>
       <c r="V3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="550">
+      <c r="W3" s="556">
         <v>44698</v>
       </c>
-      <c r="X3" s="551"/>
+      <c r="X3" s="557"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -14853,26 +14902,26 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="559"/>
-      <c r="E5" s="560"/>
-      <c r="F5" s="560"/>
-      <c r="G5" s="560"/>
-      <c r="H5" s="560"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="560"/>
-      <c r="K5" s="560"/>
-      <c r="L5" s="560"/>
-      <c r="M5" s="560"/>
-      <c r="N5" s="560"/>
-      <c r="O5" s="560"/>
-      <c r="P5" s="560"/>
-      <c r="Q5" s="560"/>
-      <c r="R5" s="560"/>
-      <c r="S5" s="560"/>
-      <c r="T5" s="560"/>
-      <c r="U5" s="560"/>
-      <c r="V5" s="560"/>
-      <c r="W5" s="561"/>
+      <c r="D5" s="565"/>
+      <c r="E5" s="566"/>
+      <c r="F5" s="566"/>
+      <c r="G5" s="566"/>
+      <c r="H5" s="566"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="566"/>
+      <c r="K5" s="566"/>
+      <c r="L5" s="566"/>
+      <c r="M5" s="566"/>
+      <c r="N5" s="566"/>
+      <c r="O5" s="566"/>
+      <c r="P5" s="566"/>
+      <c r="Q5" s="566"/>
+      <c r="R5" s="566"/>
+      <c r="S5" s="566"/>
+      <c r="T5" s="566"/>
+      <c r="U5" s="566"/>
+      <c r="V5" s="566"/>
+      <c r="W5" s="567"/>
       <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -14881,104 +14930,104 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="562"/>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="563"/>
-      <c r="I6" s="563"/>
-      <c r="J6" s="563"/>
-      <c r="K6" s="563"/>
-      <c r="L6" s="563"/>
-      <c r="M6" s="563"/>
-      <c r="N6" s="563"/>
-      <c r="O6" s="563"/>
-      <c r="P6" s="563"/>
-      <c r="Q6" s="563"/>
-      <c r="R6" s="563"/>
-      <c r="S6" s="563"/>
-      <c r="T6" s="563"/>
-      <c r="U6" s="563"/>
-      <c r="V6" s="563"/>
-      <c r="W6" s="564"/>
+      <c r="D6" s="568"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="569"/>
+      <c r="I6" s="569"/>
+      <c r="J6" s="569"/>
+      <c r="K6" s="569"/>
+      <c r="L6" s="569"/>
+      <c r="M6" s="569"/>
+      <c r="N6" s="569"/>
+      <c r="O6" s="569"/>
+      <c r="P6" s="569"/>
+      <c r="Q6" s="569"/>
+      <c r="R6" s="569"/>
+      <c r="S6" s="569"/>
+      <c r="T6" s="569"/>
+      <c r="U6" s="569"/>
+      <c r="V6" s="569"/>
+      <c r="W6" s="570"/>
       <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="562"/>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="563"/>
-      <c r="I7" s="563"/>
-      <c r="J7" s="563"/>
-      <c r="K7" s="563"/>
-      <c r="L7" s="563"/>
-      <c r="M7" s="563"/>
-      <c r="N7" s="563"/>
-      <c r="O7" s="563"/>
-      <c r="P7" s="563"/>
-      <c r="Q7" s="563"/>
-      <c r="R7" s="563"/>
-      <c r="S7" s="563"/>
-      <c r="T7" s="563"/>
-      <c r="U7" s="563"/>
-      <c r="V7" s="563"/>
-      <c r="W7" s="564"/>
+      <c r="D7" s="568"/>
+      <c r="E7" s="569"/>
+      <c r="F7" s="569"/>
+      <c r="G7" s="569"/>
+      <c r="H7" s="569"/>
+      <c r="I7" s="569"/>
+      <c r="J7" s="569"/>
+      <c r="K7" s="569"/>
+      <c r="L7" s="569"/>
+      <c r="M7" s="569"/>
+      <c r="N7" s="569"/>
+      <c r="O7" s="569"/>
+      <c r="P7" s="569"/>
+      <c r="Q7" s="569"/>
+      <c r="R7" s="569"/>
+      <c r="S7" s="569"/>
+      <c r="T7" s="569"/>
+      <c r="U7" s="569"/>
+      <c r="V7" s="569"/>
+      <c r="W7" s="570"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="562"/>
-      <c r="E8" s="563"/>
-      <c r="F8" s="563"/>
-      <c r="G8" s="563"/>
-      <c r="H8" s="563"/>
-      <c r="I8" s="563"/>
-      <c r="J8" s="563"/>
-      <c r="K8" s="563"/>
-      <c r="L8" s="563"/>
-      <c r="M8" s="563"/>
-      <c r="N8" s="563"/>
-      <c r="O8" s="563"/>
-      <c r="P8" s="563"/>
-      <c r="Q8" s="563"/>
-      <c r="R8" s="563"/>
-      <c r="S8" s="563"/>
-      <c r="T8" s="563"/>
-      <c r="U8" s="563"/>
-      <c r="V8" s="563"/>
-      <c r="W8" s="564"/>
+      <c r="D8" s="568"/>
+      <c r="E8" s="569"/>
+      <c r="F8" s="569"/>
+      <c r="G8" s="569"/>
+      <c r="H8" s="569"/>
+      <c r="I8" s="569"/>
+      <c r="J8" s="569"/>
+      <c r="K8" s="569"/>
+      <c r="L8" s="569"/>
+      <c r="M8" s="569"/>
+      <c r="N8" s="569"/>
+      <c r="O8" s="569"/>
+      <c r="P8" s="569"/>
+      <c r="Q8" s="569"/>
+      <c r="R8" s="569"/>
+      <c r="S8" s="569"/>
+      <c r="T8" s="569"/>
+      <c r="U8" s="569"/>
+      <c r="V8" s="569"/>
+      <c r="W8" s="570"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="565"/>
-      <c r="E9" s="566"/>
-      <c r="F9" s="566"/>
-      <c r="G9" s="566"/>
-      <c r="H9" s="566"/>
-      <c r="I9" s="566"/>
-      <c r="J9" s="566"/>
-      <c r="K9" s="566"/>
-      <c r="L9" s="566"/>
-      <c r="M9" s="566"/>
-      <c r="N9" s="566"/>
-      <c r="O9" s="566"/>
-      <c r="P9" s="566"/>
-      <c r="Q9" s="566"/>
-      <c r="R9" s="566"/>
-      <c r="S9" s="566"/>
-      <c r="T9" s="566"/>
-      <c r="U9" s="566"/>
-      <c r="V9" s="566"/>
-      <c r="W9" s="567"/>
+      <c r="D9" s="571"/>
+      <c r="E9" s="572"/>
+      <c r="F9" s="572"/>
+      <c r="G9" s="572"/>
+      <c r="H9" s="572"/>
+      <c r="I9" s="572"/>
+      <c r="J9" s="572"/>
+      <c r="K9" s="572"/>
+      <c r="L9" s="572"/>
+      <c r="M9" s="572"/>
+      <c r="N9" s="572"/>
+      <c r="O9" s="572"/>
+      <c r="P9" s="572"/>
+      <c r="Q9" s="572"/>
+      <c r="R9" s="572"/>
+      <c r="S9" s="572"/>
+      <c r="T9" s="572"/>
+      <c r="U9" s="572"/>
+      <c r="V9" s="572"/>
+      <c r="W9" s="573"/>
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -15008,58 +15057,58 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="552" t="s">
+      <c r="A11" s="558" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="553"/>
-      <c r="C11" s="553"/>
-      <c r="D11" s="553"/>
-      <c r="E11" s="553"/>
-      <c r="F11" s="553"/>
-      <c r="G11" s="553"/>
-      <c r="H11" s="553"/>
-      <c r="I11" s="553"/>
-      <c r="J11" s="553"/>
-      <c r="K11" s="553"/>
-      <c r="L11" s="553"/>
-      <c r="M11" s="553"/>
-      <c r="N11" s="553"/>
-      <c r="O11" s="553"/>
-      <c r="P11" s="553"/>
-      <c r="Q11" s="553"/>
-      <c r="R11" s="553"/>
-      <c r="S11" s="553"/>
-      <c r="T11" s="553"/>
-      <c r="U11" s="553"/>
-      <c r="V11" s="553"/>
-      <c r="W11" s="553"/>
-      <c r="X11" s="554"/>
+      <c r="B11" s="559"/>
+      <c r="C11" s="559"/>
+      <c r="D11" s="559"/>
+      <c r="E11" s="559"/>
+      <c r="F11" s="559"/>
+      <c r="G11" s="559"/>
+      <c r="H11" s="559"/>
+      <c r="I11" s="559"/>
+      <c r="J11" s="559"/>
+      <c r="K11" s="559"/>
+      <c r="L11" s="559"/>
+      <c r="M11" s="559"/>
+      <c r="N11" s="559"/>
+      <c r="O11" s="559"/>
+      <c r="P11" s="559"/>
+      <c r="Q11" s="559"/>
+      <c r="R11" s="559"/>
+      <c r="S11" s="559"/>
+      <c r="T11" s="559"/>
+      <c r="U11" s="559"/>
+      <c r="V11" s="559"/>
+      <c r="W11" s="559"/>
+      <c r="X11" s="560"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="555"/>
-      <c r="B12" s="556"/>
-      <c r="C12" s="556"/>
-      <c r="D12" s="556"/>
-      <c r="E12" s="556"/>
-      <c r="F12" s="556"/>
-      <c r="G12" s="556"/>
-      <c r="H12" s="556"/>
-      <c r="I12" s="557"/>
-      <c r="J12" s="556"/>
-      <c r="K12" s="556"/>
-      <c r="L12" s="556"/>
-      <c r="M12" s="556"/>
-      <c r="N12" s="556"/>
-      <c r="O12" s="556"/>
-      <c r="P12" s="556"/>
-      <c r="Q12" s="556"/>
-      <c r="R12" s="556"/>
-      <c r="S12" s="556"/>
-      <c r="T12" s="556"/>
-      <c r="U12" s="556"/>
-      <c r="V12" s="556"/>
-      <c r="W12" s="556"/>
-      <c r="X12" s="558"/>
+      <c r="A12" s="561"/>
+      <c r="B12" s="562"/>
+      <c r="C12" s="562"/>
+      <c r="D12" s="562"/>
+      <c r="E12" s="562"/>
+      <c r="F12" s="562"/>
+      <c r="G12" s="562"/>
+      <c r="H12" s="562"/>
+      <c r="I12" s="563"/>
+      <c r="J12" s="562"/>
+      <c r="K12" s="562"/>
+      <c r="L12" s="562"/>
+      <c r="M12" s="562"/>
+      <c r="N12" s="562"/>
+      <c r="O12" s="562"/>
+      <c r="P12" s="562"/>
+      <c r="Q12" s="562"/>
+      <c r="R12" s="562"/>
+      <c r="S12" s="562"/>
+      <c r="T12" s="562"/>
+      <c r="U12" s="562"/>
+      <c r="V12" s="562"/>
+      <c r="W12" s="562"/>
+      <c r="X12" s="564"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
@@ -16873,7 +16922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16883,54 +16932,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="546" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="544" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="550" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
-      <c r="M2" s="545"/>
-      <c r="N2" s="545"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="551"/>
+      <c r="M2" s="551"/>
+      <c r="N2" s="551"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="548">
+      <c r="P2" s="554">
         <v>44698</v>
       </c>
-      <c r="Q2" s="549"/>
+      <c r="Q2" s="555"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="542"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="547"/>
-      <c r="F3" s="547"/>
-      <c r="G3" s="547"/>
-      <c r="H3" s="547"/>
-      <c r="I3" s="547"/>
-      <c r="J3" s="547"/>
-      <c r="K3" s="547"/>
-      <c r="L3" s="547"/>
-      <c r="M3" s="547"/>
-      <c r="N3" s="547"/>
+      <c r="A3" s="548"/>
+      <c r="B3" s="549"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="553"/>
+      <c r="F3" s="553"/>
+      <c r="G3" s="553"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="553"/>
+      <c r="J3" s="553"/>
+      <c r="K3" s="553"/>
+      <c r="L3" s="553"/>
+      <c r="M3" s="553"/>
+      <c r="N3" s="553"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="550">
+      <c r="P3" s="556">
         <v>44698</v>
       </c>
-      <c r="Q3" s="551"/>
+      <c r="Q3" s="557"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -18259,9 +18308,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O279"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18276,50 +18325,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="546" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="544" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="550" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="551"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="548">
+      <c r="N2" s="554">
         <v>44698</v>
       </c>
-      <c r="O2" s="549"/>
+      <c r="O2" s="555"/>
     </row>
     <row r="3" spans="1:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="542"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="547"/>
-      <c r="F3" s="547"/>
-      <c r="G3" s="547"/>
-      <c r="H3" s="547"/>
-      <c r="I3" s="547"/>
-      <c r="J3" s="547"/>
-      <c r="K3" s="547"/>
-      <c r="L3" s="547"/>
+      <c r="A3" s="548"/>
+      <c r="B3" s="549"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="553"/>
+      <c r="F3" s="553"/>
+      <c r="G3" s="553"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="553"/>
+      <c r="J3" s="553"/>
+      <c r="K3" s="553"/>
+      <c r="L3" s="553"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="550">
+      <c r="N3" s="556">
         <v>44702</v>
       </c>
-      <c r="O3" s="551"/>
+      <c r="O3" s="557"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -20168,10 +20217,10 @@
         <v>145</v>
       </c>
       <c r="H66" s="328" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I66" s="327">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J66" s="327"/>
       <c r="K66" s="329"/>
@@ -20710,10 +20759,10 @@
         <v>145</v>
       </c>
       <c r="H84" s="373" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I84" s="372">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J84" s="372"/>
       <c r="K84" s="374"/>
@@ -21354,10 +21403,10 @@
         <v>145</v>
       </c>
       <c r="H108" s="412" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I108" s="411">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J108" s="411"/>
       <c r="K108" s="413"/>
@@ -22028,10 +22077,10 @@
         <v>145</v>
       </c>
       <c r="H130" s="458" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I130" s="457">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J130" s="457"/>
       <c r="K130" s="459"/>
@@ -22403,10 +22452,10 @@
         <v>145</v>
       </c>
       <c r="H143" s="458" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I143" s="457">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J143" s="457"/>
       <c r="K143" s="459"/>
@@ -22955,7 +23004,7 @@
       <c r="N161" s="494"/>
       <c r="O161" s="495"/>
     </row>
-    <row r="162" spans="1:15" s="573" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" s="537" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="465"/>
       <c r="B162" s="470"/>
       <c r="C162" s="470"/>
@@ -22972,7 +23021,7 @@
       <c r="N162" s="470"/>
       <c r="O162" s="471"/>
     </row>
-    <row r="163" spans="1:15" s="573" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" s="537" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="465"/>
       <c r="L163" s="470"/>
       <c r="M163" s="470"/>
@@ -23266,10 +23315,10 @@
         <v>145</v>
       </c>
       <c r="H173" s="117" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I173" s="116">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J173" s="116"/>
       <c r="K173" s="118"/>
@@ -23677,10 +23726,10 @@
         <v>145</v>
       </c>
       <c r="H200" s="160" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I200" s="159">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J200" s="159"/>
       <c r="K200" s="161"/>
@@ -24120,10 +24169,10 @@
         <v>145</v>
       </c>
       <c r="H215" s="160" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I215" s="159">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J215" s="159"/>
       <c r="K215" s="161"/>
@@ -24492,10 +24541,10 @@
         <v>145</v>
       </c>
       <c r="H229" s="458" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I229" s="457">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J229" s="457"/>
       <c r="K229" s="459"/>
@@ -24841,10 +24890,10 @@
         <v>145</v>
       </c>
       <c r="H243" s="458" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I243" s="457">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J243" s="457"/>
       <c r="K243" s="459"/>
@@ -25221,10 +25270,10 @@
         <v>145</v>
       </c>
       <c r="H258" s="458" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I258" s="457">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J258" s="457"/>
       <c r="K258" s="459"/>
@@ -25493,10 +25542,10 @@
         <v>4</v>
       </c>
       <c r="C270" s="462" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="D270" s="462" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E270" s="430" t="s">
         <v>146</v>
@@ -25508,10 +25557,10 @@
         <v>145</v>
       </c>
       <c r="H270" s="462" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I270" s="472">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J270" s="463"/>
       <c r="K270" s="477"/>
@@ -25526,10 +25575,10 @@
         <v>5</v>
       </c>
       <c r="C271" s="462" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D271" s="462" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E271" s="430" t="s">
         <v>146</v>
@@ -25544,7 +25593,7 @@
         <v>148</v>
       </c>
       <c r="I271" s="472">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="J271" s="463"/>
       <c r="K271" s="477"/>
@@ -25559,10 +25608,10 @@
         <v>6</v>
       </c>
       <c r="C272" s="462" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D272" s="462" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E272" s="430" t="s">
         <v>146</v>
@@ -25592,10 +25641,10 @@
         <v>7</v>
       </c>
       <c r="C273" s="462" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D273" s="462" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E273" s="430" t="s">
         <v>146</v>
@@ -25625,10 +25674,10 @@
         <v>8</v>
       </c>
       <c r="C274" s="462" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D274" s="462" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E274" s="430" t="s">
         <v>146</v>
@@ -25657,64 +25706,62 @@
       <c r="B275" s="428">
         <v>9</v>
       </c>
-      <c r="C275" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D275" s="429" t="s">
-        <v>167</v>
+      <c r="C275" s="462" t="s">
+        <v>313</v>
+      </c>
+      <c r="D275" s="462" t="s">
+        <v>320</v>
       </c>
       <c r="E275" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F275" s="430" t="s">
+      <c r="F275" s="472" t="s">
         <v>146</v>
       </c>
       <c r="G275" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H275" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I275" s="430">
-        <v>11</v>
-      </c>
-      <c r="J275" s="430"/>
-      <c r="K275" s="288" t="s">
-        <v>168</v>
-      </c>
+      <c r="H275" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I275" s="472">
+        <v>256</v>
+      </c>
+      <c r="J275" s="463"/>
+      <c r="K275" s="477"/>
       <c r="L275" s="422"/>
       <c r="M275" s="422"/>
       <c r="N275" s="422"/>
       <c r="O275" s="424"/>
     </row>
     <row r="276" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A276" s="465"/>
+      <c r="A276" s="423"/>
       <c r="B276" s="428">
         <v>10</v>
       </c>
-      <c r="C276" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D276" s="456" t="s">
-        <v>159</v>
+      <c r="C276" s="462" t="s">
+        <v>324</v>
+      </c>
+      <c r="D276" s="462" t="s">
+        <v>327</v>
       </c>
       <c r="E276" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F276" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G276" s="457" t="s">
+      <c r="F276" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G276" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H276" s="458" t="s">
-        <v>147</v>
-      </c>
-      <c r="I276" s="457">
-        <v>11</v>
-      </c>
-      <c r="J276" s="457"/>
-      <c r="K276" s="459"/>
+      <c r="H276" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I276" s="472">
+        <v>256</v>
+      </c>
+      <c r="J276" s="463"/>
+      <c r="K276" s="477"/>
       <c r="L276" s="422"/>
       <c r="M276" s="422"/>
       <c r="N276" s="422"/>
@@ -25725,99 +25772,702 @@
       <c r="B277" s="428">
         <v>11</v>
       </c>
-      <c r="C277" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D277" s="449" t="s">
-        <v>160</v>
+      <c r="C277" s="462" t="s">
+        <v>325</v>
+      </c>
+      <c r="D277" s="462" t="s">
+        <v>328</v>
       </c>
       <c r="E277" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F277" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G277" s="450" t="s">
+      <c r="F277" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G277" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H277" s="451" t="s">
+      <c r="H277" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I277" s="450">
+      <c r="I277" s="472">
         <v>256</v>
       </c>
-      <c r="J277" s="450"/>
-      <c r="K277" s="452"/>
+      <c r="J277" s="463"/>
+      <c r="K277" s="477"/>
       <c r="L277" s="422"/>
       <c r="M277" s="422"/>
       <c r="N277" s="422"/>
       <c r="O277" s="424"/>
     </row>
     <row r="278" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A278" s="422"/>
+      <c r="A278" s="423"/>
       <c r="B278" s="428">
         <v>12</v>
       </c>
-      <c r="C278" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D278" s="449" t="s">
-        <v>158</v>
+      <c r="C278" s="462" t="s">
+        <v>326</v>
+      </c>
+      <c r="D278" s="462" t="s">
+        <v>329</v>
       </c>
       <c r="E278" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F278" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G278" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H278" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I278" s="450">
-        <v>11</v>
-      </c>
-      <c r="J278" s="450"/>
-      <c r="K278" s="452"/>
+      <c r="F278" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G278" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H278" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I278" s="472">
+        <v>256</v>
+      </c>
+      <c r="J278" s="463"/>
+      <c r="K278" s="477"/>
       <c r="L278" s="422"/>
       <c r="M278" s="422"/>
       <c r="N278" s="422"/>
       <c r="O278" s="424"/>
     </row>
-    <row r="279" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A279" s="423"/>
-      <c r="B279" s="434">
+      <c r="B279" s="428">
         <v>13</v>
       </c>
-      <c r="C279" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D279" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E279" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F279" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G279" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H279" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I279" s="436">
-        <v>256</v>
-      </c>
-      <c r="J279" s="436"/>
-      <c r="K279" s="438"/>
+      <c r="C279" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D279" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E279" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F279" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G279" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H279" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I279" s="430">
+        <v>11</v>
+      </c>
+      <c r="J279" s="430"/>
+      <c r="K279" s="288" t="s">
+        <v>168</v>
+      </c>
       <c r="L279" s="422"/>
       <c r="M279" s="422"/>
       <c r="N279" s="422"/>
       <c r="O279" s="424"/>
+    </row>
+    <row r="280" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A280" s="465"/>
+      <c r="B280" s="428">
+        <v>14</v>
+      </c>
+      <c r="C280" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D280" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E280" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F280" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G280" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H280" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I280" s="457">
+        <v>10</v>
+      </c>
+      <c r="J280" s="457"/>
+      <c r="K280" s="459"/>
+      <c r="L280" s="422"/>
+      <c r="M280" s="422"/>
+      <c r="N280" s="422"/>
+      <c r="O280" s="424"/>
+    </row>
+    <row r="281" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A281" s="423"/>
+      <c r="B281" s="428">
+        <v>15</v>
+      </c>
+      <c r="C281" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D281" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E281" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F281" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G281" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H281" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I281" s="450">
+        <v>256</v>
+      </c>
+      <c r="J281" s="450"/>
+      <c r="K281" s="452"/>
+      <c r="L281" s="422"/>
+      <c r="M281" s="422"/>
+      <c r="N281" s="422"/>
+      <c r="O281" s="424"/>
+    </row>
+    <row r="282" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A282" s="422"/>
+      <c r="B282" s="428">
+        <v>16</v>
+      </c>
+      <c r="C282" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D282" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E282" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F282" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G282" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H282" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I282" s="450">
+        <v>11</v>
+      </c>
+      <c r="J282" s="450"/>
+      <c r="K282" s="452"/>
+      <c r="L282" s="422"/>
+      <c r="M282" s="422"/>
+      <c r="N282" s="422"/>
+      <c r="O282" s="424"/>
+    </row>
+    <row r="283" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A283" s="423"/>
+      <c r="B283" s="434">
+        <v>17</v>
+      </c>
+      <c r="C283" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D283" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E283" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F283" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G283" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H283" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I283" s="436">
+        <v>256</v>
+      </c>
+      <c r="J283" s="436"/>
+      <c r="K283" s="438"/>
+      <c r="L283" s="422"/>
+      <c r="M283" s="422"/>
+      <c r="N283" s="422"/>
+      <c r="O283" s="424"/>
+    </row>
+    <row r="286" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="287" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A287" s="423"/>
+      <c r="B287" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C287" s="470"/>
+      <c r="D287" s="170" t="s">
+        <v>330</v>
+      </c>
+      <c r="E287" s="171"/>
+      <c r="F287" s="171"/>
+      <c r="G287" s="172"/>
+      <c r="H287" s="470"/>
+      <c r="I287" s="470"/>
+      <c r="J287" s="470"/>
+      <c r="K287" s="470"/>
+      <c r="L287" s="422"/>
+      <c r="M287" s="422"/>
+      <c r="N287" s="422"/>
+      <c r="O287" s="424"/>
+    </row>
+    <row r="288" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="423"/>
+      <c r="B288" s="422"/>
+      <c r="C288" s="422"/>
+      <c r="D288" s="422"/>
+      <c r="E288" s="422"/>
+      <c r="F288" s="422"/>
+      <c r="G288" s="422"/>
+      <c r="H288" s="422"/>
+      <c r="I288" s="422"/>
+      <c r="J288" s="422"/>
+      <c r="K288" s="422"/>
+      <c r="L288" s="422"/>
+      <c r="M288" s="422"/>
+      <c r="N288" s="422"/>
+      <c r="O288" s="424"/>
+    </row>
+    <row r="289" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A289" s="423"/>
+      <c r="B289" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D289" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E289" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F289" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G289" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H289" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I289" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J289" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K289" s="427" t="s">
+        <v>38</v>
+      </c>
+      <c r="L289" s="422"/>
+      <c r="M289" s="422"/>
+      <c r="N289" s="422"/>
+      <c r="O289" s="424"/>
+    </row>
+    <row r="290" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B290" s="473">
+        <v>1</v>
+      </c>
+      <c r="C290" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="D290" s="474" t="s">
+        <v>240</v>
+      </c>
+      <c r="E290" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="F290" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G290" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H290" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I290" s="476">
+        <v>11</v>
+      </c>
+      <c r="J290" s="474"/>
+      <c r="K290" s="475"/>
+    </row>
+    <row r="291" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A291" s="465"/>
+      <c r="B291" s="276">
+        <v>2</v>
+      </c>
+      <c r="C291" s="429" t="s">
+        <v>334</v>
+      </c>
+      <c r="D291" s="429" t="s">
+        <v>331</v>
+      </c>
+      <c r="E291" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F291" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G291" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H291" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I291" s="430">
+        <v>256</v>
+      </c>
+      <c r="J291" s="430"/>
+      <c r="K291" s="452"/>
+      <c r="L291" s="470"/>
+      <c r="M291" s="422"/>
+      <c r="N291" s="422"/>
+      <c r="O291" s="424"/>
+    </row>
+    <row r="292" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A292" s="465"/>
+      <c r="B292" s="276">
+        <v>3</v>
+      </c>
+      <c r="C292" s="462" t="s">
+        <v>335</v>
+      </c>
+      <c r="D292" s="462" t="s">
+        <v>315</v>
+      </c>
+      <c r="E292" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F292" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G292" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H292" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I292" s="430">
+        <v>256</v>
+      </c>
+      <c r="J292" s="574"/>
+      <c r="K292" s="452"/>
+      <c r="L292" s="470"/>
+      <c r="M292" s="422"/>
+      <c r="N292" s="422"/>
+      <c r="O292" s="424"/>
+    </row>
+    <row r="293" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A293" s="465"/>
+      <c r="B293" s="276">
+        <v>4</v>
+      </c>
+      <c r="C293" s="462" t="s">
+        <v>310</v>
+      </c>
+      <c r="D293" s="462" t="s">
+        <v>316</v>
+      </c>
+      <c r="E293" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F293" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G293" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H293" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I293" s="430">
+        <v>256</v>
+      </c>
+      <c r="J293" s="574"/>
+      <c r="K293" s="452"/>
+      <c r="L293" s="470"/>
+      <c r="M293" s="422"/>
+      <c r="N293" s="422"/>
+      <c r="O293" s="424"/>
+    </row>
+    <row r="294" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A294" s="423"/>
+      <c r="B294" s="428">
+        <v>5</v>
+      </c>
+      <c r="C294" s="462" t="s">
+        <v>283</v>
+      </c>
+      <c r="D294" s="462" t="s">
+        <v>285</v>
+      </c>
+      <c r="E294" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F294" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G294" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H294" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I294" s="472">
+        <v>256</v>
+      </c>
+      <c r="J294" s="463"/>
+      <c r="K294" s="464"/>
+      <c r="L294" s="422"/>
+      <c r="M294" s="422"/>
+      <c r="N294" s="422"/>
+      <c r="O294" s="424"/>
+    </row>
+    <row r="295" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A295" s="423"/>
+      <c r="B295" s="461">
+        <v>6</v>
+      </c>
+      <c r="C295" s="462" t="s">
+        <v>284</v>
+      </c>
+      <c r="D295" s="462" t="s">
+        <v>286</v>
+      </c>
+      <c r="E295" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F295" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G295" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H295" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I295" s="472">
+        <v>256</v>
+      </c>
+      <c r="J295" s="463"/>
+      <c r="K295" s="464"/>
+      <c r="L295" s="422"/>
+      <c r="M295" s="422"/>
+      <c r="N295" s="422"/>
+      <c r="O295" s="424"/>
+    </row>
+    <row r="296" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A296" s="423"/>
+      <c r="B296" s="461">
+        <v>7</v>
+      </c>
+      <c r="C296" s="462" t="s">
+        <v>332</v>
+      </c>
+      <c r="D296" s="462" t="s">
+        <v>333</v>
+      </c>
+      <c r="E296" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F296" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G296" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H296" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I296" s="472">
+        <v>20</v>
+      </c>
+      <c r="J296" s="463"/>
+      <c r="K296" s="464"/>
+      <c r="L296" s="422"/>
+      <c r="M296" s="422"/>
+      <c r="N296" s="422"/>
+      <c r="O296" s="424"/>
+    </row>
+    <row r="297" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A297" s="465"/>
+      <c r="B297" s="428">
+        <v>8</v>
+      </c>
+      <c r="C297" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D297" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E297" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F297" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G297" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H297" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I297" s="430">
+        <v>11</v>
+      </c>
+      <c r="J297" s="430"/>
+      <c r="K297" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L297" s="470"/>
+      <c r="M297" s="470"/>
+      <c r="N297" s="470"/>
+      <c r="O297" s="471"/>
+    </row>
+    <row r="298" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A298" s="423"/>
+      <c r="B298" s="428">
+        <v>9</v>
+      </c>
+      <c r="C298" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D298" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E298" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F298" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G298" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H298" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I298" s="457">
+        <v>10</v>
+      </c>
+      <c r="J298" s="457"/>
+      <c r="K298" s="459"/>
+      <c r="L298" s="422"/>
+      <c r="M298" s="422"/>
+      <c r="N298" s="422"/>
+      <c r="O298" s="424"/>
+    </row>
+    <row r="299" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A299" s="422"/>
+      <c r="B299" s="428">
+        <v>10</v>
+      </c>
+      <c r="C299" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D299" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E299" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F299" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G299" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H299" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I299" s="450">
+        <v>256</v>
+      </c>
+      <c r="J299" s="450"/>
+      <c r="K299" s="452"/>
+      <c r="L299" s="422"/>
+      <c r="M299" s="422"/>
+      <c r="N299" s="422"/>
+      <c r="O299" s="424"/>
+    </row>
+    <row r="300" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A300" s="422"/>
+      <c r="B300" s="428">
+        <v>11</v>
+      </c>
+      <c r="C300" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D300" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E300" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F300" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G300" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H300" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I300" s="450">
+        <v>11</v>
+      </c>
+      <c r="J300" s="450"/>
+      <c r="K300" s="452"/>
+      <c r="L300" s="422"/>
+      <c r="M300" s="422"/>
+      <c r="N300" s="422"/>
+      <c r="O300" s="424"/>
+    </row>
+    <row r="301" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A301" s="423"/>
+      <c r="B301" s="434">
+        <v>12</v>
+      </c>
+      <c r="C301" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D301" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E301" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F301" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G301" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H301" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I301" s="436">
+        <v>256</v>
+      </c>
+      <c r="J301" s="436"/>
+      <c r="K301" s="438"/>
+      <c r="L301" s="422"/>
+      <c r="M301" s="422"/>
+      <c r="N301" s="422"/>
+      <c r="O301" s="424"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582BAE2E-C6A9-42EA-8C22-9AAE913D83DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E08E5-14F2-4722-AF61-A14077D0098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$311</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$312</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$93</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="341">
   <si>
     <t>No</t>
   </si>
@@ -720,9 +720,6 @@
     <t>Privicy "Privicy &amp; policy"</t>
   </si>
   <si>
-    <t>Privicy "Guide"</t>
-  </si>
-  <si>
     <t>Privicy "Service"</t>
   </si>
   <si>
@@ -945,9 +942,6 @@
     <t>Shop List</t>
   </si>
   <si>
-    <t>Guide Line</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0:SA  1:NA</t>
   </si>
   <si>
@@ -963,9 +957,6 @@
     <t>Privicy&amp;policy</t>
   </si>
   <si>
-    <t>Guide</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -1057,6 +1048,30 @@
   </si>
   <si>
     <t>shop_name</t>
+  </si>
+  <si>
+    <t>Privicy "Delivery fee"</t>
+  </si>
+  <si>
+    <t>Delivery Fees</t>
+  </si>
+  <si>
+    <t>service's icon</t>
+  </si>
+  <si>
+    <t>Delivery Control</t>
+  </si>
+  <si>
+    <t>state_cate</t>
+  </si>
+  <si>
+    <t>state's categories</t>
+  </si>
+  <si>
+    <t>township_name</t>
+  </si>
+  <si>
+    <t>township's name</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1965,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="575">
+  <cellXfs count="574">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2828,13 +2843,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2939,9 +2956,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -4651,7 +4665,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- Guide Change    </a:t>
+            <a:t>- Delivery</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Control</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8905,8 +8927,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Guide</a:t>
+            <a:t>Delivery</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Control</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11040,7 +11067,7 @@
       <c r="L48" s="539"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.41012083333</v>
+        <v>44703.565304398151</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11061,7 +11088,7 @@
       <c r="L49" s="539"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.41012083333</v>
+        <v>44703.565304398151</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -12213,7 +12240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12462,7 +12489,7 @@
       <c r="I10" s="82">
         <v>44699</v>
       </c>
-      <c r="J10" s="535">
+      <c r="J10" s="534">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12497,7 +12524,7 @@
       <c r="I11" s="82">
         <v>44699</v>
       </c>
-      <c r="J11" s="535">
+      <c r="J11" s="534">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12532,7 +12559,7 @@
       <c r="I12" s="82">
         <v>44699</v>
       </c>
-      <c r="J12" s="535">
+      <c r="J12" s="534">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12567,7 +12594,7 @@
       <c r="I13" s="87">
         <v>44699</v>
       </c>
-      <c r="J13" s="536">
+      <c r="J13" s="535">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12602,7 +12629,7 @@
       <c r="I14" s="82">
         <v>44699</v>
       </c>
-      <c r="J14" s="535">
+      <c r="J14" s="534">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12637,7 +12664,7 @@
       <c r="I15" s="87">
         <v>44699</v>
       </c>
-      <c r="J15" s="536">
+      <c r="J15" s="535">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12672,7 +12699,7 @@
       <c r="I16" s="82">
         <v>44700</v>
       </c>
-      <c r="J16" s="535">
+      <c r="J16" s="534">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12707,7 +12734,7 @@
       <c r="I17" s="87">
         <v>44700</v>
       </c>
-      <c r="J17" s="536">
+      <c r="J17" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12742,7 +12769,7 @@
       <c r="I18" s="87">
         <v>44700</v>
       </c>
-      <c r="J18" s="536">
+      <c r="J18" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12777,7 +12804,7 @@
       <c r="I19" s="87">
         <v>44700</v>
       </c>
-      <c r="J19" s="536">
+      <c r="J19" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12812,7 +12839,7 @@
       <c r="I20" s="87">
         <v>44700</v>
       </c>
-      <c r="J20" s="536">
+      <c r="J20" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12847,7 +12874,7 @@
       <c r="I21" s="87">
         <v>44700</v>
       </c>
-      <c r="J21" s="536">
+      <c r="J21" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12882,7 +12909,7 @@
       <c r="I22" s="87">
         <v>44700</v>
       </c>
-      <c r="J22" s="536">
+      <c r="J22" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12917,7 +12944,7 @@
       <c r="I23" s="87">
         <v>44700</v>
       </c>
-      <c r="J23" s="536">
+      <c r="J23" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12952,7 +12979,7 @@
       <c r="I24" s="87">
         <v>44700</v>
       </c>
-      <c r="J24" s="536">
+      <c r="J24" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12966,7 +12993,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="D25" s="86" t="s">
         <v>108</v>
@@ -12987,7 +13014,7 @@
       <c r="I25" s="87">
         <v>44700</v>
       </c>
-      <c r="J25" s="536">
+      <c r="J25" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13001,7 +13028,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="86" t="s">
         <v>108</v>
@@ -13022,7 +13049,7 @@
       <c r="I26" s="87">
         <v>44700</v>
       </c>
-      <c r="J26" s="536">
+      <c r="J26" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13036,7 +13063,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="86" t="s">
         <v>108</v>
@@ -13057,7 +13084,7 @@
       <c r="I27" s="87">
         <v>44700</v>
       </c>
-      <c r="J27" s="536">
+      <c r="J27" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13071,7 +13098,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="86" t="s">
         <v>108</v>
@@ -13092,7 +13119,7 @@
       <c r="I28" s="87">
         <v>44700</v>
       </c>
-      <c r="J28" s="536">
+      <c r="J28" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13127,7 +13154,7 @@
       <c r="I29" s="82">
         <v>44700</v>
       </c>
-      <c r="J29" s="535">
+      <c r="J29" s="534">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13162,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="480" t="s">
         <v>109</v>
@@ -13183,7 +13210,7 @@
       <c r="I31" s="481">
         <v>44699</v>
       </c>
-      <c r="J31" s="533">
+      <c r="J31" s="532">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13197,7 +13224,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D32" s="480" t="s">
         <v>109</v>
@@ -13218,7 +13245,7 @@
       <c r="I32" s="481">
         <v>44699</v>
       </c>
-      <c r="J32" s="533">
+      <c r="J32" s="532">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13232,10 +13259,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="490" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E33" s="491">
         <v>44698</v>
@@ -13253,7 +13280,7 @@
       <c r="I33" s="491">
         <v>44700</v>
       </c>
-      <c r="J33" s="532">
+      <c r="J33" s="531">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13267,7 +13294,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" s="480" t="s">
         <v>109</v>
@@ -13288,7 +13315,7 @@
       <c r="I34" s="481">
         <v>44700</v>
       </c>
-      <c r="J34" s="533">
+      <c r="J34" s="532">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13302,10 +13329,10 @@
         <v>5</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D35" s="490" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E35" s="491">
         <v>44698</v>
@@ -13323,7 +13350,7 @@
       <c r="I35" s="491">
         <v>44701</v>
       </c>
-      <c r="J35" s="532">
+      <c r="J35" s="531">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -13337,10 +13364,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36" s="490" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E36" s="491">
         <v>44698</v>
@@ -13358,7 +13385,7 @@
       <c r="I36" s="491">
         <v>44701</v>
       </c>
-      <c r="J36" s="532">
+      <c r="J36" s="531">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -13372,7 +13399,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D37" s="480" t="s">
         <v>109</v>
@@ -13393,7 +13420,7 @@
       <c r="I37" s="481">
         <v>44700</v>
       </c>
-      <c r="J37" s="533">
+      <c r="J37" s="532">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13407,7 +13434,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38" s="480" t="s">
         <v>109</v>
@@ -13428,7 +13455,7 @@
       <c r="I38" s="481">
         <v>44701</v>
       </c>
-      <c r="J38" s="533">
+      <c r="J38" s="532">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -13442,10 +13469,10 @@
         <v>9</v>
       </c>
       <c r="C39" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="485" t="s">
         <v>235</v>
-      </c>
-      <c r="D39" s="485" t="s">
-        <v>236</v>
       </c>
       <c r="E39" s="486">
         <v>44698</v>
@@ -13463,7 +13490,7 @@
       <c r="I39" s="486">
         <v>44699</v>
       </c>
-      <c r="J39" s="534">
+      <c r="J39" s="533">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13477,10 +13504,10 @@
         <v>10</v>
       </c>
       <c r="C40" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D40" s="485" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E40" s="486">
         <v>44698</v>
@@ -13498,7 +13525,7 @@
       <c r="I40" s="486">
         <v>44700</v>
       </c>
-      <c r="J40" s="534">
+      <c r="J40" s="533">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13512,10 +13539,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D41" s="485" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E41" s="486">
         <v>44698</v>
@@ -13533,7 +13560,7 @@
       <c r="I41" s="486">
         <v>44700</v>
       </c>
-      <c r="J41" s="534">
+      <c r="J41" s="533">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -13547,7 +13574,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D42" s="480" t="s">
         <v>109</v>
@@ -13568,7 +13595,7 @@
       <c r="I42" s="481">
         <v>44702</v>
       </c>
-      <c r="J42" s="533">
+      <c r="J42" s="532">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -13603,7 +13630,7 @@
       <c r="I43" s="481">
         <v>44702</v>
       </c>
-      <c r="J43" s="533">
+      <c r="J43" s="532">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -13617,10 +13644,10 @@
         <v>14</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D44" s="485" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44" s="486">
         <v>44698</v>
@@ -13638,7 +13665,7 @@
       <c r="I44" s="486">
         <v>44699</v>
       </c>
-      <c r="J44" s="534">
+      <c r="J44" s="533">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13652,7 +13679,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="480" t="s">
         <v>109</v>
@@ -13673,7 +13700,7 @@
       <c r="I45" s="481">
         <v>44701</v>
       </c>
-      <c r="J45" s="533">
+      <c r="J45" s="532">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -13686,11 +13713,11 @@
       <c r="B46" s="489">
         <v>16</v>
       </c>
-      <c r="C46" s="490" t="s">
-        <v>297</v>
+      <c r="C46" s="80" t="s">
+        <v>296</v>
       </c>
       <c r="D46" s="490" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E46" s="491">
         <v>44698</v>
@@ -13708,8 +13735,8 @@
       <c r="I46" s="491">
         <v>44703</v>
       </c>
-      <c r="J46" s="532">
-        <f t="shared" si="1"/>
+      <c r="J46" s="531">
+        <f>I46-H46</f>
         <v>5</v>
       </c>
       <c r="K46" s="492">
@@ -13717,33 +13744,39 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="478"/>
-      <c r="B47" s="479">
+      <c r="A47" s="488"/>
+      <c r="B47" s="489">
         <v>17</v>
       </c>
-      <c r="C47" s="531" t="s">
+      <c r="C47" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" s="490" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="480"/>
-      <c r="E47" s="481">
+      <c r="E47" s="491">
         <v>44698</v>
       </c>
-      <c r="F47" s="481">
+      <c r="F47" s="491">
         <v>44703</v>
       </c>
-      <c r="G47" s="445">
+      <c r="G47" s="490">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H47" s="481">
+      <c r="H47" s="491">
         <v>44698</v>
       </c>
-      <c r="I47" s="481"/>
-      <c r="J47" s="447">
-        <f t="shared" si="1"/>
-        <v>-44698</v>
-      </c>
-      <c r="K47" s="482"/>
+      <c r="I47" s="491">
+        <v>44703</v>
+      </c>
+      <c r="J47" s="531">
+        <f>I47-H47</f>
+        <v>5</v>
+      </c>
+      <c r="K47" s="492">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="44">
@@ -13813,7 +13846,7 @@
       <c r="A50" s="443"/>
       <c r="B50" s="444"/>
       <c r="C50" s="445" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D50" s="445"/>
       <c r="E50" s="446"/>
@@ -14795,7 +14828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18308,9 +18341,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A235" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18489,10 +18524,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="211" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="211" t="s">
         <v>239</v>
-      </c>
-      <c r="D9" s="211" t="s">
-        <v>240</v>
       </c>
       <c r="E9" s="213" t="s">
         <v>145</v>
@@ -18654,7 +18689,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="429" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D14" s="429"/>
       <c r="E14" s="430" t="s">
@@ -18883,10 +18918,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="185" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="185" t="s">
         <v>263</v>
-      </c>
-      <c r="D21" s="185" t="s">
-        <v>264</v>
       </c>
       <c r="E21" s="186" t="s">
         <v>146</v>
@@ -19225,10 +19260,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="251" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="251" t="s">
         <v>239</v>
-      </c>
-      <c r="D33" s="251" t="s">
-        <v>240</v>
       </c>
       <c r="E33" s="253" t="s">
         <v>145</v>
@@ -19357,10 +19392,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="429" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" s="429" t="s">
         <v>293</v>
-      </c>
-      <c r="D37" s="429" t="s">
-        <v>294</v>
       </c>
       <c r="E37" s="430" t="s">
         <v>146</v>
@@ -19662,10 +19697,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="294" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="294" t="s">
         <v>239</v>
-      </c>
-      <c r="D48" s="294" t="s">
-        <v>240</v>
       </c>
       <c r="E48" s="296" t="s">
         <v>145</v>
@@ -20037,10 +20072,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="334" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="334" t="s">
         <v>239</v>
-      </c>
-      <c r="D61" s="334" t="s">
-        <v>240</v>
       </c>
       <c r="E61" s="336" t="s">
         <v>145</v>
@@ -20137,7 +20172,7 @@
         <v>128</v>
       </c>
       <c r="D64" s="305" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E64" s="306" t="s">
         <v>146</v>
@@ -20443,10 +20478,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="379" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="379" t="s">
         <v>239</v>
-      </c>
-      <c r="D75" s="379" t="s">
-        <v>240</v>
       </c>
       <c r="E75" s="381" t="s">
         <v>145</v>
@@ -20512,7 +20547,7 @@
         <v>128</v>
       </c>
       <c r="D77" s="429" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E77" s="430" t="s">
         <v>146</v>
@@ -20542,7 +20577,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="350" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D78" s="350" t="s">
         <v>183</v>
@@ -20575,10 +20610,10 @@
         <v>5</v>
       </c>
       <c r="C79" s="350" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="350" t="s">
         <v>267</v>
-      </c>
-      <c r="D79" s="350" t="s">
-        <v>268</v>
       </c>
       <c r="E79" s="351" t="s">
         <v>146</v>
@@ -20608,10 +20643,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="350" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="350" t="s">
         <v>269</v>
-      </c>
-      <c r="D80" s="350" t="s">
-        <v>270</v>
       </c>
       <c r="E80" s="351" t="s">
         <v>146</v>
@@ -20641,10 +20676,10 @@
         <v>7</v>
       </c>
       <c r="C81" s="350" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="350" t="s">
         <v>271</v>
-      </c>
-      <c r="D81" s="350" t="s">
-        <v>272</v>
       </c>
       <c r="E81" s="351" t="s">
         <v>146</v>
@@ -21087,10 +21122,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="418" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" s="418" t="s">
         <v>239</v>
-      </c>
-      <c r="D99" s="418" t="s">
-        <v>240</v>
       </c>
       <c r="E99" s="420" t="s">
         <v>145</v>
@@ -21252,10 +21287,10 @@
         <v>6</v>
       </c>
       <c r="C104" s="429" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D104" s="429" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E104" s="430" t="s">
         <v>146</v>
@@ -21318,10 +21353,10 @@
         <v>8</v>
       </c>
       <c r="C106" s="429" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="429" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E106" s="430" t="s">
         <v>146</v>
@@ -21340,7 +21375,7 @@
       </c>
       <c r="J106" s="430"/>
       <c r="K106" s="433" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L106" s="422"/>
       <c r="M106" s="422"/>
@@ -21629,10 +21664,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D117" s="474" t="s">
         <v>239</v>
-      </c>
-      <c r="D117" s="474" t="s">
-        <v>240</v>
       </c>
       <c r="E117" s="476" t="s">
         <v>145</v>
@@ -21698,7 +21733,7 @@
         <v>187</v>
       </c>
       <c r="D119" s="429" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E119" s="430" t="s">
         <v>146</v>
@@ -21731,7 +21766,7 @@
         <v>128</v>
       </c>
       <c r="D120" s="429" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E120" s="430" t="s">
         <v>146</v>
@@ -21764,7 +21799,7 @@
         <v>200</v>
       </c>
       <c r="D121" s="429" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E121" s="430" t="s">
         <v>146</v>
@@ -21797,7 +21832,7 @@
         <v>201</v>
       </c>
       <c r="D122" s="429" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E122" s="430" t="s">
         <v>146</v>
@@ -21830,7 +21865,7 @@
         <v>202</v>
       </c>
       <c r="D123" s="429" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E123" s="430" t="s">
         <v>146</v>
@@ -21893,10 +21928,10 @@
         <v>9</v>
       </c>
       <c r="C125" s="467" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D125" s="467" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E125" s="468" t="s">
         <v>146</v>
@@ -21959,10 +21994,10 @@
         <v>11</v>
       </c>
       <c r="C127" s="429" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D127" s="429" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E127" s="430" t="s">
         <v>146</v>
@@ -21981,7 +22016,7 @@
       </c>
       <c r="J127" s="430"/>
       <c r="K127" s="433" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L127" s="422"/>
       <c r="M127" s="422"/>
@@ -22303,10 +22338,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139" s="474" t="s">
         <v>239</v>
-      </c>
-      <c r="D139" s="474" t="s">
-        <v>240</v>
       </c>
       <c r="E139" s="476" t="s">
         <v>145</v>
@@ -22336,7 +22371,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="429" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D140" s="429" t="s">
         <v>192</v>
@@ -22604,7 +22639,7 @@
       </c>
       <c r="C149" s="494"/>
       <c r="D149" s="498" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E149" s="499"/>
       <c r="F149" s="499"/>
@@ -22678,10 +22713,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="505" t="s">
+        <v>238</v>
+      </c>
+      <c r="D152" s="505" t="s">
         <v>239</v>
-      </c>
-      <c r="D152" s="505" t="s">
-        <v>240</v>
       </c>
       <c r="E152" s="506" t="s">
         <v>145</v>
@@ -22711,10 +22746,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="509" t="s">
+        <v>243</v>
+      </c>
+      <c r="D153" s="509" t="s">
         <v>244</v>
-      </c>
-      <c r="D153" s="509" t="s">
-        <v>245</v>
       </c>
       <c r="E153" s="510" t="s">
         <v>146</v>
@@ -22747,7 +22782,7 @@
         <v>128</v>
       </c>
       <c r="D154" s="514" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E154" s="510" t="s">
         <v>146</v>
@@ -22777,10 +22812,10 @@
         <v>4</v>
       </c>
       <c r="C155" s="514" t="s">
+        <v>245</v>
+      </c>
+      <c r="D155" s="514" t="s">
         <v>246</v>
-      </c>
-      <c r="D155" s="514" t="s">
-        <v>247</v>
       </c>
       <c r="E155" s="510" t="s">
         <v>146</v>
@@ -22813,7 +22848,7 @@
         <v>203</v>
       </c>
       <c r="D156" s="514" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E156" s="510" t="s">
         <v>146</v>
@@ -23004,7 +23039,7 @@
       <c r="N161" s="494"/>
       <c r="O161" s="495"/>
     </row>
-    <row r="162" spans="1:15" s="537" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" s="536" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="465"/>
       <c r="B162" s="470"/>
       <c r="C162" s="470"/>
@@ -23021,7 +23056,7 @@
       <c r="N162" s="470"/>
       <c r="O162" s="471"/>
     </row>
-    <row r="163" spans="1:15" s="537" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" s="536" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="465"/>
       <c r="L163" s="470"/>
       <c r="M163" s="470"/>
@@ -23035,7 +23070,7 @@
       </c>
       <c r="C164" s="125"/>
       <c r="D164" s="129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E164" s="130"/>
       <c r="F164" s="130"/>
@@ -23108,10 +23143,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="133" t="s">
+        <v>238</v>
+      </c>
+      <c r="D167" s="133" t="s">
         <v>239</v>
-      </c>
-      <c r="D167" s="133" t="s">
-        <v>240</v>
       </c>
       <c r="E167" s="135" t="s">
         <v>145</v>
@@ -23137,10 +23172,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="D168" s="102" t="s">
         <v>250</v>
-      </c>
-      <c r="D168" s="102" t="s">
-        <v>251</v>
       </c>
       <c r="E168" s="103"/>
       <c r="F168" s="103"/>
@@ -23166,10 +23201,10 @@
         <v>3</v>
       </c>
       <c r="C169" s="121" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D169" s="121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E169" s="103" t="s">
         <v>146</v>
@@ -23199,10 +23234,10 @@
         <v>4</v>
       </c>
       <c r="C170" s="462" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D170" s="462" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E170" s="430" t="s">
         <v>146</v>
@@ -23232,10 +23267,10 @@
         <v>5</v>
       </c>
       <c r="C171" s="121" t="s">
+        <v>251</v>
+      </c>
+      <c r="D171" s="121" t="s">
         <v>252</v>
-      </c>
-      <c r="D171" s="121" t="s">
-        <v>253</v>
       </c>
       <c r="E171" s="103" t="s">
         <v>146</v>
@@ -23495,7 +23530,7 @@
       </c>
       <c r="C192" s="167"/>
       <c r="D192" s="170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E192" s="171"/>
       <c r="F192" s="171"/>
@@ -23554,10 +23589,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="174" t="s">
+        <v>238</v>
+      </c>
+      <c r="D195" s="174" t="s">
         <v>239</v>
-      </c>
-      <c r="D195" s="174" t="s">
-        <v>240</v>
       </c>
       <c r="E195" s="176" t="s">
         <v>145</v>
@@ -23583,10 +23618,10 @@
         <v>2</v>
       </c>
       <c r="C196" s="144" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D196" s="144" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E196" s="145"/>
       <c r="F196" s="145"/>
@@ -23612,7 +23647,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="163" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D197" s="163"/>
       <c r="E197" s="145" t="s">
@@ -23643,7 +23678,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="462" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D198" s="462" t="s">
         <v>199</v>
@@ -23952,10 +23987,10 @@
         <v>1</v>
       </c>
       <c r="C209" s="174" t="s">
+        <v>238</v>
+      </c>
+      <c r="D209" s="174" t="s">
         <v>239</v>
-      </c>
-      <c r="D209" s="174" t="s">
-        <v>240</v>
       </c>
       <c r="E209" s="176" t="s">
         <v>145</v>
@@ -23985,10 +24020,10 @@
         <v>2</v>
       </c>
       <c r="C210" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="D210" s="144" t="s">
         <v>257</v>
-      </c>
-      <c r="D210" s="144" t="s">
-        <v>258</v>
       </c>
       <c r="E210" s="145" t="s">
         <v>146</v>
@@ -24018,10 +24053,10 @@
         <v>3</v>
       </c>
       <c r="C211" s="163" t="s">
+        <v>258</v>
+      </c>
+      <c r="D211" s="163" t="s">
         <v>259</v>
-      </c>
-      <c r="D211" s="163" t="s">
-        <v>260</v>
       </c>
       <c r="E211" s="145" t="s">
         <v>146</v>
@@ -24051,10 +24086,10 @@
         <v>4</v>
       </c>
       <c r="C212" s="163" t="s">
+        <v>260</v>
+      </c>
+      <c r="D212" s="163" t="s">
         <v>261</v>
-      </c>
-      <c r="D212" s="163" t="s">
-        <v>262</v>
       </c>
       <c r="E212" s="145" t="s">
         <v>146</v>
@@ -24084,10 +24119,10 @@
         <v>5</v>
       </c>
       <c r="C213" s="462" t="s">
+        <v>287</v>
+      </c>
+      <c r="D213" s="462" t="s">
         <v>288</v>
-      </c>
-      <c r="D213" s="462" t="s">
-        <v>289</v>
       </c>
       <c r="E213" s="430" t="s">
         <v>146</v>
@@ -24106,7 +24141,7 @@
       </c>
       <c r="J213" s="463"/>
       <c r="K213" s="477" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L213" s="137"/>
       <c r="M213" s="137"/>
@@ -24310,7 +24345,7 @@
       </c>
       <c r="C221" s="470"/>
       <c r="D221" s="170" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E221" s="171"/>
       <c r="F221" s="171"/>
@@ -24369,10 +24404,10 @@
         <v>1</v>
       </c>
       <c r="C224" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D224" s="474" t="s">
         <v>239</v>
-      </c>
-      <c r="D224" s="474" t="s">
-        <v>240</v>
       </c>
       <c r="E224" s="476" t="s">
         <v>145</v>
@@ -24398,10 +24433,10 @@
         <v>2</v>
       </c>
       <c r="C225" s="429" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D225" s="429" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E225" s="430"/>
       <c r="F225" s="430"/>
@@ -24427,7 +24462,7 @@
         <v>3</v>
       </c>
       <c r="C226" s="462" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D226" s="462"/>
       <c r="E226" s="430" t="s">
@@ -24458,7 +24493,7 @@
         <v>4</v>
       </c>
       <c r="C227" s="462" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D227" s="462" t="s">
         <v>199</v>
@@ -24659,7 +24694,7 @@
       </c>
       <c r="C235" s="470"/>
       <c r="D235" s="170" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="E235" s="171"/>
       <c r="F235" s="171"/>
@@ -24718,10 +24753,10 @@
         <v>1</v>
       </c>
       <c r="C238" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D238" s="474" t="s">
         <v>239</v>
-      </c>
-      <c r="D238" s="474" t="s">
-        <v>240</v>
       </c>
       <c r="E238" s="476" t="s">
         <v>145</v>
@@ -24747,13 +24782,17 @@
         <v>2</v>
       </c>
       <c r="C239" s="429" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="D239" s="429" t="s">
-        <v>251</v>
-      </c>
-      <c r="E239" s="430"/>
-      <c r="F239" s="430"/>
+        <v>284</v>
+      </c>
+      <c r="E239" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F239" s="430" t="s">
+        <v>146</v>
+      </c>
       <c r="G239" s="430" t="s">
         <v>145</v>
       </c>
@@ -24776,9 +24815,11 @@
         <v>3</v>
       </c>
       <c r="C240" s="462" t="s">
-        <v>256</v>
-      </c>
-      <c r="D240" s="462"/>
+        <v>283</v>
+      </c>
+      <c r="D240" s="462" t="s">
+        <v>285</v>
+      </c>
       <c r="E240" s="430" t="s">
         <v>146</v>
       </c>
@@ -24807,10 +24848,10 @@
         <v>4</v>
       </c>
       <c r="C241" s="462" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="D241" s="462" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="E241" s="430" t="s">
         <v>146</v>
@@ -24822,10 +24863,10 @@
         <v>145</v>
       </c>
       <c r="H241" s="462" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I241" s="472">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J241" s="463"/>
       <c r="K241" s="477"/>
@@ -24839,46 +24880,44 @@
       <c r="B242" s="428">
         <v>5</v>
       </c>
-      <c r="C242" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D242" s="429" t="s">
-        <v>167</v>
+      <c r="C242" s="462" t="s">
+        <v>339</v>
+      </c>
+      <c r="D242" s="462" t="s">
+        <v>340</v>
       </c>
       <c r="E242" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F242" s="430" t="s">
+      <c r="F242" s="472" t="s">
         <v>146</v>
       </c>
       <c r="G242" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H242" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I242" s="430">
-        <v>11</v>
-      </c>
-      <c r="J242" s="430"/>
-      <c r="K242" s="288" t="s">
-        <v>168</v>
-      </c>
+      <c r="H242" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I242" s="472">
+        <v>256</v>
+      </c>
+      <c r="J242" s="463"/>
+      <c r="K242" s="477"/>
       <c r="L242" s="422"/>
       <c r="M242" s="422"/>
       <c r="N242" s="422"/>
       <c r="O242" s="424"/>
     </row>
     <row r="243" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A243" s="465"/>
+      <c r="A243" s="423"/>
       <c r="B243" s="428">
         <v>6</v>
       </c>
-      <c r="C243" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D243" s="456" t="s">
-        <v>159</v>
+      <c r="C243" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D243" s="429" t="s">
+        <v>167</v>
       </c>
       <c r="E243" s="430" t="s">
         <v>146</v>
@@ -24886,32 +24925,34 @@
       <c r="F243" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="G243" s="457" t="s">
+      <c r="G243" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H243" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I243" s="457">
-        <v>10</v>
-      </c>
-      <c r="J243" s="457"/>
-      <c r="K243" s="459"/>
+      <c r="H243" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I243" s="430">
+        <v>11</v>
+      </c>
+      <c r="J243" s="430"/>
+      <c r="K243" s="288" t="s">
+        <v>168</v>
+      </c>
       <c r="L243" s="422"/>
       <c r="M243" s="422"/>
       <c r="N243" s="422"/>
       <c r="O243" s="424"/>
     </row>
     <row r="244" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A244" s="423"/>
+      <c r="A244" s="465"/>
       <c r="B244" s="428">
         <v>7</v>
       </c>
-      <c r="C244" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D244" s="449" t="s">
-        <v>160</v>
+      <c r="C244" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D244" s="456" t="s">
+        <v>159</v>
       </c>
       <c r="E244" s="430" t="s">
         <v>146</v>
@@ -24919,32 +24960,32 @@
       <c r="F244" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="G244" s="450" t="s">
+      <c r="G244" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H244" s="451" t="s">
+      <c r="H244" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I244" s="450">
-        <v>256</v>
-      </c>
-      <c r="J244" s="450"/>
-      <c r="K244" s="452"/>
+      <c r="I244" s="457">
+        <v>10</v>
+      </c>
+      <c r="J244" s="457"/>
+      <c r="K244" s="459"/>
       <c r="L244" s="422"/>
       <c r="M244" s="422"/>
       <c r="N244" s="422"/>
       <c r="O244" s="424"/>
     </row>
     <row r="245" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A245" s="422"/>
+      <c r="A245" s="423"/>
       <c r="B245" s="428">
         <v>8</v>
       </c>
       <c r="C245" s="449" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D245" s="449" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E245" s="430" t="s">
         <v>146</v>
@@ -24953,13 +24994,13 @@
         <v>146</v>
       </c>
       <c r="G245" s="450" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H245" s="451" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I245" s="450">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J245" s="450"/>
       <c r="K245" s="452"/>
@@ -24968,183 +25009,185 @@
       <c r="N245" s="422"/>
       <c r="O245" s="424"/>
     </row>
-    <row r="246" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="423"/>
-      <c r="B246" s="434">
+    <row r="246" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A246" s="422"/>
+      <c r="B246" s="428">
         <v>9</v>
       </c>
-      <c r="C246" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D246" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E246" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F246" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G246" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H246" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I246" s="436">
-        <v>256</v>
-      </c>
-      <c r="J246" s="436"/>
-      <c r="K246" s="438"/>
+      <c r="C246" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D246" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E246" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F246" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G246" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H246" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I246" s="450">
+        <v>11</v>
+      </c>
+      <c r="J246" s="450"/>
+      <c r="K246" s="452"/>
       <c r="L246" s="422"/>
       <c r="M246" s="422"/>
       <c r="N246" s="422"/>
       <c r="O246" s="424"/>
     </row>
-    <row r="248" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="249" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B249" s="169" t="s">
+    <row r="247" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="423"/>
+      <c r="B247" s="434">
+        <v>10</v>
+      </c>
+      <c r="C247" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D247" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E247" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F247" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G247" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H247" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I247" s="436">
+        <v>256</v>
+      </c>
+      <c r="J247" s="436"/>
+      <c r="K247" s="438"/>
+      <c r="L247" s="422"/>
+      <c r="M247" s="422"/>
+      <c r="N247" s="422"/>
+      <c r="O247" s="424"/>
+    </row>
+    <row r="249" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="250" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B250" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C249" s="470"/>
-      <c r="D249" s="170" t="s">
-        <v>237</v>
-      </c>
-      <c r="E249" s="171"/>
-      <c r="F249" s="171"/>
-      <c r="G249" s="172"/>
-      <c r="H249" s="470"/>
-      <c r="I249" s="470"/>
-      <c r="J249" s="470"/>
-      <c r="K249" s="470"/>
-    </row>
-    <row r="250" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="422"/>
-      <c r="C250" s="422"/>
-      <c r="D250" s="422"/>
-      <c r="E250" s="422"/>
-      <c r="F250" s="422"/>
-      <c r="G250" s="422"/>
-      <c r="H250" s="422"/>
-      <c r="I250" s="422"/>
-      <c r="J250" s="422"/>
-      <c r="K250" s="422"/>
-    </row>
-    <row r="251" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B251" s="425" t="s">
+      <c r="C250" s="470"/>
+      <c r="D250" s="170" t="s">
+        <v>236</v>
+      </c>
+      <c r="E250" s="171"/>
+      <c r="F250" s="171"/>
+      <c r="G250" s="172"/>
+      <c r="H250" s="470"/>
+      <c r="I250" s="470"/>
+      <c r="J250" s="470"/>
+      <c r="K250" s="470"/>
+    </row>
+    <row r="251" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="422"/>
+      <c r="C251" s="422"/>
+      <c r="D251" s="422"/>
+      <c r="E251" s="422"/>
+      <c r="F251" s="422"/>
+      <c r="G251" s="422"/>
+      <c r="H251" s="422"/>
+      <c r="I251" s="422"/>
+      <c r="J251" s="422"/>
+      <c r="K251" s="422"/>
+    </row>
+    <row r="252" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B252" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="C251" s="426" t="s">
+      <c r="C252" s="426" t="s">
         <v>30</v>
       </c>
-      <c r="D251" s="426" t="s">
+      <c r="D252" s="426" t="s">
         <v>31</v>
       </c>
-      <c r="E251" s="426" t="s">
+      <c r="E252" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="F251" s="426" t="s">
+      <c r="F252" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="G251" s="426" t="s">
+      <c r="G252" s="426" t="s">
         <v>34</v>
       </c>
-      <c r="H251" s="426" t="s">
+      <c r="H252" s="426" t="s">
         <v>35</v>
       </c>
-      <c r="I251" s="426" t="s">
+      <c r="I252" s="426" t="s">
         <v>36</v>
       </c>
-      <c r="J251" s="426" t="s">
+      <c r="J252" s="426" t="s">
         <v>37</v>
       </c>
-      <c r="K251" s="427" t="s">
+      <c r="K252" s="427" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="252" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B252" s="473">
+    <row r="253" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B253" s="473">
         <v>1</v>
       </c>
-      <c r="C252" s="474" t="s">
+      <c r="C253" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D253" s="474" t="s">
         <v>239</v>
       </c>
-      <c r="D252" s="474" t="s">
-        <v>240</v>
-      </c>
-      <c r="E252" s="476" t="s">
+      <c r="E253" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="F252" s="476" t="s">
+      <c r="F253" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="G252" s="476" t="s">
+      <c r="G253" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H252" s="474" t="s">
+      <c r="H253" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I252" s="476">
+      <c r="I253" s="476">
         <v>11</v>
       </c>
-      <c r="J252" s="474"/>
-      <c r="K252" s="475"/>
-    </row>
-    <row r="253" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A253" s="465"/>
-      <c r="B253" s="276">
+      <c r="J253" s="474"/>
+      <c r="K253" s="475"/>
+    </row>
+    <row r="254" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A254" s="465"/>
+      <c r="B254" s="276">
         <v>2</v>
       </c>
-      <c r="C253" s="429" t="s">
-        <v>255</v>
-      </c>
-      <c r="D253" s="429" t="s">
-        <v>251</v>
-      </c>
-      <c r="E253" s="430"/>
-      <c r="F253" s="430"/>
-      <c r="G253" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H253" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I253" s="430">
-        <v>256</v>
-      </c>
-      <c r="J253" s="430"/>
-      <c r="K253" s="452"/>
-      <c r="L253" s="422"/>
-      <c r="M253" s="422"/>
-      <c r="N253" s="422"/>
-      <c r="O253" s="424"/>
-    </row>
-    <row r="254" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A254" s="423"/>
-      <c r="B254" s="428">
-        <v>3</v>
-      </c>
-      <c r="C254" s="462" t="s">
-        <v>256</v>
-      </c>
-      <c r="D254" s="462"/>
-      <c r="E254" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F254" s="472" t="s">
-        <v>146</v>
-      </c>
+      <c r="C254" s="429" t="s">
+        <v>254</v>
+      </c>
+      <c r="D254" s="429" t="s">
+        <v>250</v>
+      </c>
+      <c r="E254" s="430"/>
+      <c r="F254" s="430"/>
       <c r="G254" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H254" s="462" t="s">
+      <c r="H254" s="431" t="s">
         <v>148</v>
       </c>
-      <c r="I254" s="472">
+      <c r="I254" s="430">
         <v>256</v>
       </c>
-      <c r="J254" s="463"/>
-      <c r="K254" s="464"/>
+      <c r="J254" s="430"/>
+      <c r="K254" s="452"/>
       <c r="L254" s="422"/>
       <c r="M254" s="422"/>
       <c r="N254" s="422"/>
@@ -25153,14 +25196,12 @@
     <row r="255" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A255" s="423"/>
       <c r="B255" s="428">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" s="462" t="s">
-        <v>287</v>
-      </c>
-      <c r="D255" s="462" t="s">
-        <v>199</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D255" s="462"/>
       <c r="E255" s="430" t="s">
         <v>146</v>
       </c>
@@ -25171,13 +25212,13 @@
         <v>145</v>
       </c>
       <c r="H255" s="462" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I255" s="472">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J255" s="463"/>
-      <c r="K255" s="477"/>
+      <c r="K255" s="464"/>
       <c r="L255" s="422"/>
       <c r="M255" s="422"/>
       <c r="N255" s="422"/>
@@ -25186,12 +25227,14 @@
     <row r="256" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A256" s="423"/>
       <c r="B256" s="428">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" s="462" t="s">
-        <v>305</v>
-      </c>
-      <c r="D256" s="462"/>
+        <v>286</v>
+      </c>
+      <c r="D256" s="462" t="s">
+        <v>199</v>
+      </c>
       <c r="E256" s="430" t="s">
         <v>146</v>
       </c>
@@ -25202,10 +25245,10 @@
         <v>145</v>
       </c>
       <c r="H256" s="462" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I256" s="472">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="J256" s="463"/>
       <c r="K256" s="477"/>
@@ -25217,48 +25260,46 @@
     <row r="257" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A257" s="423"/>
       <c r="B257" s="428">
-        <v>6</v>
-      </c>
-      <c r="C257" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D257" s="429" t="s">
-        <v>167</v>
+        <v>5</v>
+      </c>
+      <c r="C257" s="462" t="s">
+        <v>302</v>
+      </c>
+      <c r="D257" s="462" t="s">
+        <v>335</v>
       </c>
       <c r="E257" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F257" s="430" t="s">
+      <c r="F257" s="472" t="s">
         <v>146</v>
       </c>
       <c r="G257" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H257" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I257" s="430">
-        <v>11</v>
-      </c>
-      <c r="J257" s="430"/>
-      <c r="K257" s="288" t="s">
-        <v>168</v>
-      </c>
+      <c r="H257" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I257" s="472">
+        <v>256</v>
+      </c>
+      <c r="J257" s="463"/>
+      <c r="K257" s="477"/>
       <c r="L257" s="422"/>
       <c r="M257" s="422"/>
       <c r="N257" s="422"/>
       <c r="O257" s="424"/>
     </row>
     <row r="258" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A258" s="465"/>
+      <c r="A258" s="423"/>
       <c r="B258" s="428">
-        <v>7</v>
-      </c>
-      <c r="C258" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D258" s="456" t="s">
-        <v>159</v>
+        <v>6</v>
+      </c>
+      <c r="C258" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D258" s="429" t="s">
+        <v>167</v>
       </c>
       <c r="E258" s="430" t="s">
         <v>146</v>
@@ -25266,32 +25307,34 @@
       <c r="F258" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="G258" s="457" t="s">
+      <c r="G258" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H258" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I258" s="457">
-        <v>10</v>
-      </c>
-      <c r="J258" s="457"/>
-      <c r="K258" s="459"/>
+      <c r="H258" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I258" s="430">
+        <v>11</v>
+      </c>
+      <c r="J258" s="430"/>
+      <c r="K258" s="288" t="s">
+        <v>168</v>
+      </c>
       <c r="L258" s="422"/>
       <c r="M258" s="422"/>
       <c r="N258" s="422"/>
       <c r="O258" s="424"/>
     </row>
     <row r="259" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A259" s="423"/>
+      <c r="A259" s="465"/>
       <c r="B259" s="428">
-        <v>8</v>
-      </c>
-      <c r="C259" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D259" s="449" t="s">
-        <v>160</v>
+        <v>7</v>
+      </c>
+      <c r="C259" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D259" s="456" t="s">
+        <v>159</v>
       </c>
       <c r="E259" s="430" t="s">
         <v>146</v>
@@ -25299,32 +25342,32 @@
       <c r="F259" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="G259" s="450" t="s">
+      <c r="G259" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H259" s="451" t="s">
+      <c r="H259" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I259" s="450">
-        <v>256</v>
-      </c>
-      <c r="J259" s="450"/>
-      <c r="K259" s="452"/>
+      <c r="I259" s="457">
+        <v>10</v>
+      </c>
+      <c r="J259" s="457"/>
+      <c r="K259" s="459"/>
       <c r="L259" s="422"/>
       <c r="M259" s="422"/>
       <c r="N259" s="422"/>
       <c r="O259" s="424"/>
     </row>
     <row r="260" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A260" s="422"/>
+      <c r="A260" s="423"/>
       <c r="B260" s="428">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C260" s="449" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D260" s="449" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E260" s="430" t="s">
         <v>146</v>
@@ -25333,13 +25376,13 @@
         <v>146</v>
       </c>
       <c r="G260" s="450" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H260" s="451" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I260" s="450">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J260" s="450"/>
       <c r="K260" s="452"/>
@@ -25348,189 +25391,189 @@
       <c r="N260" s="422"/>
       <c r="O260" s="424"/>
     </row>
-    <row r="261" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="423"/>
-      <c r="B261" s="434">
-        <v>10</v>
-      </c>
-      <c r="C261" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D261" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E261" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F261" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G261" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H261" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I261" s="436">
-        <v>256</v>
-      </c>
-      <c r="J261" s="436"/>
-      <c r="K261" s="438"/>
+    <row r="261" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A261" s="422"/>
+      <c r="B261" s="428">
+        <v>9</v>
+      </c>
+      <c r="C261" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D261" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E261" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F261" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G261" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H261" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I261" s="450">
+        <v>11</v>
+      </c>
+      <c r="J261" s="450"/>
+      <c r="K261" s="452"/>
       <c r="L261" s="422"/>
       <c r="M261" s="422"/>
       <c r="N261" s="422"/>
       <c r="O261" s="424"/>
     </row>
-    <row r="263" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="264" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B264" s="169" t="s">
+    <row r="262" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="423"/>
+      <c r="B262" s="434">
+        <v>10</v>
+      </c>
+      <c r="C262" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D262" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E262" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F262" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G262" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H262" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I262" s="436">
+        <v>256</v>
+      </c>
+      <c r="J262" s="436"/>
+      <c r="K262" s="438"/>
+      <c r="L262" s="422"/>
+      <c r="M262" s="422"/>
+      <c r="N262" s="422"/>
+      <c r="O262" s="424"/>
+    </row>
+    <row r="264" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="265" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B265" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C264" s="470"/>
-      <c r="D264" s="170" t="s">
-        <v>306</v>
-      </c>
-      <c r="E264" s="171"/>
-      <c r="F264" s="171"/>
-      <c r="G264" s="172"/>
-      <c r="H264" s="470"/>
-      <c r="I264" s="470"/>
-      <c r="J264" s="470"/>
-      <c r="K264" s="470"/>
-    </row>
-    <row r="265" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="422"/>
-      <c r="C265" s="422"/>
-      <c r="D265" s="422"/>
-      <c r="E265" s="422"/>
-      <c r="F265" s="422"/>
-      <c r="G265" s="422"/>
-      <c r="H265" s="422"/>
-      <c r="I265" s="422"/>
-      <c r="J265" s="422"/>
-      <c r="K265" s="422"/>
-    </row>
-    <row r="266" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B266" s="425" t="s">
+      <c r="C265" s="470"/>
+      <c r="D265" s="170" t="s">
+        <v>303</v>
+      </c>
+      <c r="E265" s="171"/>
+      <c r="F265" s="171"/>
+      <c r="G265" s="172"/>
+      <c r="H265" s="470"/>
+      <c r="I265" s="470"/>
+      <c r="J265" s="470"/>
+      <c r="K265" s="470"/>
+    </row>
+    <row r="266" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="422"/>
+      <c r="C266" s="422"/>
+      <c r="D266" s="422"/>
+      <c r="E266" s="422"/>
+      <c r="F266" s="422"/>
+      <c r="G266" s="422"/>
+      <c r="H266" s="422"/>
+      <c r="I266" s="422"/>
+      <c r="J266" s="422"/>
+      <c r="K266" s="422"/>
+    </row>
+    <row r="267" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B267" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="C266" s="426" t="s">
+      <c r="C267" s="426" t="s">
         <v>30</v>
       </c>
-      <c r="D266" s="426" t="s">
+      <c r="D267" s="426" t="s">
         <v>31</v>
       </c>
-      <c r="E266" s="426" t="s">
+      <c r="E267" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="F266" s="426" t="s">
+      <c r="F267" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="G266" s="426" t="s">
+      <c r="G267" s="426" t="s">
         <v>34</v>
       </c>
-      <c r="H266" s="426" t="s">
+      <c r="H267" s="426" t="s">
         <v>35</v>
       </c>
-      <c r="I266" s="426" t="s">
+      <c r="I267" s="426" t="s">
         <v>36</v>
       </c>
-      <c r="J266" s="426" t="s">
+      <c r="J267" s="426" t="s">
         <v>37</v>
       </c>
-      <c r="K266" s="427" t="s">
+      <c r="K267" s="427" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="267" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B267" s="473">
+    <row r="268" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B268" s="473">
         <v>1</v>
       </c>
-      <c r="C267" s="474" t="s">
+      <c r="C268" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D268" s="474" t="s">
         <v>239</v>
       </c>
-      <c r="D267" s="474" t="s">
-        <v>240</v>
-      </c>
-      <c r="E267" s="476" t="s">
+      <c r="E268" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="F267" s="476" t="s">
+      <c r="F268" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="G267" s="476" t="s">
+      <c r="G268" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H267" s="474" t="s">
+      <c r="H268" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I267" s="476">
+      <c r="I268" s="476">
         <v>11</v>
       </c>
-      <c r="J267" s="474"/>
-      <c r="K267" s="475"/>
-    </row>
-    <row r="268" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A268" s="465"/>
-      <c r="B268" s="276">
+      <c r="J268" s="474"/>
+      <c r="K268" s="475"/>
+    </row>
+    <row r="269" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A269" s="465"/>
+      <c r="B269" s="276">
         <v>2</v>
       </c>
-      <c r="C268" s="429" t="s">
-        <v>307</v>
-      </c>
-      <c r="D268" s="429" t="s">
-        <v>315</v>
-      </c>
-      <c r="E268" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F268" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G268" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H268" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I268" s="430">
-        <v>256</v>
-      </c>
-      <c r="J268" s="430"/>
-      <c r="K268" s="452"/>
-      <c r="L268" s="422"/>
-      <c r="M268" s="422"/>
-      <c r="N268" s="422"/>
-      <c r="O268" s="424"/>
-    </row>
-    <row r="269" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A269" s="423"/>
-      <c r="B269" s="428">
-        <v>3</v>
-      </c>
-      <c r="C269" s="462" t="s">
-        <v>308</v>
-      </c>
-      <c r="D269" s="462" t="s">
-        <v>314</v>
+      <c r="C269" s="429" t="s">
+        <v>304</v>
+      </c>
+      <c r="D269" s="429" t="s">
+        <v>312</v>
       </c>
       <c r="E269" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F269" s="472" t="s">
+      <c r="F269" s="430" t="s">
         <v>146</v>
       </c>
       <c r="G269" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H269" s="462" t="s">
+      <c r="H269" s="431" t="s">
         <v>148</v>
       </c>
-      <c r="I269" s="472">
+      <c r="I269" s="430">
         <v>256</v>
       </c>
-      <c r="J269" s="463"/>
-      <c r="K269" s="464"/>
+      <c r="J269" s="430"/>
+      <c r="K269" s="452"/>
       <c r="L269" s="422"/>
       <c r="M269" s="422"/>
       <c r="N269" s="422"/>
@@ -25539,13 +25582,13 @@
     <row r="270" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A270" s="423"/>
       <c r="B270" s="428">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C270" s="462" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D270" s="462" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E270" s="430" t="s">
         <v>146</v>
@@ -25563,7 +25606,7 @@
         <v>256</v>
       </c>
       <c r="J270" s="463"/>
-      <c r="K270" s="477"/>
+      <c r="K270" s="464"/>
       <c r="L270" s="422"/>
       <c r="M270" s="422"/>
       <c r="N270" s="422"/>
@@ -25572,13 +25615,13 @@
     <row r="271" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A271" s="423"/>
       <c r="B271" s="428">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C271" s="462" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D271" s="462" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E271" s="430" t="s">
         <v>146</v>
@@ -25593,7 +25636,7 @@
         <v>148</v>
       </c>
       <c r="I271" s="472">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="J271" s="463"/>
       <c r="K271" s="477"/>
@@ -25605,13 +25648,13 @@
     <row r="272" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A272" s="423"/>
       <c r="B272" s="428">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C272" s="462" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D272" s="462" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E272" s="430" t="s">
         <v>146</v>
@@ -25626,7 +25669,7 @@
         <v>148</v>
       </c>
       <c r="I272" s="472">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="J272" s="463"/>
       <c r="K272" s="477"/>
@@ -25638,13 +25681,13 @@
     <row r="273" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A273" s="423"/>
       <c r="B273" s="428">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C273" s="462" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D273" s="462" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E273" s="430" t="s">
         <v>146</v>
@@ -25671,13 +25714,13 @@
     <row r="274" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A274" s="423"/>
       <c r="B274" s="428">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C274" s="462" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D274" s="462" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E274" s="430" t="s">
         <v>146</v>
@@ -25704,13 +25747,13 @@
     <row r="275" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A275" s="423"/>
       <c r="B275" s="428">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C275" s="462" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D275" s="462" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E275" s="430" t="s">
         <v>146</v>
@@ -25737,13 +25780,13 @@
     <row r="276" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A276" s="423"/>
       <c r="B276" s="428">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C276" s="462" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D276" s="462" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E276" s="430" t="s">
         <v>146</v>
@@ -25770,13 +25813,13 @@
     <row r="277" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A277" s="423"/>
       <c r="B277" s="428">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C277" s="462" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D277" s="462" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E277" s="430" t="s">
         <v>146</v>
@@ -25803,13 +25846,13 @@
     <row r="278" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A278" s="423"/>
       <c r="B278" s="428">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C278" s="462" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D278" s="462" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E278" s="430" t="s">
         <v>146</v>
@@ -25836,48 +25879,46 @@
     <row r="279" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A279" s="423"/>
       <c r="B279" s="428">
-        <v>13</v>
-      </c>
-      <c r="C279" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D279" s="429" t="s">
-        <v>167</v>
+        <v>12</v>
+      </c>
+      <c r="C279" s="462" t="s">
+        <v>323</v>
+      </c>
+      <c r="D279" s="462" t="s">
+        <v>326</v>
       </c>
       <c r="E279" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F279" s="430" t="s">
+      <c r="F279" s="472" t="s">
         <v>146</v>
       </c>
       <c r="G279" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H279" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I279" s="430">
-        <v>11</v>
-      </c>
-      <c r="J279" s="430"/>
-      <c r="K279" s="288" t="s">
-        <v>168</v>
-      </c>
+      <c r="H279" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I279" s="472">
+        <v>256</v>
+      </c>
+      <c r="J279" s="463"/>
+      <c r="K279" s="477"/>
       <c r="L279" s="422"/>
       <c r="M279" s="422"/>
       <c r="N279" s="422"/>
       <c r="O279" s="424"/>
     </row>
     <row r="280" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A280" s="465"/>
+      <c r="A280" s="423"/>
       <c r="B280" s="428">
-        <v>14</v>
-      </c>
-      <c r="C280" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D280" s="456" t="s">
-        <v>159</v>
+        <v>13</v>
+      </c>
+      <c r="C280" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D280" s="429" t="s">
+        <v>167</v>
       </c>
       <c r="E280" s="430" t="s">
         <v>146</v>
@@ -25885,32 +25926,34 @@
       <c r="F280" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="G280" s="457" t="s">
+      <c r="G280" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H280" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I280" s="457">
-        <v>10</v>
-      </c>
-      <c r="J280" s="457"/>
-      <c r="K280" s="459"/>
+      <c r="H280" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I280" s="430">
+        <v>11</v>
+      </c>
+      <c r="J280" s="430"/>
+      <c r="K280" s="288" t="s">
+        <v>168</v>
+      </c>
       <c r="L280" s="422"/>
       <c r="M280" s="422"/>
       <c r="N280" s="422"/>
       <c r="O280" s="424"/>
     </row>
     <row r="281" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A281" s="423"/>
+      <c r="A281" s="465"/>
       <c r="B281" s="428">
-        <v>15</v>
-      </c>
-      <c r="C281" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D281" s="449" t="s">
-        <v>160</v>
+        <v>14</v>
+      </c>
+      <c r="C281" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D281" s="456" t="s">
+        <v>159</v>
       </c>
       <c r="E281" s="430" t="s">
         <v>146</v>
@@ -25918,32 +25961,32 @@
       <c r="F281" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="G281" s="450" t="s">
+      <c r="G281" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H281" s="451" t="s">
+      <c r="H281" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I281" s="450">
-        <v>256</v>
-      </c>
-      <c r="J281" s="450"/>
-      <c r="K281" s="452"/>
+      <c r="I281" s="457">
+        <v>10</v>
+      </c>
+      <c r="J281" s="457"/>
+      <c r="K281" s="459"/>
       <c r="L281" s="422"/>
       <c r="M281" s="422"/>
       <c r="N281" s="422"/>
       <c r="O281" s="424"/>
     </row>
     <row r="282" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A282" s="422"/>
+      <c r="A282" s="423"/>
       <c r="B282" s="428">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C282" s="449" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D282" s="449" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E282" s="430" t="s">
         <v>146</v>
@@ -25952,13 +25995,13 @@
         <v>146</v>
       </c>
       <c r="G282" s="450" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H282" s="451" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I282" s="450">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J282" s="450"/>
       <c r="K282" s="452"/>
@@ -25967,191 +26010,191 @@
       <c r="N282" s="422"/>
       <c r="O282" s="424"/>
     </row>
-    <row r="283" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="423"/>
-      <c r="B283" s="434">
-        <v>17</v>
-      </c>
-      <c r="C283" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D283" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E283" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F283" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G283" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H283" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I283" s="436">
-        <v>256</v>
-      </c>
-      <c r="J283" s="436"/>
-      <c r="K283" s="438"/>
+    <row r="283" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A283" s="422"/>
+      <c r="B283" s="428">
+        <v>16</v>
+      </c>
+      <c r="C283" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D283" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E283" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F283" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G283" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H283" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I283" s="450">
+        <v>11</v>
+      </c>
+      <c r="J283" s="450"/>
+      <c r="K283" s="452"/>
       <c r="L283" s="422"/>
       <c r="M283" s="422"/>
       <c r="N283" s="422"/>
       <c r="O283" s="424"/>
     </row>
-    <row r="286" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="287" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="423"/>
-      <c r="B287" s="169" t="s">
+    <row r="284" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A284" s="423"/>
+      <c r="B284" s="434">
+        <v>17</v>
+      </c>
+      <c r="C284" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D284" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E284" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F284" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G284" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H284" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I284" s="436">
+        <v>256</v>
+      </c>
+      <c r="J284" s="436"/>
+      <c r="K284" s="438"/>
+      <c r="L284" s="422"/>
+      <c r="M284" s="422"/>
+      <c r="N284" s="422"/>
+      <c r="O284" s="424"/>
+    </row>
+    <row r="287" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="288" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A288" s="423"/>
+      <c r="B288" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C287" s="470"/>
-      <c r="D287" s="170" t="s">
-        <v>330</v>
-      </c>
-      <c r="E287" s="171"/>
-      <c r="F287" s="171"/>
-      <c r="G287" s="172"/>
-      <c r="H287" s="470"/>
-      <c r="I287" s="470"/>
-      <c r="J287" s="470"/>
-      <c r="K287" s="470"/>
-      <c r="L287" s="422"/>
-      <c r="M287" s="422"/>
-      <c r="N287" s="422"/>
-      <c r="O287" s="424"/>
-    </row>
-    <row r="288" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="423"/>
-      <c r="B288" s="422"/>
-      <c r="C288" s="422"/>
-      <c r="D288" s="422"/>
-      <c r="E288" s="422"/>
-      <c r="F288" s="422"/>
-      <c r="G288" s="422"/>
-      <c r="H288" s="422"/>
-      <c r="I288" s="422"/>
-      <c r="J288" s="422"/>
-      <c r="K288" s="422"/>
+      <c r="C288" s="470"/>
+      <c r="D288" s="170" t="s">
+        <v>327</v>
+      </c>
+      <c r="E288" s="171"/>
+      <c r="F288" s="171"/>
+      <c r="G288" s="172"/>
+      <c r="H288" s="470"/>
+      <c r="I288" s="470"/>
+      <c r="J288" s="470"/>
+      <c r="K288" s="470"/>
       <c r="L288" s="422"/>
       <c r="M288" s="422"/>
       <c r="N288" s="422"/>
       <c r="O288" s="424"/>
     </row>
-    <row r="289" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="423"/>
-      <c r="B289" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C289" s="426" t="s">
-        <v>30</v>
-      </c>
-      <c r="D289" s="426" t="s">
-        <v>31</v>
-      </c>
-      <c r="E289" s="426" t="s">
-        <v>32</v>
-      </c>
-      <c r="F289" s="426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G289" s="426" t="s">
-        <v>34</v>
-      </c>
-      <c r="H289" s="426" t="s">
-        <v>35</v>
-      </c>
-      <c r="I289" s="426" t="s">
-        <v>36</v>
-      </c>
-      <c r="J289" s="426" t="s">
-        <v>37</v>
-      </c>
-      <c r="K289" s="427" t="s">
-        <v>38</v>
-      </c>
+      <c r="B289" s="422"/>
+      <c r="C289" s="422"/>
+      <c r="D289" s="422"/>
+      <c r="E289" s="422"/>
+      <c r="F289" s="422"/>
+      <c r="G289" s="422"/>
+      <c r="H289" s="422"/>
+      <c r="I289" s="422"/>
+      <c r="J289" s="422"/>
+      <c r="K289" s="422"/>
       <c r="L289" s="422"/>
       <c r="M289" s="422"/>
       <c r="N289" s="422"/>
       <c r="O289" s="424"/>
     </row>
     <row r="290" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B290" s="473">
+      <c r="A290" s="423"/>
+      <c r="B290" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D290" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E290" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F290" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G290" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H290" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I290" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J290" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K290" s="427" t="s">
+        <v>38</v>
+      </c>
+      <c r="L290" s="422"/>
+      <c r="M290" s="422"/>
+      <c r="N290" s="422"/>
+      <c r="O290" s="424"/>
+    </row>
+    <row r="291" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B291" s="473">
         <v>1</v>
       </c>
-      <c r="C290" s="474" t="s">
+      <c r="C291" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D291" s="474" t="s">
         <v>239</v>
       </c>
-      <c r="D290" s="474" t="s">
-        <v>240</v>
-      </c>
-      <c r="E290" s="476" t="s">
+      <c r="E291" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="F290" s="476" t="s">
+      <c r="F291" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="G290" s="476" t="s">
+      <c r="G291" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H290" s="474" t="s">
+      <c r="H291" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I290" s="476">
+      <c r="I291" s="476">
         <v>11</v>
       </c>
-      <c r="J290" s="474"/>
-      <c r="K290" s="475"/>
-    </row>
-    <row r="291" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A291" s="465"/>
-      <c r="B291" s="276">
-        <v>2</v>
-      </c>
-      <c r="C291" s="429" t="s">
-        <v>334</v>
-      </c>
-      <c r="D291" s="429" t="s">
-        <v>331</v>
-      </c>
-      <c r="E291" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F291" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G291" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H291" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I291" s="430">
-        <v>256</v>
-      </c>
-      <c r="J291" s="430"/>
-      <c r="K291" s="452"/>
-      <c r="L291" s="470"/>
-      <c r="M291" s="422"/>
-      <c r="N291" s="422"/>
-      <c r="O291" s="424"/>
+      <c r="J291" s="474"/>
+      <c r="K291" s="475"/>
     </row>
     <row r="292" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A292" s="465"/>
       <c r="B292" s="276">
-        <v>3</v>
-      </c>
-      <c r="C292" s="462" t="s">
-        <v>335</v>
-      </c>
-      <c r="D292" s="462" t="s">
-        <v>315</v>
+        <v>2</v>
+      </c>
+      <c r="C292" s="429" t="s">
+        <v>331</v>
+      </c>
+      <c r="D292" s="429" t="s">
+        <v>328</v>
       </c>
       <c r="E292" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F292" s="472" t="s">
+      <c r="F292" s="430" t="s">
         <v>146</v>
       </c>
       <c r="G292" s="430" t="s">
@@ -26163,7 +26206,7 @@
       <c r="I292" s="430">
         <v>256</v>
       </c>
-      <c r="J292" s="574"/>
+      <c r="J292" s="430"/>
       <c r="K292" s="452"/>
       <c r="L292" s="470"/>
       <c r="M292" s="422"/>
@@ -26173,13 +26216,13 @@
     <row r="293" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A293" s="465"/>
       <c r="B293" s="276">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C293" s="462" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D293" s="462" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E293" s="430" t="s">
         <v>146</v>
@@ -26196,7 +26239,7 @@
       <c r="I293" s="430">
         <v>256</v>
       </c>
-      <c r="J293" s="574"/>
+      <c r="J293" s="537"/>
       <c r="K293" s="452"/>
       <c r="L293" s="470"/>
       <c r="M293" s="422"/>
@@ -26204,15 +26247,15 @@
       <c r="O293" s="424"/>
     </row>
     <row r="294" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A294" s="423"/>
-      <c r="B294" s="428">
-        <v>5</v>
+      <c r="A294" s="465"/>
+      <c r="B294" s="276">
+        <v>4</v>
       </c>
       <c r="C294" s="462" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="D294" s="462" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="E294" s="430" t="s">
         <v>146</v>
@@ -26223,29 +26266,29 @@
       <c r="G294" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H294" s="462" t="s">
+      <c r="H294" s="431" t="s">
         <v>148</v>
       </c>
-      <c r="I294" s="472">
+      <c r="I294" s="430">
         <v>256</v>
       </c>
-      <c r="J294" s="463"/>
-      <c r="K294" s="464"/>
-      <c r="L294" s="422"/>
+      <c r="J294" s="537"/>
+      <c r="K294" s="452"/>
+      <c r="L294" s="470"/>
       <c r="M294" s="422"/>
       <c r="N294" s="422"/>
       <c r="O294" s="424"/>
     </row>
     <row r="295" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A295" s="423"/>
-      <c r="B295" s="461">
-        <v>6</v>
+      <c r="B295" s="428">
+        <v>5</v>
       </c>
       <c r="C295" s="462" t="s">
+        <v>282</v>
+      </c>
+      <c r="D295" s="462" t="s">
         <v>284</v>
-      </c>
-      <c r="D295" s="462" t="s">
-        <v>286</v>
       </c>
       <c r="E295" s="430" t="s">
         <v>146</v>
@@ -26272,13 +26315,13 @@
     <row r="296" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A296" s="423"/>
       <c r="B296" s="461">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C296" s="462" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="D296" s="462" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="E296" s="430" t="s">
         <v>146</v>
@@ -26293,7 +26336,7 @@
         <v>148</v>
       </c>
       <c r="I296" s="472">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="J296" s="463"/>
       <c r="K296" s="464"/>
@@ -26303,101 +26346,101 @@
       <c r="O296" s="424"/>
     </row>
     <row r="297" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A297" s="465"/>
-      <c r="B297" s="428">
-        <v>8</v>
-      </c>
-      <c r="C297" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D297" s="429" t="s">
-        <v>167</v>
+      <c r="A297" s="423"/>
+      <c r="B297" s="461">
+        <v>7</v>
+      </c>
+      <c r="C297" s="462" t="s">
+        <v>329</v>
+      </c>
+      <c r="D297" s="462" t="s">
+        <v>330</v>
       </c>
       <c r="E297" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F297" s="430" t="s">
+      <c r="F297" s="472" t="s">
         <v>146</v>
       </c>
       <c r="G297" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H297" s="431" t="s">
+      <c r="H297" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I297" s="472">
+        <v>20</v>
+      </c>
+      <c r="J297" s="463"/>
+      <c r="K297" s="464"/>
+      <c r="L297" s="422"/>
+      <c r="M297" s="422"/>
+      <c r="N297" s="422"/>
+      <c r="O297" s="424"/>
+    </row>
+    <row r="298" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A298" s="465"/>
+      <c r="B298" s="428">
+        <v>8</v>
+      </c>
+      <c r="C298" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D298" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E298" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F298" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G298" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H298" s="431" t="s">
         <v>147</v>
       </c>
-      <c r="I297" s="430">
+      <c r="I298" s="430">
         <v>11</v>
       </c>
-      <c r="J297" s="430"/>
-      <c r="K297" s="288" t="s">
+      <c r="J298" s="430"/>
+      <c r="K298" s="288" t="s">
         <v>168</v>
       </c>
-      <c r="L297" s="470"/>
-      <c r="M297" s="470"/>
-      <c r="N297" s="470"/>
-      <c r="O297" s="471"/>
-    </row>
-    <row r="298" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A298" s="423"/>
-      <c r="B298" s="428">
+      <c r="L298" s="470"/>
+      <c r="M298" s="470"/>
+      <c r="N298" s="470"/>
+      <c r="O298" s="471"/>
+    </row>
+    <row r="299" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A299" s="423"/>
+      <c r="B299" s="428">
         <v>9</v>
       </c>
-      <c r="C298" s="456" t="s">
+      <c r="C299" s="456" t="s">
         <v>154</v>
       </c>
-      <c r="D298" s="456" t="s">
+      <c r="D299" s="456" t="s">
         <v>159</v>
       </c>
-      <c r="E298" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F298" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G298" s="457" t="s">
+      <c r="E299" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F299" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G299" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H298" s="458" t="s">
+      <c r="H299" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I298" s="457">
+      <c r="I299" s="457">
         <v>10</v>
       </c>
-      <c r="J298" s="457"/>
-      <c r="K298" s="459"/>
-      <c r="L298" s="422"/>
-      <c r="M298" s="422"/>
-      <c r="N298" s="422"/>
-      <c r="O298" s="424"/>
-    </row>
-    <row r="299" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A299" s="422"/>
-      <c r="B299" s="428">
-        <v>10</v>
-      </c>
-      <c r="C299" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D299" s="449" t="s">
-        <v>160</v>
-      </c>
-      <c r="E299" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F299" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G299" s="450" t="s">
-        <v>145</v>
-      </c>
-      <c r="H299" s="451" t="s">
-        <v>148</v>
-      </c>
-      <c r="I299" s="450">
-        <v>256</v>
-      </c>
-      <c r="J299" s="450"/>
-      <c r="K299" s="452"/>
+      <c r="J299" s="457"/>
+      <c r="K299" s="459"/>
       <c r="L299" s="422"/>
       <c r="M299" s="422"/>
       <c r="N299" s="422"/>
@@ -26406,13 +26449,13 @@
     <row r="300" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A300" s="422"/>
       <c r="B300" s="428">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C300" s="449" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D300" s="449" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E300" s="430" t="s">
         <v>146</v>
@@ -26421,13 +26464,13 @@
         <v>146</v>
       </c>
       <c r="G300" s="450" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H300" s="451" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I300" s="450">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J300" s="450"/>
       <c r="K300" s="452"/>
@@ -26436,38 +26479,71 @@
       <c r="N300" s="422"/>
       <c r="O300" s="424"/>
     </row>
-    <row r="301" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="423"/>
-      <c r="B301" s="434">
-        <v>12</v>
-      </c>
-      <c r="C301" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D301" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E301" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F301" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G301" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H301" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I301" s="436">
-        <v>256</v>
-      </c>
-      <c r="J301" s="436"/>
-      <c r="K301" s="438"/>
+    <row r="301" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A301" s="422"/>
+      <c r="B301" s="428">
+        <v>11</v>
+      </c>
+      <c r="C301" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D301" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E301" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F301" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G301" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H301" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I301" s="450">
+        <v>11</v>
+      </c>
+      <c r="J301" s="450"/>
+      <c r="K301" s="452"/>
       <c r="L301" s="422"/>
       <c r="M301" s="422"/>
       <c r="N301" s="422"/>
       <c r="O301" s="424"/>
+    </row>
+    <row r="302" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A302" s="423"/>
+      <c r="B302" s="434">
+        <v>12</v>
+      </c>
+      <c r="C302" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D302" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E302" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F302" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G302" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H302" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I302" s="436">
+        <v>256</v>
+      </c>
+      <c r="J302" s="436"/>
+      <c r="K302" s="438"/>
+      <c r="L302" s="422"/>
+      <c r="M302" s="422"/>
+      <c r="N302" s="422"/>
+      <c r="O302" s="424"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\htdocs\YadnarThike\02.DesignDocument\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E08E5-14F2-4722-AF61-A14077D0098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$312</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$93</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1077,7 +1076,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2960,8 +2959,8 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{71D0DD3A-E7DB-4255-9F6C-E373792DADBE}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2997,7 +2996,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3059,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3116,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3179,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3242,7 @@
         <xdr:cNvPr id="114" name="Diamond 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,7 +3310,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,7 +3366,7 @@
         <xdr:cNvPr id="202" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,7 +3429,7 @@
         <xdr:cNvPr id="145" name="Rectangle 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3498,7 +3497,7 @@
         <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3554,7 +3553,7 @@
         <xdr:cNvPr id="222" name="Rectangle 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3617,7 +3616,7 @@
         <xdr:cNvPr id="223" name="Rectangle 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3680,7 +3679,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +3742,7 @@
         <xdr:cNvPr id="225" name="Rectangle 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3805,7 @@
         <xdr:cNvPr id="226" name="Rectangle 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3869,7 +3868,7 @@
         <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3925,7 +3924,7 @@
         <xdr:cNvPr id="203" name="Connector: Elbow 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3981,7 +3980,7 @@
         <xdr:cNvPr id="204" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,7 +4050,7 @@
         <xdr:cNvPr id="277" name="Rectangle 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4135,7 +4134,7 @@
         <xdr:cNvPr id="291" name="Rectangle 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4198,7 +4197,7 @@
         <xdr:cNvPr id="293" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4266,7 +4265,7 @@
         <xdr:cNvPr id="300" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4348,7 +4347,7 @@
         <xdr:cNvPr id="301" name="Rectangle 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4423,7 +4422,7 @@
         <xdr:cNvPr id="302" name="Rectangle 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4493,7 +4492,7 @@
         <xdr:cNvPr id="303" name="Rectangle 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4584,7 @@
         <xdr:cNvPr id="304" name="Rectangle 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4733,7 +4732,7 @@
         <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +4788,7 @@
         <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4845,7 +4844,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4901,7 +4900,7 @@
         <xdr:cNvPr id="245" name="Straight Arrow Connector 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4957,7 +4956,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5013,7 +5012,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5069,7 +5068,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5125,7 +5124,7 @@
         <xdr:cNvPr id="344" name="Rectangle 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5188,7 +5187,7 @@
         <xdr:cNvPr id="272" name="Straight Arrow Connector 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5244,7 +5243,7 @@
         <xdr:cNvPr id="348" name="Rectangle 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5307,7 +5306,7 @@
         <xdr:cNvPr id="349" name="Rectangle 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5370,7 +5369,7 @@
         <xdr:cNvPr id="350" name="Rectangle 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5438,7 +5437,7 @@
         <xdr:cNvPr id="353" name="Rectangle 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5501,7 +5500,7 @@
         <xdr:cNvPr id="354" name="Rectangle 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5564,7 +5563,7 @@
         <xdr:cNvPr id="275" name="Connector: Elbow 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5619,7 @@
         <xdr:cNvPr id="284" name="Connector: Elbow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5676,7 +5675,7 @@
         <xdr:cNvPr id="286" name="Connector: Elbow 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5732,7 +5731,7 @@
         <xdr:cNvPr id="288" name="Connector: Elbow 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5788,7 +5787,7 @@
         <xdr:cNvPr id="290" name="Connector: Elbow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5844,7 +5843,7 @@
         <xdr:cNvPr id="297" name="Connector: Elbow 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5900,7 +5899,7 @@
         <xdr:cNvPr id="299" name="Connector: Elbow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5956,7 +5955,7 @@
         <xdr:cNvPr id="306" name="Connector: Elbow 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6012,7 +6011,7 @@
         <xdr:cNvPr id="308" name="Connector: Elbow 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6068,7 +6067,7 @@
         <xdr:cNvPr id="310" name="Connector: Elbow 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6124,7 +6123,7 @@
         <xdr:cNvPr id="312" name="Straight Arrow Connector 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6180,7 +6179,7 @@
         <xdr:cNvPr id="320" name="Straight Arrow Connector 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6236,7 +6235,7 @@
         <xdr:cNvPr id="322" name="Rectangle 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,7 +6298,7 @@
         <xdr:cNvPr id="395" name="Rectangle 394">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6362,7 +6361,7 @@
         <xdr:cNvPr id="396" name="Rectangle 395">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6425,7 +6424,7 @@
         <xdr:cNvPr id="399" name="Rectangle 398">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6493,7 +6492,7 @@
         <xdr:cNvPr id="402" name="Rectangle 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6561,7 +6560,7 @@
         <xdr:cNvPr id="403" name="Rectangle 402">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6629,7 +6628,7 @@
         <xdr:cNvPr id="324" name="Connector: Elbow 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6687,7 +6686,7 @@
         <xdr:cNvPr id="326" name="Connector: Elbow 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6745,7 +6744,7 @@
         <xdr:cNvPr id="328" name="Connector: Elbow 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6803,7 +6802,7 @@
         <xdr:cNvPr id="330" name="Straight Arrow Connector 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6859,7 +6858,7 @@
         <xdr:cNvPr id="333" name="Straight Arrow Connector 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6915,7 +6914,7 @@
         <xdr:cNvPr id="336" name="Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6971,7 +6970,7 @@
         <xdr:cNvPr id="337" name="Diamond 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7034,7 +7033,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7090,7 +7089,7 @@
         <xdr:cNvPr id="345" name="Connector: Elbow 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7146,7 +7145,7 @@
         <xdr:cNvPr id="357" name="Rectangle 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7209,7 +7208,7 @@
         <xdr:cNvPr id="359" name="Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7265,7 +7264,7 @@
         <xdr:cNvPr id="434" name="Rectangle 433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7328,7 +7327,7 @@
         <xdr:cNvPr id="364" name="Connector: Elbow 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7384,7 +7383,7 @@
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7441,7 +7440,7 @@
         <xdr:cNvPr id="450" name="Rectangle 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7504,7 +7503,7 @@
         <xdr:cNvPr id="376" name="Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7561,7 +7560,7 @@
         <xdr:cNvPr id="464" name="Diamond 463">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7632,7 +7631,7 @@
         <xdr:cNvPr id="454" name="Straight Arrow Connector 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7689,7 +7688,7 @@
         <xdr:cNvPr id="461" name="Connector: Elbow 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7745,7 +7744,7 @@
         <xdr:cNvPr id="478" name="Rectangle 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7808,7 +7807,7 @@
         <xdr:cNvPr id="482" name="Rectangle 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7871,7 +7870,7 @@
         <xdr:cNvPr id="492" name="Rectangle 491">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7934,7 +7933,7 @@
         <xdr:cNvPr id="481" name="Connector: Elbow 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7990,7 +7989,7 @@
         <xdr:cNvPr id="488" name="Connector: Elbow 487">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8046,7 +8045,7 @@
         <xdr:cNvPr id="503" name="Rectangle 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8109,7 +8108,7 @@
         <xdr:cNvPr id="504" name="Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8172,7 +8171,7 @@
         <xdr:cNvPr id="506" name="Rectangle 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8235,7 +8234,7 @@
         <xdr:cNvPr id="493" name="Straight Arrow Connector 492">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8291,7 +8290,7 @@
         <xdr:cNvPr id="496" name="Connector: Elbow 495">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8350,7 +8349,7 @@
         <xdr:cNvPr id="500" name="Connector: Elbow 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8409,7 +8408,7 @@
         <xdr:cNvPr id="511" name="Connector: Elbow 510">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8467,7 +8466,7 @@
         <xdr:cNvPr id="386" name="Connector: Elbow 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8525,7 +8524,7 @@
         <xdr:cNvPr id="389" name="Connector: Elbow 388">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8583,7 +8582,7 @@
         <xdr:cNvPr id="412" name="Straight Arrow Connector 411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8639,7 +8638,7 @@
         <xdr:cNvPr id="549" name="Rectangle 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8707,7 +8706,7 @@
         <xdr:cNvPr id="416" name="Connector: Elbow 415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8763,7 +8762,7 @@
         <xdr:cNvPr id="557" name="Rectangle 556">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8826,7 +8825,7 @@
         <xdr:cNvPr id="558" name="Rectangle 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8889,7 +8888,7 @@
         <xdr:cNvPr id="559" name="Rectangle 558">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8957,7 +8956,7 @@
         <xdr:cNvPr id="560" name="Rectangle 559">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9020,7 +9019,7 @@
         <xdr:cNvPr id="561" name="Rectangle 560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9088,7 +9087,7 @@
         <xdr:cNvPr id="571" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9156,7 +9155,7 @@
         <xdr:cNvPr id="429" name="Straight Arrow Connector 428">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9212,7 +9211,7 @@
         <xdr:cNvPr id="431" name="Connector: Elbow 430">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9267,7 +9266,7 @@
         <xdr:cNvPr id="441" name="Connector: Elbow 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9323,7 +9322,7 @@
         <xdr:cNvPr id="444" name="Connector: Elbow 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9379,7 +9378,7 @@
         <xdr:cNvPr id="447" name="Straight Arrow Connector 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9435,7 +9434,7 @@
         <xdr:cNvPr id="603" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9499,7 +9498,7 @@
         <xdr:cNvPr id="526" name="Connector: Elbow 525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9555,7 +9554,7 @@
         <xdr:cNvPr id="536" name="Connector: Elbow 535">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9611,7 +9610,7 @@
         <xdr:cNvPr id="542" name="Connector: Elbow 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9671,7 +9670,7 @@
         <xdr:cNvPr id="625" name="Rectangle 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9739,7 +9738,7 @@
         <xdr:cNvPr id="627" name="Rectangle 626">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9802,7 +9801,7 @@
         <xdr:cNvPr id="565" name="Connector: Elbow 564">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9861,7 +9860,7 @@
         <xdr:cNvPr id="117" name="Rectangle 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9924,7 +9923,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10261,7 +10260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
@@ -11067,7 +11066,7 @@
       <c r="L48" s="539"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.565304398151</v>
+        <v>44703.809723958337</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11088,7 +11087,7 @@
       <c r="L49" s="539"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.565304398151</v>
+        <v>44703.809723958337</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -11138,7 +11137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
@@ -12237,7 +12236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
@@ -14825,10 +14824,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="M38" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16952,7 +16951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
@@ -18340,10 +18339,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A235" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A248" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E08E5-14F2-4722-AF61-A14077D0098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC06B3C-9405-471D-886E-D603BE33E49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11067,7 +11067,7 @@
       <c r="L48" s="539"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.565304398151</v>
+        <v>44703.823717708336</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11088,7 +11088,7 @@
       <c r="L49" s="539"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.565304398151</v>
+        <v>44703.823717708336</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -14828,7 +14828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="K24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18343,8 +18343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A235" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A244" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J252" sqref="J252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$312</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$352</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$93</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="346">
   <si>
     <t>No</t>
   </si>
@@ -1058,9 +1058,6 @@
     <t>service's icon</t>
   </si>
   <si>
-    <t>Delivery Control</t>
-  </si>
-  <si>
     <t>state_cate</t>
   </si>
   <si>
@@ -1071,6 +1068,24 @@
   </si>
   <si>
     <t>township's name</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>state's name</t>
+  </si>
+  <si>
+    <t>township</t>
+  </si>
+  <si>
+    <t>user_guide</t>
+  </si>
+  <si>
+    <t>guide_id</t>
   </si>
 </sst>
 </file>
@@ -2996,7 +3011,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3074,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,7 +3131,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3179,7 +3194,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,7 +3257,7 @@
         <xdr:cNvPr id="114" name="Diamond 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3325,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3381,7 @@
         <xdr:cNvPr id="202" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3444,7 @@
         <xdr:cNvPr id="145" name="Rectangle 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,7 +3512,7 @@
         <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3568,7 @@
         <xdr:cNvPr id="222" name="Rectangle 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3631,7 @@
         <xdr:cNvPr id="223" name="Rectangle 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3694,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3742,7 +3757,7 @@
         <xdr:cNvPr id="225" name="Rectangle 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3805,7 +3820,7 @@
         <xdr:cNvPr id="226" name="Rectangle 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3868,7 +3883,7 @@
         <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3924,7 +3939,7 @@
         <xdr:cNvPr id="203" name="Connector: Elbow 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3980,7 +3995,7 @@
         <xdr:cNvPr id="204" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4050,7 +4065,7 @@
         <xdr:cNvPr id="277" name="Rectangle 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4134,7 +4149,7 @@
         <xdr:cNvPr id="291" name="Rectangle 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4197,7 +4212,7 @@
         <xdr:cNvPr id="293" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4265,7 +4280,7 @@
         <xdr:cNvPr id="300" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4347,7 +4362,7 @@
         <xdr:cNvPr id="301" name="Rectangle 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4422,7 +4437,7 @@
         <xdr:cNvPr id="302" name="Rectangle 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4492,7 +4507,7 @@
         <xdr:cNvPr id="303" name="Rectangle 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,7 +4599,7 @@
         <xdr:cNvPr id="304" name="Rectangle 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4732,7 +4747,7 @@
         <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4788,7 +4803,7 @@
         <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4844,7 +4859,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4900,7 +4915,7 @@
         <xdr:cNvPr id="245" name="Straight Arrow Connector 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4956,7 +4971,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5012,7 +5027,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5083,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5124,7 +5139,7 @@
         <xdr:cNvPr id="344" name="Rectangle 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5187,7 +5202,7 @@
         <xdr:cNvPr id="272" name="Straight Arrow Connector 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5243,7 +5258,7 @@
         <xdr:cNvPr id="348" name="Rectangle 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5306,7 +5321,7 @@
         <xdr:cNvPr id="349" name="Rectangle 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5369,7 +5384,7 @@
         <xdr:cNvPr id="350" name="Rectangle 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5437,7 +5452,7 @@
         <xdr:cNvPr id="353" name="Rectangle 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5500,7 +5515,7 @@
         <xdr:cNvPr id="354" name="Rectangle 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5563,7 +5578,7 @@
         <xdr:cNvPr id="275" name="Connector: Elbow 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5619,7 +5634,7 @@
         <xdr:cNvPr id="284" name="Connector: Elbow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5675,7 +5690,7 @@
         <xdr:cNvPr id="286" name="Connector: Elbow 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5731,7 +5746,7 @@
         <xdr:cNvPr id="288" name="Connector: Elbow 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5787,7 +5802,7 @@
         <xdr:cNvPr id="290" name="Connector: Elbow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5843,7 +5858,7 @@
         <xdr:cNvPr id="297" name="Connector: Elbow 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5899,7 +5914,7 @@
         <xdr:cNvPr id="299" name="Connector: Elbow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5955,7 +5970,7 @@
         <xdr:cNvPr id="306" name="Connector: Elbow 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6011,7 +6026,7 @@
         <xdr:cNvPr id="308" name="Connector: Elbow 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6067,7 +6082,7 @@
         <xdr:cNvPr id="310" name="Connector: Elbow 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6123,7 +6138,7 @@
         <xdr:cNvPr id="312" name="Straight Arrow Connector 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6179,7 +6194,7 @@
         <xdr:cNvPr id="320" name="Straight Arrow Connector 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6235,7 +6250,7 @@
         <xdr:cNvPr id="322" name="Rectangle 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6298,7 +6313,7 @@
         <xdr:cNvPr id="395" name="Rectangle 394">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6361,7 +6376,7 @@
         <xdr:cNvPr id="396" name="Rectangle 395">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6424,7 +6439,7 @@
         <xdr:cNvPr id="399" name="Rectangle 398">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6492,7 +6507,7 @@
         <xdr:cNvPr id="402" name="Rectangle 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,7 +6575,7 @@
         <xdr:cNvPr id="403" name="Rectangle 402">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6628,7 +6643,7 @@
         <xdr:cNvPr id="324" name="Connector: Elbow 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6686,7 +6701,7 @@
         <xdr:cNvPr id="326" name="Connector: Elbow 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6744,7 +6759,7 @@
         <xdr:cNvPr id="328" name="Connector: Elbow 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6802,7 +6817,7 @@
         <xdr:cNvPr id="330" name="Straight Arrow Connector 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6858,7 +6873,7 @@
         <xdr:cNvPr id="333" name="Straight Arrow Connector 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6914,7 +6929,7 @@
         <xdr:cNvPr id="336" name="Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6970,7 +6985,7 @@
         <xdr:cNvPr id="337" name="Diamond 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7033,7 +7048,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7089,7 +7104,7 @@
         <xdr:cNvPr id="345" name="Connector: Elbow 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7145,7 +7160,7 @@
         <xdr:cNvPr id="357" name="Rectangle 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7208,7 +7223,7 @@
         <xdr:cNvPr id="359" name="Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7264,7 +7279,7 @@
         <xdr:cNvPr id="434" name="Rectangle 433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7327,7 +7342,7 @@
         <xdr:cNvPr id="364" name="Connector: Elbow 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7383,7 +7398,7 @@
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7440,7 +7455,7 @@
         <xdr:cNvPr id="450" name="Rectangle 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7503,7 +7518,7 @@
         <xdr:cNvPr id="376" name="Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7560,7 +7575,7 @@
         <xdr:cNvPr id="464" name="Diamond 463">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7631,7 +7646,7 @@
         <xdr:cNvPr id="454" name="Straight Arrow Connector 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7688,7 +7703,7 @@
         <xdr:cNvPr id="461" name="Connector: Elbow 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7744,7 +7759,7 @@
         <xdr:cNvPr id="478" name="Rectangle 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7807,7 +7822,7 @@
         <xdr:cNvPr id="482" name="Rectangle 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7870,7 +7885,7 @@
         <xdr:cNvPr id="492" name="Rectangle 491">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7933,7 +7948,7 @@
         <xdr:cNvPr id="481" name="Connector: Elbow 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7989,7 +8004,7 @@
         <xdr:cNvPr id="488" name="Connector: Elbow 487">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8045,7 +8060,7 @@
         <xdr:cNvPr id="503" name="Rectangle 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8108,7 +8123,7 @@
         <xdr:cNvPr id="504" name="Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8171,7 +8186,7 @@
         <xdr:cNvPr id="506" name="Rectangle 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8234,7 +8249,7 @@
         <xdr:cNvPr id="493" name="Straight Arrow Connector 492">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8290,7 +8305,7 @@
         <xdr:cNvPr id="496" name="Connector: Elbow 495">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8349,7 +8364,7 @@
         <xdr:cNvPr id="500" name="Connector: Elbow 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8408,7 +8423,7 @@
         <xdr:cNvPr id="511" name="Connector: Elbow 510">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8466,7 +8481,7 @@
         <xdr:cNvPr id="386" name="Connector: Elbow 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8524,7 +8539,7 @@
         <xdr:cNvPr id="389" name="Connector: Elbow 388">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8582,7 +8597,7 @@
         <xdr:cNvPr id="412" name="Straight Arrow Connector 411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8638,7 +8653,7 @@
         <xdr:cNvPr id="549" name="Rectangle 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8706,7 +8721,7 @@
         <xdr:cNvPr id="416" name="Connector: Elbow 415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8762,7 +8777,7 @@
         <xdr:cNvPr id="557" name="Rectangle 556">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8825,7 +8840,7 @@
         <xdr:cNvPr id="558" name="Rectangle 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8888,7 +8903,7 @@
         <xdr:cNvPr id="559" name="Rectangle 558">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8956,7 +8971,7 @@
         <xdr:cNvPr id="560" name="Rectangle 559">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9019,7 +9034,7 @@
         <xdr:cNvPr id="561" name="Rectangle 560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9087,7 +9102,7 @@
         <xdr:cNvPr id="571" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9155,7 +9170,7 @@
         <xdr:cNvPr id="429" name="Straight Arrow Connector 428">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9211,7 +9226,7 @@
         <xdr:cNvPr id="431" name="Connector: Elbow 430">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9266,7 +9281,7 @@
         <xdr:cNvPr id="441" name="Connector: Elbow 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9322,7 +9337,7 @@
         <xdr:cNvPr id="444" name="Connector: Elbow 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9378,7 +9393,7 @@
         <xdr:cNvPr id="447" name="Straight Arrow Connector 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9434,7 +9449,7 @@
         <xdr:cNvPr id="603" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9498,7 +9513,7 @@
         <xdr:cNvPr id="526" name="Connector: Elbow 525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9554,7 +9569,7 @@
         <xdr:cNvPr id="536" name="Connector: Elbow 535">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9610,7 +9625,7 @@
         <xdr:cNvPr id="542" name="Connector: Elbow 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9670,7 +9685,7 @@
         <xdr:cNvPr id="625" name="Rectangle 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9738,7 +9753,7 @@
         <xdr:cNvPr id="627" name="Rectangle 626">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9801,7 +9816,7 @@
         <xdr:cNvPr id="565" name="Connector: Elbow 564">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9860,7 +9875,7 @@
         <xdr:cNvPr id="117" name="Rectangle 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9923,7 +9938,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11066,7 +11081,7 @@
       <c r="L48" s="539"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.809723958337</v>
+        <v>44703.879317592589</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11087,7 +11102,7 @@
       <c r="L49" s="539"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.809723958337</v>
+        <v>44703.879317592589</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -18340,10 +18355,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:O342"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A248" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A257" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K252" sqref="K252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23508,807 +23523,812 @@
       <c r="N180" s="95"/>
       <c r="O180" s="97"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
-      <c r="L181" s="6"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="14"/>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
-      <c r="L182" s="6"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
-      <c r="O182" s="14"/>
-    </row>
-    <row r="191" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B192" s="169" t="s">
+    <row r="181" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="423"/>
+      <c r="L181" s="422"/>
+      <c r="M181" s="422"/>
+      <c r="N181" s="422"/>
+      <c r="O181" s="424"/>
+    </row>
+    <row r="182" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B182" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C192" s="167"/>
-      <c r="D192" s="170" t="s">
-        <v>253</v>
-      </c>
-      <c r="E192" s="171"/>
-      <c r="F192" s="171"/>
-      <c r="G192" s="172"/>
-      <c r="H192" s="167"/>
-      <c r="I192" s="167"/>
-      <c r="J192" s="167"/>
-      <c r="K192" s="167"/>
-    </row>
-    <row r="193" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="137"/>
-      <c r="C193" s="137"/>
-      <c r="D193" s="137"/>
-      <c r="E193" s="137"/>
-      <c r="F193" s="137"/>
-      <c r="G193" s="137"/>
-      <c r="H193" s="137"/>
-      <c r="I193" s="137"/>
-      <c r="J193" s="137"/>
-      <c r="K193" s="137"/>
-    </row>
-    <row r="194" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B194" s="140" t="s">
+      <c r="C182" s="470"/>
+      <c r="D182" s="170" t="s">
+        <v>340</v>
+      </c>
+      <c r="E182" s="171"/>
+      <c r="F182" s="171"/>
+      <c r="G182" s="172"/>
+      <c r="H182" s="470"/>
+      <c r="I182" s="470"/>
+      <c r="J182" s="470"/>
+      <c r="K182" s="470"/>
+      <c r="M182" s="422"/>
+      <c r="N182" s="422"/>
+      <c r="O182" s="424"/>
+    </row>
+    <row r="183" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="422"/>
+      <c r="C183" s="422"/>
+      <c r="D183" s="422"/>
+      <c r="E183" s="422"/>
+      <c r="F183" s="422"/>
+      <c r="G183" s="422"/>
+      <c r="H183" s="422"/>
+      <c r="I183" s="422"/>
+      <c r="J183" s="422"/>
+      <c r="K183" s="422"/>
+      <c r="M183" s="422"/>
+      <c r="N183" s="422"/>
+      <c r="O183" s="424"/>
+    </row>
+    <row r="184" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B184" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="C194" s="141" t="s">
+      <c r="C184" s="426" t="s">
         <v>30</v>
       </c>
-      <c r="D194" s="141" t="s">
+      <c r="D184" s="426" t="s">
         <v>31</v>
       </c>
-      <c r="E194" s="141" t="s">
+      <c r="E184" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="F194" s="141" t="s">
+      <c r="F184" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="G194" s="141" t="s">
+      <c r="G184" s="426" t="s">
         <v>34</v>
       </c>
-      <c r="H194" s="141" t="s">
+      <c r="H184" s="426" t="s">
         <v>35</v>
       </c>
-      <c r="I194" s="141" t="s">
+      <c r="I184" s="426" t="s">
         <v>36</v>
       </c>
-      <c r="J194" s="141" t="s">
+      <c r="J184" s="426" t="s">
         <v>37</v>
       </c>
-      <c r="K194" s="142" t="s">
+      <c r="K184" s="427" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B195" s="173">
+      <c r="M184" s="422"/>
+      <c r="N184" s="422"/>
+      <c r="O184" s="424"/>
+    </row>
+    <row r="185" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B185" s="473">
         <v>1</v>
       </c>
-      <c r="C195" s="174" t="s">
+      <c r="C185" s="474" t="s">
         <v>238</v>
       </c>
-      <c r="D195" s="174" t="s">
+      <c r="D185" s="474" t="s">
         <v>239</v>
       </c>
-      <c r="E195" s="176" t="s">
+      <c r="E185" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="F195" s="176" t="s">
+      <c r="F185" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="G195" s="176" t="s">
+      <c r="G185" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H195" s="174" t="s">
+      <c r="H185" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I195" s="176">
+      <c r="I185" s="476">
         <v>11</v>
       </c>
-      <c r="J195" s="174"/>
-      <c r="K195" s="175"/>
-    </row>
-    <row r="196" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A196" s="166"/>
-      <c r="B196" s="152">
+      <c r="J185" s="474"/>
+      <c r="K185" s="475"/>
+      <c r="M185" s="422"/>
+      <c r="N185" s="422"/>
+      <c r="O185" s="424"/>
+    </row>
+    <row r="186" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A186" s="465"/>
+      <c r="B186" s="276">
         <v>2</v>
       </c>
-      <c r="C196" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="D196" s="144" t="s">
-        <v>250</v>
-      </c>
-      <c r="E196" s="145"/>
-      <c r="F196" s="145"/>
-      <c r="G196" s="145" t="s">
+      <c r="C186" s="429" t="s">
+        <v>282</v>
+      </c>
+      <c r="D186" s="429" t="s">
+        <v>284</v>
+      </c>
+      <c r="E186" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F186" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G186" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H196" s="146" t="s">
+      <c r="H186" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I186" s="430">
+        <v>11</v>
+      </c>
+      <c r="J186" s="430"/>
+      <c r="K186" s="452"/>
+      <c r="L186" s="422"/>
+      <c r="M186" s="422"/>
+      <c r="N186" s="422"/>
+      <c r="O186" s="424"/>
+    </row>
+    <row r="187" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A187" s="423"/>
+      <c r="B187" s="428">
+        <v>3</v>
+      </c>
+      <c r="C187" s="462" t="s">
+        <v>341</v>
+      </c>
+      <c r="D187" s="462" t="s">
+        <v>342</v>
+      </c>
+      <c r="E187" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F187" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G187" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H187" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I196" s="145">
+      <c r="I187" s="472">
         <v>256</v>
       </c>
-      <c r="J196" s="145"/>
-      <c r="K196" s="156"/>
-      <c r="L196" s="137"/>
-      <c r="M196" s="137"/>
-      <c r="N196" s="137"/>
-      <c r="O196" s="139"/>
-    </row>
-    <row r="197" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A197" s="138"/>
-      <c r="B197" s="143">
-        <v>3</v>
-      </c>
-      <c r="C197" s="163" t="s">
-        <v>255</v>
-      </c>
-      <c r="D197" s="163"/>
-      <c r="E197" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F197" s="168" t="s">
-        <v>146</v>
-      </c>
-      <c r="G197" s="145" t="s">
+      <c r="J187" s="463"/>
+      <c r="K187" s="464"/>
+      <c r="L187" s="422"/>
+      <c r="M187" s="422"/>
+      <c r="N187" s="422"/>
+      <c r="O187" s="424"/>
+    </row>
+    <row r="188" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A188" s="423"/>
+      <c r="B188" s="428">
+        <v>4</v>
+      </c>
+      <c r="C188" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D188" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E188" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F188" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G188" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H197" s="163" t="s">
+      <c r="H188" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I188" s="430">
+        <v>11</v>
+      </c>
+      <c r="J188" s="430"/>
+      <c r="K188" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L188" s="422"/>
+      <c r="M188" s="422"/>
+      <c r="N188" s="422"/>
+      <c r="O188" s="424"/>
+    </row>
+    <row r="189" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A189" s="465"/>
+      <c r="B189" s="428">
+        <v>5</v>
+      </c>
+      <c r="C189" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D189" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E189" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F189" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G189" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H189" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I197" s="168">
+      <c r="I189" s="457">
+        <v>10</v>
+      </c>
+      <c r="J189" s="457"/>
+      <c r="K189" s="459"/>
+      <c r="L189" s="422"/>
+      <c r="M189" s="422"/>
+      <c r="N189" s="422"/>
+      <c r="O189" s="424"/>
+    </row>
+    <row r="190" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A190" s="423"/>
+      <c r="B190" s="428">
+        <v>6</v>
+      </c>
+      <c r="C190" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D190" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E190" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F190" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G190" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H190" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I190" s="450">
         <v>256</v>
       </c>
-      <c r="J197" s="164"/>
-      <c r="K197" s="165"/>
-      <c r="L197" s="137"/>
-      <c r="M197" s="137"/>
-      <c r="N197" s="137"/>
-      <c r="O197" s="139"/>
-    </row>
-    <row r="198" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A198" s="138"/>
-      <c r="B198" s="428">
-        <v>4</v>
-      </c>
-      <c r="C198" s="462" t="s">
-        <v>286</v>
-      </c>
-      <c r="D198" s="462" t="s">
-        <v>199</v>
-      </c>
-      <c r="E198" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F198" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G198" s="430" t="s">
+      <c r="J190" s="450"/>
+      <c r="K190" s="452"/>
+      <c r="L190" s="422"/>
+      <c r="M190" s="422"/>
+      <c r="N190" s="422"/>
+      <c r="O190" s="424"/>
+    </row>
+    <row r="191" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A191" s="422"/>
+      <c r="B191" s="428">
+        <v>7</v>
+      </c>
+      <c r="C191" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D191" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E191" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F191" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G191" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H191" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I191" s="450">
+        <v>11</v>
+      </c>
+      <c r="J191" s="450"/>
+      <c r="K191" s="452"/>
+      <c r="L191" s="422"/>
+      <c r="M191" s="422"/>
+      <c r="N191" s="422"/>
+      <c r="O191" s="424"/>
+    </row>
+    <row r="192" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="423"/>
+      <c r="B192" s="434">
+        <v>8</v>
+      </c>
+      <c r="C192" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D192" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E192" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F192" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G192" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H192" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I192" s="436">
+        <v>256</v>
+      </c>
+      <c r="J192" s="436"/>
+      <c r="K192" s="438"/>
+      <c r="L192" s="422"/>
+      <c r="M192" s="422"/>
+      <c r="N192" s="422"/>
+      <c r="O192" s="424"/>
+    </row>
+    <row r="193" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A193" s="422"/>
+      <c r="B193" s="453"/>
+      <c r="C193" s="453"/>
+      <c r="D193" s="453"/>
+      <c r="E193" s="454"/>
+      <c r="F193" s="454"/>
+      <c r="G193" s="454"/>
+      <c r="H193" s="455"/>
+      <c r="I193" s="454"/>
+      <c r="J193" s="454"/>
+      <c r="K193" s="454"/>
+      <c r="L193" s="422"/>
+      <c r="M193" s="422"/>
+      <c r="N193" s="422"/>
+      <c r="O193" s="424"/>
+    </row>
+    <row r="194" spans="1:15" s="421" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="423"/>
+      <c r="L194" s="422"/>
+      <c r="M194" s="422"/>
+      <c r="N194" s="422"/>
+      <c r="O194" s="424"/>
+    </row>
+    <row r="195" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="13"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="14"/>
+    </row>
+    <row r="196" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B196" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C196" s="470"/>
+      <c r="D196" s="170" t="s">
+        <v>343</v>
+      </c>
+      <c r="E196" s="171"/>
+      <c r="F196" s="171"/>
+      <c r="G196" s="172"/>
+      <c r="H196" s="470"/>
+      <c r="I196" s="470"/>
+      <c r="J196" s="470"/>
+      <c r="K196" s="470"/>
+      <c r="M196" s="422"/>
+      <c r="N196" s="422"/>
+      <c r="O196" s="424"/>
+    </row>
+    <row r="197" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="422"/>
+      <c r="C197" s="422"/>
+      <c r="D197" s="422"/>
+      <c r="E197" s="422"/>
+      <c r="F197" s="422"/>
+      <c r="G197" s="422"/>
+      <c r="H197" s="422"/>
+      <c r="I197" s="422"/>
+      <c r="J197" s="422"/>
+      <c r="K197" s="422"/>
+      <c r="M197" s="422"/>
+      <c r="N197" s="422"/>
+      <c r="O197" s="424"/>
+    </row>
+    <row r="198" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B198" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D198" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E198" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F198" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G198" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H198" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I198" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J198" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K198" s="427" t="s">
+        <v>38</v>
+      </c>
+      <c r="M198" s="422"/>
+      <c r="N198" s="422"/>
+      <c r="O198" s="424"/>
+    </row>
+    <row r="199" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B199" s="473">
+        <v>1</v>
+      </c>
+      <c r="C199" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D199" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E199" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H198" s="462" t="s">
+      <c r="F199" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G199" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H199" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I198" s="472">
+      <c r="I199" s="476">
         <v>11</v>
       </c>
-      <c r="J198" s="463"/>
-      <c r="K198" s="477"/>
-      <c r="L198" s="137"/>
-      <c r="M198" s="137"/>
-      <c r="N198" s="137"/>
-      <c r="O198" s="139"/>
-    </row>
-    <row r="199" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A199" s="423"/>
-      <c r="B199" s="143">
-        <v>5</v>
-      </c>
-      <c r="C199" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="D199" s="144" t="s">
-        <v>167</v>
-      </c>
-      <c r="E199" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F199" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G199" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H199" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="I199" s="145">
-        <v>11</v>
-      </c>
-      <c r="J199" s="145"/>
-      <c r="K199" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="L199" s="422"/>
+      <c r="J199" s="474"/>
+      <c r="K199" s="475"/>
       <c r="M199" s="422"/>
       <c r="N199" s="422"/>
       <c r="O199" s="424"/>
     </row>
-    <row r="200" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A200" s="166"/>
-      <c r="B200" s="143">
+    <row r="200" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A200" s="465"/>
+      <c r="B200" s="276">
+        <v>2</v>
+      </c>
+      <c r="C200" s="429" t="s">
+        <v>283</v>
+      </c>
+      <c r="D200" s="429" t="s">
+        <v>285</v>
+      </c>
+      <c r="E200" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F200" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G200" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H200" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I200" s="430">
+        <v>11</v>
+      </c>
+      <c r="J200" s="430"/>
+      <c r="K200" s="452"/>
+      <c r="L200" s="422"/>
+      <c r="M200" s="422"/>
+      <c r="N200" s="422"/>
+      <c r="O200" s="424"/>
+    </row>
+    <row r="201" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A201" s="423"/>
+      <c r="B201" s="428">
+        <v>3</v>
+      </c>
+      <c r="C201" s="462" t="s">
+        <v>338</v>
+      </c>
+      <c r="D201" s="462" t="s">
+        <v>339</v>
+      </c>
+      <c r="E201" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F201" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G201" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H201" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I201" s="472">
+        <v>256</v>
+      </c>
+      <c r="J201" s="463"/>
+      <c r="K201" s="464"/>
+      <c r="L201" s="422"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="14"/>
+    </row>
+    <row r="202" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A202" s="423"/>
+      <c r="B202" s="428">
+        <v>4</v>
+      </c>
+      <c r="C202" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D202" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E202" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F202" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G202" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H202" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I202" s="430">
+        <v>11</v>
+      </c>
+      <c r="J202" s="430"/>
+      <c r="K202" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L202" s="422"/>
+      <c r="M202" s="422"/>
+      <c r="N202" s="422"/>
+      <c r="O202" s="422"/>
+    </row>
+    <row r="203" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A203" s="465"/>
+      <c r="B203" s="428">
+        <v>5</v>
+      </c>
+      <c r="C203" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D203" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E203" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F203" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G203" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H203" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I203" s="457">
+        <v>10</v>
+      </c>
+      <c r="J203" s="457"/>
+      <c r="K203" s="459"/>
+      <c r="L203" s="422"/>
+    </row>
+    <row r="204" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A204" s="423"/>
+      <c r="B204" s="428">
         <v>6</v>
       </c>
-      <c r="C200" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="D200" s="158" t="s">
-        <v>159</v>
-      </c>
-      <c r="E200" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F200" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G200" s="159" t="s">
+      <c r="C204" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D204" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E204" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F204" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G204" s="450" t="s">
         <v>145</v>
       </c>
-      <c r="H200" s="160" t="s">
+      <c r="H204" s="451" t="s">
         <v>148</v>
       </c>
-      <c r="I200" s="159">
-        <v>10</v>
-      </c>
-      <c r="J200" s="159"/>
-      <c r="K200" s="161"/>
-      <c r="L200" s="137"/>
-      <c r="M200" s="137"/>
-      <c r="N200" s="137"/>
-      <c r="O200" s="139"/>
-    </row>
-    <row r="201" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A201" s="138"/>
-      <c r="B201" s="143">
+      <c r="I204" s="450">
+        <v>256</v>
+      </c>
+      <c r="J204" s="450"/>
+      <c r="K204" s="452"/>
+      <c r="L204" s="422"/>
+    </row>
+    <row r="205" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A205" s="422"/>
+      <c r="B205" s="428">
         <v>7</v>
       </c>
-      <c r="C201" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="D201" s="153" t="s">
-        <v>160</v>
-      </c>
-      <c r="E201" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F201" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G201" s="154" t="s">
+      <c r="C205" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D205" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E205" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F205" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G205" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H205" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I205" s="450">
+        <v>11</v>
+      </c>
+      <c r="J205" s="450"/>
+      <c r="K205" s="452"/>
+      <c r="L205" s="422"/>
+    </row>
+    <row r="206" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="423"/>
+      <c r="B206" s="434">
+        <v>8</v>
+      </c>
+      <c r="C206" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D206" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E206" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F206" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G206" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H206" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I206" s="436">
+        <v>256</v>
+      </c>
+      <c r="J206" s="436"/>
+      <c r="K206" s="438"/>
+      <c r="L206" s="422"/>
+    </row>
+    <row r="207" spans="1:15" s="421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="214" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B214" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C214" s="167"/>
+      <c r="D214" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="E214" s="171"/>
+      <c r="F214" s="171"/>
+      <c r="G214" s="172"/>
+      <c r="H214" s="167"/>
+      <c r="I214" s="167"/>
+      <c r="J214" s="167"/>
+      <c r="K214" s="167"/>
+    </row>
+    <row r="215" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="137"/>
+      <c r="C215" s="137"/>
+      <c r="D215" s="137"/>
+      <c r="E215" s="137"/>
+      <c r="F215" s="137"/>
+      <c r="G215" s="137"/>
+      <c r="H215" s="137"/>
+      <c r="I215" s="137"/>
+      <c r="J215" s="137"/>
+      <c r="K215" s="137"/>
+    </row>
+    <row r="216" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B216" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D216" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E216" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="F216" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="H216" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="I216" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="J216" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="K216" s="142" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B217" s="173">
+        <v>1</v>
+      </c>
+      <c r="C217" s="174" t="s">
+        <v>238</v>
+      </c>
+      <c r="D217" s="174" t="s">
+        <v>239</v>
+      </c>
+      <c r="E217" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="H201" s="155" t="s">
+      <c r="F217" s="176" t="s">
+        <v>145</v>
+      </c>
+      <c r="G217" s="176" t="s">
+        <v>145</v>
+      </c>
+      <c r="H217" s="174" t="s">
+        <v>147</v>
+      </c>
+      <c r="I217" s="176">
+        <v>11</v>
+      </c>
+      <c r="J217" s="174"/>
+      <c r="K217" s="175"/>
+    </row>
+    <row r="218" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A218" s="166"/>
+      <c r="B218" s="152">
+        <v>2</v>
+      </c>
+      <c r="C218" s="144" t="s">
+        <v>254</v>
+      </c>
+      <c r="D218" s="144" t="s">
+        <v>254</v>
+      </c>
+      <c r="E218" s="145"/>
+      <c r="F218" s="145"/>
+      <c r="G218" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H218" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="I201" s="154">
+      <c r="I218" s="145">
         <v>256</v>
       </c>
-      <c r="J201" s="154"/>
-      <c r="K201" s="156"/>
-      <c r="L201" s="137"/>
-      <c r="M201" s="137"/>
-      <c r="N201" s="137"/>
-      <c r="O201" s="139"/>
-    </row>
-    <row r="202" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A202" s="137"/>
-      <c r="B202" s="143">
-        <v>8</v>
-      </c>
-      <c r="C202" s="153" t="s">
-        <v>156</v>
-      </c>
-      <c r="D202" s="153" t="s">
-        <v>158</v>
-      </c>
-      <c r="E202" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F202" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G202" s="154" t="s">
-        <v>146</v>
-      </c>
-      <c r="H202" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="I202" s="154">
-        <v>11</v>
-      </c>
-      <c r="J202" s="154"/>
-      <c r="K202" s="156"/>
-      <c r="L202" s="137"/>
-      <c r="M202" s="137"/>
-      <c r="N202" s="137"/>
-      <c r="O202" s="139"/>
-    </row>
-    <row r="203" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="138"/>
-      <c r="B203" s="147">
-        <v>9</v>
-      </c>
-      <c r="C203" s="148" t="s">
-        <v>157</v>
-      </c>
-      <c r="D203" s="148" t="s">
-        <v>161</v>
-      </c>
-      <c r="E203" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="F203" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="G203" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="H203" s="150" t="s">
-        <v>148</v>
-      </c>
-      <c r="I203" s="149">
-        <v>256</v>
-      </c>
-      <c r="J203" s="149"/>
-      <c r="K203" s="151"/>
-      <c r="L203" s="137"/>
-      <c r="M203" s="137"/>
-      <c r="N203" s="137"/>
-      <c r="O203" s="139"/>
-    </row>
-    <row r="204" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A204" s="138"/>
-      <c r="B204" s="157"/>
-      <c r="C204" s="157"/>
-      <c r="D204" s="157"/>
-      <c r="E204" s="157"/>
-      <c r="F204" s="157"/>
-      <c r="G204" s="157"/>
-      <c r="H204" s="157"/>
-      <c r="I204" s="157"/>
-      <c r="J204" s="157"/>
-      <c r="K204" s="157"/>
-      <c r="L204" s="137"/>
-      <c r="M204" s="137"/>
-      <c r="N204" s="137"/>
-      <c r="O204" s="139"/>
-    </row>
-    <row r="205" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="137"/>
-      <c r="B205" s="157"/>
-      <c r="C205" s="157"/>
-      <c r="D205" s="157"/>
-      <c r="E205" s="157"/>
-      <c r="F205" s="157"/>
-      <c r="G205" s="157"/>
-      <c r="H205" s="157"/>
-      <c r="I205" s="157"/>
-      <c r="J205" s="157"/>
-      <c r="K205" s="157"/>
-      <c r="L205" s="137"/>
-      <c r="M205" s="137"/>
-      <c r="N205" s="137"/>
-      <c r="O205" s="139"/>
-    </row>
-    <row r="206" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="137"/>
-      <c r="B206" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C206" s="167"/>
-      <c r="D206" s="170" t="s">
-        <v>121</v>
-      </c>
-      <c r="E206" s="171"/>
-      <c r="F206" s="171"/>
-      <c r="G206" s="172"/>
-      <c r="H206" s="167"/>
-      <c r="I206" s="167"/>
-      <c r="J206" s="167"/>
-      <c r="K206" s="167"/>
-      <c r="L206" s="137"/>
-      <c r="M206" s="137"/>
-      <c r="N206" s="137"/>
-      <c r="O206" s="139"/>
-    </row>
-    <row r="207" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="137"/>
-      <c r="B207" s="137"/>
-      <c r="C207" s="137"/>
-      <c r="D207" s="137"/>
-      <c r="E207" s="137"/>
-      <c r="F207" s="137"/>
-      <c r="G207" s="137"/>
-      <c r="H207" s="137"/>
-      <c r="I207" s="137"/>
-      <c r="J207" s="137"/>
-      <c r="K207" s="137"/>
-      <c r="L207" s="137"/>
-      <c r="M207" s="137"/>
-      <c r="N207" s="137"/>
-      <c r="O207" s="139"/>
-    </row>
-    <row r="208" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A208" s="137"/>
-      <c r="B208" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="C208" s="141" t="s">
-        <v>30</v>
-      </c>
-      <c r="D208" s="141" t="s">
-        <v>31</v>
-      </c>
-      <c r="E208" s="141" t="s">
-        <v>32</v>
-      </c>
-      <c r="F208" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="G208" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="H208" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="I208" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="J208" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="K208" s="142" t="s">
-        <v>38</v>
-      </c>
-      <c r="L208" s="137"/>
-      <c r="M208" s="137"/>
-      <c r="N208" s="137"/>
-      <c r="O208" s="139"/>
-    </row>
-    <row r="209" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A209" s="137"/>
-      <c r="B209" s="173">
-        <v>1</v>
-      </c>
-      <c r="C209" s="174" t="s">
-        <v>238</v>
-      </c>
-      <c r="D209" s="174" t="s">
-        <v>239</v>
-      </c>
-      <c r="E209" s="176" t="s">
-        <v>145</v>
-      </c>
-      <c r="F209" s="176" t="s">
-        <v>145</v>
-      </c>
-      <c r="G209" s="176" t="s">
-        <v>145</v>
-      </c>
-      <c r="H209" s="174" t="s">
-        <v>147</v>
-      </c>
-      <c r="I209" s="176">
-        <v>11</v>
-      </c>
-      <c r="J209" s="174"/>
-      <c r="K209" s="175"/>
-      <c r="L209" s="137"/>
-      <c r="M209" s="137"/>
-      <c r="N209" s="137"/>
-      <c r="O209" s="139"/>
-    </row>
-    <row r="210" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A210" s="166"/>
-      <c r="B210" s="152">
-        <v>2</v>
-      </c>
-      <c r="C210" s="144" t="s">
-        <v>256</v>
-      </c>
-      <c r="D210" s="144" t="s">
-        <v>257</v>
-      </c>
-      <c r="E210" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F210" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G210" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H210" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="I210" s="145">
-        <v>11</v>
-      </c>
-      <c r="J210" s="145"/>
-      <c r="K210" s="156"/>
-      <c r="L210" s="137"/>
-      <c r="M210" s="137"/>
-      <c r="N210" s="137"/>
-      <c r="O210" s="139"/>
-    </row>
-    <row r="211" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A211" s="138"/>
-      <c r="B211" s="143">
-        <v>3</v>
-      </c>
-      <c r="C211" s="163" t="s">
-        <v>258</v>
-      </c>
-      <c r="D211" s="163" t="s">
-        <v>259</v>
-      </c>
-      <c r="E211" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F211" s="168" t="s">
-        <v>146</v>
-      </c>
-      <c r="G211" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H211" s="163" t="s">
-        <v>148</v>
-      </c>
-      <c r="I211" s="168">
-        <v>256</v>
-      </c>
-      <c r="J211" s="164"/>
-      <c r="K211" s="165"/>
-      <c r="L211" s="137"/>
-      <c r="M211" s="137"/>
-      <c r="N211" s="137"/>
-      <c r="O211" s="139"/>
-    </row>
-    <row r="212" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A212" s="138"/>
-      <c r="B212" s="143">
-        <v>4</v>
-      </c>
-      <c r="C212" s="163" t="s">
-        <v>260</v>
-      </c>
-      <c r="D212" s="163" t="s">
-        <v>261</v>
-      </c>
-      <c r="E212" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F212" s="168" t="s">
-        <v>146</v>
-      </c>
-      <c r="G212" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H212" s="163" t="s">
-        <v>148</v>
-      </c>
-      <c r="I212" s="168">
-        <v>256</v>
-      </c>
-      <c r="J212" s="164"/>
-      <c r="K212" s="177"/>
-      <c r="L212" s="137"/>
-      <c r="M212" s="137"/>
-      <c r="N212" s="137"/>
-      <c r="O212" s="139"/>
-    </row>
-    <row r="213" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A213" s="166"/>
-      <c r="B213" s="428">
-        <v>5</v>
-      </c>
-      <c r="C213" s="462" t="s">
-        <v>287</v>
-      </c>
-      <c r="D213" s="462" t="s">
-        <v>288</v>
-      </c>
-      <c r="E213" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F213" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G213" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H213" s="462" t="s">
-        <v>147</v>
-      </c>
-      <c r="I213" s="472">
-        <v>11</v>
-      </c>
-      <c r="J213" s="463"/>
-      <c r="K213" s="477" t="s">
-        <v>297</v>
-      </c>
-      <c r="L213" s="137"/>
-      <c r="M213" s="137"/>
-      <c r="N213" s="137"/>
-      <c r="O213" s="139"/>
-    </row>
-    <row r="214" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A214" s="465"/>
-      <c r="B214" s="143">
-        <v>6</v>
-      </c>
-      <c r="C214" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="D214" s="144" t="s">
-        <v>167</v>
-      </c>
-      <c r="E214" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F214" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G214" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H214" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="I214" s="145">
-        <v>11</v>
-      </c>
-      <c r="J214" s="145"/>
-      <c r="K214" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="L214" s="422"/>
-      <c r="M214" s="422"/>
-      <c r="N214" s="422"/>
-      <c r="O214" s="424"/>
-    </row>
-    <row r="215" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A215" s="138"/>
-      <c r="B215" s="143">
-        <v>7</v>
-      </c>
-      <c r="C215" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="D215" s="158" t="s">
-        <v>159</v>
-      </c>
-      <c r="E215" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F215" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G215" s="159" t="s">
-        <v>145</v>
-      </c>
-      <c r="H215" s="160" t="s">
-        <v>148</v>
-      </c>
-      <c r="I215" s="159">
-        <v>10</v>
-      </c>
-      <c r="J215" s="159"/>
-      <c r="K215" s="161"/>
-      <c r="L215" s="137"/>
-      <c r="M215" s="137"/>
-      <c r="N215" s="137"/>
-      <c r="O215" s="139"/>
-    </row>
-    <row r="216" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A216" s="137"/>
-      <c r="B216" s="143">
-        <v>8</v>
-      </c>
-      <c r="C216" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="D216" s="153" t="s">
-        <v>160</v>
-      </c>
-      <c r="E216" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F216" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G216" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="H216" s="155" t="s">
-        <v>148</v>
-      </c>
-      <c r="I216" s="154">
-        <v>256</v>
-      </c>
-      <c r="J216" s="154"/>
-      <c r="K216" s="156"/>
-      <c r="L216" s="137"/>
-      <c r="M216" s="137"/>
-      <c r="N216" s="137"/>
-      <c r="O216" s="139"/>
-    </row>
-    <row r="217" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A217" s="137"/>
-      <c r="B217" s="143">
-        <v>9</v>
-      </c>
-      <c r="C217" s="153" t="s">
-        <v>156</v>
-      </c>
-      <c r="D217" s="153" t="s">
-        <v>158</v>
-      </c>
-      <c r="E217" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F217" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G217" s="154" t="s">
-        <v>146</v>
-      </c>
-      <c r="H217" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="I217" s="154">
-        <v>11</v>
-      </c>
-      <c r="J217" s="154"/>
-      <c r="K217" s="156"/>
-      <c r="L217" s="137"/>
-      <c r="M217" s="137"/>
-      <c r="N217" s="137"/>
-      <c r="O217" s="139"/>
-    </row>
-    <row r="218" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="138"/>
-      <c r="B218" s="147">
-        <v>10</v>
-      </c>
-      <c r="C218" s="148" t="s">
-        <v>157</v>
-      </c>
-      <c r="D218" s="148" t="s">
-        <v>161</v>
-      </c>
-      <c r="E218" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="F218" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="G218" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="H218" s="150" t="s">
-        <v>148</v>
-      </c>
-      <c r="I218" s="149">
-        <v>256</v>
-      </c>
-      <c r="J218" s="149"/>
-      <c r="K218" s="151"/>
+      <c r="J218" s="145"/>
+      <c r="K218" s="156"/>
       <c r="L218" s="137"/>
       <c r="M218" s="137"/>
       <c r="N218" s="137"/>
@@ -24316,1952 +24336,1877 @@
     </row>
     <row r="219" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A219" s="138"/>
-      <c r="B219" s="157"/>
-      <c r="C219" s="157"/>
-      <c r="D219" s="157"/>
-      <c r="E219" s="157"/>
-      <c r="F219" s="157"/>
-      <c r="G219" s="157"/>
-      <c r="H219" s="157"/>
-      <c r="I219" s="157"/>
-      <c r="J219" s="157"/>
-      <c r="K219" s="157"/>
+      <c r="B219" s="143">
+        <v>3</v>
+      </c>
+      <c r="C219" s="163" t="s">
+        <v>255</v>
+      </c>
+      <c r="D219" s="163"/>
+      <c r="E219" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F219" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="G219" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H219" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="I219" s="168">
+        <v>256</v>
+      </c>
+      <c r="J219" s="164"/>
+      <c r="K219" s="165"/>
       <c r="L219" s="137"/>
       <c r="M219" s="137"/>
       <c r="N219" s="137"/>
       <c r="O219" s="139"/>
     </row>
-    <row r="220" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A220" s="138"/>
+      <c r="B220" s="428">
+        <v>4</v>
+      </c>
+      <c r="C220" s="462" t="s">
+        <v>286</v>
+      </c>
+      <c r="D220" s="462" t="s">
+        <v>199</v>
+      </c>
+      <c r="E220" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F220" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G220" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H220" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I220" s="472">
+        <v>11</v>
+      </c>
+      <c r="J220" s="463"/>
+      <c r="K220" s="477"/>
       <c r="L220" s="137"/>
       <c r="M220" s="137"/>
       <c r="N220" s="137"/>
       <c r="O220" s="139"/>
     </row>
-    <row r="221" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B221" s="169" t="s">
+    <row r="221" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A221" s="423"/>
+      <c r="B221" s="143">
+        <v>5</v>
+      </c>
+      <c r="C221" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D221" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="E221" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F221" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G221" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H221" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="I221" s="145">
+        <v>11</v>
+      </c>
+      <c r="J221" s="145"/>
+      <c r="K221" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="L221" s="422"/>
+      <c r="M221" s="422"/>
+      <c r="N221" s="422"/>
+      <c r="O221" s="424"/>
+    </row>
+    <row r="222" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A222" s="166"/>
+      <c r="B222" s="143">
+        <v>6</v>
+      </c>
+      <c r="C222" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D222" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="E222" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F222" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G222" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="H222" s="160" t="s">
+        <v>148</v>
+      </c>
+      <c r="I222" s="159">
+        <v>10</v>
+      </c>
+      <c r="J222" s="159"/>
+      <c r="K222" s="161"/>
+      <c r="L222" s="137"/>
+      <c r="M222" s="137"/>
+      <c r="N222" s="137"/>
+      <c r="O222" s="139"/>
+    </row>
+    <row r="223" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A223" s="138"/>
+      <c r="B223" s="143">
+        <v>7</v>
+      </c>
+      <c r="C223" s="153" t="s">
+        <v>155</v>
+      </c>
+      <c r="D223" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="E223" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F223" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G223" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="H223" s="155" t="s">
+        <v>148</v>
+      </c>
+      <c r="I223" s="154">
+        <v>256</v>
+      </c>
+      <c r="J223" s="154"/>
+      <c r="K223" s="156"/>
+      <c r="L223" s="137"/>
+      <c r="M223" s="137"/>
+      <c r="N223" s="137"/>
+      <c r="O223" s="139"/>
+    </row>
+    <row r="224" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A224" s="137"/>
+      <c r="B224" s="143">
+        <v>8</v>
+      </c>
+      <c r="C224" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D224" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="E224" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F224" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G224" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="H224" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="I224" s="154">
+        <v>11</v>
+      </c>
+      <c r="J224" s="154"/>
+      <c r="K224" s="156"/>
+      <c r="L224" s="137"/>
+      <c r="M224" s="137"/>
+      <c r="N224" s="137"/>
+      <c r="O224" s="139"/>
+    </row>
+    <row r="225" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="138"/>
+      <c r="B225" s="147">
+        <v>9</v>
+      </c>
+      <c r="C225" s="148" t="s">
+        <v>157</v>
+      </c>
+      <c r="D225" s="148" t="s">
+        <v>161</v>
+      </c>
+      <c r="E225" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="F225" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="G225" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="H225" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="I225" s="149">
+        <v>256</v>
+      </c>
+      <c r="J225" s="149"/>
+      <c r="K225" s="151"/>
+      <c r="L225" s="137"/>
+      <c r="M225" s="137"/>
+      <c r="N225" s="137"/>
+      <c r="O225" s="139"/>
+    </row>
+    <row r="226" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A226" s="138"/>
+      <c r="B226" s="157"/>
+      <c r="C226" s="157"/>
+      <c r="D226" s="157"/>
+      <c r="E226" s="157"/>
+      <c r="F226" s="157"/>
+      <c r="G226" s="157"/>
+      <c r="H226" s="157"/>
+      <c r="I226" s="157"/>
+      <c r="J226" s="157"/>
+      <c r="K226" s="157"/>
+      <c r="L226" s="137"/>
+      <c r="M226" s="137"/>
+      <c r="N226" s="137"/>
+      <c r="O226" s="139"/>
+    </row>
+    <row r="227" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="137"/>
+      <c r="B227" s="157"/>
+      <c r="C227" s="157"/>
+      <c r="D227" s="157"/>
+      <c r="E227" s="157"/>
+      <c r="F227" s="157"/>
+      <c r="G227" s="157"/>
+      <c r="H227" s="157"/>
+      <c r="I227" s="157"/>
+      <c r="J227" s="157"/>
+      <c r="K227" s="157"/>
+      <c r="L227" s="137"/>
+      <c r="M227" s="137"/>
+      <c r="N227" s="137"/>
+      <c r="O227" s="139"/>
+    </row>
+    <row r="228" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="137"/>
+      <c r="B228" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C221" s="470"/>
-      <c r="D221" s="170" t="s">
+      <c r="C228" s="167"/>
+      <c r="D228" s="170" t="s">
+        <v>121</v>
+      </c>
+      <c r="E228" s="171"/>
+      <c r="F228" s="171"/>
+      <c r="G228" s="172"/>
+      <c r="H228" s="167"/>
+      <c r="I228" s="167"/>
+      <c r="J228" s="167"/>
+      <c r="K228" s="167"/>
+      <c r="L228" s="137"/>
+      <c r="M228" s="137"/>
+      <c r="N228" s="137"/>
+      <c r="O228" s="139"/>
+    </row>
+    <row r="229" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="137"/>
+      <c r="B229" s="137"/>
+      <c r="C229" s="137"/>
+      <c r="D229" s="137"/>
+      <c r="E229" s="137"/>
+      <c r="F229" s="137"/>
+      <c r="G229" s="137"/>
+      <c r="H229" s="137"/>
+      <c r="I229" s="137"/>
+      <c r="J229" s="137"/>
+      <c r="K229" s="137"/>
+      <c r="L229" s="137"/>
+      <c r="M229" s="137"/>
+      <c r="N229" s="137"/>
+      <c r="O229" s="139"/>
+    </row>
+    <row r="230" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A230" s="137"/>
+      <c r="B230" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E230" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="F230" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="G230" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="H230" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="I230" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="J230" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="K230" s="142" t="s">
+        <v>38</v>
+      </c>
+      <c r="L230" s="137"/>
+      <c r="M230" s="137"/>
+      <c r="N230" s="137"/>
+      <c r="O230" s="139"/>
+    </row>
+    <row r="231" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A231" s="137"/>
+      <c r="B231" s="173">
+        <v>1</v>
+      </c>
+      <c r="C231" s="174" t="s">
+        <v>238</v>
+      </c>
+      <c r="D231" s="174" t="s">
+        <v>239</v>
+      </c>
+      <c r="E231" s="176" t="s">
+        <v>145</v>
+      </c>
+      <c r="F231" s="176" t="s">
+        <v>145</v>
+      </c>
+      <c r="G231" s="176" t="s">
+        <v>145</v>
+      </c>
+      <c r="H231" s="174" t="s">
+        <v>147</v>
+      </c>
+      <c r="I231" s="176">
+        <v>11</v>
+      </c>
+      <c r="J231" s="174"/>
+      <c r="K231" s="175"/>
+      <c r="L231" s="137"/>
+      <c r="M231" s="137"/>
+      <c r="N231" s="137"/>
+      <c r="O231" s="139"/>
+    </row>
+    <row r="232" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A232" s="166"/>
+      <c r="B232" s="152">
+        <v>2</v>
+      </c>
+      <c r="C232" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="D232" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="E232" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F232" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G232" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H232" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="I232" s="145">
+        <v>11</v>
+      </c>
+      <c r="J232" s="145"/>
+      <c r="K232" s="156"/>
+      <c r="L232" s="137"/>
+      <c r="M232" s="137"/>
+      <c r="N232" s="137"/>
+      <c r="O232" s="139"/>
+    </row>
+    <row r="233" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A233" s="138"/>
+      <c r="B233" s="143">
+        <v>3</v>
+      </c>
+      <c r="C233" s="163" t="s">
+        <v>258</v>
+      </c>
+      <c r="D233" s="163" t="s">
+        <v>259</v>
+      </c>
+      <c r="E233" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F233" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="G233" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H233" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="I233" s="168">
+        <v>256</v>
+      </c>
+      <c r="J233" s="164"/>
+      <c r="K233" s="165"/>
+      <c r="L233" s="137"/>
+      <c r="M233" s="137"/>
+      <c r="N233" s="137"/>
+      <c r="O233" s="139"/>
+    </row>
+    <row r="234" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A234" s="138"/>
+      <c r="B234" s="143">
+        <v>4</v>
+      </c>
+      <c r="C234" s="163" t="s">
+        <v>260</v>
+      </c>
+      <c r="D234" s="163" t="s">
+        <v>261</v>
+      </c>
+      <c r="E234" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F234" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="G234" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H234" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="I234" s="168">
+        <v>256</v>
+      </c>
+      <c r="J234" s="164"/>
+      <c r="K234" s="177"/>
+      <c r="L234" s="137"/>
+      <c r="M234" s="137"/>
+      <c r="N234" s="137"/>
+      <c r="O234" s="139"/>
+    </row>
+    <row r="235" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A235" s="166"/>
+      <c r="B235" s="428">
+        <v>5</v>
+      </c>
+      <c r="C235" s="462" t="s">
+        <v>287</v>
+      </c>
+      <c r="D235" s="462" t="s">
+        <v>288</v>
+      </c>
+      <c r="E235" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F235" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G235" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H235" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I235" s="472">
+        <v>11</v>
+      </c>
+      <c r="J235" s="463"/>
+      <c r="K235" s="477" t="s">
+        <v>297</v>
+      </c>
+      <c r="L235" s="137"/>
+      <c r="M235" s="137"/>
+      <c r="N235" s="137"/>
+      <c r="O235" s="139"/>
+    </row>
+    <row r="236" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A236" s="465"/>
+      <c r="B236" s="143">
+        <v>6</v>
+      </c>
+      <c r="C236" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D236" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="E236" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F236" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G236" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H236" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="I236" s="145">
+        <v>11</v>
+      </c>
+      <c r="J236" s="145"/>
+      <c r="K236" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="L236" s="422"/>
+      <c r="M236" s="422"/>
+      <c r="N236" s="422"/>
+      <c r="O236" s="424"/>
+    </row>
+    <row r="237" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A237" s="138"/>
+      <c r="B237" s="143">
+        <v>7</v>
+      </c>
+      <c r="C237" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D237" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="E237" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F237" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G237" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="H237" s="160" t="s">
+        <v>148</v>
+      </c>
+      <c r="I237" s="159">
+        <v>10</v>
+      </c>
+      <c r="J237" s="159"/>
+      <c r="K237" s="161"/>
+      <c r="L237" s="137"/>
+      <c r="M237" s="137"/>
+      <c r="N237" s="137"/>
+      <c r="O237" s="139"/>
+    </row>
+    <row r="238" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A238" s="137"/>
+      <c r="B238" s="143">
+        <v>8</v>
+      </c>
+      <c r="C238" s="153" t="s">
+        <v>155</v>
+      </c>
+      <c r="D238" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="E238" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F238" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G238" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="H238" s="155" t="s">
+        <v>148</v>
+      </c>
+      <c r="I238" s="154">
+        <v>256</v>
+      </c>
+      <c r="J238" s="154"/>
+      <c r="K238" s="156"/>
+      <c r="L238" s="137"/>
+      <c r="M238" s="137"/>
+      <c r="N238" s="137"/>
+      <c r="O238" s="139"/>
+    </row>
+    <row r="239" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A239" s="137"/>
+      <c r="B239" s="143">
+        <v>9</v>
+      </c>
+      <c r="C239" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D239" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="E239" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F239" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G239" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="H239" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="I239" s="154">
+        <v>11</v>
+      </c>
+      <c r="J239" s="154"/>
+      <c r="K239" s="156"/>
+      <c r="L239" s="137"/>
+      <c r="M239" s="137"/>
+      <c r="N239" s="137"/>
+      <c r="O239" s="139"/>
+    </row>
+    <row r="240" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="138"/>
+      <c r="B240" s="147">
+        <v>10</v>
+      </c>
+      <c r="C240" s="148" t="s">
+        <v>157</v>
+      </c>
+      <c r="D240" s="148" t="s">
+        <v>161</v>
+      </c>
+      <c r="E240" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="F240" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="G240" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="H240" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="I240" s="149">
+        <v>256</v>
+      </c>
+      <c r="J240" s="149"/>
+      <c r="K240" s="151"/>
+      <c r="L240" s="137"/>
+      <c r="M240" s="137"/>
+      <c r="N240" s="137"/>
+      <c r="O240" s="139"/>
+    </row>
+    <row r="241" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A241" s="138"/>
+      <c r="B241" s="157"/>
+      <c r="C241" s="157"/>
+      <c r="D241" s="157"/>
+      <c r="E241" s="157"/>
+      <c r="F241" s="157"/>
+      <c r="G241" s="157"/>
+      <c r="H241" s="157"/>
+      <c r="I241" s="157"/>
+      <c r="J241" s="157"/>
+      <c r="K241" s="157"/>
+      <c r="L241" s="137"/>
+      <c r="M241" s="137"/>
+      <c r="N241" s="137"/>
+      <c r="O241" s="139"/>
+    </row>
+    <row r="242" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="138"/>
+      <c r="L242" s="137"/>
+      <c r="M242" s="137"/>
+      <c r="N242" s="137"/>
+      <c r="O242" s="139"/>
+    </row>
+    <row r="243" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B243" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C243" s="470"/>
+      <c r="D243" s="170" t="s">
         <v>301</v>
       </c>
-      <c r="E221" s="171"/>
-      <c r="F221" s="171"/>
-      <c r="G221" s="172"/>
-      <c r="H221" s="470"/>
-      <c r="I221" s="470"/>
-      <c r="J221" s="470"/>
-      <c r="K221" s="470"/>
-    </row>
-    <row r="222" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="422"/>
-      <c r="C222" s="422"/>
-      <c r="D222" s="422"/>
-      <c r="E222" s="422"/>
-      <c r="F222" s="422"/>
-      <c r="G222" s="422"/>
-      <c r="H222" s="422"/>
-      <c r="I222" s="422"/>
-      <c r="J222" s="422"/>
-      <c r="K222" s="422"/>
-    </row>
-    <row r="223" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B223" s="425" t="s">
+      <c r="E243" s="171"/>
+      <c r="F243" s="171"/>
+      <c r="G243" s="172"/>
+      <c r="H243" s="470"/>
+      <c r="I243" s="470"/>
+      <c r="J243" s="470"/>
+      <c r="K243" s="470"/>
+    </row>
+    <row r="244" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="422"/>
+      <c r="C244" s="422"/>
+      <c r="D244" s="422"/>
+      <c r="E244" s="422"/>
+      <c r="F244" s="422"/>
+      <c r="G244" s="422"/>
+      <c r="H244" s="422"/>
+      <c r="I244" s="422"/>
+      <c r="J244" s="422"/>
+      <c r="K244" s="422"/>
+    </row>
+    <row r="245" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B245" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="C223" s="426" t="s">
+      <c r="C245" s="426" t="s">
         <v>30</v>
       </c>
-      <c r="D223" s="426" t="s">
+      <c r="D245" s="426" t="s">
         <v>31</v>
       </c>
-      <c r="E223" s="426" t="s">
+      <c r="E245" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="F223" s="426" t="s">
+      <c r="F245" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="G223" s="426" t="s">
+      <c r="G245" s="426" t="s">
         <v>34</v>
       </c>
-      <c r="H223" s="426" t="s">
+      <c r="H245" s="426" t="s">
         <v>35</v>
       </c>
-      <c r="I223" s="426" t="s">
+      <c r="I245" s="426" t="s">
         <v>36</v>
       </c>
-      <c r="J223" s="426" t="s">
+      <c r="J245" s="426" t="s">
         <v>37</v>
       </c>
-      <c r="K223" s="427" t="s">
+      <c r="K245" s="427" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="224" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B224" s="473">
+    <row r="246" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B246" s="473">
         <v>1</v>
       </c>
-      <c r="C224" s="474" t="s">
+      <c r="C246" s="474" t="s">
         <v>238</v>
       </c>
-      <c r="D224" s="474" t="s">
+      <c r="D246" s="474" t="s">
         <v>239</v>
       </c>
-      <c r="E224" s="476" t="s">
+      <c r="E246" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="F224" s="476" t="s">
+      <c r="F246" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="G224" s="476" t="s">
+      <c r="G246" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H224" s="474" t="s">
+      <c r="H246" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I224" s="476">
+      <c r="I246" s="476">
         <v>11</v>
       </c>
-      <c r="J224" s="474"/>
-      <c r="K224" s="475"/>
-    </row>
-    <row r="225" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A225" s="465"/>
-      <c r="B225" s="276">
+      <c r="J246" s="474"/>
+      <c r="K246" s="475"/>
+    </row>
+    <row r="247" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A247" s="465"/>
+      <c r="B247" s="276">
         <v>2</v>
       </c>
-      <c r="C225" s="429" t="s">
+      <c r="C247" s="429" t="s">
         <v>254</v>
       </c>
-      <c r="D225" s="429" t="s">
-        <v>250</v>
-      </c>
-      <c r="E225" s="430"/>
-      <c r="F225" s="430"/>
-      <c r="G225" s="430" t="s">
+      <c r="D247" s="429"/>
+      <c r="E247" s="430"/>
+      <c r="F247" s="430"/>
+      <c r="G247" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H225" s="431" t="s">
+      <c r="H247" s="431" t="s">
         <v>148</v>
       </c>
-      <c r="I225" s="430">
+      <c r="I247" s="430">
         <v>256</v>
       </c>
-      <c r="J225" s="430"/>
-      <c r="K225" s="452"/>
-      <c r="L225" s="422"/>
-      <c r="M225" s="422"/>
-      <c r="N225" s="422"/>
-      <c r="O225" s="424"/>
-    </row>
-    <row r="226" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A226" s="423"/>
-      <c r="B226" s="428">
-        <v>3</v>
-      </c>
-      <c r="C226" s="462" t="s">
-        <v>255</v>
-      </c>
-      <c r="D226" s="462"/>
-      <c r="E226" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F226" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G226" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H226" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I226" s="472">
-        <v>256</v>
-      </c>
-      <c r="J226" s="463"/>
-      <c r="K226" s="464"/>
-      <c r="L226" s="422"/>
-      <c r="M226" s="422"/>
-      <c r="N226" s="422"/>
-      <c r="O226" s="424"/>
-    </row>
-    <row r="227" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A227" s="423"/>
-      <c r="B227" s="428">
-        <v>4</v>
-      </c>
-      <c r="C227" s="462" t="s">
-        <v>286</v>
-      </c>
-      <c r="D227" s="462" t="s">
-        <v>199</v>
-      </c>
-      <c r="E227" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F227" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G227" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H227" s="462" t="s">
-        <v>147</v>
-      </c>
-      <c r="I227" s="472">
-        <v>11</v>
-      </c>
-      <c r="J227" s="463"/>
-      <c r="K227" s="477"/>
-      <c r="L227" s="422"/>
-      <c r="M227" s="422"/>
-      <c r="N227" s="422"/>
-      <c r="O227" s="424"/>
-    </row>
-    <row r="228" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A228" s="423"/>
-      <c r="B228" s="428">
-        <v>5</v>
-      </c>
-      <c r="C228" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D228" s="429" t="s">
-        <v>167</v>
-      </c>
-      <c r="E228" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F228" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G228" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H228" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I228" s="430">
-        <v>11</v>
-      </c>
-      <c r="J228" s="430"/>
-      <c r="K228" s="288" t="s">
-        <v>168</v>
-      </c>
-      <c r="L228" s="422"/>
-      <c r="M228" s="422"/>
-      <c r="N228" s="422"/>
-      <c r="O228" s="424"/>
-    </row>
-    <row r="229" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A229" s="465"/>
-      <c r="B229" s="428">
-        <v>6</v>
-      </c>
-      <c r="C229" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D229" s="456" t="s">
-        <v>159</v>
-      </c>
-      <c r="E229" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F229" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G229" s="457" t="s">
-        <v>145</v>
-      </c>
-      <c r="H229" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I229" s="457">
-        <v>10</v>
-      </c>
-      <c r="J229" s="457"/>
-      <c r="K229" s="459"/>
-      <c r="L229" s="422"/>
-      <c r="M229" s="422"/>
-      <c r="N229" s="422"/>
-      <c r="O229" s="424"/>
-    </row>
-    <row r="230" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A230" s="423"/>
-      <c r="B230" s="428">
-        <v>7</v>
-      </c>
-      <c r="C230" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D230" s="449" t="s">
-        <v>160</v>
-      </c>
-      <c r="E230" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F230" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G230" s="450" t="s">
-        <v>145</v>
-      </c>
-      <c r="H230" s="451" t="s">
-        <v>148</v>
-      </c>
-      <c r="I230" s="450">
-        <v>256</v>
-      </c>
-      <c r="J230" s="450"/>
-      <c r="K230" s="452"/>
-      <c r="L230" s="422"/>
-      <c r="M230" s="422"/>
-      <c r="N230" s="422"/>
-      <c r="O230" s="424"/>
-    </row>
-    <row r="231" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A231" s="422"/>
-      <c r="B231" s="428">
-        <v>8</v>
-      </c>
-      <c r="C231" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D231" s="449" t="s">
-        <v>158</v>
-      </c>
-      <c r="E231" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F231" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G231" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H231" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I231" s="450">
-        <v>11</v>
-      </c>
-      <c r="J231" s="450"/>
-      <c r="K231" s="452"/>
-      <c r="L231" s="422"/>
-      <c r="M231" s="422"/>
-      <c r="N231" s="422"/>
-      <c r="O231" s="424"/>
-    </row>
-    <row r="232" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="423"/>
-      <c r="B232" s="434">
-        <v>9</v>
-      </c>
-      <c r="C232" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D232" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E232" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F232" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G232" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H232" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I232" s="436">
-        <v>256</v>
-      </c>
-      <c r="J232" s="436"/>
-      <c r="K232" s="438"/>
-      <c r="L232" s="422"/>
-      <c r="M232" s="422"/>
-      <c r="N232" s="422"/>
-      <c r="O232" s="424"/>
-    </row>
-    <row r="234" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B235" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C235" s="470"/>
-      <c r="D235" s="170" t="s">
-        <v>336</v>
-      </c>
-      <c r="E235" s="171"/>
-      <c r="F235" s="171"/>
-      <c r="G235" s="172"/>
-      <c r="H235" s="470"/>
-      <c r="I235" s="470"/>
-      <c r="J235" s="470"/>
-      <c r="K235" s="470"/>
-    </row>
-    <row r="236" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="422"/>
-      <c r="C236" s="422"/>
-      <c r="D236" s="422"/>
-      <c r="E236" s="422"/>
-      <c r="F236" s="422"/>
-      <c r="G236" s="422"/>
-      <c r="H236" s="422"/>
-      <c r="I236" s="422"/>
-      <c r="J236" s="422"/>
-      <c r="K236" s="422"/>
-    </row>
-    <row r="237" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B237" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C237" s="426" t="s">
-        <v>30</v>
-      </c>
-      <c r="D237" s="426" t="s">
-        <v>31</v>
-      </c>
-      <c r="E237" s="426" t="s">
-        <v>32</v>
-      </c>
-      <c r="F237" s="426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G237" s="426" t="s">
-        <v>34</v>
-      </c>
-      <c r="H237" s="426" t="s">
-        <v>35</v>
-      </c>
-      <c r="I237" s="426" t="s">
-        <v>36</v>
-      </c>
-      <c r="J237" s="426" t="s">
-        <v>37</v>
-      </c>
-      <c r="K237" s="427" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B238" s="473">
-        <v>1</v>
-      </c>
-      <c r="C238" s="474" t="s">
-        <v>238</v>
-      </c>
-      <c r="D238" s="474" t="s">
-        <v>239</v>
-      </c>
-      <c r="E238" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="F238" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="G238" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="H238" s="474" t="s">
-        <v>147</v>
-      </c>
-      <c r="I238" s="476">
-        <v>11</v>
-      </c>
-      <c r="J238" s="474"/>
-      <c r="K238" s="475"/>
-    </row>
-    <row r="239" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A239" s="465"/>
-      <c r="B239" s="276">
-        <v>2</v>
-      </c>
-      <c r="C239" s="429" t="s">
-        <v>282</v>
-      </c>
-      <c r="D239" s="429" t="s">
-        <v>284</v>
-      </c>
-      <c r="E239" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F239" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G239" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H239" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I239" s="430">
-        <v>256</v>
-      </c>
-      <c r="J239" s="430"/>
-      <c r="K239" s="452"/>
-      <c r="L239" s="422"/>
-      <c r="M239" s="422"/>
-      <c r="N239" s="422"/>
-      <c r="O239" s="424"/>
-    </row>
-    <row r="240" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A240" s="423"/>
-      <c r="B240" s="428">
-        <v>3</v>
-      </c>
-      <c r="C240" s="462" t="s">
-        <v>283</v>
-      </c>
-      <c r="D240" s="462" t="s">
-        <v>285</v>
-      </c>
-      <c r="E240" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F240" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G240" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H240" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I240" s="472">
-        <v>256</v>
-      </c>
-      <c r="J240" s="463"/>
-      <c r="K240" s="464"/>
-      <c r="L240" s="422"/>
-      <c r="M240" s="422"/>
-      <c r="N240" s="422"/>
-      <c r="O240" s="424"/>
-    </row>
-    <row r="241" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A241" s="423"/>
-      <c r="B241" s="428">
-        <v>4</v>
-      </c>
-      <c r="C241" s="462" t="s">
-        <v>337</v>
-      </c>
-      <c r="D241" s="462" t="s">
-        <v>338</v>
-      </c>
-      <c r="E241" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F241" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G241" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H241" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I241" s="472">
-        <v>256</v>
-      </c>
-      <c r="J241" s="463"/>
-      <c r="K241" s="477"/>
-      <c r="L241" s="422"/>
-      <c r="M241" s="422"/>
-      <c r="N241" s="422"/>
-      <c r="O241" s="424"/>
-    </row>
-    <row r="242" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A242" s="423"/>
-      <c r="B242" s="428">
-        <v>5</v>
-      </c>
-      <c r="C242" s="462" t="s">
-        <v>339</v>
-      </c>
-      <c r="D242" s="462" t="s">
-        <v>340</v>
-      </c>
-      <c r="E242" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F242" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G242" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H242" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I242" s="472">
-        <v>256</v>
-      </c>
-      <c r="J242" s="463"/>
-      <c r="K242" s="477"/>
-      <c r="L242" s="422"/>
-      <c r="M242" s="422"/>
-      <c r="N242" s="422"/>
-      <c r="O242" s="424"/>
-    </row>
-    <row r="243" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A243" s="423"/>
-      <c r="B243" s="428">
-        <v>6</v>
-      </c>
-      <c r="C243" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D243" s="429" t="s">
-        <v>167</v>
-      </c>
-      <c r="E243" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F243" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G243" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H243" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I243" s="430">
-        <v>11</v>
-      </c>
-      <c r="J243" s="430"/>
-      <c r="K243" s="288" t="s">
-        <v>168</v>
-      </c>
-      <c r="L243" s="422"/>
-      <c r="M243" s="422"/>
-      <c r="N243" s="422"/>
-      <c r="O243" s="424"/>
-    </row>
-    <row r="244" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A244" s="465"/>
-      <c r="B244" s="428">
-        <v>7</v>
-      </c>
-      <c r="C244" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D244" s="456" t="s">
-        <v>159</v>
-      </c>
-      <c r="E244" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F244" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G244" s="457" t="s">
-        <v>145</v>
-      </c>
-      <c r="H244" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I244" s="457">
-        <v>10</v>
-      </c>
-      <c r="J244" s="457"/>
-      <c r="K244" s="459"/>
-      <c r="L244" s="422"/>
-      <c r="M244" s="422"/>
-      <c r="N244" s="422"/>
-      <c r="O244" s="424"/>
-    </row>
-    <row r="245" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A245" s="423"/>
-      <c r="B245" s="428">
-        <v>8</v>
-      </c>
-      <c r="C245" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D245" s="449" t="s">
-        <v>160</v>
-      </c>
-      <c r="E245" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F245" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G245" s="450" t="s">
-        <v>145</v>
-      </c>
-      <c r="H245" s="451" t="s">
-        <v>148</v>
-      </c>
-      <c r="I245" s="450">
-        <v>256</v>
-      </c>
-      <c r="J245" s="450"/>
-      <c r="K245" s="452"/>
-      <c r="L245" s="422"/>
-      <c r="M245" s="422"/>
-      <c r="N245" s="422"/>
-      <c r="O245" s="424"/>
-    </row>
-    <row r="246" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A246" s="422"/>
-      <c r="B246" s="428">
-        <v>9</v>
-      </c>
-      <c r="C246" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D246" s="449" t="s">
-        <v>158</v>
-      </c>
-      <c r="E246" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F246" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G246" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H246" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I246" s="450">
-        <v>11</v>
-      </c>
-      <c r="J246" s="450"/>
-      <c r="K246" s="452"/>
-      <c r="L246" s="422"/>
-      <c r="M246" s="422"/>
-      <c r="N246" s="422"/>
-      <c r="O246" s="424"/>
-    </row>
-    <row r="247" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="423"/>
-      <c r="B247" s="434">
-        <v>10</v>
-      </c>
-      <c r="C247" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D247" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E247" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F247" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G247" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H247" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I247" s="436">
-        <v>256</v>
-      </c>
-      <c r="J247" s="436"/>
-      <c r="K247" s="438"/>
+      <c r="J247" s="430"/>
+      <c r="K247" s="452"/>
       <c r="L247" s="422"/>
       <c r="M247" s="422"/>
       <c r="N247" s="422"/>
       <c r="O247" s="424"/>
     </row>
-    <row r="249" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="250" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B250" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C250" s="470"/>
-      <c r="D250" s="170" t="s">
-        <v>236</v>
-      </c>
-      <c r="E250" s="171"/>
-      <c r="F250" s="171"/>
-      <c r="G250" s="172"/>
-      <c r="H250" s="470"/>
-      <c r="I250" s="470"/>
-      <c r="J250" s="470"/>
-      <c r="K250" s="470"/>
-    </row>
-    <row r="251" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="422"/>
-      <c r="C251" s="422"/>
-      <c r="D251" s="422"/>
-      <c r="E251" s="422"/>
-      <c r="F251" s="422"/>
-      <c r="G251" s="422"/>
-      <c r="H251" s="422"/>
-      <c r="I251" s="422"/>
-      <c r="J251" s="422"/>
-      <c r="K251" s="422"/>
+    <row r="248" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A248" s="423"/>
+      <c r="B248" s="428">
+        <v>3</v>
+      </c>
+      <c r="C248" s="462" t="s">
+        <v>255</v>
+      </c>
+      <c r="D248" s="462"/>
+      <c r="E248" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F248" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G248" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H248" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I248" s="472">
+        <v>256</v>
+      </c>
+      <c r="J248" s="463"/>
+      <c r="K248" s="464"/>
+      <c r="L248" s="422"/>
+      <c r="M248" s="422"/>
+      <c r="N248" s="422"/>
+      <c r="O248" s="424"/>
+    </row>
+    <row r="249" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A249" s="423"/>
+      <c r="B249" s="428">
+        <v>4</v>
+      </c>
+      <c r="C249" s="462" t="s">
+        <v>286</v>
+      </c>
+      <c r="D249" s="462" t="s">
+        <v>199</v>
+      </c>
+      <c r="E249" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F249" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G249" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H249" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I249" s="472">
+        <v>11</v>
+      </c>
+      <c r="J249" s="463"/>
+      <c r="K249" s="477"/>
+      <c r="L249" s="422"/>
+      <c r="M249" s="422"/>
+      <c r="N249" s="422"/>
+      <c r="O249" s="424"/>
+    </row>
+    <row r="250" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A250" s="423"/>
+      <c r="B250" s="428">
+        <v>5</v>
+      </c>
+      <c r="C250" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D250" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E250" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F250" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G250" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H250" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I250" s="430">
+        <v>11</v>
+      </c>
+      <c r="J250" s="430"/>
+      <c r="K250" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L250" s="422"/>
+      <c r="M250" s="422"/>
+      <c r="N250" s="422"/>
+      <c r="O250" s="424"/>
+    </row>
+    <row r="251" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A251" s="465"/>
+      <c r="B251" s="428">
+        <v>6</v>
+      </c>
+      <c r="C251" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D251" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E251" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F251" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G251" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H251" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I251" s="457">
+        <v>10</v>
+      </c>
+      <c r="J251" s="457"/>
+      <c r="K251" s="459"/>
+      <c r="L251" s="422"/>
+      <c r="M251" s="422"/>
+      <c r="N251" s="422"/>
+      <c r="O251" s="424"/>
     </row>
     <row r="252" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B252" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" s="426" t="s">
-        <v>30</v>
-      </c>
-      <c r="D252" s="426" t="s">
-        <v>31</v>
-      </c>
-      <c r="E252" s="426" t="s">
-        <v>32</v>
-      </c>
-      <c r="F252" s="426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G252" s="426" t="s">
-        <v>34</v>
-      </c>
-      <c r="H252" s="426" t="s">
-        <v>35</v>
-      </c>
-      <c r="I252" s="426" t="s">
-        <v>36</v>
-      </c>
-      <c r="J252" s="426" t="s">
-        <v>37</v>
-      </c>
-      <c r="K252" s="427" t="s">
-        <v>38</v>
-      </c>
+      <c r="A252" s="423"/>
+      <c r="B252" s="428">
+        <v>7</v>
+      </c>
+      <c r="C252" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D252" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E252" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F252" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G252" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H252" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I252" s="450">
+        <v>256</v>
+      </c>
+      <c r="J252" s="450"/>
+      <c r="K252" s="452"/>
+      <c r="L252" s="422"/>
+      <c r="M252" s="422"/>
+      <c r="N252" s="422"/>
+      <c r="O252" s="424"/>
     </row>
     <row r="253" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B253" s="473">
-        <v>1</v>
-      </c>
-      <c r="C253" s="474" t="s">
-        <v>238</v>
-      </c>
-      <c r="D253" s="474" t="s">
-        <v>239</v>
-      </c>
-      <c r="E253" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="F253" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="G253" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="H253" s="474" t="s">
+      <c r="A253" s="422"/>
+      <c r="B253" s="428">
+        <v>8</v>
+      </c>
+      <c r="C253" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D253" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E253" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F253" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G253" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H253" s="451" t="s">
         <v>147</v>
       </c>
-      <c r="I253" s="476">
+      <c r="I253" s="450">
         <v>11</v>
       </c>
-      <c r="J253" s="474"/>
-      <c r="K253" s="475"/>
-    </row>
-    <row r="254" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A254" s="465"/>
-      <c r="B254" s="276">
-        <v>2</v>
-      </c>
-      <c r="C254" s="429" t="s">
-        <v>254</v>
-      </c>
-      <c r="D254" s="429" t="s">
-        <v>250</v>
-      </c>
-      <c r="E254" s="430"/>
-      <c r="F254" s="430"/>
-      <c r="G254" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H254" s="431" t="s">
+      <c r="J253" s="450"/>
+      <c r="K253" s="452"/>
+      <c r="L253" s="422"/>
+      <c r="M253" s="422"/>
+      <c r="N253" s="422"/>
+      <c r="O253" s="424"/>
+    </row>
+    <row r="254" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="423"/>
+      <c r="B254" s="434">
+        <v>9</v>
+      </c>
+      <c r="C254" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D254" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E254" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F254" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G254" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H254" s="437" t="s">
         <v>148</v>
       </c>
-      <c r="I254" s="430">
+      <c r="I254" s="436">
         <v>256</v>
       </c>
-      <c r="J254" s="430"/>
-      <c r="K254" s="452"/>
+      <c r="J254" s="436"/>
+      <c r="K254" s="438"/>
       <c r="L254" s="422"/>
       <c r="M254" s="422"/>
       <c r="N254" s="422"/>
       <c r="O254" s="424"/>
     </row>
-    <row r="255" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A255" s="423"/>
-      <c r="B255" s="428">
-        <v>3</v>
-      </c>
-      <c r="C255" s="462" t="s">
-        <v>255</v>
-      </c>
-      <c r="D255" s="462"/>
-      <c r="E255" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F255" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G255" s="430" t="s">
+    <row r="256" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="257" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B257" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C257" s="470"/>
+      <c r="D257" s="170" t="s">
+        <v>344</v>
+      </c>
+      <c r="E257" s="171"/>
+      <c r="F257" s="171"/>
+      <c r="G257" s="172"/>
+      <c r="H257" s="470"/>
+      <c r="I257" s="470"/>
+      <c r="J257" s="470"/>
+      <c r="K257" s="470"/>
+    </row>
+    <row r="258" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="422"/>
+      <c r="C258" s="422"/>
+      <c r="D258" s="422"/>
+      <c r="E258" s="422"/>
+      <c r="F258" s="422"/>
+      <c r="G258" s="422"/>
+      <c r="H258" s="422"/>
+      <c r="I258" s="422"/>
+      <c r="J258" s="422"/>
+      <c r="K258" s="422"/>
+    </row>
+    <row r="259" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B259" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D259" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E259" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F259" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G259" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H259" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I259" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J259" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K259" s="427" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B260" s="473">
+        <v>1</v>
+      </c>
+      <c r="C260" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D260" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E260" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H255" s="462" t="s">
+      <c r="F260" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G260" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H260" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I260" s="476">
+        <v>11</v>
+      </c>
+      <c r="J260" s="474"/>
+      <c r="K260" s="475"/>
+    </row>
+    <row r="261" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A261" s="465"/>
+      <c r="B261" s="276">
+        <v>2</v>
+      </c>
+      <c r="C261" s="429" t="s">
+        <v>345</v>
+      </c>
+      <c r="D261" s="429" t="s">
+        <v>284</v>
+      </c>
+      <c r="E261" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F261" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G261" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H261" s="431" t="s">
         <v>148</v>
       </c>
-      <c r="I255" s="472">
+      <c r="I261" s="430">
         <v>256</v>
       </c>
-      <c r="J255" s="463"/>
-      <c r="K255" s="464"/>
-      <c r="L255" s="422"/>
-      <c r="M255" s="422"/>
-      <c r="N255" s="422"/>
-      <c r="O255" s="424"/>
-    </row>
-    <row r="256" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A256" s="423"/>
-      <c r="B256" s="428">
-        <v>4</v>
-      </c>
-      <c r="C256" s="462" t="s">
-        <v>286</v>
-      </c>
-      <c r="D256" s="462" t="s">
-        <v>199</v>
-      </c>
-      <c r="E256" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F256" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G256" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H256" s="462" t="s">
-        <v>147</v>
-      </c>
-      <c r="I256" s="472">
-        <v>11</v>
-      </c>
-      <c r="J256" s="463"/>
-      <c r="K256" s="477"/>
-      <c r="L256" s="422"/>
-      <c r="M256" s="422"/>
-      <c r="N256" s="422"/>
-      <c r="O256" s="424"/>
-    </row>
-    <row r="257" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A257" s="423"/>
-      <c r="B257" s="428">
-        <v>5</v>
-      </c>
-      <c r="C257" s="462" t="s">
-        <v>302</v>
-      </c>
-      <c r="D257" s="462" t="s">
-        <v>335</v>
-      </c>
-      <c r="E257" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F257" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G257" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H257" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I257" s="472">
-        <v>256</v>
-      </c>
-      <c r="J257" s="463"/>
-      <c r="K257" s="477"/>
-      <c r="L257" s="422"/>
-      <c r="M257" s="422"/>
-      <c r="N257" s="422"/>
-      <c r="O257" s="424"/>
-    </row>
-    <row r="258" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A258" s="423"/>
-      <c r="B258" s="428">
-        <v>6</v>
-      </c>
-      <c r="C258" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D258" s="429" t="s">
-        <v>167</v>
-      </c>
-      <c r="E258" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F258" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G258" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H258" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I258" s="430">
-        <v>11</v>
-      </c>
-      <c r="J258" s="430"/>
-      <c r="K258" s="288" t="s">
-        <v>168</v>
-      </c>
-      <c r="L258" s="422"/>
-      <c r="M258" s="422"/>
-      <c r="N258" s="422"/>
-      <c r="O258" s="424"/>
-    </row>
-    <row r="259" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A259" s="465"/>
-      <c r="B259" s="428">
-        <v>7</v>
-      </c>
-      <c r="C259" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D259" s="456" t="s">
-        <v>159</v>
-      </c>
-      <c r="E259" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F259" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G259" s="457" t="s">
-        <v>145</v>
-      </c>
-      <c r="H259" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I259" s="457">
-        <v>10</v>
-      </c>
-      <c r="J259" s="457"/>
-      <c r="K259" s="459"/>
-      <c r="L259" s="422"/>
-      <c r="M259" s="422"/>
-      <c r="N259" s="422"/>
-      <c r="O259" s="424"/>
-    </row>
-    <row r="260" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A260" s="423"/>
-      <c r="B260" s="428">
-        <v>8</v>
-      </c>
-      <c r="C260" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D260" s="449" t="s">
-        <v>160</v>
-      </c>
-      <c r="E260" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F260" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G260" s="450" t="s">
-        <v>145</v>
-      </c>
-      <c r="H260" s="451" t="s">
-        <v>148</v>
-      </c>
-      <c r="I260" s="450">
-        <v>256</v>
-      </c>
-      <c r="J260" s="450"/>
-      <c r="K260" s="452"/>
-      <c r="L260" s="422"/>
-      <c r="M260" s="422"/>
-      <c r="N260" s="422"/>
-      <c r="O260" s="424"/>
-    </row>
-    <row r="261" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A261" s="422"/>
-      <c r="B261" s="428">
-        <v>9</v>
-      </c>
-      <c r="C261" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D261" s="449" t="s">
-        <v>158</v>
-      </c>
-      <c r="E261" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F261" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G261" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H261" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I261" s="450">
-        <v>11</v>
-      </c>
-      <c r="J261" s="450"/>
+      <c r="J261" s="430"/>
       <c r="K261" s="452"/>
       <c r="L261" s="422"/>
       <c r="M261" s="422"/>
       <c r="N261" s="422"/>
       <c r="O261" s="424"/>
     </row>
-    <row r="262" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A262" s="423"/>
-      <c r="B262" s="434">
-        <v>10</v>
-      </c>
-      <c r="C262" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D262" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E262" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F262" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G262" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H262" s="437" t="s">
+      <c r="B262" s="428">
+        <v>3</v>
+      </c>
+      <c r="C262" s="462" t="s">
+        <v>283</v>
+      </c>
+      <c r="D262" s="462" t="s">
+        <v>285</v>
+      </c>
+      <c r="E262" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F262" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G262" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H262" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I262" s="436">
+      <c r="I262" s="472">
         <v>256</v>
       </c>
-      <c r="J262" s="436"/>
-      <c r="K262" s="438"/>
+      <c r="J262" s="463"/>
+      <c r="K262" s="464"/>
       <c r="L262" s="422"/>
       <c r="M262" s="422"/>
       <c r="N262" s="422"/>
       <c r="O262" s="424"/>
     </row>
-    <row r="264" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="265" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B265" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C265" s="470"/>
-      <c r="D265" s="170" t="s">
-        <v>303</v>
-      </c>
-      <c r="E265" s="171"/>
-      <c r="F265" s="171"/>
-      <c r="G265" s="172"/>
-      <c r="H265" s="470"/>
-      <c r="I265" s="470"/>
-      <c r="J265" s="470"/>
-      <c r="K265" s="470"/>
-    </row>
-    <row r="266" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="422"/>
-      <c r="C266" s="422"/>
-      <c r="D266" s="422"/>
-      <c r="E266" s="422"/>
-      <c r="F266" s="422"/>
-      <c r="G266" s="422"/>
-      <c r="H266" s="422"/>
-      <c r="I266" s="422"/>
-      <c r="J266" s="422"/>
-      <c r="K266" s="422"/>
+    <row r="263" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A263" s="423"/>
+      <c r="B263" s="428">
+        <v>4</v>
+      </c>
+      <c r="C263" s="462" t="s">
+        <v>336</v>
+      </c>
+      <c r="D263" s="462" t="s">
+        <v>337</v>
+      </c>
+      <c r="E263" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F263" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G263" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H263" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I263" s="472">
+        <v>256</v>
+      </c>
+      <c r="J263" s="463"/>
+      <c r="K263" s="477"/>
+      <c r="L263" s="422"/>
+      <c r="M263" s="422"/>
+      <c r="N263" s="422"/>
+      <c r="O263" s="424"/>
+    </row>
+    <row r="264" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A264" s="423"/>
+      <c r="B264" s="428">
+        <v>5</v>
+      </c>
+      <c r="C264" s="462" t="s">
+        <v>338</v>
+      </c>
+      <c r="D264" s="462" t="s">
+        <v>339</v>
+      </c>
+      <c r="E264" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F264" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G264" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H264" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I264" s="472">
+        <v>256</v>
+      </c>
+      <c r="J264" s="463"/>
+      <c r="K264" s="477"/>
+      <c r="L264" s="422"/>
+      <c r="M264" s="422"/>
+      <c r="N264" s="422"/>
+      <c r="O264" s="424"/>
+    </row>
+    <row r="265" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A265" s="423"/>
+      <c r="B265" s="428">
+        <v>6</v>
+      </c>
+      <c r="C265" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D265" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E265" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F265" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G265" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H265" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I265" s="430">
+        <v>11</v>
+      </c>
+      <c r="J265" s="430"/>
+      <c r="K265" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L265" s="422"/>
+      <c r="M265" s="422"/>
+      <c r="N265" s="422"/>
+      <c r="O265" s="424"/>
+    </row>
+    <row r="266" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A266" s="465"/>
+      <c r="B266" s="428">
+        <v>7</v>
+      </c>
+      <c r="C266" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D266" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E266" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F266" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G266" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H266" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I266" s="457">
+        <v>10</v>
+      </c>
+      <c r="J266" s="457"/>
+      <c r="K266" s="459"/>
+      <c r="L266" s="422"/>
+      <c r="M266" s="422"/>
+      <c r="N266" s="422"/>
+      <c r="O266" s="424"/>
     </row>
     <row r="267" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B267" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C267" s="426" t="s">
-        <v>30</v>
-      </c>
-      <c r="D267" s="426" t="s">
-        <v>31</v>
-      </c>
-      <c r="E267" s="426" t="s">
-        <v>32</v>
-      </c>
-      <c r="F267" s="426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G267" s="426" t="s">
-        <v>34</v>
-      </c>
-      <c r="H267" s="426" t="s">
-        <v>35</v>
-      </c>
-      <c r="I267" s="426" t="s">
-        <v>36</v>
-      </c>
-      <c r="J267" s="426" t="s">
-        <v>37</v>
-      </c>
-      <c r="K267" s="427" t="s">
-        <v>38</v>
-      </c>
+      <c r="A267" s="423"/>
+      <c r="B267" s="428">
+        <v>8</v>
+      </c>
+      <c r="C267" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D267" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E267" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F267" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G267" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H267" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I267" s="450">
+        <v>256</v>
+      </c>
+      <c r="J267" s="450"/>
+      <c r="K267" s="452"/>
+      <c r="L267" s="422"/>
+      <c r="M267" s="422"/>
+      <c r="N267" s="422"/>
+      <c r="O267" s="424"/>
     </row>
     <row r="268" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B268" s="473">
-        <v>1</v>
-      </c>
-      <c r="C268" s="474" t="s">
-        <v>238</v>
-      </c>
-      <c r="D268" s="474" t="s">
-        <v>239</v>
-      </c>
-      <c r="E268" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="F268" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="G268" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="H268" s="474" t="s">
+      <c r="A268" s="422"/>
+      <c r="B268" s="428">
+        <v>9</v>
+      </c>
+      <c r="C268" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D268" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E268" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F268" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G268" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H268" s="451" t="s">
         <v>147</v>
       </c>
-      <c r="I268" s="476">
+      <c r="I268" s="450">
         <v>11</v>
       </c>
-      <c r="J268" s="474"/>
-      <c r="K268" s="475"/>
-    </row>
-    <row r="269" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A269" s="465"/>
-      <c r="B269" s="276">
-        <v>2</v>
-      </c>
-      <c r="C269" s="429" t="s">
-        <v>304</v>
-      </c>
-      <c r="D269" s="429" t="s">
-        <v>312</v>
-      </c>
-      <c r="E269" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F269" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G269" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H269" s="431" t="s">
+      <c r="J268" s="450"/>
+      <c r="K268" s="452"/>
+      <c r="L268" s="422"/>
+      <c r="M268" s="422"/>
+      <c r="N268" s="422"/>
+      <c r="O268" s="424"/>
+    </row>
+    <row r="269" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A269" s="423"/>
+      <c r="B269" s="434">
+        <v>10</v>
+      </c>
+      <c r="C269" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D269" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E269" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F269" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G269" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H269" s="437" t="s">
         <v>148</v>
       </c>
-      <c r="I269" s="430">
+      <c r="I269" s="436">
         <v>256</v>
       </c>
-      <c r="J269" s="430"/>
-      <c r="K269" s="452"/>
+      <c r="J269" s="436"/>
+      <c r="K269" s="438"/>
       <c r="L269" s="422"/>
       <c r="M269" s="422"/>
       <c r="N269" s="422"/>
       <c r="O269" s="424"/>
     </row>
     <row r="270" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A270" s="423"/>
-      <c r="B270" s="428">
-        <v>3</v>
-      </c>
-      <c r="C270" s="462" t="s">
-        <v>305</v>
-      </c>
-      <c r="D270" s="462" t="s">
-        <v>311</v>
-      </c>
-      <c r="E270" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F270" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G270" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H270" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I270" s="472">
-        <v>256</v>
-      </c>
-      <c r="J270" s="463"/>
-      <c r="K270" s="464"/>
+      <c r="A270" s="422"/>
+      <c r="B270" s="453"/>
+      <c r="C270" s="453"/>
+      <c r="D270" s="453"/>
+      <c r="E270" s="454"/>
+      <c r="F270" s="454"/>
+      <c r="G270" s="454"/>
+      <c r="H270" s="455"/>
+      <c r="I270" s="454"/>
+      <c r="J270" s="454"/>
+      <c r="K270" s="454"/>
       <c r="L270" s="422"/>
       <c r="M270" s="422"/>
       <c r="N270" s="422"/>
-      <c r="O270" s="424"/>
+      <c r="O270" s="422"/>
     </row>
     <row r="271" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A271" s="423"/>
-      <c r="B271" s="428">
-        <v>4</v>
-      </c>
-      <c r="C271" s="462" t="s">
-        <v>319</v>
-      </c>
-      <c r="D271" s="462" t="s">
-        <v>320</v>
-      </c>
-      <c r="E271" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F271" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G271" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H271" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I271" s="472">
-        <v>256</v>
-      </c>
-      <c r="J271" s="463"/>
-      <c r="K271" s="477"/>
+      <c r="A271" s="422"/>
+      <c r="B271" s="453"/>
+      <c r="C271" s="453"/>
+      <c r="D271" s="453"/>
+      <c r="E271" s="454"/>
+      <c r="F271" s="454"/>
+      <c r="G271" s="454"/>
+      <c r="H271" s="455"/>
+      <c r="I271" s="454"/>
+      <c r="J271" s="454"/>
+      <c r="K271" s="454"/>
       <c r="L271" s="422"/>
       <c r="M271" s="422"/>
       <c r="N271" s="422"/>
-      <c r="O271" s="424"/>
+      <c r="O271" s="422"/>
     </row>
     <row r="272" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A272" s="423"/>
-      <c r="B272" s="428">
-        <v>5</v>
-      </c>
-      <c r="C272" s="462" t="s">
-        <v>306</v>
-      </c>
-      <c r="D272" s="462" t="s">
-        <v>315</v>
-      </c>
-      <c r="E272" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F272" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G272" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H272" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I272" s="472">
-        <v>20</v>
-      </c>
-      <c r="J272" s="463"/>
-      <c r="K272" s="477"/>
+      <c r="A272" s="422"/>
+      <c r="B272" s="453"/>
+      <c r="C272" s="453"/>
+      <c r="D272" s="453"/>
+      <c r="E272" s="454"/>
+      <c r="F272" s="454"/>
+      <c r="G272" s="454"/>
+      <c r="H272" s="455"/>
+      <c r="I272" s="454"/>
+      <c r="J272" s="454"/>
+      <c r="K272" s="454"/>
       <c r="L272" s="422"/>
       <c r="M272" s="422"/>
       <c r="N272" s="422"/>
-      <c r="O272" s="424"/>
+      <c r="O272" s="422"/>
     </row>
     <row r="273" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A273" s="423"/>
-      <c r="B273" s="428">
-        <v>6</v>
-      </c>
-      <c r="C273" s="462" t="s">
-        <v>307</v>
-      </c>
-      <c r="D273" s="462" t="s">
-        <v>313</v>
-      </c>
-      <c r="E273" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F273" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G273" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H273" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I273" s="472">
-        <v>256</v>
-      </c>
-      <c r="J273" s="463"/>
-      <c r="K273" s="477"/>
+      <c r="A273" s="422"/>
+      <c r="B273" s="453"/>
+      <c r="C273" s="453"/>
+      <c r="D273" s="453"/>
+      <c r="E273" s="454"/>
+      <c r="F273" s="454"/>
+      <c r="G273" s="454"/>
+      <c r="H273" s="455"/>
+      <c r="I273" s="454"/>
+      <c r="J273" s="454"/>
+      <c r="K273" s="454"/>
       <c r="L273" s="422"/>
       <c r="M273" s="422"/>
       <c r="N273" s="422"/>
-      <c r="O273" s="424"/>
+      <c r="O273" s="422"/>
     </row>
     <row r="274" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A274" s="423"/>
-      <c r="B274" s="428">
-        <v>7</v>
-      </c>
-      <c r="C274" s="462" t="s">
-        <v>308</v>
-      </c>
-      <c r="D274" s="462" t="s">
-        <v>314</v>
-      </c>
-      <c r="E274" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F274" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G274" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H274" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I274" s="472">
-        <v>256</v>
-      </c>
-      <c r="J274" s="463"/>
-      <c r="K274" s="477"/>
+      <c r="A274" s="422"/>
+      <c r="B274" s="453"/>
+      <c r="C274" s="453"/>
+      <c r="D274" s="453"/>
+      <c r="E274" s="454"/>
+      <c r="F274" s="454"/>
+      <c r="G274" s="454"/>
+      <c r="H274" s="455"/>
+      <c r="I274" s="454"/>
+      <c r="J274" s="454"/>
+      <c r="K274" s="454"/>
       <c r="L274" s="422"/>
       <c r="M274" s="422"/>
       <c r="N274" s="422"/>
-      <c r="O274" s="424"/>
+      <c r="O274" s="422"/>
     </row>
     <row r="275" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A275" s="423"/>
-      <c r="B275" s="428">
-        <v>8</v>
-      </c>
-      <c r="C275" s="462" t="s">
-        <v>309</v>
-      </c>
-      <c r="D275" s="462" t="s">
-        <v>316</v>
-      </c>
-      <c r="E275" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F275" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G275" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H275" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I275" s="472">
-        <v>256</v>
-      </c>
-      <c r="J275" s="463"/>
-      <c r="K275" s="477"/>
+      <c r="A275" s="422"/>
+      <c r="B275" s="453"/>
+      <c r="C275" s="453"/>
+      <c r="D275" s="453"/>
+      <c r="E275" s="454"/>
+      <c r="F275" s="454"/>
+      <c r="G275" s="454"/>
+      <c r="H275" s="455"/>
+      <c r="I275" s="454"/>
+      <c r="J275" s="454"/>
+      <c r="K275" s="454"/>
       <c r="L275" s="422"/>
       <c r="M275" s="422"/>
       <c r="N275" s="422"/>
-      <c r="O275" s="424"/>
+      <c r="O275" s="422"/>
     </row>
     <row r="276" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A276" s="423"/>
-      <c r="B276" s="428">
-        <v>9</v>
-      </c>
-      <c r="C276" s="462" t="s">
-        <v>310</v>
-      </c>
-      <c r="D276" s="462" t="s">
-        <v>317</v>
-      </c>
-      <c r="E276" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F276" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G276" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H276" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I276" s="472">
-        <v>256</v>
-      </c>
-      <c r="J276" s="463"/>
-      <c r="K276" s="477"/>
+      <c r="A276" s="422"/>
+      <c r="B276" s="453"/>
+      <c r="C276" s="453"/>
+      <c r="D276" s="453"/>
+      <c r="E276" s="454"/>
+      <c r="F276" s="454"/>
+      <c r="G276" s="454"/>
+      <c r="H276" s="455"/>
+      <c r="I276" s="454"/>
+      <c r="J276" s="454"/>
+      <c r="K276" s="454"/>
       <c r="L276" s="422"/>
       <c r="M276" s="422"/>
       <c r="N276" s="422"/>
-      <c r="O276" s="424"/>
+      <c r="O276" s="422"/>
     </row>
     <row r="277" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A277" s="423"/>
-      <c r="B277" s="428">
-        <v>10</v>
-      </c>
-      <c r="C277" s="462" t="s">
-        <v>321</v>
-      </c>
-      <c r="D277" s="462" t="s">
-        <v>324</v>
-      </c>
-      <c r="E277" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F277" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G277" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H277" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I277" s="472">
-        <v>256</v>
-      </c>
-      <c r="J277" s="463"/>
-      <c r="K277" s="477"/>
+      <c r="A277" s="422"/>
+      <c r="B277" s="453"/>
+      <c r="C277" s="453"/>
+      <c r="D277" s="453"/>
+      <c r="E277" s="454"/>
+      <c r="F277" s="454"/>
+      <c r="G277" s="454"/>
+      <c r="H277" s="455"/>
+      <c r="I277" s="454"/>
+      <c r="J277" s="454"/>
+      <c r="K277" s="454"/>
       <c r="L277" s="422"/>
       <c r="M277" s="422"/>
       <c r="N277" s="422"/>
-      <c r="O277" s="424"/>
+      <c r="O277" s="422"/>
     </row>
     <row r="278" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A278" s="423"/>
-      <c r="B278" s="428">
-        <v>11</v>
-      </c>
-      <c r="C278" s="462" t="s">
-        <v>322</v>
-      </c>
-      <c r="D278" s="462" t="s">
-        <v>325</v>
-      </c>
-      <c r="E278" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F278" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G278" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H278" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I278" s="472">
-        <v>256</v>
-      </c>
-      <c r="J278" s="463"/>
-      <c r="K278" s="477"/>
+      <c r="A278" s="422"/>
+      <c r="B278" s="453"/>
+      <c r="C278" s="453"/>
+      <c r="D278" s="453"/>
+      <c r="E278" s="454"/>
+      <c r="F278" s="454"/>
+      <c r="G278" s="454"/>
+      <c r="H278" s="455"/>
+      <c r="I278" s="454"/>
+      <c r="J278" s="454"/>
+      <c r="K278" s="454"/>
       <c r="L278" s="422"/>
       <c r="M278" s="422"/>
       <c r="N278" s="422"/>
-      <c r="O278" s="424"/>
+      <c r="O278" s="422"/>
     </row>
     <row r="279" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A279" s="423"/>
-      <c r="B279" s="428">
-        <v>12</v>
-      </c>
-      <c r="C279" s="462" t="s">
-        <v>323</v>
-      </c>
-      <c r="D279" s="462" t="s">
-        <v>326</v>
-      </c>
-      <c r="E279" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F279" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G279" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H279" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I279" s="472">
-        <v>256</v>
-      </c>
-      <c r="J279" s="463"/>
-      <c r="K279" s="477"/>
+      <c r="A279" s="422"/>
+      <c r="B279" s="453"/>
+      <c r="C279" s="453"/>
+      <c r="D279" s="453"/>
+      <c r="E279" s="454"/>
+      <c r="F279" s="454"/>
+      <c r="G279" s="454"/>
+      <c r="H279" s="455"/>
+      <c r="I279" s="454"/>
+      <c r="J279" s="454"/>
+      <c r="K279" s="454"/>
       <c r="L279" s="422"/>
       <c r="M279" s="422"/>
       <c r="N279" s="422"/>
-      <c r="O279" s="424"/>
+      <c r="O279" s="422"/>
     </row>
     <row r="280" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A280" s="423"/>
-      <c r="B280" s="428">
-        <v>13</v>
-      </c>
-      <c r="C280" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D280" s="429" t="s">
-        <v>167</v>
-      </c>
-      <c r="E280" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F280" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G280" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H280" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I280" s="430">
-        <v>11</v>
-      </c>
-      <c r="J280" s="430"/>
-      <c r="K280" s="288" t="s">
-        <v>168</v>
-      </c>
+      <c r="A280" s="422"/>
+      <c r="B280" s="453"/>
+      <c r="C280" s="453"/>
+      <c r="D280" s="453"/>
+      <c r="E280" s="454"/>
+      <c r="F280" s="454"/>
+      <c r="G280" s="454"/>
+      <c r="H280" s="455"/>
+      <c r="I280" s="454"/>
+      <c r="J280" s="454"/>
+      <c r="K280" s="454"/>
       <c r="L280" s="422"/>
       <c r="M280" s="422"/>
       <c r="N280" s="422"/>
-      <c r="O280" s="424"/>
+      <c r="O280" s="422"/>
     </row>
     <row r="281" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A281" s="465"/>
-      <c r="B281" s="428">
-        <v>14</v>
-      </c>
-      <c r="C281" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D281" s="456" t="s">
-        <v>159</v>
-      </c>
-      <c r="E281" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F281" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G281" s="457" t="s">
-        <v>145</v>
-      </c>
-      <c r="H281" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I281" s="457">
-        <v>10</v>
-      </c>
-      <c r="J281" s="457"/>
-      <c r="K281" s="459"/>
+      <c r="A281" s="422"/>
+      <c r="B281" s="453"/>
+      <c r="C281" s="453"/>
+      <c r="D281" s="453"/>
+      <c r="E281" s="454"/>
+      <c r="F281" s="454"/>
+      <c r="G281" s="454"/>
+      <c r="H281" s="455"/>
+      <c r="I281" s="454"/>
+      <c r="J281" s="454"/>
+      <c r="K281" s="454"/>
       <c r="L281" s="422"/>
       <c r="M281" s="422"/>
       <c r="N281" s="422"/>
-      <c r="O281" s="424"/>
+      <c r="O281" s="422"/>
     </row>
     <row r="282" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A282" s="423"/>
-      <c r="B282" s="428">
-        <v>15</v>
-      </c>
-      <c r="C282" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D282" s="449" t="s">
-        <v>160</v>
-      </c>
-      <c r="E282" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F282" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G282" s="450" t="s">
-        <v>145</v>
-      </c>
-      <c r="H282" s="451" t="s">
-        <v>148</v>
-      </c>
-      <c r="I282" s="450">
-        <v>256</v>
-      </c>
-      <c r="J282" s="450"/>
-      <c r="K282" s="452"/>
+      <c r="A282" s="422"/>
+      <c r="B282" s="453"/>
+      <c r="C282" s="453"/>
+      <c r="D282" s="453"/>
+      <c r="E282" s="454"/>
+      <c r="F282" s="454"/>
+      <c r="G282" s="454"/>
+      <c r="H282" s="455"/>
+      <c r="I282" s="454"/>
+      <c r="J282" s="454"/>
+      <c r="K282" s="454"/>
       <c r="L282" s="422"/>
       <c r="M282" s="422"/>
       <c r="N282" s="422"/>
-      <c r="O282" s="424"/>
+      <c r="O282" s="422"/>
     </row>
     <row r="283" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A283" s="422"/>
-      <c r="B283" s="428">
-        <v>16</v>
-      </c>
-      <c r="C283" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D283" s="449" t="s">
-        <v>158</v>
-      </c>
-      <c r="E283" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F283" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G283" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H283" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I283" s="450">
-        <v>11</v>
-      </c>
-      <c r="J283" s="450"/>
-      <c r="K283" s="452"/>
+      <c r="B283" s="453"/>
+      <c r="C283" s="453"/>
+      <c r="D283" s="453"/>
+      <c r="E283" s="454"/>
+      <c r="F283" s="454"/>
+      <c r="G283" s="454"/>
+      <c r="H283" s="455"/>
+      <c r="I283" s="454"/>
+      <c r="J283" s="454"/>
+      <c r="K283" s="454"/>
       <c r="L283" s="422"/>
       <c r="M283" s="422"/>
       <c r="N283" s="422"/>
-      <c r="O283" s="424"/>
-    </row>
-    <row r="284" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="423"/>
-      <c r="B284" s="434">
-        <v>17</v>
-      </c>
-      <c r="C284" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D284" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E284" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F284" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G284" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H284" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I284" s="436">
-        <v>256</v>
-      </c>
-      <c r="J284" s="436"/>
-      <c r="K284" s="438"/>
+      <c r="O283" s="422"/>
+    </row>
+    <row r="284" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A284" s="422"/>
+      <c r="B284" s="453"/>
+      <c r="C284" s="453"/>
+      <c r="D284" s="453"/>
+      <c r="E284" s="454"/>
+      <c r="F284" s="454"/>
+      <c r="G284" s="454"/>
+      <c r="H284" s="455"/>
+      <c r="I284" s="454"/>
+      <c r="J284" s="454"/>
+      <c r="K284" s="454"/>
       <c r="L284" s="422"/>
       <c r="M284" s="422"/>
       <c r="N284" s="422"/>
-      <c r="O284" s="424"/>
-    </row>
-    <row r="287" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="288" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A288" s="423"/>
-      <c r="B288" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C288" s="470"/>
-      <c r="D288" s="170" t="s">
-        <v>327</v>
-      </c>
-      <c r="E288" s="171"/>
-      <c r="F288" s="171"/>
-      <c r="G288" s="172"/>
-      <c r="H288" s="470"/>
-      <c r="I288" s="470"/>
-      <c r="J288" s="470"/>
-      <c r="K288" s="470"/>
+      <c r="O284" s="422"/>
+    </row>
+    <row r="285" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A285" s="422"/>
+      <c r="B285" s="453"/>
+      <c r="C285" s="453"/>
+      <c r="D285" s="453"/>
+      <c r="E285" s="454"/>
+      <c r="F285" s="454"/>
+      <c r="G285" s="454"/>
+      <c r="H285" s="455"/>
+      <c r="I285" s="454"/>
+      <c r="J285" s="454"/>
+      <c r="K285" s="454"/>
+      <c r="L285" s="422"/>
+      <c r="M285" s="422"/>
+      <c r="N285" s="422"/>
+      <c r="O285" s="422"/>
+    </row>
+    <row r="286" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A286" s="422"/>
+      <c r="B286" s="453"/>
+      <c r="C286" s="453"/>
+      <c r="D286" s="453"/>
+      <c r="E286" s="454"/>
+      <c r="F286" s="454"/>
+      <c r="G286" s="454"/>
+      <c r="H286" s="455"/>
+      <c r="I286" s="454"/>
+      <c r="J286" s="454"/>
+      <c r="K286" s="454"/>
+      <c r="L286" s="422"/>
+      <c r="M286" s="422"/>
+      <c r="N286" s="422"/>
+      <c r="O286" s="422"/>
+    </row>
+    <row r="287" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A287" s="422"/>
+      <c r="B287" s="453"/>
+      <c r="C287" s="453"/>
+      <c r="D287" s="453"/>
+      <c r="E287" s="454"/>
+      <c r="F287" s="454"/>
+      <c r="G287" s="454"/>
+      <c r="H287" s="455"/>
+      <c r="I287" s="454"/>
+      <c r="J287" s="454"/>
+      <c r="K287" s="454"/>
+      <c r="L287" s="422"/>
+      <c r="M287" s="422"/>
+      <c r="N287" s="422"/>
+      <c r="O287" s="422"/>
+    </row>
+    <row r="288" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A288" s="422"/>
+      <c r="B288" s="453"/>
+      <c r="C288" s="453"/>
+      <c r="D288" s="453"/>
+      <c r="E288" s="454"/>
+      <c r="F288" s="454"/>
+      <c r="G288" s="454"/>
+      <c r="H288" s="455"/>
+      <c r="I288" s="454"/>
+      <c r="J288" s="454"/>
+      <c r="K288" s="454"/>
       <c r="L288" s="422"/>
       <c r="M288" s="422"/>
       <c r="N288" s="422"/>
-      <c r="O288" s="424"/>
-    </row>
-    <row r="289" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="423"/>
-      <c r="B289" s="422"/>
-      <c r="C289" s="422"/>
-      <c r="D289" s="422"/>
-      <c r="E289" s="422"/>
-      <c r="F289" s="422"/>
-      <c r="G289" s="422"/>
-      <c r="H289" s="422"/>
-      <c r="I289" s="422"/>
-      <c r="J289" s="422"/>
-      <c r="K289" s="422"/>
+      <c r="O288" s="422"/>
+    </row>
+    <row r="289" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A289" s="422"/>
+      <c r="B289" s="453"/>
+      <c r="C289" s="453"/>
+      <c r="D289" s="453"/>
+      <c r="E289" s="454"/>
+      <c r="F289" s="454"/>
+      <c r="G289" s="454"/>
+      <c r="H289" s="455"/>
+      <c r="I289" s="454"/>
+      <c r="J289" s="454"/>
+      <c r="K289" s="454"/>
       <c r="L289" s="422"/>
       <c r="M289" s="422"/>
       <c r="N289" s="422"/>
-      <c r="O289" s="424"/>
-    </row>
-    <row r="290" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A290" s="423"/>
-      <c r="B290" s="425" t="s">
+      <c r="O289" s="422"/>
+    </row>
+    <row r="290" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B290" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C290" s="470"/>
+      <c r="D290" s="170" t="s">
+        <v>236</v>
+      </c>
+      <c r="E290" s="171"/>
+      <c r="F290" s="171"/>
+      <c r="G290" s="172"/>
+      <c r="H290" s="470"/>
+      <c r="I290" s="470"/>
+      <c r="J290" s="470"/>
+      <c r="K290" s="470"/>
+    </row>
+    <row r="291" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="422"/>
+      <c r="C291" s="422"/>
+      <c r="D291" s="422"/>
+      <c r="E291" s="422"/>
+      <c r="F291" s="422"/>
+      <c r="G291" s="422"/>
+      <c r="H291" s="422"/>
+      <c r="I291" s="422"/>
+      <c r="J291" s="422"/>
+      <c r="K291" s="422"/>
+    </row>
+    <row r="292" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B292" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="C290" s="426" t="s">
+      <c r="C292" s="426" t="s">
         <v>30</v>
       </c>
-      <c r="D290" s="426" t="s">
+      <c r="D292" s="426" t="s">
         <v>31</v>
       </c>
-      <c r="E290" s="426" t="s">
+      <c r="E292" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="F290" s="426" t="s">
+      <c r="F292" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="G290" s="426" t="s">
+      <c r="G292" s="426" t="s">
         <v>34</v>
       </c>
-      <c r="H290" s="426" t="s">
+      <c r="H292" s="426" t="s">
         <v>35</v>
       </c>
-      <c r="I290" s="426" t="s">
+      <c r="I292" s="426" t="s">
         <v>36</v>
       </c>
-      <c r="J290" s="426" t="s">
+      <c r="J292" s="426" t="s">
         <v>37</v>
       </c>
-      <c r="K290" s="427" t="s">
+      <c r="K292" s="427" t="s">
         <v>38</v>
       </c>
-      <c r="L290" s="422"/>
-      <c r="M290" s="422"/>
-      <c r="N290" s="422"/>
-      <c r="O290" s="424"/>
-    </row>
-    <row r="291" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B291" s="473">
+    </row>
+    <row r="293" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B293" s="473">
         <v>1</v>
       </c>
-      <c r="C291" s="474" t="s">
+      <c r="C293" s="474" t="s">
         <v>238</v>
       </c>
-      <c r="D291" s="474" t="s">
+      <c r="D293" s="474" t="s">
         <v>239</v>
       </c>
-      <c r="E291" s="476" t="s">
+      <c r="E293" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="F291" s="476" t="s">
+      <c r="F293" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="G291" s="476" t="s">
+      <c r="G293" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H291" s="474" t="s">
+      <c r="H293" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I291" s="476">
+      <c r="I293" s="476">
         <v>11</v>
       </c>
-      <c r="J291" s="474"/>
-      <c r="K291" s="475"/>
-    </row>
-    <row r="292" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A292" s="465"/>
-      <c r="B292" s="276">
-        <v>2</v>
-      </c>
-      <c r="C292" s="429" t="s">
-        <v>331</v>
-      </c>
-      <c r="D292" s="429" t="s">
-        <v>328</v>
-      </c>
-      <c r="E292" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F292" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G292" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H292" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I292" s="430">
-        <v>256</v>
-      </c>
-      <c r="J292" s="430"/>
-      <c r="K292" s="452"/>
-      <c r="L292" s="470"/>
-      <c r="M292" s="422"/>
-      <c r="N292" s="422"/>
-      <c r="O292" s="424"/>
-    </row>
-    <row r="293" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A293" s="465"/>
-      <c r="B293" s="276">
-        <v>3</v>
-      </c>
-      <c r="C293" s="462" t="s">
-        <v>332</v>
-      </c>
-      <c r="D293" s="462" t="s">
-        <v>312</v>
-      </c>
-      <c r="E293" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F293" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G293" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H293" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I293" s="430">
-        <v>256</v>
-      </c>
-      <c r="J293" s="537"/>
-      <c r="K293" s="452"/>
-      <c r="L293" s="470"/>
-      <c r="M293" s="422"/>
-      <c r="N293" s="422"/>
-      <c r="O293" s="424"/>
+      <c r="J293" s="474"/>
+      <c r="K293" s="475"/>
     </row>
     <row r="294" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A294" s="465"/>
       <c r="B294" s="276">
-        <v>4</v>
-      </c>
-      <c r="C294" s="462" t="s">
-        <v>307</v>
-      </c>
-      <c r="D294" s="462" t="s">
-        <v>313</v>
-      </c>
-      <c r="E294" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F294" s="472" t="s">
-        <v>146</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C294" s="429" t="s">
+        <v>254</v>
+      </c>
+      <c r="D294" s="429" t="s">
+        <v>250</v>
+      </c>
+      <c r="E294" s="430"/>
+      <c r="F294" s="430"/>
       <c r="G294" s="430" t="s">
         <v>145</v>
       </c>
@@ -26271,9 +26216,9 @@
       <c r="I294" s="430">
         <v>256</v>
       </c>
-      <c r="J294" s="537"/>
+      <c r="J294" s="430"/>
       <c r="K294" s="452"/>
-      <c r="L294" s="470"/>
+      <c r="L294" s="422"/>
       <c r="M294" s="422"/>
       <c r="N294" s="422"/>
       <c r="O294" s="424"/>
@@ -26281,14 +26226,12 @@
     <row r="295" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A295" s="423"/>
       <c r="B295" s="428">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C295" s="462" t="s">
-        <v>282</v>
-      </c>
-      <c r="D295" s="462" t="s">
-        <v>284</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D295" s="462"/>
       <c r="E295" s="430" t="s">
         <v>146</v>
       </c>
@@ -26313,14 +26256,14 @@
     </row>
     <row r="296" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A296" s="423"/>
-      <c r="B296" s="461">
-        <v>6</v>
+      <c r="B296" s="428">
+        <v>4</v>
       </c>
       <c r="C296" s="462" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D296" s="462" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="E296" s="430" t="s">
         <v>146</v>
@@ -26332,13 +26275,13 @@
         <v>145</v>
       </c>
       <c r="H296" s="462" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I296" s="472">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="J296" s="463"/>
-      <c r="K296" s="464"/>
+      <c r="K296" s="477"/>
       <c r="L296" s="422"/>
       <c r="M296" s="422"/>
       <c r="N296" s="422"/>
@@ -26346,14 +26289,14 @@
     </row>
     <row r="297" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A297" s="423"/>
-      <c r="B297" s="461">
-        <v>7</v>
+      <c r="B297" s="428">
+        <v>5</v>
       </c>
       <c r="C297" s="462" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="D297" s="462" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E297" s="430" t="s">
         <v>146</v>
@@ -26368,19 +26311,19 @@
         <v>148</v>
       </c>
       <c r="I297" s="472">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="J297" s="463"/>
-      <c r="K297" s="464"/>
+      <c r="K297" s="477"/>
       <c r="L297" s="422"/>
       <c r="M297" s="422"/>
       <c r="N297" s="422"/>
       <c r="O297" s="424"/>
     </row>
     <row r="298" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A298" s="465"/>
+      <c r="A298" s="423"/>
       <c r="B298" s="428">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C298" s="429" t="s">
         <v>166</v>
@@ -26407,15 +26350,15 @@
       <c r="K298" s="288" t="s">
         <v>168</v>
       </c>
-      <c r="L298" s="470"/>
-      <c r="M298" s="470"/>
-      <c r="N298" s="470"/>
-      <c r="O298" s="471"/>
+      <c r="L298" s="422"/>
+      <c r="M298" s="422"/>
+      <c r="N298" s="422"/>
+      <c r="O298" s="424"/>
     </row>
     <row r="299" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A299" s="423"/>
+      <c r="A299" s="465"/>
       <c r="B299" s="428">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C299" s="456" t="s">
         <v>154</v>
@@ -26446,9 +26389,9 @@
       <c r="O299" s="424"/>
     </row>
     <row r="300" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A300" s="422"/>
+      <c r="A300" s="423"/>
       <c r="B300" s="428">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C300" s="449" t="s">
         <v>155</v>
@@ -26481,7 +26424,7 @@
     <row r="301" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A301" s="422"/>
       <c r="B301" s="428">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C301" s="449" t="s">
         <v>156</v>
@@ -26514,7 +26457,7 @@
     <row r="302" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="423"/>
       <c r="B302" s="434">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C302" s="435" t="s">
         <v>157</v>
@@ -26543,6 +26486,1094 @@
       <c r="M302" s="422"/>
       <c r="N302" s="422"/>
       <c r="O302" s="424"/>
+    </row>
+    <row r="304" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="305" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B305" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C305" s="470"/>
+      <c r="D305" s="170" t="s">
+        <v>303</v>
+      </c>
+      <c r="E305" s="171"/>
+      <c r="F305" s="171"/>
+      <c r="G305" s="172"/>
+      <c r="H305" s="470"/>
+      <c r="I305" s="470"/>
+      <c r="J305" s="470"/>
+      <c r="K305" s="470"/>
+    </row>
+    <row r="306" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="422"/>
+      <c r="C306" s="422"/>
+      <c r="D306" s="422"/>
+      <c r="E306" s="422"/>
+      <c r="F306" s="422"/>
+      <c r="G306" s="422"/>
+      <c r="H306" s="422"/>
+      <c r="I306" s="422"/>
+      <c r="J306" s="422"/>
+      <c r="K306" s="422"/>
+    </row>
+    <row r="307" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B307" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D307" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E307" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F307" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G307" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H307" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I307" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J307" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K307" s="427" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B308" s="473">
+        <v>1</v>
+      </c>
+      <c r="C308" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D308" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E308" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="F308" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G308" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H308" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I308" s="476">
+        <v>11</v>
+      </c>
+      <c r="J308" s="474"/>
+      <c r="K308" s="475"/>
+    </row>
+    <row r="309" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A309" s="465"/>
+      <c r="B309" s="276">
+        <v>2</v>
+      </c>
+      <c r="C309" s="429" t="s">
+        <v>304</v>
+      </c>
+      <c r="D309" s="429" t="s">
+        <v>312</v>
+      </c>
+      <c r="E309" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F309" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G309" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H309" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I309" s="430">
+        <v>256</v>
+      </c>
+      <c r="J309" s="430"/>
+      <c r="K309" s="452"/>
+      <c r="L309" s="422"/>
+      <c r="M309" s="422"/>
+      <c r="N309" s="422"/>
+      <c r="O309" s="424"/>
+    </row>
+    <row r="310" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A310" s="423"/>
+      <c r="B310" s="428">
+        <v>3</v>
+      </c>
+      <c r="C310" s="462" t="s">
+        <v>305</v>
+      </c>
+      <c r="D310" s="462" t="s">
+        <v>311</v>
+      </c>
+      <c r="E310" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F310" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G310" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H310" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I310" s="472">
+        <v>256</v>
+      </c>
+      <c r="J310" s="463"/>
+      <c r="K310" s="464"/>
+      <c r="L310" s="422"/>
+      <c r="M310" s="422"/>
+      <c r="N310" s="422"/>
+      <c r="O310" s="424"/>
+    </row>
+    <row r="311" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A311" s="423"/>
+      <c r="B311" s="428">
+        <v>4</v>
+      </c>
+      <c r="C311" s="462" t="s">
+        <v>319</v>
+      </c>
+      <c r="D311" s="462" t="s">
+        <v>320</v>
+      </c>
+      <c r="E311" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F311" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G311" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H311" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I311" s="472">
+        <v>256</v>
+      </c>
+      <c r="J311" s="463"/>
+      <c r="K311" s="477"/>
+      <c r="L311" s="422"/>
+      <c r="M311" s="422"/>
+      <c r="N311" s="422"/>
+      <c r="O311" s="424"/>
+    </row>
+    <row r="312" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A312" s="423"/>
+      <c r="B312" s="428">
+        <v>5</v>
+      </c>
+      <c r="C312" s="462" t="s">
+        <v>306</v>
+      </c>
+      <c r="D312" s="462" t="s">
+        <v>315</v>
+      </c>
+      <c r="E312" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F312" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G312" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H312" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I312" s="472">
+        <v>20</v>
+      </c>
+      <c r="J312" s="463"/>
+      <c r="K312" s="477"/>
+      <c r="L312" s="422"/>
+      <c r="M312" s="422"/>
+      <c r="N312" s="422"/>
+      <c r="O312" s="424"/>
+    </row>
+    <row r="313" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A313" s="423"/>
+      <c r="B313" s="428">
+        <v>6</v>
+      </c>
+      <c r="C313" s="462" t="s">
+        <v>307</v>
+      </c>
+      <c r="D313" s="462" t="s">
+        <v>313</v>
+      </c>
+      <c r="E313" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F313" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G313" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H313" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I313" s="472">
+        <v>256</v>
+      </c>
+      <c r="J313" s="463"/>
+      <c r="K313" s="477"/>
+      <c r="L313" s="422"/>
+      <c r="M313" s="422"/>
+      <c r="N313" s="422"/>
+      <c r="O313" s="424"/>
+    </row>
+    <row r="314" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A314" s="423"/>
+      <c r="B314" s="428">
+        <v>7</v>
+      </c>
+      <c r="C314" s="462" t="s">
+        <v>308</v>
+      </c>
+      <c r="D314" s="462" t="s">
+        <v>314</v>
+      </c>
+      <c r="E314" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F314" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G314" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H314" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I314" s="472">
+        <v>256</v>
+      </c>
+      <c r="J314" s="463"/>
+      <c r="K314" s="477"/>
+      <c r="L314" s="422"/>
+      <c r="M314" s="422"/>
+      <c r="N314" s="422"/>
+      <c r="O314" s="424"/>
+    </row>
+    <row r="315" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A315" s="423"/>
+      <c r="B315" s="428">
+        <v>8</v>
+      </c>
+      <c r="C315" s="462" t="s">
+        <v>309</v>
+      </c>
+      <c r="D315" s="462" t="s">
+        <v>316</v>
+      </c>
+      <c r="E315" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F315" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G315" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H315" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I315" s="472">
+        <v>256</v>
+      </c>
+      <c r="J315" s="463"/>
+      <c r="K315" s="477"/>
+      <c r="L315" s="422"/>
+      <c r="M315" s="422"/>
+      <c r="N315" s="422"/>
+      <c r="O315" s="424"/>
+    </row>
+    <row r="316" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A316" s="423"/>
+      <c r="B316" s="428">
+        <v>9</v>
+      </c>
+      <c r="C316" s="462" t="s">
+        <v>310</v>
+      </c>
+      <c r="D316" s="462" t="s">
+        <v>317</v>
+      </c>
+      <c r="E316" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F316" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G316" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H316" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I316" s="472">
+        <v>256</v>
+      </c>
+      <c r="J316" s="463"/>
+      <c r="K316" s="477"/>
+      <c r="L316" s="422"/>
+      <c r="M316" s="422"/>
+      <c r="N316" s="422"/>
+      <c r="O316" s="424"/>
+    </row>
+    <row r="317" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A317" s="423"/>
+      <c r="B317" s="428">
+        <v>10</v>
+      </c>
+      <c r="C317" s="462" t="s">
+        <v>321</v>
+      </c>
+      <c r="D317" s="462" t="s">
+        <v>324</v>
+      </c>
+      <c r="E317" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F317" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G317" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H317" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I317" s="472">
+        <v>256</v>
+      </c>
+      <c r="J317" s="463"/>
+      <c r="K317" s="477"/>
+      <c r="L317" s="422"/>
+      <c r="M317" s="422"/>
+      <c r="N317" s="422"/>
+      <c r="O317" s="424"/>
+    </row>
+    <row r="318" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A318" s="423"/>
+      <c r="B318" s="428">
+        <v>11</v>
+      </c>
+      <c r="C318" s="462" t="s">
+        <v>322</v>
+      </c>
+      <c r="D318" s="462" t="s">
+        <v>325</v>
+      </c>
+      <c r="E318" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F318" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G318" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H318" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I318" s="472">
+        <v>256</v>
+      </c>
+      <c r="J318" s="463"/>
+      <c r="K318" s="477"/>
+      <c r="L318" s="422"/>
+      <c r="M318" s="422"/>
+      <c r="N318" s="422"/>
+      <c r="O318" s="424"/>
+    </row>
+    <row r="319" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A319" s="423"/>
+      <c r="B319" s="428">
+        <v>12</v>
+      </c>
+      <c r="C319" s="462" t="s">
+        <v>323</v>
+      </c>
+      <c r="D319" s="462" t="s">
+        <v>326</v>
+      </c>
+      <c r="E319" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F319" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G319" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H319" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I319" s="472">
+        <v>256</v>
+      </c>
+      <c r="J319" s="463"/>
+      <c r="K319" s="477"/>
+      <c r="L319" s="422"/>
+      <c r="M319" s="422"/>
+      <c r="N319" s="422"/>
+      <c r="O319" s="424"/>
+    </row>
+    <row r="320" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A320" s="423"/>
+      <c r="B320" s="428">
+        <v>13</v>
+      </c>
+      <c r="C320" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D320" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E320" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F320" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G320" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H320" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I320" s="430">
+        <v>11</v>
+      </c>
+      <c r="J320" s="430"/>
+      <c r="K320" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L320" s="422"/>
+      <c r="M320" s="422"/>
+      <c r="N320" s="422"/>
+      <c r="O320" s="424"/>
+    </row>
+    <row r="321" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A321" s="465"/>
+      <c r="B321" s="428">
+        <v>14</v>
+      </c>
+      <c r="C321" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D321" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E321" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F321" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G321" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H321" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I321" s="457">
+        <v>10</v>
+      </c>
+      <c r="J321" s="457"/>
+      <c r="K321" s="459"/>
+      <c r="L321" s="422"/>
+      <c r="M321" s="422"/>
+      <c r="N321" s="422"/>
+      <c r="O321" s="424"/>
+    </row>
+    <row r="322" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A322" s="423"/>
+      <c r="B322" s="428">
+        <v>15</v>
+      </c>
+      <c r="C322" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D322" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E322" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F322" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G322" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H322" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I322" s="450">
+        <v>256</v>
+      </c>
+      <c r="J322" s="450"/>
+      <c r="K322" s="452"/>
+      <c r="L322" s="422"/>
+      <c r="M322" s="422"/>
+      <c r="N322" s="422"/>
+      <c r="O322" s="424"/>
+    </row>
+    <row r="323" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A323" s="422"/>
+      <c r="B323" s="428">
+        <v>16</v>
+      </c>
+      <c r="C323" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D323" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E323" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F323" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G323" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H323" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I323" s="450">
+        <v>11</v>
+      </c>
+      <c r="J323" s="450"/>
+      <c r="K323" s="452"/>
+      <c r="L323" s="422"/>
+      <c r="M323" s="422"/>
+      <c r="N323" s="422"/>
+      <c r="O323" s="424"/>
+    </row>
+    <row r="324" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A324" s="423"/>
+      <c r="B324" s="434">
+        <v>17</v>
+      </c>
+      <c r="C324" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D324" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E324" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F324" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G324" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H324" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I324" s="436">
+        <v>256</v>
+      </c>
+      <c r="J324" s="436"/>
+      <c r="K324" s="438"/>
+      <c r="L324" s="422"/>
+      <c r="M324" s="422"/>
+      <c r="N324" s="422"/>
+      <c r="O324" s="424"/>
+    </row>
+    <row r="327" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="328" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A328" s="423"/>
+      <c r="B328" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C328" s="470"/>
+      <c r="D328" s="170" t="s">
+        <v>327</v>
+      </c>
+      <c r="E328" s="171"/>
+      <c r="F328" s="171"/>
+      <c r="G328" s="172"/>
+      <c r="H328" s="470"/>
+      <c r="I328" s="470"/>
+      <c r="J328" s="470"/>
+      <c r="K328" s="470"/>
+      <c r="L328" s="422"/>
+      <c r="M328" s="422"/>
+      <c r="N328" s="422"/>
+      <c r="O328" s="424"/>
+    </row>
+    <row r="329" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="423"/>
+      <c r="B329" s="422"/>
+      <c r="C329" s="422"/>
+      <c r="D329" s="422"/>
+      <c r="E329" s="422"/>
+      <c r="F329" s="422"/>
+      <c r="G329" s="422"/>
+      <c r="H329" s="422"/>
+      <c r="I329" s="422"/>
+      <c r="J329" s="422"/>
+      <c r="K329" s="422"/>
+      <c r="L329" s="422"/>
+      <c r="M329" s="422"/>
+      <c r="N329" s="422"/>
+      <c r="O329" s="424"/>
+    </row>
+    <row r="330" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A330" s="423"/>
+      <c r="B330" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D330" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E330" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F330" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G330" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H330" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I330" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J330" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K330" s="427" t="s">
+        <v>38</v>
+      </c>
+      <c r="L330" s="422"/>
+      <c r="M330" s="422"/>
+      <c r="N330" s="422"/>
+      <c r="O330" s="424"/>
+    </row>
+    <row r="331" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B331" s="473">
+        <v>1</v>
+      </c>
+      <c r="C331" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D331" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E331" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="F331" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G331" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H331" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I331" s="476">
+        <v>11</v>
+      </c>
+      <c r="J331" s="474"/>
+      <c r="K331" s="475"/>
+    </row>
+    <row r="332" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A332" s="465"/>
+      <c r="B332" s="276">
+        <v>2</v>
+      </c>
+      <c r="C332" s="429" t="s">
+        <v>331</v>
+      </c>
+      <c r="D332" s="429" t="s">
+        <v>328</v>
+      </c>
+      <c r="E332" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F332" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G332" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H332" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I332" s="430">
+        <v>256</v>
+      </c>
+      <c r="J332" s="430"/>
+      <c r="K332" s="452"/>
+      <c r="L332" s="470"/>
+      <c r="M332" s="422"/>
+      <c r="N332" s="422"/>
+      <c r="O332" s="424"/>
+    </row>
+    <row r="333" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A333" s="465"/>
+      <c r="B333" s="276">
+        <v>3</v>
+      </c>
+      <c r="C333" s="462" t="s">
+        <v>332</v>
+      </c>
+      <c r="D333" s="462" t="s">
+        <v>312</v>
+      </c>
+      <c r="E333" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F333" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G333" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H333" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I333" s="430">
+        <v>256</v>
+      </c>
+      <c r="J333" s="537"/>
+      <c r="K333" s="452"/>
+      <c r="L333" s="470"/>
+      <c r="M333" s="422"/>
+      <c r="N333" s="422"/>
+      <c r="O333" s="424"/>
+    </row>
+    <row r="334" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A334" s="465"/>
+      <c r="B334" s="276">
+        <v>4</v>
+      </c>
+      <c r="C334" s="462" t="s">
+        <v>307</v>
+      </c>
+      <c r="D334" s="462" t="s">
+        <v>313</v>
+      </c>
+      <c r="E334" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F334" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G334" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H334" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I334" s="430">
+        <v>256</v>
+      </c>
+      <c r="J334" s="537"/>
+      <c r="K334" s="452"/>
+      <c r="L334" s="470"/>
+      <c r="M334" s="422"/>
+      <c r="N334" s="422"/>
+      <c r="O334" s="424"/>
+    </row>
+    <row r="335" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A335" s="423"/>
+      <c r="B335" s="428">
+        <v>5</v>
+      </c>
+      <c r="C335" s="462" t="s">
+        <v>282</v>
+      </c>
+      <c r="D335" s="462" t="s">
+        <v>284</v>
+      </c>
+      <c r="E335" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F335" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G335" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H335" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I335" s="472">
+        <v>256</v>
+      </c>
+      <c r="J335" s="463"/>
+      <c r="K335" s="464"/>
+      <c r="L335" s="422"/>
+      <c r="M335" s="422"/>
+      <c r="N335" s="422"/>
+      <c r="O335" s="424"/>
+    </row>
+    <row r="336" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A336" s="423"/>
+      <c r="B336" s="461">
+        <v>6</v>
+      </c>
+      <c r="C336" s="462" t="s">
+        <v>283</v>
+      </c>
+      <c r="D336" s="462" t="s">
+        <v>285</v>
+      </c>
+      <c r="E336" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F336" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G336" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H336" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I336" s="472">
+        <v>256</v>
+      </c>
+      <c r="J336" s="463"/>
+      <c r="K336" s="464"/>
+      <c r="L336" s="422"/>
+      <c r="M336" s="422"/>
+      <c r="N336" s="422"/>
+      <c r="O336" s="424"/>
+    </row>
+    <row r="337" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A337" s="423"/>
+      <c r="B337" s="461">
+        <v>7</v>
+      </c>
+      <c r="C337" s="462" t="s">
+        <v>329</v>
+      </c>
+      <c r="D337" s="462" t="s">
+        <v>330</v>
+      </c>
+      <c r="E337" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F337" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G337" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H337" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I337" s="472">
+        <v>20</v>
+      </c>
+      <c r="J337" s="463"/>
+      <c r="K337" s="464"/>
+      <c r="L337" s="422"/>
+      <c r="M337" s="422"/>
+      <c r="N337" s="422"/>
+      <c r="O337" s="424"/>
+    </row>
+    <row r="338" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A338" s="465"/>
+      <c r="B338" s="428">
+        <v>8</v>
+      </c>
+      <c r="C338" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D338" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E338" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F338" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G338" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H338" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I338" s="430">
+        <v>11</v>
+      </c>
+      <c r="J338" s="430"/>
+      <c r="K338" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L338" s="470"/>
+      <c r="M338" s="470"/>
+      <c r="N338" s="470"/>
+      <c r="O338" s="471"/>
+    </row>
+    <row r="339" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A339" s="423"/>
+      <c r="B339" s="428">
+        <v>9</v>
+      </c>
+      <c r="C339" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D339" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E339" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F339" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G339" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H339" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I339" s="457">
+        <v>10</v>
+      </c>
+      <c r="J339" s="457"/>
+      <c r="K339" s="459"/>
+      <c r="L339" s="422"/>
+      <c r="M339" s="422"/>
+      <c r="N339" s="422"/>
+      <c r="O339" s="424"/>
+    </row>
+    <row r="340" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A340" s="422"/>
+      <c r="B340" s="428">
+        <v>10</v>
+      </c>
+      <c r="C340" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D340" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E340" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F340" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G340" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H340" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I340" s="450">
+        <v>256</v>
+      </c>
+      <c r="J340" s="450"/>
+      <c r="K340" s="452"/>
+      <c r="L340" s="422"/>
+      <c r="M340" s="422"/>
+      <c r="N340" s="422"/>
+      <c r="O340" s="424"/>
+    </row>
+    <row r="341" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A341" s="422"/>
+      <c r="B341" s="428">
+        <v>11</v>
+      </c>
+      <c r="C341" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D341" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E341" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F341" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G341" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H341" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I341" s="450">
+        <v>11</v>
+      </c>
+      <c r="J341" s="450"/>
+      <c r="K341" s="452"/>
+      <c r="L341" s="422"/>
+      <c r="M341" s="422"/>
+      <c r="N341" s="422"/>
+      <c r="O341" s="424"/>
+    </row>
+    <row r="342" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A342" s="423"/>
+      <c r="B342" s="434">
+        <v>12</v>
+      </c>
+      <c r="C342" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D342" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E342" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F342" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G342" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H342" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I342" s="436">
+        <v>256</v>
+      </c>
+      <c r="J342" s="436"/>
+      <c r="K342" s="438"/>
+      <c r="L342" s="422"/>
+      <c r="M342" s="422"/>
+      <c r="N342" s="422"/>
+      <c r="O342" s="424"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095041E2-6DA8-4DCA-8660-607B7D05502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FABD130-54AB-45FF-81E2-3CE6C8F10115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11067,7 +11067,7 @@
       <c r="L48" s="539"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.897772453704</v>
+        <v>44703.901532870368</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11088,7 +11088,7 @@
       <c r="L49" s="539"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.897772453704</v>
+        <v>44703.901532870368</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -18343,7 +18343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A289" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A280" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I292" sqref="I292"/>
     </sheetView>
   </sheetViews>
@@ -26204,7 +26204,7 @@
         <v>148</v>
       </c>
       <c r="I292" s="430">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="J292" s="430"/>
       <c r="K292" s="452"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\htdocs\YadnarThike\02.DesignDocument\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FABD130-54AB-45FF-81E2-3CE6C8F10115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -23,10 +22,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$312</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$337</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$93</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="357">
   <si>
     <t>No</t>
   </si>
@@ -954,9 +953,6 @@
     <t>pending?complete?-</t>
   </si>
   <si>
-    <t>Privicy&amp;policy</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -996,9 +992,6 @@
     <t>shop's email</t>
   </si>
   <si>
-    <t>shop's phno.</t>
-  </si>
-  <si>
     <t>shop's wel_txt</t>
   </si>
   <si>
@@ -1038,9 +1031,6 @@
     <t>shop's categories</t>
   </si>
   <si>
-    <t>phone no.</t>
-  </si>
-  <si>
     <t>shop's phone</t>
   </si>
   <si>
@@ -1059,25 +1049,82 @@
     <t>service's icon</t>
   </si>
   <si>
-    <t>Delivery Control</t>
-  </si>
-  <si>
-    <t>state_cate</t>
-  </si>
-  <si>
-    <t>state's categories</t>
-  </si>
-  <si>
     <t>township_name</t>
   </si>
   <si>
     <t>township's name</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>township</t>
+  </si>
+  <si>
+    <t>state and division's name</t>
+  </si>
+  <si>
+    <t>user_guide</t>
+  </si>
+  <si>
+    <t>userguide_id</t>
+  </si>
+  <si>
+    <t>userguide_title</t>
+  </si>
+  <si>
+    <t>userguide_text</t>
+  </si>
+  <si>
+    <t>userguide's id</t>
+  </si>
+  <si>
+    <t>the title of the userguide</t>
+  </si>
+  <si>
+    <t>userguide text</t>
+  </si>
+  <si>
+    <t>phone no</t>
+  </si>
+  <si>
+    <t>shop's phno</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+  </si>
+  <si>
+    <t>shop's id</t>
+  </si>
+  <si>
+    <t>service_id</t>
+  </si>
+  <si>
+    <t>Service's id</t>
+  </si>
+  <si>
+    <t>pp_id</t>
+  </si>
+  <si>
+    <t>Privacy and policys' id</t>
+  </si>
+  <si>
+    <t>Privacy&amp;policy</t>
+  </si>
+  <si>
+    <t>faq_id</t>
+  </si>
+  <si>
+    <t>FAQ's id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1965,7 +2012,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="574">
+  <cellXfs count="576">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2956,12 +3003,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{71D0DD3A-E7DB-4255-9F6C-E373792DADBE}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2997,7 +3046,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3109,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3166,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3229,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3292,7 @@
         <xdr:cNvPr id="114" name="Diamond 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,7 +3360,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,7 +3416,7 @@
         <xdr:cNvPr id="202" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,7 +3479,7 @@
         <xdr:cNvPr id="145" name="Rectangle 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3498,7 +3547,7 @@
         <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3554,7 +3603,7 @@
         <xdr:cNvPr id="222" name="Rectangle 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3617,7 +3666,7 @@
         <xdr:cNvPr id="223" name="Rectangle 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3680,7 +3729,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +3792,7 @@
         <xdr:cNvPr id="225" name="Rectangle 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3855,7 @@
         <xdr:cNvPr id="226" name="Rectangle 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3869,7 +3918,7 @@
         <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3925,7 +3974,7 @@
         <xdr:cNvPr id="203" name="Connector: Elbow 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3981,7 +4030,7 @@
         <xdr:cNvPr id="204" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,7 +4100,7 @@
         <xdr:cNvPr id="277" name="Rectangle 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4135,7 +4184,7 @@
         <xdr:cNvPr id="291" name="Rectangle 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4198,7 +4247,7 @@
         <xdr:cNvPr id="293" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4266,7 +4315,7 @@
         <xdr:cNvPr id="300" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4348,7 +4397,7 @@
         <xdr:cNvPr id="301" name="Rectangle 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4423,7 +4472,7 @@
         <xdr:cNvPr id="302" name="Rectangle 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4493,7 +4542,7 @@
         <xdr:cNvPr id="303" name="Rectangle 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4634,7 @@
         <xdr:cNvPr id="304" name="Rectangle 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4733,7 +4782,7 @@
         <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +4838,7 @@
         <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4845,7 +4894,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4901,7 +4950,7 @@
         <xdr:cNvPr id="245" name="Straight Arrow Connector 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4957,7 +5006,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5013,7 +5062,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5069,7 +5118,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5125,7 +5174,7 @@
         <xdr:cNvPr id="344" name="Rectangle 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5188,7 +5237,7 @@
         <xdr:cNvPr id="272" name="Straight Arrow Connector 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5244,7 +5293,7 @@
         <xdr:cNvPr id="348" name="Rectangle 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5307,7 +5356,7 @@
         <xdr:cNvPr id="349" name="Rectangle 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5370,7 +5419,7 @@
         <xdr:cNvPr id="350" name="Rectangle 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5438,7 +5487,7 @@
         <xdr:cNvPr id="353" name="Rectangle 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5501,7 +5550,7 @@
         <xdr:cNvPr id="354" name="Rectangle 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5564,7 +5613,7 @@
         <xdr:cNvPr id="275" name="Connector: Elbow 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5669,7 @@
         <xdr:cNvPr id="284" name="Connector: Elbow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5676,7 +5725,7 @@
         <xdr:cNvPr id="286" name="Connector: Elbow 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5732,7 +5781,7 @@
         <xdr:cNvPr id="288" name="Connector: Elbow 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5788,7 +5837,7 @@
         <xdr:cNvPr id="290" name="Connector: Elbow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5844,7 +5893,7 @@
         <xdr:cNvPr id="297" name="Connector: Elbow 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5900,7 +5949,7 @@
         <xdr:cNvPr id="299" name="Connector: Elbow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5956,7 +6005,7 @@
         <xdr:cNvPr id="306" name="Connector: Elbow 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6012,7 +6061,7 @@
         <xdr:cNvPr id="308" name="Connector: Elbow 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6068,7 +6117,7 @@
         <xdr:cNvPr id="310" name="Connector: Elbow 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6124,7 +6173,7 @@
         <xdr:cNvPr id="312" name="Straight Arrow Connector 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6180,7 +6229,7 @@
         <xdr:cNvPr id="320" name="Straight Arrow Connector 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6236,7 +6285,7 @@
         <xdr:cNvPr id="322" name="Rectangle 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,7 +6348,7 @@
         <xdr:cNvPr id="395" name="Rectangle 394">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6362,7 +6411,7 @@
         <xdr:cNvPr id="396" name="Rectangle 395">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6425,7 +6474,7 @@
         <xdr:cNvPr id="399" name="Rectangle 398">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6493,7 +6542,7 @@
         <xdr:cNvPr id="402" name="Rectangle 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6561,7 +6610,7 @@
         <xdr:cNvPr id="403" name="Rectangle 402">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6629,7 +6678,7 @@
         <xdr:cNvPr id="324" name="Connector: Elbow 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6687,7 +6736,7 @@
         <xdr:cNvPr id="326" name="Connector: Elbow 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6745,7 +6794,7 @@
         <xdr:cNvPr id="328" name="Connector: Elbow 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6803,7 +6852,7 @@
         <xdr:cNvPr id="330" name="Straight Arrow Connector 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6859,7 +6908,7 @@
         <xdr:cNvPr id="333" name="Straight Arrow Connector 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6915,7 +6964,7 @@
         <xdr:cNvPr id="336" name="Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6971,7 +7020,7 @@
         <xdr:cNvPr id="337" name="Diamond 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7034,7 +7083,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7090,7 +7139,7 @@
         <xdr:cNvPr id="345" name="Connector: Elbow 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7146,7 +7195,7 @@
         <xdr:cNvPr id="357" name="Rectangle 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7209,7 +7258,7 @@
         <xdr:cNvPr id="359" name="Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7265,7 +7314,7 @@
         <xdr:cNvPr id="434" name="Rectangle 433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7328,7 +7377,7 @@
         <xdr:cNvPr id="364" name="Connector: Elbow 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7384,7 +7433,7 @@
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7441,7 +7490,7 @@
         <xdr:cNvPr id="450" name="Rectangle 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7504,7 +7553,7 @@
         <xdr:cNvPr id="376" name="Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7561,7 +7610,7 @@
         <xdr:cNvPr id="464" name="Diamond 463">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7632,7 +7681,7 @@
         <xdr:cNvPr id="454" name="Straight Arrow Connector 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7689,7 +7738,7 @@
         <xdr:cNvPr id="461" name="Connector: Elbow 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7745,7 +7794,7 @@
         <xdr:cNvPr id="478" name="Rectangle 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7808,7 +7857,7 @@
         <xdr:cNvPr id="482" name="Rectangle 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7871,7 +7920,7 @@
         <xdr:cNvPr id="492" name="Rectangle 491">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7934,7 +7983,7 @@
         <xdr:cNvPr id="481" name="Connector: Elbow 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7990,7 +8039,7 @@
         <xdr:cNvPr id="488" name="Connector: Elbow 487">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8046,7 +8095,7 @@
         <xdr:cNvPr id="503" name="Rectangle 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8109,7 +8158,7 @@
         <xdr:cNvPr id="504" name="Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8172,7 +8221,7 @@
         <xdr:cNvPr id="506" name="Rectangle 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8235,7 +8284,7 @@
         <xdr:cNvPr id="493" name="Straight Arrow Connector 492">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8291,7 +8340,7 @@
         <xdr:cNvPr id="496" name="Connector: Elbow 495">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8350,7 +8399,7 @@
         <xdr:cNvPr id="500" name="Connector: Elbow 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8409,7 +8458,7 @@
         <xdr:cNvPr id="511" name="Connector: Elbow 510">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8467,7 +8516,7 @@
         <xdr:cNvPr id="386" name="Connector: Elbow 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8525,7 +8574,7 @@
         <xdr:cNvPr id="389" name="Connector: Elbow 388">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8583,7 +8632,7 @@
         <xdr:cNvPr id="412" name="Straight Arrow Connector 411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8639,7 +8688,7 @@
         <xdr:cNvPr id="549" name="Rectangle 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8707,7 +8756,7 @@
         <xdr:cNvPr id="416" name="Connector: Elbow 415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8763,7 +8812,7 @@
         <xdr:cNvPr id="557" name="Rectangle 556">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8826,7 +8875,7 @@
         <xdr:cNvPr id="558" name="Rectangle 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8889,7 +8938,7 @@
         <xdr:cNvPr id="559" name="Rectangle 558">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8957,7 +9006,7 @@
         <xdr:cNvPr id="560" name="Rectangle 559">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9020,7 +9069,7 @@
         <xdr:cNvPr id="561" name="Rectangle 560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9088,7 +9137,7 @@
         <xdr:cNvPr id="571" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9156,7 +9205,7 @@
         <xdr:cNvPr id="429" name="Straight Arrow Connector 428">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9212,7 +9261,7 @@
         <xdr:cNvPr id="431" name="Connector: Elbow 430">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9267,7 +9316,7 @@
         <xdr:cNvPr id="441" name="Connector: Elbow 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9323,7 +9372,7 @@
         <xdr:cNvPr id="444" name="Connector: Elbow 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9379,7 +9428,7 @@
         <xdr:cNvPr id="447" name="Straight Arrow Connector 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9435,7 +9484,7 @@
         <xdr:cNvPr id="603" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9499,7 +9548,7 @@
         <xdr:cNvPr id="526" name="Connector: Elbow 525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9555,7 +9604,7 @@
         <xdr:cNvPr id="536" name="Connector: Elbow 535">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9611,7 +9660,7 @@
         <xdr:cNvPr id="542" name="Connector: Elbow 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9671,7 +9720,7 @@
         <xdr:cNvPr id="625" name="Rectangle 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9739,7 +9788,7 @@
         <xdr:cNvPr id="627" name="Rectangle 626">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9802,7 +9851,7 @@
         <xdr:cNvPr id="565" name="Connector: Elbow 564">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9861,7 +9910,7 @@
         <xdr:cNvPr id="117" name="Rectangle 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9924,7 +9973,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10261,7 +10310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
@@ -11067,7 +11116,7 @@
       <c r="L48" s="539"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.901532870368</v>
+        <v>44703.93344375</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11088,7 +11137,7 @@
       <c r="L49" s="539"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.901532870368</v>
+        <v>44703.93344375</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -11138,7 +11187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
@@ -12237,7 +12286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
@@ -12993,7 +13042,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D25" s="86" t="s">
         <v>108</v>
@@ -13749,7 +13798,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="80" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D47" s="490" t="s">
         <v>298</v>
@@ -13846,7 +13895,7 @@
       <c r="A50" s="443"/>
       <c r="B50" s="444"/>
       <c r="C50" s="445" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D50" s="445"/>
       <c r="E50" s="446"/>
@@ -14825,7 +14874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="K24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -16952,7 +17001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
@@ -18340,11 +18389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O333"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A280" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I292" sqref="I292"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A314" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23177,8 +23226,12 @@
       <c r="D168" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="E168" s="103"/>
-      <c r="F168" s="103"/>
+      <c r="E168" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="F168" s="103" t="s">
+        <v>146</v>
+      </c>
       <c r="G168" s="103" t="s">
         <v>145</v>
       </c>
@@ -23495,821 +23548,1025 @@
       <c r="N178" s="95"/>
       <c r="O178" s="97"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" s="96"/>
-      <c r="L179" s="95"/>
-      <c r="M179" s="95"/>
-      <c r="N179" s="95"/>
-      <c r="O179" s="97"/>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180" s="96"/>
-      <c r="L180" s="95"/>
-      <c r="M180" s="95"/>
-      <c r="N180" s="95"/>
-      <c r="O180" s="97"/>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
-      <c r="L181" s="6"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="14"/>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
-      <c r="L182" s="6"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
-      <c r="O182" s="14"/>
-    </row>
-    <row r="191" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B192" s="169" t="s">
+    <row r="179" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="423"/>
+      <c r="B179" s="422"/>
+      <c r="C179" s="422"/>
+      <c r="D179" s="422"/>
+      <c r="E179" s="422"/>
+      <c r="F179" s="422"/>
+      <c r="G179" s="422"/>
+      <c r="H179" s="422"/>
+      <c r="I179" s="422"/>
+      <c r="J179" s="422"/>
+      <c r="K179" s="422"/>
+      <c r="L179" s="422"/>
+      <c r="M179" s="422"/>
+      <c r="N179" s="422"/>
+      <c r="O179" s="424"/>
+    </row>
+    <row r="180" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="423"/>
+      <c r="B180" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C192" s="167"/>
-      <c r="D192" s="170" t="s">
-        <v>253</v>
-      </c>
-      <c r="E192" s="171"/>
-      <c r="F192" s="171"/>
-      <c r="G192" s="172"/>
-      <c r="H192" s="167"/>
-      <c r="I192" s="167"/>
-      <c r="J192" s="167"/>
-      <c r="K192" s="167"/>
-    </row>
-    <row r="193" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="137"/>
-      <c r="C193" s="137"/>
-      <c r="D193" s="137"/>
-      <c r="E193" s="137"/>
-      <c r="F193" s="137"/>
-      <c r="G193" s="137"/>
-      <c r="H193" s="137"/>
-      <c r="I193" s="137"/>
-      <c r="J193" s="137"/>
-      <c r="K193" s="137"/>
-    </row>
-    <row r="194" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B194" s="140" t="s">
+      <c r="C180" s="470"/>
+      <c r="D180" s="170" t="s">
+        <v>335</v>
+      </c>
+      <c r="E180" s="171"/>
+      <c r="F180" s="171"/>
+      <c r="G180" s="172"/>
+      <c r="H180" s="470"/>
+      <c r="I180" s="470"/>
+      <c r="J180" s="470"/>
+      <c r="K180" s="470"/>
+      <c r="L180" s="422"/>
+      <c r="M180" s="422"/>
+      <c r="N180" s="422"/>
+      <c r="O180" s="424"/>
+    </row>
+    <row r="181" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="423"/>
+      <c r="B181" s="422"/>
+      <c r="C181" s="422"/>
+      <c r="D181" s="422"/>
+      <c r="E181" s="422"/>
+      <c r="F181" s="422"/>
+      <c r="G181" s="422"/>
+      <c r="H181" s="422"/>
+      <c r="I181" s="422"/>
+      <c r="J181" s="422"/>
+      <c r="K181" s="422"/>
+      <c r="L181" s="422"/>
+      <c r="M181" s="422"/>
+      <c r="N181" s="422"/>
+      <c r="O181" s="424"/>
+    </row>
+    <row r="182" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A182" s="423"/>
+      <c r="B182" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="C194" s="141" t="s">
+      <c r="C182" s="426" t="s">
         <v>30</v>
       </c>
-      <c r="D194" s="141" t="s">
+      <c r="D182" s="426" t="s">
         <v>31</v>
       </c>
-      <c r="E194" s="141" t="s">
+      <c r="E182" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="F194" s="141" t="s">
+      <c r="F182" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="G194" s="141" t="s">
+      <c r="G182" s="426" t="s">
         <v>34</v>
       </c>
-      <c r="H194" s="141" t="s">
+      <c r="H182" s="426" t="s">
         <v>35</v>
       </c>
-      <c r="I194" s="141" t="s">
+      <c r="I182" s="426" t="s">
         <v>36</v>
       </c>
-      <c r="J194" s="141" t="s">
+      <c r="J182" s="426" t="s">
         <v>37</v>
       </c>
-      <c r="K194" s="142" t="s">
+      <c r="K182" s="427" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B195" s="173">
+      <c r="L182" s="422"/>
+      <c r="M182" s="422"/>
+      <c r="N182" s="422"/>
+      <c r="O182" s="424"/>
+    </row>
+    <row r="183" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B183" s="473">
         <v>1</v>
       </c>
-      <c r="C195" s="174" t="s">
+      <c r="C183" s="474" t="s">
         <v>238</v>
       </c>
-      <c r="D195" s="174" t="s">
+      <c r="D183" s="474" t="s">
         <v>239</v>
       </c>
-      <c r="E195" s="176" t="s">
+      <c r="E183" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="F195" s="176" t="s">
+      <c r="F183" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="G195" s="176" t="s">
+      <c r="G183" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H195" s="174" t="s">
+      <c r="H183" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I195" s="176">
+      <c r="I183" s="476">
         <v>11</v>
       </c>
-      <c r="J195" s="174"/>
-      <c r="K195" s="175"/>
-    </row>
-    <row r="196" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A196" s="166"/>
-      <c r="B196" s="152">
+      <c r="J183" s="474"/>
+      <c r="K183" s="475"/>
+      <c r="M183" s="422"/>
+      <c r="N183" s="422"/>
+      <c r="O183" s="424"/>
+    </row>
+    <row r="184" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A184" s="465"/>
+      <c r="B184" s="276">
         <v>2</v>
       </c>
-      <c r="C196" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="D196" s="144" t="s">
-        <v>250</v>
-      </c>
-      <c r="E196" s="145"/>
-      <c r="F196" s="145"/>
-      <c r="G196" s="145" t="s">
+      <c r="C184" s="429" t="s">
+        <v>282</v>
+      </c>
+      <c r="D184" s="429" t="s">
+        <v>284</v>
+      </c>
+      <c r="E184" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F184" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G184" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H196" s="146" t="s">
+      <c r="H184" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I184" s="430">
+        <v>11</v>
+      </c>
+      <c r="J184" s="430"/>
+      <c r="K184" s="452"/>
+      <c r="L184" s="470"/>
+      <c r="M184" s="422"/>
+      <c r="N184" s="422"/>
+      <c r="O184" s="424"/>
+    </row>
+    <row r="185" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A185" s="423"/>
+      <c r="B185" s="428">
+        <v>3</v>
+      </c>
+      <c r="C185" s="462" t="s">
+        <v>336</v>
+      </c>
+      <c r="D185" s="462" t="s">
+        <v>338</v>
+      </c>
+      <c r="E185" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F185" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G185" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H185" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I196" s="145">
+      <c r="I185" s="472">
         <v>256</v>
       </c>
-      <c r="J196" s="145"/>
-      <c r="K196" s="156"/>
-      <c r="L196" s="137"/>
-      <c r="M196" s="137"/>
-      <c r="N196" s="137"/>
-      <c r="O196" s="139"/>
-    </row>
-    <row r="197" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A197" s="138"/>
-      <c r="B197" s="143">
-        <v>3</v>
-      </c>
-      <c r="C197" s="163" t="s">
-        <v>255</v>
-      </c>
-      <c r="D197" s="163"/>
-      <c r="E197" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F197" s="168" t="s">
-        <v>146</v>
-      </c>
-      <c r="G197" s="145" t="s">
+      <c r="J185" s="463"/>
+      <c r="K185" s="464"/>
+      <c r="L185" s="422"/>
+      <c r="M185" s="422"/>
+      <c r="N185" s="422"/>
+      <c r="O185" s="424"/>
+    </row>
+    <row r="186" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A186" s="423"/>
+      <c r="B186" s="461">
+        <v>4</v>
+      </c>
+      <c r="C186" s="462" t="s">
+        <v>249</v>
+      </c>
+      <c r="D186" s="462"/>
+      <c r="E186" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F186" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G186" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H197" s="163" t="s">
+      <c r="H186" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I186" s="472">
+        <v>11</v>
+      </c>
+      <c r="J186" s="463"/>
+      <c r="K186" s="464"/>
+      <c r="L186" s="422"/>
+      <c r="M186" s="422"/>
+      <c r="N186" s="422"/>
+      <c r="O186" s="424"/>
+    </row>
+    <row r="187" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A187" s="465"/>
+      <c r="B187" s="428">
+        <v>5</v>
+      </c>
+      <c r="C187" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D187" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E187" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F187" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G187" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H187" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I187" s="430">
+        <v>11</v>
+      </c>
+      <c r="J187" s="430"/>
+      <c r="K187" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L187" s="470"/>
+      <c r="M187" s="422"/>
+      <c r="N187" s="422"/>
+      <c r="O187" s="424"/>
+    </row>
+    <row r="188" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A188" s="423"/>
+      <c r="B188" s="428">
+        <v>6</v>
+      </c>
+      <c r="C188" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D188" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E188" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F188" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G188" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H188" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I197" s="168">
+      <c r="I188" s="457">
+        <v>10</v>
+      </c>
+      <c r="J188" s="457"/>
+      <c r="K188" s="459"/>
+      <c r="L188" s="422"/>
+      <c r="M188" s="422"/>
+      <c r="N188" s="422"/>
+      <c r="O188" s="424"/>
+    </row>
+    <row r="189" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A189" s="422"/>
+      <c r="B189" s="428">
+        <v>7</v>
+      </c>
+      <c r="C189" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D189" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E189" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F189" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G189" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H189" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I189" s="450">
         <v>256</v>
       </c>
-      <c r="J197" s="164"/>
-      <c r="K197" s="165"/>
-      <c r="L197" s="137"/>
-      <c r="M197" s="137"/>
-      <c r="N197" s="137"/>
-      <c r="O197" s="139"/>
-    </row>
-    <row r="198" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A198" s="138"/>
-      <c r="B198" s="428">
-        <v>4</v>
-      </c>
-      <c r="C198" s="462" t="s">
-        <v>286</v>
-      </c>
-      <c r="D198" s="462" t="s">
-        <v>199</v>
-      </c>
-      <c r="E198" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F198" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G198" s="430" t="s">
+      <c r="J189" s="450"/>
+      <c r="K189" s="452"/>
+      <c r="L189" s="422"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="14"/>
+    </row>
+    <row r="190" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A190" s="422"/>
+      <c r="B190" s="428">
+        <v>8</v>
+      </c>
+      <c r="C190" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D190" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E190" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F190" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G190" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H190" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I190" s="450">
+        <v>11</v>
+      </c>
+      <c r="J190" s="450"/>
+      <c r="K190" s="452"/>
+      <c r="L190" s="422"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="14"/>
+    </row>
+    <row r="191" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="423"/>
+      <c r="B191" s="434">
+        <v>9</v>
+      </c>
+      <c r="C191" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D191" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E191" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F191" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G191" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H191" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I191" s="436">
+        <v>256</v>
+      </c>
+      <c r="J191" s="436"/>
+      <c r="K191" s="438"/>
+      <c r="L191" s="422"/>
+      <c r="M191" s="422"/>
+      <c r="N191" s="422"/>
+      <c r="O191" s="424"/>
+    </row>
+    <row r="192" spans="1:15" s="421" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="423"/>
+      <c r="B192" s="422"/>
+      <c r="C192" s="422"/>
+      <c r="D192" s="422"/>
+      <c r="E192" s="422"/>
+      <c r="F192" s="422"/>
+      <c r="G192" s="422"/>
+      <c r="H192" s="422"/>
+      <c r="I192" s="422"/>
+      <c r="J192" s="422"/>
+      <c r="K192" s="422"/>
+      <c r="L192" s="422"/>
+      <c r="M192" s="422"/>
+      <c r="N192" s="422"/>
+      <c r="O192" s="424"/>
+    </row>
+    <row r="193" spans="1:15" s="421" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="423"/>
+      <c r="B193" s="422"/>
+      <c r="C193" s="422"/>
+      <c r="D193" s="422"/>
+      <c r="E193" s="422"/>
+      <c r="F193" s="422"/>
+      <c r="G193" s="422"/>
+      <c r="H193" s="422"/>
+      <c r="I193" s="422"/>
+      <c r="J193" s="422"/>
+      <c r="K193" s="422"/>
+      <c r="L193" s="422"/>
+      <c r="M193" s="422"/>
+      <c r="N193" s="422"/>
+      <c r="O193" s="424"/>
+    </row>
+    <row r="194" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="423"/>
+      <c r="B194" s="422"/>
+      <c r="C194" s="422"/>
+      <c r="D194" s="422"/>
+      <c r="E194" s="422"/>
+      <c r="F194" s="422"/>
+      <c r="G194" s="422"/>
+      <c r="H194" s="422"/>
+      <c r="I194" s="422"/>
+      <c r="J194" s="422"/>
+      <c r="K194" s="422"/>
+      <c r="L194" s="422"/>
+      <c r="M194" s="422"/>
+      <c r="N194" s="422"/>
+      <c r="O194" s="424"/>
+    </row>
+    <row r="195" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="423"/>
+      <c r="B195" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" s="470"/>
+      <c r="D195" s="170" t="s">
+        <v>337</v>
+      </c>
+      <c r="E195" s="171"/>
+      <c r="F195" s="171"/>
+      <c r="G195" s="172"/>
+      <c r="H195" s="470"/>
+      <c r="I195" s="470"/>
+      <c r="J195" s="470"/>
+      <c r="K195" s="470"/>
+      <c r="L195" s="422"/>
+      <c r="M195" s="422"/>
+      <c r="N195" s="422"/>
+      <c r="O195" s="424"/>
+    </row>
+    <row r="196" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="423"/>
+      <c r="B196" s="422"/>
+      <c r="C196" s="422"/>
+      <c r="D196" s="422"/>
+      <c r="E196" s="422"/>
+      <c r="F196" s="422"/>
+      <c r="G196" s="422"/>
+      <c r="H196" s="422"/>
+      <c r="I196" s="422"/>
+      <c r="J196" s="422"/>
+      <c r="K196" s="422"/>
+      <c r="L196" s="422"/>
+      <c r="M196" s="422"/>
+      <c r="N196" s="422"/>
+      <c r="O196" s="424"/>
+    </row>
+    <row r="197" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A197" s="423"/>
+      <c r="B197" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D197" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E197" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F197" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G197" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H197" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I197" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J197" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K197" s="427" t="s">
+        <v>38</v>
+      </c>
+      <c r="L197" s="422"/>
+      <c r="M197" s="422"/>
+      <c r="N197" s="422"/>
+      <c r="O197" s="424"/>
+    </row>
+    <row r="198" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B198" s="473">
+        <v>1</v>
+      </c>
+      <c r="C198" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D198" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E198" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H198" s="462" t="s">
+      <c r="F198" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G198" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H198" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I198" s="472">
+      <c r="I198" s="476">
         <v>11</v>
       </c>
-      <c r="J198" s="463"/>
-      <c r="K198" s="477"/>
-      <c r="L198" s="137"/>
-      <c r="M198" s="137"/>
-      <c r="N198" s="137"/>
-      <c r="O198" s="139"/>
+      <c r="J198" s="474"/>
+      <c r="K198" s="475"/>
+      <c r="M198" s="422"/>
+      <c r="N198" s="422"/>
+      <c r="O198" s="424"/>
     </row>
     <row r="199" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A199" s="423"/>
-      <c r="B199" s="143">
-        <v>5</v>
-      </c>
-      <c r="C199" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="D199" s="144" t="s">
-        <v>167</v>
-      </c>
-      <c r="E199" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F199" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G199" s="145" t="s">
+      <c r="A199" s="465"/>
+      <c r="B199" s="276">
+        <v>2</v>
+      </c>
+      <c r="C199" s="429" t="s">
+        <v>283</v>
+      </c>
+      <c r="D199" s="429" t="s">
+        <v>285</v>
+      </c>
+      <c r="E199" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F199" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G199" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H199" s="146" t="s">
+      <c r="H199" s="431" t="s">
         <v>147</v>
       </c>
-      <c r="I199" s="145">
+      <c r="I199" s="430">
         <v>11</v>
       </c>
-      <c r="J199" s="145"/>
-      <c r="K199" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="L199" s="422"/>
+      <c r="J199" s="430"/>
+      <c r="K199" s="452"/>
+      <c r="L199" s="470"/>
       <c r="M199" s="422"/>
       <c r="N199" s="422"/>
       <c r="O199" s="424"/>
     </row>
-    <row r="200" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A200" s="166"/>
-      <c r="B200" s="143">
+    <row r="200" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A200" s="423"/>
+      <c r="B200" s="428">
+        <v>3</v>
+      </c>
+      <c r="C200" s="462" t="s">
+        <v>333</v>
+      </c>
+      <c r="D200" s="462" t="s">
+        <v>334</v>
+      </c>
+      <c r="E200" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F200" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G200" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H200" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I200" s="472">
+        <v>256</v>
+      </c>
+      <c r="J200" s="463"/>
+      <c r="K200" s="464"/>
+      <c r="L200" s="422"/>
+      <c r="M200" s="422"/>
+      <c r="N200" s="422"/>
+      <c r="O200" s="424"/>
+    </row>
+    <row r="201" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A201" s="423"/>
+      <c r="B201" s="461">
+        <v>4</v>
+      </c>
+      <c r="C201" s="462" t="s">
+        <v>249</v>
+      </c>
+      <c r="D201" s="462"/>
+      <c r="E201" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F201" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G201" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H201" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I201" s="472">
+        <v>11</v>
+      </c>
+      <c r="J201" s="463"/>
+      <c r="K201" s="464"/>
+      <c r="L201" s="422"/>
+      <c r="M201" s="422"/>
+      <c r="N201" s="422"/>
+      <c r="O201" s="424"/>
+    </row>
+    <row r="202" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A202" s="465"/>
+      <c r="B202" s="428">
+        <v>5</v>
+      </c>
+      <c r="C202" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D202" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E202" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F202" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G202" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H202" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I202" s="430">
+        <v>11</v>
+      </c>
+      <c r="J202" s="430"/>
+      <c r="K202" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L202" s="470"/>
+      <c r="M202" s="422"/>
+      <c r="N202" s="422"/>
+      <c r="O202" s="424"/>
+    </row>
+    <row r="203" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A203" s="423"/>
+      <c r="B203" s="428">
         <v>6</v>
       </c>
-      <c r="C200" s="158" t="s">
+      <c r="C203" s="456" t="s">
         <v>154</v>
       </c>
-      <c r="D200" s="158" t="s">
+      <c r="D203" s="456" t="s">
         <v>159</v>
       </c>
-      <c r="E200" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F200" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G200" s="159" t="s">
+      <c r="E203" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F203" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G203" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H200" s="160" t="s">
+      <c r="H203" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I200" s="159">
+      <c r="I203" s="457">
         <v>10</v>
       </c>
-      <c r="J200" s="159"/>
-      <c r="K200" s="161"/>
-      <c r="L200" s="137"/>
-      <c r="M200" s="137"/>
-      <c r="N200" s="137"/>
-      <c r="O200" s="139"/>
-    </row>
-    <row r="201" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A201" s="138"/>
-      <c r="B201" s="143">
+      <c r="J203" s="457"/>
+      <c r="K203" s="459"/>
+      <c r="L203" s="422"/>
+      <c r="M203" s="422"/>
+      <c r="N203" s="422"/>
+      <c r="O203" s="424"/>
+    </row>
+    <row r="204" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A204" s="422"/>
+      <c r="B204" s="428">
         <v>7</v>
       </c>
-      <c r="C201" s="153" t="s">
+      <c r="C204" s="449" t="s">
         <v>155</v>
       </c>
-      <c r="D201" s="153" t="s">
+      <c r="D204" s="449" t="s">
         <v>160</v>
       </c>
-      <c r="E201" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F201" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G201" s="154" t="s">
+      <c r="E204" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F204" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G204" s="450" t="s">
         <v>145</v>
       </c>
-      <c r="H201" s="155" t="s">
+      <c r="H204" s="451" t="s">
         <v>148</v>
       </c>
-      <c r="I201" s="154">
+      <c r="I204" s="450">
         <v>256</v>
       </c>
-      <c r="J201" s="154"/>
-      <c r="K201" s="156"/>
-      <c r="L201" s="137"/>
-      <c r="M201" s="137"/>
-      <c r="N201" s="137"/>
-      <c r="O201" s="139"/>
-    </row>
-    <row r="202" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A202" s="137"/>
-      <c r="B202" s="143">
+      <c r="J204" s="450"/>
+      <c r="K204" s="452"/>
+      <c r="L204" s="422"/>
+      <c r="M204" s="422"/>
+      <c r="N204" s="422"/>
+      <c r="O204" s="424"/>
+    </row>
+    <row r="205" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A205" s="422"/>
+      <c r="B205" s="428">
         <v>8</v>
       </c>
-      <c r="C202" s="153" t="s">
+      <c r="C205" s="449" t="s">
         <v>156</v>
       </c>
-      <c r="D202" s="153" t="s">
+      <c r="D205" s="449" t="s">
         <v>158</v>
       </c>
-      <c r="E202" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F202" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G202" s="154" t="s">
-        <v>146</v>
-      </c>
-      <c r="H202" s="155" t="s">
+      <c r="E205" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F205" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G205" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H205" s="451" t="s">
         <v>147</v>
       </c>
-      <c r="I202" s="154">
+      <c r="I205" s="450">
         <v>11</v>
       </c>
-      <c r="J202" s="154"/>
-      <c r="K202" s="156"/>
-      <c r="L202" s="137"/>
-      <c r="M202" s="137"/>
-      <c r="N202" s="137"/>
-      <c r="O202" s="139"/>
-    </row>
-    <row r="203" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="138"/>
-      <c r="B203" s="147">
+      <c r="J205" s="450"/>
+      <c r="K205" s="452"/>
+      <c r="L205" s="422"/>
+      <c r="M205" s="422"/>
+      <c r="N205" s="422"/>
+      <c r="O205" s="424"/>
+    </row>
+    <row r="206" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="423"/>
+      <c r="B206" s="434">
         <v>9</v>
       </c>
-      <c r="C203" s="148" t="s">
+      <c r="C206" s="435" t="s">
         <v>157</v>
       </c>
-      <c r="D203" s="148" t="s">
+      <c r="D206" s="435" t="s">
         <v>161</v>
       </c>
-      <c r="E203" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="F203" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="G203" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="H203" s="150" t="s">
+      <c r="E206" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F206" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G206" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H206" s="437" t="s">
         <v>148</v>
       </c>
-      <c r="I203" s="149">
+      <c r="I206" s="436">
         <v>256</v>
       </c>
-      <c r="J203" s="149"/>
-      <c r="K203" s="151"/>
-      <c r="L203" s="137"/>
-      <c r="M203" s="137"/>
-      <c r="N203" s="137"/>
-      <c r="O203" s="139"/>
-    </row>
-    <row r="204" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A204" s="138"/>
-      <c r="B204" s="157"/>
-      <c r="C204" s="157"/>
-      <c r="D204" s="157"/>
-      <c r="E204" s="157"/>
-      <c r="F204" s="157"/>
-      <c r="G204" s="157"/>
-      <c r="H204" s="157"/>
-      <c r="I204" s="157"/>
-      <c r="J204" s="157"/>
-      <c r="K204" s="157"/>
-      <c r="L204" s="137"/>
-      <c r="M204" s="137"/>
-      <c r="N204" s="137"/>
-      <c r="O204" s="139"/>
-    </row>
-    <row r="205" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="137"/>
-      <c r="B205" s="157"/>
-      <c r="C205" s="157"/>
-      <c r="D205" s="157"/>
-      <c r="E205" s="157"/>
-      <c r="F205" s="157"/>
-      <c r="G205" s="157"/>
-      <c r="H205" s="157"/>
-      <c r="I205" s="157"/>
-      <c r="J205" s="157"/>
-      <c r="K205" s="157"/>
-      <c r="L205" s="137"/>
-      <c r="M205" s="137"/>
-      <c r="N205" s="137"/>
-      <c r="O205" s="139"/>
-    </row>
-    <row r="206" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="137"/>
-      <c r="B206" s="169" t="s">
+      <c r="J206" s="436"/>
+      <c r="K206" s="438"/>
+      <c r="L206" s="422"/>
+      <c r="M206" s="422"/>
+      <c r="N206" s="422"/>
+      <c r="O206" s="424"/>
+    </row>
+    <row r="207" spans="1:15" s="421" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="423"/>
+      <c r="B207" s="422"/>
+      <c r="C207" s="422"/>
+      <c r="D207" s="422"/>
+      <c r="E207" s="422"/>
+      <c r="F207" s="422"/>
+      <c r="G207" s="422"/>
+      <c r="H207" s="422"/>
+      <c r="I207" s="422"/>
+      <c r="J207" s="422"/>
+      <c r="K207" s="422"/>
+      <c r="L207" s="422"/>
+      <c r="M207" s="422"/>
+      <c r="N207" s="422"/>
+      <c r="O207" s="424"/>
+    </row>
+    <row r="208" spans="1:15" s="421" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="423"/>
+      <c r="B208" s="422"/>
+      <c r="C208" s="422"/>
+      <c r="D208" s="422"/>
+      <c r="E208" s="422"/>
+      <c r="F208" s="422"/>
+      <c r="G208" s="422"/>
+      <c r="H208" s="422"/>
+      <c r="I208" s="422"/>
+      <c r="J208" s="422"/>
+      <c r="K208" s="422"/>
+      <c r="L208" s="422"/>
+      <c r="M208" s="422"/>
+      <c r="N208" s="422"/>
+      <c r="O208" s="424"/>
+    </row>
+    <row r="209" spans="1:15" s="421" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="423"/>
+      <c r="B209" s="422"/>
+      <c r="C209" s="422"/>
+      <c r="D209" s="422"/>
+      <c r="E209" s="422"/>
+      <c r="F209" s="422"/>
+      <c r="G209" s="422"/>
+      <c r="H209" s="422"/>
+      <c r="I209" s="422"/>
+      <c r="J209" s="422"/>
+      <c r="K209" s="422"/>
+      <c r="L209" s="422"/>
+      <c r="M209" s="422"/>
+      <c r="N209" s="422"/>
+      <c r="O209" s="424"/>
+    </row>
+    <row r="210" spans="1:15" s="421" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="423"/>
+      <c r="B210" s="422"/>
+      <c r="C210" s="422"/>
+      <c r="D210" s="422"/>
+      <c r="E210" s="422"/>
+      <c r="F210" s="422"/>
+      <c r="G210" s="422"/>
+      <c r="H210" s="422"/>
+      <c r="I210" s="422"/>
+      <c r="J210" s="422"/>
+      <c r="K210" s="422"/>
+      <c r="L210" s="422"/>
+      <c r="M210" s="422"/>
+      <c r="N210" s="422"/>
+      <c r="O210" s="424"/>
+    </row>
+    <row r="212" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B213" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C206" s="167"/>
-      <c r="D206" s="170" t="s">
-        <v>121</v>
-      </c>
-      <c r="E206" s="171"/>
-      <c r="F206" s="171"/>
-      <c r="G206" s="172"/>
-      <c r="H206" s="167"/>
-      <c r="I206" s="167"/>
-      <c r="J206" s="167"/>
-      <c r="K206" s="167"/>
-      <c r="L206" s="137"/>
-      <c r="M206" s="137"/>
-      <c r="N206" s="137"/>
-      <c r="O206" s="139"/>
-    </row>
-    <row r="207" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="137"/>
-      <c r="B207" s="137"/>
-      <c r="C207" s="137"/>
-      <c r="D207" s="137"/>
-      <c r="E207" s="137"/>
-      <c r="F207" s="137"/>
-      <c r="G207" s="137"/>
-      <c r="H207" s="137"/>
-      <c r="I207" s="137"/>
-      <c r="J207" s="137"/>
-      <c r="K207" s="137"/>
-      <c r="L207" s="137"/>
-      <c r="M207" s="137"/>
-      <c r="N207" s="137"/>
-      <c r="O207" s="139"/>
-    </row>
-    <row r="208" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A208" s="137"/>
-      <c r="B208" s="140" t="s">
+      <c r="C213" s="167"/>
+      <c r="D213" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="E213" s="171"/>
+      <c r="F213" s="171"/>
+      <c r="G213" s="172"/>
+      <c r="H213" s="167"/>
+      <c r="I213" s="167"/>
+      <c r="J213" s="167"/>
+      <c r="K213" s="167"/>
+    </row>
+    <row r="214" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="137"/>
+      <c r="C214" s="137"/>
+      <c r="D214" s="137"/>
+      <c r="E214" s="137"/>
+      <c r="F214" s="137"/>
+      <c r="G214" s="137"/>
+      <c r="H214" s="137"/>
+      <c r="I214" s="137"/>
+      <c r="J214" s="137"/>
+      <c r="K214" s="137"/>
+    </row>
+    <row r="215" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B215" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="141" t="s">
+      <c r="C215" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="D208" s="141" t="s">
+      <c r="D215" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="E208" s="141" t="s">
+      <c r="E215" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="F208" s="141" t="s">
+      <c r="F215" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="G208" s="141" t="s">
+      <c r="G215" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="H208" s="141" t="s">
+      <c r="H215" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="I208" s="141" t="s">
+      <c r="I215" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="J208" s="141" t="s">
+      <c r="J215" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="K208" s="142" t="s">
+      <c r="K215" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="L208" s="137"/>
-      <c r="M208" s="137"/>
-      <c r="N208" s="137"/>
-      <c r="O208" s="139"/>
-    </row>
-    <row r="209" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A209" s="137"/>
-      <c r="B209" s="173">
+    </row>
+    <row r="216" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B216" s="173">
         <v>1</v>
       </c>
-      <c r="C209" s="174" t="s">
+      <c r="C216" s="174" t="s">
         <v>238</v>
       </c>
-      <c r="D209" s="174" t="s">
+      <c r="D216" s="174" t="s">
         <v>239</v>
       </c>
-      <c r="E209" s="176" t="s">
+      <c r="E216" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="F209" s="176" t="s">
+      <c r="F216" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="G209" s="176" t="s">
+      <c r="G216" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="H209" s="174" t="s">
+      <c r="H216" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="I209" s="176">
+      <c r="I216" s="176">
         <v>11</v>
       </c>
-      <c r="J209" s="174"/>
-      <c r="K209" s="175"/>
-      <c r="L209" s="137"/>
-      <c r="M209" s="137"/>
-      <c r="N209" s="137"/>
-      <c r="O209" s="139"/>
-    </row>
-    <row r="210" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A210" s="166"/>
-      <c r="B210" s="152">
+      <c r="J216" s="174"/>
+      <c r="K216" s="175"/>
+    </row>
+    <row r="217" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B217" s="574">
         <v>2</v>
       </c>
-      <c r="C210" s="144" t="s">
+      <c r="C217" s="474" t="s">
+        <v>355</v>
+      </c>
+      <c r="D217" s="474" t="s">
+        <v>356</v>
+      </c>
+      <c r="E217" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="F217" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="G217" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H217" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I217" s="476">
+        <v>11</v>
+      </c>
+      <c r="J217" s="474"/>
+      <c r="K217" s="575"/>
+    </row>
+    <row r="218" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A218" s="166"/>
+      <c r="B218" s="152">
+        <v>3</v>
+      </c>
+      <c r="C218" s="144" t="s">
+        <v>254</v>
+      </c>
+      <c r="D218" s="144"/>
+      <c r="E218" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="F218" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="G218" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H218" s="146" t="s">
+        <v>148</v>
+      </c>
+      <c r="I218" s="145">
         <v>256</v>
       </c>
-      <c r="D210" s="144" t="s">
-        <v>257</v>
-      </c>
-      <c r="E210" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F210" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G210" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H210" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="I210" s="145">
-        <v>11</v>
-      </c>
-      <c r="J210" s="145"/>
-      <c r="K210" s="156"/>
-      <c r="L210" s="137"/>
-      <c r="M210" s="137"/>
-      <c r="N210" s="137"/>
-      <c r="O210" s="139"/>
-    </row>
-    <row r="211" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A211" s="138"/>
-      <c r="B211" s="143">
-        <v>3</v>
-      </c>
-      <c r="C211" s="163" t="s">
-        <v>258</v>
-      </c>
-      <c r="D211" s="163" t="s">
-        <v>259</v>
-      </c>
-      <c r="E211" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F211" s="168" t="s">
-        <v>146</v>
-      </c>
-      <c r="G211" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H211" s="163" t="s">
-        <v>148</v>
-      </c>
-      <c r="I211" s="168">
-        <v>256</v>
-      </c>
-      <c r="J211" s="164"/>
-      <c r="K211" s="165"/>
-      <c r="L211" s="137"/>
-      <c r="M211" s="137"/>
-      <c r="N211" s="137"/>
-      <c r="O211" s="139"/>
-    </row>
-    <row r="212" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A212" s="138"/>
-      <c r="B212" s="143">
-        <v>4</v>
-      </c>
-      <c r="C212" s="163" t="s">
-        <v>260</v>
-      </c>
-      <c r="D212" s="163" t="s">
-        <v>261</v>
-      </c>
-      <c r="E212" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F212" s="168" t="s">
-        <v>146</v>
-      </c>
-      <c r="G212" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H212" s="163" t="s">
-        <v>148</v>
-      </c>
-      <c r="I212" s="168">
-        <v>256</v>
-      </c>
-      <c r="J212" s="164"/>
-      <c r="K212" s="177"/>
-      <c r="L212" s="137"/>
-      <c r="M212" s="137"/>
-      <c r="N212" s="137"/>
-      <c r="O212" s="139"/>
-    </row>
-    <row r="213" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A213" s="166"/>
-      <c r="B213" s="428">
-        <v>5</v>
-      </c>
-      <c r="C213" s="462" t="s">
-        <v>287</v>
-      </c>
-      <c r="D213" s="462" t="s">
-        <v>288</v>
-      </c>
-      <c r="E213" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F213" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G213" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H213" s="462" t="s">
-        <v>147</v>
-      </c>
-      <c r="I213" s="472">
-        <v>11</v>
-      </c>
-      <c r="J213" s="463"/>
-      <c r="K213" s="477" t="s">
-        <v>297</v>
-      </c>
-      <c r="L213" s="137"/>
-      <c r="M213" s="137"/>
-      <c r="N213" s="137"/>
-      <c r="O213" s="139"/>
-    </row>
-    <row r="214" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A214" s="465"/>
-      <c r="B214" s="143">
-        <v>6</v>
-      </c>
-      <c r="C214" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="D214" s="144" t="s">
-        <v>167</v>
-      </c>
-      <c r="E214" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F214" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G214" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H214" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="I214" s="145">
-        <v>11</v>
-      </c>
-      <c r="J214" s="145"/>
-      <c r="K214" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="L214" s="422"/>
-      <c r="M214" s="422"/>
-      <c r="N214" s="422"/>
-      <c r="O214" s="424"/>
-    </row>
-    <row r="215" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A215" s="138"/>
-      <c r="B215" s="143">
-        <v>7</v>
-      </c>
-      <c r="C215" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="D215" s="158" t="s">
-        <v>159</v>
-      </c>
-      <c r="E215" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F215" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G215" s="159" t="s">
-        <v>145</v>
-      </c>
-      <c r="H215" s="160" t="s">
-        <v>148</v>
-      </c>
-      <c r="I215" s="159">
-        <v>10</v>
-      </c>
-      <c r="J215" s="159"/>
-      <c r="K215" s="161"/>
-      <c r="L215" s="137"/>
-      <c r="M215" s="137"/>
-      <c r="N215" s="137"/>
-      <c r="O215" s="139"/>
-    </row>
-    <row r="216" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A216" s="137"/>
-      <c r="B216" s="143">
-        <v>8</v>
-      </c>
-      <c r="C216" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="D216" s="153" t="s">
-        <v>160</v>
-      </c>
-      <c r="E216" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F216" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G216" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="H216" s="155" t="s">
-        <v>148</v>
-      </c>
-      <c r="I216" s="154">
-        <v>256</v>
-      </c>
-      <c r="J216" s="154"/>
-      <c r="K216" s="156"/>
-      <c r="L216" s="137"/>
-      <c r="M216" s="137"/>
-      <c r="N216" s="137"/>
-      <c r="O216" s="139"/>
-    </row>
-    <row r="217" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A217" s="137"/>
-      <c r="B217" s="143">
-        <v>9</v>
-      </c>
-      <c r="C217" s="153" t="s">
-        <v>156</v>
-      </c>
-      <c r="D217" s="153" t="s">
-        <v>158</v>
-      </c>
-      <c r="E217" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="F217" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G217" s="154" t="s">
-        <v>146</v>
-      </c>
-      <c r="H217" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="I217" s="154">
-        <v>11</v>
-      </c>
-      <c r="J217" s="154"/>
-      <c r="K217" s="156"/>
-      <c r="L217" s="137"/>
-      <c r="M217" s="137"/>
-      <c r="N217" s="137"/>
-      <c r="O217" s="139"/>
-    </row>
-    <row r="218" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="138"/>
-      <c r="B218" s="147">
-        <v>10</v>
-      </c>
-      <c r="C218" s="148" t="s">
-        <v>157</v>
-      </c>
-      <c r="D218" s="148" t="s">
-        <v>161</v>
-      </c>
-      <c r="E218" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="F218" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="G218" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="H218" s="150" t="s">
-        <v>148</v>
-      </c>
-      <c r="I218" s="149">
-        <v>256</v>
-      </c>
-      <c r="J218" s="149"/>
-      <c r="K218" s="151"/>
+      <c r="J218" s="145"/>
+      <c r="K218" s="156"/>
       <c r="L218" s="137"/>
       <c r="M218" s="137"/>
       <c r="N218" s="137"/>
@@ -24317,1245 +24574,1331 @@
     </row>
     <row r="219" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A219" s="138"/>
-      <c r="B219" s="157"/>
-      <c r="C219" s="157"/>
-      <c r="D219" s="157"/>
-      <c r="E219" s="157"/>
-      <c r="F219" s="157"/>
-      <c r="G219" s="157"/>
-      <c r="H219" s="157"/>
-      <c r="I219" s="157"/>
-      <c r="J219" s="157"/>
-      <c r="K219" s="157"/>
+      <c r="B219" s="143">
+        <v>4</v>
+      </c>
+      <c r="C219" s="163" t="s">
+        <v>255</v>
+      </c>
+      <c r="D219" s="163"/>
+      <c r="E219" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F219" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="G219" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H219" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="I219" s="168">
+        <v>256</v>
+      </c>
+      <c r="J219" s="164"/>
+      <c r="K219" s="165"/>
       <c r="L219" s="137"/>
       <c r="M219" s="137"/>
       <c r="N219" s="137"/>
       <c r="O219" s="139"/>
     </row>
-    <row r="220" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A220" s="138"/>
+      <c r="B220" s="428">
+        <v>5</v>
+      </c>
+      <c r="C220" s="462" t="s">
+        <v>286</v>
+      </c>
+      <c r="D220" s="462" t="s">
+        <v>199</v>
+      </c>
+      <c r="E220" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F220" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G220" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H220" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I220" s="472">
+        <v>11</v>
+      </c>
+      <c r="J220" s="463"/>
+      <c r="K220" s="477"/>
       <c r="L220" s="137"/>
       <c r="M220" s="137"/>
       <c r="N220" s="137"/>
       <c r="O220" s="139"/>
     </row>
-    <row r="221" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B221" s="169" t="s">
+    <row r="221" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A221" s="423"/>
+      <c r="B221" s="143">
+        <v>6</v>
+      </c>
+      <c r="C221" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D221" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="E221" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F221" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G221" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H221" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="I221" s="145">
+        <v>11</v>
+      </c>
+      <c r="J221" s="145"/>
+      <c r="K221" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="L221" s="422"/>
+      <c r="M221" s="422"/>
+      <c r="N221" s="422"/>
+      <c r="O221" s="424"/>
+    </row>
+    <row r="222" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A222" s="166"/>
+      <c r="B222" s="143">
+        <v>7</v>
+      </c>
+      <c r="C222" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D222" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="E222" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F222" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G222" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="H222" s="160" t="s">
+        <v>148</v>
+      </c>
+      <c r="I222" s="159">
+        <v>10</v>
+      </c>
+      <c r="J222" s="159"/>
+      <c r="K222" s="161"/>
+      <c r="L222" s="137"/>
+      <c r="M222" s="137"/>
+      <c r="N222" s="137"/>
+      <c r="O222" s="139"/>
+    </row>
+    <row r="223" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A223" s="138"/>
+      <c r="B223" s="143">
+        <v>8</v>
+      </c>
+      <c r="C223" s="153" t="s">
+        <v>155</v>
+      </c>
+      <c r="D223" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="E223" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F223" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G223" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="H223" s="155" t="s">
+        <v>148</v>
+      </c>
+      <c r="I223" s="154">
+        <v>256</v>
+      </c>
+      <c r="J223" s="154"/>
+      <c r="K223" s="156"/>
+      <c r="L223" s="137"/>
+      <c r="M223" s="137"/>
+      <c r="N223" s="137"/>
+      <c r="O223" s="139"/>
+    </row>
+    <row r="224" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A224" s="137"/>
+      <c r="B224" s="143">
+        <v>9</v>
+      </c>
+      <c r="C224" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D224" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="E224" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F224" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G224" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="H224" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="I224" s="154">
+        <v>11</v>
+      </c>
+      <c r="J224" s="154"/>
+      <c r="K224" s="156"/>
+      <c r="L224" s="137"/>
+      <c r="M224" s="137"/>
+      <c r="N224" s="137"/>
+      <c r="O224" s="139"/>
+    </row>
+    <row r="225" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="138"/>
+      <c r="B225" s="147">
+        <v>10</v>
+      </c>
+      <c r="C225" s="148" t="s">
+        <v>157</v>
+      </c>
+      <c r="D225" s="148" t="s">
+        <v>161</v>
+      </c>
+      <c r="E225" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="F225" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="G225" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="H225" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="I225" s="149">
+        <v>256</v>
+      </c>
+      <c r="J225" s="149"/>
+      <c r="K225" s="151"/>
+      <c r="L225" s="137"/>
+      <c r="M225" s="137"/>
+      <c r="N225" s="137"/>
+      <c r="O225" s="139"/>
+    </row>
+    <row r="226" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A226" s="138"/>
+      <c r="B226" s="157"/>
+      <c r="C226" s="157"/>
+      <c r="D226" s="157"/>
+      <c r="E226" s="157"/>
+      <c r="F226" s="157"/>
+      <c r="G226" s="157"/>
+      <c r="H226" s="157"/>
+      <c r="I226" s="157"/>
+      <c r="J226" s="157"/>
+      <c r="K226" s="157"/>
+      <c r="L226" s="137"/>
+      <c r="M226" s="137"/>
+      <c r="N226" s="137"/>
+      <c r="O226" s="139"/>
+    </row>
+    <row r="227" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="137"/>
+      <c r="B227" s="157"/>
+      <c r="C227" s="157"/>
+      <c r="D227" s="157"/>
+      <c r="E227" s="157"/>
+      <c r="F227" s="157"/>
+      <c r="G227" s="157"/>
+      <c r="H227" s="157"/>
+      <c r="I227" s="157"/>
+      <c r="J227" s="157"/>
+      <c r="K227" s="157"/>
+      <c r="L227" s="137"/>
+      <c r="M227" s="137"/>
+      <c r="N227" s="137"/>
+      <c r="O227" s="139"/>
+    </row>
+    <row r="228" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="137"/>
+      <c r="B228" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C221" s="470"/>
-      <c r="D221" s="170" t="s">
-        <v>301</v>
-      </c>
-      <c r="E221" s="171"/>
-      <c r="F221" s="171"/>
-      <c r="G221" s="172"/>
-      <c r="H221" s="470"/>
-      <c r="I221" s="470"/>
-      <c r="J221" s="470"/>
-      <c r="K221" s="470"/>
-    </row>
-    <row r="222" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="422"/>
-      <c r="C222" s="422"/>
-      <c r="D222" s="422"/>
-      <c r="E222" s="422"/>
-      <c r="F222" s="422"/>
-      <c r="G222" s="422"/>
-      <c r="H222" s="422"/>
-      <c r="I222" s="422"/>
-      <c r="J222" s="422"/>
-      <c r="K222" s="422"/>
-    </row>
-    <row r="223" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B223" s="425" t="s">
+      <c r="C228" s="167"/>
+      <c r="D228" s="170" t="s">
+        <v>121</v>
+      </c>
+      <c r="E228" s="171"/>
+      <c r="F228" s="171"/>
+      <c r="G228" s="172"/>
+      <c r="H228" s="167"/>
+      <c r="I228" s="167"/>
+      <c r="J228" s="167"/>
+      <c r="K228" s="167"/>
+      <c r="L228" s="137"/>
+      <c r="M228" s="137"/>
+      <c r="N228" s="137"/>
+      <c r="O228" s="139"/>
+    </row>
+    <row r="229" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="137"/>
+      <c r="B229" s="137"/>
+      <c r="C229" s="137"/>
+      <c r="D229" s="137"/>
+      <c r="E229" s="137"/>
+      <c r="F229" s="137"/>
+      <c r="G229" s="137"/>
+      <c r="H229" s="137"/>
+      <c r="I229" s="137"/>
+      <c r="J229" s="137"/>
+      <c r="K229" s="137"/>
+      <c r="L229" s="137"/>
+      <c r="M229" s="137"/>
+      <c r="N229" s="137"/>
+      <c r="O229" s="139"/>
+    </row>
+    <row r="230" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A230" s="137"/>
+      <c r="B230" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C223" s="426" t="s">
+      <c r="C230" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="D223" s="426" t="s">
+      <c r="D230" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="E223" s="426" t="s">
+      <c r="E230" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="F223" s="426" t="s">
+      <c r="F230" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="G223" s="426" t="s">
+      <c r="G230" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="H223" s="426" t="s">
+      <c r="H230" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="I223" s="426" t="s">
+      <c r="I230" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="J223" s="426" t="s">
+      <c r="J230" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="K223" s="427" t="s">
+      <c r="K230" s="142" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B224" s="473">
+      <c r="L230" s="137"/>
+      <c r="M230" s="137"/>
+      <c r="N230" s="137"/>
+      <c r="O230" s="139"/>
+    </row>
+    <row r="231" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A231" s="137"/>
+      <c r="B231" s="173">
         <v>1</v>
       </c>
-      <c r="C224" s="474" t="s">
+      <c r="C231" s="174" t="s">
         <v>238</v>
       </c>
-      <c r="D224" s="474" t="s">
+      <c r="D231" s="174" t="s">
         <v>239</v>
       </c>
-      <c r="E224" s="476" t="s">
+      <c r="E231" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="F224" s="476" t="s">
+      <c r="F231" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="G224" s="476" t="s">
+      <c r="G231" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="H224" s="474" t="s">
+      <c r="H231" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="I224" s="476">
+      <c r="I231" s="176">
         <v>11</v>
       </c>
-      <c r="J224" s="474"/>
-      <c r="K224" s="475"/>
-    </row>
-    <row r="225" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A225" s="465"/>
-      <c r="B225" s="276">
+      <c r="J231" s="174"/>
+      <c r="K231" s="175"/>
+      <c r="L231" s="137"/>
+      <c r="M231" s="137"/>
+      <c r="N231" s="137"/>
+      <c r="O231" s="139"/>
+    </row>
+    <row r="232" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A232" s="166"/>
+      <c r="B232" s="152">
         <v>2</v>
       </c>
-      <c r="C225" s="429" t="s">
+      <c r="C232" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="D232" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="E232" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F232" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G232" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H232" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="I232" s="145">
+        <v>11</v>
+      </c>
+      <c r="J232" s="145"/>
+      <c r="K232" s="156"/>
+      <c r="L232" s="137"/>
+      <c r="M232" s="137"/>
+      <c r="N232" s="137"/>
+      <c r="O232" s="139"/>
+    </row>
+    <row r="233" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A233" s="138"/>
+      <c r="B233" s="143">
+        <v>3</v>
+      </c>
+      <c r="C233" s="163" t="s">
+        <v>258</v>
+      </c>
+      <c r="D233" s="163" t="s">
+        <v>259</v>
+      </c>
+      <c r="E233" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F233" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="G233" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H233" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="I233" s="168">
+        <v>256</v>
+      </c>
+      <c r="J233" s="164"/>
+      <c r="K233" s="165"/>
+      <c r="L233" s="137"/>
+      <c r="M233" s="137"/>
+      <c r="N233" s="137"/>
+      <c r="O233" s="139"/>
+    </row>
+    <row r="234" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A234" s="138"/>
+      <c r="B234" s="143">
+        <v>4</v>
+      </c>
+      <c r="C234" s="163" t="s">
+        <v>260</v>
+      </c>
+      <c r="D234" s="163" t="s">
+        <v>261</v>
+      </c>
+      <c r="E234" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F234" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="G234" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H234" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="I234" s="168">
+        <v>256</v>
+      </c>
+      <c r="J234" s="164"/>
+      <c r="K234" s="177"/>
+      <c r="L234" s="137"/>
+      <c r="M234" s="137"/>
+      <c r="N234" s="137"/>
+      <c r="O234" s="139"/>
+    </row>
+    <row r="235" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A235" s="166"/>
+      <c r="B235" s="428">
+        <v>5</v>
+      </c>
+      <c r="C235" s="462" t="s">
+        <v>287</v>
+      </c>
+      <c r="D235" s="462" t="s">
+        <v>288</v>
+      </c>
+      <c r="E235" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F235" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G235" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H235" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I235" s="472">
+        <v>11</v>
+      </c>
+      <c r="J235" s="463"/>
+      <c r="K235" s="477" t="s">
+        <v>297</v>
+      </c>
+      <c r="L235" s="137"/>
+      <c r="M235" s="137"/>
+      <c r="N235" s="137"/>
+      <c r="O235" s="139"/>
+    </row>
+    <row r="236" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A236" s="465"/>
+      <c r="B236" s="143">
+        <v>6</v>
+      </c>
+      <c r="C236" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D236" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="E236" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F236" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G236" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H236" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="I236" s="145">
+        <v>11</v>
+      </c>
+      <c r="J236" s="145"/>
+      <c r="K236" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="L236" s="422"/>
+      <c r="M236" s="422"/>
+      <c r="N236" s="422"/>
+      <c r="O236" s="424"/>
+    </row>
+    <row r="237" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A237" s="138"/>
+      <c r="B237" s="143">
+        <v>7</v>
+      </c>
+      <c r="C237" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D237" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="E237" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F237" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G237" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="H237" s="160" t="s">
+        <v>148</v>
+      </c>
+      <c r="I237" s="159">
+        <v>10</v>
+      </c>
+      <c r="J237" s="159"/>
+      <c r="K237" s="161"/>
+      <c r="L237" s="137"/>
+      <c r="M237" s="137"/>
+      <c r="N237" s="137"/>
+      <c r="O237" s="139"/>
+    </row>
+    <row r="238" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A238" s="137"/>
+      <c r="B238" s="143">
+        <v>8</v>
+      </c>
+      <c r="C238" s="153" t="s">
+        <v>155</v>
+      </c>
+      <c r="D238" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="E238" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F238" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G238" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="H238" s="155" t="s">
+        <v>148</v>
+      </c>
+      <c r="I238" s="154">
+        <v>256</v>
+      </c>
+      <c r="J238" s="154"/>
+      <c r="K238" s="156"/>
+      <c r="L238" s="137"/>
+      <c r="M238" s="137"/>
+      <c r="N238" s="137"/>
+      <c r="O238" s="139"/>
+    </row>
+    <row r="239" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A239" s="137"/>
+      <c r="B239" s="143">
+        <v>9</v>
+      </c>
+      <c r="C239" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D239" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="E239" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F239" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G239" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="H239" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="I239" s="154">
+        <v>11</v>
+      </c>
+      <c r="J239" s="154"/>
+      <c r="K239" s="156"/>
+      <c r="L239" s="137"/>
+      <c r="M239" s="137"/>
+      <c r="N239" s="137"/>
+      <c r="O239" s="139"/>
+    </row>
+    <row r="240" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="138"/>
+      <c r="B240" s="147">
+        <v>10</v>
+      </c>
+      <c r="C240" s="148" t="s">
+        <v>157</v>
+      </c>
+      <c r="D240" s="148" t="s">
+        <v>161</v>
+      </c>
+      <c r="E240" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="F240" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="G240" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="H240" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="I240" s="149">
+        <v>256</v>
+      </c>
+      <c r="J240" s="149"/>
+      <c r="K240" s="151"/>
+      <c r="L240" s="137"/>
+      <c r="M240" s="137"/>
+      <c r="N240" s="137"/>
+      <c r="O240" s="139"/>
+    </row>
+    <row r="241" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A241" s="138"/>
+      <c r="B241" s="157"/>
+      <c r="C241" s="157"/>
+      <c r="D241" s="157"/>
+      <c r="E241" s="157"/>
+      <c r="F241" s="157"/>
+      <c r="G241" s="157"/>
+      <c r="H241" s="157"/>
+      <c r="I241" s="157"/>
+      <c r="J241" s="157"/>
+      <c r="K241" s="157"/>
+      <c r="L241" s="137"/>
+      <c r="M241" s="137"/>
+      <c r="N241" s="137"/>
+      <c r="O241" s="139"/>
+    </row>
+    <row r="242" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="138"/>
+      <c r="L242" s="137"/>
+      <c r="M242" s="137"/>
+      <c r="N242" s="137"/>
+      <c r="O242" s="139"/>
+    </row>
+    <row r="243" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B243" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C243" s="470"/>
+      <c r="D243" s="170" t="s">
+        <v>354</v>
+      </c>
+      <c r="E243" s="171"/>
+      <c r="F243" s="171"/>
+      <c r="G243" s="172"/>
+      <c r="H243" s="470"/>
+      <c r="I243" s="470"/>
+      <c r="J243" s="470"/>
+      <c r="K243" s="470"/>
+    </row>
+    <row r="244" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="422"/>
+      <c r="C244" s="422"/>
+      <c r="D244" s="422"/>
+      <c r="E244" s="422"/>
+      <c r="F244" s="422"/>
+      <c r="G244" s="422"/>
+      <c r="H244" s="422"/>
+      <c r="I244" s="422"/>
+      <c r="J244" s="422"/>
+      <c r="K244" s="422"/>
+    </row>
+    <row r="245" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B245" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E245" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F245" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G245" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H245" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I245" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J245" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K245" s="427" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B246" s="473">
+        <v>1</v>
+      </c>
+      <c r="C246" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D246" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E246" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="F246" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G246" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H246" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I246" s="476">
+        <v>11</v>
+      </c>
+      <c r="J246" s="474"/>
+      <c r="K246" s="475"/>
+    </row>
+    <row r="247" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B247" s="574">
+        <v>2</v>
+      </c>
+      <c r="C247" s="474" t="s">
+        <v>352</v>
+      </c>
+      <c r="D247" s="474" t="s">
+        <v>353</v>
+      </c>
+      <c r="E247" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="F247" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="G247" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H247" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I247" s="476">
+        <v>11</v>
+      </c>
+      <c r="J247" s="474"/>
+      <c r="K247" s="575"/>
+    </row>
+    <row r="248" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A248" s="465"/>
+      <c r="B248" s="276">
+        <v>3</v>
+      </c>
+      <c r="C248" s="429" t="s">
         <v>254</v>
       </c>
-      <c r="D225" s="429" t="s">
-        <v>250</v>
-      </c>
-      <c r="E225" s="430"/>
-      <c r="F225" s="430"/>
-      <c r="G225" s="430" t="s">
+      <c r="D248" s="429"/>
+      <c r="E248" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="F248" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="G248" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H225" s="431" t="s">
+      <c r="H248" s="431" t="s">
         <v>148</v>
       </c>
-      <c r="I225" s="430">
+      <c r="I248" s="430">
         <v>256</v>
       </c>
-      <c r="J225" s="430"/>
-      <c r="K225" s="452"/>
-      <c r="L225" s="422"/>
-      <c r="M225" s="422"/>
-      <c r="N225" s="422"/>
-      <c r="O225" s="424"/>
-    </row>
-    <row r="226" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A226" s="423"/>
-      <c r="B226" s="428">
-        <v>3</v>
-      </c>
-      <c r="C226" s="462" t="s">
+      <c r="J248" s="430"/>
+      <c r="K248" s="452"/>
+      <c r="L248" s="422"/>
+      <c r="M248" s="422"/>
+      <c r="N248" s="422"/>
+      <c r="O248" s="424"/>
+    </row>
+    <row r="249" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A249" s="423"/>
+      <c r="B249" s="428">
+        <v>4</v>
+      </c>
+      <c r="C249" s="462" t="s">
         <v>255</v>
       </c>
-      <c r="D226" s="462"/>
-      <c r="E226" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F226" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G226" s="430" t="s">
+      <c r="D249" s="462"/>
+      <c r="E249" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F249" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G249" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H226" s="462" t="s">
+      <c r="H249" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I226" s="472">
+      <c r="I249" s="472">
         <v>256</v>
       </c>
-      <c r="J226" s="463"/>
-      <c r="K226" s="464"/>
-      <c r="L226" s="422"/>
-      <c r="M226" s="422"/>
-      <c r="N226" s="422"/>
-      <c r="O226" s="424"/>
-    </row>
-    <row r="227" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A227" s="423"/>
-      <c r="B227" s="428">
-        <v>4</v>
-      </c>
-      <c r="C227" s="462" t="s">
+      <c r="J249" s="463"/>
+      <c r="K249" s="464"/>
+      <c r="L249" s="422"/>
+      <c r="M249" s="422"/>
+      <c r="N249" s="422"/>
+      <c r="O249" s="424"/>
+    </row>
+    <row r="250" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A250" s="423"/>
+      <c r="B250" s="428">
+        <v>5</v>
+      </c>
+      <c r="C250" s="462" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="462" t="s">
+      <c r="D250" s="462" t="s">
         <v>199</v>
       </c>
-      <c r="E227" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F227" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G227" s="430" t="s">
+      <c r="E250" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F250" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G250" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H227" s="462" t="s">
+      <c r="H250" s="462" t="s">
         <v>147</v>
       </c>
-      <c r="I227" s="472">
+      <c r="I250" s="472">
         <v>11</v>
       </c>
-      <c r="J227" s="463"/>
-      <c r="K227" s="477"/>
-      <c r="L227" s="422"/>
-      <c r="M227" s="422"/>
-      <c r="N227" s="422"/>
-      <c r="O227" s="424"/>
-    </row>
-    <row r="228" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A228" s="423"/>
-      <c r="B228" s="428">
-        <v>5</v>
-      </c>
-      <c r="C228" s="429" t="s">
+      <c r="J250" s="463"/>
+      <c r="K250" s="477"/>
+      <c r="L250" s="422"/>
+      <c r="M250" s="422"/>
+      <c r="N250" s="422"/>
+      <c r="O250" s="424"/>
+    </row>
+    <row r="251" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A251" s="423"/>
+      <c r="B251" s="428">
+        <v>6</v>
+      </c>
+      <c r="C251" s="429" t="s">
         <v>166</v>
       </c>
-      <c r="D228" s="429" t="s">
+      <c r="D251" s="429" t="s">
         <v>167</v>
       </c>
-      <c r="E228" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F228" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G228" s="430" t="s">
+      <c r="E251" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F251" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G251" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H228" s="431" t="s">
+      <c r="H251" s="431" t="s">
         <v>147</v>
       </c>
-      <c r="I228" s="430">
+      <c r="I251" s="430">
         <v>11</v>
       </c>
-      <c r="J228" s="430"/>
-      <c r="K228" s="288" t="s">
+      <c r="J251" s="430"/>
+      <c r="K251" s="288" t="s">
         <v>168</v>
       </c>
-      <c r="L228" s="422"/>
-      <c r="M228" s="422"/>
-      <c r="N228" s="422"/>
-      <c r="O228" s="424"/>
-    </row>
-    <row r="229" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A229" s="465"/>
-      <c r="B229" s="428">
-        <v>6</v>
-      </c>
-      <c r="C229" s="456" t="s">
+      <c r="L251" s="422"/>
+      <c r="M251" s="422"/>
+      <c r="N251" s="422"/>
+      <c r="O251" s="424"/>
+    </row>
+    <row r="252" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A252" s="465"/>
+      <c r="B252" s="428">
+        <v>7</v>
+      </c>
+      <c r="C252" s="456" t="s">
         <v>154</v>
       </c>
-      <c r="D229" s="456" t="s">
+      <c r="D252" s="456" t="s">
         <v>159</v>
       </c>
-      <c r="E229" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F229" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G229" s="457" t="s">
+      <c r="E252" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F252" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G252" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H229" s="458" t="s">
+      <c r="H252" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I229" s="457">
+      <c r="I252" s="457">
         <v>10</v>
       </c>
-      <c r="J229" s="457"/>
-      <c r="K229" s="459"/>
-      <c r="L229" s="422"/>
-      <c r="M229" s="422"/>
-      <c r="N229" s="422"/>
-      <c r="O229" s="424"/>
-    </row>
-    <row r="230" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A230" s="423"/>
-      <c r="B230" s="428">
-        <v>7</v>
-      </c>
-      <c r="C230" s="449" t="s">
+      <c r="J252" s="457"/>
+      <c r="K252" s="459"/>
+      <c r="L252" s="422"/>
+      <c r="M252" s="422"/>
+      <c r="N252" s="422"/>
+      <c r="O252" s="424"/>
+    </row>
+    <row r="253" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A253" s="423"/>
+      <c r="B253" s="428">
+        <v>8</v>
+      </c>
+      <c r="C253" s="449" t="s">
         <v>155</v>
       </c>
-      <c r="D230" s="449" t="s">
+      <c r="D253" s="449" t="s">
         <v>160</v>
       </c>
-      <c r="E230" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F230" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G230" s="450" t="s">
+      <c r="E253" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F253" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G253" s="450" t="s">
         <v>145</v>
       </c>
-      <c r="H230" s="451" t="s">
+      <c r="H253" s="451" t="s">
         <v>148</v>
       </c>
-      <c r="I230" s="450">
+      <c r="I253" s="450">
         <v>256</v>
       </c>
-      <c r="J230" s="450"/>
-      <c r="K230" s="452"/>
-      <c r="L230" s="422"/>
-      <c r="M230" s="422"/>
-      <c r="N230" s="422"/>
-      <c r="O230" s="424"/>
-    </row>
-    <row r="231" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A231" s="422"/>
-      <c r="B231" s="428">
-        <v>8</v>
-      </c>
-      <c r="C231" s="449" t="s">
+      <c r="J253" s="450"/>
+      <c r="K253" s="452"/>
+      <c r="L253" s="422"/>
+      <c r="M253" s="422"/>
+      <c r="N253" s="422"/>
+      <c r="O253" s="424"/>
+    </row>
+    <row r="254" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A254" s="422"/>
+      <c r="B254" s="428">
+        <v>9</v>
+      </c>
+      <c r="C254" s="449" t="s">
         <v>156</v>
       </c>
-      <c r="D231" s="449" t="s">
+      <c r="D254" s="449" t="s">
         <v>158</v>
       </c>
-      <c r="E231" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F231" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G231" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H231" s="451" t="s">
+      <c r="E254" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F254" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G254" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H254" s="451" t="s">
         <v>147</v>
       </c>
-      <c r="I231" s="450">
+      <c r="I254" s="450">
         <v>11</v>
       </c>
-      <c r="J231" s="450"/>
-      <c r="K231" s="452"/>
-      <c r="L231" s="422"/>
-      <c r="M231" s="422"/>
-      <c r="N231" s="422"/>
-      <c r="O231" s="424"/>
-    </row>
-    <row r="232" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="423"/>
-      <c r="B232" s="434">
-        <v>9</v>
-      </c>
-      <c r="C232" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D232" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E232" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F232" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G232" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H232" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I232" s="436">
-        <v>256</v>
-      </c>
-      <c r="J232" s="436"/>
-      <c r="K232" s="438"/>
-      <c r="L232" s="422"/>
-      <c r="M232" s="422"/>
-      <c r="N232" s="422"/>
-      <c r="O232" s="424"/>
-    </row>
-    <row r="234" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B235" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C235" s="470"/>
-      <c r="D235" s="170" t="s">
-        <v>336</v>
-      </c>
-      <c r="E235" s="171"/>
-      <c r="F235" s="171"/>
-      <c r="G235" s="172"/>
-      <c r="H235" s="470"/>
-      <c r="I235" s="470"/>
-      <c r="J235" s="470"/>
-      <c r="K235" s="470"/>
-    </row>
-    <row r="236" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="422"/>
-      <c r="C236" s="422"/>
-      <c r="D236" s="422"/>
-      <c r="E236" s="422"/>
-      <c r="F236" s="422"/>
-      <c r="G236" s="422"/>
-      <c r="H236" s="422"/>
-      <c r="I236" s="422"/>
-      <c r="J236" s="422"/>
-      <c r="K236" s="422"/>
-    </row>
-    <row r="237" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B237" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C237" s="426" t="s">
-        <v>30</v>
-      </c>
-      <c r="D237" s="426" t="s">
-        <v>31</v>
-      </c>
-      <c r="E237" s="426" t="s">
-        <v>32</v>
-      </c>
-      <c r="F237" s="426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G237" s="426" t="s">
-        <v>34</v>
-      </c>
-      <c r="H237" s="426" t="s">
-        <v>35</v>
-      </c>
-      <c r="I237" s="426" t="s">
-        <v>36</v>
-      </c>
-      <c r="J237" s="426" t="s">
-        <v>37</v>
-      </c>
-      <c r="K237" s="427" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B238" s="473">
-        <v>1</v>
-      </c>
-      <c r="C238" s="474" t="s">
-        <v>238</v>
-      </c>
-      <c r="D238" s="474" t="s">
-        <v>239</v>
-      </c>
-      <c r="E238" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="F238" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="G238" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="H238" s="474" t="s">
-        <v>147</v>
-      </c>
-      <c r="I238" s="476">
-        <v>11</v>
-      </c>
-      <c r="J238" s="474"/>
-      <c r="K238" s="475"/>
-    </row>
-    <row r="239" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A239" s="465"/>
-      <c r="B239" s="276">
-        <v>2</v>
-      </c>
-      <c r="C239" s="429" t="s">
-        <v>282</v>
-      </c>
-      <c r="D239" s="429" t="s">
-        <v>284</v>
-      </c>
-      <c r="E239" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F239" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G239" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H239" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I239" s="430">
-        <v>256</v>
-      </c>
-      <c r="J239" s="430"/>
-      <c r="K239" s="452"/>
-      <c r="L239" s="422"/>
-      <c r="M239" s="422"/>
-      <c r="N239" s="422"/>
-      <c r="O239" s="424"/>
-    </row>
-    <row r="240" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A240" s="423"/>
-      <c r="B240" s="428">
-        <v>3</v>
-      </c>
-      <c r="C240" s="462" t="s">
-        <v>283</v>
-      </c>
-      <c r="D240" s="462" t="s">
-        <v>285</v>
-      </c>
-      <c r="E240" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F240" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G240" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H240" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I240" s="472">
-        <v>256</v>
-      </c>
-      <c r="J240" s="463"/>
-      <c r="K240" s="464"/>
-      <c r="L240" s="422"/>
-      <c r="M240" s="422"/>
-      <c r="N240" s="422"/>
-      <c r="O240" s="424"/>
-    </row>
-    <row r="241" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A241" s="423"/>
-      <c r="B241" s="428">
-        <v>4</v>
-      </c>
-      <c r="C241" s="462" t="s">
-        <v>337</v>
-      </c>
-      <c r="D241" s="462" t="s">
-        <v>338</v>
-      </c>
-      <c r="E241" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F241" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G241" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H241" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I241" s="472">
-        <v>256</v>
-      </c>
-      <c r="J241" s="463"/>
-      <c r="K241" s="477"/>
-      <c r="L241" s="422"/>
-      <c r="M241" s="422"/>
-      <c r="N241" s="422"/>
-      <c r="O241" s="424"/>
-    </row>
-    <row r="242" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A242" s="423"/>
-      <c r="B242" s="428">
-        <v>5</v>
-      </c>
-      <c r="C242" s="462" t="s">
-        <v>339</v>
-      </c>
-      <c r="D242" s="462" t="s">
-        <v>340</v>
-      </c>
-      <c r="E242" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F242" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G242" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H242" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I242" s="472">
-        <v>256</v>
-      </c>
-      <c r="J242" s="463"/>
-      <c r="K242" s="477"/>
-      <c r="L242" s="422"/>
-      <c r="M242" s="422"/>
-      <c r="N242" s="422"/>
-      <c r="O242" s="424"/>
-    </row>
-    <row r="243" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A243" s="423"/>
-      <c r="B243" s="428">
-        <v>6</v>
-      </c>
-      <c r="C243" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D243" s="429" t="s">
-        <v>167</v>
-      </c>
-      <c r="E243" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F243" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G243" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H243" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I243" s="430">
-        <v>11</v>
-      </c>
-      <c r="J243" s="430"/>
-      <c r="K243" s="288" t="s">
-        <v>168</v>
-      </c>
-      <c r="L243" s="422"/>
-      <c r="M243" s="422"/>
-      <c r="N243" s="422"/>
-      <c r="O243" s="424"/>
-    </row>
-    <row r="244" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A244" s="465"/>
-      <c r="B244" s="428">
-        <v>7</v>
-      </c>
-      <c r="C244" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D244" s="456" t="s">
-        <v>159</v>
-      </c>
-      <c r="E244" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F244" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G244" s="457" t="s">
-        <v>145</v>
-      </c>
-      <c r="H244" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I244" s="457">
-        <v>10</v>
-      </c>
-      <c r="J244" s="457"/>
-      <c r="K244" s="459"/>
-      <c r="L244" s="422"/>
-      <c r="M244" s="422"/>
-      <c r="N244" s="422"/>
-      <c r="O244" s="424"/>
-    </row>
-    <row r="245" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A245" s="423"/>
-      <c r="B245" s="428">
-        <v>8</v>
-      </c>
-      <c r="C245" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D245" s="449" t="s">
-        <v>160</v>
-      </c>
-      <c r="E245" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F245" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G245" s="450" t="s">
-        <v>145</v>
-      </c>
-      <c r="H245" s="451" t="s">
-        <v>148</v>
-      </c>
-      <c r="I245" s="450">
-        <v>256</v>
-      </c>
-      <c r="J245" s="450"/>
-      <c r="K245" s="452"/>
-      <c r="L245" s="422"/>
-      <c r="M245" s="422"/>
-      <c r="N245" s="422"/>
-      <c r="O245" s="424"/>
-    </row>
-    <row r="246" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A246" s="422"/>
-      <c r="B246" s="428">
-        <v>9</v>
-      </c>
-      <c r="C246" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D246" s="449" t="s">
-        <v>158</v>
-      </c>
-      <c r="E246" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F246" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G246" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H246" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I246" s="450">
-        <v>11</v>
-      </c>
-      <c r="J246" s="450"/>
-      <c r="K246" s="452"/>
-      <c r="L246" s="422"/>
-      <c r="M246" s="422"/>
-      <c r="N246" s="422"/>
-      <c r="O246" s="424"/>
-    </row>
-    <row r="247" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="423"/>
-      <c r="B247" s="434">
-        <v>10</v>
-      </c>
-      <c r="C247" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D247" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E247" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F247" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G247" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H247" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I247" s="436">
-        <v>256</v>
-      </c>
-      <c r="J247" s="436"/>
-      <c r="K247" s="438"/>
-      <c r="L247" s="422"/>
-      <c r="M247" s="422"/>
-      <c r="N247" s="422"/>
-      <c r="O247" s="424"/>
-    </row>
-    <row r="249" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="250" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B250" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C250" s="470"/>
-      <c r="D250" s="170" t="s">
-        <v>236</v>
-      </c>
-      <c r="E250" s="171"/>
-      <c r="F250" s="171"/>
-      <c r="G250" s="172"/>
-      <c r="H250" s="470"/>
-      <c r="I250" s="470"/>
-      <c r="J250" s="470"/>
-      <c r="K250" s="470"/>
-    </row>
-    <row r="251" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="422"/>
-      <c r="C251" s="422"/>
-      <c r="D251" s="422"/>
-      <c r="E251" s="422"/>
-      <c r="F251" s="422"/>
-      <c r="G251" s="422"/>
-      <c r="H251" s="422"/>
-      <c r="I251" s="422"/>
-      <c r="J251" s="422"/>
-      <c r="K251" s="422"/>
-    </row>
-    <row r="252" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B252" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" s="426" t="s">
-        <v>30</v>
-      </c>
-      <c r="D252" s="426" t="s">
-        <v>31</v>
-      </c>
-      <c r="E252" s="426" t="s">
-        <v>32</v>
-      </c>
-      <c r="F252" s="426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G252" s="426" t="s">
-        <v>34</v>
-      </c>
-      <c r="H252" s="426" t="s">
-        <v>35</v>
-      </c>
-      <c r="I252" s="426" t="s">
-        <v>36</v>
-      </c>
-      <c r="J252" s="426" t="s">
-        <v>37</v>
-      </c>
-      <c r="K252" s="427" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B253" s="473">
-        <v>1</v>
-      </c>
-      <c r="C253" s="474" t="s">
-        <v>238</v>
-      </c>
-      <c r="D253" s="474" t="s">
-        <v>239</v>
-      </c>
-      <c r="E253" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="F253" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="G253" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="H253" s="474" t="s">
-        <v>147</v>
-      </c>
-      <c r="I253" s="476">
-        <v>11</v>
-      </c>
-      <c r="J253" s="474"/>
-      <c r="K253" s="475"/>
-    </row>
-    <row r="254" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A254" s="465"/>
-      <c r="B254" s="276">
-        <v>2</v>
-      </c>
-      <c r="C254" s="429" t="s">
-        <v>254</v>
-      </c>
-      <c r="D254" s="429" t="s">
-        <v>250</v>
-      </c>
-      <c r="E254" s="430"/>
-      <c r="F254" s="430"/>
-      <c r="G254" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H254" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I254" s="430">
-        <v>256</v>
-      </c>
-      <c r="J254" s="430"/>
+      <c r="J254" s="450"/>
       <c r="K254" s="452"/>
       <c r="L254" s="422"/>
       <c r="M254" s="422"/>
       <c r="N254" s="422"/>
       <c r="O254" s="424"/>
     </row>
-    <row r="255" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="423"/>
-      <c r="B255" s="428">
-        <v>3</v>
-      </c>
-      <c r="C255" s="462" t="s">
-        <v>255</v>
-      </c>
-      <c r="D255" s="462"/>
-      <c r="E255" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F255" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G255" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H255" s="462" t="s">
+      <c r="B255" s="434">
+        <v>10</v>
+      </c>
+      <c r="C255" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D255" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E255" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F255" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G255" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H255" s="437" t="s">
         <v>148</v>
       </c>
-      <c r="I255" s="472">
+      <c r="I255" s="436">
         <v>256</v>
       </c>
-      <c r="J255" s="463"/>
-      <c r="K255" s="464"/>
+      <c r="J255" s="436"/>
+      <c r="K255" s="438"/>
       <c r="L255" s="422"/>
       <c r="M255" s="422"/>
       <c r="N255" s="422"/>
       <c r="O255" s="424"/>
     </row>
-    <row r="256" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A256" s="423"/>
-      <c r="B256" s="428">
+    <row r="259" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="260" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B260" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C260" s="470"/>
+      <c r="D260" s="170" t="s">
+        <v>236</v>
+      </c>
+      <c r="E260" s="171"/>
+      <c r="F260" s="171"/>
+      <c r="G260" s="172"/>
+      <c r="H260" s="470"/>
+      <c r="I260" s="470"/>
+      <c r="J260" s="470"/>
+      <c r="K260" s="470"/>
+    </row>
+    <row r="261" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="422"/>
+      <c r="C261" s="422"/>
+      <c r="D261" s="422"/>
+      <c r="E261" s="422"/>
+      <c r="F261" s="422"/>
+      <c r="G261" s="422"/>
+      <c r="H261" s="422"/>
+      <c r="I261" s="422"/>
+      <c r="J261" s="422"/>
+      <c r="K261" s="422"/>
+    </row>
+    <row r="262" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B262" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D262" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E262" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F262" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G262" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H262" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I262" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J262" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K262" s="427" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B263" s="473">
+        <v>1</v>
+      </c>
+      <c r="C263" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D263" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E263" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="F263" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G263" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H263" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I263" s="476">
+        <v>11</v>
+      </c>
+      <c r="J263" s="474"/>
+      <c r="K263" s="475"/>
+    </row>
+    <row r="264" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B264" s="574">
+        <v>2</v>
+      </c>
+      <c r="C264" s="474" t="s">
+        <v>350</v>
+      </c>
+      <c r="D264" s="474" t="s">
+        <v>351</v>
+      </c>
+      <c r="E264" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="F264" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="G264" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H264" s="474"/>
+      <c r="I264" s="476"/>
+      <c r="J264" s="474"/>
+      <c r="K264" s="575"/>
+    </row>
+    <row r="265" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A265" s="465"/>
+      <c r="B265" s="276">
+        <v>3</v>
+      </c>
+      <c r="C265" s="429" t="s">
+        <v>254</v>
+      </c>
+      <c r="D265" s="429"/>
+      <c r="E265" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="F265" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="G265" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H265" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I265" s="430">
+        <v>256</v>
+      </c>
+      <c r="J265" s="430"/>
+      <c r="K265" s="452"/>
+      <c r="L265" s="422"/>
+      <c r="M265" s="422"/>
+      <c r="N265" s="422"/>
+      <c r="O265" s="424"/>
+    </row>
+    <row r="266" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A266" s="423"/>
+      <c r="B266" s="428">
         <v>4</v>
       </c>
-      <c r="C256" s="462" t="s">
+      <c r="C266" s="462" t="s">
+        <v>255</v>
+      </c>
+      <c r="D266" s="462"/>
+      <c r="E266" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F266" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G266" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H266" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I266" s="472">
+        <v>256</v>
+      </c>
+      <c r="J266" s="463"/>
+      <c r="K266" s="464"/>
+      <c r="L266" s="422"/>
+      <c r="M266" s="422"/>
+      <c r="N266" s="422"/>
+      <c r="O266" s="424"/>
+    </row>
+    <row r="267" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A267" s="423"/>
+      <c r="B267" s="428">
+        <v>5</v>
+      </c>
+      <c r="C267" s="462" t="s">
         <v>286</v>
       </c>
-      <c r="D256" s="462" t="s">
+      <c r="D267" s="462" t="s">
         <v>199</v>
       </c>
-      <c r="E256" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F256" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G256" s="430" t="s">
+      <c r="E267" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F267" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G267" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H256" s="462" t="s">
+      <c r="H267" s="462" t="s">
         <v>147</v>
       </c>
-      <c r="I256" s="472">
+      <c r="I267" s="472">
         <v>11</v>
       </c>
-      <c r="J256" s="463"/>
-      <c r="K256" s="477"/>
-      <c r="L256" s="422"/>
-      <c r="M256" s="422"/>
-      <c r="N256" s="422"/>
-      <c r="O256" s="424"/>
-    </row>
-    <row r="257" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A257" s="423"/>
-      <c r="B257" s="428">
-        <v>5</v>
-      </c>
-      <c r="C257" s="462" t="s">
-        <v>302</v>
-      </c>
-      <c r="D257" s="462" t="s">
-        <v>335</v>
-      </c>
-      <c r="E257" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F257" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G257" s="430" t="s">
+      <c r="J267" s="463"/>
+      <c r="K267" s="477"/>
+      <c r="L267" s="422"/>
+      <c r="M267" s="422"/>
+      <c r="N267" s="422"/>
+      <c r="O267" s="424"/>
+    </row>
+    <row r="268" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A268" s="423"/>
+      <c r="B268" s="428">
+        <v>6</v>
+      </c>
+      <c r="C268" s="462" t="s">
+        <v>301</v>
+      </c>
+      <c r="D268" s="462" t="s">
+        <v>332</v>
+      </c>
+      <c r="E268" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F268" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G268" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H257" s="462" t="s">
+      <c r="H268" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I257" s="472">
+      <c r="I268" s="472">
         <v>256</v>
       </c>
-      <c r="J257" s="463"/>
-      <c r="K257" s="477"/>
-      <c r="L257" s="422"/>
-      <c r="M257" s="422"/>
-      <c r="N257" s="422"/>
-      <c r="O257" s="424"/>
-    </row>
-    <row r="258" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A258" s="423"/>
-      <c r="B258" s="428">
-        <v>6</v>
-      </c>
-      <c r="C258" s="429" t="s">
+      <c r="J268" s="463"/>
+      <c r="K268" s="477"/>
+      <c r="L268" s="422"/>
+      <c r="M268" s="422"/>
+      <c r="N268" s="422"/>
+      <c r="O268" s="424"/>
+    </row>
+    <row r="269" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A269" s="423"/>
+      <c r="B269" s="428">
+        <v>7</v>
+      </c>
+      <c r="C269" s="429" t="s">
         <v>166</v>
       </c>
-      <c r="D258" s="429" t="s">
+      <c r="D269" s="429" t="s">
         <v>167</v>
-      </c>
-      <c r="E258" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F258" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G258" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H258" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I258" s="430">
-        <v>11</v>
-      </c>
-      <c r="J258" s="430"/>
-      <c r="K258" s="288" t="s">
-        <v>168</v>
-      </c>
-      <c r="L258" s="422"/>
-      <c r="M258" s="422"/>
-      <c r="N258" s="422"/>
-      <c r="O258" s="424"/>
-    </row>
-    <row r="259" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A259" s="465"/>
-      <c r="B259" s="428">
-        <v>7</v>
-      </c>
-      <c r="C259" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D259" s="456" t="s">
-        <v>159</v>
-      </c>
-      <c r="E259" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F259" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G259" s="457" t="s">
-        <v>145</v>
-      </c>
-      <c r="H259" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I259" s="457">
-        <v>10</v>
-      </c>
-      <c r="J259" s="457"/>
-      <c r="K259" s="459"/>
-      <c r="L259" s="422"/>
-      <c r="M259" s="422"/>
-      <c r="N259" s="422"/>
-      <c r="O259" s="424"/>
-    </row>
-    <row r="260" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A260" s="423"/>
-      <c r="B260" s="428">
-        <v>8</v>
-      </c>
-      <c r="C260" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D260" s="449" t="s">
-        <v>160</v>
-      </c>
-      <c r="E260" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F260" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G260" s="450" t="s">
-        <v>145</v>
-      </c>
-      <c r="H260" s="451" t="s">
-        <v>148</v>
-      </c>
-      <c r="I260" s="450">
-        <v>256</v>
-      </c>
-      <c r="J260" s="450"/>
-      <c r="K260" s="452"/>
-      <c r="L260" s="422"/>
-      <c r="M260" s="422"/>
-      <c r="N260" s="422"/>
-      <c r="O260" s="424"/>
-    </row>
-    <row r="261" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A261" s="422"/>
-      <c r="B261" s="428">
-        <v>9</v>
-      </c>
-      <c r="C261" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D261" s="449" t="s">
-        <v>158</v>
-      </c>
-      <c r="E261" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F261" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G261" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H261" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I261" s="450">
-        <v>11</v>
-      </c>
-      <c r="J261" s="450"/>
-      <c r="K261" s="452"/>
-      <c r="L261" s="422"/>
-      <c r="M261" s="422"/>
-      <c r="N261" s="422"/>
-      <c r="O261" s="424"/>
-    </row>
-    <row r="262" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="423"/>
-      <c r="B262" s="434">
-        <v>10</v>
-      </c>
-      <c r="C262" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D262" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E262" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F262" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G262" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H262" s="437" t="s">
-        <v>148</v>
-      </c>
-      <c r="I262" s="436">
-        <v>256</v>
-      </c>
-      <c r="J262" s="436"/>
-      <c r="K262" s="438"/>
-      <c r="L262" s="422"/>
-      <c r="M262" s="422"/>
-      <c r="N262" s="422"/>
-      <c r="O262" s="424"/>
-    </row>
-    <row r="264" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="265" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B265" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C265" s="470"/>
-      <c r="D265" s="170" t="s">
-        <v>303</v>
-      </c>
-      <c r="E265" s="171"/>
-      <c r="F265" s="171"/>
-      <c r="G265" s="172"/>
-      <c r="H265" s="470"/>
-      <c r="I265" s="470"/>
-      <c r="J265" s="470"/>
-      <c r="K265" s="470"/>
-    </row>
-    <row r="266" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="422"/>
-      <c r="C266" s="422"/>
-      <c r="D266" s="422"/>
-      <c r="E266" s="422"/>
-      <c r="F266" s="422"/>
-      <c r="G266" s="422"/>
-      <c r="H266" s="422"/>
-      <c r="I266" s="422"/>
-      <c r="J266" s="422"/>
-      <c r="K266" s="422"/>
-    </row>
-    <row r="267" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B267" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C267" s="426" t="s">
-        <v>30</v>
-      </c>
-      <c r="D267" s="426" t="s">
-        <v>31</v>
-      </c>
-      <c r="E267" s="426" t="s">
-        <v>32</v>
-      </c>
-      <c r="F267" s="426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G267" s="426" t="s">
-        <v>34</v>
-      </c>
-      <c r="H267" s="426" t="s">
-        <v>35</v>
-      </c>
-      <c r="I267" s="426" t="s">
-        <v>36</v>
-      </c>
-      <c r="J267" s="426" t="s">
-        <v>37</v>
-      </c>
-      <c r="K267" s="427" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B268" s="473">
-        <v>1</v>
-      </c>
-      <c r="C268" s="474" t="s">
-        <v>238</v>
-      </c>
-      <c r="D268" s="474" t="s">
-        <v>239</v>
-      </c>
-      <c r="E268" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="F268" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="G268" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="H268" s="474" t="s">
-        <v>147</v>
-      </c>
-      <c r="I268" s="476">
-        <v>11</v>
-      </c>
-      <c r="J268" s="474"/>
-      <c r="K268" s="475"/>
-    </row>
-    <row r="269" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A269" s="465"/>
-      <c r="B269" s="276">
-        <v>2</v>
-      </c>
-      <c r="C269" s="429" t="s">
-        <v>304</v>
-      </c>
-      <c r="D269" s="429" t="s">
-        <v>312</v>
       </c>
       <c r="E269" s="430" t="s">
         <v>146</v>
@@ -25567,46 +25910,48 @@
         <v>145</v>
       </c>
       <c r="H269" s="431" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I269" s="430">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="J269" s="430"/>
-      <c r="K269" s="452"/>
+      <c r="K269" s="288" t="s">
+        <v>168</v>
+      </c>
       <c r="L269" s="422"/>
       <c r="M269" s="422"/>
       <c r="N269" s="422"/>
       <c r="O269" s="424"/>
     </row>
     <row r="270" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A270" s="423"/>
+      <c r="A270" s="465"/>
       <c r="B270" s="428">
-        <v>3</v>
-      </c>
-      <c r="C270" s="462" t="s">
-        <v>305</v>
-      </c>
-      <c r="D270" s="462" t="s">
-        <v>311</v>
+        <v>8</v>
+      </c>
+      <c r="C270" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D270" s="456" t="s">
+        <v>159</v>
       </c>
       <c r="E270" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F270" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G270" s="430" t="s">
+      <c r="F270" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G270" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H270" s="462" t="s">
+      <c r="H270" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I270" s="472">
-        <v>256</v>
-      </c>
-      <c r="J270" s="463"/>
-      <c r="K270" s="464"/>
+      <c r="I270" s="457">
+        <v>10</v>
+      </c>
+      <c r="J270" s="457"/>
+      <c r="K270" s="459"/>
       <c r="L270" s="422"/>
       <c r="M270" s="422"/>
       <c r="N270" s="422"/>
@@ -25615,310 +25960,201 @@
     <row r="271" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A271" s="423"/>
       <c r="B271" s="428">
-        <v>4</v>
-      </c>
-      <c r="C271" s="462" t="s">
-        <v>319</v>
-      </c>
-      <c r="D271" s="462" t="s">
-        <v>320</v>
+        <v>9</v>
+      </c>
+      <c r="C271" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D271" s="449" t="s">
+        <v>160</v>
       </c>
       <c r="E271" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F271" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G271" s="430" t="s">
+      <c r="F271" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G271" s="450" t="s">
         <v>145</v>
       </c>
-      <c r="H271" s="462" t="s">
+      <c r="H271" s="451" t="s">
         <v>148</v>
       </c>
-      <c r="I271" s="472">
+      <c r="I271" s="450">
         <v>256</v>
       </c>
-      <c r="J271" s="463"/>
-      <c r="K271" s="477"/>
+      <c r="J271" s="450"/>
+      <c r="K271" s="452"/>
       <c r="L271" s="422"/>
       <c r="M271" s="422"/>
       <c r="N271" s="422"/>
       <c r="O271" s="424"/>
     </row>
     <row r="272" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A272" s="423"/>
+      <c r="A272" s="422"/>
       <c r="B272" s="428">
-        <v>5</v>
-      </c>
-      <c r="C272" s="462" t="s">
-        <v>306</v>
-      </c>
-      <c r="D272" s="462" t="s">
-        <v>315</v>
+        <v>10</v>
+      </c>
+      <c r="C272" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D272" s="449" t="s">
+        <v>158</v>
       </c>
       <c r="E272" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F272" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G272" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H272" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I272" s="472">
-        <v>20</v>
-      </c>
-      <c r="J272" s="463"/>
-      <c r="K272" s="477"/>
+      <c r="F272" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G272" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H272" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I272" s="450">
+        <v>11</v>
+      </c>
+      <c r="J272" s="450"/>
+      <c r="K272" s="452"/>
       <c r="L272" s="422"/>
       <c r="M272" s="422"/>
       <c r="N272" s="422"/>
       <c r="O272" s="424"/>
     </row>
-    <row r="273" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="423"/>
-      <c r="B273" s="428">
-        <v>6</v>
-      </c>
-      <c r="C273" s="462" t="s">
-        <v>307</v>
-      </c>
-      <c r="D273" s="462" t="s">
-        <v>313</v>
-      </c>
-      <c r="E273" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F273" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G273" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H273" s="462" t="s">
+      <c r="B273" s="434">
+        <v>11</v>
+      </c>
+      <c r="C273" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D273" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E273" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F273" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G273" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H273" s="437" t="s">
         <v>148</v>
       </c>
-      <c r="I273" s="472">
+      <c r="I273" s="436">
         <v>256</v>
       </c>
-      <c r="J273" s="463"/>
-      <c r="K273" s="477"/>
+      <c r="J273" s="436"/>
+      <c r="K273" s="438"/>
       <c r="L273" s="422"/>
       <c r="M273" s="422"/>
       <c r="N273" s="422"/>
       <c r="O273" s="424"/>
     </row>
-    <row r="274" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A274" s="423"/>
-      <c r="B274" s="428">
-        <v>7</v>
-      </c>
-      <c r="C274" s="462" t="s">
-        <v>308</v>
-      </c>
-      <c r="D274" s="462" t="s">
-        <v>314</v>
-      </c>
-      <c r="E274" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F274" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G274" s="430" t="s">
+    <row r="275" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="276" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B276" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C276" s="470"/>
+      <c r="D276" s="170" t="s">
+        <v>302</v>
+      </c>
+      <c r="E276" s="171"/>
+      <c r="F276" s="171"/>
+      <c r="G276" s="172"/>
+      <c r="H276" s="470"/>
+      <c r="I276" s="470"/>
+      <c r="J276" s="470"/>
+      <c r="K276" s="470"/>
+    </row>
+    <row r="277" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="422"/>
+      <c r="C277" s="422"/>
+      <c r="D277" s="422"/>
+      <c r="E277" s="422"/>
+      <c r="F277" s="422"/>
+      <c r="G277" s="422"/>
+      <c r="H277" s="422"/>
+      <c r="I277" s="422"/>
+      <c r="J277" s="422"/>
+      <c r="K277" s="422"/>
+    </row>
+    <row r="278" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B278" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D278" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E278" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F278" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G278" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H278" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I278" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J278" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K278" s="427" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B279" s="473">
+        <v>1</v>
+      </c>
+      <c r="C279" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D279" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E279" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H274" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I274" s="472">
-        <v>256</v>
-      </c>
-      <c r="J274" s="463"/>
-      <c r="K274" s="477"/>
-      <c r="L274" s="422"/>
-      <c r="M274" s="422"/>
-      <c r="N274" s="422"/>
-      <c r="O274" s="424"/>
-    </row>
-    <row r="275" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A275" s="423"/>
-      <c r="B275" s="428">
-        <v>8</v>
-      </c>
-      <c r="C275" s="462" t="s">
-        <v>309</v>
-      </c>
-      <c r="D275" s="462" t="s">
-        <v>316</v>
-      </c>
-      <c r="E275" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F275" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G275" s="430" t="s">
+      <c r="F279" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H275" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I275" s="472">
-        <v>256</v>
-      </c>
-      <c r="J275" s="463"/>
-      <c r="K275" s="477"/>
-      <c r="L275" s="422"/>
-      <c r="M275" s="422"/>
-      <c r="N275" s="422"/>
-      <c r="O275" s="424"/>
-    </row>
-    <row r="276" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A276" s="423"/>
-      <c r="B276" s="428">
-        <v>9</v>
-      </c>
-      <c r="C276" s="462" t="s">
-        <v>310</v>
-      </c>
-      <c r="D276" s="462" t="s">
-        <v>317</v>
-      </c>
-      <c r="E276" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F276" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G276" s="430" t="s">
+      <c r="G279" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H276" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I276" s="472">
-        <v>256</v>
-      </c>
-      <c r="J276" s="463"/>
-      <c r="K276" s="477"/>
-      <c r="L276" s="422"/>
-      <c r="M276" s="422"/>
-      <c r="N276" s="422"/>
-      <c r="O276" s="424"/>
-    </row>
-    <row r="277" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A277" s="423"/>
-      <c r="B277" s="428">
-        <v>10</v>
-      </c>
-      <c r="C277" s="462" t="s">
-        <v>321</v>
-      </c>
-      <c r="D277" s="462" t="s">
-        <v>324</v>
-      </c>
-      <c r="E277" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F277" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G277" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H277" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I277" s="472">
-        <v>256</v>
-      </c>
-      <c r="J277" s="463"/>
-      <c r="K277" s="477"/>
-      <c r="L277" s="422"/>
-      <c r="M277" s="422"/>
-      <c r="N277" s="422"/>
-      <c r="O277" s="424"/>
-    </row>
-    <row r="278" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A278" s="423"/>
-      <c r="B278" s="428">
+      <c r="H279" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I279" s="476">
         <v>11</v>
       </c>
-      <c r="C278" s="462" t="s">
-        <v>322</v>
-      </c>
-      <c r="D278" s="462" t="s">
-        <v>325</v>
-      </c>
-      <c r="E278" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F278" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G278" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H278" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I278" s="472">
-        <v>256</v>
-      </c>
-      <c r="J278" s="463"/>
-      <c r="K278" s="477"/>
-      <c r="L278" s="422"/>
-      <c r="M278" s="422"/>
-      <c r="N278" s="422"/>
-      <c r="O278" s="424"/>
-    </row>
-    <row r="279" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A279" s="423"/>
-      <c r="B279" s="428">
-        <v>12</v>
-      </c>
-      <c r="C279" s="462" t="s">
-        <v>323</v>
-      </c>
-      <c r="D279" s="462" t="s">
-        <v>326</v>
-      </c>
-      <c r="E279" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F279" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G279" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H279" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I279" s="472">
-        <v>256</v>
-      </c>
-      <c r="J279" s="463"/>
-      <c r="K279" s="477"/>
-      <c r="L279" s="422"/>
-      <c r="M279" s="422"/>
-      <c r="N279" s="422"/>
-      <c r="O279" s="424"/>
+      <c r="J279" s="474"/>
+      <c r="K279" s="475"/>
     </row>
     <row r="280" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A280" s="423"/>
-      <c r="B280" s="428">
-        <v>13</v>
+      <c r="A280" s="465"/>
+      <c r="B280" s="276">
+        <v>2</v>
       </c>
       <c r="C280" s="429" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="D280" s="429" t="s">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="E280" s="430" t="s">
         <v>146</v>
@@ -25930,48 +26166,46 @@
         <v>145</v>
       </c>
       <c r="H280" s="431" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I280" s="430">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J280" s="430"/>
-      <c r="K280" s="288" t="s">
-        <v>168</v>
-      </c>
+      <c r="K280" s="452"/>
       <c r="L280" s="422"/>
       <c r="M280" s="422"/>
       <c r="N280" s="422"/>
       <c r="O280" s="424"/>
     </row>
     <row r="281" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A281" s="465"/>
+      <c r="A281" s="423"/>
       <c r="B281" s="428">
-        <v>14</v>
-      </c>
-      <c r="C281" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D281" s="456" t="s">
-        <v>159</v>
+        <v>3</v>
+      </c>
+      <c r="C281" s="462" t="s">
+        <v>304</v>
+      </c>
+      <c r="D281" s="462" t="s">
+        <v>310</v>
       </c>
       <c r="E281" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F281" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G281" s="457" t="s">
+      <c r="F281" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G281" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H281" s="458" t="s">
+      <c r="H281" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I281" s="457">
-        <v>10</v>
-      </c>
-      <c r="J281" s="457"/>
-      <c r="K281" s="459"/>
+      <c r="I281" s="472">
+        <v>256</v>
+      </c>
+      <c r="J281" s="463"/>
+      <c r="K281" s="464"/>
       <c r="L281" s="422"/>
       <c r="M281" s="422"/>
       <c r="N281" s="422"/>
@@ -25980,136 +26214,262 @@
     <row r="282" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A282" s="423"/>
       <c r="B282" s="428">
-        <v>15</v>
-      </c>
-      <c r="C282" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D282" s="449" t="s">
-        <v>160</v>
+        <v>4</v>
+      </c>
+      <c r="C282" s="462" t="s">
+        <v>317</v>
+      </c>
+      <c r="D282" s="462" t="s">
+        <v>318</v>
       </c>
       <c r="E282" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F282" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G282" s="450" t="s">
+      <c r="F282" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G282" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H282" s="451" t="s">
+      <c r="H282" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I282" s="450">
+      <c r="I282" s="472">
         <v>256</v>
       </c>
-      <c r="J282" s="450"/>
-      <c r="K282" s="452"/>
+      <c r="J282" s="463"/>
+      <c r="K282" s="477"/>
       <c r="L282" s="422"/>
       <c r="M282" s="422"/>
       <c r="N282" s="422"/>
       <c r="O282" s="424"/>
     </row>
     <row r="283" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A283" s="422"/>
+      <c r="A283" s="423"/>
       <c r="B283" s="428">
-        <v>16</v>
-      </c>
-      <c r="C283" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D283" s="449" t="s">
-        <v>158</v>
+        <v>5</v>
+      </c>
+      <c r="C283" s="462" t="s">
+        <v>305</v>
+      </c>
+      <c r="D283" s="462" t="s">
+        <v>347</v>
       </c>
       <c r="E283" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F283" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G283" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H283" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I283" s="450">
-        <v>11</v>
-      </c>
-      <c r="J283" s="450"/>
-      <c r="K283" s="452"/>
+      <c r="F283" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G283" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H283" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I283" s="472">
+        <v>20</v>
+      </c>
+      <c r="J283" s="463"/>
+      <c r="K283" s="477"/>
       <c r="L283" s="422"/>
       <c r="M283" s="422"/>
       <c r="N283" s="422"/>
       <c r="O283" s="424"/>
     </row>
-    <row r="284" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A284" s="423"/>
-      <c r="B284" s="434">
-        <v>17</v>
-      </c>
-      <c r="C284" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D284" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E284" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F284" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G284" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H284" s="437" t="s">
+      <c r="B284" s="428">
+        <v>6</v>
+      </c>
+      <c r="C284" s="462" t="s">
+        <v>306</v>
+      </c>
+      <c r="D284" s="462" t="s">
+        <v>312</v>
+      </c>
+      <c r="E284" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F284" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G284" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H284" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I284" s="436">
+      <c r="I284" s="472">
         <v>256</v>
       </c>
-      <c r="J284" s="436"/>
-      <c r="K284" s="438"/>
+      <c r="J284" s="463"/>
+      <c r="K284" s="477"/>
       <c r="L284" s="422"/>
       <c r="M284" s="422"/>
       <c r="N284" s="422"/>
       <c r="O284" s="424"/>
     </row>
-    <row r="287" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="288" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A285" s="423"/>
+      <c r="B285" s="428">
+        <v>7</v>
+      </c>
+      <c r="C285" s="462" t="s">
+        <v>307</v>
+      </c>
+      <c r="D285" s="462" t="s">
+        <v>313</v>
+      </c>
+      <c r="E285" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F285" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G285" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H285" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I285" s="472">
+        <v>256</v>
+      </c>
+      <c r="J285" s="463"/>
+      <c r="K285" s="477"/>
+      <c r="L285" s="422"/>
+      <c r="M285" s="422"/>
+      <c r="N285" s="422"/>
+      <c r="O285" s="424"/>
+    </row>
+    <row r="286" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A286" s="423"/>
+      <c r="B286" s="428">
+        <v>8</v>
+      </c>
+      <c r="C286" s="462" t="s">
+        <v>308</v>
+      </c>
+      <c r="D286" s="462" t="s">
+        <v>314</v>
+      </c>
+      <c r="E286" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F286" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G286" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H286" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I286" s="472">
+        <v>256</v>
+      </c>
+      <c r="J286" s="463"/>
+      <c r="K286" s="477"/>
+      <c r="L286" s="422"/>
+      <c r="M286" s="422"/>
+      <c r="N286" s="422"/>
+      <c r="O286" s="424"/>
+    </row>
+    <row r="287" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A287" s="423"/>
+      <c r="B287" s="428">
+        <v>9</v>
+      </c>
+      <c r="C287" s="462" t="s">
+        <v>309</v>
+      </c>
+      <c r="D287" s="462" t="s">
+        <v>315</v>
+      </c>
+      <c r="E287" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F287" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G287" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H287" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I287" s="472">
+        <v>256</v>
+      </c>
+      <c r="J287" s="463"/>
+      <c r="K287" s="477"/>
+      <c r="L287" s="422"/>
+      <c r="M287" s="422"/>
+      <c r="N287" s="422"/>
+      <c r="O287" s="424"/>
+    </row>
+    <row r="288" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A288" s="423"/>
-      <c r="B288" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C288" s="470"/>
-      <c r="D288" s="170" t="s">
-        <v>327</v>
-      </c>
-      <c r="E288" s="171"/>
-      <c r="F288" s="171"/>
-      <c r="G288" s="172"/>
-      <c r="H288" s="470"/>
-      <c r="I288" s="470"/>
-      <c r="J288" s="470"/>
-      <c r="K288" s="470"/>
+      <c r="B288" s="428">
+        <v>10</v>
+      </c>
+      <c r="C288" s="462" t="s">
+        <v>319</v>
+      </c>
+      <c r="D288" s="462" t="s">
+        <v>322</v>
+      </c>
+      <c r="E288" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F288" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G288" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H288" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I288" s="472">
+        <v>256</v>
+      </c>
+      <c r="J288" s="463"/>
+      <c r="K288" s="477"/>
       <c r="L288" s="422"/>
       <c r="M288" s="422"/>
       <c r="N288" s="422"/>
       <c r="O288" s="424"/>
     </row>
-    <row r="289" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A289" s="423"/>
-      <c r="B289" s="422"/>
-      <c r="C289" s="422"/>
-      <c r="D289" s="422"/>
-      <c r="E289" s="422"/>
-      <c r="F289" s="422"/>
-      <c r="G289" s="422"/>
-      <c r="H289" s="422"/>
-      <c r="I289" s="422"/>
-      <c r="J289" s="422"/>
-      <c r="K289" s="422"/>
+      <c r="B289" s="428">
+        <v>11</v>
+      </c>
+      <c r="C289" s="462" t="s">
+        <v>320</v>
+      </c>
+      <c r="D289" s="462" t="s">
+        <v>323</v>
+      </c>
+      <c r="E289" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F289" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G289" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H289" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I289" s="472">
+        <v>256</v>
+      </c>
+      <c r="J289" s="463"/>
+      <c r="K289" s="477"/>
       <c r="L289" s="422"/>
       <c r="M289" s="422"/>
       <c r="N289" s="422"/>
@@ -26117,79 +26477,82 @@
     </row>
     <row r="290" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A290" s="423"/>
-      <c r="B290" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C290" s="426" t="s">
-        <v>30</v>
-      </c>
-      <c r="D290" s="426" t="s">
-        <v>31</v>
-      </c>
-      <c r="E290" s="426" t="s">
-        <v>32</v>
-      </c>
-      <c r="F290" s="426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G290" s="426" t="s">
-        <v>34</v>
-      </c>
-      <c r="H290" s="426" t="s">
-        <v>35</v>
-      </c>
-      <c r="I290" s="426" t="s">
-        <v>36</v>
-      </c>
-      <c r="J290" s="426" t="s">
-        <v>37</v>
-      </c>
-      <c r="K290" s="427" t="s">
-        <v>38</v>
-      </c>
+      <c r="B290" s="428">
+        <v>12</v>
+      </c>
+      <c r="C290" s="462" t="s">
+        <v>321</v>
+      </c>
+      <c r="D290" s="462" t="s">
+        <v>324</v>
+      </c>
+      <c r="E290" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F290" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G290" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H290" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I290" s="472">
+        <v>256</v>
+      </c>
+      <c r="J290" s="463"/>
+      <c r="K290" s="477"/>
       <c r="L290" s="422"/>
       <c r="M290" s="422"/>
       <c r="N290" s="422"/>
       <c r="O290" s="424"/>
     </row>
     <row r="291" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B291" s="473">
-        <v>1</v>
-      </c>
-      <c r="C291" s="474" t="s">
-        <v>238</v>
-      </c>
-      <c r="D291" s="474" t="s">
-        <v>239</v>
-      </c>
-      <c r="E291" s="476" t="s">
+      <c r="A291" s="423"/>
+      <c r="B291" s="428">
+        <v>13</v>
+      </c>
+      <c r="C291" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D291" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E291" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F291" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G291" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="F291" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="G291" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="H291" s="474" t="s">
+      <c r="H291" s="431" t="s">
         <v>147</v>
       </c>
-      <c r="I291" s="476">
+      <c r="I291" s="430">
         <v>11</v>
       </c>
-      <c r="J291" s="474"/>
-      <c r="K291" s="475"/>
+      <c r="J291" s="430"/>
+      <c r="K291" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L291" s="422"/>
+      <c r="M291" s="422"/>
+      <c r="N291" s="422"/>
+      <c r="O291" s="424"/>
     </row>
     <row r="292" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A292" s="465"/>
-      <c r="B292" s="276">
-        <v>2</v>
-      </c>
-      <c r="C292" s="429" t="s">
-        <v>331</v>
-      </c>
-      <c r="D292" s="429" t="s">
-        <v>328</v>
+      <c r="B292" s="428">
+        <v>14</v>
+      </c>
+      <c r="C292" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D292" s="456" t="s">
+        <v>159</v>
       </c>
       <c r="E292" s="430" t="s">
         <v>146</v>
@@ -26197,354 +26560,996 @@
       <c r="F292" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="G292" s="430" t="s">
+      <c r="G292" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H292" s="431" t="s">
+      <c r="H292" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I292" s="430">
-        <v>256</v>
-      </c>
-      <c r="J292" s="430"/>
-      <c r="K292" s="452"/>
-      <c r="L292" s="470"/>
+      <c r="I292" s="457">
+        <v>10</v>
+      </c>
+      <c r="J292" s="457"/>
+      <c r="K292" s="459"/>
+      <c r="L292" s="422"/>
       <c r="M292" s="422"/>
       <c r="N292" s="422"/>
       <c r="O292" s="424"/>
     </row>
     <row r="293" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A293" s="465"/>
-      <c r="B293" s="276">
-        <v>3</v>
-      </c>
-      <c r="C293" s="462" t="s">
-        <v>332</v>
-      </c>
-      <c r="D293" s="462" t="s">
-        <v>312</v>
+      <c r="A293" s="423"/>
+      <c r="B293" s="428">
+        <v>15</v>
+      </c>
+      <c r="C293" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D293" s="449" t="s">
+        <v>160</v>
       </c>
       <c r="E293" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F293" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G293" s="430" t="s">
+      <c r="F293" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G293" s="450" t="s">
         <v>145</v>
       </c>
-      <c r="H293" s="431" t="s">
+      <c r="H293" s="451" t="s">
         <v>148</v>
       </c>
-      <c r="I293" s="430">
+      <c r="I293" s="450">
         <v>256</v>
       </c>
-      <c r="J293" s="537"/>
+      <c r="J293" s="450"/>
       <c r="K293" s="452"/>
-      <c r="L293" s="470"/>
+      <c r="L293" s="422"/>
       <c r="M293" s="422"/>
       <c r="N293" s="422"/>
       <c r="O293" s="424"/>
     </row>
     <row r="294" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A294" s="465"/>
-      <c r="B294" s="276">
-        <v>4</v>
-      </c>
-      <c r="C294" s="462" t="s">
-        <v>307</v>
-      </c>
-      <c r="D294" s="462" t="s">
-        <v>313</v>
+      <c r="A294" s="422"/>
+      <c r="B294" s="428">
+        <v>16</v>
+      </c>
+      <c r="C294" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D294" s="449" t="s">
+        <v>158</v>
       </c>
       <c r="E294" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F294" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G294" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H294" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I294" s="430">
-        <v>256</v>
-      </c>
-      <c r="J294" s="537"/>
+      <c r="F294" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G294" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H294" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I294" s="450">
+        <v>11</v>
+      </c>
+      <c r="J294" s="450"/>
       <c r="K294" s="452"/>
-      <c r="L294" s="470"/>
+      <c r="L294" s="422"/>
       <c r="M294" s="422"/>
       <c r="N294" s="422"/>
       <c r="O294" s="424"/>
     </row>
-    <row r="295" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="423"/>
-      <c r="B295" s="428">
-        <v>5</v>
-      </c>
-      <c r="C295" s="462" t="s">
-        <v>282</v>
-      </c>
-      <c r="D295" s="462" t="s">
-        <v>284</v>
-      </c>
-      <c r="E295" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F295" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G295" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H295" s="462" t="s">
+      <c r="B295" s="434">
+        <v>17</v>
+      </c>
+      <c r="C295" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D295" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E295" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F295" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G295" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H295" s="437" t="s">
         <v>148</v>
       </c>
-      <c r="I295" s="472">
+      <c r="I295" s="436">
         <v>256</v>
       </c>
-      <c r="J295" s="463"/>
-      <c r="K295" s="464"/>
+      <c r="J295" s="436"/>
+      <c r="K295" s="438"/>
       <c r="L295" s="422"/>
       <c r="M295" s="422"/>
       <c r="N295" s="422"/>
       <c r="O295" s="424"/>
     </row>
-    <row r="296" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A296" s="423"/>
-      <c r="B296" s="461">
-        <v>6</v>
-      </c>
-      <c r="C296" s="462" t="s">
-        <v>283</v>
-      </c>
-      <c r="D296" s="462" t="s">
-        <v>285</v>
-      </c>
-      <c r="E296" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F296" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G296" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H296" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I296" s="472">
-        <v>256</v>
-      </c>
-      <c r="J296" s="463"/>
-      <c r="K296" s="464"/>
-      <c r="L296" s="422"/>
-      <c r="M296" s="422"/>
-      <c r="N296" s="422"/>
-      <c r="O296" s="424"/>
-    </row>
-    <row r="297" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A297" s="423"/>
-      <c r="B297" s="461">
-        <v>7</v>
-      </c>
-      <c r="C297" s="462" t="s">
-        <v>329</v>
-      </c>
-      <c r="D297" s="462" t="s">
-        <v>330</v>
-      </c>
-      <c r="E297" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F297" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G297" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H297" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I297" s="472">
-        <v>20</v>
-      </c>
-      <c r="J297" s="463"/>
-      <c r="K297" s="464"/>
-      <c r="L297" s="422"/>
-      <c r="M297" s="422"/>
-      <c r="N297" s="422"/>
-      <c r="O297" s="424"/>
-    </row>
-    <row r="298" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A298" s="465"/>
-      <c r="B298" s="428">
-        <v>8</v>
-      </c>
-      <c r="C298" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D298" s="429" t="s">
-        <v>167</v>
-      </c>
-      <c r="E298" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F298" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G298" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H298" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I298" s="430">
-        <v>11</v>
-      </c>
-      <c r="J298" s="430"/>
-      <c r="K298" s="288" t="s">
-        <v>168</v>
-      </c>
-      <c r="L298" s="470"/>
-      <c r="M298" s="470"/>
-      <c r="N298" s="470"/>
-      <c r="O298" s="471"/>
-    </row>
-    <row r="299" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="299" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="423"/>
-      <c r="B299" s="428">
-        <v>9</v>
-      </c>
-      <c r="C299" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D299" s="456" t="s">
-        <v>159</v>
-      </c>
-      <c r="E299" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F299" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G299" s="457" t="s">
-        <v>145</v>
-      </c>
-      <c r="H299" s="458" t="s">
-        <v>148</v>
-      </c>
-      <c r="I299" s="457">
-        <v>10</v>
-      </c>
-      <c r="J299" s="457"/>
-      <c r="K299" s="459"/>
+      <c r="B299" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C299" s="470"/>
+      <c r="D299" s="170" t="s">
+        <v>325</v>
+      </c>
+      <c r="E299" s="171"/>
+      <c r="F299" s="171"/>
+      <c r="G299" s="172"/>
+      <c r="H299" s="470"/>
+      <c r="I299" s="470"/>
+      <c r="J299" s="470"/>
+      <c r="K299" s="470"/>
       <c r="L299" s="422"/>
       <c r="M299" s="422"/>
       <c r="N299" s="422"/>
       <c r="O299" s="424"/>
     </row>
-    <row r="300" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A300" s="422"/>
-      <c r="B300" s="428">
-        <v>10</v>
-      </c>
-      <c r="C300" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D300" s="449" t="s">
-        <v>160</v>
-      </c>
-      <c r="E300" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F300" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G300" s="450" t="s">
-        <v>145</v>
-      </c>
-      <c r="H300" s="451" t="s">
-        <v>148</v>
-      </c>
-      <c r="I300" s="450">
-        <v>256</v>
-      </c>
-      <c r="J300" s="450"/>
-      <c r="K300" s="452"/>
+    <row r="300" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="423"/>
+      <c r="B300" s="422"/>
+      <c r="C300" s="422"/>
+      <c r="D300" s="422"/>
+      <c r="E300" s="422"/>
+      <c r="F300" s="422"/>
+      <c r="G300" s="422"/>
+      <c r="H300" s="422"/>
+      <c r="I300" s="422"/>
+      <c r="J300" s="422"/>
+      <c r="K300" s="422"/>
       <c r="L300" s="422"/>
       <c r="M300" s="422"/>
       <c r="N300" s="422"/>
       <c r="O300" s="424"/>
     </row>
     <row r="301" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A301" s="422"/>
-      <c r="B301" s="428">
-        <v>11</v>
-      </c>
-      <c r="C301" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D301" s="449" t="s">
-        <v>158</v>
-      </c>
-      <c r="E301" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F301" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G301" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H301" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I301" s="450">
-        <v>11</v>
-      </c>
-      <c r="J301" s="450"/>
-      <c r="K301" s="452"/>
+      <c r="A301" s="423"/>
+      <c r="B301" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D301" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E301" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F301" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G301" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H301" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I301" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J301" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K301" s="427" t="s">
+        <v>38</v>
+      </c>
       <c r="L301" s="422"/>
       <c r="M301" s="422"/>
       <c r="N301" s="422"/>
       <c r="O301" s="424"/>
     </row>
-    <row r="302" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A302" s="423"/>
-      <c r="B302" s="434">
+    <row r="302" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B302" s="473">
+        <v>1</v>
+      </c>
+      <c r="C302" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D302" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E302" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="F302" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G302" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H302" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I302" s="476">
+        <v>11</v>
+      </c>
+      <c r="J302" s="474"/>
+      <c r="K302" s="475"/>
+    </row>
+    <row r="303" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B303" s="574">
+        <v>2</v>
+      </c>
+      <c r="C303" s="474" t="s">
+        <v>348</v>
+      </c>
+      <c r="D303" s="474" t="s">
+        <v>349</v>
+      </c>
+      <c r="E303" s="476"/>
+      <c r="F303" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="G303" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H303" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I303" s="476">
+        <v>11</v>
+      </c>
+      <c r="J303" s="474"/>
+      <c r="K303" s="575"/>
+    </row>
+    <row r="304" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A304" s="465"/>
+      <c r="B304" s="276">
+        <v>3</v>
+      </c>
+      <c r="C304" s="429" t="s">
+        <v>328</v>
+      </c>
+      <c r="D304" s="429" t="s">
+        <v>326</v>
+      </c>
+      <c r="E304" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F304" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G304" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H304" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I304" s="430">
+        <v>256</v>
+      </c>
+      <c r="J304" s="430"/>
+      <c r="K304" s="452"/>
+      <c r="L304" s="470"/>
+      <c r="M304" s="422"/>
+      <c r="N304" s="422"/>
+      <c r="O304" s="424"/>
+    </row>
+    <row r="305" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A305" s="465"/>
+      <c r="B305" s="276">
+        <v>4</v>
+      </c>
+      <c r="C305" s="462" t="s">
+        <v>329</v>
+      </c>
+      <c r="D305" s="462" t="s">
+        <v>311</v>
+      </c>
+      <c r="E305" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F305" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G305" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H305" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I305" s="430">
+        <v>256</v>
+      </c>
+      <c r="J305" s="537"/>
+      <c r="K305" s="452"/>
+      <c r="L305" s="470"/>
+      <c r="M305" s="422"/>
+      <c r="N305" s="422"/>
+      <c r="O305" s="424"/>
+    </row>
+    <row r="306" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A306" s="465"/>
+      <c r="B306" s="276">
+        <v>5</v>
+      </c>
+      <c r="C306" s="462" t="s">
+        <v>306</v>
+      </c>
+      <c r="D306" s="462" t="s">
+        <v>312</v>
+      </c>
+      <c r="E306" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F306" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G306" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H306" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I306" s="430">
+        <v>256</v>
+      </c>
+      <c r="J306" s="537"/>
+      <c r="K306" s="452"/>
+      <c r="L306" s="470"/>
+      <c r="M306" s="422"/>
+      <c r="N306" s="422"/>
+      <c r="O306" s="424"/>
+    </row>
+    <row r="307" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A307" s="423"/>
+      <c r="B307" s="428">
+        <v>6</v>
+      </c>
+      <c r="C307" s="462" t="s">
+        <v>282</v>
+      </c>
+      <c r="D307" s="462" t="s">
+        <v>284</v>
+      </c>
+      <c r="E307" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F307" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G307" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H307" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I307" s="472">
+        <v>256</v>
+      </c>
+      <c r="J307" s="463"/>
+      <c r="K307" s="464"/>
+      <c r="L307" s="422"/>
+      <c r="M307" s="422"/>
+      <c r="N307" s="422"/>
+      <c r="O307" s="424"/>
+    </row>
+    <row r="308" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A308" s="423"/>
+      <c r="B308" s="461">
+        <v>7</v>
+      </c>
+      <c r="C308" s="462" t="s">
+        <v>283</v>
+      </c>
+      <c r="D308" s="462" t="s">
+        <v>285</v>
+      </c>
+      <c r="E308" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F308" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G308" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H308" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I308" s="472">
+        <v>256</v>
+      </c>
+      <c r="J308" s="463"/>
+      <c r="K308" s="464"/>
+      <c r="L308" s="422"/>
+      <c r="M308" s="422"/>
+      <c r="N308" s="422"/>
+      <c r="O308" s="424"/>
+    </row>
+    <row r="309" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A309" s="423"/>
+      <c r="B309" s="461">
+        <v>8</v>
+      </c>
+      <c r="C309" s="462" t="s">
+        <v>346</v>
+      </c>
+      <c r="D309" s="462" t="s">
+        <v>327</v>
+      </c>
+      <c r="E309" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F309" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G309" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H309" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I309" s="472">
+        <v>20</v>
+      </c>
+      <c r="J309" s="463"/>
+      <c r="K309" s="464"/>
+      <c r="L309" s="422"/>
+      <c r="M309" s="422"/>
+      <c r="N309" s="422"/>
+      <c r="O309" s="424"/>
+    </row>
+    <row r="310" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A310" s="465"/>
+      <c r="B310" s="428">
+        <v>9</v>
+      </c>
+      <c r="C310" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D310" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E310" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F310" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G310" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H310" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I310" s="430">
+        <v>11</v>
+      </c>
+      <c r="J310" s="430"/>
+      <c r="K310" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L310" s="470"/>
+      <c r="M310" s="470"/>
+      <c r="N310" s="470"/>
+      <c r="O310" s="471"/>
+    </row>
+    <row r="311" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A311" s="423"/>
+      <c r="B311" s="428">
+        <v>10</v>
+      </c>
+      <c r="C311" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D311" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E311" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F311" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G311" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H311" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I311" s="457">
+        <v>10</v>
+      </c>
+      <c r="J311" s="457"/>
+      <c r="K311" s="459"/>
+      <c r="L311" s="422"/>
+      <c r="M311" s="422"/>
+      <c r="N311" s="422"/>
+      <c r="O311" s="424"/>
+    </row>
+    <row r="312" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A312" s="422"/>
+      <c r="B312" s="428">
+        <v>11</v>
+      </c>
+      <c r="C312" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D312" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E312" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F312" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G312" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H312" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I312" s="450">
+        <v>256</v>
+      </c>
+      <c r="J312" s="450"/>
+      <c r="K312" s="452"/>
+      <c r="L312" s="422"/>
+      <c r="M312" s="422"/>
+      <c r="N312" s="422"/>
+      <c r="O312" s="424"/>
+    </row>
+    <row r="313" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A313" s="422"/>
+      <c r="B313" s="428">
         <v>12</v>
       </c>
-      <c r="C302" s="435" t="s">
+      <c r="C313" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D313" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E313" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F313" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G313" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H313" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I313" s="450">
+        <v>11</v>
+      </c>
+      <c r="J313" s="450"/>
+      <c r="K313" s="452"/>
+      <c r="L313" s="422"/>
+      <c r="M313" s="422"/>
+      <c r="N313" s="422"/>
+      <c r="O313" s="424"/>
+    </row>
+    <row r="314" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A314" s="423"/>
+      <c r="B314" s="434">
+        <v>13</v>
+      </c>
+      <c r="C314" s="435" t="s">
         <v>157</v>
       </c>
-      <c r="D302" s="435" t="s">
+      <c r="D314" s="435" t="s">
         <v>161</v>
       </c>
-      <c r="E302" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F302" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G302" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H302" s="437" t="s">
+      <c r="E314" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F314" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G314" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H314" s="437" t="s">
         <v>148</v>
       </c>
-      <c r="I302" s="436">
+      <c r="I314" s="436">
         <v>256</v>
       </c>
-      <c r="J302" s="436"/>
-      <c r="K302" s="438"/>
-      <c r="L302" s="422"/>
-      <c r="M302" s="422"/>
-      <c r="N302" s="422"/>
-      <c r="O302" s="424"/>
-    </row>
+      <c r="J314" s="436"/>
+      <c r="K314" s="438"/>
+      <c r="L314" s="422"/>
+      <c r="M314" s="422"/>
+      <c r="N314" s="422"/>
+      <c r="O314" s="424"/>
+    </row>
+    <row r="318" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="319" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A319" s="423"/>
+      <c r="B319" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C319" s="470"/>
+      <c r="D319" s="170" t="s">
+        <v>339</v>
+      </c>
+      <c r="E319" s="171"/>
+      <c r="F319" s="171"/>
+      <c r="G319" s="172"/>
+      <c r="H319" s="470"/>
+      <c r="I319" s="470"/>
+      <c r="J319" s="470"/>
+      <c r="K319" s="470"/>
+      <c r="L319" s="422"/>
+    </row>
+    <row r="320" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="423"/>
+      <c r="B320" s="422"/>
+      <c r="C320" s="422"/>
+      <c r="D320" s="422"/>
+      <c r="E320" s="422"/>
+      <c r="F320" s="422"/>
+      <c r="G320" s="422"/>
+      <c r="H320" s="422"/>
+      <c r="I320" s="422"/>
+      <c r="J320" s="422"/>
+      <c r="K320" s="422"/>
+      <c r="L320" s="422"/>
+    </row>
+    <row r="321" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A321" s="423"/>
+      <c r="B321" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D321" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E321" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F321" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G321" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H321" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I321" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J321" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K321" s="427" t="s">
+        <v>38</v>
+      </c>
+      <c r="L321" s="422"/>
+    </row>
+    <row r="322" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B322" s="473">
+        <v>1</v>
+      </c>
+      <c r="C322" s="474" t="s">
+        <v>238</v>
+      </c>
+      <c r="D322" s="474" t="s">
+        <v>239</v>
+      </c>
+      <c r="E322" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="F322" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="G322" s="476" t="s">
+        <v>145</v>
+      </c>
+      <c r="H322" s="474" t="s">
+        <v>147</v>
+      </c>
+      <c r="I322" s="476">
+        <v>11</v>
+      </c>
+      <c r="J322" s="474"/>
+      <c r="K322" s="475"/>
+    </row>
+    <row r="323" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A323" s="465"/>
+      <c r="B323" s="276">
+        <v>2</v>
+      </c>
+      <c r="C323" s="429" t="s">
+        <v>340</v>
+      </c>
+      <c r="D323" s="429" t="s">
+        <v>343</v>
+      </c>
+      <c r="E323" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F323" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G323" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H323" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I323" s="430">
+        <v>11</v>
+      </c>
+      <c r="J323" s="430"/>
+      <c r="K323" s="452"/>
+      <c r="L323" s="470"/>
+    </row>
+    <row r="324" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A324" s="423"/>
+      <c r="B324" s="428">
+        <v>3</v>
+      </c>
+      <c r="C324" s="462" t="s">
+        <v>341</v>
+      </c>
+      <c r="D324" s="462" t="s">
+        <v>344</v>
+      </c>
+      <c r="E324" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F324" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G324" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H324" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I324" s="472">
+        <v>256</v>
+      </c>
+      <c r="J324" s="463"/>
+      <c r="K324" s="464"/>
+      <c r="L324" s="422"/>
+    </row>
+    <row r="325" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A325" s="423"/>
+      <c r="B325" s="461">
+        <v>4</v>
+      </c>
+      <c r="C325" s="462" t="s">
+        <v>342</v>
+      </c>
+      <c r="D325" s="462" t="s">
+        <v>345</v>
+      </c>
+      <c r="E325" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F325" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G325" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H325" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I325" s="472">
+        <v>1024</v>
+      </c>
+      <c r="J325" s="463"/>
+      <c r="K325" s="464"/>
+      <c r="L325" s="422"/>
+    </row>
+    <row r="326" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A326" s="423"/>
+      <c r="B326" s="461">
+        <v>5</v>
+      </c>
+      <c r="C326" s="462" t="s">
+        <v>198</v>
+      </c>
+      <c r="D326" s="462"/>
+      <c r="E326" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F326" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G326" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H326" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I326" s="472">
+        <v>11</v>
+      </c>
+      <c r="J326" s="463"/>
+      <c r="K326" s="477"/>
+      <c r="L326" s="422"/>
+    </row>
+    <row r="327" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A327" s="465"/>
+      <c r="B327" s="428">
+        <v>6</v>
+      </c>
+      <c r="C327" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D327" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E327" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F327" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G327" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H327" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I327" s="430">
+        <v>11</v>
+      </c>
+      <c r="J327" s="430"/>
+      <c r="K327" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L327" s="470"/>
+    </row>
+    <row r="328" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A328" s="423"/>
+      <c r="B328" s="428">
+        <v>7</v>
+      </c>
+      <c r="C328" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D328" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E328" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F328" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G328" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H328" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I328" s="457">
+        <v>10</v>
+      </c>
+      <c r="J328" s="457"/>
+      <c r="K328" s="459"/>
+      <c r="L328" s="422"/>
+    </row>
+    <row r="329" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A329" s="422"/>
+      <c r="B329" s="428">
+        <v>8</v>
+      </c>
+      <c r="C329" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D329" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E329" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F329" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G329" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H329" s="451" t="s">
+        <v>148</v>
+      </c>
+      <c r="I329" s="450">
+        <v>256</v>
+      </c>
+      <c r="J329" s="450"/>
+      <c r="K329" s="452"/>
+      <c r="L329" s="422"/>
+    </row>
+    <row r="330" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A330" s="422"/>
+      <c r="B330" s="428">
+        <v>9</v>
+      </c>
+      <c r="C330" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D330" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E330" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F330" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G330" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H330" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I330" s="450">
+        <v>11</v>
+      </c>
+      <c r="J330" s="450"/>
+      <c r="K330" s="452"/>
+      <c r="L330" s="422"/>
+    </row>
+    <row r="331" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A331" s="423"/>
+      <c r="B331" s="434">
+        <v>10</v>
+      </c>
+      <c r="C331" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D331" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E331" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F331" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G331" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H331" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I331" s="436">
+        <v>256</v>
+      </c>
+      <c r="J331" s="436"/>
+      <c r="K331" s="438"/>
+      <c r="L331" s="422"/>
+    </row>
+    <row r="332" spans="1:12" s="421" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="423"/>
+      <c r="B332" s="422"/>
+      <c r="C332" s="422"/>
+      <c r="D332" s="422"/>
+      <c r="E332" s="422"/>
+      <c r="F332" s="422"/>
+      <c r="G332" s="422"/>
+      <c r="H332" s="422"/>
+      <c r="I332" s="422"/>
+      <c r="J332" s="422"/>
+      <c r="K332" s="422"/>
+      <c r="L332" s="422"/>
+    </row>
+    <row r="333" spans="1:12" s="421" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\htdocs\YadnarThike\02.DesignDocument\02.DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6F9BF9-F151-42E1-A26C-14B41FAE1C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -22,10 +23,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$337</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$339</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$106</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="365">
   <si>
     <t>No</t>
   </si>
@@ -716,12 +717,6 @@
     <t>Website Info "add admin"</t>
   </si>
   <si>
-    <t>Privicy "Privicy &amp; policy"</t>
-  </si>
-  <si>
-    <t>Privicy "Service"</t>
-  </si>
-  <si>
     <t>Privicy "FAQ list"</t>
   </si>
   <si>
@@ -998,9 +993,6 @@
     <t>Open_time &amp; Close_time</t>
   </si>
   <si>
-    <t>Admim</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
@@ -1040,12 +1032,6 @@
     <t>shop_name</t>
   </si>
   <si>
-    <t>Privicy "Delivery fee"</t>
-  </si>
-  <si>
-    <t>Delivery Fees</t>
-  </si>
-  <si>
     <t>service's icon</t>
   </si>
   <si>
@@ -1119,17 +1105,56 @@
   </si>
   <si>
     <t>FAQ's id</t>
+  </si>
+  <si>
+    <t>Delivery Contrtol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guide </t>
+  </si>
+  <si>
+    <t>Privicy "Privicy &amp; policy list"</t>
+  </si>
+  <si>
+    <t>Privicy "Delivery control list"</t>
+  </si>
+  <si>
+    <t>Privicy "Service list"</t>
+  </si>
+  <si>
+    <t>Privicy "Guide list"</t>
+  </si>
+  <si>
+    <t>Privicy "Guide add"</t>
+  </si>
+  <si>
+    <t>Privicy "Privicy &amp; policy add"</t>
+  </si>
+  <si>
+    <t>Privicy "Delivery Control add"</t>
+  </si>
+  <si>
+    <t>Privicy "Service add"</t>
+  </si>
+  <si>
+    <t>shop's slider</t>
+  </si>
+  <si>
+    <t>slider_1</t>
+  </si>
+  <si>
+    <t>slider_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1284,8 +1309,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1355,6 +1386,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,7 +2055,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="576">
+  <cellXfs count="588">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2899,6 +2942,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3003,14 +3048,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3046,7 +3101,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3164,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3221,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3229,7 +3284,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3292,7 +3347,7 @@
         <xdr:cNvPr id="114" name="Diamond 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3415,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3471,7 @@
         <xdr:cNvPr id="202" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3534,7 @@
         <xdr:cNvPr id="145" name="Rectangle 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3547,7 +3602,7 @@
         <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3603,7 +3658,7 @@
         <xdr:cNvPr id="222" name="Rectangle 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3666,7 +3721,7 @@
         <xdr:cNvPr id="223" name="Rectangle 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3729,7 +3784,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3792,7 +3847,7 @@
         <xdr:cNvPr id="225" name="Rectangle 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,7 +3910,7 @@
         <xdr:cNvPr id="226" name="Rectangle 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3918,7 +3973,7 @@
         <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3974,7 +4029,7 @@
         <xdr:cNvPr id="203" name="Connector: Elbow 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4085,7 @@
         <xdr:cNvPr id="204" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4100,7 +4155,7 @@
         <xdr:cNvPr id="277" name="Rectangle 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4184,7 +4239,7 @@
         <xdr:cNvPr id="291" name="Rectangle 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4247,7 +4302,7 @@
         <xdr:cNvPr id="293" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +4370,7 @@
         <xdr:cNvPr id="300" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4397,7 +4452,7 @@
         <xdr:cNvPr id="301" name="Rectangle 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +4527,7 @@
         <xdr:cNvPr id="302" name="Rectangle 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4542,7 +4597,7 @@
         <xdr:cNvPr id="303" name="Rectangle 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,7 +4689,7 @@
         <xdr:cNvPr id="304" name="Rectangle 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4714,11 +4769,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- Delivery</a:t>
+            <a:t>- Guide</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Control</a:t>
+            <a:t> Change</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
@@ -4782,7 +4837,7 @@
         <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4838,7 +4893,7 @@
         <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4894,7 +4949,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4950,7 +5005,7 @@
         <xdr:cNvPr id="245" name="Straight Arrow Connector 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5006,7 +5061,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5062,7 +5117,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5118,7 +5173,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5174,7 +5229,7 @@
         <xdr:cNvPr id="344" name="Rectangle 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5237,7 +5292,7 @@
         <xdr:cNvPr id="272" name="Straight Arrow Connector 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5293,7 +5348,7 @@
         <xdr:cNvPr id="348" name="Rectangle 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5356,7 +5411,7 @@
         <xdr:cNvPr id="349" name="Rectangle 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5419,7 +5474,7 @@
         <xdr:cNvPr id="350" name="Rectangle 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5487,7 +5542,7 @@
         <xdr:cNvPr id="353" name="Rectangle 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5550,7 +5605,7 @@
         <xdr:cNvPr id="354" name="Rectangle 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5613,7 +5668,7 @@
         <xdr:cNvPr id="275" name="Connector: Elbow 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5669,7 +5724,7 @@
         <xdr:cNvPr id="284" name="Connector: Elbow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5725,7 +5780,7 @@
         <xdr:cNvPr id="286" name="Connector: Elbow 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5781,7 +5836,7 @@
         <xdr:cNvPr id="288" name="Connector: Elbow 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5837,7 +5892,7 @@
         <xdr:cNvPr id="290" name="Connector: Elbow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5893,7 +5948,7 @@
         <xdr:cNvPr id="297" name="Connector: Elbow 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5949,7 +6004,7 @@
         <xdr:cNvPr id="299" name="Connector: Elbow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6005,7 +6060,7 @@
         <xdr:cNvPr id="306" name="Connector: Elbow 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6061,7 +6116,7 @@
         <xdr:cNvPr id="308" name="Connector: Elbow 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6117,7 +6172,7 @@
         <xdr:cNvPr id="310" name="Connector: Elbow 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6173,7 +6228,7 @@
         <xdr:cNvPr id="312" name="Straight Arrow Connector 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6229,7 +6284,7 @@
         <xdr:cNvPr id="320" name="Straight Arrow Connector 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6285,7 +6340,7 @@
         <xdr:cNvPr id="322" name="Rectangle 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6348,7 +6403,7 @@
         <xdr:cNvPr id="395" name="Rectangle 394">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6411,7 +6466,7 @@
         <xdr:cNvPr id="396" name="Rectangle 395">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6474,7 +6529,7 @@
         <xdr:cNvPr id="399" name="Rectangle 398">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6542,7 +6597,7 @@
         <xdr:cNvPr id="402" name="Rectangle 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6610,7 +6665,7 @@
         <xdr:cNvPr id="403" name="Rectangle 402">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6678,7 +6733,7 @@
         <xdr:cNvPr id="324" name="Connector: Elbow 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6736,7 +6791,7 @@
         <xdr:cNvPr id="326" name="Connector: Elbow 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6794,7 +6849,7 @@
         <xdr:cNvPr id="328" name="Connector: Elbow 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6852,7 +6907,7 @@
         <xdr:cNvPr id="330" name="Straight Arrow Connector 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6908,7 +6963,7 @@
         <xdr:cNvPr id="333" name="Straight Arrow Connector 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6964,7 +7019,7 @@
         <xdr:cNvPr id="336" name="Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7020,7 +7075,7 @@
         <xdr:cNvPr id="337" name="Diamond 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7083,7 +7138,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7139,7 +7194,7 @@
         <xdr:cNvPr id="345" name="Connector: Elbow 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7195,7 +7250,7 @@
         <xdr:cNvPr id="357" name="Rectangle 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7258,7 +7313,7 @@
         <xdr:cNvPr id="359" name="Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7314,7 +7369,7 @@
         <xdr:cNvPr id="434" name="Rectangle 433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7377,7 +7432,7 @@
         <xdr:cNvPr id="364" name="Connector: Elbow 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7433,7 +7488,7 @@
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7490,7 +7545,7 @@
         <xdr:cNvPr id="450" name="Rectangle 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7553,7 +7608,7 @@
         <xdr:cNvPr id="376" name="Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7610,7 +7665,7 @@
         <xdr:cNvPr id="464" name="Diamond 463">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7681,7 +7736,7 @@
         <xdr:cNvPr id="454" name="Straight Arrow Connector 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7738,7 +7793,7 @@
         <xdr:cNvPr id="461" name="Connector: Elbow 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7794,7 +7849,7 @@
         <xdr:cNvPr id="478" name="Rectangle 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,7 +7912,7 @@
         <xdr:cNvPr id="482" name="Rectangle 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7920,7 +7975,7 @@
         <xdr:cNvPr id="492" name="Rectangle 491">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7983,7 +8038,7 @@
         <xdr:cNvPr id="481" name="Connector: Elbow 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8039,7 +8094,7 @@
         <xdr:cNvPr id="488" name="Connector: Elbow 487">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8095,7 +8150,7 @@
         <xdr:cNvPr id="503" name="Rectangle 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8158,7 +8213,7 @@
         <xdr:cNvPr id="504" name="Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8221,7 +8276,7 @@
         <xdr:cNvPr id="506" name="Rectangle 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8284,7 +8339,7 @@
         <xdr:cNvPr id="493" name="Straight Arrow Connector 492">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8340,7 +8395,7 @@
         <xdr:cNvPr id="496" name="Connector: Elbow 495">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8399,7 +8454,7 @@
         <xdr:cNvPr id="500" name="Connector: Elbow 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8458,7 +8513,7 @@
         <xdr:cNvPr id="511" name="Connector: Elbow 510">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8516,7 +8571,7 @@
         <xdr:cNvPr id="386" name="Connector: Elbow 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8574,7 +8629,7 @@
         <xdr:cNvPr id="389" name="Connector: Elbow 388">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8632,7 +8687,7 @@
         <xdr:cNvPr id="412" name="Straight Arrow Connector 411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8688,7 +8743,7 @@
         <xdr:cNvPr id="549" name="Rectangle 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8756,7 +8811,7 @@
         <xdr:cNvPr id="416" name="Connector: Elbow 415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8812,7 +8867,7 @@
         <xdr:cNvPr id="557" name="Rectangle 556">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8875,7 +8930,7 @@
         <xdr:cNvPr id="558" name="Rectangle 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8938,7 +8993,7 @@
         <xdr:cNvPr id="559" name="Rectangle 558">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9006,7 +9061,7 @@
         <xdr:cNvPr id="560" name="Rectangle 559">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9069,7 +9124,7 @@
         <xdr:cNvPr id="561" name="Rectangle 560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9137,7 +9192,7 @@
         <xdr:cNvPr id="571" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9205,7 +9260,7 @@
         <xdr:cNvPr id="429" name="Straight Arrow Connector 428">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9261,7 +9316,7 @@
         <xdr:cNvPr id="431" name="Connector: Elbow 430">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9316,7 +9371,7 @@
         <xdr:cNvPr id="441" name="Connector: Elbow 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9372,7 +9427,7 @@
         <xdr:cNvPr id="444" name="Connector: Elbow 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9428,7 +9483,7 @@
         <xdr:cNvPr id="447" name="Straight Arrow Connector 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9484,7 +9539,7 @@
         <xdr:cNvPr id="603" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9548,7 +9603,7 @@
         <xdr:cNvPr id="526" name="Connector: Elbow 525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9604,7 +9659,7 @@
         <xdr:cNvPr id="536" name="Connector: Elbow 535">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9660,7 +9715,7 @@
         <xdr:cNvPr id="542" name="Connector: Elbow 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9720,7 +9775,7 @@
         <xdr:cNvPr id="625" name="Rectangle 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9788,7 +9843,7 @@
         <xdr:cNvPr id="627" name="Rectangle 626">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9851,7 +9906,7 @@
         <xdr:cNvPr id="565" name="Connector: Elbow 564">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9910,7 +9965,7 @@
         <xdr:cNvPr id="117" name="Rectangle 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9973,7 +10028,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9989,6 +10044,127 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>374787</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>740880</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>156786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Rectangle 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1F65BD-EFB7-BEFF-549F-9E4E36C12FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13662162" y="12738069"/>
+          <a:ext cx="1204293" cy="391767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Guide</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138734</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>166311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>576884</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165069</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connector: Elbow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D31A361-7A62-F6FA-A055-24AA616A93D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="557" idx="2"/>
+          <a:endCxn id="115" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15541280" y="11062290"/>
+          <a:ext cx="398808" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45223"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -10310,10 +10486,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10610,22 +10786,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="543" t="s">
+      <c r="A19" s="545" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="544"/>
-      <c r="C19" s="544"/>
-      <c r="D19" s="544"/>
-      <c r="E19" s="544"/>
-      <c r="F19" s="544"/>
-      <c r="G19" s="544"/>
-      <c r="H19" s="544"/>
-      <c r="I19" s="544"/>
-      <c r="J19" s="544"/>
-      <c r="K19" s="544"/>
-      <c r="L19" s="544"/>
-      <c r="M19" s="544"/>
-      <c r="N19" s="545"/>
+      <c r="B19" s="546"/>
+      <c r="C19" s="546"/>
+      <c r="D19" s="546"/>
+      <c r="E19" s="546"/>
+      <c r="F19" s="546"/>
+      <c r="G19" s="546"/>
+      <c r="H19" s="546"/>
+      <c r="I19" s="546"/>
+      <c r="J19" s="546"/>
+      <c r="K19" s="546"/>
+      <c r="L19" s="546"/>
+      <c r="M19" s="546"/>
+      <c r="N19" s="547"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -10660,22 +10836,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A22" s="540" t="s">
+      <c r="A22" s="542" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="541"/>
-      <c r="C22" s="541"/>
-      <c r="D22" s="541"/>
-      <c r="E22" s="541"/>
-      <c r="F22" s="541"/>
-      <c r="G22" s="541"/>
-      <c r="H22" s="541"/>
-      <c r="I22" s="541"/>
-      <c r="J22" s="541"/>
-      <c r="K22" s="541"/>
-      <c r="L22" s="541"/>
-      <c r="M22" s="541"/>
-      <c r="N22" s="542"/>
+      <c r="B22" s="543"/>
+      <c r="C22" s="543"/>
+      <c r="D22" s="543"/>
+      <c r="E22" s="543"/>
+      <c r="F22" s="543"/>
+      <c r="G22" s="543"/>
+      <c r="H22" s="543"/>
+      <c r="I22" s="543"/>
+      <c r="J22" s="543"/>
+      <c r="K22" s="543"/>
+      <c r="L22" s="543"/>
+      <c r="M22" s="543"/>
+      <c r="N22" s="544"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -10983,10 +11159,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
-      <c r="B42" s="538" t="s">
+      <c r="B42" s="540" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="538"/>
+      <c r="C42" s="540"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -11110,13 +11286,13 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="539" t="s">
+      <c r="K48" s="541" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="539"/>
+      <c r="L48" s="541"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.93344375</v>
+        <v>44703.986949652775</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11131,13 +11307,13 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="539" t="s">
+      <c r="K49" s="541" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="539"/>
+      <c r="L49" s="541"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44703.93344375</v>
+        <v>44703.986949652775</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -11187,7 +11363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
@@ -11200,54 +11376,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="546" t="s">
+      <c r="A2" s="548" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="550" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="552" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
-      <c r="K2" s="551"/>
-      <c r="L2" s="551"/>
-      <c r="M2" s="551"/>
-      <c r="N2" s="551"/>
+      <c r="D2" s="553"/>
+      <c r="E2" s="553"/>
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="553"/>
+      <c r="J2" s="553"/>
+      <c r="K2" s="553"/>
+      <c r="L2" s="553"/>
+      <c r="M2" s="553"/>
+      <c r="N2" s="553"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="554">
+      <c r="P2" s="556">
         <v>44698</v>
       </c>
-      <c r="Q2" s="555"/>
+      <c r="Q2" s="557"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="548"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="552"/>
-      <c r="D3" s="553"/>
-      <c r="E3" s="553"/>
-      <c r="F3" s="553"/>
-      <c r="G3" s="553"/>
-      <c r="H3" s="553"/>
-      <c r="I3" s="553"/>
-      <c r="J3" s="553"/>
-      <c r="K3" s="553"/>
-      <c r="L3" s="553"/>
-      <c r="M3" s="553"/>
-      <c r="N3" s="553"/>
+      <c r="A3" s="550"/>
+      <c r="B3" s="551"/>
+      <c r="C3" s="554"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="555"/>
+      <c r="F3" s="555"/>
+      <c r="G3" s="555"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="555"/>
+      <c r="K3" s="555"/>
+      <c r="L3" s="555"/>
+      <c r="M3" s="555"/>
+      <c r="N3" s="555"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="556">
+      <c r="P3" s="558">
         <v>44698</v>
       </c>
-      <c r="Q3" s="557"/>
+      <c r="Q3" s="559"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -12286,10 +12462,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="140" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12306,50 +12482,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="546" t="s">
+      <c r="A2" s="548" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="550" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="552" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
-      <c r="K2" s="551"/>
-      <c r="L2" s="551"/>
+      <c r="D2" s="553"/>
+      <c r="E2" s="553"/>
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="553"/>
+      <c r="J2" s="553"/>
+      <c r="K2" s="553"/>
+      <c r="L2" s="553"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="554">
+      <c r="N2" s="556">
         <v>44698</v>
       </c>
-      <c r="O2" s="555"/>
+      <c r="O2" s="557"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="548"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="552"/>
-      <c r="D3" s="553"/>
-      <c r="E3" s="553"/>
-      <c r="F3" s="553"/>
-      <c r="G3" s="553"/>
-      <c r="H3" s="553"/>
-      <c r="I3" s="553"/>
-      <c r="J3" s="553"/>
-      <c r="K3" s="553"/>
-      <c r="L3" s="553"/>
+      <c r="A3" s="550"/>
+      <c r="B3" s="551"/>
+      <c r="C3" s="554"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="555"/>
+      <c r="F3" s="555"/>
+      <c r="G3" s="555"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="555"/>
+      <c r="K3" s="555"/>
+      <c r="L3" s="555"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="556">
+      <c r="N3" s="558">
         <v>44698</v>
       </c>
-      <c r="O3" s="557"/>
+      <c r="O3" s="559"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -12440,7 +12616,7 @@
         <v>44701</v>
       </c>
       <c r="G7" s="46">
-        <f t="shared" ref="G7:G89" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G102" si="0">F7-E7</f>
         <v>3</v>
       </c>
       <c r="H7" s="47">
@@ -12450,7 +12626,7 @@
         <v>44698</v>
       </c>
       <c r="J7" s="48">
-        <f t="shared" ref="J7:J89" si="1">I7-H7</f>
+        <f t="shared" ref="J7:J102" si="1">I7-H7</f>
         <v>0</v>
       </c>
       <c r="K7" s="49">
@@ -12481,10 +12657,12 @@
       <c r="H8" s="47">
         <v>44698</v>
       </c>
-      <c r="I8" s="47"/>
+      <c r="I8" s="47">
+        <v>44703</v>
+      </c>
       <c r="J8" s="48">
         <f t="shared" si="1"/>
-        <v>-44698</v>
+        <v>5</v>
       </c>
       <c r="K8" s="448">
         <v>0.9</v>
@@ -12499,16 +12677,10 @@
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
-      <c r="G9" s="445">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G9" s="445"/>
       <c r="H9" s="91"/>
       <c r="I9" s="91"/>
-      <c r="J9" s="447">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="J9" s="447"/>
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -13007,7 +13179,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="D24" s="86" t="s">
         <v>108</v>
@@ -13042,7 +13214,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="D25" s="86" t="s">
         <v>108</v>
@@ -13077,7 +13249,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>223</v>
+        <v>356</v>
       </c>
       <c r="D26" s="86" t="s">
         <v>108</v>
@@ -13106,13 +13278,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="84"/>
       <c r="B27" s="85">
         <v>18</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>224</v>
+        <v>357</v>
       </c>
       <c r="D27" s="86" t="s">
         <v>108</v>
@@ -13124,7 +13296,7 @@
         <v>44703</v>
       </c>
       <c r="G27" s="86">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G27:G29" si="2">F27-E27</f>
         <v>5</v>
       </c>
       <c r="H27" s="87">
@@ -13134,20 +13306,20 @@
         <v>44700</v>
       </c>
       <c r="J27" s="535">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J27:J29" si="3">I27-H27</f>
         <v>2</v>
       </c>
       <c r="K27" s="88">
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="84"/>
       <c r="B28" s="85">
         <v>19</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="D28" s="86" t="s">
         <v>108</v>
@@ -13159,296 +13331,290 @@
         <v>44703</v>
       </c>
       <c r="G28" s="86">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H28" s="87">
+        <v>44698</v>
+      </c>
+      <c r="I28" s="87">
+        <v>44700</v>
+      </c>
+      <c r="J28" s="535">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="88">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="84"/>
+      <c r="B29" s="85">
+        <v>20</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>359</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="87">
+        <v>44698</v>
+      </c>
+      <c r="F29" s="87">
+        <v>44703</v>
+      </c>
+      <c r="G29" s="86">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H29" s="87">
+        <v>44698</v>
+      </c>
+      <c r="I29" s="87">
+        <v>44700</v>
+      </c>
+      <c r="J29" s="535">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="88">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="84"/>
+      <c r="B30" s="85">
+        <v>21</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="87">
+        <v>44698</v>
+      </c>
+      <c r="F30" s="87">
+        <v>44703</v>
+      </c>
+      <c r="G30" s="86">
+        <f t="shared" ref="G30:G31" si="4">F30-E30</f>
+        <v>5</v>
+      </c>
+      <c r="H30" s="87">
+        <v>44698</v>
+      </c>
+      <c r="I30" s="87">
+        <v>44700</v>
+      </c>
+      <c r="J30" s="535">
+        <f t="shared" ref="J30:J31" si="5">I30-H30</f>
+        <v>2</v>
+      </c>
+      <c r="K30" s="88">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="84"/>
+      <c r="B31" s="85">
+        <v>22</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="87">
+        <v>44698</v>
+      </c>
+      <c r="F31" s="87">
+        <v>44703</v>
+      </c>
+      <c r="G31" s="86">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H31" s="87">
+        <v>44698</v>
+      </c>
+      <c r="I31" s="87">
+        <v>44700</v>
+      </c>
+      <c r="J31" s="535">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K31" s="88">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="84"/>
+      <c r="B32" s="85">
+        <v>23</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="87">
+        <v>44698</v>
+      </c>
+      <c r="F32" s="87">
+        <v>44703</v>
+      </c>
+      <c r="G32" s="86">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H32" s="87">
         <v>44698</v>
       </c>
-      <c r="I28" s="87">
+      <c r="I32" s="87">
         <v>44700</v>
       </c>
-      <c r="J28" s="535">
+      <c r="J32" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K28" s="88">
+      <c r="K32" s="88">
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79">
-        <v>20</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="82">
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="84"/>
+      <c r="B33" s="85">
+        <v>24</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="87">
         <v>44698</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F33" s="87">
         <v>44703</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G33" s="86">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H29" s="82">
+      <c r="H33" s="87">
         <v>44698</v>
       </c>
-      <c r="I29" s="82">
+      <c r="I33" s="87">
         <v>44700</v>
       </c>
-      <c r="J29" s="534">
+      <c r="J33" s="535">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K29" s="83">
+      <c r="K33" s="88">
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="89"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="445">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="447">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="49"/>
-    </row>
-    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="478"/>
-      <c r="B31" s="479">
-        <v>1</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="480" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="481">
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="78"/>
+      <c r="B34" s="79">
+        <v>25</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="82">
         <v>44698</v>
       </c>
-      <c r="F31" s="481">
+      <c r="F34" s="82">
         <v>44703</v>
       </c>
-      <c r="G31" s="480">
+      <c r="G34" s="81">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H31" s="481">
+      <c r="H34" s="82">
         <v>44698</v>
       </c>
-      <c r="I31" s="481">
+      <c r="I34" s="82">
+        <v>44700</v>
+      </c>
+      <c r="J34" s="534">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K34" s="83">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="89"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="90"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="445"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="447"/>
+      <c r="K35" s="49"/>
+    </row>
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="478"/>
+      <c r="B36" s="479">
+        <v>1</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="480" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="481">
+        <v>44698</v>
+      </c>
+      <c r="F36" s="481">
+        <v>44703</v>
+      </c>
+      <c r="G36" s="480">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H36" s="481">
+        <v>44698</v>
+      </c>
+      <c r="I36" s="481">
         <v>44699</v>
       </c>
-      <c r="J31" s="532">
+      <c r="J36" s="532">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K31" s="482">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="478"/>
-      <c r="B32" s="479">
-        <v>2</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="480" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="481">
-        <v>44698</v>
-      </c>
-      <c r="F32" s="481">
-        <v>44703</v>
-      </c>
-      <c r="G32" s="480">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H32" s="481">
-        <v>44698</v>
-      </c>
-      <c r="I32" s="481">
-        <v>44699</v>
-      </c>
-      <c r="J32" s="532">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="482">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="488"/>
-      <c r="B33" s="489">
-        <v>3</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="490" t="s">
-        <v>298</v>
-      </c>
-      <c r="E33" s="491">
-        <v>44698</v>
-      </c>
-      <c r="F33" s="491">
-        <v>44703</v>
-      </c>
-      <c r="G33" s="490">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H33" s="491">
-        <v>44698</v>
-      </c>
-      <c r="I33" s="491">
-        <v>44700</v>
-      </c>
-      <c r="J33" s="531">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K33" s="492">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="478"/>
-      <c r="B34" s="479">
-        <v>4</v>
-      </c>
-      <c r="C34" s="80" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="480" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="481">
-        <v>44698</v>
-      </c>
-      <c r="F34" s="481">
-        <v>44703</v>
-      </c>
-      <c r="G34" s="480">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H34" s="481">
-        <v>44698</v>
-      </c>
-      <c r="I34" s="481">
-        <v>44700</v>
-      </c>
-      <c r="J34" s="532">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K34" s="482">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="488"/>
-      <c r="B35" s="489">
-        <v>5</v>
-      </c>
-      <c r="C35" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="490" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="491">
-        <v>44698</v>
-      </c>
-      <c r="F35" s="491">
-        <v>44703</v>
-      </c>
-      <c r="G35" s="490">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H35" s="491">
-        <v>44698</v>
-      </c>
-      <c r="I35" s="491">
-        <v>44701</v>
-      </c>
-      <c r="J35" s="531">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K35" s="492">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="488"/>
-      <c r="B36" s="489">
-        <v>6</v>
-      </c>
-      <c r="C36" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="D36" s="490" t="s">
-        <v>298</v>
-      </c>
-      <c r="E36" s="491">
-        <v>44698</v>
-      </c>
-      <c r="F36" s="491">
-        <v>44703</v>
-      </c>
-      <c r="G36" s="490">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H36" s="491">
-        <v>44698</v>
-      </c>
-      <c r="I36" s="491">
-        <v>44701</v>
-      </c>
-      <c r="J36" s="531">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K36" s="492">
+      <c r="K36" s="482">
         <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="478"/>
       <c r="B37" s="479">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D37" s="480" t="s">
         <v>109</v>
@@ -13467,163 +13633,163 @@
         <v>44698</v>
       </c>
       <c r="I37" s="481">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="J37" s="532">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="482">
         <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="478"/>
-      <c r="B38" s="479">
-        <v>8</v>
+      <c r="A38" s="488"/>
+      <c r="B38" s="489">
+        <v>3</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="D38" s="480" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="481">
+        <v>226</v>
+      </c>
+      <c r="D38" s="490" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="491">
         <v>44698</v>
       </c>
-      <c r="F38" s="481">
+      <c r="F38" s="491">
         <v>44703</v>
       </c>
-      <c r="G38" s="480">
+      <c r="G38" s="490">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H38" s="481">
+      <c r="H38" s="491">
         <v>44698</v>
       </c>
-      <c r="I38" s="481">
+      <c r="I38" s="491">
+        <v>44700</v>
+      </c>
+      <c r="J38" s="531">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K38" s="492">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="478"/>
+      <c r="B39" s="479">
+        <v>4</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="480" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="481">
+        <v>44698</v>
+      </c>
+      <c r="F39" s="481">
+        <v>44703</v>
+      </c>
+      <c r="G39" s="480">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H39" s="481">
+        <v>44698</v>
+      </c>
+      <c r="I39" s="481">
+        <v>44700</v>
+      </c>
+      <c r="J39" s="532">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K39" s="482">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="488"/>
+      <c r="B40" s="489">
+        <v>5</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="490" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="491">
+        <v>44698</v>
+      </c>
+      <c r="F40" s="491">
+        <v>44703</v>
+      </c>
+      <c r="G40" s="490">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H40" s="491">
+        <v>44698</v>
+      </c>
+      <c r="I40" s="491">
         <v>44701</v>
       </c>
-      <c r="J38" s="532">
+      <c r="J40" s="531">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K38" s="482">
+      <c r="K40" s="492">
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="483"/>
-      <c r="B39" s="484">
-        <v>9</v>
-      </c>
-      <c r="C39" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="485" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="486">
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="488"/>
+      <c r="B41" s="489">
+        <v>6</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" s="490" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="491">
         <v>44698</v>
       </c>
-      <c r="F39" s="486">
+      <c r="F41" s="491">
         <v>44703</v>
       </c>
-      <c r="G39" s="485">
+      <c r="G41" s="490">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H39" s="486">
+      <c r="H41" s="491">
         <v>44698</v>
       </c>
-      <c r="I39" s="486">
-        <v>44699</v>
-      </c>
-      <c r="J39" s="533">
+      <c r="I41" s="491">
+        <v>44701</v>
+      </c>
+      <c r="J41" s="531">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K39" s="487">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="483"/>
-      <c r="B40" s="484">
-        <v>10</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="D40" s="485" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="486">
-        <v>44698</v>
-      </c>
-      <c r="F40" s="486">
-        <v>44703</v>
-      </c>
-      <c r="G40" s="485">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H40" s="486">
-        <v>44698</v>
-      </c>
-      <c r="I40" s="486">
-        <v>44700</v>
-      </c>
-      <c r="J40" s="533">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K40" s="487">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="483"/>
-      <c r="B41" s="484">
-        <v>11</v>
-      </c>
-      <c r="C41" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="485" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="486">
-        <v>44698</v>
-      </c>
-      <c r="F41" s="486">
-        <v>44703</v>
-      </c>
-      <c r="G41" s="485">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H41" s="486">
-        <v>44698</v>
-      </c>
-      <c r="I41" s="486">
-        <v>44700</v>
-      </c>
-      <c r="J41" s="533">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K41" s="487">
+        <v>3</v>
+      </c>
+      <c r="K41" s="492">
         <v>0.9</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="478"/>
       <c r="B42" s="479">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="D42" s="480" t="s">
         <v>109</v>
@@ -13642,11 +13808,11 @@
         <v>44698</v>
       </c>
       <c r="I42" s="481">
-        <v>44702</v>
+        <v>44700</v>
       </c>
       <c r="J42" s="532">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K42" s="482">
         <v>0.9</v>
@@ -13655,10 +13821,10 @@
     <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="478"/>
       <c r="B43" s="479">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="D43" s="480" t="s">
         <v>109</v>
@@ -13677,26 +13843,26 @@
         <v>44698</v>
       </c>
       <c r="I43" s="481">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="J43" s="532">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K43" s="482">
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="483"/>
       <c r="B44" s="484">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D44" s="485" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E44" s="486">
         <v>44698</v>
@@ -13722,1144 +13888,1680 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="478"/>
-      <c r="B45" s="479">
-        <v>15</v>
+    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="483"/>
+      <c r="B45" s="484">
+        <v>10</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="D45" s="480" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="481">
+        <v>234</v>
+      </c>
+      <c r="D45" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="486">
         <v>44698</v>
       </c>
-      <c r="F45" s="481">
+      <c r="F45" s="486">
         <v>44703</v>
       </c>
-      <c r="G45" s="480">
+      <c r="G45" s="485">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H45" s="481">
+      <c r="H45" s="486">
         <v>44698</v>
       </c>
-      <c r="I45" s="481">
+      <c r="I45" s="486">
+        <v>44700</v>
+      </c>
+      <c r="J45" s="533">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K45" s="487">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="483"/>
+      <c r="B46" s="484">
+        <v>11</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="486">
+        <v>44698</v>
+      </c>
+      <c r="F46" s="486">
+        <v>44703</v>
+      </c>
+      <c r="G46" s="485">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H46" s="486">
+        <v>44698</v>
+      </c>
+      <c r="I46" s="486">
+        <v>44700</v>
+      </c>
+      <c r="J46" s="533">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K46" s="487">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="478"/>
+      <c r="B47" s="479">
+        <v>12</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="480" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="481">
+        <v>44698</v>
+      </c>
+      <c r="F47" s="481">
+        <v>44703</v>
+      </c>
+      <c r="G47" s="480">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H47" s="481">
+        <v>44698</v>
+      </c>
+      <c r="I47" s="481">
+        <v>44702</v>
+      </c>
+      <c r="J47" s="532">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K47" s="482">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="478"/>
+      <c r="B48" s="479">
+        <v>13</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="480" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="481">
+        <v>44698</v>
+      </c>
+      <c r="F48" s="481">
+        <v>44703</v>
+      </c>
+      <c r="G48" s="480">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H48" s="481">
+        <v>44698</v>
+      </c>
+      <c r="I48" s="481">
+        <v>44702</v>
+      </c>
+      <c r="J48" s="532">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K48" s="482">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="483"/>
+      <c r="B49" s="484">
+        <v>14</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" s="486">
+        <v>44698</v>
+      </c>
+      <c r="F49" s="486">
+        <v>44703</v>
+      </c>
+      <c r="G49" s="485">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H49" s="486">
+        <v>44698</v>
+      </c>
+      <c r="I49" s="486">
+        <v>44699</v>
+      </c>
+      <c r="J49" s="533">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="487">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="478"/>
+      <c r="B50" s="479">
+        <v>15</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="480" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="481">
+        <v>44698</v>
+      </c>
+      <c r="F50" s="481">
+        <v>44703</v>
+      </c>
+      <c r="G50" s="480">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H50" s="481">
+        <v>44698</v>
+      </c>
+      <c r="I50" s="481">
         <v>44701</v>
       </c>
-      <c r="J45" s="532">
+      <c r="J50" s="532">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K45" s="482">
+      <c r="K50" s="482">
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="488"/>
-      <c r="B46" s="489">
+    <row r="51" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="488"/>
+      <c r="B51" s="489">
         <v>16</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C51" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="490" t="s">
         <v>296</v>
       </c>
-      <c r="D46" s="490" t="s">
-        <v>298</v>
-      </c>
-      <c r="E46" s="491">
+      <c r="E51" s="491">
         <v>44698</v>
       </c>
-      <c r="F46" s="491">
+      <c r="F51" s="491">
         <v>44703</v>
       </c>
-      <c r="G46" s="490">
+      <c r="G51" s="490">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H46" s="491">
+      <c r="H51" s="491">
         <v>44698</v>
       </c>
-      <c r="I46" s="491">
+      <c r="I51" s="491">
         <v>44703</v>
       </c>
-      <c r="J46" s="531">
-        <f>I46-H46</f>
+      <c r="J51" s="531">
+        <f>I51-H51</f>
         <v>5</v>
       </c>
-      <c r="K46" s="492">
+      <c r="K51" s="492">
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="488"/>
-      <c r="B47" s="489">
+    <row r="52" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="488"/>
+      <c r="B52" s="489">
         <v>17</v>
       </c>
-      <c r="C47" s="80" t="s">
-        <v>331</v>
-      </c>
-      <c r="D47" s="490" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" s="491">
+      <c r="C52" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="D52" s="490" t="s">
+        <v>296</v>
+      </c>
+      <c r="E52" s="491">
         <v>44698</v>
       </c>
-      <c r="F47" s="491">
+      <c r="F52" s="491">
         <v>44703</v>
       </c>
-      <c r="G47" s="490">
+      <c r="G52" s="490">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H47" s="491">
+      <c r="H52" s="491">
         <v>44698</v>
       </c>
-      <c r="I47" s="491">
+      <c r="I52" s="491">
         <v>44703</v>
       </c>
-      <c r="J47" s="531">
-        <f>I47-H47</f>
+      <c r="J52" s="531">
+        <f>I52-H52</f>
         <v>5</v>
       </c>
-      <c r="K47" s="492">
+      <c r="K52" s="492">
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="44">
+    <row r="53" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="483"/>
+      <c r="B53" s="484">
+        <v>18</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" s="486">
+        <v>44698</v>
+      </c>
+      <c r="F53" s="486">
+        <v>44703</v>
+      </c>
+      <c r="G53" s="485">
+        <f t="shared" ref="G53" si="6">F53-E53</f>
+        <v>5</v>
+      </c>
+      <c r="H53" s="486">
+        <v>44698</v>
+      </c>
+      <c r="I53" s="486">
+        <v>44703</v>
+      </c>
+      <c r="J53" s="533">
+        <f>I53-H53</f>
+        <v>5</v>
+      </c>
+      <c r="K53" s="487">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="44">
         <v>4</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46" t="s">
+      <c r="B54" s="45"/>
+      <c r="C54" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D54" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="47">
+      <c r="E54" s="47">
         <v>44701</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F54" s="47">
         <v>44704</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G54" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H54" s="47">
         <v>44702</v>
       </c>
-      <c r="I48" s="47">
+      <c r="I54" s="47">
         <v>44702</v>
       </c>
-      <c r="J48" s="48">
+      <c r="J54" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K48" s="49">
+      <c r="K54" s="49">
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="44">
+    <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="44">
         <v>5</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46" t="s">
+      <c r="B55" s="45"/>
+      <c r="C55" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D55" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="47">
+      <c r="E55" s="47">
         <v>44704</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F55" s="47">
         <v>44714</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G55" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="48">
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K49" s="49"/>
-    </row>
-    <row r="50" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="443"/>
-      <c r="B50" s="444"/>
-      <c r="C50" s="445" t="s">
-        <v>316</v>
-      </c>
-      <c r="D50" s="445"/>
-      <c r="E50" s="446"/>
-      <c r="F50" s="446"/>
-      <c r="G50" s="445"/>
-      <c r="H50" s="446"/>
-      <c r="I50" s="446"/>
-      <c r="J50" s="447"/>
-      <c r="K50" s="448"/>
-    </row>
-    <row r="51" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="443"/>
-      <c r="B51" s="444">
-        <v>1</v>
-      </c>
-      <c r="C51" s="445"/>
-      <c r="D51" s="445"/>
-      <c r="E51" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F51" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G51" s="445">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H51" s="446"/>
-      <c r="I51" s="446"/>
-      <c r="J51" s="447"/>
-      <c r="K51" s="448"/>
-    </row>
-    <row r="52" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A52" s="443"/>
-      <c r="B52" s="444">
-        <v>2</v>
-      </c>
-      <c r="C52" s="445"/>
-      <c r="D52" s="445"/>
-      <c r="E52" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F52" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G52" s="445">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H52" s="446"/>
-      <c r="I52" s="446"/>
-      <c r="J52" s="447"/>
-      <c r="K52" s="448"/>
-    </row>
-    <row r="53" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A53" s="443"/>
-      <c r="B53" s="444">
-        <v>3</v>
-      </c>
-      <c r="C53" s="445"/>
-      <c r="D53" s="445"/>
-      <c r="E53" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F53" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G53" s="445">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H53" s="446"/>
-      <c r="I53" s="446"/>
-      <c r="J53" s="447"/>
-      <c r="K53" s="448"/>
-    </row>
-    <row r="54" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" s="443"/>
-      <c r="B54" s="444">
-        <v>4</v>
-      </c>
-      <c r="C54" s="445"/>
-      <c r="D54" s="445"/>
-      <c r="E54" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F54" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G54" s="445">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H54" s="446"/>
-      <c r="I54" s="446"/>
-      <c r="J54" s="447"/>
-      <c r="K54" s="448"/>
-    </row>
-    <row r="55" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="443"/>
-      <c r="B55" s="444">
-        <v>5</v>
-      </c>
-      <c r="C55" s="445"/>
-      <c r="D55" s="445"/>
-      <c r="E55" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F55" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G55" s="445">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H55" s="446"/>
-      <c r="I55" s="446"/>
-      <c r="J55" s="447"/>
-      <c r="K55" s="448"/>
+      <c r="K55" s="49"/>
     </row>
     <row r="56" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="443"/>
-      <c r="B56" s="444">
-        <v>6</v>
-      </c>
-      <c r="C56" s="445"/>
+      <c r="B56" s="444"/>
+      <c r="C56" s="445" t="s">
+        <v>121</v>
+      </c>
       <c r="D56" s="445"/>
-      <c r="E56" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F56" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G56" s="445">
-        <f t="shared" ref="G56:G70" si="2">F56-E56</f>
-        <v>10</v>
-      </c>
+      <c r="E56" s="446"/>
+      <c r="F56" s="446"/>
+      <c r="G56" s="445"/>
       <c r="H56" s="446"/>
       <c r="I56" s="446"/>
       <c r="J56" s="447"/>
       <c r="K56" s="448"/>
     </row>
     <row r="57" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="443"/>
-      <c r="B57" s="444">
+      <c r="A57" s="78"/>
+      <c r="B57" s="79">
+        <v>1</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="82">
+        <v>44704</v>
+      </c>
+      <c r="F57" s="82">
+        <v>44705</v>
+      </c>
+      <c r="G57" s="81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="534"/>
+      <c r="K57" s="83"/>
+    </row>
+    <row r="58" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="78"/>
+      <c r="B58" s="79">
+        <v>2</v>
+      </c>
+      <c r="C58" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="82">
+        <v>44704</v>
+      </c>
+      <c r="F58" s="82">
+        <v>44705</v>
+      </c>
+      <c r="G58" s="81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="534"/>
+      <c r="K58" s="83"/>
+    </row>
+    <row r="59" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A59" s="78"/>
+      <c r="B59" s="79">
+        <v>3</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" s="82">
+        <v>44704</v>
+      </c>
+      <c r="F59" s="82">
+        <v>44705</v>
+      </c>
+      <c r="G59" s="81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="534"/>
+      <c r="K59" s="83"/>
+    </row>
+    <row r="60" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A60" s="78"/>
+      <c r="B60" s="79">
+        <v>4</v>
+      </c>
+      <c r="C60" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" s="82">
+        <v>44706</v>
+      </c>
+      <c r="F60" s="82">
+        <v>44707</v>
+      </c>
+      <c r="G60" s="81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="534"/>
+      <c r="K60" s="83"/>
+    </row>
+    <row r="61" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="78"/>
+      <c r="B61" s="79">
+        <v>5</v>
+      </c>
+      <c r="C61" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="82">
+        <v>44706</v>
+      </c>
+      <c r="F61" s="82">
+        <v>44707</v>
+      </c>
+      <c r="G61" s="81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="534"/>
+      <c r="K61" s="83"/>
+    </row>
+    <row r="62" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A62" s="78"/>
+      <c r="B62" s="79">
+        <v>6</v>
+      </c>
+      <c r="C62" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="82">
+        <v>44706</v>
+      </c>
+      <c r="F62" s="82">
+        <v>44707</v>
+      </c>
+      <c r="G62" s="81">
+        <f t="shared" ref="G62:G76" si="7">F62-E62</f>
+        <v>1</v>
+      </c>
+      <c r="H62" s="82"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="534"/>
+      <c r="K62" s="83"/>
+    </row>
+    <row r="63" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A63" s="78"/>
+      <c r="B63" s="79">
         <v>7</v>
       </c>
-      <c r="C57" s="445"/>
-      <c r="D57" s="445"/>
-      <c r="E57" s="446">
+      <c r="C63" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="82">
+        <v>44708</v>
+      </c>
+      <c r="F63" s="82">
+        <v>44709</v>
+      </c>
+      <c r="G63" s="81">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="534"/>
+      <c r="K63" s="83"/>
+    </row>
+    <row r="64" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="78"/>
+      <c r="B64" s="79">
+        <v>8</v>
+      </c>
+      <c r="C64" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" s="82">
+        <v>44708</v>
+      </c>
+      <c r="F64" s="82">
+        <v>44709</v>
+      </c>
+      <c r="G64" s="81">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="82"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="534"/>
+      <c r="K64" s="83"/>
+    </row>
+    <row r="65" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A65" s="78"/>
+      <c r="B65" s="79">
+        <v>9</v>
+      </c>
+      <c r="C65" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="82">
+        <v>44708</v>
+      </c>
+      <c r="F65" s="82">
+        <v>44709</v>
+      </c>
+      <c r="G65" s="81">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="82"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="534"/>
+      <c r="K65" s="83"/>
+    </row>
+    <row r="66" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A66" s="78"/>
+      <c r="B66" s="79">
+        <v>10</v>
+      </c>
+      <c r="C66" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="82">
+        <v>44710</v>
+      </c>
+      <c r="F66" s="82">
+        <v>44711</v>
+      </c>
+      <c r="G66" s="81">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="534"/>
+      <c r="K66" s="83"/>
+    </row>
+    <row r="67" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A67" s="78"/>
+      <c r="B67" s="79">
+        <v>11</v>
+      </c>
+      <c r="C67" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" s="82">
+        <v>44710</v>
+      </c>
+      <c r="F67" s="82">
+        <v>44711</v>
+      </c>
+      <c r="G67" s="81">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="534"/>
+      <c r="K67" s="83"/>
+    </row>
+    <row r="68" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="78"/>
+      <c r="B68" s="79">
+        <v>12</v>
+      </c>
+      <c r="C68" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="82">
+        <v>44710</v>
+      </c>
+      <c r="F68" s="82">
+        <v>44711</v>
+      </c>
+      <c r="G68" s="81">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="534"/>
+      <c r="K68" s="83"/>
+    </row>
+    <row r="69" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A69" s="576"/>
+      <c r="B69" s="577">
+        <v>13</v>
+      </c>
+      <c r="C69" s="578" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="579">
         <v>44704</v>
       </c>
-      <c r="F57" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G57" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H57" s="446"/>
-      <c r="I57" s="446"/>
-      <c r="J57" s="447"/>
-      <c r="K57" s="448"/>
-    </row>
-    <row r="58" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A58" s="443"/>
-      <c r="B58" s="444">
-        <v>8</v>
-      </c>
-      <c r="C58" s="445"/>
-      <c r="D58" s="445"/>
-      <c r="E58" s="446">
+      <c r="F69" s="579">
+        <v>44705</v>
+      </c>
+      <c r="G69" s="578">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H69" s="579"/>
+      <c r="I69" s="579"/>
+      <c r="J69" s="580"/>
+      <c r="K69" s="581"/>
+    </row>
+    <row r="70" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="576"/>
+      <c r="B70" s="577">
+        <v>14</v>
+      </c>
+      <c r="C70" s="578" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="579">
         <v>44704</v>
       </c>
-      <c r="F58" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G58" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H58" s="446"/>
-      <c r="I58" s="446"/>
-      <c r="J58" s="447"/>
-      <c r="K58" s="448"/>
-    </row>
-    <row r="59" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A59" s="443"/>
-      <c r="B59" s="444">
-        <v>9</v>
-      </c>
-      <c r="C59" s="445"/>
-      <c r="D59" s="445"/>
-      <c r="E59" s="446">
+      <c r="F70" s="579">
+        <v>44705</v>
+      </c>
+      <c r="G70" s="578">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="579"/>
+      <c r="I70" s="579"/>
+      <c r="J70" s="580"/>
+      <c r="K70" s="581"/>
+    </row>
+    <row r="71" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A71" s="576"/>
+      <c r="B71" s="577">
+        <v>15</v>
+      </c>
+      <c r="C71" s="578" t="s">
+        <v>354</v>
+      </c>
+      <c r="D71" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="579">
         <v>44704</v>
       </c>
-      <c r="F59" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G59" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H59" s="446"/>
-      <c r="I59" s="446"/>
-      <c r="J59" s="447"/>
-      <c r="K59" s="448"/>
-    </row>
-    <row r="60" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A60" s="443"/>
-      <c r="B60" s="444">
-        <v>10</v>
-      </c>
-      <c r="C60" s="445"/>
-      <c r="D60" s="445"/>
-      <c r="E60" s="446">
+      <c r="F71" s="579">
+        <v>44705</v>
+      </c>
+      <c r="G71" s="578">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="579"/>
+      <c r="I71" s="579"/>
+      <c r="J71" s="580"/>
+      <c r="K71" s="581"/>
+    </row>
+    <row r="72" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A72" s="576"/>
+      <c r="B72" s="577">
+        <v>16</v>
+      </c>
+      <c r="C72" s="578" t="s">
+        <v>355</v>
+      </c>
+      <c r="D72" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="579">
         <v>44704</v>
       </c>
-      <c r="F60" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G60" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H60" s="446"/>
-      <c r="I60" s="446"/>
-      <c r="J60" s="447"/>
-      <c r="K60" s="448"/>
-    </row>
-    <row r="61" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A61" s="443"/>
-      <c r="B61" s="444">
-        <v>11</v>
-      </c>
-      <c r="C61" s="445"/>
-      <c r="D61" s="445"/>
-      <c r="E61" s="446">
+      <c r="F72" s="579">
+        <v>44705</v>
+      </c>
+      <c r="G72" s="578">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="579"/>
+      <c r="I72" s="579"/>
+      <c r="J72" s="580"/>
+      <c r="K72" s="581"/>
+    </row>
+    <row r="73" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A73" s="576"/>
+      <c r="B73" s="577">
+        <v>17</v>
+      </c>
+      <c r="C73" s="578" t="s">
+        <v>356</v>
+      </c>
+      <c r="D73" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="579">
         <v>44704</v>
       </c>
-      <c r="F61" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G61" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H61" s="446"/>
-      <c r="I61" s="446"/>
-      <c r="J61" s="447"/>
-      <c r="K61" s="448"/>
-    </row>
-    <row r="62" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A62" s="443"/>
-      <c r="B62" s="444">
-        <v>12</v>
-      </c>
-      <c r="C62" s="445"/>
-      <c r="D62" s="445"/>
-      <c r="E62" s="446">
+      <c r="F73" s="579">
+        <v>44705</v>
+      </c>
+      <c r="G73" s="578">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H73" s="579"/>
+      <c r="I73" s="579"/>
+      <c r="J73" s="580"/>
+      <c r="K73" s="581"/>
+    </row>
+    <row r="74" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A74" s="576"/>
+      <c r="B74" s="577">
+        <v>18</v>
+      </c>
+      <c r="C74" s="578" t="s">
+        <v>357</v>
+      </c>
+      <c r="D74" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="579">
         <v>44704</v>
       </c>
-      <c r="F62" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G62" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H62" s="446"/>
-      <c r="I62" s="446"/>
-      <c r="J62" s="447"/>
-      <c r="K62" s="448"/>
-    </row>
-    <row r="63" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A63" s="443"/>
-      <c r="B63" s="444">
-        <v>13</v>
-      </c>
-      <c r="C63" s="445"/>
-      <c r="D63" s="445"/>
-      <c r="E63" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F63" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G63" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H63" s="446"/>
-      <c r="I63" s="446"/>
-      <c r="J63" s="447"/>
-      <c r="K63" s="448"/>
-    </row>
-    <row r="64" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A64" s="443"/>
-      <c r="B64" s="444">
-        <v>14</v>
-      </c>
-      <c r="C64" s="445"/>
-      <c r="D64" s="445"/>
-      <c r="E64" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F64" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G64" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H64" s="446"/>
-      <c r="I64" s="446"/>
-      <c r="J64" s="447"/>
-      <c r="K64" s="448"/>
-    </row>
-    <row r="65" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A65" s="443"/>
-      <c r="B65" s="444">
-        <v>15</v>
-      </c>
-      <c r="C65" s="445"/>
-      <c r="D65" s="445"/>
-      <c r="E65" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F65" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G65" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H65" s="446"/>
-      <c r="I65" s="446"/>
-      <c r="J65" s="447"/>
-      <c r="K65" s="448"/>
-    </row>
-    <row r="66" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A66" s="443"/>
-      <c r="B66" s="444">
-        <v>16</v>
-      </c>
-      <c r="C66" s="445"/>
-      <c r="D66" s="445"/>
-      <c r="E66" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F66" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G66" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H66" s="446"/>
-      <c r="I66" s="446"/>
-      <c r="J66" s="447"/>
-      <c r="K66" s="448"/>
-    </row>
-    <row r="67" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="443"/>
-      <c r="B67" s="444">
-        <v>17</v>
-      </c>
-      <c r="C67" s="445"/>
-      <c r="D67" s="445"/>
-      <c r="E67" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F67" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G67" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H67" s="446"/>
-      <c r="I67" s="446"/>
-      <c r="J67" s="447"/>
-      <c r="K67" s="448"/>
-    </row>
-    <row r="68" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="443"/>
-      <c r="B68" s="444">
-        <v>18</v>
-      </c>
-      <c r="C68" s="445"/>
-      <c r="D68" s="445"/>
-      <c r="E68" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F68" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G68" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H68" s="446"/>
-      <c r="I68" s="446"/>
-      <c r="J68" s="447"/>
-      <c r="K68" s="448"/>
-    </row>
-    <row r="69" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A69" s="443"/>
-      <c r="B69" s="444">
+      <c r="F74" s="579">
+        <v>44705</v>
+      </c>
+      <c r="G74" s="578">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="579"/>
+      <c r="I74" s="579"/>
+      <c r="J74" s="580"/>
+      <c r="K74" s="581"/>
+    </row>
+    <row r="75" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A75" s="576"/>
+      <c r="B75" s="577">
         <v>19</v>
       </c>
-      <c r="C69" s="445"/>
-      <c r="D69" s="445"/>
-      <c r="E69" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F69" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G69" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H69" s="446"/>
-      <c r="I69" s="446"/>
-      <c r="J69" s="447"/>
-      <c r="K69" s="448"/>
-    </row>
-    <row r="70" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="443"/>
-      <c r="B70" s="444">
+      <c r="C75" s="578" t="s">
+        <v>358</v>
+      </c>
+      <c r="D75" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="579">
+        <v>44705</v>
+      </c>
+      <c r="F75" s="579">
+        <v>44706</v>
+      </c>
+      <c r="G75" s="578">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H75" s="579"/>
+      <c r="I75" s="579"/>
+      <c r="J75" s="580"/>
+      <c r="K75" s="581"/>
+    </row>
+    <row r="76" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A76" s="576"/>
+      <c r="B76" s="577">
         <v>20</v>
       </c>
-      <c r="C70" s="445"/>
-      <c r="D70" s="445"/>
-      <c r="E70" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F70" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G70" s="445">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H70" s="446"/>
-      <c r="I70" s="446"/>
-      <c r="J70" s="447"/>
-      <c r="K70" s="448"/>
-    </row>
-    <row r="71" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A71" s="443"/>
-      <c r="B71" s="444"/>
-      <c r="C71" s="445" t="s">
-        <v>186</v>
-      </c>
-      <c r="D71" s="445"/>
-      <c r="E71" s="446"/>
-      <c r="F71" s="446"/>
-      <c r="G71" s="445"/>
-      <c r="H71" s="446"/>
-      <c r="I71" s="446"/>
-      <c r="J71" s="447"/>
-      <c r="K71" s="448"/>
-    </row>
-    <row r="72" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A72" s="443"/>
-      <c r="B72" s="444">
+      <c r="C76" s="578" t="s">
+        <v>359</v>
+      </c>
+      <c r="D76" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="579">
+        <v>44705</v>
+      </c>
+      <c r="F76" s="579">
+        <v>44706</v>
+      </c>
+      <c r="G76" s="578">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C72" s="445"/>
-      <c r="D72" s="445"/>
-      <c r="E72" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F72" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G72" s="445">
-        <f t="shared" ref="G72:G83" si="3">F72-E72</f>
-        <v>10</v>
-      </c>
-      <c r="H72" s="446"/>
-      <c r="I72" s="446"/>
-      <c r="J72" s="447"/>
-      <c r="K72" s="448"/>
-    </row>
-    <row r="73" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A73" s="443"/>
-      <c r="B73" s="444">
-        <v>2</v>
-      </c>
-      <c r="C73" s="445"/>
-      <c r="D73" s="445"/>
-      <c r="E73" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F73" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G73" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H73" s="446"/>
-      <c r="I73" s="446"/>
-      <c r="J73" s="447"/>
-      <c r="K73" s="448"/>
-    </row>
-    <row r="74" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A74" s="443"/>
-      <c r="B74" s="444">
-        <v>3</v>
-      </c>
-      <c r="C74" s="445"/>
-      <c r="D74" s="445"/>
-      <c r="E74" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F74" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G74" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H74" s="446"/>
-      <c r="I74" s="446"/>
-      <c r="J74" s="447"/>
-      <c r="K74" s="448"/>
-    </row>
-    <row r="75" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A75" s="443"/>
-      <c r="B75" s="444">
-        <v>4</v>
-      </c>
-      <c r="C75" s="445"/>
-      <c r="D75" s="445"/>
-      <c r="E75" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F75" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G75" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H75" s="446"/>
-      <c r="I75" s="446"/>
-      <c r="J75" s="447"/>
-      <c r="K75" s="448"/>
-    </row>
-    <row r="76" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A76" s="443"/>
-      <c r="B76" s="444">
-        <v>5</v>
-      </c>
-      <c r="C76" s="445"/>
-      <c r="D76" s="445"/>
-      <c r="E76" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F76" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G76" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H76" s="446"/>
-      <c r="I76" s="446"/>
-      <c r="J76" s="447"/>
-      <c r="K76" s="448"/>
+      <c r="H76" s="579"/>
+      <c r="I76" s="579"/>
+      <c r="J76" s="580"/>
+      <c r="K76" s="581"/>
     </row>
     <row r="77" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A77" s="443"/>
-      <c r="B77" s="444">
-        <v>6</v>
-      </c>
-      <c r="C77" s="445"/>
-      <c r="D77" s="445"/>
-      <c r="E77" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F77" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G77" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H77" s="446"/>
-      <c r="I77" s="446"/>
-      <c r="J77" s="447"/>
-      <c r="K77" s="448"/>
+      <c r="A77" s="576"/>
+      <c r="B77" s="577">
+        <v>21</v>
+      </c>
+      <c r="C77" s="578" t="s">
+        <v>360</v>
+      </c>
+      <c r="D77" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="579">
+        <v>44705</v>
+      </c>
+      <c r="F77" s="579">
+        <v>44706</v>
+      </c>
+      <c r="G77" s="578">
+        <f t="shared" ref="G77" si="8">F77-E77</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="579"/>
+      <c r="I77" s="579"/>
+      <c r="J77" s="580"/>
+      <c r="K77" s="581"/>
     </row>
     <row r="78" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A78" s="443"/>
-      <c r="B78" s="444">
-        <v>7</v>
-      </c>
-      <c r="C78" s="445"/>
-      <c r="D78" s="445"/>
-      <c r="E78" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F78" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G78" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H78" s="446"/>
-      <c r="I78" s="446"/>
-      <c r="J78" s="447"/>
-      <c r="K78" s="448"/>
+      <c r="A78" s="576"/>
+      <c r="B78" s="577">
+        <v>22</v>
+      </c>
+      <c r="C78" s="578" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="579">
+        <v>44705</v>
+      </c>
+      <c r="F78" s="579">
+        <v>44706</v>
+      </c>
+      <c r="G78" s="578">
+        <f t="shared" ref="G78:G89" si="9">F78-E78</f>
+        <v>1</v>
+      </c>
+      <c r="H78" s="579"/>
+      <c r="I78" s="579"/>
+      <c r="J78" s="580"/>
+      <c r="K78" s="581"/>
     </row>
     <row r="79" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A79" s="443"/>
-      <c r="B79" s="444">
-        <v>8</v>
-      </c>
-      <c r="C79" s="445"/>
-      <c r="D79" s="445"/>
-      <c r="E79" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F79" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G79" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H79" s="446"/>
-      <c r="I79" s="446"/>
-      <c r="J79" s="447"/>
-      <c r="K79" s="448"/>
+      <c r="A79" s="576"/>
+      <c r="B79" s="577">
+        <v>23</v>
+      </c>
+      <c r="C79" s="578" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="579">
+        <v>44705</v>
+      </c>
+      <c r="F79" s="579">
+        <v>44706</v>
+      </c>
+      <c r="G79" s="578">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="579"/>
+      <c r="I79" s="579"/>
+      <c r="J79" s="580"/>
+      <c r="K79" s="581"/>
     </row>
     <row r="80" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A80" s="443"/>
-      <c r="B80" s="444">
-        <v>9</v>
-      </c>
-      <c r="C80" s="445"/>
-      <c r="D80" s="445"/>
-      <c r="E80" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F80" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G80" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H80" s="446"/>
-      <c r="I80" s="446"/>
-      <c r="J80" s="447"/>
-      <c r="K80" s="448"/>
+      <c r="A80" s="576"/>
+      <c r="B80" s="577">
+        <v>24</v>
+      </c>
+      <c r="C80" s="578" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="579">
+        <v>44705</v>
+      </c>
+      <c r="F80" s="579">
+        <v>44706</v>
+      </c>
+      <c r="G80" s="578">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H80" s="579"/>
+      <c r="I80" s="579"/>
+      <c r="J80" s="580"/>
+      <c r="K80" s="581"/>
     </row>
     <row r="81" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A81" s="443"/>
-      <c r="B81" s="444">
-        <v>10</v>
-      </c>
-      <c r="C81" s="445"/>
-      <c r="D81" s="445"/>
-      <c r="E81" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F81" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G81" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H81" s="446"/>
-      <c r="I81" s="446"/>
-      <c r="J81" s="447"/>
-      <c r="K81" s="448"/>
+      <c r="A81" s="576"/>
+      <c r="B81" s="577">
+        <v>25</v>
+      </c>
+      <c r="C81" s="578" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="578" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="579">
+        <v>44705</v>
+      </c>
+      <c r="F81" s="579">
+        <v>44706</v>
+      </c>
+      <c r="G81" s="578">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="579"/>
+      <c r="I81" s="579"/>
+      <c r="J81" s="580"/>
+      <c r="K81" s="581"/>
     </row>
     <row r="82" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="443"/>
-      <c r="B82" s="444">
-        <v>12</v>
-      </c>
-      <c r="C82" s="445"/>
+      <c r="B82" s="444"/>
+      <c r="C82" s="445" t="s">
+        <v>186</v>
+      </c>
       <c r="D82" s="445"/>
-      <c r="E82" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F82" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G82" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
+      <c r="E82" s="446"/>
+      <c r="F82" s="446"/>
+      <c r="G82" s="445"/>
       <c r="H82" s="446"/>
       <c r="I82" s="446"/>
       <c r="J82" s="447"/>
       <c r="K82" s="448"/>
     </row>
     <row r="83" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A83" s="443"/>
-      <c r="B83" s="444">
+      <c r="A83" s="582"/>
+      <c r="B83" s="583">
+        <v>1</v>
+      </c>
+      <c r="C83" s="584" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="584" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="585">
+        <v>44704</v>
+      </c>
+      <c r="F83" s="585">
+        <v>44705</v>
+      </c>
+      <c r="G83" s="584">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H83" s="585"/>
+      <c r="I83" s="585"/>
+      <c r="J83" s="586"/>
+      <c r="K83" s="587"/>
+    </row>
+    <row r="84" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A84" s="582"/>
+      <c r="B84" s="583">
+        <v>2</v>
+      </c>
+      <c r="C84" s="584" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="584" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="585">
+        <v>44704</v>
+      </c>
+      <c r="F84" s="585">
+        <v>44705</v>
+      </c>
+      <c r="G84" s="584">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H84" s="585"/>
+      <c r="I84" s="585"/>
+      <c r="J84" s="586"/>
+      <c r="K84" s="587"/>
+    </row>
+    <row r="85" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="488"/>
+      <c r="B85" s="489">
+        <v>3</v>
+      </c>
+      <c r="C85" s="490" t="s">
+        <v>226</v>
+      </c>
+      <c r="D85" s="490" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" s="491">
+        <v>44705</v>
+      </c>
+      <c r="F85" s="491">
+        <v>44706</v>
+      </c>
+      <c r="G85" s="490">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="491"/>
+      <c r="I85" s="491"/>
+      <c r="J85" s="531"/>
+      <c r="K85" s="492"/>
+    </row>
+    <row r="86" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A86" s="582"/>
+      <c r="B86" s="583">
+        <v>4</v>
+      </c>
+      <c r="C86" s="584" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" s="584" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="585">
+        <v>44705</v>
+      </c>
+      <c r="F86" s="585">
+        <v>44706</v>
+      </c>
+      <c r="G86" s="584">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H86" s="585"/>
+      <c r="I86" s="585"/>
+      <c r="J86" s="586"/>
+      <c r="K86" s="587"/>
+    </row>
+    <row r="87" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A87" s="488"/>
+      <c r="B87" s="489">
+        <v>5</v>
+      </c>
+      <c r="C87" s="490" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="490" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" s="491">
+        <v>44706</v>
+      </c>
+      <c r="F87" s="491">
+        <v>44707</v>
+      </c>
+      <c r="G87" s="490">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H87" s="491"/>
+      <c r="I87" s="491"/>
+      <c r="J87" s="531"/>
+      <c r="K87" s="492"/>
+    </row>
+    <row r="88" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A88" s="488"/>
+      <c r="B88" s="489">
+        <v>6</v>
+      </c>
+      <c r="C88" s="490" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="490" t="s">
+        <v>296</v>
+      </c>
+      <c r="E88" s="491">
+        <v>44707</v>
+      </c>
+      <c r="F88" s="491">
+        <v>44708</v>
+      </c>
+      <c r="G88" s="490">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="491"/>
+      <c r="I88" s="491"/>
+      <c r="J88" s="531"/>
+      <c r="K88" s="492"/>
+    </row>
+    <row r="89" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A89" s="582"/>
+      <c r="B89" s="583">
+        <v>7</v>
+      </c>
+      <c r="C89" s="584" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89" s="584" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" s="585">
+        <v>44705</v>
+      </c>
+      <c r="F89" s="585">
+        <v>44706</v>
+      </c>
+      <c r="G89" s="584">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H89" s="585"/>
+      <c r="I89" s="585"/>
+      <c r="J89" s="586"/>
+      <c r="K89" s="587"/>
+    </row>
+    <row r="90" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A90" s="582"/>
+      <c r="B90" s="583">
+        <v>8</v>
+      </c>
+      <c r="C90" s="584" t="s">
+        <v>231</v>
+      </c>
+      <c r="D90" s="584" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="585">
+        <v>44706</v>
+      </c>
+      <c r="F90" s="585">
+        <v>44707</v>
+      </c>
+      <c r="G90" s="584">
+        <f t="shared" ref="G90:G93" si="10">F90-E90</f>
+        <v>1</v>
+      </c>
+      <c r="H90" s="585"/>
+      <c r="I90" s="585"/>
+      <c r="J90" s="586"/>
+      <c r="K90" s="587"/>
+    </row>
+    <row r="91" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A91" s="483"/>
+      <c r="B91" s="484">
+        <v>9</v>
+      </c>
+      <c r="C91" s="485" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" s="486">
+        <v>44704</v>
+      </c>
+      <c r="F91" s="486">
+        <v>44705</v>
+      </c>
+      <c r="G91" s="485">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H91" s="486"/>
+      <c r="I91" s="486"/>
+      <c r="J91" s="533"/>
+      <c r="K91" s="487"/>
+    </row>
+    <row r="92" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A92" s="483"/>
+      <c r="B92" s="484">
+        <v>10</v>
+      </c>
+      <c r="C92" s="485" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E92" s="486">
+        <v>44704</v>
+      </c>
+      <c r="F92" s="486">
+        <v>44705</v>
+      </c>
+      <c r="G92" s="485">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H92" s="486"/>
+      <c r="I92" s="486"/>
+      <c r="J92" s="533"/>
+      <c r="K92" s="487"/>
+    </row>
+    <row r="93" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A93" s="483"/>
+      <c r="B93" s="484">
+        <v>11</v>
+      </c>
+      <c r="C93" s="485" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" s="486">
+        <v>44704</v>
+      </c>
+      <c r="F93" s="486">
+        <v>44705</v>
+      </c>
+      <c r="G93" s="485">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H93" s="486"/>
+      <c r="I93" s="486"/>
+      <c r="J93" s="533"/>
+      <c r="K93" s="487"/>
+    </row>
+    <row r="94" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A94" s="582"/>
+      <c r="B94" s="583">
+        <v>12</v>
+      </c>
+      <c r="C94" s="584" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" s="584" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="585">
+        <v>44706</v>
+      </c>
+      <c r="F94" s="585">
+        <v>44707</v>
+      </c>
+      <c r="G94" s="584">
+        <f t="shared" ref="G94:G100" si="11">F94-E94</f>
+        <v>1</v>
+      </c>
+      <c r="H94" s="585"/>
+      <c r="I94" s="585"/>
+      <c r="J94" s="586"/>
+      <c r="K94" s="587"/>
+    </row>
+    <row r="95" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A95" s="582"/>
+      <c r="B95" s="583">
         <v>13</v>
       </c>
-      <c r="C83" s="445"/>
-      <c r="D83" s="445"/>
-      <c r="E83" s="446">
+      <c r="C95" s="584" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="584" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="585">
+        <v>44706</v>
+      </c>
+      <c r="F95" s="585">
+        <v>44707</v>
+      </c>
+      <c r="G95" s="584">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H95" s="585"/>
+      <c r="I95" s="585"/>
+      <c r="J95" s="586"/>
+      <c r="K95" s="587"/>
+    </row>
+    <row r="96" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A96" s="483"/>
+      <c r="B96" s="484">
+        <v>14</v>
+      </c>
+      <c r="C96" s="485" t="s">
+        <v>251</v>
+      </c>
+      <c r="D96" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E96" s="486">
+        <v>44706</v>
+      </c>
+      <c r="F96" s="486">
+        <v>44707</v>
+      </c>
+      <c r="G96" s="485">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H96" s="486"/>
+      <c r="I96" s="486"/>
+      <c r="J96" s="533"/>
+      <c r="K96" s="487"/>
+    </row>
+    <row r="97" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A97" s="582"/>
+      <c r="B97" s="583">
+        <v>15</v>
+      </c>
+      <c r="C97" s="584" t="s">
+        <v>277</v>
+      </c>
+      <c r="D97" s="584" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="585">
+        <v>44706</v>
+      </c>
+      <c r="F97" s="585">
+        <v>44707</v>
+      </c>
+      <c r="G97" s="584">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H97" s="585"/>
+      <c r="I97" s="585"/>
+      <c r="J97" s="586"/>
+      <c r="K97" s="587"/>
+    </row>
+    <row r="98" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A98" s="488"/>
+      <c r="B98" s="489">
+        <v>16</v>
+      </c>
+      <c r="C98" s="490" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="490" t="s">
+        <v>296</v>
+      </c>
+      <c r="E98" s="491">
         <v>44704</v>
       </c>
-      <c r="F83" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G83" s="445">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H83" s="446"/>
-      <c r="I83" s="446"/>
-      <c r="J83" s="447"/>
-      <c r="K83" s="448"/>
-    </row>
-    <row r="84" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A84" s="443"/>
-      <c r="B84" s="444">
-        <v>14</v>
-      </c>
-      <c r="C84" s="445"/>
-      <c r="D84" s="445"/>
-      <c r="E84" s="446">
+      <c r="F98" s="491">
+        <v>44705</v>
+      </c>
+      <c r="G98" s="490">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H98" s="491"/>
+      <c r="I98" s="491"/>
+      <c r="J98" s="531"/>
+      <c r="K98" s="492"/>
+    </row>
+    <row r="99" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A99" s="488"/>
+      <c r="B99" s="489">
+        <v>17</v>
+      </c>
+      <c r="C99" s="490" t="s">
+        <v>352</v>
+      </c>
+      <c r="D99" s="490" t="s">
+        <v>296</v>
+      </c>
+      <c r="E99" s="491">
         <v>44704</v>
       </c>
-      <c r="F84" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G84" s="445">
-        <f t="shared" ref="G84:G87" si="4">F84-E84</f>
-        <v>10</v>
-      </c>
-      <c r="H84" s="446"/>
-      <c r="I84" s="446"/>
-      <c r="J84" s="447"/>
-      <c r="K84" s="448"/>
-    </row>
-    <row r="85" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="443"/>
-      <c r="B85" s="444">
-        <v>15</v>
-      </c>
-      <c r="C85" s="445"/>
-      <c r="D85" s="445"/>
-      <c r="E85" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F85" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G85" s="445">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="H85" s="446"/>
-      <c r="I85" s="446"/>
-      <c r="J85" s="447"/>
-      <c r="K85" s="448"/>
-    </row>
-    <row r="86" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A86" s="443"/>
-      <c r="B86" s="444">
-        <v>16</v>
-      </c>
-      <c r="C86" s="445"/>
-      <c r="D86" s="445"/>
-      <c r="E86" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F86" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G86" s="445">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="H86" s="446"/>
-      <c r="I86" s="446"/>
-      <c r="J86" s="447"/>
-      <c r="K86" s="448"/>
-    </row>
-    <row r="87" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="443"/>
-      <c r="B87" s="444">
+      <c r="F99" s="491">
+        <v>44705</v>
+      </c>
+      <c r="G99" s="490">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H99" s="491"/>
+      <c r="I99" s="491"/>
+      <c r="J99" s="531"/>
+      <c r="K99" s="492"/>
+    </row>
+    <row r="100" spans="1:11" s="421" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A100" s="483"/>
+      <c r="B100" s="484">
+        <v>18</v>
+      </c>
+      <c r="C100" s="485" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E100" s="486">
+        <v>44705</v>
+      </c>
+      <c r="F100" s="486">
+        <v>44706</v>
+      </c>
+      <c r="G100" s="485">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H100" s="486"/>
+      <c r="I100" s="486"/>
+      <c r="J100" s="533"/>
+      <c r="K100" s="487"/>
+    </row>
+    <row r="101" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A101" s="44">
+        <v>6</v>
+      </c>
+      <c r="B101" s="45"/>
+      <c r="C101" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="445"/>
-      <c r="D87" s="445"/>
-      <c r="E87" s="446">
-        <v>44704</v>
-      </c>
-      <c r="F87" s="446">
-        <v>44714</v>
-      </c>
-      <c r="G87" s="445">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="H87" s="446"/>
-      <c r="I87" s="446"/>
-      <c r="J87" s="447"/>
-      <c r="K87" s="448"/>
-    </row>
-    <row r="88" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A88" s="44">
-        <v>6</v>
-      </c>
-      <c r="B88" s="45"/>
-      <c r="C88" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="46"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="46">
+      <c r="D101" s="46"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="48">
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K88" s="49"/>
-    </row>
-    <row r="89" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A89" s="44">
+      <c r="K101" s="49"/>
+    </row>
+    <row r="102" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A102" s="44">
         <v>7</v>
       </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="46" t="s">
+      <c r="B102" s="45"/>
+      <c r="C102" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="46"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="46">
+      <c r="D102" s="46"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="48">
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K89" s="49"/>
-    </row>
-    <row r="90" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="50"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="54" t="str">
-        <f>IF(I90="","",I90-H90)</f>
+      <c r="K102" s="49"/>
+    </row>
+    <row r="103" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="50"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="54" t="str">
+        <f>IF(I103="","",I103-H103)</f>
         <v/>
       </c>
-      <c r="K90" s="55"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91">
-        <f>SUM(G6:G90)</f>
-        <v>583</v>
-      </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
+      <c r="K103" s="55"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104">
+        <f>SUM(G6:G103)</f>
+        <v>296</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G92" s="2">
-        <f>G91/30</f>
-        <v>19.433333333333334</v>
-      </c>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="G105" s="2">
+        <f>G104/30</f>
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14874,10 +15576,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="K24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14889,68 +15591,68 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="546" t="s">
+      <c r="A2" s="548" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="550" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="552" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
-      <c r="K2" s="551"/>
-      <c r="L2" s="551"/>
-      <c r="M2" s="551"/>
-      <c r="N2" s="551"/>
-      <c r="O2" s="551"/>
-      <c r="P2" s="551"/>
-      <c r="Q2" s="551"/>
-      <c r="R2" s="551"/>
-      <c r="S2" s="551"/>
-      <c r="T2" s="551"/>
-      <c r="U2" s="551"/>
+      <c r="D2" s="553"/>
+      <c r="E2" s="553"/>
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="553"/>
+      <c r="J2" s="553"/>
+      <c r="K2" s="553"/>
+      <c r="L2" s="553"/>
+      <c r="M2" s="553"/>
+      <c r="N2" s="553"/>
+      <c r="O2" s="553"/>
+      <c r="P2" s="553"/>
+      <c r="Q2" s="553"/>
+      <c r="R2" s="553"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
+      <c r="U2" s="553"/>
       <c r="V2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="554">
+      <c r="W2" s="556">
         <v>44698</v>
       </c>
-      <c r="X2" s="555"/>
+      <c r="X2" s="557"/>
     </row>
     <row r="3" spans="1:24" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="548"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="552"/>
-      <c r="D3" s="553"/>
-      <c r="E3" s="553"/>
-      <c r="F3" s="553"/>
-      <c r="G3" s="553"/>
-      <c r="H3" s="553"/>
-      <c r="I3" s="553"/>
-      <c r="J3" s="553"/>
-      <c r="K3" s="553"/>
-      <c r="L3" s="553"/>
-      <c r="M3" s="553"/>
-      <c r="N3" s="553"/>
-      <c r="O3" s="553"/>
-      <c r="P3" s="553"/>
-      <c r="Q3" s="553"/>
-      <c r="R3" s="553"/>
-      <c r="S3" s="553"/>
-      <c r="T3" s="553"/>
-      <c r="U3" s="553"/>
+      <c r="A3" s="550"/>
+      <c r="B3" s="551"/>
+      <c r="C3" s="554"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="555"/>
+      <c r="F3" s="555"/>
+      <c r="G3" s="555"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="555"/>
+      <c r="K3" s="555"/>
+      <c r="L3" s="555"/>
+      <c r="M3" s="555"/>
+      <c r="N3" s="555"/>
+      <c r="O3" s="555"/>
+      <c r="P3" s="555"/>
+      <c r="Q3" s="555"/>
+      <c r="R3" s="555"/>
+      <c r="S3" s="555"/>
+      <c r="T3" s="555"/>
+      <c r="U3" s="555"/>
       <c r="V3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="556">
+      <c r="W3" s="558">
         <v>44698</v>
       </c>
-      <c r="X3" s="557"/>
+      <c r="X3" s="559"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -14984,26 +15686,26 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="565"/>
-      <c r="E5" s="566"/>
-      <c r="F5" s="566"/>
-      <c r="G5" s="566"/>
-      <c r="H5" s="566"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="566"/>
-      <c r="K5" s="566"/>
-      <c r="L5" s="566"/>
-      <c r="M5" s="566"/>
-      <c r="N5" s="566"/>
-      <c r="O5" s="566"/>
-      <c r="P5" s="566"/>
-      <c r="Q5" s="566"/>
-      <c r="R5" s="566"/>
-      <c r="S5" s="566"/>
-      <c r="T5" s="566"/>
-      <c r="U5" s="566"/>
-      <c r="V5" s="566"/>
-      <c r="W5" s="567"/>
+      <c r="D5" s="567"/>
+      <c r="E5" s="568"/>
+      <c r="F5" s="568"/>
+      <c r="G5" s="568"/>
+      <c r="H5" s="568"/>
+      <c r="I5" s="568"/>
+      <c r="J5" s="568"/>
+      <c r="K5" s="568"/>
+      <c r="L5" s="568"/>
+      <c r="M5" s="568"/>
+      <c r="N5" s="568"/>
+      <c r="O5" s="568"/>
+      <c r="P5" s="568"/>
+      <c r="Q5" s="568"/>
+      <c r="R5" s="568"/>
+      <c r="S5" s="568"/>
+      <c r="T5" s="568"/>
+      <c r="U5" s="568"/>
+      <c r="V5" s="568"/>
+      <c r="W5" s="569"/>
       <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -15012,104 +15714,104 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="568"/>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="569"/>
-      <c r="K6" s="569"/>
-      <c r="L6" s="569"/>
-      <c r="M6" s="569"/>
-      <c r="N6" s="569"/>
-      <c r="O6" s="569"/>
-      <c r="P6" s="569"/>
-      <c r="Q6" s="569"/>
-      <c r="R6" s="569"/>
-      <c r="S6" s="569"/>
-      <c r="T6" s="569"/>
-      <c r="U6" s="569"/>
-      <c r="V6" s="569"/>
-      <c r="W6" s="570"/>
+      <c r="D6" s="570"/>
+      <c r="E6" s="571"/>
+      <c r="F6" s="571"/>
+      <c r="G6" s="571"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="571"/>
+      <c r="K6" s="571"/>
+      <c r="L6" s="571"/>
+      <c r="M6" s="571"/>
+      <c r="N6" s="571"/>
+      <c r="O6" s="571"/>
+      <c r="P6" s="571"/>
+      <c r="Q6" s="571"/>
+      <c r="R6" s="571"/>
+      <c r="S6" s="571"/>
+      <c r="T6" s="571"/>
+      <c r="U6" s="571"/>
+      <c r="V6" s="571"/>
+      <c r="W6" s="572"/>
       <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="568"/>
-      <c r="E7" s="569"/>
-      <c r="F7" s="569"/>
-      <c r="G7" s="569"/>
-      <c r="H7" s="569"/>
-      <c r="I7" s="569"/>
-      <c r="J7" s="569"/>
-      <c r="K7" s="569"/>
-      <c r="L7" s="569"/>
-      <c r="M7" s="569"/>
-      <c r="N7" s="569"/>
-      <c r="O7" s="569"/>
-      <c r="P7" s="569"/>
-      <c r="Q7" s="569"/>
-      <c r="R7" s="569"/>
-      <c r="S7" s="569"/>
-      <c r="T7" s="569"/>
-      <c r="U7" s="569"/>
-      <c r="V7" s="569"/>
-      <c r="W7" s="570"/>
+      <c r="D7" s="570"/>
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="571"/>
+      <c r="I7" s="571"/>
+      <c r="J7" s="571"/>
+      <c r="K7" s="571"/>
+      <c r="L7" s="571"/>
+      <c r="M7" s="571"/>
+      <c r="N7" s="571"/>
+      <c r="O7" s="571"/>
+      <c r="P7" s="571"/>
+      <c r="Q7" s="571"/>
+      <c r="R7" s="571"/>
+      <c r="S7" s="571"/>
+      <c r="T7" s="571"/>
+      <c r="U7" s="571"/>
+      <c r="V7" s="571"/>
+      <c r="W7" s="572"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="568"/>
-      <c r="E8" s="569"/>
-      <c r="F8" s="569"/>
-      <c r="G8" s="569"/>
-      <c r="H8" s="569"/>
-      <c r="I8" s="569"/>
-      <c r="J8" s="569"/>
-      <c r="K8" s="569"/>
-      <c r="L8" s="569"/>
-      <c r="M8" s="569"/>
-      <c r="N8" s="569"/>
-      <c r="O8" s="569"/>
-      <c r="P8" s="569"/>
-      <c r="Q8" s="569"/>
-      <c r="R8" s="569"/>
-      <c r="S8" s="569"/>
-      <c r="T8" s="569"/>
-      <c r="U8" s="569"/>
-      <c r="V8" s="569"/>
-      <c r="W8" s="570"/>
+      <c r="D8" s="570"/>
+      <c r="E8" s="571"/>
+      <c r="F8" s="571"/>
+      <c r="G8" s="571"/>
+      <c r="H8" s="571"/>
+      <c r="I8" s="571"/>
+      <c r="J8" s="571"/>
+      <c r="K8" s="571"/>
+      <c r="L8" s="571"/>
+      <c r="M8" s="571"/>
+      <c r="N8" s="571"/>
+      <c r="O8" s="571"/>
+      <c r="P8" s="571"/>
+      <c r="Q8" s="571"/>
+      <c r="R8" s="571"/>
+      <c r="S8" s="571"/>
+      <c r="T8" s="571"/>
+      <c r="U8" s="571"/>
+      <c r="V8" s="571"/>
+      <c r="W8" s="572"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="571"/>
-      <c r="E9" s="572"/>
-      <c r="F9" s="572"/>
-      <c r="G9" s="572"/>
-      <c r="H9" s="572"/>
-      <c r="I9" s="572"/>
-      <c r="J9" s="572"/>
-      <c r="K9" s="572"/>
-      <c r="L9" s="572"/>
-      <c r="M9" s="572"/>
-      <c r="N9" s="572"/>
-      <c r="O9" s="572"/>
-      <c r="P9" s="572"/>
-      <c r="Q9" s="572"/>
-      <c r="R9" s="572"/>
-      <c r="S9" s="572"/>
-      <c r="T9" s="572"/>
-      <c r="U9" s="572"/>
-      <c r="V9" s="572"/>
-      <c r="W9" s="573"/>
+      <c r="D9" s="573"/>
+      <c r="E9" s="574"/>
+      <c r="F9" s="574"/>
+      <c r="G9" s="574"/>
+      <c r="H9" s="574"/>
+      <c r="I9" s="574"/>
+      <c r="J9" s="574"/>
+      <c r="K9" s="574"/>
+      <c r="L9" s="574"/>
+      <c r="M9" s="574"/>
+      <c r="N9" s="574"/>
+      <c r="O9" s="574"/>
+      <c r="P9" s="574"/>
+      <c r="Q9" s="574"/>
+      <c r="R9" s="574"/>
+      <c r="S9" s="574"/>
+      <c r="T9" s="574"/>
+      <c r="U9" s="574"/>
+      <c r="V9" s="574"/>
+      <c r="W9" s="575"/>
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -15139,58 +15841,58 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="558" t="s">
+      <c r="A11" s="560" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="559"/>
-      <c r="C11" s="559"/>
-      <c r="D11" s="559"/>
-      <c r="E11" s="559"/>
-      <c r="F11" s="559"/>
-      <c r="G11" s="559"/>
-      <c r="H11" s="559"/>
-      <c r="I11" s="559"/>
-      <c r="J11" s="559"/>
-      <c r="K11" s="559"/>
-      <c r="L11" s="559"/>
-      <c r="M11" s="559"/>
-      <c r="N11" s="559"/>
-      <c r="O11" s="559"/>
-      <c r="P11" s="559"/>
-      <c r="Q11" s="559"/>
-      <c r="R11" s="559"/>
-      <c r="S11" s="559"/>
-      <c r="T11" s="559"/>
-      <c r="U11" s="559"/>
-      <c r="V11" s="559"/>
-      <c r="W11" s="559"/>
-      <c r="X11" s="560"/>
+      <c r="B11" s="561"/>
+      <c r="C11" s="561"/>
+      <c r="D11" s="561"/>
+      <c r="E11" s="561"/>
+      <c r="F11" s="561"/>
+      <c r="G11" s="561"/>
+      <c r="H11" s="561"/>
+      <c r="I11" s="561"/>
+      <c r="J11" s="561"/>
+      <c r="K11" s="561"/>
+      <c r="L11" s="561"/>
+      <c r="M11" s="561"/>
+      <c r="N11" s="561"/>
+      <c r="O11" s="561"/>
+      <c r="P11" s="561"/>
+      <c r="Q11" s="561"/>
+      <c r="R11" s="561"/>
+      <c r="S11" s="561"/>
+      <c r="T11" s="561"/>
+      <c r="U11" s="561"/>
+      <c r="V11" s="561"/>
+      <c r="W11" s="561"/>
+      <c r="X11" s="562"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="561"/>
-      <c r="B12" s="562"/>
-      <c r="C12" s="562"/>
-      <c r="D12" s="562"/>
-      <c r="E12" s="562"/>
-      <c r="F12" s="562"/>
-      <c r="G12" s="562"/>
-      <c r="H12" s="562"/>
-      <c r="I12" s="563"/>
-      <c r="J12" s="562"/>
-      <c r="K12" s="562"/>
-      <c r="L12" s="562"/>
-      <c r="M12" s="562"/>
-      <c r="N12" s="562"/>
-      <c r="O12" s="562"/>
-      <c r="P12" s="562"/>
-      <c r="Q12" s="562"/>
-      <c r="R12" s="562"/>
-      <c r="S12" s="562"/>
-      <c r="T12" s="562"/>
-      <c r="U12" s="562"/>
-      <c r="V12" s="562"/>
-      <c r="W12" s="562"/>
-      <c r="X12" s="564"/>
+      <c r="A12" s="563"/>
+      <c r="B12" s="564"/>
+      <c r="C12" s="564"/>
+      <c r="D12" s="564"/>
+      <c r="E12" s="564"/>
+      <c r="F12" s="564"/>
+      <c r="G12" s="564"/>
+      <c r="H12" s="564"/>
+      <c r="I12" s="565"/>
+      <c r="J12" s="564"/>
+      <c r="K12" s="564"/>
+      <c r="L12" s="564"/>
+      <c r="M12" s="564"/>
+      <c r="N12" s="564"/>
+      <c r="O12" s="564"/>
+      <c r="P12" s="564"/>
+      <c r="Q12" s="564"/>
+      <c r="R12" s="564"/>
+      <c r="S12" s="564"/>
+      <c r="T12" s="564"/>
+      <c r="U12" s="564"/>
+      <c r="V12" s="564"/>
+      <c r="W12" s="564"/>
+      <c r="X12" s="566"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
@@ -17001,7 +17703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
@@ -17014,54 +17716,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="546" t="s">
+      <c r="A2" s="548" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="550" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="552" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
-      <c r="K2" s="551"/>
-      <c r="L2" s="551"/>
-      <c r="M2" s="551"/>
-      <c r="N2" s="551"/>
+      <c r="D2" s="553"/>
+      <c r="E2" s="553"/>
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="553"/>
+      <c r="J2" s="553"/>
+      <c r="K2" s="553"/>
+      <c r="L2" s="553"/>
+      <c r="M2" s="553"/>
+      <c r="N2" s="553"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="554">
+      <c r="P2" s="556">
         <v>44698</v>
       </c>
-      <c r="Q2" s="555"/>
+      <c r="Q2" s="557"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="548"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="552"/>
-      <c r="D3" s="553"/>
-      <c r="E3" s="553"/>
-      <c r="F3" s="553"/>
-      <c r="G3" s="553"/>
-      <c r="H3" s="553"/>
-      <c r="I3" s="553"/>
-      <c r="J3" s="553"/>
-      <c r="K3" s="553"/>
-      <c r="L3" s="553"/>
-      <c r="M3" s="553"/>
-      <c r="N3" s="553"/>
+      <c r="A3" s="550"/>
+      <c r="B3" s="551"/>
+      <c r="C3" s="554"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="555"/>
+      <c r="F3" s="555"/>
+      <c r="G3" s="555"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="555"/>
+      <c r="K3" s="555"/>
+      <c r="L3" s="555"/>
+      <c r="M3" s="555"/>
+      <c r="N3" s="555"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="556">
+      <c r="P3" s="558">
         <v>44698</v>
       </c>
-      <c r="Q3" s="557"/>
+      <c r="Q3" s="559"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -18389,12 +19091,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O333"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A314" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18409,50 +19109,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="546" t="s">
+      <c r="A2" s="548" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="550" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="552" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
-      <c r="K2" s="551"/>
-      <c r="L2" s="551"/>
+      <c r="D2" s="553"/>
+      <c r="E2" s="553"/>
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="553"/>
+      <c r="J2" s="553"/>
+      <c r="K2" s="553"/>
+      <c r="L2" s="553"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="554">
+      <c r="N2" s="556">
         <v>44698</v>
       </c>
-      <c r="O2" s="555"/>
+      <c r="O2" s="557"/>
     </row>
     <row r="3" spans="1:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="548"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="552"/>
-      <c r="D3" s="553"/>
-      <c r="E3" s="553"/>
-      <c r="F3" s="553"/>
-      <c r="G3" s="553"/>
-      <c r="H3" s="553"/>
-      <c r="I3" s="553"/>
-      <c r="J3" s="553"/>
-      <c r="K3" s="553"/>
-      <c r="L3" s="553"/>
+      <c r="A3" s="550"/>
+      <c r="B3" s="551"/>
+      <c r="C3" s="554"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="555"/>
+      <c r="F3" s="555"/>
+      <c r="G3" s="555"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="555"/>
+      <c r="K3" s="555"/>
+      <c r="L3" s="555"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="556">
+      <c r="N3" s="558">
         <v>44702</v>
       </c>
-      <c r="O3" s="557"/>
+      <c r="O3" s="559"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -18573,10 +19273,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="211" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" s="211" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E9" s="213" t="s">
         <v>145</v>
@@ -18738,7 +19438,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="429" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D14" s="429"/>
       <c r="E14" s="430" t="s">
@@ -18967,10 +19667,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="185" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D21" s="185" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E21" s="186" t="s">
         <v>146</v>
@@ -19309,10 +20009,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="251" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D33" s="251" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E33" s="253" t="s">
         <v>145</v>
@@ -19441,10 +20141,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="429" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D37" s="429" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E37" s="430" t="s">
         <v>146</v>
@@ -19746,10 +20446,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="294" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D48" s="294" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E48" s="296" t="s">
         <v>145</v>
@@ -20121,10 +20821,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="334" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D61" s="334" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E61" s="336" t="s">
         <v>145</v>
@@ -20221,7 +20921,7 @@
         <v>128</v>
       </c>
       <c r="D64" s="305" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E64" s="306" t="s">
         <v>146</v>
@@ -20527,10 +21227,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="379" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D75" s="379" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E75" s="381" t="s">
         <v>145</v>
@@ -20596,7 +21296,7 @@
         <v>128</v>
       </c>
       <c r="D77" s="429" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E77" s="430" t="s">
         <v>146</v>
@@ -20626,7 +21326,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="350" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D78" s="350" t="s">
         <v>183</v>
@@ -20659,10 +21359,10 @@
         <v>5</v>
       </c>
       <c r="C79" s="350" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D79" s="350" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E79" s="351" t="s">
         <v>146</v>
@@ -20692,10 +21392,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="350" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D80" s="350" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E80" s="351" t="s">
         <v>146</v>
@@ -20725,10 +21425,10 @@
         <v>7</v>
       </c>
       <c r="C81" s="350" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D81" s="350" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E81" s="351" t="s">
         <v>146</v>
@@ -21171,10 +21871,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="418" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D99" s="418" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E99" s="420" t="s">
         <v>145</v>
@@ -21336,10 +22036,10 @@
         <v>6</v>
       </c>
       <c r="C104" s="429" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D104" s="429" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E104" s="430" t="s">
         <v>146</v>
@@ -21402,10 +22102,10 @@
         <v>8</v>
       </c>
       <c r="C106" s="429" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="429" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E106" s="430" t="s">
         <v>146</v>
@@ -21424,7 +22124,7 @@
       </c>
       <c r="J106" s="430"/>
       <c r="K106" s="433" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L106" s="422"/>
       <c r="M106" s="422"/>
@@ -21713,10 +22413,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="474" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D117" s="474" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E117" s="476" t="s">
         <v>145</v>
@@ -21782,7 +22482,7 @@
         <v>187</v>
       </c>
       <c r="D119" s="429" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E119" s="430" t="s">
         <v>146</v>
@@ -21815,7 +22515,7 @@
         <v>128</v>
       </c>
       <c r="D120" s="429" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E120" s="430" t="s">
         <v>146</v>
@@ -21848,7 +22548,7 @@
         <v>200</v>
       </c>
       <c r="D121" s="429" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E121" s="430" t="s">
         <v>146</v>
@@ -21881,7 +22581,7 @@
         <v>201</v>
       </c>
       <c r="D122" s="429" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E122" s="430" t="s">
         <v>146</v>
@@ -21914,7 +22614,7 @@
         <v>202</v>
       </c>
       <c r="D123" s="429" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E123" s="430" t="s">
         <v>146</v>
@@ -21977,10 +22677,10 @@
         <v>9</v>
       </c>
       <c r="C125" s="467" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D125" s="467" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E125" s="468" t="s">
         <v>146</v>
@@ -22043,10 +22743,10 @@
         <v>11</v>
       </c>
       <c r="C127" s="429" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D127" s="429" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E127" s="430" t="s">
         <v>146</v>
@@ -22065,7 +22765,7 @@
       </c>
       <c r="J127" s="430"/>
       <c r="K127" s="433" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L127" s="422"/>
       <c r="M127" s="422"/>
@@ -22387,10 +23087,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="474" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D139" s="474" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E139" s="476" t="s">
         <v>145</v>
@@ -22420,7 +23120,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="429" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D140" s="429" t="s">
         <v>192</v>
@@ -22688,7 +23388,7 @@
       </c>
       <c r="C149" s="494"/>
       <c r="D149" s="498" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E149" s="499"/>
       <c r="F149" s="499"/>
@@ -22762,10 +23462,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="505" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D152" s="505" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E152" s="506" t="s">
         <v>145</v>
@@ -22795,10 +23495,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="509" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D153" s="509" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E153" s="510" t="s">
         <v>146</v>
@@ -22831,7 +23531,7 @@
         <v>128</v>
       </c>
       <c r="D154" s="514" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E154" s="510" t="s">
         <v>146</v>
@@ -22861,10 +23561,10 @@
         <v>4</v>
       </c>
       <c r="C155" s="514" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D155" s="514" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E155" s="510" t="s">
         <v>146</v>
@@ -22897,7 +23597,7 @@
         <v>203</v>
       </c>
       <c r="D156" s="514" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E156" s="510" t="s">
         <v>146</v>
@@ -23119,7 +23819,7 @@
       </c>
       <c r="C164" s="125"/>
       <c r="D164" s="129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E164" s="130"/>
       <c r="F164" s="130"/>
@@ -23192,10 +23892,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="133" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D167" s="133" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E167" s="135" t="s">
         <v>145</v>
@@ -23221,10 +23921,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D168" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E168" s="103" t="s">
         <v>146</v>
@@ -23254,10 +23954,10 @@
         <v>3</v>
       </c>
       <c r="C169" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="D169" s="121" t="s">
         <v>282</v>
-      </c>
-      <c r="D169" s="121" t="s">
-        <v>284</v>
       </c>
       <c r="E169" s="103" t="s">
         <v>146</v>
@@ -23287,10 +23987,10 @@
         <v>4</v>
       </c>
       <c r="C170" s="462" t="s">
+        <v>281</v>
+      </c>
+      <c r="D170" s="462" t="s">
         <v>283</v>
-      </c>
-      <c r="D170" s="462" t="s">
-        <v>285</v>
       </c>
       <c r="E170" s="430" t="s">
         <v>146</v>
@@ -23320,10 +24020,10 @@
         <v>5</v>
       </c>
       <c r="C171" s="121" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D171" s="121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E171" s="103" t="s">
         <v>146</v>
@@ -23572,7 +24272,7 @@
       </c>
       <c r="C180" s="470"/>
       <c r="D180" s="170" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E180" s="171"/>
       <c r="F180" s="171"/>
@@ -23645,10 +24345,10 @@
         <v>1</v>
       </c>
       <c r="C183" s="474" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D183" s="474" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E183" s="476" t="s">
         <v>145</v>
@@ -23677,10 +24377,10 @@
         <v>2</v>
       </c>
       <c r="C184" s="429" t="s">
+        <v>280</v>
+      </c>
+      <c r="D184" s="429" t="s">
         <v>282</v>
-      </c>
-      <c r="D184" s="429" t="s">
-        <v>284</v>
       </c>
       <c r="E184" s="430" t="s">
         <v>146</v>
@@ -23710,10 +24410,10 @@
         <v>3</v>
       </c>
       <c r="C185" s="462" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D185" s="462" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E185" s="430" t="s">
         <v>146</v>
@@ -23743,7 +24443,7 @@
         <v>4</v>
       </c>
       <c r="C186" s="462" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D186" s="462"/>
       <c r="E186" s="430" t="s">
@@ -23993,7 +24693,7 @@
       </c>
       <c r="C195" s="470"/>
       <c r="D195" s="170" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E195" s="171"/>
       <c r="F195" s="171"/>
@@ -24066,10 +24766,10 @@
         <v>1</v>
       </c>
       <c r="C198" s="474" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D198" s="474" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E198" s="476" t="s">
         <v>145</v>
@@ -24098,10 +24798,10 @@
         <v>2</v>
       </c>
       <c r="C199" s="429" t="s">
+        <v>281</v>
+      </c>
+      <c r="D199" s="429" t="s">
         <v>283</v>
-      </c>
-      <c r="D199" s="429" t="s">
-        <v>285</v>
       </c>
       <c r="E199" s="430" t="s">
         <v>146</v>
@@ -24131,10 +24831,10 @@
         <v>3</v>
       </c>
       <c r="C200" s="462" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D200" s="462" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E200" s="430" t="s">
         <v>146</v>
@@ -24164,7 +24864,7 @@
         <v>4</v>
       </c>
       <c r="C201" s="462" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D201" s="462"/>
       <c r="E201" s="430" t="s">
@@ -24431,7 +25131,7 @@
       </c>
       <c r="C213" s="167"/>
       <c r="D213" s="170" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E213" s="171"/>
       <c r="F213" s="171"/>
@@ -24490,10 +25190,10 @@
         <v>1</v>
       </c>
       <c r="C216" s="174" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D216" s="174" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E216" s="176" t="s">
         <v>145</v>
@@ -24514,14 +25214,14 @@
       <c r="K216" s="175"/>
     </row>
     <row r="217" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B217" s="574">
+      <c r="B217" s="538">
         <v>2</v>
       </c>
       <c r="C217" s="474" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D217" s="474" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E217" s="476" t="s">
         <v>146</v>
@@ -24539,7 +25239,7 @@
         <v>11</v>
       </c>
       <c r="J217" s="474"/>
-      <c r="K217" s="575"/>
+      <c r="K217" s="539"/>
     </row>
     <row r="218" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A218" s="166"/>
@@ -24547,7 +25247,7 @@
         <v>3</v>
       </c>
       <c r="C218" s="144" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D218" s="144"/>
       <c r="E218" s="476" t="s">
@@ -24578,7 +25278,7 @@
         <v>4</v>
       </c>
       <c r="C219" s="163" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D219" s="163"/>
       <c r="E219" s="145" t="s">
@@ -24609,7 +25309,7 @@
         <v>5</v>
       </c>
       <c r="C220" s="462" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D220" s="462" t="s">
         <v>199</v>
@@ -24918,10 +25618,10 @@
         <v>1</v>
       </c>
       <c r="C231" s="174" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D231" s="174" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E231" s="176" t="s">
         <v>145</v>
@@ -24951,10 +25651,10 @@
         <v>2</v>
       </c>
       <c r="C232" s="144" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D232" s="144" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E232" s="145" t="s">
         <v>146</v>
@@ -24984,10 +25684,10 @@
         <v>3</v>
       </c>
       <c r="C233" s="163" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D233" s="163" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E233" s="145" t="s">
         <v>146</v>
@@ -25017,10 +25717,10 @@
         <v>4</v>
       </c>
       <c r="C234" s="163" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D234" s="163" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E234" s="145" t="s">
         <v>146</v>
@@ -25050,10 +25750,10 @@
         <v>5</v>
       </c>
       <c r="C235" s="462" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D235" s="462" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E235" s="430" t="s">
         <v>146</v>
@@ -25072,7 +25772,7 @@
       </c>
       <c r="J235" s="463"/>
       <c r="K235" s="477" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L235" s="137"/>
       <c r="M235" s="137"/>
@@ -25276,7 +25976,7 @@
       </c>
       <c r="C243" s="470"/>
       <c r="D243" s="170" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E243" s="171"/>
       <c r="F243" s="171"/>
@@ -25335,10 +26035,10 @@
         <v>1</v>
       </c>
       <c r="C246" s="474" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D246" s="474" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E246" s="476" t="s">
         <v>145</v>
@@ -25359,14 +26059,14 @@
       <c r="K246" s="475"/>
     </row>
     <row r="247" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B247" s="574">
+      <c r="B247" s="538">
         <v>2</v>
       </c>
       <c r="C247" s="474" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D247" s="474" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E247" s="476" t="s">
         <v>146</v>
@@ -25384,7 +26084,7 @@
         <v>11</v>
       </c>
       <c r="J247" s="474"/>
-      <c r="K247" s="575"/>
+      <c r="K247" s="539"/>
     </row>
     <row r="248" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A248" s="465"/>
@@ -25392,7 +26092,7 @@
         <v>3</v>
       </c>
       <c r="C248" s="429" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D248" s="429"/>
       <c r="E248" s="476" t="s">
@@ -25423,7 +26123,7 @@
         <v>4</v>
       </c>
       <c r="C249" s="462" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D249" s="462"/>
       <c r="E249" s="430" t="s">
@@ -25454,7 +26154,7 @@
         <v>5</v>
       </c>
       <c r="C250" s="462" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D250" s="462" t="s">
         <v>199</v>
@@ -25655,7 +26355,7 @@
       </c>
       <c r="C260" s="470"/>
       <c r="D260" s="170" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E260" s="171"/>
       <c r="F260" s="171"/>
@@ -25714,10 +26414,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="474" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D263" s="474" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E263" s="476" t="s">
         <v>145</v>
@@ -25738,14 +26438,14 @@
       <c r="K263" s="475"/>
     </row>
     <row r="264" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B264" s="574">
+      <c r="B264" s="538">
         <v>2</v>
       </c>
       <c r="C264" s="474" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D264" s="474" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E264" s="476" t="s">
         <v>146</v>
@@ -25759,7 +26459,7 @@
       <c r="H264" s="474"/>
       <c r="I264" s="476"/>
       <c r="J264" s="474"/>
-      <c r="K264" s="575"/>
+      <c r="K264" s="539"/>
     </row>
     <row r="265" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A265" s="465"/>
@@ -25767,7 +26467,7 @@
         <v>3</v>
       </c>
       <c r="C265" s="429" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D265" s="429"/>
       <c r="E265" s="476" t="s">
@@ -25798,7 +26498,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="462" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D266" s="462"/>
       <c r="E266" s="430" t="s">
@@ -25829,7 +26529,7 @@
         <v>5</v>
       </c>
       <c r="C267" s="462" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D267" s="462" t="s">
         <v>199</v>
@@ -25862,10 +26562,10 @@
         <v>6</v>
       </c>
       <c r="C268" s="462" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D268" s="462" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E268" s="430" t="s">
         <v>146</v>
@@ -26063,7 +26763,7 @@
       </c>
       <c r="C276" s="470"/>
       <c r="D276" s="170" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E276" s="171"/>
       <c r="F276" s="171"/>
@@ -26122,10 +26822,10 @@
         <v>1</v>
       </c>
       <c r="C279" s="474" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D279" s="474" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E279" s="476" t="s">
         <v>145</v>
@@ -26151,10 +26851,10 @@
         <v>2</v>
       </c>
       <c r="C280" s="429" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D280" s="429" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E280" s="430" t="s">
         <v>146</v>
@@ -26184,10 +26884,10 @@
         <v>3</v>
       </c>
       <c r="C281" s="462" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D281" s="462" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E281" s="430" t="s">
         <v>146</v>
@@ -26217,10 +26917,10 @@
         <v>4</v>
       </c>
       <c r="C282" s="462" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D282" s="462" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E282" s="430" t="s">
         <v>146</v>
@@ -26250,10 +26950,10 @@
         <v>5</v>
       </c>
       <c r="C283" s="462" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D283" s="462" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E283" s="430" t="s">
         <v>146</v>
@@ -26283,10 +26983,10 @@
         <v>6</v>
       </c>
       <c r="C284" s="462" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D284" s="462" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E284" s="430" t="s">
         <v>146</v>
@@ -26316,10 +27016,10 @@
         <v>7</v>
       </c>
       <c r="C285" s="462" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D285" s="462" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E285" s="430" t="s">
         <v>146</v>
@@ -26349,10 +27049,10 @@
         <v>8</v>
       </c>
       <c r="C286" s="462" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="D286" s="462" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="E286" s="430" t="s">
         <v>146</v>
@@ -26382,10 +27082,10 @@
         <v>9</v>
       </c>
       <c r="C287" s="462" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="D287" s="462" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="E287" s="430" t="s">
         <v>146</v>
@@ -26412,13 +27112,13 @@
     <row r="288" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A288" s="423"/>
       <c r="B288" s="428">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C288" s="462" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D288" s="462" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E288" s="430" t="s">
         <v>146</v>
@@ -26445,13 +27145,13 @@
     <row r="289" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A289" s="423"/>
       <c r="B289" s="428">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C289" s="462" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D289" s="462" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E289" s="430" t="s">
         <v>146</v>
@@ -26478,13 +27178,13 @@
     <row r="290" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A290" s="423"/>
       <c r="B290" s="428">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C290" s="462" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D290" s="462" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E290" s="430" t="s">
         <v>146</v>
@@ -26511,66 +27211,64 @@
     <row r="291" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A291" s="423"/>
       <c r="B291" s="428">
-        <v>13</v>
-      </c>
-      <c r="C291" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D291" s="429" t="s">
-        <v>167</v>
+        <v>12</v>
+      </c>
+      <c r="C291" s="462" t="s">
+        <v>317</v>
+      </c>
+      <c r="D291" s="462" t="s">
+        <v>320</v>
       </c>
       <c r="E291" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F291" s="430" t="s">
+      <c r="F291" s="472" t="s">
         <v>146</v>
       </c>
       <c r="G291" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H291" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I291" s="430">
-        <v>11</v>
-      </c>
-      <c r="J291" s="430"/>
-      <c r="K291" s="288" t="s">
-        <v>168</v>
-      </c>
+      <c r="H291" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I291" s="472">
+        <v>256</v>
+      </c>
+      <c r="J291" s="463"/>
+      <c r="K291" s="477"/>
       <c r="L291" s="422"/>
       <c r="M291" s="422"/>
       <c r="N291" s="422"/>
       <c r="O291" s="424"/>
     </row>
     <row r="292" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A292" s="465"/>
+      <c r="A292" s="423"/>
       <c r="B292" s="428">
-        <v>14</v>
-      </c>
-      <c r="C292" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D292" s="456" t="s">
-        <v>159</v>
+        <v>13</v>
+      </c>
+      <c r="C292" s="462" t="s">
+        <v>318</v>
+      </c>
+      <c r="D292" s="462" t="s">
+        <v>321</v>
       </c>
       <c r="E292" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F292" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G292" s="457" t="s">
+      <c r="F292" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G292" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H292" s="458" t="s">
+      <c r="H292" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I292" s="457">
-        <v>10</v>
-      </c>
-      <c r="J292" s="457"/>
-      <c r="K292" s="459"/>
+      <c r="I292" s="472">
+        <v>256</v>
+      </c>
+      <c r="J292" s="463"/>
+      <c r="K292" s="477"/>
       <c r="L292" s="422"/>
       <c r="M292" s="422"/>
       <c r="N292" s="422"/>
@@ -26579,13 +27277,13 @@
     <row r="293" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A293" s="423"/>
       <c r="B293" s="428">
-        <v>15</v>
-      </c>
-      <c r="C293" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D293" s="449" t="s">
-        <v>160</v>
+        <v>14</v>
+      </c>
+      <c r="C293" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D293" s="429" t="s">
+        <v>167</v>
       </c>
       <c r="E293" s="430" t="s">
         <v>146</v>
@@ -26593,32 +27291,34 @@
       <c r="F293" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="G293" s="450" t="s">
+      <c r="G293" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H293" s="451" t="s">
-        <v>148</v>
-      </c>
-      <c r="I293" s="450">
-        <v>256</v>
-      </c>
-      <c r="J293" s="450"/>
-      <c r="K293" s="452"/>
+      <c r="H293" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I293" s="430">
+        <v>11</v>
+      </c>
+      <c r="J293" s="430"/>
+      <c r="K293" s="288" t="s">
+        <v>168</v>
+      </c>
       <c r="L293" s="422"/>
       <c r="M293" s="422"/>
       <c r="N293" s="422"/>
       <c r="O293" s="424"/>
     </row>
     <row r="294" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A294" s="422"/>
+      <c r="A294" s="465"/>
       <c r="B294" s="428">
-        <v>16</v>
-      </c>
-      <c r="C294" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D294" s="449" t="s">
-        <v>158</v>
+        <v>15</v>
+      </c>
+      <c r="C294" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D294" s="456" t="s">
+        <v>159</v>
       </c>
       <c r="E294" s="430" t="s">
         <v>146</v>
@@ -26626,266 +27326,266 @@
       <c r="F294" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="G294" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H294" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I294" s="450">
-        <v>11</v>
-      </c>
-      <c r="J294" s="450"/>
-      <c r="K294" s="452"/>
+      <c r="G294" s="457" t="s">
+        <v>145</v>
+      </c>
+      <c r="H294" s="458" t="s">
+        <v>148</v>
+      </c>
+      <c r="I294" s="457">
+        <v>10</v>
+      </c>
+      <c r="J294" s="457"/>
+      <c r="K294" s="459"/>
       <c r="L294" s="422"/>
       <c r="M294" s="422"/>
       <c r="N294" s="422"/>
       <c r="O294" s="424"/>
     </row>
-    <row r="295" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A295" s="423"/>
-      <c r="B295" s="434">
-        <v>17</v>
-      </c>
-      <c r="C295" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D295" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E295" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F295" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G295" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H295" s="437" t="s">
+      <c r="B295" s="428">
+        <v>16</v>
+      </c>
+      <c r="C295" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D295" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E295" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F295" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G295" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H295" s="451" t="s">
         <v>148</v>
       </c>
-      <c r="I295" s="436">
+      <c r="I295" s="450">
         <v>256</v>
       </c>
-      <c r="J295" s="436"/>
-      <c r="K295" s="438"/>
+      <c r="J295" s="450"/>
+      <c r="K295" s="452"/>
       <c r="L295" s="422"/>
       <c r="M295" s="422"/>
       <c r="N295" s="422"/>
       <c r="O295" s="424"/>
     </row>
-    <row r="298" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="299" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="423"/>
-      <c r="B299" s="169" t="s">
+    <row r="296" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A296" s="422"/>
+      <c r="B296" s="428">
+        <v>17</v>
+      </c>
+      <c r="C296" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D296" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E296" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F296" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G296" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H296" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I296" s="450">
+        <v>11</v>
+      </c>
+      <c r="J296" s="450"/>
+      <c r="K296" s="452"/>
+      <c r="L296" s="422"/>
+      <c r="M296" s="422"/>
+      <c r="N296" s="422"/>
+      <c r="O296" s="424"/>
+    </row>
+    <row r="297" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A297" s="423"/>
+      <c r="B297" s="434">
+        <v>18</v>
+      </c>
+      <c r="C297" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D297" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E297" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F297" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G297" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H297" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I297" s="436">
+        <v>256</v>
+      </c>
+      <c r="J297" s="436"/>
+      <c r="K297" s="438"/>
+      <c r="L297" s="422"/>
+      <c r="M297" s="422"/>
+      <c r="N297" s="422"/>
+      <c r="O297" s="424"/>
+    </row>
+    <row r="300" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="301" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A301" s="423"/>
+      <c r="B301" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C299" s="470"/>
-      <c r="D299" s="170" t="s">
-        <v>325</v>
-      </c>
-      <c r="E299" s="171"/>
-      <c r="F299" s="171"/>
-      <c r="G299" s="172"/>
-      <c r="H299" s="470"/>
-      <c r="I299" s="470"/>
-      <c r="J299" s="470"/>
-      <c r="K299" s="470"/>
-      <c r="L299" s="422"/>
-      <c r="M299" s="422"/>
-      <c r="N299" s="422"/>
-      <c r="O299" s="424"/>
-    </row>
-    <row r="300" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="423"/>
-      <c r="B300" s="422"/>
-      <c r="C300" s="422"/>
-      <c r="D300" s="422"/>
-      <c r="E300" s="422"/>
-      <c r="F300" s="422"/>
-      <c r="G300" s="422"/>
-      <c r="H300" s="422"/>
-      <c r="I300" s="422"/>
-      <c r="J300" s="422"/>
-      <c r="K300" s="422"/>
-      <c r="L300" s="422"/>
-      <c r="M300" s="422"/>
-      <c r="N300" s="422"/>
-      <c r="O300" s="424"/>
-    </row>
-    <row r="301" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A301" s="423"/>
-      <c r="B301" s="425" t="s">
-        <v>0</v>
-      </c>
-      <c r="C301" s="426" t="s">
-        <v>30</v>
-      </c>
-      <c r="D301" s="426" t="s">
-        <v>31</v>
-      </c>
-      <c r="E301" s="426" t="s">
-        <v>32</v>
-      </c>
-      <c r="F301" s="426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G301" s="426" t="s">
-        <v>34</v>
-      </c>
-      <c r="H301" s="426" t="s">
-        <v>35</v>
-      </c>
-      <c r="I301" s="426" t="s">
-        <v>36</v>
-      </c>
-      <c r="J301" s="426" t="s">
-        <v>37</v>
-      </c>
-      <c r="K301" s="427" t="s">
-        <v>38</v>
-      </c>
+      <c r="C301" s="470"/>
+      <c r="D301" s="170" t="s">
+        <v>322</v>
+      </c>
+      <c r="E301" s="171"/>
+      <c r="F301" s="171"/>
+      <c r="G301" s="172"/>
+      <c r="H301" s="470"/>
+      <c r="I301" s="470"/>
+      <c r="J301" s="470"/>
+      <c r="K301" s="470"/>
       <c r="L301" s="422"/>
       <c r="M301" s="422"/>
       <c r="N301" s="422"/>
       <c r="O301" s="424"/>
     </row>
-    <row r="302" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B302" s="473">
+    <row r="302" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="423"/>
+      <c r="B302" s="422"/>
+      <c r="C302" s="422"/>
+      <c r="D302" s="422"/>
+      <c r="E302" s="422"/>
+      <c r="F302" s="422"/>
+      <c r="G302" s="422"/>
+      <c r="H302" s="422"/>
+      <c r="I302" s="422"/>
+      <c r="J302" s="422"/>
+      <c r="K302" s="422"/>
+      <c r="L302" s="422"/>
+      <c r="M302" s="422"/>
+      <c r="N302" s="422"/>
+      <c r="O302" s="424"/>
+    </row>
+    <row r="303" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A303" s="423"/>
+      <c r="B303" s="425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" s="426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D303" s="426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E303" s="426" t="s">
+        <v>32</v>
+      </c>
+      <c r="F303" s="426" t="s">
+        <v>33</v>
+      </c>
+      <c r="G303" s="426" t="s">
+        <v>34</v>
+      </c>
+      <c r="H303" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I303" s="426" t="s">
+        <v>36</v>
+      </c>
+      <c r="J303" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="K303" s="427" t="s">
+        <v>38</v>
+      </c>
+      <c r="L303" s="422"/>
+      <c r="M303" s="422"/>
+      <c r="N303" s="422"/>
+      <c r="O303" s="424"/>
+    </row>
+    <row r="304" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B304" s="473">
         <v>1</v>
       </c>
-      <c r="C302" s="474" t="s">
-        <v>238</v>
-      </c>
-      <c r="D302" s="474" t="s">
-        <v>239</v>
-      </c>
-      <c r="E302" s="476" t="s">
+      <c r="C304" s="474" t="s">
+        <v>236</v>
+      </c>
+      <c r="D304" s="474" t="s">
+        <v>237</v>
+      </c>
+      <c r="E304" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="F302" s="476" t="s">
+      <c r="F304" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="G302" s="476" t="s">
+      <c r="G304" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H302" s="474" t="s">
+      <c r="H304" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I302" s="476">
+      <c r="I304" s="476">
         <v>11</v>
       </c>
-      <c r="J302" s="474"/>
-      <c r="K302" s="475"/>
-    </row>
-    <row r="303" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B303" s="574">
+      <c r="J304" s="474"/>
+      <c r="K304" s="475"/>
+    </row>
+    <row r="305" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B305" s="538">
         <v>2</v>
       </c>
-      <c r="C303" s="474" t="s">
-        <v>348</v>
-      </c>
-      <c r="D303" s="474" t="s">
-        <v>349</v>
-      </c>
-      <c r="E303" s="476"/>
-      <c r="F303" s="476" t="s">
-        <v>146</v>
-      </c>
-      <c r="G303" s="476" t="s">
+      <c r="C305" s="474" t="s">
+        <v>343</v>
+      </c>
+      <c r="D305" s="474" t="s">
+        <v>344</v>
+      </c>
+      <c r="E305" s="476"/>
+      <c r="F305" s="476" t="s">
+        <v>146</v>
+      </c>
+      <c r="G305" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H303" s="474" t="s">
+      <c r="H305" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I303" s="476">
+      <c r="I305" s="476">
         <v>11</v>
       </c>
-      <c r="J303" s="474"/>
-      <c r="K303" s="575"/>
-    </row>
-    <row r="304" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A304" s="465"/>
-      <c r="B304" s="276">
-        <v>3</v>
-      </c>
-      <c r="C304" s="429" t="s">
-        <v>328</v>
-      </c>
-      <c r="D304" s="429" t="s">
-        <v>326</v>
-      </c>
-      <c r="E304" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F304" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G304" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H304" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I304" s="430">
-        <v>256</v>
-      </c>
-      <c r="J304" s="430"/>
-      <c r="K304" s="452"/>
-      <c r="L304" s="470"/>
-      <c r="M304" s="422"/>
-      <c r="N304" s="422"/>
-      <c r="O304" s="424"/>
-    </row>
-    <row r="305" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A305" s="465"/>
-      <c r="B305" s="276">
-        <v>4</v>
-      </c>
-      <c r="C305" s="462" t="s">
-        <v>329</v>
-      </c>
-      <c r="D305" s="462" t="s">
-        <v>311</v>
-      </c>
-      <c r="E305" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F305" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G305" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H305" s="431" t="s">
-        <v>148</v>
-      </c>
-      <c r="I305" s="430">
-        <v>256</v>
-      </c>
-      <c r="J305" s="537"/>
-      <c r="K305" s="452"/>
-      <c r="L305" s="470"/>
-      <c r="M305" s="422"/>
-      <c r="N305" s="422"/>
-      <c r="O305" s="424"/>
+      <c r="J305" s="474"/>
+      <c r="K305" s="539"/>
     </row>
     <row r="306" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A306" s="465"/>
       <c r="B306" s="276">
-        <v>5</v>
-      </c>
-      <c r="C306" s="462" t="s">
-        <v>306</v>
-      </c>
-      <c r="D306" s="462" t="s">
-        <v>312</v>
+        <v>3</v>
+      </c>
+      <c r="C306" s="429" t="s">
+        <v>325</v>
+      </c>
+      <c r="D306" s="429" t="s">
+        <v>323</v>
       </c>
       <c r="E306" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F306" s="472" t="s">
+      <c r="F306" s="430" t="s">
         <v>146</v>
       </c>
       <c r="G306" s="430" t="s">
@@ -26897,7 +27597,7 @@
       <c r="I306" s="430">
         <v>256</v>
       </c>
-      <c r="J306" s="537"/>
+      <c r="J306" s="430"/>
       <c r="K306" s="452"/>
       <c r="L306" s="470"/>
       <c r="M306" s="422"/>
@@ -26905,15 +27605,15 @@
       <c r="O306" s="424"/>
     </row>
     <row r="307" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A307" s="423"/>
-      <c r="B307" s="428">
-        <v>6</v>
+      <c r="A307" s="465"/>
+      <c r="B307" s="276">
+        <v>4</v>
       </c>
       <c r="C307" s="462" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="D307" s="462" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="E307" s="430" t="s">
         <v>146</v>
@@ -26924,29 +27624,29 @@
       <c r="G307" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H307" s="462" t="s">
-        <v>147</v>
-      </c>
-      <c r="I307" s="472">
+      <c r="H307" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I307" s="430">
         <v>256</v>
       </c>
-      <c r="J307" s="463"/>
-      <c r="K307" s="464"/>
-      <c r="L307" s="422"/>
+      <c r="J307" s="537"/>
+      <c r="K307" s="452"/>
+      <c r="L307" s="470"/>
       <c r="M307" s="422"/>
       <c r="N307" s="422"/>
       <c r="O307" s="424"/>
     </row>
     <row r="308" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A308" s="423"/>
-      <c r="B308" s="461">
-        <v>7</v>
+      <c r="A308" s="465"/>
+      <c r="B308" s="276">
+        <v>5</v>
       </c>
       <c r="C308" s="462" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D308" s="462" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="E308" s="430" t="s">
         <v>146</v>
@@ -26957,29 +27657,29 @@
       <c r="G308" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H308" s="462" t="s">
-        <v>147</v>
-      </c>
-      <c r="I308" s="472">
+      <c r="H308" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="I308" s="430">
         <v>256</v>
       </c>
-      <c r="J308" s="463"/>
-      <c r="K308" s="464"/>
-      <c r="L308" s="422"/>
+      <c r="J308" s="537"/>
+      <c r="K308" s="452"/>
+      <c r="L308" s="470"/>
       <c r="M308" s="422"/>
       <c r="N308" s="422"/>
       <c r="O308" s="424"/>
     </row>
     <row r="309" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A309" s="423"/>
-      <c r="B309" s="461">
-        <v>8</v>
+      <c r="B309" s="428">
+        <v>6</v>
       </c>
       <c r="C309" s="462" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="D309" s="462" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="E309" s="430" t="s">
         <v>146</v>
@@ -26991,10 +27691,10 @@
         <v>145</v>
       </c>
       <c r="H309" s="462" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I309" s="472">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="J309" s="463"/>
       <c r="K309" s="464"/>
@@ -27004,366 +27704,374 @@
       <c r="O309" s="424"/>
     </row>
     <row r="310" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A310" s="465"/>
-      <c r="B310" s="428">
-        <v>9</v>
-      </c>
-      <c r="C310" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D310" s="429" t="s">
-        <v>167</v>
+      <c r="A310" s="423"/>
+      <c r="B310" s="461">
+        <v>7</v>
+      </c>
+      <c r="C310" s="462" t="s">
+        <v>281</v>
+      </c>
+      <c r="D310" s="462" t="s">
+        <v>283</v>
       </c>
       <c r="E310" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F310" s="430" t="s">
+      <c r="F310" s="472" t="s">
         <v>146</v>
       </c>
       <c r="G310" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H310" s="431" t="s">
+      <c r="H310" s="462" t="s">
         <v>147</v>
       </c>
-      <c r="I310" s="430">
-        <v>11</v>
-      </c>
-      <c r="J310" s="430"/>
-      <c r="K310" s="288" t="s">
-        <v>168</v>
-      </c>
-      <c r="L310" s="470"/>
-      <c r="M310" s="470"/>
-      <c r="N310" s="470"/>
-      <c r="O310" s="471"/>
+      <c r="I310" s="472">
+        <v>256</v>
+      </c>
+      <c r="J310" s="463"/>
+      <c r="K310" s="464"/>
+      <c r="L310" s="422"/>
+      <c r="M310" s="422"/>
+      <c r="N310" s="422"/>
+      <c r="O310" s="424"/>
     </row>
     <row r="311" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A311" s="423"/>
-      <c r="B311" s="428">
-        <v>10</v>
-      </c>
-      <c r="C311" s="456" t="s">
-        <v>154</v>
-      </c>
-      <c r="D311" s="456" t="s">
-        <v>159</v>
+      <c r="B311" s="461">
+        <v>8</v>
+      </c>
+      <c r="C311" s="462" t="s">
+        <v>341</v>
+      </c>
+      <c r="D311" s="462" t="s">
+        <v>324</v>
       </c>
       <c r="E311" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F311" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G311" s="457" t="s">
+      <c r="F311" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G311" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H311" s="458" t="s">
+      <c r="H311" s="462" t="s">
         <v>148</v>
       </c>
-      <c r="I311" s="457">
-        <v>10</v>
-      </c>
-      <c r="J311" s="457"/>
-      <c r="K311" s="459"/>
+      <c r="I311" s="472">
+        <v>20</v>
+      </c>
+      <c r="J311" s="463"/>
+      <c r="K311" s="464"/>
       <c r="L311" s="422"/>
       <c r="M311" s="422"/>
       <c r="N311" s="422"/>
       <c r="O311" s="424"/>
     </row>
     <row r="312" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A312" s="422"/>
+      <c r="A312" s="465"/>
       <c r="B312" s="428">
+        <v>9</v>
+      </c>
+      <c r="C312" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D312" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E312" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F312" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G312" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H312" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I312" s="430">
         <v>11</v>
       </c>
-      <c r="C312" s="449" t="s">
-        <v>155</v>
-      </c>
-      <c r="D312" s="449" t="s">
-        <v>160</v>
-      </c>
-      <c r="E312" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F312" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G312" s="450" t="s">
+      <c r="J312" s="430"/>
+      <c r="K312" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L312" s="470"/>
+      <c r="M312" s="470"/>
+      <c r="N312" s="470"/>
+      <c r="O312" s="471"/>
+    </row>
+    <row r="313" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A313" s="423"/>
+      <c r="B313" s="428">
+        <v>10</v>
+      </c>
+      <c r="C313" s="456" t="s">
+        <v>154</v>
+      </c>
+      <c r="D313" s="456" t="s">
+        <v>159</v>
+      </c>
+      <c r="E313" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F313" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G313" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H312" s="451" t="s">
+      <c r="H313" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I312" s="450">
-        <v>256</v>
-      </c>
-      <c r="J312" s="450"/>
-      <c r="K312" s="452"/>
-      <c r="L312" s="422"/>
-      <c r="M312" s="422"/>
-      <c r="N312" s="422"/>
-      <c r="O312" s="424"/>
-    </row>
-    <row r="313" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A313" s="422"/>
-      <c r="B313" s="428">
-        <v>12</v>
-      </c>
-      <c r="C313" s="449" t="s">
-        <v>156</v>
-      </c>
-      <c r="D313" s="449" t="s">
-        <v>158</v>
-      </c>
-      <c r="E313" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F313" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G313" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H313" s="451" t="s">
-        <v>147</v>
-      </c>
-      <c r="I313" s="450">
-        <v>11</v>
-      </c>
-      <c r="J313" s="450"/>
-      <c r="K313" s="452"/>
+      <c r="I313" s="457">
+        <v>10</v>
+      </c>
+      <c r="J313" s="457"/>
+      <c r="K313" s="459"/>
       <c r="L313" s="422"/>
       <c r="M313" s="422"/>
       <c r="N313" s="422"/>
       <c r="O313" s="424"/>
     </row>
-    <row r="314" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A314" s="423"/>
-      <c r="B314" s="434">
-        <v>13</v>
-      </c>
-      <c r="C314" s="435" t="s">
-        <v>157</v>
-      </c>
-      <c r="D314" s="435" t="s">
-        <v>161</v>
-      </c>
-      <c r="E314" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F314" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G314" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H314" s="437" t="s">
+    <row r="314" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A314" s="422"/>
+      <c r="B314" s="428">
+        <v>11</v>
+      </c>
+      <c r="C314" s="449" t="s">
+        <v>155</v>
+      </c>
+      <c r="D314" s="449" t="s">
+        <v>160</v>
+      </c>
+      <c r="E314" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F314" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G314" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="H314" s="451" t="s">
         <v>148</v>
       </c>
-      <c r="I314" s="436">
+      <c r="I314" s="450">
         <v>256</v>
       </c>
-      <c r="J314" s="436"/>
-      <c r="K314" s="438"/>
+      <c r="J314" s="450"/>
+      <c r="K314" s="452"/>
       <c r="L314" s="422"/>
       <c r="M314" s="422"/>
       <c r="N314" s="422"/>
       <c r="O314" s="424"/>
     </row>
-    <row r="318" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="319" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A319" s="423"/>
-      <c r="B319" s="169" t="s">
+    <row r="315" spans="1:15" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A315" s="422"/>
+      <c r="B315" s="428">
+        <v>12</v>
+      </c>
+      <c r="C315" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="D315" s="449" t="s">
+        <v>158</v>
+      </c>
+      <c r="E315" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F315" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G315" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H315" s="451" t="s">
+        <v>147</v>
+      </c>
+      <c r="I315" s="450">
+        <v>11</v>
+      </c>
+      <c r="J315" s="450"/>
+      <c r="K315" s="452"/>
+      <c r="L315" s="422"/>
+      <c r="M315" s="422"/>
+      <c r="N315" s="422"/>
+      <c r="O315" s="424"/>
+    </row>
+    <row r="316" spans="1:15" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A316" s="423"/>
+      <c r="B316" s="434">
+        <v>13</v>
+      </c>
+      <c r="C316" s="435" t="s">
+        <v>157</v>
+      </c>
+      <c r="D316" s="435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E316" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F316" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G316" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H316" s="437" t="s">
+        <v>148</v>
+      </c>
+      <c r="I316" s="436">
+        <v>256</v>
+      </c>
+      <c r="J316" s="436"/>
+      <c r="K316" s="438"/>
+      <c r="L316" s="422"/>
+      <c r="M316" s="422"/>
+      <c r="N316" s="422"/>
+      <c r="O316" s="424"/>
+    </row>
+    <row r="320" spans="1:15" s="421" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="321" spans="1:12" s="421" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A321" s="423"/>
+      <c r="B321" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C319" s="470"/>
-      <c r="D319" s="170" t="s">
-        <v>339</v>
-      </c>
-      <c r="E319" s="171"/>
-      <c r="F319" s="171"/>
-      <c r="G319" s="172"/>
-      <c r="H319" s="470"/>
-      <c r="I319" s="470"/>
-      <c r="J319" s="470"/>
-      <c r="K319" s="470"/>
-      <c r="L319" s="422"/>
-    </row>
-    <row r="320" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="423"/>
-      <c r="B320" s="422"/>
-      <c r="C320" s="422"/>
-      <c r="D320" s="422"/>
-      <c r="E320" s="422"/>
-      <c r="F320" s="422"/>
-      <c r="G320" s="422"/>
-      <c r="H320" s="422"/>
-      <c r="I320" s="422"/>
-      <c r="J320" s="422"/>
-      <c r="K320" s="422"/>
-      <c r="L320" s="422"/>
-    </row>
-    <row r="321" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A321" s="423"/>
-      <c r="B321" s="425" t="s">
+      <c r="C321" s="470"/>
+      <c r="D321" s="170" t="s">
+        <v>334</v>
+      </c>
+      <c r="E321" s="171"/>
+      <c r="F321" s="171"/>
+      <c r="G321" s="172"/>
+      <c r="H321" s="470"/>
+      <c r="I321" s="470"/>
+      <c r="J321" s="470"/>
+      <c r="K321" s="470"/>
+      <c r="L321" s="422"/>
+    </row>
+    <row r="322" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="423"/>
+      <c r="B322" s="422"/>
+      <c r="C322" s="422"/>
+      <c r="D322" s="422"/>
+      <c r="E322" s="422"/>
+      <c r="F322" s="422"/>
+      <c r="G322" s="422"/>
+      <c r="H322" s="422"/>
+      <c r="I322" s="422"/>
+      <c r="J322" s="422"/>
+      <c r="K322" s="422"/>
+      <c r="L322" s="422"/>
+    </row>
+    <row r="323" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A323" s="423"/>
+      <c r="B323" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="C321" s="426" t="s">
+      <c r="C323" s="426" t="s">
         <v>30</v>
       </c>
-      <c r="D321" s="426" t="s">
+      <c r="D323" s="426" t="s">
         <v>31</v>
       </c>
-      <c r="E321" s="426" t="s">
+      <c r="E323" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="F321" s="426" t="s">
+      <c r="F323" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="G321" s="426" t="s">
+      <c r="G323" s="426" t="s">
         <v>34</v>
       </c>
-      <c r="H321" s="426" t="s">
+      <c r="H323" s="426" t="s">
         <v>35</v>
       </c>
-      <c r="I321" s="426" t="s">
+      <c r="I323" s="426" t="s">
         <v>36</v>
       </c>
-      <c r="J321" s="426" t="s">
+      <c r="J323" s="426" t="s">
         <v>37</v>
       </c>
-      <c r="K321" s="427" t="s">
+      <c r="K323" s="427" t="s">
         <v>38</v>
       </c>
-      <c r="L321" s="422"/>
-    </row>
-    <row r="322" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B322" s="473">
+      <c r="L323" s="422"/>
+    </row>
+    <row r="324" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B324" s="473">
         <v>1</v>
       </c>
-      <c r="C322" s="474" t="s">
-        <v>238</v>
-      </c>
-      <c r="D322" s="474" t="s">
-        <v>239</v>
-      </c>
-      <c r="E322" s="476" t="s">
+      <c r="C324" s="474" t="s">
+        <v>236</v>
+      </c>
+      <c r="D324" s="474" t="s">
+        <v>237</v>
+      </c>
+      <c r="E324" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="F322" s="476" t="s">
+      <c r="F324" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="G322" s="476" t="s">
+      <c r="G324" s="476" t="s">
         <v>145</v>
       </c>
-      <c r="H322" s="474" t="s">
+      <c r="H324" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="I322" s="476">
+      <c r="I324" s="476">
         <v>11</v>
       </c>
-      <c r="J322" s="474"/>
-      <c r="K322" s="475"/>
-    </row>
-    <row r="323" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A323" s="465"/>
-      <c r="B323" s="276">
+      <c r="J324" s="474"/>
+      <c r="K324" s="475"/>
+    </row>
+    <row r="325" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A325" s="465"/>
+      <c r="B325" s="276">
         <v>2</v>
       </c>
-      <c r="C323" s="429" t="s">
-        <v>340</v>
-      </c>
-      <c r="D323" s="429" t="s">
-        <v>343</v>
-      </c>
-      <c r="E323" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F323" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G323" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H323" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I323" s="430">
-        <v>11</v>
-      </c>
-      <c r="J323" s="430"/>
-      <c r="K323" s="452"/>
-      <c r="L323" s="470"/>
-    </row>
-    <row r="324" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A324" s="423"/>
-      <c r="B324" s="428">
-        <v>3</v>
-      </c>
-      <c r="C324" s="462" t="s">
-        <v>341</v>
-      </c>
-      <c r="D324" s="462" t="s">
-        <v>344</v>
-      </c>
-      <c r="E324" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F324" s="472" t="s">
-        <v>146</v>
-      </c>
-      <c r="G324" s="430" t="s">
-        <v>145</v>
-      </c>
-      <c r="H324" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I324" s="472">
-        <v>256</v>
-      </c>
-      <c r="J324" s="463"/>
-      <c r="K324" s="464"/>
-      <c r="L324" s="422"/>
-    </row>
-    <row r="325" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A325" s="423"/>
-      <c r="B325" s="461">
-        <v>4</v>
-      </c>
-      <c r="C325" s="462" t="s">
-        <v>342</v>
-      </c>
-      <c r="D325" s="462" t="s">
-        <v>345</v>
+      <c r="C325" s="429" t="s">
+        <v>335</v>
+      </c>
+      <c r="D325" s="429" t="s">
+        <v>338</v>
       </c>
       <c r="E325" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F325" s="472" t="s">
+      <c r="F325" s="430" t="s">
         <v>146</v>
       </c>
       <c r="G325" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H325" s="462" t="s">
-        <v>148</v>
-      </c>
-      <c r="I325" s="472">
-        <v>1024</v>
-      </c>
-      <c r="J325" s="463"/>
-      <c r="K325" s="464"/>
-      <c r="L325" s="422"/>
+      <c r="H325" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I325" s="430">
+        <v>11</v>
+      </c>
+      <c r="J325" s="430"/>
+      <c r="K325" s="452"/>
+      <c r="L325" s="470"/>
     </row>
     <row r="326" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A326" s="423"/>
-      <c r="B326" s="461">
-        <v>5</v>
+      <c r="B326" s="428">
+        <v>3</v>
       </c>
       <c r="C326" s="462" t="s">
-        <v>198</v>
-      </c>
-      <c r="D326" s="462"/>
+        <v>336</v>
+      </c>
+      <c r="D326" s="462" t="s">
+        <v>339</v>
+      </c>
       <c r="E326" s="430" t="s">
         <v>146</v>
       </c>
@@ -27374,182 +28082,240 @@
         <v>145</v>
       </c>
       <c r="H326" s="462" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I326" s="472">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J326" s="463"/>
-      <c r="K326" s="477"/>
+      <c r="K326" s="464"/>
       <c r="L326" s="422"/>
     </row>
     <row r="327" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A327" s="465"/>
-      <c r="B327" s="428">
-        <v>6</v>
-      </c>
-      <c r="C327" s="429" t="s">
-        <v>166</v>
-      </c>
-      <c r="D327" s="429" t="s">
-        <v>167</v>
+      <c r="A327" s="423"/>
+      <c r="B327" s="461">
+        <v>4</v>
+      </c>
+      <c r="C327" s="462" t="s">
+        <v>337</v>
+      </c>
+      <c r="D327" s="462" t="s">
+        <v>340</v>
       </c>
       <c r="E327" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="F327" s="430" t="s">
+      <c r="F327" s="472" t="s">
         <v>146</v>
       </c>
       <c r="G327" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H327" s="431" t="s">
-        <v>147</v>
-      </c>
-      <c r="I327" s="430">
-        <v>11</v>
-      </c>
-      <c r="J327" s="430"/>
-      <c r="K327" s="288" t="s">
-        <v>168</v>
-      </c>
-      <c r="L327" s="470"/>
+      <c r="H327" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="I327" s="472">
+        <v>1024</v>
+      </c>
+      <c r="J327" s="463"/>
+      <c r="K327" s="464"/>
+      <c r="L327" s="422"/>
     </row>
     <row r="328" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A328" s="423"/>
-      <c r="B328" s="428">
+      <c r="B328" s="461">
+        <v>5</v>
+      </c>
+      <c r="C328" s="462" t="s">
+        <v>198</v>
+      </c>
+      <c r="D328" s="462"/>
+      <c r="E328" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F328" s="472" t="s">
+        <v>146</v>
+      </c>
+      <c r="G328" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H328" s="462" t="s">
+        <v>147</v>
+      </c>
+      <c r="I328" s="472">
+        <v>11</v>
+      </c>
+      <c r="J328" s="463"/>
+      <c r="K328" s="477"/>
+      <c r="L328" s="422"/>
+    </row>
+    <row r="329" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A329" s="465"/>
+      <c r="B329" s="428">
+        <v>6</v>
+      </c>
+      <c r="C329" s="429" t="s">
+        <v>166</v>
+      </c>
+      <c r="D329" s="429" t="s">
+        <v>167</v>
+      </c>
+      <c r="E329" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F329" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G329" s="430" t="s">
+        <v>145</v>
+      </c>
+      <c r="H329" s="431" t="s">
+        <v>147</v>
+      </c>
+      <c r="I329" s="430">
+        <v>11</v>
+      </c>
+      <c r="J329" s="430"/>
+      <c r="K329" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="L329" s="470"/>
+    </row>
+    <row r="330" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A330" s="423"/>
+      <c r="B330" s="428">
         <v>7</v>
       </c>
-      <c r="C328" s="456" t="s">
+      <c r="C330" s="456" t="s">
         <v>154</v>
       </c>
-      <c r="D328" s="456" t="s">
+      <c r="D330" s="456" t="s">
         <v>159</v>
       </c>
-      <c r="E328" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F328" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G328" s="457" t="s">
+      <c r="E330" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F330" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G330" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="H328" s="458" t="s">
+      <c r="H330" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I328" s="457">
+      <c r="I330" s="457">
         <v>10</v>
       </c>
-      <c r="J328" s="457"/>
-      <c r="K328" s="459"/>
-      <c r="L328" s="422"/>
-    </row>
-    <row r="329" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A329" s="422"/>
-      <c r="B329" s="428">
+      <c r="J330" s="457"/>
+      <c r="K330" s="459"/>
+      <c r="L330" s="422"/>
+    </row>
+    <row r="331" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A331" s="422"/>
+      <c r="B331" s="428">
         <v>8</v>
       </c>
-      <c r="C329" s="449" t="s">
+      <c r="C331" s="449" t="s">
         <v>155</v>
       </c>
-      <c r="D329" s="449" t="s">
+      <c r="D331" s="449" t="s">
         <v>160</v>
       </c>
-      <c r="E329" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F329" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G329" s="450" t="s">
+      <c r="E331" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F331" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G331" s="450" t="s">
         <v>145</v>
       </c>
-      <c r="H329" s="451" t="s">
+      <c r="H331" s="451" t="s">
         <v>148</v>
       </c>
-      <c r="I329" s="450">
+      <c r="I331" s="450">
         <v>256</v>
       </c>
-      <c r="J329" s="450"/>
-      <c r="K329" s="452"/>
-      <c r="L329" s="422"/>
-    </row>
-    <row r="330" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A330" s="422"/>
-      <c r="B330" s="428">
+      <c r="J331" s="450"/>
+      <c r="K331" s="452"/>
+      <c r="L331" s="422"/>
+    </row>
+    <row r="332" spans="1:12" s="421" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A332" s="422"/>
+      <c r="B332" s="428">
         <v>9</v>
       </c>
-      <c r="C330" s="449" t="s">
+      <c r="C332" s="449" t="s">
         <v>156</v>
       </c>
-      <c r="D330" s="449" t="s">
+      <c r="D332" s="449" t="s">
         <v>158</v>
       </c>
-      <c r="E330" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="F330" s="430" t="s">
-        <v>146</v>
-      </c>
-      <c r="G330" s="450" t="s">
-        <v>146</v>
-      </c>
-      <c r="H330" s="451" t="s">
+      <c r="E332" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="F332" s="430" t="s">
+        <v>146</v>
+      </c>
+      <c r="G332" s="450" t="s">
+        <v>146</v>
+      </c>
+      <c r="H332" s="451" t="s">
         <v>147</v>
       </c>
-      <c r="I330" s="450">
+      <c r="I332" s="450">
         <v>11</v>
       </c>
-      <c r="J330" s="450"/>
-      <c r="K330" s="452"/>
-      <c r="L330" s="422"/>
-    </row>
-    <row r="331" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A331" s="423"/>
-      <c r="B331" s="434">
+      <c r="J332" s="450"/>
+      <c r="K332" s="452"/>
+      <c r="L332" s="422"/>
+    </row>
+    <row r="333" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A333" s="423"/>
+      <c r="B333" s="434">
         <v>10</v>
       </c>
-      <c r="C331" s="435" t="s">
+      <c r="C333" s="435" t="s">
         <v>157</v>
       </c>
-      <c r="D331" s="435" t="s">
+      <c r="D333" s="435" t="s">
         <v>161</v>
       </c>
-      <c r="E331" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="F331" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="G331" s="436" t="s">
-        <v>146</v>
-      </c>
-      <c r="H331" s="437" t="s">
+      <c r="E333" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="F333" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="G333" s="436" t="s">
+        <v>146</v>
+      </c>
+      <c r="H333" s="437" t="s">
         <v>148</v>
       </c>
-      <c r="I331" s="436">
+      <c r="I333" s="436">
         <v>256</v>
       </c>
-      <c r="J331" s="436"/>
-      <c r="K331" s="438"/>
-      <c r="L331" s="422"/>
-    </row>
-    <row r="332" spans="1:12" s="421" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="423"/>
-      <c r="B332" s="422"/>
-      <c r="C332" s="422"/>
-      <c r="D332" s="422"/>
-      <c r="E332" s="422"/>
-      <c r="F332" s="422"/>
-      <c r="G332" s="422"/>
-      <c r="H332" s="422"/>
-      <c r="I332" s="422"/>
-      <c r="J332" s="422"/>
-      <c r="K332" s="422"/>
-      <c r="L332" s="422"/>
-    </row>
-    <row r="333" spans="1:12" s="421" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="J333" s="436"/>
+      <c r="K333" s="438"/>
+      <c r="L333" s="422"/>
+    </row>
+    <row r="334" spans="1:12" s="421" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="423"/>
+      <c r="B334" s="422"/>
+      <c r="C334" s="422"/>
+      <c r="D334" s="422"/>
+      <c r="E334" s="422"/>
+      <c r="F334" s="422"/>
+      <c r="G334" s="422"/>
+      <c r="H334" s="422"/>
+      <c r="I334" s="422"/>
+      <c r="J334" s="422"/>
+      <c r="K334" s="422"/>
+      <c r="L334" s="422"/>
+    </row>
+    <row r="335" spans="1:12" s="421" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
@@ -27557,6 +28323,7 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D079CB-B70C-40BF-B627-63B4E39CFA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AB7994-4D3D-43F2-88FC-9A85C2183930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$350</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$110</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$112</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="375">
   <si>
     <t>No</t>
   </si>
@@ -684,15 +684,9 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Author List edit/delete</t>
-  </si>
-  <si>
     <t>Author Add</t>
   </si>
   <si>
-    <t>Book List edit/delete</t>
-  </si>
-  <si>
     <t>Book Add</t>
   </si>
   <si>
@@ -705,24 +699,9 @@
     <t>Home Screen</t>
   </si>
   <si>
-    <t>Categories List edit/delete</t>
-  </si>
-  <si>
     <t>Categories Add</t>
   </si>
   <si>
-    <t>Website Info "contact edit"</t>
-  </si>
-  <si>
-    <t>Website Info "add admin"</t>
-  </si>
-  <si>
-    <t>Privicy "FAQ list"</t>
-  </si>
-  <si>
-    <t>Privicy "FAQ add"</t>
-  </si>
-  <si>
     <t>User_Login</t>
   </si>
   <si>
@@ -1110,30 +1089,6 @@
     <t xml:space="preserve">Guide </t>
   </si>
   <si>
-    <t>Privicy "Privicy &amp; policy list"</t>
-  </si>
-  <si>
-    <t>Privicy "Delivery control list"</t>
-  </si>
-  <si>
-    <t>Privicy "Service list"</t>
-  </si>
-  <si>
-    <t>Privicy "Guide list"</t>
-  </si>
-  <si>
-    <t>Privicy "Guide add"</t>
-  </si>
-  <si>
-    <t>Privicy "Privicy &amp; policy add"</t>
-  </si>
-  <si>
-    <t>Privicy "Delivery Control add"</t>
-  </si>
-  <si>
-    <t>Privicy "Service add"</t>
-  </si>
-  <si>
     <t>shop's slider</t>
   </si>
   <si>
@@ -1161,10 +1116,64 @@
     <t>slide's id</t>
   </si>
   <si>
-    <t>Website Info "Slide change list"</t>
-  </si>
-  <si>
-    <t>Website Info "Slide change add"</t>
+    <t>Contact Edit</t>
+  </si>
+  <si>
+    <t>Add Admin</t>
+  </si>
+  <si>
+    <t>Privicy &amp; policy list</t>
+  </si>
+  <si>
+    <t>Delivery control list</t>
+  </si>
+  <si>
+    <t>Service list</t>
+  </si>
+  <si>
+    <t>Guide list</t>
+  </si>
+  <si>
+    <t>Guide add</t>
+  </si>
+  <si>
+    <t>Privicy &amp; policy add</t>
+  </si>
+  <si>
+    <t>Delivery Control add</t>
+  </si>
+  <si>
+    <t>Service add</t>
+  </si>
+  <si>
+    <t>FAQ list</t>
+  </si>
+  <si>
+    <t>FAQ add</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Slide change list</t>
+  </si>
+  <si>
+    <t>Slide change add</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author list </t>
+  </si>
+  <si>
+    <t>Book list</t>
+  </si>
+  <si>
+    <t>Categories List</t>
+  </si>
+  <si>
+    <t>Author list</t>
   </si>
 </sst>
 </file>
@@ -2940,6 +2949,12 @@
     <xf numFmtId="164" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3044,12 +3059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -10776,22 +10785,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="538" t="s">
+      <c r="A19" s="544" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="539"/>
-      <c r="C19" s="539"/>
-      <c r="D19" s="539"/>
-      <c r="E19" s="539"/>
-      <c r="F19" s="539"/>
-      <c r="G19" s="539"/>
-      <c r="H19" s="539"/>
-      <c r="I19" s="539"/>
-      <c r="J19" s="539"/>
-      <c r="K19" s="539"/>
-      <c r="L19" s="539"/>
-      <c r="M19" s="539"/>
-      <c r="N19" s="540"/>
+      <c r="B19" s="545"/>
+      <c r="C19" s="545"/>
+      <c r="D19" s="545"/>
+      <c r="E19" s="545"/>
+      <c r="F19" s="545"/>
+      <c r="G19" s="545"/>
+      <c r="H19" s="545"/>
+      <c r="I19" s="545"/>
+      <c r="J19" s="545"/>
+      <c r="K19" s="545"/>
+      <c r="L19" s="545"/>
+      <c r="M19" s="545"/>
+      <c r="N19" s="546"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -10826,22 +10835,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A22" s="535" t="s">
+      <c r="A22" s="541" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="536"/>
-      <c r="C22" s="536"/>
-      <c r="D22" s="536"/>
-      <c r="E22" s="536"/>
-      <c r="F22" s="536"/>
-      <c r="G22" s="536"/>
-      <c r="H22" s="536"/>
-      <c r="I22" s="536"/>
-      <c r="J22" s="536"/>
-      <c r="K22" s="536"/>
-      <c r="L22" s="536"/>
-      <c r="M22" s="536"/>
-      <c r="N22" s="537"/>
+      <c r="B22" s="542"/>
+      <c r="C22" s="542"/>
+      <c r="D22" s="542"/>
+      <c r="E22" s="542"/>
+      <c r="F22" s="542"/>
+      <c r="G22" s="542"/>
+      <c r="H22" s="542"/>
+      <c r="I22" s="542"/>
+      <c r="J22" s="542"/>
+      <c r="K22" s="542"/>
+      <c r="L22" s="542"/>
+      <c r="M22" s="542"/>
+      <c r="N22" s="543"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -11149,10 +11158,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
-      <c r="B42" s="533" t="s">
+      <c r="B42" s="539" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="533"/>
+      <c r="C42" s="539"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -11276,13 +11285,13 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="534" t="s">
+      <c r="K48" s="540" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="534"/>
+      <c r="L48" s="540"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44704.068423263889</v>
+        <v>44704.409331712966</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11297,13 +11306,13 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="534" t="s">
+      <c r="K49" s="540" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="534"/>
+      <c r="L49" s="540"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44704.068423263889</v>
+        <v>44704.409331712966</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -11366,54 +11375,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="547" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="545" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="551" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="546"/>
-      <c r="E2" s="546"/>
-      <c r="F2" s="546"/>
-      <c r="G2" s="546"/>
-      <c r="H2" s="546"/>
-      <c r="I2" s="546"/>
-      <c r="J2" s="546"/>
-      <c r="K2" s="546"/>
-      <c r="L2" s="546"/>
-      <c r="M2" s="546"/>
-      <c r="N2" s="546"/>
+      <c r="D2" s="552"/>
+      <c r="E2" s="552"/>
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="552"/>
+      <c r="I2" s="552"/>
+      <c r="J2" s="552"/>
+      <c r="K2" s="552"/>
+      <c r="L2" s="552"/>
+      <c r="M2" s="552"/>
+      <c r="N2" s="552"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="549">
+      <c r="P2" s="555">
         <v>44698</v>
       </c>
-      <c r="Q2" s="550"/>
+      <c r="Q2" s="556"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="543"/>
-      <c r="B3" s="544"/>
-      <c r="C3" s="547"/>
-      <c r="D3" s="548"/>
-      <c r="E3" s="548"/>
-      <c r="F3" s="548"/>
-      <c r="G3" s="548"/>
-      <c r="H3" s="548"/>
-      <c r="I3" s="548"/>
-      <c r="J3" s="548"/>
-      <c r="K3" s="548"/>
-      <c r="L3" s="548"/>
-      <c r="M3" s="548"/>
-      <c r="N3" s="548"/>
+      <c r="A3" s="549"/>
+      <c r="B3" s="550"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="554"/>
+      <c r="I3" s="554"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="554"/>
+      <c r="L3" s="554"/>
+      <c r="M3" s="554"/>
+      <c r="N3" s="554"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="551">
+      <c r="P3" s="557">
         <v>44698</v>
       </c>
-      <c r="Q3" s="552"/>
+      <c r="Q3" s="558"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -12453,7 +12462,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="140" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
@@ -12472,50 +12481,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="547" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="545" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="551" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="546"/>
-      <c r="E2" s="546"/>
-      <c r="F2" s="546"/>
-      <c r="G2" s="546"/>
-      <c r="H2" s="546"/>
-      <c r="I2" s="546"/>
-      <c r="J2" s="546"/>
-      <c r="K2" s="546"/>
-      <c r="L2" s="546"/>
+      <c r="D2" s="552"/>
+      <c r="E2" s="552"/>
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="552"/>
+      <c r="I2" s="552"/>
+      <c r="J2" s="552"/>
+      <c r="K2" s="552"/>
+      <c r="L2" s="552"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="549">
+      <c r="N2" s="555">
         <v>44698</v>
       </c>
-      <c r="O2" s="550"/>
+      <c r="O2" s="556"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="543"/>
-      <c r="B3" s="544"/>
-      <c r="C3" s="547"/>
-      <c r="D3" s="548"/>
-      <c r="E3" s="548"/>
-      <c r="F3" s="548"/>
-      <c r="G3" s="548"/>
-      <c r="H3" s="548"/>
-      <c r="I3" s="548"/>
-      <c r="J3" s="548"/>
-      <c r="K3" s="548"/>
-      <c r="L3" s="548"/>
+      <c r="A3" s="549"/>
+      <c r="B3" s="550"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="554"/>
+      <c r="I3" s="554"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="554"/>
+      <c r="L3" s="554"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="551">
+      <c r="N3" s="557">
         <v>44698</v>
       </c>
-      <c r="O3" s="552"/>
+      <c r="O3" s="558"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -12593,7 +12602,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="574" t="s">
+      <c r="C7" s="538" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="46" t="s">
@@ -12606,7 +12615,7 @@
         <v>44701</v>
       </c>
       <c r="G7" s="46">
-        <f t="shared" ref="G7:G102" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G104" si="0">F7-E7</f>
         <v>3</v>
       </c>
       <c r="H7" s="47">
@@ -12616,7 +12625,7 @@
         <v>44699</v>
       </c>
       <c r="J7" s="48">
-        <f t="shared" ref="J7:J102" si="1">I7-H7</f>
+        <f t="shared" ref="J7:J104" si="1">I7-H7</f>
         <v>1</v>
       </c>
       <c r="K7" s="49">
@@ -12659,37 +12668,37 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="569"/>
+      <c r="A9" s="533"/>
       <c r="B9" s="434">
         <v>1</v>
       </c>
-      <c r="C9" s="570" t="s">
+      <c r="C9" s="534" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="570" t="s">
+      <c r="D9" s="534" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="571">
+      <c r="E9" s="535">
         <v>44698</v>
       </c>
-      <c r="F9" s="571">
+      <c r="F9" s="535">
         <v>44703</v>
       </c>
-      <c r="G9" s="570">
+      <c r="G9" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H9" s="571">
+      <c r="H9" s="535">
         <v>44698</v>
       </c>
-      <c r="I9" s="571">
+      <c r="I9" s="535">
         <v>44699</v>
       </c>
-      <c r="J9" s="572">
+      <c r="J9" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K9" s="573">
+      <c r="K9" s="537">
         <v>0.9</v>
       </c>
       <c r="L9" t="s">
@@ -12697,1645 +12706,1654 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="569"/>
+      <c r="A10" s="533"/>
       <c r="B10" s="434">
         <v>2</v>
       </c>
-      <c r="C10" s="570" t="s">
+      <c r="C10" s="534" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="570" t="s">
+      <c r="D10" s="534" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="571">
+      <c r="E10" s="535">
         <v>44698</v>
       </c>
-      <c r="F10" s="571">
+      <c r="F10" s="535">
         <v>44703</v>
       </c>
-      <c r="G10" s="570">
+      <c r="G10" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H10" s="571">
+      <c r="H10" s="535">
         <v>44698</v>
       </c>
-      <c r="I10" s="571">
+      <c r="I10" s="535">
         <v>44699</v>
       </c>
-      <c r="J10" s="572">
+      <c r="J10" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K10" s="573">
+      <c r="K10" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="569"/>
+      <c r="A11" s="533"/>
       <c r="B11" s="434">
         <v>3</v>
       </c>
-      <c r="C11" s="570" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="570" t="s">
+      <c r="C11" s="534" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="534" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="571">
+      <c r="E11" s="535">
         <v>44698</v>
       </c>
-      <c r="F11" s="571">
+      <c r="F11" s="535">
         <v>44703</v>
       </c>
-      <c r="G11" s="570">
+      <c r="G11" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H11" s="571">
+      <c r="H11" s="535">
         <v>44698</v>
       </c>
-      <c r="I11" s="571">
+      <c r="I11" s="535">
         <v>44699</v>
       </c>
-      <c r="J11" s="572">
+      <c r="J11" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K11" s="573">
+      <c r="K11" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="569"/>
+      <c r="A12" s="533"/>
       <c r="B12" s="434">
         <v>4</v>
       </c>
-      <c r="C12" s="570" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="570" t="s">
+      <c r="C12" s="534" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="571">
+      <c r="E12" s="535">
         <v>44698</v>
       </c>
-      <c r="F12" s="571">
+      <c r="F12" s="535">
         <v>44703</v>
       </c>
-      <c r="G12" s="570">
+      <c r="G12" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H12" s="571">
+      <c r="H12" s="535">
         <v>44698</v>
       </c>
-      <c r="I12" s="571">
+      <c r="I12" s="535">
         <v>44699</v>
       </c>
-      <c r="J12" s="572">
+      <c r="J12" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K12" s="573">
+      <c r="K12" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="569"/>
+      <c r="A13" s="533"/>
       <c r="B13" s="434">
         <v>5</v>
       </c>
-      <c r="C13" s="570" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="570" t="s">
+      <c r="C13" s="534" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="534" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="571">
+      <c r="E13" s="535">
         <v>44698</v>
       </c>
-      <c r="F13" s="571">
+      <c r="F13" s="535">
         <v>44703</v>
       </c>
-      <c r="G13" s="570">
+      <c r="G13" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H13" s="571">
+      <c r="H13" s="535">
         <v>44698</v>
       </c>
-      <c r="I13" s="571">
+      <c r="I13" s="535">
         <v>44699</v>
       </c>
-      <c r="J13" s="572">
+      <c r="J13" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K13" s="573">
+      <c r="K13" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="569"/>
+      <c r="A14" s="533"/>
       <c r="B14" s="434">
         <v>6</v>
       </c>
-      <c r="C14" s="570" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="570" t="s">
+      <c r="C14" s="534" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="571">
+      <c r="E14" s="535">
         <v>44698</v>
       </c>
-      <c r="F14" s="571">
+      <c r="F14" s="535">
         <v>44703</v>
       </c>
-      <c r="G14" s="570">
+      <c r="G14" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H14" s="571">
+      <c r="H14" s="535">
         <v>44698</v>
       </c>
-      <c r="I14" s="571">
+      <c r="I14" s="535">
         <v>44699</v>
       </c>
-      <c r="J14" s="572">
+      <c r="J14" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K14" s="573">
+      <c r="K14" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="569"/>
+      <c r="A15" s="533"/>
       <c r="B15" s="434">
         <v>7</v>
       </c>
-      <c r="C15" s="570" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="570" t="s">
+      <c r="C15" s="534" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="534" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="571">
+      <c r="E15" s="535">
         <v>44698</v>
       </c>
-      <c r="F15" s="571">
+      <c r="F15" s="535">
         <v>44703</v>
       </c>
-      <c r="G15" s="570">
+      <c r="G15" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H15" s="571">
+      <c r="H15" s="535">
         <v>44698</v>
       </c>
-      <c r="I15" s="571">
+      <c r="I15" s="535">
         <v>44700</v>
       </c>
-      <c r="J15" s="572">
+      <c r="J15" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="573">
+      <c r="K15" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="569"/>
+      <c r="A16" s="533"/>
       <c r="B16" s="434">
         <v>8</v>
       </c>
-      <c r="C16" s="570" t="s">
+      <c r="C16" s="534" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="570" t="s">
+      <c r="D16" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="571">
+      <c r="E16" s="535">
         <v>44698</v>
       </c>
-      <c r="F16" s="571">
+      <c r="F16" s="535">
         <v>44703</v>
       </c>
-      <c r="G16" s="570">
+      <c r="G16" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H16" s="571">
+      <c r="H16" s="535">
         <v>44698</v>
       </c>
-      <c r="I16" s="571">
+      <c r="I16" s="535">
         <v>44700</v>
       </c>
-      <c r="J16" s="572">
+      <c r="J16" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K16" s="573">
+      <c r="K16" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="569"/>
+      <c r="A17" s="533"/>
       <c r="B17" s="434">
         <v>9</v>
       </c>
-      <c r="C17" s="570" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="570" t="s">
+      <c r="C17" s="534" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="571">
+      <c r="E17" s="535">
         <v>44698</v>
       </c>
-      <c r="F17" s="571">
+      <c r="F17" s="535">
         <v>44703</v>
       </c>
-      <c r="G17" s="570">
+      <c r="G17" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H17" s="571">
+      <c r="H17" s="535">
         <v>44698</v>
       </c>
-      <c r="I17" s="571">
+      <c r="I17" s="535">
         <v>44700</v>
       </c>
-      <c r="J17" s="572">
+      <c r="J17" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K17" s="573">
+      <c r="K17" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="569"/>
+      <c r="A18" s="533"/>
       <c r="B18" s="434">
         <v>10</v>
       </c>
-      <c r="C18" s="570" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="570" t="s">
+      <c r="C18" s="534" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="571">
+      <c r="E18" s="535">
         <v>44698</v>
       </c>
-      <c r="F18" s="571">
+      <c r="F18" s="535">
         <v>44703</v>
       </c>
-      <c r="G18" s="570">
+      <c r="G18" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H18" s="571">
+      <c r="H18" s="535">
         <v>44698</v>
       </c>
-      <c r="I18" s="571">
+      <c r="I18" s="535">
         <v>44700</v>
       </c>
-      <c r="J18" s="572">
+      <c r="J18" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K18" s="573">
+      <c r="K18" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="569"/>
+      <c r="A19" s="533"/>
       <c r="B19" s="434">
         <v>11</v>
       </c>
-      <c r="C19" s="570" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="570" t="s">
+      <c r="C19" s="534" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="571">
+      <c r="E19" s="535">
         <v>44698</v>
       </c>
-      <c r="F19" s="571">
+      <c r="F19" s="535">
         <v>44703</v>
       </c>
-      <c r="G19" s="570">
+      <c r="G19" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H19" s="571">
+      <c r="H19" s="535">
         <v>44698</v>
       </c>
-      <c r="I19" s="571">
+      <c r="I19" s="535">
         <v>44700</v>
       </c>
-      <c r="J19" s="572">
+      <c r="J19" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K19" s="573">
+      <c r="K19" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="569"/>
+      <c r="A20" s="533"/>
       <c r="B20" s="434">
         <v>12</v>
       </c>
-      <c r="C20" s="570" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="570" t="s">
+      <c r="C20" s="534" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="571">
+      <c r="E20" s="535">
         <v>44698</v>
       </c>
-      <c r="F20" s="571">
+      <c r="F20" s="535">
         <v>44703</v>
       </c>
-      <c r="G20" s="570">
+      <c r="G20" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H20" s="571">
+      <c r="H20" s="535">
         <v>44698</v>
       </c>
-      <c r="I20" s="571">
+      <c r="I20" s="535">
         <v>44700</v>
       </c>
-      <c r="J20" s="572">
+      <c r="J20" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K20" s="573">
+      <c r="K20" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="569"/>
+      <c r="A21" s="533"/>
       <c r="B21" s="434">
         <v>13</v>
       </c>
-      <c r="C21" s="570" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="570" t="s">
+      <c r="C21" s="534" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="571">
+      <c r="E21" s="535">
         <v>44698</v>
       </c>
-      <c r="F21" s="571">
+      <c r="F21" s="535">
         <v>44703</v>
       </c>
-      <c r="G21" s="570">
+      <c r="G21" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H21" s="571">
+      <c r="H21" s="535">
         <v>44698</v>
       </c>
-      <c r="I21" s="571">
+      <c r="I21" s="535">
         <v>44700</v>
       </c>
-      <c r="J21" s="572">
+      <c r="J21" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K21" s="573">
+      <c r="K21" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="569"/>
+      <c r="A22" s="533"/>
       <c r="B22" s="434">
         <v>14</v>
       </c>
-      <c r="C22" s="570" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="570" t="s">
+      <c r="C22" s="534" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="571">
+      <c r="E22" s="535">
         <v>44698</v>
       </c>
-      <c r="F22" s="571">
+      <c r="F22" s="535">
         <v>44703</v>
       </c>
-      <c r="G22" s="570">
+      <c r="G22" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H22" s="571">
+      <c r="H22" s="535">
         <v>44698</v>
       </c>
-      <c r="I22" s="571">
+      <c r="I22" s="535">
         <v>44700</v>
       </c>
-      <c r="J22" s="572">
+      <c r="J22" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K22" s="573">
+      <c r="K22" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="569"/>
+      <c r="A23" s="533"/>
       <c r="B23" s="434">
         <v>15</v>
       </c>
-      <c r="C23" s="570" t="s">
-        <v>353</v>
-      </c>
-      <c r="D23" s="570" t="s">
+      <c r="C23" s="534" t="s">
+        <v>357</v>
+      </c>
+      <c r="D23" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="571">
+      <c r="E23" s="535">
         <v>44698</v>
       </c>
-      <c r="F23" s="571">
+      <c r="F23" s="535">
         <v>44703</v>
       </c>
-      <c r="G23" s="570">
+      <c r="G23" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H23" s="571">
+      <c r="H23" s="535">
         <v>44698</v>
       </c>
-      <c r="I23" s="571">
+      <c r="I23" s="535">
         <v>44700</v>
       </c>
-      <c r="J23" s="572">
+      <c r="J23" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K23" s="573">
+      <c r="K23" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="569"/>
+      <c r="A24" s="533"/>
       <c r="B24" s="434">
         <v>16</v>
       </c>
-      <c r="C24" s="570" t="s">
-        <v>354</v>
-      </c>
-      <c r="D24" s="570" t="s">
+      <c r="C24" s="534" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="571">
+      <c r="E24" s="535">
         <v>44698</v>
       </c>
-      <c r="F24" s="571">
+      <c r="F24" s="535">
         <v>44703</v>
       </c>
-      <c r="G24" s="570">
+      <c r="G24" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H24" s="571">
+      <c r="H24" s="535">
         <v>44698</v>
       </c>
-      <c r="I24" s="571">
+      <c r="I24" s="535">
         <v>44700</v>
       </c>
-      <c r="J24" s="572">
+      <c r="J24" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K24" s="573">
+      <c r="K24" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="569"/>
+      <c r="A25" s="533"/>
       <c r="B25" s="434">
         <v>17</v>
       </c>
-      <c r="C25" s="570" t="s">
-        <v>355</v>
-      </c>
-      <c r="D25" s="570" t="s">
+      <c r="C25" s="534" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="571">
+      <c r="E25" s="535">
         <v>44698</v>
       </c>
-      <c r="F25" s="571">
+      <c r="F25" s="535">
         <v>44703</v>
       </c>
-      <c r="G25" s="570">
+      <c r="G25" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H25" s="571">
+      <c r="H25" s="535">
         <v>44698</v>
       </c>
-      <c r="I25" s="571">
+      <c r="I25" s="535">
         <v>44700</v>
       </c>
-      <c r="J25" s="572">
+      <c r="J25" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K25" s="573">
+      <c r="K25" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="569"/>
+      <c r="A26" s="533"/>
       <c r="B26" s="434">
         <v>18</v>
       </c>
-      <c r="C26" s="570" t="s">
-        <v>356</v>
-      </c>
-      <c r="D26" s="570" t="s">
+      <c r="C26" s="534" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="571">
+      <c r="E26" s="535">
         <v>44698</v>
       </c>
-      <c r="F26" s="571">
+      <c r="F26" s="535">
         <v>44703</v>
       </c>
-      <c r="G26" s="570">
+      <c r="G26" s="534">
         <f t="shared" ref="G26:G28" si="2">F26-E26</f>
         <v>5</v>
       </c>
-      <c r="H26" s="571">
+      <c r="H26" s="535">
         <v>44698</v>
       </c>
-      <c r="I26" s="571">
+      <c r="I26" s="535">
         <v>44700</v>
       </c>
-      <c r="J26" s="572">
+      <c r="J26" s="536">
         <f t="shared" ref="J26:J28" si="3">I26-H26</f>
         <v>2</v>
       </c>
-      <c r="K26" s="573">
+      <c r="K26" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="569"/>
+      <c r="A27" s="533"/>
       <c r="B27" s="434">
         <v>19</v>
       </c>
-      <c r="C27" s="570" t="s">
-        <v>357</v>
-      </c>
-      <c r="D27" s="570" t="s">
+      <c r="C27" s="534" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="571">
+      <c r="E27" s="535">
         <v>44698</v>
       </c>
-      <c r="F27" s="571">
+      <c r="F27" s="535">
         <v>44703</v>
       </c>
-      <c r="G27" s="570">
+      <c r="G27" s="534">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H27" s="571">
+      <c r="H27" s="535">
         <v>44698</v>
       </c>
-      <c r="I27" s="571">
+      <c r="I27" s="535">
         <v>44700</v>
       </c>
-      <c r="J27" s="572">
+      <c r="J27" s="536">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K27" s="573">
+      <c r="K27" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="569"/>
+      <c r="A28" s="533"/>
       <c r="B28" s="434">
         <v>20</v>
       </c>
-      <c r="C28" s="570" t="s">
-        <v>358</v>
-      </c>
-      <c r="D28" s="570" t="s">
+      <c r="C28" s="534" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="571">
+      <c r="E28" s="535">
         <v>44698</v>
       </c>
-      <c r="F28" s="571">
+      <c r="F28" s="535">
         <v>44703</v>
       </c>
-      <c r="G28" s="570">
+      <c r="G28" s="534">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H28" s="571">
+      <c r="H28" s="535">
         <v>44698</v>
       </c>
-      <c r="I28" s="571">
+      <c r="I28" s="535">
         <v>44700</v>
       </c>
-      <c r="J28" s="572">
+      <c r="J28" s="536">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K28" s="573">
+      <c r="K28" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="569"/>
+      <c r="A29" s="533"/>
       <c r="B29" s="434">
         <v>21</v>
       </c>
-      <c r="C29" s="570" t="s">
-        <v>359</v>
-      </c>
-      <c r="D29" s="570" t="s">
+      <c r="C29" s="534" t="s">
+        <v>363</v>
+      </c>
+      <c r="D29" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="571">
+      <c r="E29" s="535">
         <v>44698</v>
       </c>
-      <c r="F29" s="571">
+      <c r="F29" s="535">
         <v>44703</v>
       </c>
-      <c r="G29" s="570">
+      <c r="G29" s="534">
         <f t="shared" ref="G29:G30" si="4">F29-E29</f>
         <v>5</v>
       </c>
-      <c r="H29" s="571">
+      <c r="H29" s="535">
         <v>44698</v>
       </c>
-      <c r="I29" s="571">
+      <c r="I29" s="535">
         <v>44700</v>
       </c>
-      <c r="J29" s="572">
+      <c r="J29" s="536">
         <f t="shared" ref="J29:J30" si="5">I29-H29</f>
         <v>2</v>
       </c>
-      <c r="K29" s="573">
+      <c r="K29" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="569"/>
+      <c r="A30" s="533"/>
       <c r="B30" s="434">
         <v>22</v>
       </c>
-      <c r="C30" s="570" t="s">
-        <v>360</v>
-      </c>
-      <c r="D30" s="570" t="s">
+      <c r="C30" s="534" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="571">
+      <c r="E30" s="535">
         <v>44698</v>
       </c>
-      <c r="F30" s="571">
+      <c r="F30" s="535">
         <v>44703</v>
       </c>
-      <c r="G30" s="570">
+      <c r="G30" s="534">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="H30" s="571">
+      <c r="H30" s="535">
         <v>44698</v>
       </c>
-      <c r="I30" s="571">
+      <c r="I30" s="535">
         <v>44700</v>
       </c>
-      <c r="J30" s="572">
+      <c r="J30" s="536">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K30" s="573">
+      <c r="K30" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="569"/>
+      <c r="A31" s="533"/>
       <c r="B31" s="434">
         <v>23</v>
       </c>
-      <c r="C31" s="570" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="570" t="s">
+      <c r="C31" s="534" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="571">
+      <c r="E31" s="535">
         <v>44698</v>
       </c>
-      <c r="F31" s="571">
+      <c r="F31" s="535">
         <v>44703</v>
       </c>
-      <c r="G31" s="570">
+      <c r="G31" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H31" s="571">
+      <c r="H31" s="535">
         <v>44698</v>
       </c>
-      <c r="I31" s="571">
+      <c r="I31" s="535">
         <v>44700</v>
       </c>
-      <c r="J31" s="572">
+      <c r="J31" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K31" s="573">
+      <c r="K31" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="569"/>
+      <c r="A32" s="533"/>
       <c r="B32" s="434">
         <v>24</v>
       </c>
-      <c r="C32" s="570" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="570" t="s">
+      <c r="C32" s="534" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="571">
+      <c r="E32" s="535">
         <v>44698</v>
       </c>
-      <c r="F32" s="571">
+      <c r="F32" s="535">
         <v>44703</v>
       </c>
-      <c r="G32" s="570">
+      <c r="G32" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H32" s="571">
+      <c r="H32" s="535">
         <v>44698</v>
       </c>
-      <c r="I32" s="571">
+      <c r="I32" s="535">
         <v>44700</v>
       </c>
-      <c r="J32" s="572">
+      <c r="J32" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K32" s="573">
+      <c r="K32" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="569"/>
+      <c r="A33" s="533"/>
       <c r="B33" s="434">
         <v>25</v>
       </c>
-      <c r="C33" s="570" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="570" t="s">
+      <c r="C33" s="534" t="s">
+        <v>367</v>
+      </c>
+      <c r="D33" s="534" t="s">
         <v>209</v>
       </c>
-      <c r="E33" s="571">
+      <c r="E33" s="535">
         <v>44698</v>
       </c>
-      <c r="F33" s="571">
+      <c r="F33" s="535">
         <v>44703</v>
       </c>
-      <c r="G33" s="570">
+      <c r="G33" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H33" s="571">
+      <c r="H33" s="535">
         <v>44698</v>
       </c>
-      <c r="I33" s="571">
+      <c r="I33" s="535">
         <v>44700</v>
       </c>
-      <c r="J33" s="572">
+      <c r="J33" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K33" s="573">
+      <c r="K33" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="569"/>
+      <c r="A34" s="533"/>
       <c r="B34" s="434">
         <v>26</v>
       </c>
-      <c r="C34" s="570" t="s">
+      <c r="C34" s="534" t="s">
         <v>370</v>
       </c>
-      <c r="D34" s="570" t="s">
+      <c r="D34" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="571">
+      <c r="E34" s="535">
         <v>44698</v>
       </c>
-      <c r="F34" s="571">
+      <c r="F34" s="535">
         <v>44703</v>
       </c>
-      <c r="G34" s="570">
+      <c r="G34" s="534">
         <f t="shared" ref="G34:G35" si="6">F34-E34</f>
         <v>5</v>
       </c>
-      <c r="H34" s="571">
+      <c r="H34" s="535">
         <v>44698</v>
       </c>
-      <c r="I34" s="571">
+      <c r="I34" s="535">
         <v>44700</v>
       </c>
-      <c r="J34" s="572">
+      <c r="J34" s="536">
         <f t="shared" ref="J34:J35" si="7">I34-H34</f>
         <v>2</v>
       </c>
-      <c r="K34" s="573">
+      <c r="K34" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="569"/>
+      <c r="A35" s="533"/>
       <c r="B35" s="434">
         <v>27</v>
       </c>
-      <c r="C35" s="570" t="s">
-        <v>371</v>
-      </c>
-      <c r="D35" s="570" t="s">
+      <c r="C35" s="534" t="s">
+        <v>368</v>
+      </c>
+      <c r="D35" s="534" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="571">
+      <c r="E35" s="535">
         <v>44698</v>
       </c>
-      <c r="F35" s="571">
+      <c r="F35" s="535">
         <v>44703</v>
       </c>
-      <c r="G35" s="570">
+      <c r="G35" s="534">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="H35" s="571">
+      <c r="H35" s="535">
         <v>44698</v>
       </c>
-      <c r="I35" s="571">
+      <c r="I35" s="535">
         <v>44700</v>
       </c>
-      <c r="J35" s="572">
+      <c r="J35" s="536">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K35" s="573">
+      <c r="K35" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="569"/>
+    <row r="36" spans="1:12" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="533"/>
       <c r="B36" s="434">
+        <v>28</v>
+      </c>
+      <c r="C36" s="534" t="s">
+        <v>369</v>
+      </c>
+      <c r="D36" s="534" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="535">
+        <v>44698</v>
+      </c>
+      <c r="F36" s="535">
+        <v>44703</v>
+      </c>
+      <c r="G36" s="534">
+        <f t="shared" ref="G36" si="8">F36-E36</f>
+        <v>5</v>
+      </c>
+      <c r="H36" s="535">
+        <v>44698</v>
+      </c>
+      <c r="I36" s="535">
+        <v>44700</v>
+      </c>
+      <c r="J36" s="536">
+        <f t="shared" ref="J36" si="9">I36-H36</f>
+        <v>2</v>
+      </c>
+      <c r="K36" s="537">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="533"/>
+      <c r="B37" s="434">
         <v>1</v>
       </c>
-      <c r="C36" s="570" t="s">
-        <v>224</v>
-      </c>
-      <c r="D36" s="570" t="s">
+      <c r="C37" s="534" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="534" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="571">
+      <c r="E37" s="535">
         <v>44698</v>
       </c>
-      <c r="F36" s="571">
+      <c r="F37" s="535">
         <v>44703</v>
       </c>
-      <c r="G36" s="570">
+      <c r="G37" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H36" s="571">
+      <c r="H37" s="535">
         <v>44698</v>
       </c>
-      <c r="I36" s="571">
+      <c r="I37" s="535">
         <v>44699</v>
       </c>
-      <c r="J36" s="572">
+      <c r="J37" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K36" s="573">
+      <c r="K37" s="537">
         <v>0.9</v>
       </c>
-      <c r="L36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="569"/>
-      <c r="B37" s="434">
+      <c r="L37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="533"/>
+      <c r="B38" s="434">
         <v>2</v>
       </c>
-      <c r="C37" s="570" t="s">
-        <v>225</v>
-      </c>
-      <c r="D37" s="570" t="s">
+      <c r="C38" s="534" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="534" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="571">
+      <c r="E38" s="535">
         <v>44698</v>
       </c>
-      <c r="F37" s="571">
+      <c r="F38" s="535">
         <v>44703</v>
       </c>
-      <c r="G37" s="570">
+      <c r="G38" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H37" s="571">
+      <c r="H38" s="535">
         <v>44698</v>
       </c>
-      <c r="I37" s="571">
+      <c r="I38" s="535">
         <v>44699</v>
       </c>
-      <c r="J37" s="572">
+      <c r="J38" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K37" s="573">
+      <c r="K38" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="569"/>
-      <c r="B38" s="434">
+    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="533"/>
+      <c r="B39" s="434">
         <v>3</v>
       </c>
-      <c r="C38" s="570" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" s="570" t="s">
-        <v>296</v>
-      </c>
-      <c r="E38" s="571">
+      <c r="C39" s="534" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="534" t="s">
+        <v>289</v>
+      </c>
+      <c r="E39" s="535">
         <v>44698</v>
       </c>
-      <c r="F38" s="571">
+      <c r="F39" s="535">
         <v>44703</v>
       </c>
-      <c r="G38" s="570">
+      <c r="G39" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H38" s="571">
+      <c r="H39" s="535">
         <v>44698</v>
       </c>
-      <c r="I38" s="571">
+      <c r="I39" s="535">
         <v>44700</v>
       </c>
-      <c r="J38" s="572">
+      <c r="J39" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K38" s="573">
+      <c r="K39" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="569"/>
-      <c r="B39" s="434">
+    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="533"/>
+      <c r="B40" s="434">
         <v>4</v>
       </c>
-      <c r="C39" s="570" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="570" t="s">
+      <c r="C40" s="534" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="534" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="571">
+      <c r="E40" s="535">
         <v>44698</v>
       </c>
-      <c r="F39" s="571">
+      <c r="F40" s="535">
         <v>44703</v>
       </c>
-      <c r="G39" s="570">
+      <c r="G40" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H39" s="571">
+      <c r="H40" s="535">
         <v>44698</v>
       </c>
-      <c r="I39" s="571">
+      <c r="I40" s="535">
         <v>44700</v>
       </c>
-      <c r="J39" s="572">
+      <c r="J40" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K39" s="573">
+      <c r="K40" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="569"/>
-      <c r="B40" s="434">
+    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="533"/>
+      <c r="B41" s="434">
         <v>5</v>
       </c>
-      <c r="C40" s="570" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" s="570" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="571">
+      <c r="C41" s="534" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="534" t="s">
+        <v>289</v>
+      </c>
+      <c r="E41" s="535">
         <v>44698</v>
       </c>
-      <c r="F40" s="571">
+      <c r="F41" s="535">
         <v>44703</v>
       </c>
-      <c r="G40" s="570">
+      <c r="G41" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H40" s="571">
+      <c r="H41" s="535">
         <v>44698</v>
       </c>
-      <c r="I40" s="571">
+      <c r="I41" s="535">
         <v>44701</v>
       </c>
-      <c r="J40" s="572">
+      <c r="J41" s="536">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K40" s="573">
+      <c r="K41" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="569"/>
-      <c r="B41" s="434">
+    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="533"/>
+      <c r="B42" s="434">
         <v>6</v>
       </c>
-      <c r="C41" s="570" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" s="570" t="s">
-        <v>296</v>
-      </c>
-      <c r="E41" s="571">
+      <c r="C42" s="534" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="534" t="s">
+        <v>289</v>
+      </c>
+      <c r="E42" s="535">
         <v>44698</v>
       </c>
-      <c r="F41" s="571">
+      <c r="F42" s="535">
         <v>44703</v>
       </c>
-      <c r="G41" s="570">
+      <c r="G42" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H41" s="571">
+      <c r="H42" s="535">
         <v>44698</v>
       </c>
-      <c r="I41" s="571">
+      <c r="I42" s="535">
         <v>44701</v>
       </c>
-      <c r="J41" s="572">
+      <c r="J42" s="536">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K41" s="573">
+      <c r="K42" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="569"/>
-      <c r="B42" s="434">
+    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="533"/>
+      <c r="B43" s="434">
         <v>7</v>
       </c>
-      <c r="C42" s="570" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="570" t="s">
+      <c r="C43" s="534" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="534" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="571">
+      <c r="E43" s="535">
         <v>44698</v>
       </c>
-      <c r="F42" s="571">
+      <c r="F43" s="535">
         <v>44703</v>
       </c>
-      <c r="G42" s="570">
+      <c r="G43" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H42" s="571">
+      <c r="H43" s="535">
         <v>44698</v>
       </c>
-      <c r="I42" s="571">
+      <c r="I43" s="535">
         <v>44700</v>
       </c>
-      <c r="J42" s="572">
+      <c r="J43" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K42" s="573">
+      <c r="K43" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="569"/>
-      <c r="B43" s="434">
+    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="533"/>
+      <c r="B44" s="434">
         <v>8</v>
       </c>
-      <c r="C43" s="570" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="570" t="s">
+      <c r="C44" s="534" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="534" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="571">
+      <c r="E44" s="535">
         <v>44698</v>
       </c>
-      <c r="F43" s="571">
+      <c r="F44" s="535">
         <v>44703</v>
       </c>
-      <c r="G43" s="570">
+      <c r="G44" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H43" s="571">
+      <c r="H44" s="535">
         <v>44698</v>
       </c>
-      <c r="I43" s="571">
+      <c r="I44" s="535">
         <v>44701</v>
       </c>
-      <c r="J43" s="572">
+      <c r="J44" s="536">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K43" s="573">
+      <c r="K44" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="569"/>
-      <c r="B44" s="434">
+    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="533"/>
+      <c r="B45" s="434">
         <v>9</v>
       </c>
-      <c r="C44" s="570" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="570" t="s">
-        <v>233</v>
-      </c>
-      <c r="E44" s="571">
+      <c r="C45" s="534" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="534" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="535">
         <v>44698</v>
       </c>
-      <c r="F44" s="571">
+      <c r="F45" s="535">
         <v>44703</v>
       </c>
-      <c r="G44" s="570">
+      <c r="G45" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H44" s="571">
+      <c r="H45" s="535">
         <v>44698</v>
       </c>
-      <c r="I44" s="571">
+      <c r="I45" s="535">
         <v>44699</v>
       </c>
-      <c r="J44" s="572">
+      <c r="J45" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K44" s="573">
+      <c r="K45" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="569"/>
-      <c r="B45" s="434">
+    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="533"/>
+      <c r="B46" s="434">
         <v>10</v>
       </c>
-      <c r="C45" s="570" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="570" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="571">
+      <c r="C46" s="534" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="534" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="535">
         <v>44698</v>
       </c>
-      <c r="F45" s="571">
+      <c r="F46" s="535">
         <v>44703</v>
       </c>
-      <c r="G45" s="570">
+      <c r="G46" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H45" s="571">
+      <c r="H46" s="535">
         <v>44698</v>
       </c>
-      <c r="I45" s="571">
+      <c r="I46" s="535">
         <v>44700</v>
       </c>
-      <c r="J45" s="572">
+      <c r="J46" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K45" s="573">
+      <c r="K46" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="569"/>
-      <c r="B46" s="434">
+    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="533"/>
+      <c r="B47" s="434">
         <v>11</v>
       </c>
-      <c r="C46" s="570" t="s">
-        <v>235</v>
-      </c>
-      <c r="D46" s="570" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" s="571">
+      <c r="C47" s="534" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="534" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="535">
         <v>44698</v>
       </c>
-      <c r="F46" s="571">
+      <c r="F47" s="535">
         <v>44703</v>
       </c>
-      <c r="G46" s="570">
+      <c r="G47" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H46" s="571">
+      <c r="H47" s="535">
         <v>44698</v>
       </c>
-      <c r="I46" s="571">
+      <c r="I47" s="535">
         <v>44700</v>
       </c>
-      <c r="J46" s="572">
+      <c r="J47" s="536">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K46" s="573">
+      <c r="K47" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="569"/>
-      <c r="B47" s="434">
+    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="533"/>
+      <c r="B48" s="434">
         <v>12</v>
       </c>
-      <c r="C47" s="570" t="s">
-        <v>276</v>
-      </c>
-      <c r="D47" s="570" t="s">
+      <c r="C48" s="534" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="534" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="571">
+      <c r="E48" s="535">
         <v>44698</v>
       </c>
-      <c r="F47" s="571">
+      <c r="F48" s="535">
         <v>44703</v>
       </c>
-      <c r="G47" s="570">
+      <c r="G48" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H47" s="571">
+      <c r="H48" s="535">
         <v>44698</v>
       </c>
-      <c r="I47" s="571">
+      <c r="I48" s="535">
         <v>44702</v>
       </c>
-      <c r="J47" s="572">
+      <c r="J48" s="536">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K47" s="573">
+      <c r="K48" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="569"/>
-      <c r="B48" s="434">
+    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="533"/>
+      <c r="B49" s="434">
         <v>13</v>
       </c>
-      <c r="C48" s="570" t="s">
+      <c r="C49" s="534" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="570" t="s">
+      <c r="D49" s="534" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="571">
+      <c r="E49" s="535">
         <v>44698</v>
       </c>
-      <c r="F48" s="571">
+      <c r="F49" s="535">
         <v>44703</v>
       </c>
-      <c r="G48" s="570">
+      <c r="G49" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H48" s="571">
+      <c r="H49" s="535">
         <v>44698</v>
       </c>
-      <c r="I48" s="571">
+      <c r="I49" s="535">
         <v>44702</v>
       </c>
-      <c r="J48" s="572">
+      <c r="J49" s="536">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K48" s="573">
+      <c r="K49" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="569"/>
-      <c r="B49" s="434">
+    <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="533"/>
+      <c r="B50" s="434">
         <v>14</v>
       </c>
-      <c r="C49" s="570" t="s">
-        <v>251</v>
-      </c>
-      <c r="D49" s="570" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" s="571">
+      <c r="C50" s="534" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="534" t="s">
+        <v>226</v>
+      </c>
+      <c r="E50" s="535">
         <v>44698</v>
       </c>
-      <c r="F49" s="571">
+      <c r="F50" s="535">
         <v>44703</v>
       </c>
-      <c r="G49" s="570">
+      <c r="G50" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H49" s="571">
+      <c r="H50" s="535">
         <v>44698</v>
       </c>
-      <c r="I49" s="571">
+      <c r="I50" s="535">
         <v>44699</v>
       </c>
-      <c r="J49" s="572">
+      <c r="J50" s="536">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K49" s="573">
+      <c r="K50" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="569"/>
-      <c r="B50" s="434">
+    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="533"/>
+      <c r="B51" s="434">
         <v>15</v>
       </c>
-      <c r="C50" s="570" t="s">
-        <v>277</v>
-      </c>
-      <c r="D50" s="570" t="s">
+      <c r="C51" s="534" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="534" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="571">
+      <c r="E51" s="535">
         <v>44698</v>
       </c>
-      <c r="F50" s="571">
+      <c r="F51" s="535">
         <v>44703</v>
       </c>
-      <c r="G50" s="570">
+      <c r="G51" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H50" s="571">
+      <c r="H51" s="535">
         <v>44698</v>
       </c>
-      <c r="I50" s="571">
+      <c r="I51" s="535">
         <v>44701</v>
       </c>
-      <c r="J50" s="572">
+      <c r="J51" s="536">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K50" s="573">
+      <c r="K51" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="569"/>
-      <c r="B51" s="434">
+    <row r="52" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="533"/>
+      <c r="B52" s="434">
         <v>16</v>
       </c>
-      <c r="C51" s="570" t="s">
-        <v>294</v>
-      </c>
-      <c r="D51" s="570" t="s">
-        <v>296</v>
-      </c>
-      <c r="E51" s="571">
+      <c r="C52" s="534" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" s="534" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="535">
         <v>44698</v>
       </c>
-      <c r="F51" s="571">
+      <c r="F52" s="535">
         <v>44703</v>
       </c>
-      <c r="G51" s="570">
+      <c r="G52" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H51" s="571">
+      <c r="H52" s="535">
         <v>44698</v>
       </c>
-      <c r="I51" s="571">
+      <c r="I52" s="535">
         <v>44703</v>
       </c>
-      <c r="J51" s="572">
-        <f>I51-H51</f>
+      <c r="J52" s="536">
+        <f>I52-H52</f>
         <v>5</v>
       </c>
-      <c r="K51" s="573">
+      <c r="K52" s="537">
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A52" s="569"/>
-      <c r="B52" s="434">
+    <row r="53" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="533"/>
+      <c r="B53" s="434">
         <v>17</v>
       </c>
-      <c r="C52" s="570" t="s">
-        <v>351</v>
-      </c>
-      <c r="D52" s="570" t="s">
-        <v>296</v>
-      </c>
-      <c r="E52" s="571">
+      <c r="C53" s="534" t="s">
+        <v>344</v>
+      </c>
+      <c r="D53" s="534" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53" s="535">
         <v>44698</v>
       </c>
-      <c r="F52" s="571">
+      <c r="F53" s="535">
         <v>44703</v>
       </c>
-      <c r="G52" s="570">
+      <c r="G53" s="534">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H52" s="571">
+      <c r="H53" s="535">
         <v>44698</v>
       </c>
-      <c r="I52" s="571">
+      <c r="I53" s="535">
         <v>44703</v>
       </c>
-      <c r="J52" s="572">
-        <f>I52-H52</f>
-        <v>5</v>
-      </c>
-      <c r="K52" s="573">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A53" s="569"/>
-      <c r="B53" s="434">
-        <v>18</v>
-      </c>
-      <c r="C53" s="570" t="s">
-        <v>352</v>
-      </c>
-      <c r="D53" s="570" t="s">
-        <v>233</v>
-      </c>
-      <c r="E53" s="571">
-        <v>44698</v>
-      </c>
-      <c r="F53" s="571">
-        <v>44703</v>
-      </c>
-      <c r="G53" s="570">
-        <f t="shared" ref="G53" si="8">F53-E53</f>
-        <v>5</v>
-      </c>
-      <c r="H53" s="571">
-        <v>44698</v>
-      </c>
-      <c r="I53" s="571">
-        <v>44703</v>
-      </c>
-      <c r="J53" s="572">
+      <c r="J53" s="536">
         <f>I53-H53</f>
         <v>5</v>
       </c>
-      <c r="K53" s="573">
+      <c r="K53" s="537">
         <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" s="44">
+      <c r="A54" s="533"/>
+      <c r="B54" s="434">
+        <v>18</v>
+      </c>
+      <c r="C54" s="534" t="s">
+        <v>345</v>
+      </c>
+      <c r="D54" s="534" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="535">
+        <v>44698</v>
+      </c>
+      <c r="F54" s="535">
+        <v>44703</v>
+      </c>
+      <c r="G54" s="534">
+        <f t="shared" ref="G54" si="10">F54-E54</f>
+        <v>5</v>
+      </c>
+      <c r="H54" s="535">
+        <v>44698</v>
+      </c>
+      <c r="I54" s="535">
+        <v>44703</v>
+      </c>
+      <c r="J54" s="536">
+        <f>I54-H54</f>
+        <v>5</v>
+      </c>
+      <c r="K54" s="537">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="44">
         <v>4</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="46" t="s">
+      <c r="B55" s="45"/>
+      <c r="C55" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D55" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="47">
+      <c r="E55" s="47">
         <v>44701</v>
       </c>
-      <c r="F54" s="47">
+      <c r="F55" s="47">
         <v>44704</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G55" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H54" s="47">
+      <c r="H55" s="47">
         <v>44702</v>
       </c>
-      <c r="I54" s="47">
+      <c r="I55" s="47">
         <v>44702</v>
       </c>
-      <c r="J54" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="49">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="44">
-        <v>5</v>
-      </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="47">
-        <v>44704</v>
-      </c>
-      <c r="F55" s="47">
-        <v>44714</v>
-      </c>
-      <c r="G55" s="46">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
       <c r="J55" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K55" s="49"/>
-    </row>
-    <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="78"/>
-      <c r="B56" s="79">
-        <v>1</v>
-      </c>
-      <c r="C56" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="E56" s="81">
+      <c r="K55" s="49">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="44">
+        <v>5</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="47">
         <v>44704</v>
       </c>
-      <c r="F56" s="81">
-        <v>44705</v>
-      </c>
-      <c r="G56" s="80">
+      <c r="F56" s="47">
+        <v>44714</v>
+      </c>
+      <c r="G56" s="46">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="516"/>
-      <c r="K56" s="82"/>
+        <v>10</v>
+      </c>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="49"/>
     </row>
     <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="78"/>
       <c r="B57" s="79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="80" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="D57" s="80" t="s">
         <v>209</v>
@@ -14355,13 +14373,13 @@
       <c r="J57" s="516"/>
       <c r="K57" s="82"/>
     </row>
-    <row r="58" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="78"/>
       <c r="B58" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D58" s="80" t="s">
         <v>209</v>
@@ -14384,19 +14402,19 @@
     <row r="59" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="78"/>
       <c r="B59" s="79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>212</v>
+        <v>374</v>
       </c>
       <c r="D59" s="80" t="s">
         <v>209</v>
       </c>
       <c r="E59" s="81">
-        <v>44706</v>
+        <v>44704</v>
       </c>
       <c r="F59" s="81">
-        <v>44707</v>
+        <v>44705</v>
       </c>
       <c r="G59" s="80">
         <f t="shared" si="0"/>
@@ -14410,10 +14428,10 @@
     <row r="60" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="78"/>
       <c r="B60" s="79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="80" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D60" s="80" t="s">
         <v>209</v>
@@ -14436,10 +14454,10 @@
     <row r="61" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="78"/>
       <c r="B61" s="79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" s="80" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="D61" s="80" t="s">
         <v>209</v>
@@ -14451,7 +14469,7 @@
         <v>44707</v>
       </c>
       <c r="G61" s="80">
-        <f t="shared" ref="G61:G75" si="9">F61-E61</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H61" s="81"/>
@@ -14462,22 +14480,22 @@
     <row r="62" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="78"/>
       <c r="B62" s="79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" s="80" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D62" s="80" t="s">
         <v>209</v>
       </c>
       <c r="E62" s="81">
-        <v>44708</v>
+        <v>44706</v>
       </c>
       <c r="F62" s="81">
-        <v>44709</v>
+        <v>44707</v>
       </c>
       <c r="G62" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G62:G76" si="11">F62-E62</f>
         <v>1</v>
       </c>
       <c r="H62" s="81"/>
@@ -14488,10 +14506,10 @@
     <row r="63" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="78"/>
       <c r="B63" s="79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="D63" s="80" t="s">
         <v>209</v>
@@ -14503,7 +14521,7 @@
         <v>44709</v>
       </c>
       <c r="G63" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H63" s="81"/>
@@ -14514,10 +14532,10 @@
     <row r="64" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="78"/>
       <c r="B64" s="79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="D64" s="80" t="s">
         <v>209</v>
@@ -14529,7 +14547,7 @@
         <v>44709</v>
       </c>
       <c r="G64" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H64" s="81"/>
@@ -14540,22 +14558,22 @@
     <row r="65" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="78"/>
       <c r="B65" s="79">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D65" s="80" t="s">
         <v>209</v>
       </c>
       <c r="E65" s="81">
-        <v>44710</v>
+        <v>44708</v>
       </c>
       <c r="F65" s="81">
-        <v>44711</v>
+        <v>44709</v>
       </c>
       <c r="G65" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H65" s="81"/>
@@ -14566,10 +14584,10 @@
     <row r="66" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="78"/>
       <c r="B66" s="79">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D66" s="80" t="s">
         <v>209</v>
@@ -14581,7 +14599,7 @@
         <v>44711</v>
       </c>
       <c r="G66" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H66" s="81"/>
@@ -14592,10 +14610,10 @@
     <row r="67" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="78"/>
       <c r="B67" s="79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>219</v>
+        <v>373</v>
       </c>
       <c r="D67" s="80" t="s">
         <v>209</v>
@@ -14607,7 +14625,7 @@
         <v>44711</v>
       </c>
       <c r="G67" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H67" s="81"/>
@@ -14616,38 +14634,38 @@
       <c r="K67" s="82"/>
     </row>
     <row r="68" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="521"/>
-      <c r="B68" s="522">
-        <v>13</v>
-      </c>
-      <c r="C68" s="523" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="523" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="524">
-        <v>44704</v>
-      </c>
-      <c r="F68" s="524">
-        <v>44705</v>
-      </c>
-      <c r="G68" s="523">
-        <f t="shared" si="9"/>
+      <c r="A68" s="78"/>
+      <c r="B68" s="79">
+        <v>12</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="81">
+        <v>44710</v>
+      </c>
+      <c r="F68" s="81">
+        <v>44711</v>
+      </c>
+      <c r="G68" s="80">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H68" s="524"/>
-      <c r="I68" s="524"/>
-      <c r="J68" s="525"/>
-      <c r="K68" s="526"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="516"/>
+      <c r="K68" s="82"/>
     </row>
     <row r="69" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="521"/>
       <c r="B69" s="522">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="523" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="D69" s="523" t="s">
         <v>108</v>
@@ -14659,7 +14677,7 @@
         <v>44705</v>
       </c>
       <c r="G69" s="523">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H69" s="524"/>
@@ -14670,10 +14688,10 @@
     <row r="70" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="521"/>
       <c r="B70" s="522">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="523" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D70" s="523" t="s">
         <v>108</v>
@@ -14685,7 +14703,7 @@
         <v>44705</v>
       </c>
       <c r="G70" s="523">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H70" s="524"/>
@@ -14696,10 +14714,10 @@
     <row r="71" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="521"/>
       <c r="B71" s="522">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="523" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D71" s="523" t="s">
         <v>108</v>
@@ -14711,7 +14729,7 @@
         <v>44705</v>
       </c>
       <c r="G71" s="523">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H71" s="524"/>
@@ -14722,10 +14740,10 @@
     <row r="72" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="521"/>
       <c r="B72" s="522">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="523" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D72" s="523" t="s">
         <v>108</v>
@@ -14737,7 +14755,7 @@
         <v>44705</v>
       </c>
       <c r="G72" s="523">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H72" s="524"/>
@@ -14748,10 +14766,10 @@
     <row r="73" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="521"/>
       <c r="B73" s="522">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="523" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D73" s="523" t="s">
         <v>108</v>
@@ -14763,7 +14781,7 @@
         <v>44705</v>
       </c>
       <c r="G73" s="523">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H73" s="524"/>
@@ -14774,22 +14792,22 @@
     <row r="74" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="521"/>
       <c r="B74" s="522">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="523" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D74" s="523" t="s">
         <v>108</v>
       </c>
       <c r="E74" s="524">
+        <v>44704</v>
+      </c>
+      <c r="F74" s="524">
         <v>44705</v>
       </c>
-      <c r="F74" s="524">
-        <v>44706</v>
-      </c>
       <c r="G74" s="523">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H74" s="524"/>
@@ -14800,22 +14818,22 @@
     <row r="75" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="521"/>
       <c r="B75" s="522">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" s="523" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D75" s="523" t="s">
         <v>108</v>
       </c>
       <c r="E75" s="524">
+        <v>44704</v>
+      </c>
+      <c r="F75" s="524">
         <v>44705</v>
       </c>
-      <c r="F75" s="524">
-        <v>44706</v>
-      </c>
       <c r="G75" s="523">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H75" s="524"/>
@@ -14826,10 +14844,10 @@
     <row r="76" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="521"/>
       <c r="B76" s="522">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="523" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D76" s="523" t="s">
         <v>108</v>
@@ -14841,7 +14859,7 @@
         <v>44706</v>
       </c>
       <c r="G76" s="523">
-        <f t="shared" ref="G76" si="10">F76-E76</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H76" s="524"/>
@@ -14852,10 +14870,10 @@
     <row r="77" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="521"/>
       <c r="B77" s="522">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77" s="523" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D77" s="523" t="s">
         <v>108</v>
@@ -14867,7 +14885,7 @@
         <v>44706</v>
       </c>
       <c r="G77" s="523">
-        <f t="shared" ref="G77:G89" si="11">F77-E77</f>
+        <f t="shared" ref="G77" si="12">F77-E77</f>
         <v>1</v>
       </c>
       <c r="H77" s="524"/>
@@ -14878,10 +14896,10 @@
     <row r="78" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="521"/>
       <c r="B78" s="522">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" s="523" t="s">
-        <v>222</v>
+        <v>364</v>
       </c>
       <c r="D78" s="523" t="s">
         <v>108</v>
@@ -14893,7 +14911,7 @@
         <v>44706</v>
       </c>
       <c r="G78" s="523">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G78:G91" si="13">F78-E78</f>
         <v>1</v>
       </c>
       <c r="H78" s="524"/>
@@ -14904,10 +14922,10 @@
     <row r="79" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="521"/>
       <c r="B79" s="522">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" s="523" t="s">
-        <v>223</v>
+        <v>365</v>
       </c>
       <c r="D79" s="523" t="s">
         <v>108</v>
@@ -14919,7 +14937,7 @@
         <v>44706</v>
       </c>
       <c r="G79" s="523">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H79" s="524"/>
@@ -14930,10 +14948,10 @@
     <row r="80" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="521"/>
       <c r="B80" s="522">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" s="523" t="s">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="D80" s="523" t="s">
         <v>108</v>
@@ -14945,7 +14963,7 @@
         <v>44706</v>
       </c>
       <c r="G80" s="523">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H80" s="524"/>
@@ -14956,10 +14974,10 @@
     <row r="81" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="521"/>
       <c r="B81" s="522">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" s="523" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D81" s="523" t="s">
         <v>108</v>
@@ -14971,7 +14989,7 @@
         <v>44706</v>
       </c>
       <c r="G81" s="523">
-        <f t="shared" ref="G81:G82" si="12">F81-E81</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H81" s="524"/>
@@ -14982,10 +15000,10 @@
     <row r="82" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="521"/>
       <c r="B82" s="522">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="523" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D82" s="523" t="s">
         <v>108</v>
@@ -14997,7 +15015,7 @@
         <v>44706</v>
       </c>
       <c r="G82" s="523">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G82" si="14">F82-E82</f>
         <v>1</v>
       </c>
       <c r="H82" s="524"/>
@@ -15006,102 +15024,102 @@
       <c r="K82" s="526"/>
     </row>
     <row r="83" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A83" s="527"/>
-      <c r="B83" s="528">
+      <c r="A83" s="521"/>
+      <c r="B83" s="522">
+        <v>27</v>
+      </c>
+      <c r="C83" s="523" t="s">
+        <v>368</v>
+      </c>
+      <c r="D83" s="523" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="524">
+        <v>44705</v>
+      </c>
+      <c r="F83" s="524">
+        <v>44706</v>
+      </c>
+      <c r="G83" s="523">
+        <f t="shared" ref="G83:G84" si="15">F83-E83</f>
         <v>1</v>
       </c>
-      <c r="C83" s="529" t="s">
-        <v>224</v>
-      </c>
-      <c r="D83" s="529" t="s">
+      <c r="H83" s="524"/>
+      <c r="I83" s="524"/>
+      <c r="J83" s="525"/>
+      <c r="K83" s="526"/>
+    </row>
+    <row r="84" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A84" s="521"/>
+      <c r="B84" s="522">
+        <v>28</v>
+      </c>
+      <c r="C84" s="523" t="s">
+        <v>369</v>
+      </c>
+      <c r="D84" s="523" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" s="524">
+        <v>44705</v>
+      </c>
+      <c r="F84" s="524">
+        <v>44706</v>
+      </c>
+      <c r="G84" s="523">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H84" s="524"/>
+      <c r="I84" s="524"/>
+      <c r="J84" s="525"/>
+      <c r="K84" s="526"/>
+    </row>
+    <row r="85" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="527"/>
+      <c r="B85" s="528">
+        <v>1</v>
+      </c>
+      <c r="C85" s="529" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="529" t="s">
         <v>109</v>
       </c>
-      <c r="E83" s="530">
+      <c r="E85" s="530">
         <v>44704</v>
       </c>
-      <c r="F83" s="530">
+      <c r="F85" s="530">
         <v>44705</v>
       </c>
-      <c r="G83" s="529">
-        <f t="shared" si="11"/>
+      <c r="G85" s="529">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H83" s="530"/>
-      <c r="I83" s="530"/>
-      <c r="J83" s="531"/>
-      <c r="K83" s="532"/>
-    </row>
-    <row r="84" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A84" s="527"/>
-      <c r="B84" s="528">
-        <v>2</v>
-      </c>
-      <c r="C84" s="529" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="529" t="s">
-        <v>109</v>
-      </c>
-      <c r="E84" s="530">
-        <v>44704</v>
-      </c>
-      <c r="F84" s="530">
-        <v>44705</v>
-      </c>
-      <c r="G84" s="529">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H84" s="530"/>
-      <c r="I84" s="530"/>
-      <c r="J84" s="531"/>
-      <c r="K84" s="532"/>
-    </row>
-    <row r="85" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="471"/>
-      <c r="B85" s="472">
-        <v>3</v>
-      </c>
-      <c r="C85" s="473" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="473" t="s">
-        <v>296</v>
-      </c>
-      <c r="E85" s="474">
-        <v>44705</v>
-      </c>
-      <c r="F85" s="474">
-        <v>44706</v>
-      </c>
-      <c r="G85" s="473">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H85" s="474"/>
-      <c r="I85" s="474"/>
-      <c r="J85" s="514"/>
-      <c r="K85" s="475"/>
+      <c r="H85" s="530"/>
+      <c r="I85" s="530"/>
+      <c r="J85" s="531"/>
+      <c r="K85" s="532"/>
     </row>
     <row r="86" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="527"/>
       <c r="B86" s="528">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" s="529" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D86" s="529" t="s">
         <v>109</v>
       </c>
       <c r="E86" s="530">
+        <v>44704</v>
+      </c>
+      <c r="F86" s="530">
         <v>44705</v>
       </c>
-      <c r="F86" s="530">
-        <v>44706</v>
-      </c>
       <c r="G86" s="529">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H86" s="530"/>
@@ -15112,22 +15130,22 @@
     <row r="87" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="471"/>
       <c r="B87" s="472">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C87" s="473" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D87" s="473" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E87" s="474">
+        <v>44705</v>
+      </c>
+      <c r="F87" s="474">
         <v>44706</v>
       </c>
-      <c r="F87" s="474">
-        <v>44707</v>
-      </c>
       <c r="G87" s="473">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H87" s="474"/>
@@ -15136,145 +15154,145 @@
       <c r="K87" s="475"/>
     </row>
     <row r="88" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A88" s="471"/>
-      <c r="B88" s="472">
-        <v>6</v>
-      </c>
-      <c r="C88" s="473" t="s">
-        <v>229</v>
-      </c>
-      <c r="D88" s="473" t="s">
-        <v>296</v>
-      </c>
-      <c r="E88" s="474">
-        <v>44707</v>
-      </c>
-      <c r="F88" s="474">
-        <v>44708</v>
-      </c>
-      <c r="G88" s="473">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H88" s="474"/>
-      <c r="I88" s="474"/>
-      <c r="J88" s="514"/>
-      <c r="K88" s="475"/>
-    </row>
-    <row r="89" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A89" s="527"/>
-      <c r="B89" s="528">
-        <v>7</v>
-      </c>
-      <c r="C89" s="529" t="s">
-        <v>230</v>
-      </c>
-      <c r="D89" s="529" t="s">
+      <c r="A88" s="527"/>
+      <c r="B88" s="528">
+        <v>4</v>
+      </c>
+      <c r="C88" s="529" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" s="529" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="530">
+      <c r="E88" s="530">
         <v>44705</v>
       </c>
-      <c r="F89" s="530">
+      <c r="F88" s="530">
         <v>44706</v>
       </c>
-      <c r="G89" s="529">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H89" s="530"/>
-      <c r="I89" s="530"/>
-      <c r="J89" s="531"/>
-      <c r="K89" s="532"/>
-    </row>
-    <row r="90" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A90" s="527"/>
-      <c r="B90" s="528">
-        <v>8</v>
-      </c>
-      <c r="C90" s="529" t="s">
-        <v>231</v>
-      </c>
-      <c r="D90" s="529" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" s="530">
-        <v>44706</v>
-      </c>
-      <c r="F90" s="530">
-        <v>44707</v>
-      </c>
-      <c r="G90" s="529">
-        <f t="shared" ref="G90:G93" si="13">F90-E90</f>
-        <v>1</v>
-      </c>
-      <c r="H90" s="530"/>
-      <c r="I90" s="530"/>
-      <c r="J90" s="531"/>
-      <c r="K90" s="532"/>
-    </row>
-    <row r="91" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A91" s="466"/>
-      <c r="B91" s="467">
-        <v>9</v>
-      </c>
-      <c r="C91" s="468" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" s="468" t="s">
-        <v>233</v>
-      </c>
-      <c r="E91" s="469">
-        <v>44704</v>
-      </c>
-      <c r="F91" s="469">
-        <v>44705</v>
-      </c>
-      <c r="G91" s="468">
+      <c r="G88" s="529">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H91" s="469"/>
-      <c r="I91" s="469"/>
-      <c r="J91" s="515"/>
-      <c r="K91" s="470"/>
-    </row>
-    <row r="92" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A92" s="466"/>
-      <c r="B92" s="467">
-        <v>10</v>
-      </c>
-      <c r="C92" s="468" t="s">
-        <v>234</v>
-      </c>
-      <c r="D92" s="468" t="s">
-        <v>233</v>
-      </c>
-      <c r="E92" s="469">
-        <v>44704</v>
-      </c>
-      <c r="F92" s="469">
-        <v>44705</v>
-      </c>
-      <c r="G92" s="468">
+      <c r="H88" s="530"/>
+      <c r="I88" s="530"/>
+      <c r="J88" s="531"/>
+      <c r="K88" s="532"/>
+    </row>
+    <row r="89" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A89" s="471"/>
+      <c r="B89" s="472">
+        <v>5</v>
+      </c>
+      <c r="C89" s="473" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" s="473" t="s">
+        <v>289</v>
+      </c>
+      <c r="E89" s="474">
+        <v>44706</v>
+      </c>
+      <c r="F89" s="474">
+        <v>44707</v>
+      </c>
+      <c r="G89" s="473">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H92" s="469"/>
-      <c r="I92" s="469"/>
-      <c r="J92" s="515"/>
-      <c r="K92" s="470"/>
+      <c r="H89" s="474"/>
+      <c r="I89" s="474"/>
+      <c r="J89" s="514"/>
+      <c r="K89" s="475"/>
+    </row>
+    <row r="90" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A90" s="471"/>
+      <c r="B90" s="472">
+        <v>6</v>
+      </c>
+      <c r="C90" s="473" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" s="473" t="s">
+        <v>289</v>
+      </c>
+      <c r="E90" s="474">
+        <v>44707</v>
+      </c>
+      <c r="F90" s="474">
+        <v>44708</v>
+      </c>
+      <c r="G90" s="473">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H90" s="474"/>
+      <c r="I90" s="474"/>
+      <c r="J90" s="514"/>
+      <c r="K90" s="475"/>
+    </row>
+    <row r="91" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A91" s="527"/>
+      <c r="B91" s="528">
+        <v>7</v>
+      </c>
+      <c r="C91" s="529" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" s="529" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="530">
+        <v>44705</v>
+      </c>
+      <c r="F91" s="530">
+        <v>44706</v>
+      </c>
+      <c r="G91" s="529">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H91" s="530"/>
+      <c r="I91" s="530"/>
+      <c r="J91" s="531"/>
+      <c r="K91" s="532"/>
+    </row>
+    <row r="92" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A92" s="527"/>
+      <c r="B92" s="528">
+        <v>8</v>
+      </c>
+      <c r="C92" s="529" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="529" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="530">
+        <v>44706</v>
+      </c>
+      <c r="F92" s="530">
+        <v>44707</v>
+      </c>
+      <c r="G92" s="529">
+        <f t="shared" ref="G92:G95" si="16">F92-E92</f>
+        <v>1</v>
+      </c>
+      <c r="H92" s="530"/>
+      <c r="I92" s="530"/>
+      <c r="J92" s="531"/>
+      <c r="K92" s="532"/>
     </row>
     <row r="93" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="466"/>
       <c r="B93" s="467">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C93" s="468" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D93" s="468" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E93" s="469">
         <v>44704</v>
@@ -15283,7 +15301,7 @@
         <v>44705</v>
       </c>
       <c r="G93" s="468">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H93" s="469"/>
@@ -15292,90 +15310,90 @@
       <c r="K93" s="470"/>
     </row>
     <row r="94" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A94" s="527"/>
-      <c r="B94" s="528">
+      <c r="A94" s="466"/>
+      <c r="B94" s="467">
+        <v>10</v>
+      </c>
+      <c r="C94" s="468" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="468" t="s">
+        <v>226</v>
+      </c>
+      <c r="E94" s="469">
+        <v>44704</v>
+      </c>
+      <c r="F94" s="469">
+        <v>44705</v>
+      </c>
+      <c r="G94" s="468">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H94" s="469"/>
+      <c r="I94" s="469"/>
+      <c r="J94" s="515"/>
+      <c r="K94" s="470"/>
+    </row>
+    <row r="95" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A95" s="466"/>
+      <c r="B95" s="467">
+        <v>11</v>
+      </c>
+      <c r="C95" s="468" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="468" t="s">
+        <v>226</v>
+      </c>
+      <c r="E95" s="469">
+        <v>44704</v>
+      </c>
+      <c r="F95" s="469">
+        <v>44705</v>
+      </c>
+      <c r="G95" s="468">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H95" s="469"/>
+      <c r="I95" s="469"/>
+      <c r="J95" s="515"/>
+      <c r="K95" s="470"/>
+    </row>
+    <row r="96" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A96" s="527"/>
+      <c r="B96" s="528">
         <v>12</v>
       </c>
-      <c r="C94" s="529" t="s">
-        <v>276</v>
-      </c>
-      <c r="D94" s="529" t="s">
+      <c r="C96" s="529" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" s="529" t="s">
         <v>109</v>
       </c>
-      <c r="E94" s="530">
+      <c r="E96" s="530">
         <v>44706</v>
       </c>
-      <c r="F94" s="530">
+      <c r="F96" s="530">
         <v>44707</v>
       </c>
-      <c r="G94" s="529">
-        <f t="shared" ref="G94:G100" si="14">F94-E94</f>
+      <c r="G96" s="529">
+        <f t="shared" ref="G96:G102" si="17">F96-E96</f>
         <v>1</v>
       </c>
-      <c r="H94" s="530"/>
-      <c r="I94" s="530"/>
-      <c r="J94" s="531"/>
-      <c r="K94" s="532"/>
-    </row>
-    <row r="95" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A95" s="527"/>
-      <c r="B95" s="528">
-        <v>13</v>
-      </c>
-      <c r="C95" s="529" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" s="529" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" s="530">
-        <v>44706</v>
-      </c>
-      <c r="F95" s="530">
-        <v>44707</v>
-      </c>
-      <c r="G95" s="529">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="H95" s="530"/>
-      <c r="I95" s="530"/>
-      <c r="J95" s="531"/>
-      <c r="K95" s="532"/>
-    </row>
-    <row r="96" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A96" s="466"/>
-      <c r="B96" s="467">
-        <v>14</v>
-      </c>
-      <c r="C96" s="468" t="s">
-        <v>251</v>
-      </c>
-      <c r="D96" s="468" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" s="469">
-        <v>44706</v>
-      </c>
-      <c r="F96" s="469">
-        <v>44707</v>
-      </c>
-      <c r="G96" s="468">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="H96" s="469"/>
-      <c r="I96" s="469"/>
-      <c r="J96" s="515"/>
-      <c r="K96" s="470"/>
+      <c r="H96" s="530"/>
+      <c r="I96" s="530"/>
+      <c r="J96" s="531"/>
+      <c r="K96" s="532"/>
     </row>
     <row r="97" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A97" s="527"/>
       <c r="B97" s="528">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C97" s="529" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="D97" s="529" t="s">
         <v>109</v>
@@ -15387,7 +15405,7 @@
         <v>44707</v>
       </c>
       <c r="G97" s="529">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H97" s="530"/>
@@ -15396,184 +15414,222 @@
       <c r="K97" s="532"/>
     </row>
     <row r="98" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A98" s="471"/>
-      <c r="B98" s="472">
+      <c r="A98" s="466"/>
+      <c r="B98" s="467">
+        <v>14</v>
+      </c>
+      <c r="C98" s="468" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" s="468" t="s">
+        <v>226</v>
+      </c>
+      <c r="E98" s="469">
+        <v>44706</v>
+      </c>
+      <c r="F98" s="469">
+        <v>44707</v>
+      </c>
+      <c r="G98" s="468">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H98" s="469"/>
+      <c r="I98" s="469"/>
+      <c r="J98" s="515"/>
+      <c r="K98" s="470"/>
+    </row>
+    <row r="99" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A99" s="527"/>
+      <c r="B99" s="528">
+        <v>15</v>
+      </c>
+      <c r="C99" s="529" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" s="529" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="530">
+        <v>44706</v>
+      </c>
+      <c r="F99" s="530">
+        <v>44707</v>
+      </c>
+      <c r="G99" s="529">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H99" s="530"/>
+      <c r="I99" s="530"/>
+      <c r="J99" s="531"/>
+      <c r="K99" s="532"/>
+    </row>
+    <row r="100" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A100" s="471"/>
+      <c r="B100" s="472">
         <v>16</v>
       </c>
-      <c r="C98" s="473" t="s">
-        <v>294</v>
-      </c>
-      <c r="D98" s="473" t="s">
-        <v>296</v>
-      </c>
-      <c r="E98" s="474">
+      <c r="C100" s="473" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="473" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" s="474">
         <v>44704</v>
       </c>
-      <c r="F98" s="474">
+      <c r="F100" s="474">
         <v>44705</v>
       </c>
-      <c r="G98" s="473">
-        <f t="shared" si="14"/>
+      <c r="G100" s="473">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H98" s="474"/>
-      <c r="I98" s="474"/>
-      <c r="J98" s="514"/>
-      <c r="K98" s="475"/>
-    </row>
-    <row r="99" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A99" s="471"/>
-      <c r="B99" s="472">
+      <c r="H100" s="474"/>
+      <c r="I100" s="474"/>
+      <c r="J100" s="514"/>
+      <c r="K100" s="475"/>
+    </row>
+    <row r="101" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A101" s="471"/>
+      <c r="B101" s="472">
         <v>17</v>
       </c>
-      <c r="C99" s="473" t="s">
-        <v>351</v>
-      </c>
-      <c r="D99" s="473" t="s">
-        <v>296</v>
-      </c>
-      <c r="E99" s="474">
+      <c r="C101" s="473" t="s">
+        <v>344</v>
+      </c>
+      <c r="D101" s="473" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" s="474">
         <v>44704</v>
       </c>
-      <c r="F99" s="474">
+      <c r="F101" s="474">
         <v>44705</v>
       </c>
-      <c r="G99" s="473">
-        <f t="shared" si="14"/>
+      <c r="G101" s="473">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H99" s="474"/>
-      <c r="I99" s="474"/>
-      <c r="J99" s="514"/>
-      <c r="K99" s="475"/>
-    </row>
-    <row r="100" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A100" s="466"/>
-      <c r="B100" s="467">
+      <c r="H101" s="474"/>
+      <c r="I101" s="474"/>
+      <c r="J101" s="514"/>
+      <c r="K101" s="475"/>
+    </row>
+    <row r="102" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A102" s="466"/>
+      <c r="B102" s="467">
         <v>18</v>
       </c>
-      <c r="C100" s="468" t="s">
-        <v>352</v>
-      </c>
-      <c r="D100" s="468" t="s">
-        <v>233</v>
-      </c>
-      <c r="E100" s="469">
+      <c r="C102" s="468" t="s">
+        <v>345</v>
+      </c>
+      <c r="D102" s="468" t="s">
+        <v>226</v>
+      </c>
+      <c r="E102" s="469">
         <v>44705</v>
       </c>
-      <c r="F100" s="469">
+      <c r="F102" s="469">
         <v>44706</v>
       </c>
-      <c r="G100" s="468">
-        <f t="shared" si="14"/>
+      <c r="G102" s="468">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H100" s="469"/>
-      <c r="I100" s="469"/>
-      <c r="J100" s="515"/>
-      <c r="K100" s="470"/>
-    </row>
-    <row r="101" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A101" s="44">
+      <c r="H102" s="469"/>
+      <c r="I102" s="469"/>
+      <c r="J102" s="515"/>
+      <c r="K102" s="470"/>
+    </row>
+    <row r="103" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A103" s="44">
         <v>6</v>
       </c>
-      <c r="B101" s="45"/>
-      <c r="C101" s="46" t="s">
+      <c r="B103" s="45"/>
+      <c r="C103" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="46"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="46">
+      <c r="D103" s="46"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="48">
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K101" s="49"/>
-    </row>
-    <row r="102" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A102" s="44">
+      <c r="K103" s="49"/>
+    </row>
+    <row r="104" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A104" s="44">
         <v>7</v>
       </c>
-      <c r="B102" s="45"/>
-      <c r="C102" s="46" t="s">
+      <c r="B104" s="45"/>
+      <c r="C104" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="46"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="46">
+      <c r="D104" s="46"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="48">
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K102" s="49"/>
-    </row>
-    <row r="103" spans="1:11" s="412" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="50"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="54" t="str">
-        <f>IF(I103="","",I103-H103)</f>
+      <c r="K104" s="49"/>
+    </row>
+    <row r="105" spans="1:11" s="412" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="50"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="54" t="str">
+        <f>IF(I105="","",I105-H105)</f>
         <v/>
       </c>
-      <c r="K103" s="55"/>
-    </row>
-    <row r="104" spans="1:11" s="412" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104">
-        <f>SUM(G6:G103)</f>
-        <v>308</v>
-      </c>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104"/>
-      <c r="K104"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E105" s="1"/>
-      <c r="F105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="2">
-        <f>G104/30</f>
-        <v>10.266666666666667</v>
-      </c>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="55"/>
+    </row>
+    <row r="106" spans="1:11" s="412" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
+      <c r="G106">
+        <f>SUM(G6:G105)</f>
+        <v>314</v>
+      </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="J106"/>
+      <c r="K106"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="2">
+        <f>G106/30</f>
+        <v>10.466666666666667</v>
+      </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -15626,6 +15682,20 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15655,68 +15725,68 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="547" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="545" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="551" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="546"/>
-      <c r="E2" s="546"/>
-      <c r="F2" s="546"/>
-      <c r="G2" s="546"/>
-      <c r="H2" s="546"/>
-      <c r="I2" s="546"/>
-      <c r="J2" s="546"/>
-      <c r="K2" s="546"/>
-      <c r="L2" s="546"/>
-      <c r="M2" s="546"/>
-      <c r="N2" s="546"/>
-      <c r="O2" s="546"/>
-      <c r="P2" s="546"/>
-      <c r="Q2" s="546"/>
-      <c r="R2" s="546"/>
-      <c r="S2" s="546"/>
-      <c r="T2" s="546"/>
-      <c r="U2" s="546"/>
+      <c r="D2" s="552"/>
+      <c r="E2" s="552"/>
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="552"/>
+      <c r="I2" s="552"/>
+      <c r="J2" s="552"/>
+      <c r="K2" s="552"/>
+      <c r="L2" s="552"/>
+      <c r="M2" s="552"/>
+      <c r="N2" s="552"/>
+      <c r="O2" s="552"/>
+      <c r="P2" s="552"/>
+      <c r="Q2" s="552"/>
+      <c r="R2" s="552"/>
+      <c r="S2" s="552"/>
+      <c r="T2" s="552"/>
+      <c r="U2" s="552"/>
       <c r="V2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="549">
+      <c r="W2" s="555">
         <v>44698</v>
       </c>
-      <c r="X2" s="550"/>
+      <c r="X2" s="556"/>
     </row>
     <row r="3" spans="1:24" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="543"/>
-      <c r="B3" s="544"/>
-      <c r="C3" s="547"/>
-      <c r="D3" s="548"/>
-      <c r="E3" s="548"/>
-      <c r="F3" s="548"/>
-      <c r="G3" s="548"/>
-      <c r="H3" s="548"/>
-      <c r="I3" s="548"/>
-      <c r="J3" s="548"/>
-      <c r="K3" s="548"/>
-      <c r="L3" s="548"/>
-      <c r="M3" s="548"/>
-      <c r="N3" s="548"/>
-      <c r="O3" s="548"/>
-      <c r="P3" s="548"/>
-      <c r="Q3" s="548"/>
-      <c r="R3" s="548"/>
-      <c r="S3" s="548"/>
-      <c r="T3" s="548"/>
-      <c r="U3" s="548"/>
+      <c r="A3" s="549"/>
+      <c r="B3" s="550"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="554"/>
+      <c r="I3" s="554"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="554"/>
+      <c r="L3" s="554"/>
+      <c r="M3" s="554"/>
+      <c r="N3" s="554"/>
+      <c r="O3" s="554"/>
+      <c r="P3" s="554"/>
+      <c r="Q3" s="554"/>
+      <c r="R3" s="554"/>
+      <c r="S3" s="554"/>
+      <c r="T3" s="554"/>
+      <c r="U3" s="554"/>
       <c r="V3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="551">
+      <c r="W3" s="557">
         <v>44698</v>
       </c>
-      <c r="X3" s="552"/>
+      <c r="X3" s="558"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -15750,26 +15820,26 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="560"/>
-      <c r="E5" s="561"/>
-      <c r="F5" s="561"/>
-      <c r="G5" s="561"/>
-      <c r="H5" s="561"/>
-      <c r="I5" s="561"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="561"/>
-      <c r="L5" s="561"/>
-      <c r="M5" s="561"/>
-      <c r="N5" s="561"/>
-      <c r="O5" s="561"/>
-      <c r="P5" s="561"/>
-      <c r="Q5" s="561"/>
-      <c r="R5" s="561"/>
-      <c r="S5" s="561"/>
-      <c r="T5" s="561"/>
-      <c r="U5" s="561"/>
-      <c r="V5" s="561"/>
-      <c r="W5" s="562"/>
+      <c r="D5" s="566"/>
+      <c r="E5" s="567"/>
+      <c r="F5" s="567"/>
+      <c r="G5" s="567"/>
+      <c r="H5" s="567"/>
+      <c r="I5" s="567"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="567"/>
+      <c r="L5" s="567"/>
+      <c r="M5" s="567"/>
+      <c r="N5" s="567"/>
+      <c r="O5" s="567"/>
+      <c r="P5" s="567"/>
+      <c r="Q5" s="567"/>
+      <c r="R5" s="567"/>
+      <c r="S5" s="567"/>
+      <c r="T5" s="567"/>
+      <c r="U5" s="567"/>
+      <c r="V5" s="567"/>
+      <c r="W5" s="568"/>
       <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -15778,104 +15848,104 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="563"/>
-      <c r="E6" s="564"/>
-      <c r="F6" s="564"/>
-      <c r="G6" s="564"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="564"/>
-      <c r="J6" s="564"/>
-      <c r="K6" s="564"/>
-      <c r="L6" s="564"/>
-      <c r="M6" s="564"/>
-      <c r="N6" s="564"/>
-      <c r="O6" s="564"/>
-      <c r="P6" s="564"/>
-      <c r="Q6" s="564"/>
-      <c r="R6" s="564"/>
-      <c r="S6" s="564"/>
-      <c r="T6" s="564"/>
-      <c r="U6" s="564"/>
-      <c r="V6" s="564"/>
-      <c r="W6" s="565"/>
+      <c r="D6" s="569"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="570"/>
+      <c r="J6" s="570"/>
+      <c r="K6" s="570"/>
+      <c r="L6" s="570"/>
+      <c r="M6" s="570"/>
+      <c r="N6" s="570"/>
+      <c r="O6" s="570"/>
+      <c r="P6" s="570"/>
+      <c r="Q6" s="570"/>
+      <c r="R6" s="570"/>
+      <c r="S6" s="570"/>
+      <c r="T6" s="570"/>
+      <c r="U6" s="570"/>
+      <c r="V6" s="570"/>
+      <c r="W6" s="571"/>
       <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="563"/>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="564"/>
-      <c r="J7" s="564"/>
-      <c r="K7" s="564"/>
-      <c r="L7" s="564"/>
-      <c r="M7" s="564"/>
-      <c r="N7" s="564"/>
-      <c r="O7" s="564"/>
-      <c r="P7" s="564"/>
-      <c r="Q7" s="564"/>
-      <c r="R7" s="564"/>
-      <c r="S7" s="564"/>
-      <c r="T7" s="564"/>
-      <c r="U7" s="564"/>
-      <c r="V7" s="564"/>
-      <c r="W7" s="565"/>
+      <c r="D7" s="569"/>
+      <c r="E7" s="570"/>
+      <c r="F7" s="570"/>
+      <c r="G7" s="570"/>
+      <c r="H7" s="570"/>
+      <c r="I7" s="570"/>
+      <c r="J7" s="570"/>
+      <c r="K7" s="570"/>
+      <c r="L7" s="570"/>
+      <c r="M7" s="570"/>
+      <c r="N7" s="570"/>
+      <c r="O7" s="570"/>
+      <c r="P7" s="570"/>
+      <c r="Q7" s="570"/>
+      <c r="R7" s="570"/>
+      <c r="S7" s="570"/>
+      <c r="T7" s="570"/>
+      <c r="U7" s="570"/>
+      <c r="V7" s="570"/>
+      <c r="W7" s="571"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="563"/>
-      <c r="E8" s="564"/>
-      <c r="F8" s="564"/>
-      <c r="G8" s="564"/>
-      <c r="H8" s="564"/>
-      <c r="I8" s="564"/>
-      <c r="J8" s="564"/>
-      <c r="K8" s="564"/>
-      <c r="L8" s="564"/>
-      <c r="M8" s="564"/>
-      <c r="N8" s="564"/>
-      <c r="O8" s="564"/>
-      <c r="P8" s="564"/>
-      <c r="Q8" s="564"/>
-      <c r="R8" s="564"/>
-      <c r="S8" s="564"/>
-      <c r="T8" s="564"/>
-      <c r="U8" s="564"/>
-      <c r="V8" s="564"/>
-      <c r="W8" s="565"/>
+      <c r="D8" s="569"/>
+      <c r="E8" s="570"/>
+      <c r="F8" s="570"/>
+      <c r="G8" s="570"/>
+      <c r="H8" s="570"/>
+      <c r="I8" s="570"/>
+      <c r="J8" s="570"/>
+      <c r="K8" s="570"/>
+      <c r="L8" s="570"/>
+      <c r="M8" s="570"/>
+      <c r="N8" s="570"/>
+      <c r="O8" s="570"/>
+      <c r="P8" s="570"/>
+      <c r="Q8" s="570"/>
+      <c r="R8" s="570"/>
+      <c r="S8" s="570"/>
+      <c r="T8" s="570"/>
+      <c r="U8" s="570"/>
+      <c r="V8" s="570"/>
+      <c r="W8" s="571"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="566"/>
-      <c r="E9" s="567"/>
-      <c r="F9" s="567"/>
-      <c r="G9" s="567"/>
-      <c r="H9" s="567"/>
-      <c r="I9" s="567"/>
-      <c r="J9" s="567"/>
-      <c r="K9" s="567"/>
-      <c r="L9" s="567"/>
-      <c r="M9" s="567"/>
-      <c r="N9" s="567"/>
-      <c r="O9" s="567"/>
-      <c r="P9" s="567"/>
-      <c r="Q9" s="567"/>
-      <c r="R9" s="567"/>
-      <c r="S9" s="567"/>
-      <c r="T9" s="567"/>
-      <c r="U9" s="567"/>
-      <c r="V9" s="567"/>
-      <c r="W9" s="568"/>
+      <c r="D9" s="572"/>
+      <c r="E9" s="573"/>
+      <c r="F9" s="573"/>
+      <c r="G9" s="573"/>
+      <c r="H9" s="573"/>
+      <c r="I9" s="573"/>
+      <c r="J9" s="573"/>
+      <c r="K9" s="573"/>
+      <c r="L9" s="573"/>
+      <c r="M9" s="573"/>
+      <c r="N9" s="573"/>
+      <c r="O9" s="573"/>
+      <c r="P9" s="573"/>
+      <c r="Q9" s="573"/>
+      <c r="R9" s="573"/>
+      <c r="S9" s="573"/>
+      <c r="T9" s="573"/>
+      <c r="U9" s="573"/>
+      <c r="V9" s="573"/>
+      <c r="W9" s="574"/>
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -15905,58 +15975,58 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="553" t="s">
+      <c r="A11" s="559" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="554"/>
-      <c r="C11" s="554"/>
-      <c r="D11" s="554"/>
-      <c r="E11" s="554"/>
-      <c r="F11" s="554"/>
-      <c r="G11" s="554"/>
-      <c r="H11" s="554"/>
-      <c r="I11" s="554"/>
-      <c r="J11" s="554"/>
-      <c r="K11" s="554"/>
-      <c r="L11" s="554"/>
-      <c r="M11" s="554"/>
-      <c r="N11" s="554"/>
-      <c r="O11" s="554"/>
-      <c r="P11" s="554"/>
-      <c r="Q11" s="554"/>
-      <c r="R11" s="554"/>
-      <c r="S11" s="554"/>
-      <c r="T11" s="554"/>
-      <c r="U11" s="554"/>
-      <c r="V11" s="554"/>
-      <c r="W11" s="554"/>
-      <c r="X11" s="555"/>
+      <c r="B11" s="560"/>
+      <c r="C11" s="560"/>
+      <c r="D11" s="560"/>
+      <c r="E11" s="560"/>
+      <c r="F11" s="560"/>
+      <c r="G11" s="560"/>
+      <c r="H11" s="560"/>
+      <c r="I11" s="560"/>
+      <c r="J11" s="560"/>
+      <c r="K11" s="560"/>
+      <c r="L11" s="560"/>
+      <c r="M11" s="560"/>
+      <c r="N11" s="560"/>
+      <c r="O11" s="560"/>
+      <c r="P11" s="560"/>
+      <c r="Q11" s="560"/>
+      <c r="R11" s="560"/>
+      <c r="S11" s="560"/>
+      <c r="T11" s="560"/>
+      <c r="U11" s="560"/>
+      <c r="V11" s="560"/>
+      <c r="W11" s="560"/>
+      <c r="X11" s="561"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="556"/>
-      <c r="B12" s="557"/>
-      <c r="C12" s="557"/>
-      <c r="D12" s="557"/>
-      <c r="E12" s="557"/>
-      <c r="F12" s="557"/>
-      <c r="G12" s="557"/>
-      <c r="H12" s="557"/>
-      <c r="I12" s="558"/>
-      <c r="J12" s="557"/>
-      <c r="K12" s="557"/>
-      <c r="L12" s="557"/>
-      <c r="M12" s="557"/>
-      <c r="N12" s="557"/>
-      <c r="O12" s="557"/>
-      <c r="P12" s="557"/>
-      <c r="Q12" s="557"/>
-      <c r="R12" s="557"/>
-      <c r="S12" s="557"/>
-      <c r="T12" s="557"/>
-      <c r="U12" s="557"/>
-      <c r="V12" s="557"/>
-      <c r="W12" s="557"/>
-      <c r="X12" s="559"/>
+      <c r="A12" s="562"/>
+      <c r="B12" s="563"/>
+      <c r="C12" s="563"/>
+      <c r="D12" s="563"/>
+      <c r="E12" s="563"/>
+      <c r="F12" s="563"/>
+      <c r="G12" s="563"/>
+      <c r="H12" s="563"/>
+      <c r="I12" s="564"/>
+      <c r="J12" s="563"/>
+      <c r="K12" s="563"/>
+      <c r="L12" s="563"/>
+      <c r="M12" s="563"/>
+      <c r="N12" s="563"/>
+      <c r="O12" s="563"/>
+      <c r="P12" s="563"/>
+      <c r="Q12" s="563"/>
+      <c r="R12" s="563"/>
+      <c r="S12" s="563"/>
+      <c r="T12" s="563"/>
+      <c r="U12" s="563"/>
+      <c r="V12" s="563"/>
+      <c r="W12" s="563"/>
+      <c r="X12" s="565"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
@@ -17780,54 +17850,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="547" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="545" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="551" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="546"/>
-      <c r="E2" s="546"/>
-      <c r="F2" s="546"/>
-      <c r="G2" s="546"/>
-      <c r="H2" s="546"/>
-      <c r="I2" s="546"/>
-      <c r="J2" s="546"/>
-      <c r="K2" s="546"/>
-      <c r="L2" s="546"/>
-      <c r="M2" s="546"/>
-      <c r="N2" s="546"/>
+      <c r="D2" s="552"/>
+      <c r="E2" s="552"/>
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="552"/>
+      <c r="I2" s="552"/>
+      <c r="J2" s="552"/>
+      <c r="K2" s="552"/>
+      <c r="L2" s="552"/>
+      <c r="M2" s="552"/>
+      <c r="N2" s="552"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="549">
+      <c r="P2" s="555">
         <v>44698</v>
       </c>
-      <c r="Q2" s="550"/>
+      <c r="Q2" s="556"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="543"/>
-      <c r="B3" s="544"/>
-      <c r="C3" s="547"/>
-      <c r="D3" s="548"/>
-      <c r="E3" s="548"/>
-      <c r="F3" s="548"/>
-      <c r="G3" s="548"/>
-      <c r="H3" s="548"/>
-      <c r="I3" s="548"/>
-      <c r="J3" s="548"/>
-      <c r="K3" s="548"/>
-      <c r="L3" s="548"/>
-      <c r="M3" s="548"/>
-      <c r="N3" s="548"/>
+      <c r="A3" s="549"/>
+      <c r="B3" s="550"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="554"/>
+      <c r="I3" s="554"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="554"/>
+      <c r="L3" s="554"/>
+      <c r="M3" s="554"/>
+      <c r="N3" s="554"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="551">
+      <c r="P3" s="557">
         <v>44698</v>
       </c>
-      <c r="Q3" s="552"/>
+      <c r="Q3" s="558"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -19173,50 +19243,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="547" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="545" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="551" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="546"/>
-      <c r="E2" s="546"/>
-      <c r="F2" s="546"/>
-      <c r="G2" s="546"/>
-      <c r="H2" s="546"/>
-      <c r="I2" s="546"/>
-      <c r="J2" s="546"/>
-      <c r="K2" s="546"/>
-      <c r="L2" s="546"/>
+      <c r="D2" s="552"/>
+      <c r="E2" s="552"/>
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="552"/>
+      <c r="I2" s="552"/>
+      <c r="J2" s="552"/>
+      <c r="K2" s="552"/>
+      <c r="L2" s="552"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="549">
+      <c r="N2" s="555">
         <v>44698</v>
       </c>
-      <c r="O2" s="550"/>
+      <c r="O2" s="556"/>
     </row>
     <row r="3" spans="1:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="543"/>
-      <c r="B3" s="544"/>
-      <c r="C3" s="547"/>
-      <c r="D3" s="548"/>
-      <c r="E3" s="548"/>
-      <c r="F3" s="548"/>
-      <c r="G3" s="548"/>
-      <c r="H3" s="548"/>
-      <c r="I3" s="548"/>
-      <c r="J3" s="548"/>
-      <c r="K3" s="548"/>
-      <c r="L3" s="548"/>
+      <c r="A3" s="549"/>
+      <c r="B3" s="550"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="554"/>
+      <c r="I3" s="554"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="554"/>
+      <c r="L3" s="554"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="551">
+      <c r="N3" s="557">
         <v>44702</v>
       </c>
-      <c r="O3" s="552"/>
+      <c r="O3" s="558"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -19337,10 +19407,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="202" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D9" s="202" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E9" s="204" t="s">
         <v>145</v>
@@ -19502,7 +19572,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="420" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D14" s="420"/>
       <c r="E14" s="421" t="s">
@@ -19731,10 +19801,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="176" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D21" s="176" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E21" s="177" t="s">
         <v>146</v>
@@ -20073,10 +20143,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="242" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D33" s="242" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E33" s="244" t="s">
         <v>145</v>
@@ -20205,10 +20275,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="420" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D37" s="420" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E37" s="421" t="s">
         <v>146</v>
@@ -20510,10 +20580,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="285" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D48" s="285" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E48" s="287" t="s">
         <v>145</v>
@@ -20885,10 +20955,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="325" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D61" s="325" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E61" s="327" t="s">
         <v>145</v>
@@ -20985,7 +21055,7 @@
         <v>128</v>
       </c>
       <c r="D64" s="296" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E64" s="297" t="s">
         <v>146</v>
@@ -21291,10 +21361,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="370" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D75" s="370" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E75" s="372" t="s">
         <v>145</v>
@@ -21360,7 +21430,7 @@
         <v>128</v>
       </c>
       <c r="D77" s="420" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E77" s="421" t="s">
         <v>146</v>
@@ -21390,7 +21460,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="341" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D78" s="341" t="s">
         <v>183</v>
@@ -21423,10 +21493,10 @@
         <v>5</v>
       </c>
       <c r="C79" s="341" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D79" s="341" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E79" s="342" t="s">
         <v>146</v>
@@ -21456,10 +21526,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="341" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D80" s="341" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E80" s="342" t="s">
         <v>146</v>
@@ -21489,10 +21559,10 @@
         <v>7</v>
       </c>
       <c r="C81" s="341" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D81" s="341" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E81" s="342" t="s">
         <v>146</v>
@@ -21935,10 +22005,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="409" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D99" s="409" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E99" s="411" t="s">
         <v>145</v>
@@ -22100,10 +22170,10 @@
         <v>6</v>
       </c>
       <c r="C104" s="420" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D104" s="420" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E104" s="421" t="s">
         <v>146</v>
@@ -22166,10 +22236,10 @@
         <v>8</v>
       </c>
       <c r="C106" s="420" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D106" s="420" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E106" s="421" t="s">
         <v>146</v>
@@ -22188,7 +22258,7 @@
       </c>
       <c r="J106" s="421"/>
       <c r="K106" s="424" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L106" s="413"/>
       <c r="M106" s="413"/>
@@ -22477,10 +22547,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D117" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E117" s="464" t="s">
         <v>145</v>
@@ -22546,7 +22616,7 @@
         <v>187</v>
       </c>
       <c r="D119" s="420" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E119" s="421" t="s">
         <v>146</v>
@@ -22579,7 +22649,7 @@
         <v>128</v>
       </c>
       <c r="D120" s="420" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E120" s="421" t="s">
         <v>146</v>
@@ -22612,7 +22682,7 @@
         <v>200</v>
       </c>
       <c r="D121" s="420" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E121" s="421" t="s">
         <v>146</v>
@@ -22645,7 +22715,7 @@
         <v>201</v>
       </c>
       <c r="D122" s="420" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E122" s="421" t="s">
         <v>146</v>
@@ -22678,7 +22748,7 @@
         <v>202</v>
       </c>
       <c r="D123" s="420" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E123" s="421" t="s">
         <v>146</v>
@@ -22741,10 +22811,10 @@
         <v>9</v>
       </c>
       <c r="C125" s="455" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D125" s="455" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E125" s="456" t="s">
         <v>146</v>
@@ -22807,10 +22877,10 @@
         <v>11</v>
       </c>
       <c r="C127" s="420" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D127" s="420" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E127" s="421" t="s">
         <v>146</v>
@@ -22829,7 +22899,7 @@
       </c>
       <c r="J127" s="421"/>
       <c r="K127" s="424" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L127" s="413"/>
       <c r="M127" s="413"/>
@@ -23151,10 +23221,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D139" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E139" s="464" t="s">
         <v>145</v>
@@ -23184,7 +23254,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="420" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D140" s="420" t="s">
         <v>192</v>
@@ -23452,7 +23522,7 @@
       </c>
       <c r="C149" s="477"/>
       <c r="D149" s="481" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E149" s="482"/>
       <c r="F149" s="482"/>
@@ -23526,10 +23596,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="488" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D152" s="488" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E152" s="489" t="s">
         <v>145</v>
@@ -23559,10 +23629,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="492" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D153" s="492" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E153" s="493" t="s">
         <v>146</v>
@@ -23595,7 +23665,7 @@
         <v>128</v>
       </c>
       <c r="D154" s="497" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E154" s="493" t="s">
         <v>146</v>
@@ -23625,10 +23695,10 @@
         <v>4</v>
       </c>
       <c r="C155" s="497" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D155" s="497" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E155" s="493" t="s">
         <v>146</v>
@@ -23661,7 +23731,7 @@
         <v>203</v>
       </c>
       <c r="D156" s="497" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E156" s="493" t="s">
         <v>146</v>
@@ -23883,7 +23953,7 @@
       </c>
       <c r="C164" s="116"/>
       <c r="D164" s="120" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E164" s="121"/>
       <c r="F164" s="121"/>
@@ -23956,10 +24026,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="124" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D167" s="124" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E167" s="126" t="s">
         <v>145</v>
@@ -23985,10 +24055,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="93" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D168" s="93" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E168" s="94" t="s">
         <v>146</v>
@@ -24018,10 +24088,10 @@
         <v>3</v>
       </c>
       <c r="C169" s="112" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D169" s="112" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E169" s="94" t="s">
         <v>146</v>
@@ -24051,10 +24121,10 @@
         <v>4</v>
       </c>
       <c r="C170" s="450" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D170" s="450" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E170" s="421" t="s">
         <v>146</v>
@@ -24084,10 +24154,10 @@
         <v>5</v>
       </c>
       <c r="C171" s="112" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D171" s="112" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E171" s="94" t="s">
         <v>146</v>
@@ -24336,7 +24406,7 @@
       </c>
       <c r="C180" s="458"/>
       <c r="D180" s="161" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E180" s="162"/>
       <c r="F180" s="162"/>
@@ -24409,10 +24479,10 @@
         <v>1</v>
       </c>
       <c r="C183" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D183" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E183" s="464" t="s">
         <v>145</v>
@@ -24441,10 +24511,10 @@
         <v>2</v>
       </c>
       <c r="C184" s="420" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D184" s="420" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E184" s="421" t="s">
         <v>146</v>
@@ -24474,10 +24544,10 @@
         <v>3</v>
       </c>
       <c r="C185" s="450" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D185" s="450" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E185" s="421" t="s">
         <v>146</v>
@@ -24507,7 +24577,7 @@
         <v>4</v>
       </c>
       <c r="C186" s="450" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D186" s="450"/>
       <c r="E186" s="421" t="s">
@@ -24757,7 +24827,7 @@
       </c>
       <c r="C195" s="458"/>
       <c r="D195" s="161" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E195" s="162"/>
       <c r="F195" s="162"/>
@@ -24830,10 +24900,10 @@
         <v>1</v>
       </c>
       <c r="C198" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D198" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E198" s="464" t="s">
         <v>145</v>
@@ -24862,10 +24932,10 @@
         <v>2</v>
       </c>
       <c r="C199" s="420" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D199" s="420" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E199" s="421" t="s">
         <v>146</v>
@@ -24895,10 +24965,10 @@
         <v>3</v>
       </c>
       <c r="C200" s="450" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D200" s="450" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E200" s="421" t="s">
         <v>146</v>
@@ -24928,7 +24998,7 @@
         <v>4</v>
       </c>
       <c r="C201" s="450" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D201" s="450"/>
       <c r="E201" s="421" t="s">
@@ -25195,7 +25265,7 @@
       </c>
       <c r="C213" s="158"/>
       <c r="D213" s="161" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E213" s="162"/>
       <c r="F213" s="162"/>
@@ -25254,10 +25324,10 @@
         <v>1</v>
       </c>
       <c r="C216" s="165" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D216" s="165" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E216" s="167" t="s">
         <v>145</v>
@@ -25282,10 +25352,10 @@
         <v>2</v>
       </c>
       <c r="C217" s="462" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D217" s="462" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E217" s="464" t="s">
         <v>146</v>
@@ -25311,7 +25381,7 @@
         <v>3</v>
       </c>
       <c r="C218" s="135" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D218" s="135"/>
       <c r="E218" s="464" t="s">
@@ -25342,7 +25412,7 @@
         <v>4</v>
       </c>
       <c r="C219" s="154" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D219" s="154"/>
       <c r="E219" s="136" t="s">
@@ -25373,7 +25443,7 @@
         <v>5</v>
       </c>
       <c r="C220" s="450" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D220" s="450" t="s">
         <v>199</v>
@@ -25682,10 +25752,10 @@
         <v>1</v>
       </c>
       <c r="C231" s="165" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D231" s="165" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E231" s="167" t="s">
         <v>145</v>
@@ -25715,10 +25785,10 @@
         <v>2</v>
       </c>
       <c r="C232" s="135" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D232" s="135" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E232" s="136" t="s">
         <v>146</v>
@@ -25748,10 +25818,10 @@
         <v>3</v>
       </c>
       <c r="C233" s="154" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D233" s="154" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E233" s="136" t="s">
         <v>146</v>
@@ -25781,10 +25851,10 @@
         <v>4</v>
       </c>
       <c r="C234" s="154" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D234" s="154" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E234" s="136" t="s">
         <v>146</v>
@@ -25814,10 +25884,10 @@
         <v>5</v>
       </c>
       <c r="C235" s="450" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D235" s="450" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E235" s="421" t="s">
         <v>146</v>
@@ -25836,7 +25906,7 @@
       </c>
       <c r="J235" s="451"/>
       <c r="K235" s="465" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L235" s="128"/>
       <c r="M235" s="128"/>
@@ -26040,7 +26110,7 @@
       </c>
       <c r="C243" s="458"/>
       <c r="D243" s="161" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E243" s="162"/>
       <c r="F243" s="162"/>
@@ -26099,10 +26169,10 @@
         <v>1</v>
       </c>
       <c r="C246" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D246" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E246" s="464" t="s">
         <v>145</v>
@@ -26127,10 +26197,10 @@
         <v>2</v>
       </c>
       <c r="C247" s="462" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D247" s="462" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E247" s="464" t="s">
         <v>146</v>
@@ -26156,7 +26226,7 @@
         <v>3</v>
       </c>
       <c r="C248" s="420" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D248" s="420"/>
       <c r="E248" s="464" t="s">
@@ -26187,7 +26257,7 @@
         <v>4</v>
       </c>
       <c r="C249" s="450" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D249" s="450"/>
       <c r="E249" s="421" t="s">
@@ -26218,7 +26288,7 @@
         <v>5</v>
       </c>
       <c r="C250" s="450" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D250" s="450" t="s">
         <v>199</v>
@@ -26419,7 +26489,7 @@
       </c>
       <c r="C260" s="458"/>
       <c r="D260" s="161" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E260" s="162"/>
       <c r="F260" s="162"/>
@@ -26478,10 +26548,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D263" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E263" s="464" t="s">
         <v>145</v>
@@ -26506,10 +26576,10 @@
         <v>2</v>
       </c>
       <c r="C264" s="462" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D264" s="462" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E264" s="464" t="s">
         <v>146</v>
@@ -26535,7 +26605,7 @@
         <v>3</v>
       </c>
       <c r="C265" s="420" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D265" s="420"/>
       <c r="E265" s="464" t="s">
@@ -26566,7 +26636,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="450" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D266" s="450"/>
       <c r="E266" s="421" t="s">
@@ -26597,7 +26667,7 @@
         <v>5</v>
       </c>
       <c r="C267" s="450" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D267" s="450" t="s">
         <v>199</v>
@@ -26630,10 +26700,10 @@
         <v>6</v>
       </c>
       <c r="C268" s="450" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D268" s="450" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E268" s="421" t="s">
         <v>146</v>
@@ -26831,7 +26901,7 @@
       </c>
       <c r="C276" s="458"/>
       <c r="D276" s="161" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E276" s="162"/>
       <c r="F276" s="162"/>
@@ -26890,10 +26960,10 @@
         <v>1</v>
       </c>
       <c r="C279" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D279" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E279" s="464" t="s">
         <v>145</v>
@@ -26919,10 +26989,10 @@
         <v>2</v>
       </c>
       <c r="C280" s="420" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D280" s="420" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E280" s="421" t="s">
         <v>146</v>
@@ -26952,10 +27022,10 @@
         <v>3</v>
       </c>
       <c r="C281" s="450" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D281" s="450" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E281" s="421" t="s">
         <v>146</v>
@@ -26985,10 +27055,10 @@
         <v>4</v>
       </c>
       <c r="C282" s="450" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D282" s="450" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E282" s="421" t="s">
         <v>146</v>
@@ -27018,10 +27088,10 @@
         <v>5</v>
       </c>
       <c r="C283" s="450" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D283" s="450" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E283" s="421" t="s">
         <v>146</v>
@@ -27051,10 +27121,10 @@
         <v>6</v>
       </c>
       <c r="C284" s="450" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D284" s="450" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E284" s="421" t="s">
         <v>146</v>
@@ -27084,10 +27154,10 @@
         <v>7</v>
       </c>
       <c r="C285" s="450" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D285" s="450" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E285" s="421" t="s">
         <v>146</v>
@@ -27117,10 +27187,10 @@
         <v>8</v>
       </c>
       <c r="C286" s="450" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="D286" s="450" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E286" s="421" t="s">
         <v>146</v>
@@ -27150,10 +27220,10 @@
         <v>9</v>
       </c>
       <c r="C287" s="450" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D287" s="450" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E287" s="421" t="s">
         <v>146</v>
@@ -27183,10 +27253,10 @@
         <v>9</v>
       </c>
       <c r="C288" s="450" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D288" s="450" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E288" s="421" t="s">
         <v>146</v>
@@ -27216,10 +27286,10 @@
         <v>10</v>
       </c>
       <c r="C289" s="450" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D289" s="450" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E289" s="421" t="s">
         <v>146</v>
@@ -27249,10 +27319,10 @@
         <v>11</v>
       </c>
       <c r="C290" s="450" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D290" s="450" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E290" s="421" t="s">
         <v>146</v>
@@ -27282,10 +27352,10 @@
         <v>12</v>
       </c>
       <c r="C291" s="450" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D291" s="450" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E291" s="421" t="s">
         <v>146</v>
@@ -27315,10 +27385,10 @@
         <v>13</v>
       </c>
       <c r="C292" s="450" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D292" s="450" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E292" s="421" t="s">
         <v>146</v>
@@ -27517,7 +27587,7 @@
       </c>
       <c r="C301" s="458"/>
       <c r="D301" s="161" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E301" s="162"/>
       <c r="F301" s="162"/>
@@ -27590,10 +27660,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D304" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E304" s="464" t="s">
         <v>145</v>
@@ -27618,10 +27688,10 @@
         <v>2</v>
       </c>
       <c r="C305" s="462" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D305" s="462" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E305" s="464"/>
       <c r="F305" s="464" t="s">
@@ -27645,10 +27715,10 @@
         <v>3</v>
       </c>
       <c r="C306" s="420" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D306" s="420" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E306" s="421" t="s">
         <v>146</v>
@@ -27678,10 +27748,10 @@
         <v>4</v>
       </c>
       <c r="C307" s="450" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D307" s="450" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E307" s="421" t="s">
         <v>146</v>
@@ -27711,10 +27781,10 @@
         <v>5</v>
       </c>
       <c r="C308" s="450" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D308" s="450" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E308" s="421" t="s">
         <v>146</v>
@@ -27744,10 +27814,10 @@
         <v>6</v>
       </c>
       <c r="C309" s="450" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D309" s="450" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E309" s="421" t="s">
         <v>146</v>
@@ -27777,10 +27847,10 @@
         <v>7</v>
       </c>
       <c r="C310" s="450" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D310" s="450" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E310" s="421" t="s">
         <v>146</v>
@@ -27810,10 +27880,10 @@
         <v>8</v>
       </c>
       <c r="C311" s="450" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D311" s="450" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E311" s="421" t="s">
         <v>146</v>
@@ -28012,7 +28082,7 @@
       </c>
       <c r="C321" s="458"/>
       <c r="D321" s="161" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E321" s="162"/>
       <c r="F321" s="162"/>
@@ -28076,10 +28146,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D324" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E324" s="464" t="s">
         <v>145</v>
@@ -28105,10 +28175,10 @@
         <v>2</v>
       </c>
       <c r="C325" s="420" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D325" s="420" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E325" s="421" t="s">
         <v>146</v>
@@ -28135,10 +28205,10 @@
         <v>3</v>
       </c>
       <c r="C326" s="450" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D326" s="450" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E326" s="421" t="s">
         <v>146</v>
@@ -28165,10 +28235,10 @@
         <v>4</v>
       </c>
       <c r="C327" s="450" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D327" s="450" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E327" s="421" t="s">
         <v>146</v>
@@ -28391,7 +28461,7 @@
       </c>
       <c r="C336" s="458"/>
       <c r="D336" s="161" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E336" s="162"/>
       <c r="F336" s="162"/>
@@ -28455,10 +28525,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="462" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D339" s="462" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E339" s="464" t="s">
         <v>145</v>
@@ -28484,10 +28554,10 @@
         <v>2</v>
       </c>
       <c r="C340" s="420" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D340" s="420" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="E340" s="421" t="s">
         <v>146</v>
@@ -28514,10 +28584,10 @@
         <v>3</v>
       </c>
       <c r="C341" s="450" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D341" s="450" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E341" s="421" t="s">
         <v>146</v>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\htdocs\YadnarThike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AB7994-4D3D-43F2-88FC-9A85C2183930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$350</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$112</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1179,7 +1178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -3063,8 +3062,8 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3100,7 +3099,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,7 +3162,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3219,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3282,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,7 +3345,7 @@
         <xdr:cNvPr id="114" name="Diamond 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3413,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,7 +3469,7 @@
         <xdr:cNvPr id="202" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3533,7 +3532,7 @@
         <xdr:cNvPr id="145" name="Rectangle 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3601,7 +3600,7 @@
         <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3657,7 +3656,7 @@
         <xdr:cNvPr id="222" name="Rectangle 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,7 +3719,7 @@
         <xdr:cNvPr id="223" name="Rectangle 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3783,7 +3782,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,7 +3845,7 @@
         <xdr:cNvPr id="225" name="Rectangle 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3909,7 +3908,7 @@
         <xdr:cNvPr id="226" name="Rectangle 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3972,7 +3971,7 @@
         <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4028,7 +4027,7 @@
         <xdr:cNvPr id="203" name="Connector: Elbow 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4084,7 +4083,7 @@
         <xdr:cNvPr id="204" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4154,7 +4153,7 @@
         <xdr:cNvPr id="277" name="Rectangle 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4238,7 +4237,7 @@
         <xdr:cNvPr id="291" name="Rectangle 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4301,7 +4300,7 @@
         <xdr:cNvPr id="293" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4368,7 @@
         <xdr:cNvPr id="300" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4451,7 +4450,7 @@
         <xdr:cNvPr id="301" name="Rectangle 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4526,7 +4525,7 @@
         <xdr:cNvPr id="302" name="Rectangle 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4596,7 +4595,7 @@
         <xdr:cNvPr id="303" name="Rectangle 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4688,7 +4687,7 @@
         <xdr:cNvPr id="304" name="Rectangle 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +4835,7 @@
         <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4892,7 +4891,7 @@
         <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4948,7 +4947,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5004,7 +5003,7 @@
         <xdr:cNvPr id="245" name="Straight Arrow Connector 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5060,7 +5059,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5116,7 +5115,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5172,7 +5171,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5228,7 +5227,7 @@
         <xdr:cNvPr id="344" name="Rectangle 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5291,7 +5290,7 @@
         <xdr:cNvPr id="272" name="Straight Arrow Connector 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5347,7 +5346,7 @@
         <xdr:cNvPr id="348" name="Rectangle 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5409,7 @@
         <xdr:cNvPr id="349" name="Rectangle 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5473,7 +5472,7 @@
         <xdr:cNvPr id="350" name="Rectangle 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5541,7 +5540,7 @@
         <xdr:cNvPr id="353" name="Rectangle 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5604,7 +5603,7 @@
         <xdr:cNvPr id="354" name="Rectangle 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5667,7 +5666,7 @@
         <xdr:cNvPr id="275" name="Connector: Elbow 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5723,7 +5722,7 @@
         <xdr:cNvPr id="284" name="Connector: Elbow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5779,7 +5778,7 @@
         <xdr:cNvPr id="286" name="Connector: Elbow 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +5834,7 @@
         <xdr:cNvPr id="288" name="Connector: Elbow 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5891,7 +5890,7 @@
         <xdr:cNvPr id="290" name="Connector: Elbow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5947,7 +5946,7 @@
         <xdr:cNvPr id="297" name="Connector: Elbow 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6003,7 +6002,7 @@
         <xdr:cNvPr id="299" name="Connector: Elbow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6059,7 +6058,7 @@
         <xdr:cNvPr id="306" name="Connector: Elbow 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6115,7 +6114,7 @@
         <xdr:cNvPr id="308" name="Connector: Elbow 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6171,7 +6170,7 @@
         <xdr:cNvPr id="310" name="Connector: Elbow 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6227,7 +6226,7 @@
         <xdr:cNvPr id="312" name="Straight Arrow Connector 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6283,7 +6282,7 @@
         <xdr:cNvPr id="320" name="Straight Arrow Connector 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6339,7 +6338,7 @@
         <xdr:cNvPr id="322" name="Rectangle 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6402,7 +6401,7 @@
         <xdr:cNvPr id="395" name="Rectangle 394">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6465,7 +6464,7 @@
         <xdr:cNvPr id="396" name="Rectangle 395">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6528,7 +6527,7 @@
         <xdr:cNvPr id="399" name="Rectangle 398">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6596,7 +6595,7 @@
         <xdr:cNvPr id="402" name="Rectangle 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6664,7 +6663,7 @@
         <xdr:cNvPr id="403" name="Rectangle 402">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6732,7 +6731,7 @@
         <xdr:cNvPr id="324" name="Connector: Elbow 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6790,7 +6789,7 @@
         <xdr:cNvPr id="326" name="Connector: Elbow 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6848,7 +6847,7 @@
         <xdr:cNvPr id="328" name="Connector: Elbow 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6906,7 +6905,7 @@
         <xdr:cNvPr id="330" name="Straight Arrow Connector 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6962,7 +6961,7 @@
         <xdr:cNvPr id="333" name="Straight Arrow Connector 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7018,7 +7017,7 @@
         <xdr:cNvPr id="336" name="Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7074,7 +7073,7 @@
         <xdr:cNvPr id="337" name="Diamond 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7137,7 +7136,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7193,7 +7192,7 @@
         <xdr:cNvPr id="345" name="Connector: Elbow 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7249,7 +7248,7 @@
         <xdr:cNvPr id="357" name="Rectangle 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7312,7 +7311,7 @@
         <xdr:cNvPr id="359" name="Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7368,7 +7367,7 @@
         <xdr:cNvPr id="434" name="Rectangle 433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7431,7 +7430,7 @@
         <xdr:cNvPr id="364" name="Connector: Elbow 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7487,7 +7486,7 @@
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7544,7 +7543,7 @@
         <xdr:cNvPr id="450" name="Rectangle 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7607,7 +7606,7 @@
         <xdr:cNvPr id="376" name="Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7664,7 +7663,7 @@
         <xdr:cNvPr id="464" name="Diamond 463">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7735,7 +7734,7 @@
         <xdr:cNvPr id="454" name="Straight Arrow Connector 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7792,7 +7791,7 @@
         <xdr:cNvPr id="461" name="Connector: Elbow 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7848,7 +7847,7 @@
         <xdr:cNvPr id="478" name="Rectangle 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7911,7 +7910,7 @@
         <xdr:cNvPr id="482" name="Rectangle 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7974,7 +7973,7 @@
         <xdr:cNvPr id="492" name="Rectangle 491">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8037,7 +8036,7 @@
         <xdr:cNvPr id="481" name="Connector: Elbow 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8093,7 +8092,7 @@
         <xdr:cNvPr id="488" name="Connector: Elbow 487">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8149,7 +8148,7 @@
         <xdr:cNvPr id="503" name="Rectangle 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8212,7 +8211,7 @@
         <xdr:cNvPr id="504" name="Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8275,7 +8274,7 @@
         <xdr:cNvPr id="506" name="Rectangle 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8338,7 +8337,7 @@
         <xdr:cNvPr id="493" name="Straight Arrow Connector 492">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8394,7 +8393,7 @@
         <xdr:cNvPr id="496" name="Connector: Elbow 495">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8453,7 +8452,7 @@
         <xdr:cNvPr id="500" name="Connector: Elbow 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8512,7 +8511,7 @@
         <xdr:cNvPr id="511" name="Connector: Elbow 510">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8570,7 +8569,7 @@
         <xdr:cNvPr id="386" name="Connector: Elbow 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8628,7 +8627,7 @@
         <xdr:cNvPr id="389" name="Connector: Elbow 388">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8686,7 +8685,7 @@
         <xdr:cNvPr id="412" name="Straight Arrow Connector 411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8742,7 +8741,7 @@
         <xdr:cNvPr id="549" name="Rectangle 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8810,7 +8809,7 @@
         <xdr:cNvPr id="416" name="Connector: Elbow 415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8866,7 +8865,7 @@
         <xdr:cNvPr id="557" name="Rectangle 556">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8929,7 +8928,7 @@
         <xdr:cNvPr id="558" name="Rectangle 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8992,7 +8991,7 @@
         <xdr:cNvPr id="559" name="Rectangle 558">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9060,7 +9059,7 @@
         <xdr:cNvPr id="560" name="Rectangle 559">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9123,7 +9122,7 @@
         <xdr:cNvPr id="561" name="Rectangle 560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9191,7 +9190,7 @@
         <xdr:cNvPr id="571" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9259,7 +9258,7 @@
         <xdr:cNvPr id="429" name="Straight Arrow Connector 428">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9315,7 +9314,7 @@
         <xdr:cNvPr id="431" name="Connector: Elbow 430">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9370,7 +9369,7 @@
         <xdr:cNvPr id="441" name="Connector: Elbow 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9426,7 +9425,7 @@
         <xdr:cNvPr id="444" name="Connector: Elbow 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9482,7 +9481,7 @@
         <xdr:cNvPr id="447" name="Straight Arrow Connector 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9538,7 +9537,7 @@
         <xdr:cNvPr id="603" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9602,7 +9601,7 @@
         <xdr:cNvPr id="526" name="Connector: Elbow 525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9658,7 +9657,7 @@
         <xdr:cNvPr id="536" name="Connector: Elbow 535">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9714,7 +9713,7 @@
         <xdr:cNvPr id="542" name="Connector: Elbow 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9774,7 +9773,7 @@
         <xdr:cNvPr id="625" name="Rectangle 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9842,7 +9841,7 @@
         <xdr:cNvPr id="627" name="Rectangle 626">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9905,7 +9904,7 @@
         <xdr:cNvPr id="565" name="Connector: Elbow 564">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9964,7 +9963,7 @@
         <xdr:cNvPr id="117" name="Rectangle 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10027,7 +10026,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10083,7 +10082,7 @@
         <xdr:cNvPr id="115" name="Rectangle 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1F65BD-EFB7-BEFF-549F-9E4E36C12FAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED1F65BD-EFB7-BEFF-549F-9E4E36C12FAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10146,7 +10145,7 @@
         <xdr:cNvPr id="5" name="Connector: Elbow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D31A361-7A62-F6FA-A055-24AA616A93D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D31A361-7A62-F6FA-A055-24AA616A93D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10485,10 +10484,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11291,7 +11290,7 @@
       <c r="L48" s="540"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44704.409331712966</v>
+        <v>44704.549035185184</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11312,7 +11311,7 @@
       <c r="L49" s="540"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44704.409331712966</v>
+        <v>44704.549035185184</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -11362,10 +11361,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12461,10 +12460,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="140" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15710,10 +15709,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17837,10 +17836,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19225,7 +19224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O348"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\htdocs\YadnarThike\02.DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F787C0-D72A-43AA-A33E-1DC4ACA5D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$350</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$112</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1178,7 +1179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -3062,8 +3063,8 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3099,7 +3100,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3163,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3219,7 +3220,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3283,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3346,7 @@
         <xdr:cNvPr id="114" name="Diamond 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,7 +3414,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3470,7 @@
         <xdr:cNvPr id="202" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3533,7 @@
         <xdr:cNvPr id="145" name="Rectangle 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3600,7 +3601,7 @@
         <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3656,7 +3657,7 @@
         <xdr:cNvPr id="222" name="Rectangle 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3719,7 +3720,7 @@
         <xdr:cNvPr id="223" name="Rectangle 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3782,7 +3783,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3845,7 +3846,7 @@
         <xdr:cNvPr id="225" name="Rectangle 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3908,7 +3909,7 @@
         <xdr:cNvPr id="226" name="Rectangle 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3971,7 +3972,7 @@
         <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4028,7 @@
         <xdr:cNvPr id="203" name="Connector: Elbow 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4083,7 +4084,7 @@
         <xdr:cNvPr id="204" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,7 +4154,7 @@
         <xdr:cNvPr id="277" name="Rectangle 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4237,7 +4238,7 @@
         <xdr:cNvPr id="291" name="Rectangle 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4300,7 +4301,7 @@
         <xdr:cNvPr id="293" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4368,7 +4369,7 @@
         <xdr:cNvPr id="300" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4450,7 +4451,7 @@
         <xdr:cNvPr id="301" name="Rectangle 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4526,7 @@
         <xdr:cNvPr id="302" name="Rectangle 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4595,7 +4596,7 @@
         <xdr:cNvPr id="303" name="Rectangle 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4688,7 @@
         <xdr:cNvPr id="304" name="Rectangle 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4835,7 +4836,7 @@
         <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4891,7 +4892,7 @@
         <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4947,7 +4948,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5003,7 +5004,7 @@
         <xdr:cNvPr id="245" name="Straight Arrow Connector 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5059,7 +5060,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5115,7 +5116,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5171,7 +5172,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5227,7 +5228,7 @@
         <xdr:cNvPr id="344" name="Rectangle 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5290,7 +5291,7 @@
         <xdr:cNvPr id="272" name="Straight Arrow Connector 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5346,7 +5347,7 @@
         <xdr:cNvPr id="348" name="Rectangle 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5409,7 +5410,7 @@
         <xdr:cNvPr id="349" name="Rectangle 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5472,7 +5473,7 @@
         <xdr:cNvPr id="350" name="Rectangle 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5540,7 +5541,7 @@
         <xdr:cNvPr id="353" name="Rectangle 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5603,7 +5604,7 @@
         <xdr:cNvPr id="354" name="Rectangle 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +5667,7 @@
         <xdr:cNvPr id="275" name="Connector: Elbow 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5722,7 +5723,7 @@
         <xdr:cNvPr id="284" name="Connector: Elbow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5778,7 +5779,7 @@
         <xdr:cNvPr id="286" name="Connector: Elbow 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5834,7 +5835,7 @@
         <xdr:cNvPr id="288" name="Connector: Elbow 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5890,7 +5891,7 @@
         <xdr:cNvPr id="290" name="Connector: Elbow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5946,7 +5947,7 @@
         <xdr:cNvPr id="297" name="Connector: Elbow 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6002,7 +6003,7 @@
         <xdr:cNvPr id="299" name="Connector: Elbow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6058,7 +6059,7 @@
         <xdr:cNvPr id="306" name="Connector: Elbow 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6114,7 +6115,7 @@
         <xdr:cNvPr id="308" name="Connector: Elbow 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6170,7 +6171,7 @@
         <xdr:cNvPr id="310" name="Connector: Elbow 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6226,7 +6227,7 @@
         <xdr:cNvPr id="312" name="Straight Arrow Connector 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6282,7 +6283,7 @@
         <xdr:cNvPr id="320" name="Straight Arrow Connector 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6338,7 +6339,7 @@
         <xdr:cNvPr id="322" name="Rectangle 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6401,7 +6402,7 @@
         <xdr:cNvPr id="395" name="Rectangle 394">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6464,7 +6465,7 @@
         <xdr:cNvPr id="396" name="Rectangle 395">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6527,7 +6528,7 @@
         <xdr:cNvPr id="399" name="Rectangle 398">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6595,7 +6596,7 @@
         <xdr:cNvPr id="402" name="Rectangle 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6663,7 +6664,7 @@
         <xdr:cNvPr id="403" name="Rectangle 402">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6731,7 +6732,7 @@
         <xdr:cNvPr id="324" name="Connector: Elbow 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6789,7 +6790,7 @@
         <xdr:cNvPr id="326" name="Connector: Elbow 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6847,7 +6848,7 @@
         <xdr:cNvPr id="328" name="Connector: Elbow 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6905,7 +6906,7 @@
         <xdr:cNvPr id="330" name="Straight Arrow Connector 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6961,7 +6962,7 @@
         <xdr:cNvPr id="333" name="Straight Arrow Connector 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7017,7 +7018,7 @@
         <xdr:cNvPr id="336" name="Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7073,7 +7074,7 @@
         <xdr:cNvPr id="337" name="Diamond 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7136,7 +7137,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7192,7 +7193,7 @@
         <xdr:cNvPr id="345" name="Connector: Elbow 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7248,7 +7249,7 @@
         <xdr:cNvPr id="357" name="Rectangle 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7311,7 +7312,7 @@
         <xdr:cNvPr id="359" name="Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7367,7 +7368,7 @@
         <xdr:cNvPr id="434" name="Rectangle 433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7430,7 +7431,7 @@
         <xdr:cNvPr id="364" name="Connector: Elbow 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7486,7 +7487,7 @@
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7543,7 +7544,7 @@
         <xdr:cNvPr id="450" name="Rectangle 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7606,7 +7607,7 @@
         <xdr:cNvPr id="376" name="Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7663,7 +7664,7 @@
         <xdr:cNvPr id="464" name="Diamond 463">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7734,7 +7735,7 @@
         <xdr:cNvPr id="454" name="Straight Arrow Connector 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7791,7 +7792,7 @@
         <xdr:cNvPr id="461" name="Connector: Elbow 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7847,7 +7848,7 @@
         <xdr:cNvPr id="478" name="Rectangle 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7910,7 +7911,7 @@
         <xdr:cNvPr id="482" name="Rectangle 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7973,7 +7974,7 @@
         <xdr:cNvPr id="492" name="Rectangle 491">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8036,7 +8037,7 @@
         <xdr:cNvPr id="481" name="Connector: Elbow 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8092,7 +8093,7 @@
         <xdr:cNvPr id="488" name="Connector: Elbow 487">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8148,7 +8149,7 @@
         <xdr:cNvPr id="503" name="Rectangle 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8211,7 +8212,7 @@
         <xdr:cNvPr id="504" name="Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8274,7 +8275,7 @@
         <xdr:cNvPr id="506" name="Rectangle 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8337,7 +8338,7 @@
         <xdr:cNvPr id="493" name="Straight Arrow Connector 492">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8393,7 +8394,7 @@
         <xdr:cNvPr id="496" name="Connector: Elbow 495">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8452,7 +8453,7 @@
         <xdr:cNvPr id="500" name="Connector: Elbow 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8511,7 +8512,7 @@
         <xdr:cNvPr id="511" name="Connector: Elbow 510">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8569,7 +8570,7 @@
         <xdr:cNvPr id="386" name="Connector: Elbow 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8627,7 +8628,7 @@
         <xdr:cNvPr id="389" name="Connector: Elbow 388">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8685,7 +8686,7 @@
         <xdr:cNvPr id="412" name="Straight Arrow Connector 411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8741,7 +8742,7 @@
         <xdr:cNvPr id="549" name="Rectangle 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8809,7 +8810,7 @@
         <xdr:cNvPr id="416" name="Connector: Elbow 415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8865,7 +8866,7 @@
         <xdr:cNvPr id="557" name="Rectangle 556">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8928,7 +8929,7 @@
         <xdr:cNvPr id="558" name="Rectangle 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8991,7 +8992,7 @@
         <xdr:cNvPr id="559" name="Rectangle 558">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9059,7 +9060,7 @@
         <xdr:cNvPr id="560" name="Rectangle 559">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9122,7 +9123,7 @@
         <xdr:cNvPr id="561" name="Rectangle 560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9190,7 +9191,7 @@
         <xdr:cNvPr id="571" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9258,7 +9259,7 @@
         <xdr:cNvPr id="429" name="Straight Arrow Connector 428">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9314,7 +9315,7 @@
         <xdr:cNvPr id="431" name="Connector: Elbow 430">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9369,7 +9370,7 @@
         <xdr:cNvPr id="441" name="Connector: Elbow 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9425,7 +9426,7 @@
         <xdr:cNvPr id="444" name="Connector: Elbow 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9481,7 +9482,7 @@
         <xdr:cNvPr id="447" name="Straight Arrow Connector 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9537,7 +9538,7 @@
         <xdr:cNvPr id="603" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9601,7 +9602,7 @@
         <xdr:cNvPr id="526" name="Connector: Elbow 525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9657,7 +9658,7 @@
         <xdr:cNvPr id="536" name="Connector: Elbow 535">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9713,7 +9714,7 @@
         <xdr:cNvPr id="542" name="Connector: Elbow 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9773,7 +9774,7 @@
         <xdr:cNvPr id="625" name="Rectangle 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9841,7 +9842,7 @@
         <xdr:cNvPr id="627" name="Rectangle 626">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9904,7 +9905,7 @@
         <xdr:cNvPr id="565" name="Connector: Elbow 564">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9963,7 +9964,7 @@
         <xdr:cNvPr id="117" name="Rectangle 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10026,7 +10027,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10082,7 +10083,7 @@
         <xdr:cNvPr id="115" name="Rectangle 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED1F65BD-EFB7-BEFF-549F-9E4E36C12FAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1F65BD-EFB7-BEFF-549F-9E4E36C12FAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10145,7 +10146,7 @@
         <xdr:cNvPr id="5" name="Connector: Elbow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D31A361-7A62-F6FA-A055-24AA616A93D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D31A361-7A62-F6FA-A055-24AA616A93D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10484,7 +10485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -11290,7 +11291,7 @@
       <c r="L48" s="540"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44704.549035185184</v>
+        <v>44705.464690277775</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11311,7 +11312,7 @@
       <c r="L49" s="540"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44704.549035185184</v>
+        <v>44705.464690277775</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -11361,7 +11362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -12460,7 +12461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -14307,11 +14308,11 @@
         <v>44702</v>
       </c>
       <c r="I55" s="47">
-        <v>44702</v>
+        <v>44703</v>
       </c>
       <c r="J55" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="49">
         <v>0.9</v>
@@ -14679,8 +14680,12 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H69" s="524"/>
-      <c r="I69" s="524"/>
+      <c r="H69" s="524">
+        <v>44704</v>
+      </c>
+      <c r="I69" s="524">
+        <v>44705</v>
+      </c>
       <c r="J69" s="525"/>
       <c r="K69" s="526"/>
     </row>
@@ -14705,8 +14710,12 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H70" s="524"/>
-      <c r="I70" s="524"/>
+      <c r="H70" s="524">
+        <v>44704</v>
+      </c>
+      <c r="I70" s="524">
+        <v>44705</v>
+      </c>
       <c r="J70" s="525"/>
       <c r="K70" s="526"/>
     </row>
@@ -14731,8 +14740,12 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H71" s="524"/>
-      <c r="I71" s="524"/>
+      <c r="H71" s="524">
+        <v>44704</v>
+      </c>
+      <c r="I71" s="524">
+        <v>44705</v>
+      </c>
       <c r="J71" s="525"/>
       <c r="K71" s="526"/>
     </row>
@@ -15709,7 +15722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -17836,7 +17849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -19224,7 +19237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O348"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F787C0-D72A-43AA-A33E-1DC4ACA5D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F7A4CB-A7EB-42E1-BB35-54D5F69378BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$350</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Screen Design'!$A$1:$Q$167</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="377">
   <si>
     <t>No</t>
   </si>
@@ -735,9 +736,6 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Privicy &amp; Policy</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1122,9 +1120,6 @@
     <t>Add Admin</t>
   </si>
   <si>
-    <t>Privicy &amp; policy list</t>
-  </si>
-  <si>
     <t>Delivery control list</t>
   </si>
   <si>
@@ -1137,9 +1132,6 @@
     <t>Guide add</t>
   </si>
   <si>
-    <t>Privicy &amp; policy add</t>
-  </si>
-  <si>
     <t>Delivery Control add</t>
   </si>
   <si>
@@ -1174,6 +1166,21 @@
   </si>
   <si>
     <t>Author list</t>
+  </si>
+  <si>
+    <t>Book List</t>
+  </si>
+  <si>
+    <t>Slide Change List</t>
+  </si>
+  <si>
+    <t>Privacy &amp; policy list</t>
+  </si>
+  <si>
+    <t>Privacy &amp; policy add</t>
+  </si>
+  <si>
+    <t>Privacy &amp; Policy</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1191,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1341,6 +1348,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2067,7 +2082,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="575">
+  <cellXfs count="578">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3058,6 +3073,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10189,6 +10213,761 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300293</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943D27F9-5766-34FB-9C45-9266F0C7C4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="503464" y="1905000"/>
+          <a:ext cx="4015043" cy="3002913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149677</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CF1D88-4644-4D1C-3C67-0C7C9ED14102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4626429" y="2060157"/>
+          <a:ext cx="3959677" cy="2855921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>58100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>102823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402A2CA2-4F18-49E8-E32F-820D6D50FE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9402536" y="2044743"/>
+          <a:ext cx="3823607" cy="2902223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136074</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>821705</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>56968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431B73F5-8533-5F90-FAC6-4715CF6D697C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="136074" y="5987143"/>
+          <a:ext cx="4060202" cy="2887254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>191802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4E30CE-2ED6-2389-AB94-DE2D102A300B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4612822" y="5947623"/>
+          <a:ext cx="3959679" cy="2997257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>37827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B91832F-DEB0-AB70-6808-E9D212BCA607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9320893" y="5886688"/>
+          <a:ext cx="3932464" cy="3784996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>807912</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>141058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358E9180-29A8-EEBE-A22F-5CC8BD7C3822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="10749643"/>
+          <a:ext cx="4087233" cy="3093808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>179430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80411B2-C71C-C4CB-B458-75B436F160CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4422322" y="10726479"/>
+          <a:ext cx="4150178" cy="2951237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>830035</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>122462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>535872</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>37778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D919F268-10D5-ED58-B6E9-080AF2265538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9266464" y="10559141"/>
+          <a:ext cx="4209801" cy="4405673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>816430</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>179430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA4512C-EFFB-8859-8461-70AC52D3D87C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81644" y="16361650"/>
+          <a:ext cx="4109357" cy="2922209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272144</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>134680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>111396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618098A7-3E95-CD4B-7CFA-C9B2C18A71B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4490358" y="16381609"/>
+          <a:ext cx="4272642" cy="3038323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10204</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>134864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>488039</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277C99A9-FD84-15A8-64C2-0854E5AE8439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9290275" y="16381793"/>
+          <a:ext cx="4138157" cy="2940350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32915</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>129811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE6154F-5721-F549-FCEA-3DCAEC4EBEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="108858" y="20410714"/>
+          <a:ext cx="4142271" cy="4021454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>182757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>70573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0156D0A8-32AA-59F9-E6EB-EE2C740A875F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4313464" y="20402971"/>
+          <a:ext cx="4721679" cy="3357638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>180643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>29753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF0CE33-63CF-8316-831B-FA7C09D6B069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9361715" y="20400857"/>
+          <a:ext cx="4667249" cy="3318932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11291,7 +12070,7 @@
       <c r="L48" s="540"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44705.464690277775</v>
+        <v>44706.97908344907</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -11312,7 +12091,7 @@
       <c r="L49" s="540"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44705.464690277775</v>
+        <v>44706.97908344907</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -12464,7 +13243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="140" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12746,7 +13525,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="534" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D11" s="534" t="s">
         <v>209</v>
@@ -12816,7 +13595,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="534" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D13" s="534" t="s">
         <v>209</v>
@@ -13026,7 +13805,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="534" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D19" s="534" t="s">
         <v>108</v>
@@ -13096,7 +13875,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="534" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D21" s="534" t="s">
         <v>108</v>
@@ -13131,7 +13910,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="534" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D22" s="534" t="s">
         <v>108</v>
@@ -13166,7 +13945,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="534" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D23" s="534" t="s">
         <v>108</v>
@@ -13201,7 +13980,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="534" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D24" s="534" t="s">
         <v>108</v>
@@ -13236,7 +14015,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="534" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D25" s="534" t="s">
         <v>108</v>
@@ -13271,7 +14050,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="534" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D26" s="534" t="s">
         <v>108</v>
@@ -13306,7 +14085,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="534" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D27" s="534" t="s">
         <v>108</v>
@@ -13341,7 +14120,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="534" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D28" s="534" t="s">
         <v>108</v>
@@ -13376,7 +14155,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="534" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D29" s="534" t="s">
         <v>108</v>
@@ -13411,7 +14190,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="534" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D30" s="534" t="s">
         <v>108</v>
@@ -13446,7 +14225,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="534" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D31" s="534" t="s">
         <v>108</v>
@@ -13481,7 +14260,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="534" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D32" s="534" t="s">
         <v>108</v>
@@ -13516,7 +14295,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="534" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D33" s="534" t="s">
         <v>209</v>
@@ -13551,7 +14330,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="534" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D34" s="534" t="s">
         <v>108</v>
@@ -13586,7 +14365,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="534" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D35" s="534" t="s">
         <v>108</v>
@@ -13621,7 +14400,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="534" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D36" s="534" t="s">
         <v>108</v>
@@ -13685,7 +14464,7 @@
         <v>0.9</v>
       </c>
       <c r="L37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.35">
@@ -13732,7 +14511,7 @@
         <v>219</v>
       </c>
       <c r="D39" s="534" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E39" s="535">
         <v>44698</v>
@@ -13802,7 +14581,7 @@
         <v>221</v>
       </c>
       <c r="D41" s="534" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E41" s="535">
         <v>44698</v>
@@ -13837,7 +14616,7 @@
         <v>222</v>
       </c>
       <c r="D42" s="534" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E42" s="535">
         <v>44698</v>
@@ -14009,7 +14788,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="534" t="s">
-        <v>228</v>
+        <v>376</v>
       </c>
       <c r="D47" s="534" t="s">
         <v>226</v>
@@ -14044,7 +14823,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="534" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D48" s="534" t="s">
         <v>109</v>
@@ -14114,7 +14893,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="534" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D50" s="534" t="s">
         <v>226</v>
@@ -14149,7 +14928,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="534" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D51" s="534" t="s">
         <v>109</v>
@@ -14184,10 +14963,10 @@
         <v>16</v>
       </c>
       <c r="C52" s="534" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D52" s="534" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E52" s="535">
         <v>44698</v>
@@ -14219,10 +14998,10 @@
         <v>17</v>
       </c>
       <c r="C53" s="534" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D53" s="534" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E53" s="535">
         <v>44698</v>
@@ -14254,7 +15033,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="534" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D54" s="534" t="s">
         <v>226</v>
@@ -14370,7 +15149,10 @@
       </c>
       <c r="H57" s="81"/>
       <c r="I57" s="81"/>
-      <c r="J57" s="516"/>
+      <c r="J57" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K57" s="82"/>
     </row>
     <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -14396,7 +15178,10 @@
       </c>
       <c r="H58" s="81"/>
       <c r="I58" s="81"/>
-      <c r="J58" s="516"/>
+      <c r="J58" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K58" s="82"/>
     </row>
     <row r="59" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14405,7 +15190,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D59" s="80" t="s">
         <v>209</v>
@@ -14422,7 +15207,10 @@
       </c>
       <c r="H59" s="81"/>
       <c r="I59" s="81"/>
-      <c r="J59" s="516"/>
+      <c r="J59" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K59" s="82"/>
     </row>
     <row r="60" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14448,7 +15236,10 @@
       </c>
       <c r="H60" s="81"/>
       <c r="I60" s="81"/>
-      <c r="J60" s="516"/>
+      <c r="J60" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K60" s="82"/>
     </row>
     <row r="61" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14457,7 +15248,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="80" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D61" s="80" t="s">
         <v>209</v>
@@ -14474,7 +15265,10 @@
       </c>
       <c r="H61" s="81"/>
       <c r="I61" s="81"/>
-      <c r="J61" s="516"/>
+      <c r="J61" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K61" s="82"/>
     </row>
     <row r="62" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14500,7 +15294,10 @@
       </c>
       <c r="H62" s="81"/>
       <c r="I62" s="81"/>
-      <c r="J62" s="516"/>
+      <c r="J62" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K62" s="82"/>
     </row>
     <row r="63" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14526,7 +15323,10 @@
       </c>
       <c r="H63" s="81"/>
       <c r="I63" s="81"/>
-      <c r="J63" s="516"/>
+      <c r="J63" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K63" s="82"/>
     </row>
     <row r="64" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14552,7 +15352,10 @@
       </c>
       <c r="H64" s="81"/>
       <c r="I64" s="81"/>
-      <c r="J64" s="516"/>
+      <c r="J64" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K64" s="82"/>
     </row>
     <row r="65" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14578,7 +15381,10 @@
       </c>
       <c r="H65" s="81"/>
       <c r="I65" s="81"/>
-      <c r="J65" s="516"/>
+      <c r="J65" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K65" s="82"/>
     </row>
     <row r="66" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14604,7 +15410,10 @@
       </c>
       <c r="H66" s="81"/>
       <c r="I66" s="81"/>
-      <c r="J66" s="516"/>
+      <c r="J66" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K66" s="82"/>
     </row>
     <row r="67" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14613,7 +15422,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D67" s="80" t="s">
         <v>209</v>
@@ -14630,7 +15439,10 @@
       </c>
       <c r="H67" s="81"/>
       <c r="I67" s="81"/>
-      <c r="J67" s="516"/>
+      <c r="J67" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K67" s="82"/>
     </row>
     <row r="68" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14656,7 +15468,10 @@
       </c>
       <c r="H68" s="81"/>
       <c r="I68" s="81"/>
-      <c r="J68" s="516"/>
+      <c r="J68" s="516">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K68" s="82"/>
     </row>
     <row r="69" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -14665,7 +15480,7 @@
         <v>13</v>
       </c>
       <c r="C69" s="523" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D69" s="523" t="s">
         <v>108</v>
@@ -14686,8 +15501,13 @@
       <c r="I69" s="524">
         <v>44705</v>
       </c>
-      <c r="J69" s="525"/>
-      <c r="K69" s="526"/>
+      <c r="J69" s="525">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="70" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="521"/>
@@ -14695,7 +15515,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="523" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D70" s="523" t="s">
         <v>108</v>
@@ -14716,8 +15536,13 @@
       <c r="I70" s="524">
         <v>44705</v>
       </c>
-      <c r="J70" s="525"/>
-      <c r="K70" s="526"/>
+      <c r="J70" s="525">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="71" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="521"/>
@@ -14725,7 +15550,7 @@
         <v>15</v>
       </c>
       <c r="C71" s="523" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D71" s="523" t="s">
         <v>108</v>
@@ -14746,8 +15571,13 @@
       <c r="I71" s="524">
         <v>44705</v>
       </c>
-      <c r="J71" s="525"/>
-      <c r="K71" s="526"/>
+      <c r="J71" s="525">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="72" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="521"/>
@@ -14755,7 +15585,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="523" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D72" s="523" t="s">
         <v>108</v>
@@ -14770,10 +15600,19 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H72" s="524"/>
-      <c r="I72" s="524"/>
-      <c r="J72" s="525"/>
-      <c r="K72" s="526"/>
+      <c r="H72" s="524">
+        <v>44704</v>
+      </c>
+      <c r="I72" s="524">
+        <v>44705</v>
+      </c>
+      <c r="J72" s="525">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K72" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="73" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="521"/>
@@ -14781,7 +15620,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="523" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D73" s="523" t="s">
         <v>108</v>
@@ -14796,10 +15635,19 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H73" s="524"/>
-      <c r="I73" s="524"/>
-      <c r="J73" s="525"/>
-      <c r="K73" s="526"/>
+      <c r="H73" s="524">
+        <v>44704</v>
+      </c>
+      <c r="I73" s="524">
+        <v>44705</v>
+      </c>
+      <c r="J73" s="525">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K73" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="74" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="521"/>
@@ -14807,7 +15655,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="523" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D74" s="523" t="s">
         <v>108</v>
@@ -14822,10 +15670,19 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H74" s="524"/>
-      <c r="I74" s="524"/>
-      <c r="J74" s="525"/>
-      <c r="K74" s="526"/>
+      <c r="H74" s="524">
+        <v>44704</v>
+      </c>
+      <c r="I74" s="524">
+        <v>44705</v>
+      </c>
+      <c r="J74" s="525">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="75" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="521"/>
@@ -14833,7 +15690,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="523" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D75" s="523" t="s">
         <v>108</v>
@@ -14848,10 +15705,19 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H75" s="524"/>
-      <c r="I75" s="524"/>
-      <c r="J75" s="525"/>
-      <c r="K75" s="526"/>
+      <c r="H75" s="524">
+        <v>44704</v>
+      </c>
+      <c r="I75" s="524">
+        <v>44705</v>
+      </c>
+      <c r="J75" s="525">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K75" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="76" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="521"/>
@@ -14859,7 +15725,7 @@
         <v>20</v>
       </c>
       <c r="C76" s="523" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D76" s="523" t="s">
         <v>108</v>
@@ -14874,10 +15740,19 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H76" s="524"/>
-      <c r="I76" s="524"/>
-      <c r="J76" s="525"/>
-      <c r="K76" s="526"/>
+      <c r="H76" s="524">
+        <v>44704</v>
+      </c>
+      <c r="I76" s="524">
+        <v>44705</v>
+      </c>
+      <c r="J76" s="525">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K76" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="77" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="521"/>
@@ -14885,7 +15760,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="523" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D77" s="523" t="s">
         <v>108</v>
@@ -14900,10 +15775,19 @@
         <f t="shared" ref="G77" si="12">F77-E77</f>
         <v>1</v>
       </c>
-      <c r="H77" s="524"/>
-      <c r="I77" s="524"/>
-      <c r="J77" s="525"/>
-      <c r="K77" s="526"/>
+      <c r="H77" s="524">
+        <v>44705</v>
+      </c>
+      <c r="I77" s="524">
+        <v>44705</v>
+      </c>
+      <c r="J77" s="525">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="78" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="521"/>
@@ -14911,7 +15795,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="523" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D78" s="523" t="s">
         <v>108</v>
@@ -14926,10 +15810,19 @@
         <f t="shared" ref="G78:G91" si="13">F78-E78</f>
         <v>1</v>
       </c>
-      <c r="H78" s="524"/>
-      <c r="I78" s="524"/>
-      <c r="J78" s="525"/>
-      <c r="K78" s="526"/>
+      <c r="H78" s="524">
+        <v>44705</v>
+      </c>
+      <c r="I78" s="524">
+        <v>44705</v>
+      </c>
+      <c r="J78" s="525">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="79" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="521"/>
@@ -14937,7 +15830,7 @@
         <v>23</v>
       </c>
       <c r="C79" s="523" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D79" s="523" t="s">
         <v>108</v>
@@ -14952,10 +15845,19 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H79" s="524"/>
-      <c r="I79" s="524"/>
-      <c r="J79" s="525"/>
-      <c r="K79" s="526"/>
+      <c r="H79" s="524">
+        <v>44705</v>
+      </c>
+      <c r="I79" s="524">
+        <v>44705</v>
+      </c>
+      <c r="J79" s="525">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="80" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="521"/>
@@ -14963,7 +15865,7 @@
         <v>24</v>
       </c>
       <c r="C80" s="523" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D80" s="523" t="s">
         <v>108</v>
@@ -14978,10 +15880,19 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H80" s="524"/>
-      <c r="I80" s="524"/>
-      <c r="J80" s="525"/>
-      <c r="K80" s="526"/>
+      <c r="H80" s="524">
+        <v>44705</v>
+      </c>
+      <c r="I80" s="524">
+        <v>44705</v>
+      </c>
+      <c r="J80" s="525">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="81" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="521"/>
@@ -14989,7 +15900,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="523" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D81" s="523" t="s">
         <v>108</v>
@@ -15004,10 +15915,19 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H81" s="524"/>
-      <c r="I81" s="524"/>
-      <c r="J81" s="525"/>
-      <c r="K81" s="526"/>
+      <c r="H81" s="524">
+        <v>44706</v>
+      </c>
+      <c r="I81" s="524">
+        <v>44706</v>
+      </c>
+      <c r="J81" s="525">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="82" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="521"/>
@@ -15015,7 +15935,7 @@
         <v>26</v>
       </c>
       <c r="C82" s="523" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D82" s="523" t="s">
         <v>108</v>
@@ -15030,10 +15950,19 @@
         <f t="shared" ref="G82" si="14">F82-E82</f>
         <v>1</v>
       </c>
-      <c r="H82" s="524"/>
-      <c r="I82" s="524"/>
-      <c r="J82" s="525"/>
-      <c r="K82" s="526"/>
+      <c r="H82" s="524">
+        <v>44706</v>
+      </c>
+      <c r="I82" s="524">
+        <v>44706</v>
+      </c>
+      <c r="J82" s="525">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="83" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="521"/>
@@ -15041,7 +15970,7 @@
         <v>27</v>
       </c>
       <c r="C83" s="523" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D83" s="523" t="s">
         <v>108</v>
@@ -15056,10 +15985,19 @@
         <f t="shared" ref="G83:G84" si="15">F83-E83</f>
         <v>1</v>
       </c>
-      <c r="H83" s="524"/>
-      <c r="I83" s="524"/>
-      <c r="J83" s="525"/>
-      <c r="K83" s="526"/>
+      <c r="H83" s="524">
+        <v>44706</v>
+      </c>
+      <c r="I83" s="524">
+        <v>44706</v>
+      </c>
+      <c r="J83" s="525">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="84" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="521"/>
@@ -15067,7 +16005,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="523" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D84" s="523" t="s">
         <v>108</v>
@@ -15082,10 +16020,19 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="H84" s="524"/>
-      <c r="I84" s="524"/>
-      <c r="J84" s="525"/>
-      <c r="K84" s="526"/>
+      <c r="H84" s="524">
+        <v>44706</v>
+      </c>
+      <c r="I84" s="524">
+        <v>44706</v>
+      </c>
+      <c r="J84" s="525">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="526">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="85" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="527"/>
@@ -15110,7 +16057,10 @@
       </c>
       <c r="H85" s="530"/>
       <c r="I85" s="530"/>
-      <c r="J85" s="531"/>
+      <c r="J85" s="531">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K85" s="532"/>
     </row>
     <row r="86" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15136,7 +16086,10 @@
       </c>
       <c r="H86" s="530"/>
       <c r="I86" s="530"/>
-      <c r="J86" s="531"/>
+      <c r="J86" s="531">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K86" s="532"/>
     </row>
     <row r="87" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15148,7 +16101,7 @@
         <v>219</v>
       </c>
       <c r="D87" s="473" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E87" s="474">
         <v>44705</v>
@@ -15162,7 +16115,10 @@
       </c>
       <c r="H87" s="474"/>
       <c r="I87" s="474"/>
-      <c r="J87" s="514"/>
+      <c r="J87" s="514">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K87" s="475"/>
     </row>
     <row r="88" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15188,7 +16144,10 @@
       </c>
       <c r="H88" s="530"/>
       <c r="I88" s="530"/>
-      <c r="J88" s="531"/>
+      <c r="J88" s="531">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K88" s="532"/>
     </row>
     <row r="89" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15200,7 +16159,7 @@
         <v>221</v>
       </c>
       <c r="D89" s="473" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E89" s="474">
         <v>44706</v>
@@ -15214,7 +16173,10 @@
       </c>
       <c r="H89" s="474"/>
       <c r="I89" s="474"/>
-      <c r="J89" s="514"/>
+      <c r="J89" s="514">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K89" s="475"/>
     </row>
     <row r="90" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15226,7 +16188,7 @@
         <v>222</v>
       </c>
       <c r="D90" s="473" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E90" s="474">
         <v>44707</v>
@@ -15240,7 +16202,10 @@
       </c>
       <c r="H90" s="474"/>
       <c r="I90" s="474"/>
-      <c r="J90" s="514"/>
+      <c r="J90" s="514">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K90" s="475"/>
     </row>
     <row r="91" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15266,7 +16231,10 @@
       </c>
       <c r="H91" s="530"/>
       <c r="I91" s="530"/>
-      <c r="J91" s="531"/>
+      <c r="J91" s="531">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K91" s="532"/>
     </row>
     <row r="92" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15292,7 +16260,10 @@
       </c>
       <c r="H92" s="530"/>
       <c r="I92" s="530"/>
-      <c r="J92" s="531"/>
+      <c r="J92" s="531">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K92" s="532"/>
     </row>
     <row r="93" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15318,7 +16289,10 @@
       </c>
       <c r="H93" s="469"/>
       <c r="I93" s="469"/>
-      <c r="J93" s="515"/>
+      <c r="J93" s="515">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K93" s="470"/>
     </row>
     <row r="94" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15344,7 +16318,10 @@
       </c>
       <c r="H94" s="469"/>
       <c r="I94" s="469"/>
-      <c r="J94" s="515"/>
+      <c r="J94" s="515">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K94" s="470"/>
     </row>
     <row r="95" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15353,7 +16330,7 @@
         <v>11</v>
       </c>
       <c r="C95" s="468" t="s">
-        <v>228</v>
+        <v>376</v>
       </c>
       <c r="D95" s="468" t="s">
         <v>226</v>
@@ -15370,7 +16347,10 @@
       </c>
       <c r="H95" s="469"/>
       <c r="I95" s="469"/>
-      <c r="J95" s="515"/>
+      <c r="J95" s="515">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K95" s="470"/>
     </row>
     <row r="96" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15379,7 +16359,7 @@
         <v>12</v>
       </c>
       <c r="C96" s="529" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="529" t="s">
         <v>109</v>
@@ -15396,7 +16376,10 @@
       </c>
       <c r="H96" s="530"/>
       <c r="I96" s="530"/>
-      <c r="J96" s="531"/>
+      <c r="J96" s="531">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K96" s="532"/>
     </row>
     <row r="97" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15422,7 +16405,10 @@
       </c>
       <c r="H97" s="530"/>
       <c r="I97" s="530"/>
-      <c r="J97" s="531"/>
+      <c r="J97" s="531">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K97" s="532"/>
     </row>
     <row r="98" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15431,7 +16417,7 @@
         <v>14</v>
       </c>
       <c r="C98" s="468" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D98" s="468" t="s">
         <v>226</v>
@@ -15448,7 +16434,10 @@
       </c>
       <c r="H98" s="469"/>
       <c r="I98" s="469"/>
-      <c r="J98" s="515"/>
+      <c r="J98" s="515">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K98" s="470"/>
     </row>
     <row r="99" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15457,7 +16446,7 @@
         <v>15</v>
       </c>
       <c r="C99" s="529" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="529" t="s">
         <v>109</v>
@@ -15474,7 +16463,10 @@
       </c>
       <c r="H99" s="530"/>
       <c r="I99" s="530"/>
-      <c r="J99" s="531"/>
+      <c r="J99" s="531">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K99" s="532"/>
     </row>
     <row r="100" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15483,10 +16475,10 @@
         <v>16</v>
       </c>
       <c r="C100" s="473" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="473" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E100" s="474">
         <v>44704</v>
@@ -15500,7 +16492,10 @@
       </c>
       <c r="H100" s="474"/>
       <c r="I100" s="474"/>
-      <c r="J100" s="514"/>
+      <c r="J100" s="514">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K100" s="475"/>
     </row>
     <row r="101" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15509,10 +16504,10 @@
         <v>17</v>
       </c>
       <c r="C101" s="473" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D101" s="473" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E101" s="474">
         <v>44704</v>
@@ -15526,7 +16521,10 @@
       </c>
       <c r="H101" s="474"/>
       <c r="I101" s="474"/>
-      <c r="J101" s="514"/>
+      <c r="J101" s="514">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K101" s="475"/>
     </row>
     <row r="102" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15535,7 +16533,7 @@
         <v>18</v>
       </c>
       <c r="C102" s="468" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D102" s="468" t="s">
         <v>226</v>
@@ -15552,7 +16550,10 @@
       </c>
       <c r="H102" s="469"/>
       <c r="I102" s="469"/>
-      <c r="J102" s="515"/>
+      <c r="J102" s="515">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K102" s="470"/>
     </row>
     <row r="103" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -17850,9 +18851,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17930,9 +18931,11 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="576" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="73"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -17955,18 +18958,27 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="577" t="s">
+        <v>125</v>
+      </c>
       <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="575" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="577" t="s">
+        <v>210</v>
+      </c>
       <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="L6" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="577" t="s">
+        <v>222</v>
+      </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="33"/>
     </row>
@@ -18312,22 +19324,34 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+    <row r="25" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="577" t="s">
+        <v>211</v>
+      </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="F25" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="577" t="s">
+        <v>372</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="L25" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="577" t="s">
+        <v>212</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="14"/>
     </row>
@@ -18730,22 +19754,34 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+    <row r="47" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A47" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="577" t="s">
+        <v>213</v>
+      </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="F47" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="577" t="s">
+        <v>79</v>
+      </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="L47" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="18"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="577" t="s">
+        <v>214</v>
+      </c>
       <c r="P47" s="6"/>
       <c r="Q47" s="14"/>
     </row>
@@ -19224,6 +20260,58 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
     </row>
+    <row r="74" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A74" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="577" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="18"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="577" t="s">
+        <v>370</v>
+      </c>
+      <c r="L74" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="18"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="577" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A94" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="577" t="s">
+        <v>354</v>
+      </c>
+      <c r="F94" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="18"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="577" t="s">
+        <v>355</v>
+      </c>
+      <c r="L94" s="575" t="s">
+        <v>29</v>
+      </c>
+      <c r="M94" s="18"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="577" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
@@ -19232,7 +20320,11 @@
     <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="116" max="16" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19419,10 +20511,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="202" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="202" t="s">
         <v>229</v>
-      </c>
-      <c r="D9" s="202" t="s">
-        <v>230</v>
       </c>
       <c r="E9" s="204" t="s">
         <v>145</v>
@@ -19584,7 +20676,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="420" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="420"/>
       <c r="E14" s="421" t="s">
@@ -19813,10 +20905,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="176" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="176" t="s">
         <v>253</v>
-      </c>
-      <c r="D21" s="176" t="s">
-        <v>254</v>
       </c>
       <c r="E21" s="177" t="s">
         <v>146</v>
@@ -20155,10 +21247,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="242" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="242" t="s">
         <v>229</v>
-      </c>
-      <c r="D33" s="242" t="s">
-        <v>230</v>
       </c>
       <c r="E33" s="244" t="s">
         <v>145</v>
@@ -20287,10 +21379,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="420" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="420" t="s">
         <v>283</v>
-      </c>
-      <c r="D37" s="420" t="s">
-        <v>284</v>
       </c>
       <c r="E37" s="421" t="s">
         <v>146</v>
@@ -20592,10 +21684,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="285" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="285" t="s">
         <v>229</v>
-      </c>
-      <c r="D48" s="285" t="s">
-        <v>230</v>
       </c>
       <c r="E48" s="287" t="s">
         <v>145</v>
@@ -20967,10 +22059,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="325" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="325" t="s">
         <v>229</v>
-      </c>
-      <c r="D61" s="325" t="s">
-        <v>230</v>
       </c>
       <c r="E61" s="327" t="s">
         <v>145</v>
@@ -21067,7 +22159,7 @@
         <v>128</v>
       </c>
       <c r="D64" s="296" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E64" s="297" t="s">
         <v>146</v>
@@ -21373,10 +22465,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="370" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" s="370" t="s">
         <v>229</v>
-      </c>
-      <c r="D75" s="370" t="s">
-        <v>230</v>
       </c>
       <c r="E75" s="372" t="s">
         <v>145</v>
@@ -21442,7 +22534,7 @@
         <v>128</v>
       </c>
       <c r="D77" s="420" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E77" s="421" t="s">
         <v>146</v>
@@ -21472,7 +22564,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="341" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D78" s="341" t="s">
         <v>183</v>
@@ -21505,10 +22597,10 @@
         <v>5</v>
       </c>
       <c r="C79" s="341" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" s="341" t="s">
         <v>257</v>
-      </c>
-      <c r="D79" s="341" t="s">
-        <v>258</v>
       </c>
       <c r="E79" s="342" t="s">
         <v>146</v>
@@ -21538,10 +22630,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="341" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80" s="341" t="s">
         <v>259</v>
-      </c>
-      <c r="D80" s="341" t="s">
-        <v>260</v>
       </c>
       <c r="E80" s="342" t="s">
         <v>146</v>
@@ -21571,10 +22663,10 @@
         <v>7</v>
       </c>
       <c r="C81" s="341" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" s="341" t="s">
         <v>261</v>
-      </c>
-      <c r="D81" s="341" t="s">
-        <v>262</v>
       </c>
       <c r="E81" s="342" t="s">
         <v>146</v>
@@ -22017,10 +23109,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="409" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="409" t="s">
         <v>229</v>
-      </c>
-      <c r="D99" s="409" t="s">
-        <v>230</v>
       </c>
       <c r="E99" s="411" t="s">
         <v>145</v>
@@ -22182,10 +23274,10 @@
         <v>6</v>
       </c>
       <c r="C104" s="420" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D104" s="420" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E104" s="421" t="s">
         <v>146</v>
@@ -22248,10 +23340,10 @@
         <v>8</v>
       </c>
       <c r="C106" s="420" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D106" s="420" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E106" s="421" t="s">
         <v>146</v>
@@ -22270,7 +23362,7 @@
       </c>
       <c r="J106" s="421"/>
       <c r="K106" s="424" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L106" s="413"/>
       <c r="M106" s="413"/>
@@ -22559,10 +23651,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D117" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E117" s="464" t="s">
         <v>145</v>
@@ -22628,7 +23720,7 @@
         <v>187</v>
       </c>
       <c r="D119" s="420" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E119" s="421" t="s">
         <v>146</v>
@@ -22661,7 +23753,7 @@
         <v>128</v>
       </c>
       <c r="D120" s="420" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E120" s="421" t="s">
         <v>146</v>
@@ -22694,7 +23786,7 @@
         <v>200</v>
       </c>
       <c r="D121" s="420" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E121" s="421" t="s">
         <v>146</v>
@@ -22727,7 +23819,7 @@
         <v>201</v>
       </c>
       <c r="D122" s="420" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E122" s="421" t="s">
         <v>146</v>
@@ -22760,7 +23852,7 @@
         <v>202</v>
       </c>
       <c r="D123" s="420" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E123" s="421" t="s">
         <v>146</v>
@@ -22823,10 +23915,10 @@
         <v>9</v>
       </c>
       <c r="C125" s="455" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D125" s="455" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E125" s="456" t="s">
         <v>146</v>
@@ -22889,10 +23981,10 @@
         <v>11</v>
       </c>
       <c r="C127" s="420" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D127" s="420" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E127" s="421" t="s">
         <v>146</v>
@@ -22911,7 +24003,7 @@
       </c>
       <c r="J127" s="421"/>
       <c r="K127" s="424" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L127" s="413"/>
       <c r="M127" s="413"/>
@@ -23233,10 +24325,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D139" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D139" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E139" s="464" t="s">
         <v>145</v>
@@ -23266,7 +24358,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="420" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D140" s="420" t="s">
         <v>192</v>
@@ -23534,7 +24626,7 @@
       </c>
       <c r="C149" s="477"/>
       <c r="D149" s="481" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E149" s="482"/>
       <c r="F149" s="482"/>
@@ -23608,10 +24700,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="488" t="s">
+        <v>228</v>
+      </c>
+      <c r="D152" s="488" t="s">
         <v>229</v>
-      </c>
-      <c r="D152" s="488" t="s">
-        <v>230</v>
       </c>
       <c r="E152" s="489" t="s">
         <v>145</v>
@@ -23641,10 +24733,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="492" t="s">
+        <v>233</v>
+      </c>
+      <c r="D153" s="492" t="s">
         <v>234</v>
-      </c>
-      <c r="D153" s="492" t="s">
-        <v>235</v>
       </c>
       <c r="E153" s="493" t="s">
         <v>146</v>
@@ -23677,7 +24769,7 @@
         <v>128</v>
       </c>
       <c r="D154" s="497" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E154" s="493" t="s">
         <v>146</v>
@@ -23707,10 +24799,10 @@
         <v>4</v>
       </c>
       <c r="C155" s="497" t="s">
+        <v>235</v>
+      </c>
+      <c r="D155" s="497" t="s">
         <v>236</v>
-      </c>
-      <c r="D155" s="497" t="s">
-        <v>237</v>
       </c>
       <c r="E155" s="493" t="s">
         <v>146</v>
@@ -23743,7 +24835,7 @@
         <v>203</v>
       </c>
       <c r="D156" s="497" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E156" s="493" t="s">
         <v>146</v>
@@ -23965,7 +25057,7 @@
       </c>
       <c r="C164" s="116"/>
       <c r="D164" s="120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E164" s="121"/>
       <c r="F164" s="121"/>
@@ -24038,10 +25130,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="124" t="s">
+        <v>228</v>
+      </c>
+      <c r="D167" s="124" t="s">
         <v>229</v>
-      </c>
-      <c r="D167" s="124" t="s">
-        <v>230</v>
       </c>
       <c r="E167" s="126" t="s">
         <v>145</v>
@@ -24067,10 +25159,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="D168" s="93" t="s">
         <v>240</v>
-      </c>
-      <c r="D168" s="93" t="s">
-        <v>241</v>
       </c>
       <c r="E168" s="94" t="s">
         <v>146</v>
@@ -24100,10 +25192,10 @@
         <v>3</v>
       </c>
       <c r="C169" s="112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D169" s="112" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E169" s="94" t="s">
         <v>146</v>
@@ -24133,10 +25225,10 @@
         <v>4</v>
       </c>
       <c r="C170" s="450" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D170" s="450" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E170" s="421" t="s">
         <v>146</v>
@@ -24166,10 +25258,10 @@
         <v>5</v>
       </c>
       <c r="C171" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="D171" s="112" t="s">
         <v>242</v>
-      </c>
-      <c r="D171" s="112" t="s">
-        <v>243</v>
       </c>
       <c r="E171" s="94" t="s">
         <v>146</v>
@@ -24418,7 +25510,7 @@
       </c>
       <c r="C180" s="458"/>
       <c r="D180" s="161" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E180" s="162"/>
       <c r="F180" s="162"/>
@@ -24491,10 +25583,10 @@
         <v>1</v>
       </c>
       <c r="C183" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D183" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D183" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E183" s="464" t="s">
         <v>145</v>
@@ -24523,10 +25615,10 @@
         <v>2</v>
       </c>
       <c r="C184" s="420" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D184" s="420" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E184" s="421" t="s">
         <v>146</v>
@@ -24556,10 +25648,10 @@
         <v>3</v>
       </c>
       <c r="C185" s="450" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D185" s="450" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E185" s="421" t="s">
         <v>146</v>
@@ -24589,7 +25681,7 @@
         <v>4</v>
       </c>
       <c r="C186" s="450" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D186" s="450"/>
       <c r="E186" s="421" t="s">
@@ -24839,7 +25931,7 @@
       </c>
       <c r="C195" s="458"/>
       <c r="D195" s="161" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E195" s="162"/>
       <c r="F195" s="162"/>
@@ -24912,10 +26004,10 @@
         <v>1</v>
       </c>
       <c r="C198" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D198" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D198" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E198" s="464" t="s">
         <v>145</v>
@@ -24944,10 +26036,10 @@
         <v>2</v>
       </c>
       <c r="C199" s="420" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D199" s="420" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E199" s="421" t="s">
         <v>146</v>
@@ -24977,10 +26069,10 @@
         <v>3</v>
       </c>
       <c r="C200" s="450" t="s">
+        <v>319</v>
+      </c>
+      <c r="D200" s="450" t="s">
         <v>320</v>
-      </c>
-      <c r="D200" s="450" t="s">
-        <v>321</v>
       </c>
       <c r="E200" s="421" t="s">
         <v>146</v>
@@ -25010,7 +26102,7 @@
         <v>4</v>
       </c>
       <c r="C201" s="450" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D201" s="450"/>
       <c r="E201" s="421" t="s">
@@ -25277,7 +26369,7 @@
       </c>
       <c r="C213" s="158"/>
       <c r="D213" s="161" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E213" s="162"/>
       <c r="F213" s="162"/>
@@ -25336,10 +26428,10 @@
         <v>1</v>
       </c>
       <c r="C216" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="D216" s="165" t="s">
         <v>229</v>
-      </c>
-      <c r="D216" s="165" t="s">
-        <v>230</v>
       </c>
       <c r="E216" s="167" t="s">
         <v>145</v>
@@ -25364,10 +26456,10 @@
         <v>2</v>
       </c>
       <c r="C217" s="462" t="s">
+        <v>341</v>
+      </c>
+      <c r="D217" s="462" t="s">
         <v>342</v>
-      </c>
-      <c r="D217" s="462" t="s">
-        <v>343</v>
       </c>
       <c r="E217" s="464" t="s">
         <v>146</v>
@@ -25393,7 +26485,7 @@
         <v>3</v>
       </c>
       <c r="C218" s="135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D218" s="135"/>
       <c r="E218" s="464" t="s">
@@ -25424,7 +26516,7 @@
         <v>4</v>
       </c>
       <c r="C219" s="154" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D219" s="154"/>
       <c r="E219" s="136" t="s">
@@ -25455,7 +26547,7 @@
         <v>5</v>
       </c>
       <c r="C220" s="450" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D220" s="450" t="s">
         <v>199</v>
@@ -25764,10 +26856,10 @@
         <v>1</v>
       </c>
       <c r="C231" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="D231" s="165" t="s">
         <v>229</v>
-      </c>
-      <c r="D231" s="165" t="s">
-        <v>230</v>
       </c>
       <c r="E231" s="167" t="s">
         <v>145</v>
@@ -25797,10 +26889,10 @@
         <v>2</v>
       </c>
       <c r="C232" s="135" t="s">
+        <v>246</v>
+      </c>
+      <c r="D232" s="135" t="s">
         <v>247</v>
-      </c>
-      <c r="D232" s="135" t="s">
-        <v>248</v>
       </c>
       <c r="E232" s="136" t="s">
         <v>146</v>
@@ -25830,10 +26922,10 @@
         <v>3</v>
       </c>
       <c r="C233" s="154" t="s">
+        <v>248</v>
+      </c>
+      <c r="D233" s="154" t="s">
         <v>249</v>
-      </c>
-      <c r="D233" s="154" t="s">
-        <v>250</v>
       </c>
       <c r="E233" s="136" t="s">
         <v>146</v>
@@ -25863,10 +26955,10 @@
         <v>4</v>
       </c>
       <c r="C234" s="154" t="s">
+        <v>250</v>
+      </c>
+      <c r="D234" s="154" t="s">
         <v>251</v>
-      </c>
-      <c r="D234" s="154" t="s">
-        <v>252</v>
       </c>
       <c r="E234" s="136" t="s">
         <v>146</v>
@@ -25896,10 +26988,10 @@
         <v>5</v>
       </c>
       <c r="C235" s="450" t="s">
+        <v>277</v>
+      </c>
+      <c r="D235" s="450" t="s">
         <v>278</v>
-      </c>
-      <c r="D235" s="450" t="s">
-        <v>279</v>
       </c>
       <c r="E235" s="421" t="s">
         <v>146</v>
@@ -25918,7 +27010,7 @@
       </c>
       <c r="J235" s="451"/>
       <c r="K235" s="465" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L235" s="128"/>
       <c r="M235" s="128"/>
@@ -26122,7 +27214,7 @@
       </c>
       <c r="C243" s="458"/>
       <c r="D243" s="161" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E243" s="162"/>
       <c r="F243" s="162"/>
@@ -26181,10 +27273,10 @@
         <v>1</v>
       </c>
       <c r="C246" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D246" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D246" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E246" s="464" t="s">
         <v>145</v>
@@ -26209,10 +27301,10 @@
         <v>2</v>
       </c>
       <c r="C247" s="462" t="s">
+        <v>338</v>
+      </c>
+      <c r="D247" s="462" t="s">
         <v>339</v>
-      </c>
-      <c r="D247" s="462" t="s">
-        <v>340</v>
       </c>
       <c r="E247" s="464" t="s">
         <v>146</v>
@@ -26238,7 +27330,7 @@
         <v>3</v>
       </c>
       <c r="C248" s="420" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D248" s="420"/>
       <c r="E248" s="464" t="s">
@@ -26269,7 +27361,7 @@
         <v>4</v>
       </c>
       <c r="C249" s="450" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D249" s="450"/>
       <c r="E249" s="421" t="s">
@@ -26300,7 +27392,7 @@
         <v>5</v>
       </c>
       <c r="C250" s="450" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D250" s="450" t="s">
         <v>199</v>
@@ -26560,10 +27652,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D263" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D263" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E263" s="464" t="s">
         <v>145</v>
@@ -26588,10 +27680,10 @@
         <v>2</v>
       </c>
       <c r="C264" s="462" t="s">
+        <v>336</v>
+      </c>
+      <c r="D264" s="462" t="s">
         <v>337</v>
-      </c>
-      <c r="D264" s="462" t="s">
-        <v>338</v>
       </c>
       <c r="E264" s="464" t="s">
         <v>146</v>
@@ -26617,7 +27709,7 @@
         <v>3</v>
       </c>
       <c r="C265" s="420" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D265" s="420"/>
       <c r="E265" s="464" t="s">
@@ -26648,7 +27740,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="450" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D266" s="450"/>
       <c r="E266" s="421" t="s">
@@ -26679,7 +27771,7 @@
         <v>5</v>
       </c>
       <c r="C267" s="450" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D267" s="450" t="s">
         <v>199</v>
@@ -26712,10 +27804,10 @@
         <v>6</v>
       </c>
       <c r="C268" s="450" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D268" s="450" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E268" s="421" t="s">
         <v>146</v>
@@ -26913,7 +28005,7 @@
       </c>
       <c r="C276" s="458"/>
       <c r="D276" s="161" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E276" s="162"/>
       <c r="F276" s="162"/>
@@ -26972,10 +28064,10 @@
         <v>1</v>
       </c>
       <c r="C279" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D279" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D279" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E279" s="464" t="s">
         <v>145</v>
@@ -27001,10 +28093,10 @@
         <v>2</v>
       </c>
       <c r="C280" s="420" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D280" s="420" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E280" s="421" t="s">
         <v>146</v>
@@ -27034,10 +28126,10 @@
         <v>3</v>
       </c>
       <c r="C281" s="450" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D281" s="450" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E281" s="421" t="s">
         <v>146</v>
@@ -27067,10 +28159,10 @@
         <v>4</v>
       </c>
       <c r="C282" s="450" t="s">
+        <v>305</v>
+      </c>
+      <c r="D282" s="450" t="s">
         <v>306</v>
-      </c>
-      <c r="D282" s="450" t="s">
-        <v>307</v>
       </c>
       <c r="E282" s="421" t="s">
         <v>146</v>
@@ -27100,10 +28192,10 @@
         <v>5</v>
       </c>
       <c r="C283" s="450" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D283" s="450" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E283" s="421" t="s">
         <v>146</v>
@@ -27133,10 +28225,10 @@
         <v>6</v>
       </c>
       <c r="C284" s="450" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D284" s="450" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E284" s="421" t="s">
         <v>146</v>
@@ -27166,10 +28258,10 @@
         <v>7</v>
       </c>
       <c r="C285" s="450" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D285" s="450" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E285" s="421" t="s">
         <v>146</v>
@@ -27199,10 +28291,10 @@
         <v>8</v>
       </c>
       <c r="C286" s="450" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D286" s="450" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E286" s="421" t="s">
         <v>146</v>
@@ -27232,10 +28324,10 @@
         <v>9</v>
       </c>
       <c r="C287" s="450" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D287" s="450" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E287" s="421" t="s">
         <v>146</v>
@@ -27265,10 +28357,10 @@
         <v>9</v>
       </c>
       <c r="C288" s="450" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D288" s="450" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E288" s="421" t="s">
         <v>146</v>
@@ -27298,10 +28390,10 @@
         <v>10</v>
       </c>
       <c r="C289" s="450" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D289" s="450" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E289" s="421" t="s">
         <v>146</v>
@@ -27331,10 +28423,10 @@
         <v>11</v>
       </c>
       <c r="C290" s="450" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D290" s="450" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E290" s="421" t="s">
         <v>146</v>
@@ -27364,10 +28456,10 @@
         <v>12</v>
       </c>
       <c r="C291" s="450" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D291" s="450" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E291" s="421" t="s">
         <v>146</v>
@@ -27397,10 +28489,10 @@
         <v>13</v>
       </c>
       <c r="C292" s="450" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D292" s="450" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E292" s="421" t="s">
         <v>146</v>
@@ -27599,7 +28691,7 @@
       </c>
       <c r="C301" s="458"/>
       <c r="D301" s="161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E301" s="162"/>
       <c r="F301" s="162"/>
@@ -27672,10 +28764,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D304" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D304" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E304" s="464" t="s">
         <v>145</v>
@@ -27700,10 +28792,10 @@
         <v>2</v>
       </c>
       <c r="C305" s="462" t="s">
+        <v>334</v>
+      </c>
+      <c r="D305" s="462" t="s">
         <v>335</v>
-      </c>
-      <c r="D305" s="462" t="s">
-        <v>336</v>
       </c>
       <c r="E305" s="464"/>
       <c r="F305" s="464" t="s">
@@ -27727,10 +28819,10 @@
         <v>3</v>
       </c>
       <c r="C306" s="420" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D306" s="420" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E306" s="421" t="s">
         <v>146</v>
@@ -27760,10 +28852,10 @@
         <v>4</v>
       </c>
       <c r="C307" s="450" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D307" s="450" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E307" s="421" t="s">
         <v>146</v>
@@ -27793,10 +28885,10 @@
         <v>5</v>
       </c>
       <c r="C308" s="450" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D308" s="450" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E308" s="421" t="s">
         <v>146</v>
@@ -27826,10 +28918,10 @@
         <v>6</v>
       </c>
       <c r="C309" s="450" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D309" s="450" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E309" s="421" t="s">
         <v>146</v>
@@ -27859,10 +28951,10 @@
         <v>7</v>
       </c>
       <c r="C310" s="450" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D310" s="450" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E310" s="421" t="s">
         <v>146</v>
@@ -27892,10 +28984,10 @@
         <v>8</v>
       </c>
       <c r="C311" s="450" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D311" s="450" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E311" s="421" t="s">
         <v>146</v>
@@ -28094,7 +29186,7 @@
       </c>
       <c r="C321" s="458"/>
       <c r="D321" s="161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E321" s="162"/>
       <c r="F321" s="162"/>
@@ -28158,10 +29250,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D324" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D324" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E324" s="464" t="s">
         <v>145</v>
@@ -28187,10 +29279,10 @@
         <v>2</v>
       </c>
       <c r="C325" s="420" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D325" s="420" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E325" s="421" t="s">
         <v>146</v>
@@ -28217,10 +29309,10 @@
         <v>3</v>
       </c>
       <c r="C326" s="450" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D326" s="450" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E326" s="421" t="s">
         <v>146</v>
@@ -28247,10 +29339,10 @@
         <v>4</v>
       </c>
       <c r="C327" s="450" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D327" s="450" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E327" s="421" t="s">
         <v>146</v>
@@ -28473,7 +29565,7 @@
       </c>
       <c r="C336" s="458"/>
       <c r="D336" s="161" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E336" s="162"/>
       <c r="F336" s="162"/>
@@ -28537,10 +29629,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D339" s="462" t="s">
         <v>229</v>
-      </c>
-      <c r="D339" s="462" t="s">
-        <v>230</v>
       </c>
       <c r="E339" s="464" t="s">
         <v>145</v>
@@ -28566,10 +29658,10 @@
         <v>2</v>
       </c>
       <c r="C340" s="420" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D340" s="420" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E340" s="421" t="s">
         <v>146</v>
@@ -28596,10 +29688,10 @@
         <v>3</v>
       </c>
       <c r="C341" s="450" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D341" s="450" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E341" s="421" t="s">
         <v>146</v>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\htdocs\YadnarThike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F7A4CB-A7EB-42E1-BB35-54D5F69378BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
     <sheet name="Customer Requirement" sheetId="9" r:id="rId2"/>
     <sheet name="Schedule" sheetId="1" r:id="rId3"/>
-    <sheet name="Main Flow" sheetId="2" r:id="rId4"/>
-    <sheet name="Screen Design" sheetId="4" r:id="rId5"/>
-    <sheet name="DB Design" sheetId="6" r:id="rId6"/>
+    <sheet name="By Person" sheetId="13" r:id="rId4"/>
+    <sheet name="Main Flow" sheetId="2" r:id="rId5"/>
+    <sheet name="Screen Design" sheetId="4" r:id="rId6"/>
+    <sheet name="DB Design" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'By Person'!$A$1:$U$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$350</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'DB Design'!$A$1:$O$350</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$112</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Screen Design'!$A$1:$Q$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Screen Design'!$A$1:$Q$167</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="383">
   <si>
     <t>No</t>
   </si>
@@ -1181,12 +1182,30 @@
   </si>
   <si>
     <t>Privacy &amp; Policy</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Thet Htein Lin</t>
+  </si>
+  <si>
+    <t>Project Flow</t>
+  </si>
+  <si>
+    <t>DB Design</t>
+  </si>
+  <si>
+    <t>Screen Design</t>
+  </si>
+  <si>
+    <t>Design Development</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1361,7 +1380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1425,6 +1444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,7 +2107,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="578">
+  <cellXfs count="601">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2970,6 +2995,15 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3074,21 +3108,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3124,7 +3200,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3263,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3320,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3383,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3370,7 +3446,7 @@
         <xdr:cNvPr id="114" name="Diamond 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3438,7 +3514,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3494,7 +3570,7 @@
         <xdr:cNvPr id="202" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +3633,7 @@
         <xdr:cNvPr id="145" name="Rectangle 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3701,7 @@
         <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3681,7 +3757,7 @@
         <xdr:cNvPr id="222" name="Rectangle 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3744,7 +3820,7 @@
         <xdr:cNvPr id="223" name="Rectangle 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3807,7 +3883,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3870,7 +3946,7 @@
         <xdr:cNvPr id="225" name="Rectangle 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3933,7 +4009,7 @@
         <xdr:cNvPr id="226" name="Rectangle 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3996,7 +4072,7 @@
         <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4052,7 +4128,7 @@
         <xdr:cNvPr id="203" name="Connector: Elbow 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4108,7 +4184,7 @@
         <xdr:cNvPr id="204" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4178,7 +4254,7 @@
         <xdr:cNvPr id="277" name="Rectangle 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4338,7 @@
         <xdr:cNvPr id="291" name="Rectangle 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4325,7 +4401,7 @@
         <xdr:cNvPr id="293" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4393,7 +4469,7 @@
         <xdr:cNvPr id="300" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4475,7 +4551,7 @@
         <xdr:cNvPr id="301" name="Rectangle 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4550,7 +4626,7 @@
         <xdr:cNvPr id="302" name="Rectangle 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4620,7 +4696,7 @@
         <xdr:cNvPr id="303" name="Rectangle 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +4788,7 @@
         <xdr:cNvPr id="304" name="Rectangle 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4860,7 +4936,7 @@
         <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4916,7 +4992,7 @@
         <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4972,7 +5048,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5028,7 +5104,7 @@
         <xdr:cNvPr id="245" name="Straight Arrow Connector 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5084,7 +5160,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5140,7 +5216,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5196,7 +5272,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5252,7 +5328,7 @@
         <xdr:cNvPr id="344" name="Rectangle 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5315,7 +5391,7 @@
         <xdr:cNvPr id="272" name="Straight Arrow Connector 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5371,7 +5447,7 @@
         <xdr:cNvPr id="348" name="Rectangle 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5434,7 +5510,7 @@
         <xdr:cNvPr id="349" name="Rectangle 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5497,7 +5573,7 @@
         <xdr:cNvPr id="350" name="Rectangle 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5565,7 +5641,7 @@
         <xdr:cNvPr id="353" name="Rectangle 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5628,7 +5704,7 @@
         <xdr:cNvPr id="354" name="Rectangle 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5691,7 +5767,7 @@
         <xdr:cNvPr id="275" name="Connector: Elbow 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5747,7 +5823,7 @@
         <xdr:cNvPr id="284" name="Connector: Elbow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,7 +5879,7 @@
         <xdr:cNvPr id="286" name="Connector: Elbow 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5859,7 +5935,7 @@
         <xdr:cNvPr id="288" name="Connector: Elbow 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5915,7 +5991,7 @@
         <xdr:cNvPr id="290" name="Connector: Elbow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5971,7 +6047,7 @@
         <xdr:cNvPr id="297" name="Connector: Elbow 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6027,7 +6103,7 @@
         <xdr:cNvPr id="299" name="Connector: Elbow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6083,7 +6159,7 @@
         <xdr:cNvPr id="306" name="Connector: Elbow 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6139,7 +6215,7 @@
         <xdr:cNvPr id="308" name="Connector: Elbow 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6195,7 +6271,7 @@
         <xdr:cNvPr id="310" name="Connector: Elbow 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6251,7 +6327,7 @@
         <xdr:cNvPr id="312" name="Straight Arrow Connector 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6307,7 +6383,7 @@
         <xdr:cNvPr id="320" name="Straight Arrow Connector 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6363,7 +6439,7 @@
         <xdr:cNvPr id="322" name="Rectangle 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6426,7 +6502,7 @@
         <xdr:cNvPr id="395" name="Rectangle 394">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6489,7 +6565,7 @@
         <xdr:cNvPr id="396" name="Rectangle 395">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6552,7 +6628,7 @@
         <xdr:cNvPr id="399" name="Rectangle 398">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6620,7 +6696,7 @@
         <xdr:cNvPr id="402" name="Rectangle 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6688,7 +6764,7 @@
         <xdr:cNvPr id="403" name="Rectangle 402">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6756,7 +6832,7 @@
         <xdr:cNvPr id="324" name="Connector: Elbow 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6814,7 +6890,7 @@
         <xdr:cNvPr id="326" name="Connector: Elbow 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6872,7 +6948,7 @@
         <xdr:cNvPr id="328" name="Connector: Elbow 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6930,7 +7006,7 @@
         <xdr:cNvPr id="330" name="Straight Arrow Connector 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6986,7 +7062,7 @@
         <xdr:cNvPr id="333" name="Straight Arrow Connector 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7042,7 +7118,7 @@
         <xdr:cNvPr id="336" name="Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7098,7 +7174,7 @@
         <xdr:cNvPr id="337" name="Diamond 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7161,7 +7237,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7217,7 +7293,7 @@
         <xdr:cNvPr id="345" name="Connector: Elbow 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7273,7 +7349,7 @@
         <xdr:cNvPr id="357" name="Rectangle 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7336,7 +7412,7 @@
         <xdr:cNvPr id="359" name="Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7392,7 +7468,7 @@
         <xdr:cNvPr id="434" name="Rectangle 433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7455,7 +7531,7 @@
         <xdr:cNvPr id="364" name="Connector: Elbow 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7511,7 +7587,7 @@
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7568,7 +7644,7 @@
         <xdr:cNvPr id="450" name="Rectangle 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7631,7 +7707,7 @@
         <xdr:cNvPr id="376" name="Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7688,7 +7764,7 @@
         <xdr:cNvPr id="464" name="Diamond 463">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7759,7 +7835,7 @@
         <xdr:cNvPr id="454" name="Straight Arrow Connector 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7816,7 +7892,7 @@
         <xdr:cNvPr id="461" name="Connector: Elbow 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7872,7 +7948,7 @@
         <xdr:cNvPr id="478" name="Rectangle 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7935,7 +8011,7 @@
         <xdr:cNvPr id="482" name="Rectangle 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7998,7 +8074,7 @@
         <xdr:cNvPr id="492" name="Rectangle 491">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8061,7 +8137,7 @@
         <xdr:cNvPr id="481" name="Connector: Elbow 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8117,7 +8193,7 @@
         <xdr:cNvPr id="488" name="Connector: Elbow 487">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8173,7 +8249,7 @@
         <xdr:cNvPr id="503" name="Rectangle 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8236,7 +8312,7 @@
         <xdr:cNvPr id="504" name="Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8299,7 +8375,7 @@
         <xdr:cNvPr id="506" name="Rectangle 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8362,7 +8438,7 @@
         <xdr:cNvPr id="493" name="Straight Arrow Connector 492">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8418,7 +8494,7 @@
         <xdr:cNvPr id="496" name="Connector: Elbow 495">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8477,7 +8553,7 @@
         <xdr:cNvPr id="500" name="Connector: Elbow 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8536,7 +8612,7 @@
         <xdr:cNvPr id="511" name="Connector: Elbow 510">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8594,7 +8670,7 @@
         <xdr:cNvPr id="386" name="Connector: Elbow 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8652,7 +8728,7 @@
         <xdr:cNvPr id="389" name="Connector: Elbow 388">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8710,7 +8786,7 @@
         <xdr:cNvPr id="412" name="Straight Arrow Connector 411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8766,7 +8842,7 @@
         <xdr:cNvPr id="549" name="Rectangle 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8834,7 +8910,7 @@
         <xdr:cNvPr id="416" name="Connector: Elbow 415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8890,7 +8966,7 @@
         <xdr:cNvPr id="557" name="Rectangle 556">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8953,7 +9029,7 @@
         <xdr:cNvPr id="558" name="Rectangle 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9016,7 +9092,7 @@
         <xdr:cNvPr id="559" name="Rectangle 558">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9084,7 +9160,7 @@
         <xdr:cNvPr id="560" name="Rectangle 559">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9147,7 +9223,7 @@
         <xdr:cNvPr id="561" name="Rectangle 560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9215,7 +9291,7 @@
         <xdr:cNvPr id="571" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9283,7 +9359,7 @@
         <xdr:cNvPr id="429" name="Straight Arrow Connector 428">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9339,7 +9415,7 @@
         <xdr:cNvPr id="431" name="Connector: Elbow 430">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9394,7 +9470,7 @@
         <xdr:cNvPr id="441" name="Connector: Elbow 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9450,7 +9526,7 @@
         <xdr:cNvPr id="444" name="Connector: Elbow 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9506,7 +9582,7 @@
         <xdr:cNvPr id="447" name="Straight Arrow Connector 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9562,7 +9638,7 @@
         <xdr:cNvPr id="603" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9626,7 +9702,7 @@
         <xdr:cNvPr id="526" name="Connector: Elbow 525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9682,7 +9758,7 @@
         <xdr:cNvPr id="536" name="Connector: Elbow 535">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9738,7 +9814,7 @@
         <xdr:cNvPr id="542" name="Connector: Elbow 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9798,7 +9874,7 @@
         <xdr:cNvPr id="625" name="Rectangle 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9866,7 +9942,7 @@
         <xdr:cNvPr id="627" name="Rectangle 626">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9929,7 +10005,7 @@
         <xdr:cNvPr id="565" name="Connector: Elbow 564">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9988,7 +10064,7 @@
         <xdr:cNvPr id="117" name="Rectangle 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10051,7 +10127,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10107,7 +10183,7 @@
         <xdr:cNvPr id="115" name="Rectangle 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1F65BD-EFB7-BEFF-549F-9E4E36C12FAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED1F65BD-EFB7-BEFF-549F-9E4E36C12FAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10170,7 +10246,7 @@
         <xdr:cNvPr id="5" name="Connector: Elbow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D31A361-7A62-F6FA-A055-24AA616A93D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D31A361-7A62-F6FA-A055-24AA616A93D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10233,7 +10309,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943D27F9-5766-34FB-9C45-9266F0C7C4EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{943D27F9-5766-34FB-9C45-9266F0C7C4EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10283,7 +10359,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CF1D88-4644-4D1C-3C67-0C7C9ED14102}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59CF1D88-4644-4D1C-3C67-0C7C9ED14102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10333,7 +10409,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402A2CA2-4F18-49E8-E32F-820D6D50FE9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{402A2CA2-4F18-49E8-E32F-820D6D50FE9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10383,7 +10459,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431B73F5-8533-5F90-FAC6-4715CF6D697C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{431B73F5-8533-5F90-FAC6-4715CF6D697C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10433,7 +10509,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4E30CE-2ED6-2389-AB94-DE2D102A300B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F4E30CE-2ED6-2389-AB94-DE2D102A300B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10483,7 +10559,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B91832F-DEB0-AB70-6808-E9D212BCA607}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B91832F-DEB0-AB70-6808-E9D212BCA607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10533,7 +10609,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358E9180-29A8-EEBE-A22F-5CC8BD7C3822}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{358E9180-29A8-EEBE-A22F-5CC8BD7C3822}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10583,7 +10659,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80411B2-C71C-C4CB-B458-75B436F160CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80411B2-C71C-C4CB-B458-75B436F160CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10633,7 +10709,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D919F268-10D5-ED58-B6E9-080AF2265538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D919F268-10D5-ED58-B6E9-080AF2265538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10683,7 +10759,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA4512C-EFFB-8859-8461-70AC52D3D87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BA4512C-EFFB-8859-8461-70AC52D3D87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10733,7 +10809,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618098A7-3E95-CD4B-7CFA-C9B2C18A71B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{618098A7-3E95-CD4B-7CFA-C9B2C18A71B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10783,7 +10859,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277C99A9-FD84-15A8-64C2-0854E5AE8439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{277C99A9-FD84-15A8-64C2-0854E5AE8439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10833,7 +10909,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE6154F-5721-F549-FCEA-3DCAEC4EBEA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DE6154F-5721-F549-FCEA-3DCAEC4EBEA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10883,7 +10959,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0156D0A8-32AA-59F9-E6EB-EE2C740A875F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0156D0A8-32AA-59F9-E6EB-EE2C740A875F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10933,7 +11009,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF0CE33-63CF-8316-831B-FA7C09D6B069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CF0CE33-63CF-8316-831B-FA7C09D6B069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11264,10 +11340,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11564,22 +11640,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="544" t="s">
+      <c r="A19" s="547" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="545"/>
-      <c r="C19" s="545"/>
-      <c r="D19" s="545"/>
-      <c r="E19" s="545"/>
-      <c r="F19" s="545"/>
-      <c r="G19" s="545"/>
-      <c r="H19" s="545"/>
-      <c r="I19" s="545"/>
-      <c r="J19" s="545"/>
-      <c r="K19" s="545"/>
-      <c r="L19" s="545"/>
-      <c r="M19" s="545"/>
-      <c r="N19" s="546"/>
+      <c r="B19" s="548"/>
+      <c r="C19" s="548"/>
+      <c r="D19" s="548"/>
+      <c r="E19" s="548"/>
+      <c r="F19" s="548"/>
+      <c r="G19" s="548"/>
+      <c r="H19" s="548"/>
+      <c r="I19" s="548"/>
+      <c r="J19" s="548"/>
+      <c r="K19" s="548"/>
+      <c r="L19" s="548"/>
+      <c r="M19" s="548"/>
+      <c r="N19" s="549"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -11614,22 +11690,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A22" s="541" t="s">
+      <c r="A22" s="544" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="542"/>
-      <c r="C22" s="542"/>
-      <c r="D22" s="542"/>
-      <c r="E22" s="542"/>
-      <c r="F22" s="542"/>
-      <c r="G22" s="542"/>
-      <c r="H22" s="542"/>
-      <c r="I22" s="542"/>
-      <c r="J22" s="542"/>
-      <c r="K22" s="542"/>
-      <c r="L22" s="542"/>
-      <c r="M22" s="542"/>
-      <c r="N22" s="543"/>
+      <c r="B22" s="545"/>
+      <c r="C22" s="545"/>
+      <c r="D22" s="545"/>
+      <c r="E22" s="545"/>
+      <c r="F22" s="545"/>
+      <c r="G22" s="545"/>
+      <c r="H22" s="545"/>
+      <c r="I22" s="545"/>
+      <c r="J22" s="545"/>
+      <c r="K22" s="545"/>
+      <c r="L22" s="545"/>
+      <c r="M22" s="545"/>
+      <c r="N22" s="546"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -11937,10 +12013,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
-      <c r="B42" s="539" t="s">
+      <c r="B42" s="542" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="539"/>
+      <c r="C42" s="542"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -12064,13 +12140,13 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="540" t="s">
+      <c r="K48" s="543" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="540"/>
+      <c r="L48" s="543"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44706.97908344907</v>
+        <v>44707.943716203707</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -12085,13 +12161,13 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="540" t="s">
+      <c r="K49" s="543" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="540"/>
+      <c r="L49" s="543"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44706.97908344907</v>
+        <v>44707.943716203707</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -12141,7 +12217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -12154,54 +12230,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="550" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="551" t="s">
+      <c r="B2" s="551"/>
+      <c r="C2" s="554" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="552"/>
-      <c r="E2" s="552"/>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="552"/>
-      <c r="I2" s="552"/>
-      <c r="J2" s="552"/>
-      <c r="K2" s="552"/>
-      <c r="L2" s="552"/>
-      <c r="M2" s="552"/>
-      <c r="N2" s="552"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="555"/>
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
+      <c r="K2" s="555"/>
+      <c r="L2" s="555"/>
+      <c r="M2" s="555"/>
+      <c r="N2" s="555"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="555">
+      <c r="P2" s="558">
         <v>44698</v>
       </c>
-      <c r="Q2" s="556"/>
+      <c r="Q2" s="559"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="549"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="553"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="554"/>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="554"/>
-      <c r="I3" s="554"/>
-      <c r="J3" s="554"/>
-      <c r="K3" s="554"/>
-      <c r="L3" s="554"/>
-      <c r="M3" s="554"/>
-      <c r="N3" s="554"/>
+      <c r="A3" s="552"/>
+      <c r="B3" s="553"/>
+      <c r="C3" s="556"/>
+      <c r="D3" s="557"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="557"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="557"/>
+      <c r="M3" s="557"/>
+      <c r="N3" s="557"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="557">
+      <c r="P3" s="560">
         <v>44698</v>
       </c>
-      <c r="Q3" s="558"/>
+      <c r="Q3" s="561"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -13240,10 +13316,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="140" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13260,50 +13336,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="550" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="551" t="s">
+      <c r="B2" s="551"/>
+      <c r="C2" s="554" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="552"/>
-      <c r="E2" s="552"/>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="552"/>
-      <c r="I2" s="552"/>
-      <c r="J2" s="552"/>
-      <c r="K2" s="552"/>
-      <c r="L2" s="552"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="555"/>
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
+      <c r="K2" s="555"/>
+      <c r="L2" s="555"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="555">
+      <c r="N2" s="558">
         <v>44698</v>
       </c>
-      <c r="O2" s="556"/>
+      <c r="O2" s="559"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="549"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="553"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="554"/>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="554"/>
-      <c r="I3" s="554"/>
-      <c r="J3" s="554"/>
-      <c r="K3" s="554"/>
-      <c r="L3" s="554"/>
+      <c r="A3" s="552"/>
+      <c r="B3" s="553"/>
+      <c r="C3" s="556"/>
+      <c r="D3" s="557"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="557"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="557"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="557">
+      <c r="N3" s="560">
         <v>44698</v>
       </c>
-      <c r="O3" s="558"/>
+      <c r="O3" s="561"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -16723,7 +16799,469 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="412" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="412" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="412" customWidth="1"/>
+    <col min="4" max="4" width="7" style="412" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="412" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="412" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="412" customWidth="1"/>
+    <col min="8" max="13" width="6.75" style="412" customWidth="1"/>
+    <col min="14" max="17" width="7.5" style="412" customWidth="1"/>
+    <col min="18" max="19" width="8" style="412" customWidth="1"/>
+    <col min="20" max="20" width="5.625" style="412" customWidth="1"/>
+    <col min="21" max="16384" width="11" style="412"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="550" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="551"/>
+      <c r="C2" s="555"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="555"/>
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
+      <c r="K2" s="555"/>
+      <c r="L2" s="555"/>
+      <c r="M2" s="555"/>
+      <c r="N2" s="555"/>
+      <c r="O2" s="555"/>
+      <c r="P2" s="555"/>
+      <c r="Q2" s="555"/>
+      <c r="R2" s="555"/>
+      <c r="S2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="558">
+        <v>44698</v>
+      </c>
+      <c r="U2" s="559"/>
+    </row>
+    <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="552"/>
+      <c r="B3" s="553"/>
+      <c r="C3" s="557"/>
+      <c r="D3" s="557"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="557"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="557"/>
+      <c r="M3" s="557"/>
+      <c r="N3" s="557"/>
+      <c r="O3" s="557"/>
+      <c r="P3" s="557"/>
+      <c r="Q3" s="557"/>
+      <c r="R3" s="557"/>
+      <c r="S3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="560">
+        <v>44698</v>
+      </c>
+      <c r="U3" s="561"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="579" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="42">
+        <v>17</v>
+      </c>
+      <c r="D5" s="579">
+        <v>18</v>
+      </c>
+      <c r="E5" s="579">
+        <v>19</v>
+      </c>
+      <c r="F5" s="579">
+        <v>20</v>
+      </c>
+      <c r="G5" s="579">
+        <v>21</v>
+      </c>
+      <c r="H5" s="579">
+        <v>22</v>
+      </c>
+      <c r="I5" s="579">
+        <v>23</v>
+      </c>
+      <c r="J5" s="579">
+        <v>24</v>
+      </c>
+      <c r="K5" s="579">
+        <v>25</v>
+      </c>
+      <c r="L5" s="579">
+        <v>26</v>
+      </c>
+      <c r="M5" s="579">
+        <v>27</v>
+      </c>
+      <c r="N5" s="579">
+        <v>28</v>
+      </c>
+      <c r="O5" s="579">
+        <v>29</v>
+      </c>
+      <c r="P5" s="579">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="579">
+        <v>31</v>
+      </c>
+      <c r="R5" s="579">
+        <v>1</v>
+      </c>
+      <c r="S5" s="579">
+        <v>2</v>
+      </c>
+      <c r="T5" s="580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="44">
+        <v>1</v>
+      </c>
+      <c r="B6" s="582" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="596" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="595"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="578"/>
+      <c r="J6" s="578"/>
+      <c r="K6" s="578"/>
+      <c r="L6" s="578"/>
+      <c r="M6" s="578"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="586"/>
+      <c r="S6" s="586"/>
+      <c r="T6" s="586"/>
+    </row>
+    <row r="7" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="44">
+        <v>2</v>
+      </c>
+      <c r="B7" s="582" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="596" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="595"/>
+      <c r="E7" s="595"/>
+      <c r="F7" s="595"/>
+      <c r="G7" s="595"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="578"/>
+      <c r="J7" s="578"/>
+      <c r="K7" s="578"/>
+      <c r="L7" s="578"/>
+      <c r="M7" s="578"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="586"/>
+      <c r="S7" s="586"/>
+      <c r="T7" s="586"/>
+    </row>
+    <row r="8" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="44">
+        <v>3</v>
+      </c>
+      <c r="B8" s="582" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="590" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="594"/>
+      <c r="E8" s="595" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="592"/>
+      <c r="G8" s="592"/>
+      <c r="H8" s="593"/>
+      <c r="I8" s="578"/>
+      <c r="J8" s="578"/>
+      <c r="K8" s="578"/>
+      <c r="L8" s="578"/>
+      <c r="M8" s="578"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="586"/>
+      <c r="S8" s="586"/>
+      <c r="T8" s="586"/>
+    </row>
+    <row r="9" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="44">
+        <v>4</v>
+      </c>
+      <c r="B9" s="582" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="591" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="592"/>
+      <c r="E9" s="593"/>
+      <c r="F9" s="589" t="s">
+        <v>380</v>
+      </c>
+      <c r="G9" s="587"/>
+      <c r="H9" s="587"/>
+      <c r="I9" s="588"/>
+      <c r="J9" s="600" t="s">
+        <v>382</v>
+      </c>
+      <c r="K9" s="598"/>
+      <c r="L9" s="599"/>
+      <c r="M9" s="584"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="585"/>
+      <c r="P9" s="585"/>
+      <c r="Q9" s="585"/>
+      <c r="R9" s="586"/>
+      <c r="S9" s="586"/>
+      <c r="T9" s="586"/>
+    </row>
+    <row r="10" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="44">
+        <v>5</v>
+      </c>
+      <c r="B10" s="582" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="581"/>
+      <c r="D10" s="581"/>
+      <c r="E10" s="435"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="581"/>
+      <c r="H10" s="581"/>
+      <c r="I10" s="584"/>
+      <c r="J10" s="584"/>
+      <c r="K10" s="584"/>
+      <c r="L10" s="584"/>
+      <c r="M10" s="584"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="585"/>
+      <c r="P10" s="585"/>
+      <c r="Q10" s="585"/>
+      <c r="R10" s="586"/>
+      <c r="S10" s="586"/>
+      <c r="T10" s="586"/>
+    </row>
+    <row r="11" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="583"/>
+      <c r="B11" s="582"/>
+      <c r="C11" s="581"/>
+      <c r="D11" s="581"/>
+      <c r="E11" s="435"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="581"/>
+      <c r="H11" s="581"/>
+      <c r="I11" s="584"/>
+      <c r="J11" s="584"/>
+      <c r="K11" s="584"/>
+      <c r="L11" s="584"/>
+      <c r="M11" s="584"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="585"/>
+      <c r="P11" s="585"/>
+      <c r="Q11" s="585"/>
+      <c r="R11" s="586"/>
+      <c r="S11" s="586"/>
+      <c r="T11" s="586"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:R3"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -16738,68 +17276,68 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="550" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="551" t="s">
+      <c r="B2" s="551"/>
+      <c r="C2" s="554" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="552"/>
-      <c r="E2" s="552"/>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="552"/>
-      <c r="I2" s="552"/>
-      <c r="J2" s="552"/>
-      <c r="K2" s="552"/>
-      <c r="L2" s="552"/>
-      <c r="M2" s="552"/>
-      <c r="N2" s="552"/>
-      <c r="O2" s="552"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
-      <c r="R2" s="552"/>
-      <c r="S2" s="552"/>
-      <c r="T2" s="552"/>
-      <c r="U2" s="552"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="555"/>
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
+      <c r="K2" s="555"/>
+      <c r="L2" s="555"/>
+      <c r="M2" s="555"/>
+      <c r="N2" s="555"/>
+      <c r="O2" s="555"/>
+      <c r="P2" s="555"/>
+      <c r="Q2" s="555"/>
+      <c r="R2" s="555"/>
+      <c r="S2" s="555"/>
+      <c r="T2" s="555"/>
+      <c r="U2" s="555"/>
       <c r="V2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="555">
+      <c r="W2" s="558">
         <v>44698</v>
       </c>
-      <c r="X2" s="556"/>
+      <c r="X2" s="559"/>
     </row>
     <row r="3" spans="1:24" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="549"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="553"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="554"/>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="554"/>
-      <c r="I3" s="554"/>
-      <c r="J3" s="554"/>
-      <c r="K3" s="554"/>
-      <c r="L3" s="554"/>
-      <c r="M3" s="554"/>
-      <c r="N3" s="554"/>
-      <c r="O3" s="554"/>
-      <c r="P3" s="554"/>
-      <c r="Q3" s="554"/>
-      <c r="R3" s="554"/>
-      <c r="S3" s="554"/>
-      <c r="T3" s="554"/>
-      <c r="U3" s="554"/>
+      <c r="A3" s="552"/>
+      <c r="B3" s="553"/>
+      <c r="C3" s="556"/>
+      <c r="D3" s="557"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="557"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="557"/>
+      <c r="M3" s="557"/>
+      <c r="N3" s="557"/>
+      <c r="O3" s="557"/>
+      <c r="P3" s="557"/>
+      <c r="Q3" s="557"/>
+      <c r="R3" s="557"/>
+      <c r="S3" s="557"/>
+      <c r="T3" s="557"/>
+      <c r="U3" s="557"/>
       <c r="V3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="557">
+      <c r="W3" s="560">
         <v>44698</v>
       </c>
-      <c r="X3" s="558"/>
+      <c r="X3" s="561"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -16833,26 +17371,26 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="566"/>
-      <c r="E5" s="567"/>
-      <c r="F5" s="567"/>
-      <c r="G5" s="567"/>
-      <c r="H5" s="567"/>
-      <c r="I5" s="567"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="567"/>
-      <c r="L5" s="567"/>
-      <c r="M5" s="567"/>
-      <c r="N5" s="567"/>
-      <c r="O5" s="567"/>
-      <c r="P5" s="567"/>
-      <c r="Q5" s="567"/>
-      <c r="R5" s="567"/>
-      <c r="S5" s="567"/>
-      <c r="T5" s="567"/>
-      <c r="U5" s="567"/>
-      <c r="V5" s="567"/>
-      <c r="W5" s="568"/>
+      <c r="D5" s="569"/>
+      <c r="E5" s="570"/>
+      <c r="F5" s="570"/>
+      <c r="G5" s="570"/>
+      <c r="H5" s="570"/>
+      <c r="I5" s="570"/>
+      <c r="J5" s="570"/>
+      <c r="K5" s="570"/>
+      <c r="L5" s="570"/>
+      <c r="M5" s="570"/>
+      <c r="N5" s="570"/>
+      <c r="O5" s="570"/>
+      <c r="P5" s="570"/>
+      <c r="Q5" s="570"/>
+      <c r="R5" s="570"/>
+      <c r="S5" s="570"/>
+      <c r="T5" s="570"/>
+      <c r="U5" s="570"/>
+      <c r="V5" s="570"/>
+      <c r="W5" s="571"/>
       <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -16861,104 +17399,104 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="569"/>
-      <c r="E6" s="570"/>
-      <c r="F6" s="570"/>
-      <c r="G6" s="570"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="570"/>
-      <c r="J6" s="570"/>
-      <c r="K6" s="570"/>
-      <c r="L6" s="570"/>
-      <c r="M6" s="570"/>
-      <c r="N6" s="570"/>
-      <c r="O6" s="570"/>
-      <c r="P6" s="570"/>
-      <c r="Q6" s="570"/>
-      <c r="R6" s="570"/>
-      <c r="S6" s="570"/>
-      <c r="T6" s="570"/>
-      <c r="U6" s="570"/>
-      <c r="V6" s="570"/>
-      <c r="W6" s="571"/>
+      <c r="D6" s="572"/>
+      <c r="E6" s="573"/>
+      <c r="F6" s="573"/>
+      <c r="G6" s="573"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="573"/>
+      <c r="J6" s="573"/>
+      <c r="K6" s="573"/>
+      <c r="L6" s="573"/>
+      <c r="M6" s="573"/>
+      <c r="N6" s="573"/>
+      <c r="O6" s="573"/>
+      <c r="P6" s="573"/>
+      <c r="Q6" s="573"/>
+      <c r="R6" s="573"/>
+      <c r="S6" s="573"/>
+      <c r="T6" s="573"/>
+      <c r="U6" s="573"/>
+      <c r="V6" s="573"/>
+      <c r="W6" s="574"/>
       <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="569"/>
-      <c r="E7" s="570"/>
-      <c r="F7" s="570"/>
-      <c r="G7" s="570"/>
-      <c r="H7" s="570"/>
-      <c r="I7" s="570"/>
-      <c r="J7" s="570"/>
-      <c r="K7" s="570"/>
-      <c r="L7" s="570"/>
-      <c r="M7" s="570"/>
-      <c r="N7" s="570"/>
-      <c r="O7" s="570"/>
-      <c r="P7" s="570"/>
-      <c r="Q7" s="570"/>
-      <c r="R7" s="570"/>
-      <c r="S7" s="570"/>
-      <c r="T7" s="570"/>
-      <c r="U7" s="570"/>
-      <c r="V7" s="570"/>
-      <c r="W7" s="571"/>
+      <c r="D7" s="572"/>
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="573"/>
+      <c r="I7" s="573"/>
+      <c r="J7" s="573"/>
+      <c r="K7" s="573"/>
+      <c r="L7" s="573"/>
+      <c r="M7" s="573"/>
+      <c r="N7" s="573"/>
+      <c r="O7" s="573"/>
+      <c r="P7" s="573"/>
+      <c r="Q7" s="573"/>
+      <c r="R7" s="573"/>
+      <c r="S7" s="573"/>
+      <c r="T7" s="573"/>
+      <c r="U7" s="573"/>
+      <c r="V7" s="573"/>
+      <c r="W7" s="574"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="569"/>
-      <c r="E8" s="570"/>
-      <c r="F8" s="570"/>
-      <c r="G8" s="570"/>
-      <c r="H8" s="570"/>
-      <c r="I8" s="570"/>
-      <c r="J8" s="570"/>
-      <c r="K8" s="570"/>
-      <c r="L8" s="570"/>
-      <c r="M8" s="570"/>
-      <c r="N8" s="570"/>
-      <c r="O8" s="570"/>
-      <c r="P8" s="570"/>
-      <c r="Q8" s="570"/>
-      <c r="R8" s="570"/>
-      <c r="S8" s="570"/>
-      <c r="T8" s="570"/>
-      <c r="U8" s="570"/>
-      <c r="V8" s="570"/>
-      <c r="W8" s="571"/>
+      <c r="D8" s="572"/>
+      <c r="E8" s="573"/>
+      <c r="F8" s="573"/>
+      <c r="G8" s="573"/>
+      <c r="H8" s="573"/>
+      <c r="I8" s="573"/>
+      <c r="J8" s="573"/>
+      <c r="K8" s="573"/>
+      <c r="L8" s="573"/>
+      <c r="M8" s="573"/>
+      <c r="N8" s="573"/>
+      <c r="O8" s="573"/>
+      <c r="P8" s="573"/>
+      <c r="Q8" s="573"/>
+      <c r="R8" s="573"/>
+      <c r="S8" s="573"/>
+      <c r="T8" s="573"/>
+      <c r="U8" s="573"/>
+      <c r="V8" s="573"/>
+      <c r="W8" s="574"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="572"/>
-      <c r="E9" s="573"/>
-      <c r="F9" s="573"/>
-      <c r="G9" s="573"/>
-      <c r="H9" s="573"/>
-      <c r="I9" s="573"/>
-      <c r="J9" s="573"/>
-      <c r="K9" s="573"/>
-      <c r="L9" s="573"/>
-      <c r="M9" s="573"/>
-      <c r="N9" s="573"/>
-      <c r="O9" s="573"/>
-      <c r="P9" s="573"/>
-      <c r="Q9" s="573"/>
-      <c r="R9" s="573"/>
-      <c r="S9" s="573"/>
-      <c r="T9" s="573"/>
-      <c r="U9" s="573"/>
-      <c r="V9" s="573"/>
-      <c r="W9" s="574"/>
+      <c r="D9" s="575"/>
+      <c r="E9" s="576"/>
+      <c r="F9" s="576"/>
+      <c r="G9" s="576"/>
+      <c r="H9" s="576"/>
+      <c r="I9" s="576"/>
+      <c r="J9" s="576"/>
+      <c r="K9" s="576"/>
+      <c r="L9" s="576"/>
+      <c r="M9" s="576"/>
+      <c r="N9" s="576"/>
+      <c r="O9" s="576"/>
+      <c r="P9" s="576"/>
+      <c r="Q9" s="576"/>
+      <c r="R9" s="576"/>
+      <c r="S9" s="576"/>
+      <c r="T9" s="576"/>
+      <c r="U9" s="576"/>
+      <c r="V9" s="576"/>
+      <c r="W9" s="577"/>
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -16988,58 +17526,58 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="559" t="s">
+      <c r="A11" s="562" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="560"/>
-      <c r="C11" s="560"/>
-      <c r="D11" s="560"/>
-      <c r="E11" s="560"/>
-      <c r="F11" s="560"/>
-      <c r="G11" s="560"/>
-      <c r="H11" s="560"/>
-      <c r="I11" s="560"/>
-      <c r="J11" s="560"/>
-      <c r="K11" s="560"/>
-      <c r="L11" s="560"/>
-      <c r="M11" s="560"/>
-      <c r="N11" s="560"/>
-      <c r="O11" s="560"/>
-      <c r="P11" s="560"/>
-      <c r="Q11" s="560"/>
-      <c r="R11" s="560"/>
-      <c r="S11" s="560"/>
-      <c r="T11" s="560"/>
-      <c r="U11" s="560"/>
-      <c r="V11" s="560"/>
-      <c r="W11" s="560"/>
-      <c r="X11" s="561"/>
+      <c r="B11" s="563"/>
+      <c r="C11" s="563"/>
+      <c r="D11" s="563"/>
+      <c r="E11" s="563"/>
+      <c r="F11" s="563"/>
+      <c r="G11" s="563"/>
+      <c r="H11" s="563"/>
+      <c r="I11" s="563"/>
+      <c r="J11" s="563"/>
+      <c r="K11" s="563"/>
+      <c r="L11" s="563"/>
+      <c r="M11" s="563"/>
+      <c r="N11" s="563"/>
+      <c r="O11" s="563"/>
+      <c r="P11" s="563"/>
+      <c r="Q11" s="563"/>
+      <c r="R11" s="563"/>
+      <c r="S11" s="563"/>
+      <c r="T11" s="563"/>
+      <c r="U11" s="563"/>
+      <c r="V11" s="563"/>
+      <c r="W11" s="563"/>
+      <c r="X11" s="564"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="562"/>
-      <c r="B12" s="563"/>
-      <c r="C12" s="563"/>
-      <c r="D12" s="563"/>
-      <c r="E12" s="563"/>
-      <c r="F12" s="563"/>
-      <c r="G12" s="563"/>
-      <c r="H12" s="563"/>
-      <c r="I12" s="564"/>
-      <c r="J12" s="563"/>
-      <c r="K12" s="563"/>
-      <c r="L12" s="563"/>
-      <c r="M12" s="563"/>
-      <c r="N12" s="563"/>
-      <c r="O12" s="563"/>
-      <c r="P12" s="563"/>
-      <c r="Q12" s="563"/>
-      <c r="R12" s="563"/>
-      <c r="S12" s="563"/>
-      <c r="T12" s="563"/>
-      <c r="U12" s="563"/>
-      <c r="V12" s="563"/>
-      <c r="W12" s="563"/>
-      <c r="X12" s="565"/>
+      <c r="A12" s="565"/>
+      <c r="B12" s="566"/>
+      <c r="C12" s="566"/>
+      <c r="D12" s="566"/>
+      <c r="E12" s="566"/>
+      <c r="F12" s="566"/>
+      <c r="G12" s="566"/>
+      <c r="H12" s="566"/>
+      <c r="I12" s="567"/>
+      <c r="J12" s="566"/>
+      <c r="K12" s="566"/>
+      <c r="L12" s="566"/>
+      <c r="M12" s="566"/>
+      <c r="N12" s="566"/>
+      <c r="O12" s="566"/>
+      <c r="P12" s="566"/>
+      <c r="Q12" s="566"/>
+      <c r="R12" s="566"/>
+      <c r="S12" s="566"/>
+      <c r="T12" s="566"/>
+      <c r="U12" s="566"/>
+      <c r="V12" s="566"/>
+      <c r="W12" s="566"/>
+      <c r="X12" s="568"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
@@ -18849,11 +19387,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18863,54 +19401,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="550" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="551" t="s">
+      <c r="B2" s="551"/>
+      <c r="C2" s="554" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="552"/>
-      <c r="E2" s="552"/>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="552"/>
-      <c r="I2" s="552"/>
-      <c r="J2" s="552"/>
-      <c r="K2" s="552"/>
-      <c r="L2" s="552"/>
-      <c r="M2" s="552"/>
-      <c r="N2" s="552"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="555"/>
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
+      <c r="K2" s="555"/>
+      <c r="L2" s="555"/>
+      <c r="M2" s="555"/>
+      <c r="N2" s="555"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="555">
+      <c r="P2" s="558">
         <v>44698</v>
       </c>
-      <c r="Q2" s="556"/>
+      <c r="Q2" s="559"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="549"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="553"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="554"/>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="554"/>
-      <c r="I3" s="554"/>
-      <c r="J3" s="554"/>
-      <c r="K3" s="554"/>
-      <c r="L3" s="554"/>
-      <c r="M3" s="554"/>
-      <c r="N3" s="554"/>
+      <c r="A3" s="552"/>
+      <c r="B3" s="553"/>
+      <c r="C3" s="556"/>
+      <c r="D3" s="557"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="557"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="557"/>
+      <c r="M3" s="557"/>
+      <c r="N3" s="557"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="557">
+      <c r="P3" s="560">
         <v>44698</v>
       </c>
-      <c r="Q3" s="558"/>
+      <c r="Q3" s="561"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -18932,7 +19470,7 @@
       <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="576" t="s">
+      <c r="A5" s="540" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="73"/>
@@ -18958,25 +19496,25 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="577" t="s">
+      <c r="D6" s="541" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="18"/>
-      <c r="F6" s="575" t="s">
+      <c r="F6" s="539" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="31"/>
-      <c r="I6" s="577" t="s">
+      <c r="I6" s="541" t="s">
         <v>210</v>
       </c>
       <c r="K6" s="18"/>
-      <c r="L6" s="575" t="s">
+      <c r="L6" s="539" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="31"/>
-      <c r="O6" s="577" t="s">
+      <c r="O6" s="541" t="s">
         <v>222</v>
       </c>
       <c r="P6" s="18"/>
@@ -19325,31 +19863,31 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="575" t="s">
+      <c r="A25" s="539" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="577" t="s">
+      <c r="D25" s="541" t="s">
         <v>211</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="575" t="s">
+      <c r="F25" s="539" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="31"/>
-      <c r="I25" s="577" t="s">
+      <c r="I25" s="541" t="s">
         <v>372</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="575" t="s">
+      <c r="L25" s="539" t="s">
         <v>29</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="31"/>
-      <c r="O25" s="577" t="s">
+      <c r="O25" s="541" t="s">
         <v>212</v>
       </c>
       <c r="P25" s="6"/>
@@ -19755,31 +20293,31 @@
       <c r="Q46" s="14"/>
     </row>
     <row r="47" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="575" t="s">
+      <c r="A47" s="539" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="31"/>
-      <c r="D47" s="577" t="s">
+      <c r="D47" s="541" t="s">
         <v>213</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="575" t="s">
+      <c r="F47" s="539" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="31"/>
-      <c r="I47" s="577" t="s">
+      <c r="I47" s="541" t="s">
         <v>79</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="575" t="s">
+      <c r="L47" s="539" t="s">
         <v>29</v>
       </c>
       <c r="M47" s="18"/>
       <c r="N47" s="31"/>
-      <c r="O47" s="577" t="s">
+      <c r="O47" s="541" t="s">
         <v>214</v>
       </c>
       <c r="P47" s="6"/>
@@ -20261,54 +20799,54 @@
       <c r="Q72" s="17"/>
     </row>
     <row r="74" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A74" s="575" t="s">
+      <c r="A74" s="539" t="s">
         <v>29</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="31"/>
-      <c r="D74" s="577" t="s">
+      <c r="D74" s="541" t="s">
         <v>215</v>
       </c>
-      <c r="F74" s="575" t="s">
+      <c r="F74" s="539" t="s">
         <v>29</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="31"/>
-      <c r="I74" s="577" t="s">
+      <c r="I74" s="541" t="s">
         <v>370</v>
       </c>
-      <c r="L74" s="575" t="s">
+      <c r="L74" s="539" t="s">
         <v>29</v>
       </c>
       <c r="M74" s="18"/>
       <c r="N74" s="31"/>
-      <c r="O74" s="577" t="s">
+      <c r="O74" s="541" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A94" s="575" t="s">
+      <c r="A94" s="539" t="s">
         <v>29</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="31"/>
-      <c r="D94" s="577" t="s">
+      <c r="D94" s="541" t="s">
         <v>354</v>
       </c>
-      <c r="F94" s="575" t="s">
+      <c r="F94" s="539" t="s">
         <v>29</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="31"/>
-      <c r="I94" s="577" t="s">
+      <c r="I94" s="541" t="s">
         <v>355</v>
       </c>
-      <c r="L94" s="575" t="s">
+      <c r="L94" s="539" t="s">
         <v>29</v>
       </c>
       <c r="M94" s="18"/>
       <c r="N94" s="31"/>
-      <c r="O94" s="577" t="s">
+      <c r="O94" s="541" t="s">
         <v>373</v>
       </c>
     </row>
@@ -20328,11 +20866,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O348"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20347,50 +20885,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="550" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="551" t="s">
+      <c r="B2" s="551"/>
+      <c r="C2" s="554" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="552"/>
-      <c r="E2" s="552"/>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="552"/>
-      <c r="I2" s="552"/>
-      <c r="J2" s="552"/>
-      <c r="K2" s="552"/>
-      <c r="L2" s="552"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="555"/>
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
+      <c r="K2" s="555"/>
+      <c r="L2" s="555"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="555">
+      <c r="N2" s="558">
         <v>44698</v>
       </c>
-      <c r="O2" s="556"/>
+      <c r="O2" s="559"/>
     </row>
     <row r="3" spans="1:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="549"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="553"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="554"/>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="554"/>
-      <c r="I3" s="554"/>
-      <c r="J3" s="554"/>
-      <c r="K3" s="554"/>
-      <c r="L3" s="554"/>
+      <c r="A3" s="552"/>
+      <c r="B3" s="553"/>
+      <c r="C3" s="556"/>
+      <c r="D3" s="557"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="557"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="557"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="557">
+      <c r="N3" s="560">
         <v>44702</v>
       </c>
-      <c r="O3" s="558"/>
+      <c r="O3" s="561"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797481D-6BE1-4DD6-A947-18E5C35BB58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D627F-E598-4B19-952C-EB1B48BBBF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <sheet name="DB Design" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$A$5:$K$107</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'By Person'!$A$1:$U$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$70</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="387">
   <si>
     <t>No</t>
   </si>
@@ -1197,10 +1198,27 @@
     <t>Screen Design</t>
   </si>
   <si>
-    <t>Design Development</t>
-  </si>
-  <si>
     <t>YadanarThike_DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login,Dashboard,Author list,Author Add,Book list,Book Add,Order Info,User Info,Admin Settings,Home Screen,Categories List,Categories Add
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home,Author Profile,Author List,Shop List,Delivery Contrtol
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Edit,Add Admin,Privacy &amp; policy list,Delivery control list,Service list,Guide list,Guide add,Privacy &amp; policy add,Delivery Control add,Service add,FAQ list,FAQ add,Contact,Review,Slide change list,Slide change add
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_Login,User_Register,Book Description,Book Categories,Order Page,User setting,Order History,Cart pop-up
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Us,Service,Privacy &amp; Policy,FAQ,Guide 
+</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1229,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1380,8 +1398,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,6 +1483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2108,7 +2146,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="601">
+  <cellXfs count="613">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3079,15 +3117,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3158,6 +3187,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12147,7 +12221,7 @@
       <c r="L48" s="552"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44708.007217013888</v>
+        <v>44708.484219675927</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -12168,7 +12242,7 @@
       <c r="L49" s="552"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44708.007217013888</v>
+        <v>44708.484219675927</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -15224,13 +15298,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
+      <c r="H57" s="81">
+        <v>44704</v>
+      </c>
+      <c r="I57" s="81">
+        <v>44705</v>
+      </c>
       <c r="J57" s="516">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="78"/>
@@ -15282,13 +15362,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="81">
+        <v>44704</v>
+      </c>
+      <c r="I59" s="81">
+        <v>44705</v>
+      </c>
       <c r="J59" s="516">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="60" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="78"/>
@@ -15311,13 +15397,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
+      <c r="H60" s="81">
+        <v>44704</v>
+      </c>
+      <c r="I60" s="81">
+        <v>44705</v>
+      </c>
       <c r="J60" s="516">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="61" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="78"/>
@@ -15340,13 +15432,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
+      <c r="H61" s="81">
+        <v>44704</v>
+      </c>
+      <c r="I61" s="81">
+        <v>44705</v>
+      </c>
       <c r="J61" s="516">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="78"/>
@@ -15369,13 +15467,19 @@
         <f t="shared" ref="G62:G76" si="11">F62-E62</f>
         <v>1</v>
       </c>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
+      <c r="H62" s="81">
+        <v>44704</v>
+      </c>
+      <c r="I62" s="81">
+        <v>44705</v>
+      </c>
       <c r="J62" s="516">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="63" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="78"/>
@@ -15398,13 +15502,19 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
+      <c r="H63" s="81">
+        <v>44704</v>
+      </c>
+      <c r="I63" s="81">
+        <v>44705</v>
+      </c>
       <c r="J63" s="516">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="78"/>
@@ -15427,13 +15537,19 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
+      <c r="H64" s="81">
+        <v>44704</v>
+      </c>
+      <c r="I64" s="81">
+        <v>44705</v>
+      </c>
       <c r="J64" s="516">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="K64" s="82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="78"/>
@@ -15543,13 +15659,19 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
+      <c r="H68" s="81">
+        <v>44706</v>
+      </c>
+      <c r="I68" s="81">
+        <v>44707</v>
+      </c>
       <c r="J68" s="516">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="K68" s="82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="521"/>
@@ -15583,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15618,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15653,7 +15775,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15688,7 +15810,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15723,7 +15845,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15758,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15793,7 +15915,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15828,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15863,7 +15985,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15898,7 +16020,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15933,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15968,7 +16090,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16003,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16038,7 +16160,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16073,7 +16195,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16108,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="526">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16143,7 +16265,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="532">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16178,7 +16300,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="532">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16210,7 +16332,9 @@
         <f t="shared" si="1"/>
         <v>-44706</v>
       </c>
-      <c r="K87" s="475"/>
+      <c r="K87" s="475">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="88" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="527"/>
@@ -16244,7 +16368,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="532">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16279,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="475">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16314,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="K90" s="475">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16349,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="532">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16384,7 +16508,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="532">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16408,11 +16532,15 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="H93" s="469"/>
-      <c r="I93" s="469"/>
+      <c r="H93" s="469">
+        <v>44704</v>
+      </c>
+      <c r="I93" s="469">
+        <v>44705</v>
+      </c>
       <c r="J93" s="515">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="470"/>
     </row>
@@ -16466,11 +16594,15 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="H95" s="469"/>
-      <c r="I95" s="469"/>
+      <c r="H95" s="469">
+        <v>44704</v>
+      </c>
+      <c r="I95" s="469">
+        <v>44705</v>
+      </c>
       <c r="J95" s="515">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="470"/>
     </row>
@@ -16506,7 +16638,7 @@
         <v>1</v>
       </c>
       <c r="K96" s="532">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16541,7 +16673,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="532">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16605,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="532">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16640,7 +16772,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="475">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16675,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="475">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="412" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16699,11 +16831,15 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H102" s="469"/>
-      <c r="I102" s="469"/>
+      <c r="H102" s="469">
+        <v>44705</v>
+      </c>
+      <c r="I102" s="469">
+        <v>44706</v>
+      </c>
       <c r="J102" s="515">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="470"/>
     </row>
@@ -16877,7 +17013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17017,54 +17153,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44">
         <v>1</v>
       </c>
       <c r="B6" s="546" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="580" t="s">
+      <c r="C6" s="577" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="581"/>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="542"/>
-      <c r="J6" s="542"/>
-      <c r="K6" s="542"/>
-      <c r="L6" s="542"/>
-      <c r="M6" s="542"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="D6" s="578"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="600" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" s="598"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="598"/>
+      <c r="M6" s="598"/>
+      <c r="N6" s="598"/>
+      <c r="O6" s="598"/>
+      <c r="P6" s="599"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="550"/>
       <c r="S6" s="550"/>
       <c r="T6" s="550"/>
     </row>
-    <row r="7" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44">
         <v>2</v>
       </c>
       <c r="B7" s="546" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="580" t="s">
+      <c r="C7" s="577" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="581"/>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="542"/>
-      <c r="J7" s="542"/>
-      <c r="K7" s="542"/>
-      <c r="L7" s="542"/>
-      <c r="M7" s="542"/>
+      <c r="D7" s="578"/>
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="601" t="s">
+        <v>383</v>
+      </c>
+      <c r="J7" s="602"/>
+      <c r="K7" s="602"/>
+      <c r="L7" s="602"/>
+      <c r="M7" s="603"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="48"/>
@@ -17073,26 +17213,28 @@
       <c r="S7" s="550"/>
       <c r="T7" s="550"/>
     </row>
-    <row r="8" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44">
         <v>3</v>
       </c>
       <c r="B8" s="546" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="583" t="s">
+      <c r="C8" s="580" t="s">
         <v>378</v>
       </c>
-      <c r="D8" s="584"/>
-      <c r="E8" s="581" t="s">
+      <c r="D8" s="581"/>
+      <c r="E8" s="578" t="s">
         <v>380</v>
       </c>
       <c r="F8" s="572"/>
       <c r="G8" s="572"/>
       <c r="H8" s="573"/>
-      <c r="I8" s="542"/>
-      <c r="J8" s="542"/>
-      <c r="K8" s="542"/>
+      <c r="I8" s="607" t="s">
+        <v>384</v>
+      </c>
+      <c r="J8" s="608"/>
+      <c r="K8" s="609"/>
       <c r="L8" s="542"/>
       <c r="M8" s="542"/>
       <c r="N8" s="48"/>
@@ -17103,7 +17245,7 @@
       <c r="S8" s="550"/>
       <c r="T8" s="550"/>
     </row>
-    <row r="9" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="44">
         <v>4</v>
       </c>
@@ -17115,17 +17257,17 @@
       </c>
       <c r="D9" s="572"/>
       <c r="E9" s="573"/>
-      <c r="F9" s="577" t="s">
+      <c r="F9" s="574" t="s">
         <v>379</v>
       </c>
-      <c r="G9" s="578"/>
-      <c r="H9" s="578"/>
-      <c r="I9" s="579"/>
-      <c r="J9" s="574" t="s">
-        <v>381</v>
-      </c>
-      <c r="K9" s="575"/>
-      <c r="L9" s="576"/>
+      <c r="G9" s="575"/>
+      <c r="H9" s="575"/>
+      <c r="I9" s="576"/>
+      <c r="J9" s="610" t="s">
+        <v>385</v>
+      </c>
+      <c r="K9" s="611"/>
+      <c r="L9" s="612"/>
       <c r="M9" s="548"/>
       <c r="N9" s="48"/>
       <c r="O9" s="549"/>
@@ -17135,23 +17277,27 @@
       <c r="S9" s="550"/>
       <c r="T9" s="550"/>
     </row>
-    <row r="10" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44">
         <v>5</v>
       </c>
       <c r="B10" s="546" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="545"/>
-      <c r="D10" s="545"/>
-      <c r="E10" s="435"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="545"/>
-      <c r="H10" s="545"/>
-      <c r="I10" s="548"/>
-      <c r="J10" s="548"/>
-      <c r="K10" s="548"/>
-      <c r="L10" s="548"/>
+      <c r="C10" s="571" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="572"/>
+      <c r="E10" s="572"/>
+      <c r="F10" s="572"/>
+      <c r="G10" s="572"/>
+      <c r="H10" s="573"/>
+      <c r="I10" s="604" t="s">
+        <v>386</v>
+      </c>
+      <c r="J10" s="605"/>
+      <c r="K10" s="605"/>
+      <c r="L10" s="606"/>
       <c r="M10" s="548"/>
       <c r="N10" s="48"/>
       <c r="O10" s="549"/>
@@ -17319,7 +17465,9 @@
       <c r="Q20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="A2:B3"/>
@@ -17331,6 +17479,9 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
@@ -17448,26 +17599,26 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="592"/>
-      <c r="E5" s="593"/>
-      <c r="F5" s="593"/>
-      <c r="G5" s="593"/>
-      <c r="H5" s="593"/>
-      <c r="I5" s="593"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="593"/>
-      <c r="M5" s="593"/>
-      <c r="N5" s="593"/>
-      <c r="O5" s="593"/>
-      <c r="P5" s="593"/>
-      <c r="Q5" s="593"/>
-      <c r="R5" s="593"/>
-      <c r="S5" s="593"/>
-      <c r="T5" s="593"/>
-      <c r="U5" s="593"/>
-      <c r="V5" s="593"/>
-      <c r="W5" s="594"/>
+      <c r="D5" s="589"/>
+      <c r="E5" s="590"/>
+      <c r="F5" s="590"/>
+      <c r="G5" s="590"/>
+      <c r="H5" s="590"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="590"/>
+      <c r="L5" s="590"/>
+      <c r="M5" s="590"/>
+      <c r="N5" s="590"/>
+      <c r="O5" s="590"/>
+      <c r="P5" s="590"/>
+      <c r="Q5" s="590"/>
+      <c r="R5" s="590"/>
+      <c r="S5" s="590"/>
+      <c r="T5" s="590"/>
+      <c r="U5" s="590"/>
+      <c r="V5" s="590"/>
+      <c r="W5" s="591"/>
       <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -17476,104 +17627,104 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="595"/>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="596"/>
-      <c r="J6" s="596"/>
-      <c r="K6" s="596"/>
-      <c r="L6" s="596"/>
-      <c r="M6" s="596"/>
-      <c r="N6" s="596"/>
-      <c r="O6" s="596"/>
-      <c r="P6" s="596"/>
-      <c r="Q6" s="596"/>
-      <c r="R6" s="596"/>
-      <c r="S6" s="596"/>
-      <c r="T6" s="596"/>
-      <c r="U6" s="596"/>
-      <c r="V6" s="596"/>
-      <c r="W6" s="597"/>
+      <c r="D6" s="592"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="593"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="593"/>
+      <c r="M6" s="593"/>
+      <c r="N6" s="593"/>
+      <c r="O6" s="593"/>
+      <c r="P6" s="593"/>
+      <c r="Q6" s="593"/>
+      <c r="R6" s="593"/>
+      <c r="S6" s="593"/>
+      <c r="T6" s="593"/>
+      <c r="U6" s="593"/>
+      <c r="V6" s="593"/>
+      <c r="W6" s="594"/>
       <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="595"/>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="596"/>
-      <c r="J7" s="596"/>
-      <c r="K7" s="596"/>
-      <c r="L7" s="596"/>
-      <c r="M7" s="596"/>
-      <c r="N7" s="596"/>
-      <c r="O7" s="596"/>
-      <c r="P7" s="596"/>
-      <c r="Q7" s="596"/>
-      <c r="R7" s="596"/>
-      <c r="S7" s="596"/>
-      <c r="T7" s="596"/>
-      <c r="U7" s="596"/>
-      <c r="V7" s="596"/>
-      <c r="W7" s="597"/>
+      <c r="D7" s="592"/>
+      <c r="E7" s="593"/>
+      <c r="F7" s="593"/>
+      <c r="G7" s="593"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="593"/>
+      <c r="J7" s="593"/>
+      <c r="K7" s="593"/>
+      <c r="L7" s="593"/>
+      <c r="M7" s="593"/>
+      <c r="N7" s="593"/>
+      <c r="O7" s="593"/>
+      <c r="P7" s="593"/>
+      <c r="Q7" s="593"/>
+      <c r="R7" s="593"/>
+      <c r="S7" s="593"/>
+      <c r="T7" s="593"/>
+      <c r="U7" s="593"/>
+      <c r="V7" s="593"/>
+      <c r="W7" s="594"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="595"/>
-      <c r="E8" s="596"/>
-      <c r="F8" s="596"/>
-      <c r="G8" s="596"/>
-      <c r="H8" s="596"/>
-      <c r="I8" s="596"/>
-      <c r="J8" s="596"/>
-      <c r="K8" s="596"/>
-      <c r="L8" s="596"/>
-      <c r="M8" s="596"/>
-      <c r="N8" s="596"/>
-      <c r="O8" s="596"/>
-      <c r="P8" s="596"/>
-      <c r="Q8" s="596"/>
-      <c r="R8" s="596"/>
-      <c r="S8" s="596"/>
-      <c r="T8" s="596"/>
-      <c r="U8" s="596"/>
-      <c r="V8" s="596"/>
-      <c r="W8" s="597"/>
+      <c r="D8" s="592"/>
+      <c r="E8" s="593"/>
+      <c r="F8" s="593"/>
+      <c r="G8" s="593"/>
+      <c r="H8" s="593"/>
+      <c r="I8" s="593"/>
+      <c r="J8" s="593"/>
+      <c r="K8" s="593"/>
+      <c r="L8" s="593"/>
+      <c r="M8" s="593"/>
+      <c r="N8" s="593"/>
+      <c r="O8" s="593"/>
+      <c r="P8" s="593"/>
+      <c r="Q8" s="593"/>
+      <c r="R8" s="593"/>
+      <c r="S8" s="593"/>
+      <c r="T8" s="593"/>
+      <c r="U8" s="593"/>
+      <c r="V8" s="593"/>
+      <c r="W8" s="594"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="598"/>
-      <c r="E9" s="599"/>
-      <c r="F9" s="599"/>
-      <c r="G9" s="599"/>
-      <c r="H9" s="599"/>
-      <c r="I9" s="599"/>
-      <c r="J9" s="599"/>
-      <c r="K9" s="599"/>
-      <c r="L9" s="599"/>
-      <c r="M9" s="599"/>
-      <c r="N9" s="599"/>
-      <c r="O9" s="599"/>
-      <c r="P9" s="599"/>
-      <c r="Q9" s="599"/>
-      <c r="R9" s="599"/>
-      <c r="S9" s="599"/>
-      <c r="T9" s="599"/>
-      <c r="U9" s="599"/>
-      <c r="V9" s="599"/>
-      <c r="W9" s="600"/>
+      <c r="D9" s="595"/>
+      <c r="E9" s="596"/>
+      <c r="F9" s="596"/>
+      <c r="G9" s="596"/>
+      <c r="H9" s="596"/>
+      <c r="I9" s="596"/>
+      <c r="J9" s="596"/>
+      <c r="K9" s="596"/>
+      <c r="L9" s="596"/>
+      <c r="M9" s="596"/>
+      <c r="N9" s="596"/>
+      <c r="O9" s="596"/>
+      <c r="P9" s="596"/>
+      <c r="Q9" s="596"/>
+      <c r="R9" s="596"/>
+      <c r="S9" s="596"/>
+      <c r="T9" s="596"/>
+      <c r="U9" s="596"/>
+      <c r="V9" s="596"/>
+      <c r="W9" s="597"/>
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -17603,58 +17754,58 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="585" t="s">
+      <c r="A11" s="582" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="586"/>
-      <c r="C11" s="586"/>
-      <c r="D11" s="586"/>
-      <c r="E11" s="586"/>
-      <c r="F11" s="586"/>
-      <c r="G11" s="586"/>
-      <c r="H11" s="586"/>
-      <c r="I11" s="586"/>
-      <c r="J11" s="586"/>
-      <c r="K11" s="586"/>
-      <c r="L11" s="586"/>
-      <c r="M11" s="586"/>
-      <c r="N11" s="586"/>
-      <c r="O11" s="586"/>
-      <c r="P11" s="586"/>
-      <c r="Q11" s="586"/>
-      <c r="R11" s="586"/>
-      <c r="S11" s="586"/>
-      <c r="T11" s="586"/>
-      <c r="U11" s="586"/>
-      <c r="V11" s="586"/>
-      <c r="W11" s="586"/>
-      <c r="X11" s="587"/>
+      <c r="B11" s="583"/>
+      <c r="C11" s="583"/>
+      <c r="D11" s="583"/>
+      <c r="E11" s="583"/>
+      <c r="F11" s="583"/>
+      <c r="G11" s="583"/>
+      <c r="H11" s="583"/>
+      <c r="I11" s="583"/>
+      <c r="J11" s="583"/>
+      <c r="K11" s="583"/>
+      <c r="L11" s="583"/>
+      <c r="M11" s="583"/>
+      <c r="N11" s="583"/>
+      <c r="O11" s="583"/>
+      <c r="P11" s="583"/>
+      <c r="Q11" s="583"/>
+      <c r="R11" s="583"/>
+      <c r="S11" s="583"/>
+      <c r="T11" s="583"/>
+      <c r="U11" s="583"/>
+      <c r="V11" s="583"/>
+      <c r="W11" s="583"/>
+      <c r="X11" s="584"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="588"/>
-      <c r="B12" s="589"/>
-      <c r="C12" s="589"/>
-      <c r="D12" s="589"/>
-      <c r="E12" s="589"/>
-      <c r="F12" s="589"/>
-      <c r="G12" s="589"/>
-      <c r="H12" s="589"/>
-      <c r="I12" s="590"/>
-      <c r="J12" s="589"/>
-      <c r="K12" s="589"/>
-      <c r="L12" s="589"/>
-      <c r="M12" s="589"/>
-      <c r="N12" s="589"/>
-      <c r="O12" s="589"/>
-      <c r="P12" s="589"/>
-      <c r="Q12" s="589"/>
-      <c r="R12" s="589"/>
-      <c r="S12" s="589"/>
-      <c r="T12" s="589"/>
-      <c r="U12" s="589"/>
-      <c r="V12" s="589"/>
-      <c r="W12" s="589"/>
-      <c r="X12" s="591"/>
+      <c r="A12" s="585"/>
+      <c r="B12" s="586"/>
+      <c r="C12" s="586"/>
+      <c r="D12" s="586"/>
+      <c r="E12" s="586"/>
+      <c r="F12" s="586"/>
+      <c r="G12" s="586"/>
+      <c r="H12" s="586"/>
+      <c r="I12" s="587"/>
+      <c r="J12" s="586"/>
+      <c r="K12" s="586"/>
+      <c r="L12" s="586"/>
+      <c r="M12" s="586"/>
+      <c r="N12" s="586"/>
+      <c r="O12" s="586"/>
+      <c r="P12" s="586"/>
+      <c r="Q12" s="586"/>
+      <c r="R12" s="586"/>
+      <c r="S12" s="586"/>
+      <c r="T12" s="586"/>
+      <c r="U12" s="586"/>
+      <c r="V12" s="586"/>
+      <c r="W12" s="586"/>
+      <c r="X12" s="588"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
@@ -21031,7 +21182,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD50F64D-DC7D-49C5-BFAB-A52B960783B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15ACD49-683F-4D13-8121-FC78DD266034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3098,33 +3098,6 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3147,6 +3120,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3174,6 +3153,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12211,7 +12211,7 @@
       <c r="L48" s="551"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44708.844367129626</v>
+        <v>44709.006995138887</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -12232,7 +12232,7 @@
       <c r="L49" s="551"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44708.844367129626</v>
+        <v>44709.006995138887</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -17150,24 +17150,24 @@
       <c r="B6" s="545" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="582" t="s">
+      <c r="C6" s="573" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="583"/>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="587" t="s">
+      <c r="D6" s="574"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="580" t="s">
         <v>378</v>
       </c>
-      <c r="J6" s="588"/>
-      <c r="K6" s="588"/>
-      <c r="L6" s="588"/>
-      <c r="M6" s="588"/>
-      <c r="N6" s="588"/>
-      <c r="O6" s="588"/>
-      <c r="P6" s="589"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="581"/>
+      <c r="L6" s="581"/>
+      <c r="M6" s="581"/>
+      <c r="N6" s="581"/>
+      <c r="O6" s="581"/>
+      <c r="P6" s="582"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="549"/>
       <c r="S6" s="549"/>
@@ -17180,21 +17180,21 @@
       <c r="B7" s="545" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="582" t="s">
+      <c r="C7" s="573" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="583"/>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="590" t="s">
+      <c r="D7" s="574"/>
+      <c r="E7" s="574"/>
+      <c r="F7" s="574"/>
+      <c r="G7" s="574"/>
+      <c r="H7" s="575"/>
+      <c r="I7" s="583" t="s">
         <v>379</v>
       </c>
-      <c r="J7" s="591"/>
-      <c r="K7" s="591"/>
-      <c r="L7" s="591"/>
-      <c r="M7" s="592"/>
+      <c r="J7" s="584"/>
+      <c r="K7" s="584"/>
+      <c r="L7" s="584"/>
+      <c r="M7" s="585"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="48"/>
@@ -17210,21 +17210,21 @@
       <c r="B8" s="545" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="585" t="s">
+      <c r="C8" s="576" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="586"/>
-      <c r="E8" s="583" t="s">
+      <c r="D8" s="577"/>
+      <c r="E8" s="574" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="571"/>
-      <c r="G8" s="571"/>
-      <c r="H8" s="572"/>
-      <c r="I8" s="593" t="s">
+      <c r="F8" s="578"/>
+      <c r="G8" s="578"/>
+      <c r="H8" s="579"/>
+      <c r="I8" s="586" t="s">
         <v>380</v>
       </c>
-      <c r="J8" s="594"/>
-      <c r="K8" s="595"/>
+      <c r="J8" s="587"/>
+      <c r="K8" s="588"/>
       <c r="L8" s="541"/>
       <c r="M8" s="541"/>
       <c r="N8" s="48"/>
@@ -17242,22 +17242,22 @@
       <c r="B9" s="545" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="570" t="s">
+      <c r="C9" s="589" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="571"/>
-      <c r="E9" s="572"/>
-      <c r="F9" s="579" t="s">
+      <c r="D9" s="578"/>
+      <c r="E9" s="579"/>
+      <c r="F9" s="570" t="s">
         <v>375</v>
       </c>
-      <c r="G9" s="580"/>
-      <c r="H9" s="580"/>
-      <c r="I9" s="581"/>
-      <c r="J9" s="576" t="s">
+      <c r="G9" s="571"/>
+      <c r="H9" s="571"/>
+      <c r="I9" s="572"/>
+      <c r="J9" s="593" t="s">
         <v>381</v>
       </c>
-      <c r="K9" s="577"/>
-      <c r="L9" s="578"/>
+      <c r="K9" s="594"/>
+      <c r="L9" s="595"/>
       <c r="M9" s="547"/>
       <c r="N9" s="48"/>
       <c r="O9" s="548"/>
@@ -17274,20 +17274,20 @@
       <c r="B10" s="545" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="570" t="s">
+      <c r="C10" s="589" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="571"/>
-      <c r="E10" s="571"/>
-      <c r="F10" s="571"/>
-      <c r="G10" s="571"/>
-      <c r="H10" s="572"/>
-      <c r="I10" s="573" t="s">
+      <c r="D10" s="578"/>
+      <c r="E10" s="578"/>
+      <c r="F10" s="578"/>
+      <c r="G10" s="578"/>
+      <c r="H10" s="579"/>
+      <c r="I10" s="590" t="s">
         <v>382</v>
       </c>
-      <c r="J10" s="574"/>
-      <c r="K10" s="574"/>
-      <c r="L10" s="575"/>
+      <c r="J10" s="591"/>
+      <c r="K10" s="591"/>
+      <c r="L10" s="592"/>
       <c r="M10" s="547"/>
       <c r="N10" s="48"/>
       <c r="O10" s="548"/>
@@ -17456,6 +17456,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:R3"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="F9:I9"/>
@@ -17466,12 +17472,6 @@
     <mergeCell ref="I6:P6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
@@ -21088,7 +21088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O348"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28914,7 +28914,7 @@
     </row>
     <row r="281" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A281" s="413"/>
-      <c r="B281" s="418">
+      <c r="B281" s="460">
         <v>4</v>
       </c>
       <c r="C281" s="449" t="s">
@@ -28947,7 +28947,7 @@
     </row>
     <row r="282" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A282" s="413"/>
-      <c r="B282" s="418">
+      <c r="B282" s="267">
         <v>5</v>
       </c>
       <c r="C282" s="449" t="s">
@@ -29013,7 +29013,7 @@
     </row>
     <row r="284" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A284" s="413"/>
-      <c r="B284" s="418">
+      <c r="B284" s="460">
         <v>7</v>
       </c>
       <c r="C284" s="449" t="s">
@@ -29046,7 +29046,7 @@
     </row>
     <row r="285" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A285" s="413"/>
-      <c r="B285" s="418">
+      <c r="B285" s="267">
         <v>8</v>
       </c>
       <c r="C285" s="449" t="s">
@@ -29112,8 +29112,8 @@
     </row>
     <row r="287" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A287" s="413"/>
-      <c r="B287" s="418">
-        <v>9</v>
+      <c r="B287" s="460">
+        <v>10</v>
       </c>
       <c r="C287" s="449" t="s">
         <v>292</v>
@@ -29145,8 +29145,8 @@
     </row>
     <row r="288" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A288" s="413"/>
-      <c r="B288" s="418">
-        <v>10</v>
+      <c r="B288" s="267">
+        <v>11</v>
       </c>
       <c r="C288" s="449" t="s">
         <v>293</v>
@@ -29179,7 +29179,7 @@
     <row r="289" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A289" s="413"/>
       <c r="B289" s="418">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C289" s="449" t="s">
         <v>302</v>
@@ -29211,8 +29211,8 @@
     </row>
     <row r="290" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A290" s="413"/>
-      <c r="B290" s="418">
-        <v>12</v>
+      <c r="B290" s="460">
+        <v>13</v>
       </c>
       <c r="C290" s="449" t="s">
         <v>303</v>
@@ -29244,8 +29244,8 @@
     </row>
     <row r="291" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A291" s="413"/>
-      <c r="B291" s="418">
-        <v>13</v>
+      <c r="B291" s="267">
+        <v>14</v>
       </c>
       <c r="C291" s="449" t="s">
         <v>304</v>
@@ -29278,7 +29278,7 @@
     <row r="292" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A292" s="413"/>
       <c r="B292" s="418">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C292" s="419" t="s">
         <v>165</v>
@@ -29312,8 +29312,8 @@
     </row>
     <row r="293" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A293" s="413"/>
-      <c r="B293" s="418">
-        <v>15</v>
+      <c r="B293" s="460">
+        <v>16</v>
       </c>
       <c r="C293" s="443" t="s">
         <v>153</v>
@@ -29345,8 +29345,8 @@
     </row>
     <row r="294" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A294" s="452"/>
-      <c r="B294" s="418">
-        <v>16</v>
+      <c r="B294" s="267">
+        <v>17</v>
       </c>
       <c r="C294" s="436" t="s">
         <v>154</v>
@@ -29379,7 +29379,7 @@
     <row r="295" spans="1:15" s="411" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A295" s="413"/>
       <c r="B295" s="418">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C295" s="436" t="s">
         <v>155</v>
@@ -29411,8 +29411,8 @@
     </row>
     <row r="296" spans="1:15" s="411" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="412"/>
-      <c r="B296" s="424">
-        <v>18</v>
+      <c r="B296" s="460">
+        <v>19</v>
       </c>
       <c r="C296" s="425" t="s">
         <v>156</v>
@@ -29707,7 +29707,7 @@
         <v>146</v>
       </c>
       <c r="I308" s="459">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="J308" s="450"/>
       <c r="K308" s="451"/>
@@ -29740,7 +29740,7 @@
         <v>146</v>
       </c>
       <c r="I309" s="459">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="J309" s="450"/>
       <c r="K309" s="451"/>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15ACD49-683F-4D13-8121-FC78DD266034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F943E346-D16B-407C-AC39-18A2FD5AAB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3098,6 +3098,33 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3120,12 +3147,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3153,27 +3174,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12211,7 +12211,7 @@
       <c r="L48" s="551"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44709.006995138887</v>
+        <v>44709.979943171296</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -12232,7 +12232,7 @@
       <c r="L49" s="551"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44709.006995138887</v>
+        <v>44709.979943171296</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -15591,13 +15591,19 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
+      <c r="H66" s="81">
+        <v>44708</v>
+      </c>
+      <c r="I66" s="81">
+        <v>44709</v>
+      </c>
       <c r="J66" s="515">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="K66" s="82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="67" spans="1:11" s="411" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="78"/>
@@ -16532,7 +16538,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K93" s="469"/>
+      <c r="K93" s="469">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94" spans="1:11" s="411" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="465"/>
@@ -16555,13 +16563,19 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="H94" s="468"/>
-      <c r="I94" s="468"/>
+      <c r="H94" s="468">
+        <v>44708</v>
+      </c>
+      <c r="I94" s="468">
+        <v>44709</v>
+      </c>
       <c r="J94" s="514">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="469"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="469">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="95" spans="1:11" s="411" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="465"/>
@@ -16594,7 +16608,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K95" s="469"/>
+      <c r="K95" s="469">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="96" spans="1:11" s="411" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A96" s="526"/>
@@ -16687,13 +16703,19 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H98" s="468"/>
-      <c r="I98" s="468"/>
+      <c r="H98" s="468">
+        <v>44707</v>
+      </c>
+      <c r="I98" s="468">
+        <v>44708</v>
+      </c>
       <c r="J98" s="514">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="469"/>
+        <v>1</v>
+      </c>
+      <c r="K98" s="469">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="99" spans="1:11" s="411" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A99" s="526"/>
@@ -16831,7 +16853,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K102" s="469"/>
+      <c r="K102" s="469">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="103" spans="1:11" s="411" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A103" s="44">
@@ -17150,24 +17174,24 @@
       <c r="B6" s="545" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="573" t="s">
+      <c r="C6" s="582" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="574"/>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="580" t="s">
+      <c r="D6" s="583"/>
+      <c r="E6" s="583"/>
+      <c r="F6" s="583"/>
+      <c r="G6" s="583"/>
+      <c r="H6" s="584"/>
+      <c r="I6" s="587" t="s">
         <v>378</v>
       </c>
-      <c r="J6" s="581"/>
-      <c r="K6" s="581"/>
-      <c r="L6" s="581"/>
-      <c r="M6" s="581"/>
-      <c r="N6" s="581"/>
-      <c r="O6" s="581"/>
-      <c r="P6" s="582"/>
+      <c r="J6" s="588"/>
+      <c r="K6" s="588"/>
+      <c r="L6" s="588"/>
+      <c r="M6" s="588"/>
+      <c r="N6" s="588"/>
+      <c r="O6" s="588"/>
+      <c r="P6" s="589"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="549"/>
       <c r="S6" s="549"/>
@@ -17180,21 +17204,21 @@
       <c r="B7" s="545" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="573" t="s">
+      <c r="C7" s="582" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="574"/>
-      <c r="E7" s="574"/>
-      <c r="F7" s="574"/>
-      <c r="G7" s="574"/>
-      <c r="H7" s="575"/>
-      <c r="I7" s="583" t="s">
+      <c r="D7" s="583"/>
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="590" t="s">
         <v>379</v>
       </c>
-      <c r="J7" s="584"/>
-      <c r="K7" s="584"/>
-      <c r="L7" s="584"/>
-      <c r="M7" s="585"/>
+      <c r="J7" s="591"/>
+      <c r="K7" s="591"/>
+      <c r="L7" s="591"/>
+      <c r="M7" s="592"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="48"/>
@@ -17210,21 +17234,21 @@
       <c r="B8" s="545" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="576" t="s">
+      <c r="C8" s="585" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="577"/>
-      <c r="E8" s="574" t="s">
+      <c r="D8" s="586"/>
+      <c r="E8" s="583" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="578"/>
-      <c r="G8" s="578"/>
-      <c r="H8" s="579"/>
-      <c r="I8" s="586" t="s">
+      <c r="F8" s="571"/>
+      <c r="G8" s="571"/>
+      <c r="H8" s="572"/>
+      <c r="I8" s="593" t="s">
         <v>380</v>
       </c>
-      <c r="J8" s="587"/>
-      <c r="K8" s="588"/>
+      <c r="J8" s="594"/>
+      <c r="K8" s="595"/>
       <c r="L8" s="541"/>
       <c r="M8" s="541"/>
       <c r="N8" s="48"/>
@@ -17242,22 +17266,22 @@
       <c r="B9" s="545" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="589" t="s">
+      <c r="C9" s="570" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="578"/>
-      <c r="E9" s="579"/>
-      <c r="F9" s="570" t="s">
+      <c r="D9" s="571"/>
+      <c r="E9" s="572"/>
+      <c r="F9" s="579" t="s">
         <v>375</v>
       </c>
-      <c r="G9" s="571"/>
-      <c r="H9" s="571"/>
-      <c r="I9" s="572"/>
-      <c r="J9" s="593" t="s">
+      <c r="G9" s="580"/>
+      <c r="H9" s="580"/>
+      <c r="I9" s="581"/>
+      <c r="J9" s="576" t="s">
         <v>381</v>
       </c>
-      <c r="K9" s="594"/>
-      <c r="L9" s="595"/>
+      <c r="K9" s="577"/>
+      <c r="L9" s="578"/>
       <c r="M9" s="547"/>
       <c r="N9" s="48"/>
       <c r="O9" s="548"/>
@@ -17274,20 +17298,20 @@
       <c r="B10" s="545" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="589" t="s">
+      <c r="C10" s="570" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="578"/>
-      <c r="E10" s="578"/>
-      <c r="F10" s="578"/>
-      <c r="G10" s="578"/>
-      <c r="H10" s="579"/>
-      <c r="I10" s="590" t="s">
+      <c r="D10" s="571"/>
+      <c r="E10" s="571"/>
+      <c r="F10" s="571"/>
+      <c r="G10" s="571"/>
+      <c r="H10" s="572"/>
+      <c r="I10" s="573" t="s">
         <v>382</v>
       </c>
-      <c r="J10" s="591"/>
-      <c r="K10" s="591"/>
-      <c r="L10" s="592"/>
+      <c r="J10" s="574"/>
+      <c r="K10" s="574"/>
+      <c r="L10" s="575"/>
       <c r="M10" s="547"/>
       <c r="N10" s="48"/>
       <c r="O10" s="548"/>
@@ -17456,12 +17480,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:R3"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="F9:I9"/>
@@ -17472,6 +17490,12 @@
     <mergeCell ref="I6:P6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
@@ -21088,7 +21112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O348"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\htdocs\YadnarThike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E9A795-D4D8-4505-81AB-7BB383E395C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Screen Design'!$A$1:$Q$297</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="404">
   <si>
     <t>No</t>
   </si>
@@ -1261,12 +1260,21 @@
   </si>
   <si>
     <t>author_name_category</t>
+  </si>
+  <si>
+    <t>For the same name character for the author</t>
+  </si>
+  <si>
+    <t>Home page Navigation adjust</t>
+  </si>
+  <si>
+    <t>Frontend development design fixing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2188,7 +2196,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="613">
+  <cellXfs count="618">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3092,6 +3100,12 @@
     <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3148,6 +3162,33 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3170,12 +3211,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3203,27 +3238,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3274,18 +3288,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3321,7 +3344,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3384,7 +3407,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,7 +3464,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3527,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3590,7 @@
         <xdr:cNvPr id="114" name="Diamond 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C7364F4-7338-69BA-F34F-B050A32D9C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3658,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF22D1DA-2F78-797E-4E09-2767EFDFA1E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3691,7 +3714,7 @@
         <xdr:cNvPr id="202" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{376418BB-84E2-9783-C488-B78334DD1F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3777,7 @@
         <xdr:cNvPr id="145" name="Rectangle 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AB3D84-7233-AFDC-86BC-8C5B16D136C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3822,7 +3845,7 @@
         <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11A7598-E628-B6B6-0F75-4F9E47A60D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,7 +3901,7 @@
         <xdr:cNvPr id="222" name="Rectangle 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0DB5F9-7626-347E-EBB3-AC8A13B46077}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +3964,7 @@
         <xdr:cNvPr id="223" name="Rectangle 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C9AB86F-F0A4-7508-3245-97E1F51BF0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4004,7 +4027,7 @@
         <xdr:cNvPr id="224" name="Rectangle 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C650F7-26B8-AF80-8936-0D65794F54C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4067,7 +4090,7 @@
         <xdr:cNvPr id="225" name="Rectangle 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{563FE4EC-AED3-BDE2-9E0A-2DED8435744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4130,7 +4153,7 @@
         <xdr:cNvPr id="226" name="Rectangle 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43293255-1E5C-6D64-B6B5-4C534012B38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4193,7 +4216,7 @@
         <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6742F96-6706-4F25-2402-16D113F50115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4249,7 +4272,7 @@
         <xdr:cNvPr id="203" name="Connector: Elbow 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C05F93F-4491-1089-9C75-95522BE2D55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4305,7 +4328,7 @@
         <xdr:cNvPr id="204" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC39AC3-D31A-3DEB-3FA3-30B6E9970945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4375,7 +4398,7 @@
         <xdr:cNvPr id="277" name="Rectangle 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9756E1D-6F8D-1F73-125B-283F0DE30E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4459,7 +4482,7 @@
         <xdr:cNvPr id="291" name="Rectangle 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF98E191-C7E4-E3CC-8C70-430CA3D8877C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4522,7 +4545,7 @@
         <xdr:cNvPr id="293" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0868AF-0480-E151-77F7-48BBCAD87EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4590,7 +4613,7 @@
         <xdr:cNvPr id="300" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E6E3BFD-0229-1CE5-EE43-A63860D12EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4672,7 +4695,7 @@
         <xdr:cNvPr id="301" name="Rectangle 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCF44B1-E01B-8F32-6664-957E27134710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4747,7 +4770,7 @@
         <xdr:cNvPr id="302" name="Rectangle 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D146A799-3F91-BEA2-C4AC-70D0BFB81705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4817,7 +4840,7 @@
         <xdr:cNvPr id="303" name="Rectangle 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11C16C0-C18D-908F-0C8F-19BD003ADB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4909,7 +4932,7 @@
         <xdr:cNvPr id="304" name="Rectangle 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38825BBC-E7DA-8E56-346A-DDBBD3BFB779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5057,7 +5080,7 @@
         <xdr:cNvPr id="237" name="Straight Arrow Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{037BC34B-6C53-3788-40A5-DAC45ED79BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5113,7 +5136,7 @@
         <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE8FD69-B553-CCDC-31AA-09D8966076F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5169,7 +5192,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1C676F3-8BEF-A082-3DD6-F6AD8E75064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5225,7 +5248,7 @@
         <xdr:cNvPr id="245" name="Straight Arrow Connector 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1D134DC-5B05-FA17-30E8-2C3E2062CA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5281,7 +5304,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00161F50-D4EE-ED6B-BC73-FCE6E53DAA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5337,7 +5360,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9250D8-1B9A-5DF4-B5F1-5B12D556DAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,7 +5416,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F22E0AB-0901-8AF5-3AF6-5531E8346140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5449,7 +5472,7 @@
         <xdr:cNvPr id="344" name="Rectangle 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15C556D5-CFE2-5B92-F0B7-618EA2C8C2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5512,7 +5535,7 @@
         <xdr:cNvPr id="272" name="Straight Arrow Connector 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D3A92E1-E68B-2036-35C8-C08772D9A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5568,7 +5591,7 @@
         <xdr:cNvPr id="348" name="Rectangle 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4943A5-87A8-8961-F71B-CF985DA7737F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5631,7 +5654,7 @@
         <xdr:cNvPr id="349" name="Rectangle 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE70EF5F-57EE-538D-1A2B-6CE761C2A3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5694,7 +5717,7 @@
         <xdr:cNvPr id="350" name="Rectangle 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FD6BAA2-6530-2210-8E3E-BEE408084FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5762,7 +5785,7 @@
         <xdr:cNvPr id="353" name="Rectangle 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8AB2-E6DF-7400-C8D1-D71662BA4395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5825,7 +5848,7 @@
         <xdr:cNvPr id="354" name="Rectangle 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC19F654-D768-AED9-5333-191F663C8E48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5888,7 +5911,7 @@
         <xdr:cNvPr id="275" name="Connector: Elbow 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9492A7-0C08-175E-FBA6-2D5CB2631358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5944,7 +5967,7 @@
         <xdr:cNvPr id="284" name="Connector: Elbow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE5FB1-3A1D-BE07-BD5E-E9417CD08CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6000,7 +6023,7 @@
         <xdr:cNvPr id="286" name="Connector: Elbow 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F891C8B-0021-74DF-749D-0D7841441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6056,7 +6079,7 @@
         <xdr:cNvPr id="288" name="Connector: Elbow 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F9DDA5-4B78-477C-6C18-243D1EF4BFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6112,7 +6135,7 @@
         <xdr:cNvPr id="290" name="Connector: Elbow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1666855-92A2-6E3D-DDEC-4E081B1D4307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6168,7 +6191,7 @@
         <xdr:cNvPr id="297" name="Connector: Elbow 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F949F4-0904-BFEA-9154-26FFBB4FA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6224,7 +6247,7 @@
         <xdr:cNvPr id="299" name="Connector: Elbow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A9E6B12-2431-00DD-AA78-5479B0E4A645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6280,7 +6303,7 @@
         <xdr:cNvPr id="306" name="Connector: Elbow 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F167EA2F-C46A-908F-16D9-5A97EE7CC6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6336,7 +6359,7 @@
         <xdr:cNvPr id="308" name="Connector: Elbow 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93CA3EE-65C6-1DA7-3F20-981F04EED772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6415,7 @@
         <xdr:cNvPr id="310" name="Connector: Elbow 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B05704-F543-2E75-7D0D-FCDD5E4C8C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6448,7 +6471,7 @@
         <xdr:cNvPr id="312" name="Straight Arrow Connector 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A0AABE3-E6BB-B42F-95EA-D67EE8E5D378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6504,7 +6527,7 @@
         <xdr:cNvPr id="320" name="Straight Arrow Connector 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90354B19-6855-E0D8-680D-1E4105DF0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,7 +6583,7 @@
         <xdr:cNvPr id="322" name="Rectangle 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A18F4F7C-87F5-DB03-151D-A83CCBEC56DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6623,7 +6646,7 @@
         <xdr:cNvPr id="395" name="Rectangle 394">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBD1FD7-007B-D887-47BA-DA775FEB2509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6686,7 +6709,7 @@
         <xdr:cNvPr id="396" name="Rectangle 395">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83417375-8D54-3374-22BD-906DEC74C681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6749,7 +6772,7 @@
         <xdr:cNvPr id="399" name="Rectangle 398">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7EBE78C-9D75-0F1B-994D-E45226229227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6817,7 +6840,7 @@
         <xdr:cNvPr id="402" name="Rectangle 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBFF531B-51DB-1F6D-EB96-AD7CC80D0F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6885,7 +6908,7 @@
         <xdr:cNvPr id="403" name="Rectangle 402">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C54CE03-4CBF-AB6C-446A-DFE119647AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6953,7 +6976,7 @@
         <xdr:cNvPr id="324" name="Connector: Elbow 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B3106B3-9F5E-2D68-A93F-EAD98281AF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7011,7 +7034,7 @@
         <xdr:cNvPr id="326" name="Connector: Elbow 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A5A3CC7-F5E3-3A59-AAE6-5A77EF8AF76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7069,7 +7092,7 @@
         <xdr:cNvPr id="328" name="Connector: Elbow 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59EA8637-5020-E5F2-74D2-94F1EF7FC222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7127,7 +7150,7 @@
         <xdr:cNvPr id="330" name="Straight Arrow Connector 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B02CCDB-FA0B-72B0-A09C-FD22650E550C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7183,7 +7206,7 @@
         <xdr:cNvPr id="333" name="Straight Arrow Connector 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A3EDF1A-1180-3DE2-F794-2034477DD130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7239,7 +7262,7 @@
         <xdr:cNvPr id="336" name="Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49E3D0B-1038-9898-7459-1899641E9168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7295,7 +7318,7 @@
         <xdr:cNvPr id="337" name="Diamond 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEFA8B7-6CAC-A993-6CF5-2F9AE9E84215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7358,7 +7381,7 @@
         <xdr:cNvPr id="339" name="Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031A5C72-A1A6-5D91-E183-A0A5BB5F4281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7414,7 +7437,7 @@
         <xdr:cNvPr id="345" name="Connector: Elbow 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1A60F90-7E17-D5BC-885D-93CF3719F5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7470,7 +7493,7 @@
         <xdr:cNvPr id="357" name="Rectangle 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D4713C5-EDD9-4EA1-A109-F2489A23AA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7533,7 +7556,7 @@
         <xdr:cNvPr id="359" name="Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E2081-9AA7-67A9-D00B-7B6185BDEF36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7589,7 +7612,7 @@
         <xdr:cNvPr id="434" name="Rectangle 433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141C32BC-CF88-A0F0-A5FF-F2D39ECEE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7652,7 +7675,7 @@
         <xdr:cNvPr id="364" name="Connector: Elbow 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FAF3DF-F9A7-21C4-6847-2432DF2AA5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7708,7 +7731,7 @@
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA1F722-0166-8592-56C3-87D42892EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7765,7 +7788,7 @@
         <xdr:cNvPr id="450" name="Rectangle 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{886D6DE6-1F36-FDA4-7903-597ECC919057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7828,7 +7851,7 @@
         <xdr:cNvPr id="376" name="Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{064EF7AD-9F40-2DE8-EA0E-A5AD3E1983B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7885,7 +7908,7 @@
         <xdr:cNvPr id="464" name="Diamond 463">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C915F7B-BCE8-F060-1A20-20EB22B6006C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7956,7 +7979,7 @@
         <xdr:cNvPr id="454" name="Straight Arrow Connector 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E42FBB5-4535-71B8-FC68-8C7AFD6E4B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8013,7 +8036,7 @@
         <xdr:cNvPr id="461" name="Connector: Elbow 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7714BA-E693-0D0A-6072-A8E598E8295E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8069,7 +8092,7 @@
         <xdr:cNvPr id="478" name="Rectangle 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0212693D-D747-7775-BC2D-3520099979DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8132,7 +8155,7 @@
         <xdr:cNvPr id="482" name="Rectangle 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75D29002-7C66-2BC2-B0F6-DD3D754C32C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8195,7 +8218,7 @@
         <xdr:cNvPr id="492" name="Rectangle 491">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41052F66-A624-F367-37B3-99FE9D72B420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8258,7 +8281,7 @@
         <xdr:cNvPr id="481" name="Connector: Elbow 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A573981-F25B-1098-D017-0236FFF65BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8314,7 +8337,7 @@
         <xdr:cNvPr id="488" name="Connector: Elbow 487">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49A0DB27-929E-5664-DD03-81AA2115F925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8370,7 +8393,7 @@
         <xdr:cNvPr id="503" name="Rectangle 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634D115F-BA9D-AC73-8DC5-B177DA0DD039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8433,7 +8456,7 @@
         <xdr:cNvPr id="504" name="Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C8AF2C4-7266-FDA9-FE08-9BC163C40C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8496,7 +8519,7 @@
         <xdr:cNvPr id="506" name="Rectangle 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EBDBA8-B02C-6E11-A5CF-FA19199D9839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8559,7 +8582,7 @@
         <xdr:cNvPr id="493" name="Straight Arrow Connector 492">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C5F366E-B404-0BA8-F762-9F87E334EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8615,7 +8638,7 @@
         <xdr:cNvPr id="496" name="Connector: Elbow 495">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80C5828-9CA4-C951-9EC9-5C2405DB08ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8674,7 +8697,7 @@
         <xdr:cNvPr id="500" name="Connector: Elbow 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA55F324-FAA1-95C5-EDBB-B4F5BBF0B7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8733,7 +8756,7 @@
         <xdr:cNvPr id="511" name="Connector: Elbow 510">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2BDA04-D53F-E16F-40A1-938A443CB78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8791,7 +8814,7 @@
         <xdr:cNvPr id="386" name="Connector: Elbow 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2EA158-DD4C-9291-BFDE-414B28197C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8849,7 +8872,7 @@
         <xdr:cNvPr id="389" name="Connector: Elbow 388">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04FCD762-69B4-BDC9-5296-2856FFD8E380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8907,7 +8930,7 @@
         <xdr:cNvPr id="412" name="Straight Arrow Connector 411">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C2CBF-3AAB-DD40-58CA-B954AB2B953A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8963,7 +8986,7 @@
         <xdr:cNvPr id="549" name="Rectangle 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60EC7015-674F-C035-8A3D-90110260656A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9031,7 +9054,7 @@
         <xdr:cNvPr id="416" name="Connector: Elbow 415">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0A8ADD-472B-E68A-3C0B-16A5345DF3E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9087,7 +9110,7 @@
         <xdr:cNvPr id="557" name="Rectangle 556">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39EE8E70-69CA-73EB-081F-BFD537140F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9150,7 +9173,7 @@
         <xdr:cNvPr id="558" name="Rectangle 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CE8806-D8D3-043E-346A-A936E52B704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9213,7 +9236,7 @@
         <xdr:cNvPr id="559" name="Rectangle 558">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{234B76E3-C775-CB01-C51C-AE1B4C69027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9281,7 +9304,7 @@
         <xdr:cNvPr id="560" name="Rectangle 559">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{472B8B14-8E1B-9E34-134D-077077E66926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9344,7 +9367,7 @@
         <xdr:cNvPr id="561" name="Rectangle 560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A97039-056A-1BD6-2301-C7BB59A76C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9412,7 +9435,7 @@
         <xdr:cNvPr id="571" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E953785-7D8E-4AB8-5E1E-FA2F76927701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9480,7 +9503,7 @@
         <xdr:cNvPr id="429" name="Straight Arrow Connector 428">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CED1465-A771-205C-BBB6-126543509F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9536,7 +9559,7 @@
         <xdr:cNvPr id="431" name="Connector: Elbow 430">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{150A048A-D91E-76D5-513B-C8368E72C1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9591,7 +9614,7 @@
         <xdr:cNvPr id="441" name="Connector: Elbow 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A6C576-189D-57D5-C549-754EC4BF4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9647,7 +9670,7 @@
         <xdr:cNvPr id="444" name="Connector: Elbow 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA5BD2F3-5151-9F42-96B2-B89822A7CB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9703,7 +9726,7 @@
         <xdr:cNvPr id="447" name="Straight Arrow Connector 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EA4DAB3-9587-14ED-27A9-B222D0C3BEE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9759,7 +9782,7 @@
         <xdr:cNvPr id="603" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A717D765-1050-685D-E446-A48827097EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9823,7 +9846,7 @@
         <xdr:cNvPr id="526" name="Connector: Elbow 525">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCBB9D3-5B46-9C7E-1526-94F5B3F7D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9879,7 +9902,7 @@
         <xdr:cNvPr id="536" name="Connector: Elbow 535">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09CA61CF-1388-18BE-2EF6-C3AE83632FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9935,7 +9958,7 @@
         <xdr:cNvPr id="542" name="Connector: Elbow 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB857A0-7AEE-F980-E064-1A06168B078B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9995,7 +10018,7 @@
         <xdr:cNvPr id="625" name="Rectangle 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{833FB374-0FE6-CB77-2438-275E7FD5493B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10063,7 +10086,7 @@
         <xdr:cNvPr id="627" name="Rectangle 626">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAEA01B5-FF22-DD48-20CD-315D29C37784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10126,7 +10149,7 @@
         <xdr:cNvPr id="565" name="Connector: Elbow 564">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328480B0-0FBA-11FA-3C67-15DB6636684A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10185,7 +10208,7 @@
         <xdr:cNvPr id="117" name="Rectangle 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985192AB-8642-07F8-E04D-8EBAD661EEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10248,7 +10271,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78333CFC-7F9C-DFFD-6398-476B4710F7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10304,7 +10327,7 @@
         <xdr:cNvPr id="115" name="Rectangle 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1F65BD-EFB7-BEFF-549F-9E4E36C12FAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED1F65BD-EFB7-BEFF-549F-9E4E36C12FAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10367,7 +10390,7 @@
         <xdr:cNvPr id="5" name="Connector: Elbow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D31A361-7A62-F6FA-A055-24AA616A93D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D31A361-7A62-F6FA-A055-24AA616A93D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10430,7 +10453,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943D27F9-5766-34FB-9C45-9266F0C7C4EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{943D27F9-5766-34FB-9C45-9266F0C7C4EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10480,7 +10503,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CF1D88-4644-4D1C-3C67-0C7C9ED14102}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59CF1D88-4644-4D1C-3C67-0C7C9ED14102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10530,7 +10553,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402A2CA2-4F18-49E8-E32F-820D6D50FE9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{402A2CA2-4F18-49E8-E32F-820D6D50FE9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10580,7 +10603,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431B73F5-8533-5F90-FAC6-4715CF6D697C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{431B73F5-8533-5F90-FAC6-4715CF6D697C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10630,7 +10653,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4E30CE-2ED6-2389-AB94-DE2D102A300B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F4E30CE-2ED6-2389-AB94-DE2D102A300B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10680,7 +10703,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B91832F-DEB0-AB70-6808-E9D212BCA607}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B91832F-DEB0-AB70-6808-E9D212BCA607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10730,7 +10753,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358E9180-29A8-EEBE-A22F-5CC8BD7C3822}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{358E9180-29A8-EEBE-A22F-5CC8BD7C3822}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10780,7 +10803,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80411B2-C71C-C4CB-B458-75B436F160CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A80411B2-C71C-C4CB-B458-75B436F160CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10830,7 +10853,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D919F268-10D5-ED58-B6E9-080AF2265538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D919F268-10D5-ED58-B6E9-080AF2265538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10880,7 +10903,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA4512C-EFFB-8859-8461-70AC52D3D87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BA4512C-EFFB-8859-8461-70AC52D3D87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10930,7 +10953,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618098A7-3E95-CD4B-7CFA-C9B2C18A71B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{618098A7-3E95-CD4B-7CFA-C9B2C18A71B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10980,7 +11003,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277C99A9-FD84-15A8-64C2-0854E5AE8439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{277C99A9-FD84-15A8-64C2-0854E5AE8439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11030,7 +11053,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE6154F-5721-F549-FCEA-3DCAEC4EBEA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DE6154F-5721-F549-FCEA-3DCAEC4EBEA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11080,7 +11103,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0156D0A8-32AA-59F9-E6EB-EE2C740A875F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0156D0A8-32AA-59F9-E6EB-EE2C740A875F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11130,7 +11153,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF0CE33-63CF-8316-831B-FA7C09D6B069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CF0CE33-63CF-8316-831B-FA7C09D6B069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11180,7 +11203,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97278A7-D6F6-7F48-19D0-16C802555241}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97278A7-D6F6-7F48-19D0-16C802555241}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11230,7 +11253,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E2188A-68AD-FEE9-ED4A-A6EEE1A85725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06E2188A-68AD-FEE9-ED4A-A6EEE1A85725}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11280,7 +11303,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D241E7D-5BD2-726D-247F-38EC9039F912}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D241E7D-5BD2-726D-247F-38EC9039F912}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11330,7 +11353,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABC4C58-F6D6-4E5C-E8E7-5186A9DA51CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0ABC4C58-F6D6-4E5C-E8E7-5186A9DA51CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11380,7 +11403,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190A645-185F-D983-7287-9732C634114B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4190A645-185F-D983-7287-9732C634114B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11430,7 +11453,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9B575E-E14F-286A-635C-41ADD78B85C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE9B575E-E14F-286A-635C-41ADD78B85C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11480,7 +11503,7 @@
         <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F910B6F0-CF27-BCD4-5226-5CF1B13BFA11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F910B6F0-CF27-BCD4-5226-5CF1B13BFA11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11530,7 +11553,7 @@
         <xdr:cNvPr id="34" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D39437-494E-55FD-FD7E-BC9EFF158468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63D39437-494E-55FD-FD7E-BC9EFF158468}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11580,7 +11603,7 @@
         <xdr:cNvPr id="36" name="Picture 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE22D52-6FAA-1B70-8D18-311C2F0BA940}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEE22D52-6FAA-1B70-8D18-311C2F0BA940}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11630,7 +11653,7 @@
         <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114699BE-1EBC-D266-9625-28A4DE83308E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{114699BE-1EBC-D266-9625-28A4DE83308E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11680,7 +11703,7 @@
         <xdr:cNvPr id="40" name="Picture 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF95ADC2-82D3-4C5E-40DC-60C6BDD71399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF95ADC2-82D3-4C5E-40DC-60C6BDD71399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11730,7 +11753,7 @@
         <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4227E96-34DE-1E80-8FF4-AF698327C4D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4227E96-34DE-1E80-8FF4-AF698327C4D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11780,7 +11803,7 @@
         <xdr:cNvPr id="44" name="Picture 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3061B83-27CA-A730-9D83-3F1F52B05E12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3061B83-27CA-A730-9D83-3F1F52B05E12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11830,7 +11853,7 @@
         <xdr:cNvPr id="46" name="Picture 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6481F91E-DA0F-F114-46FD-CE650FE36289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6481F91E-DA0F-F114-46FD-CE650FE36289}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11880,7 +11903,7 @@
         <xdr:cNvPr id="48" name="Picture 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C52AEB8-BC03-D2FF-E94D-B0F60FBF3AE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C52AEB8-BC03-D2FF-E94D-B0F60FBF3AE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12211,10 +12234,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12511,22 +12534,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="554" t="s">
+      <c r="A19" s="556" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="555"/>
-      <c r="C19" s="555"/>
-      <c r="D19" s="555"/>
-      <c r="E19" s="555"/>
-      <c r="F19" s="555"/>
-      <c r="G19" s="555"/>
-      <c r="H19" s="555"/>
-      <c r="I19" s="555"/>
-      <c r="J19" s="555"/>
-      <c r="K19" s="555"/>
-      <c r="L19" s="555"/>
-      <c r="M19" s="555"/>
-      <c r="N19" s="556"/>
+      <c r="B19" s="557"/>
+      <c r="C19" s="557"/>
+      <c r="D19" s="557"/>
+      <c r="E19" s="557"/>
+      <c r="F19" s="557"/>
+      <c r="G19" s="557"/>
+      <c r="H19" s="557"/>
+      <c r="I19" s="557"/>
+      <c r="J19" s="557"/>
+      <c r="K19" s="557"/>
+      <c r="L19" s="557"/>
+      <c r="M19" s="557"/>
+      <c r="N19" s="558"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -12561,22 +12584,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A22" s="551" t="s">
+      <c r="A22" s="553" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="552"/>
-      <c r="C22" s="552"/>
-      <c r="D22" s="552"/>
-      <c r="E22" s="552"/>
-      <c r="F22" s="552"/>
-      <c r="G22" s="552"/>
-      <c r="H22" s="552"/>
-      <c r="I22" s="552"/>
-      <c r="J22" s="552"/>
-      <c r="K22" s="552"/>
-      <c r="L22" s="552"/>
-      <c r="M22" s="552"/>
-      <c r="N22" s="553"/>
+      <c r="B22" s="554"/>
+      <c r="C22" s="554"/>
+      <c r="D22" s="554"/>
+      <c r="E22" s="554"/>
+      <c r="F22" s="554"/>
+      <c r="G22" s="554"/>
+      <c r="H22" s="554"/>
+      <c r="I22" s="554"/>
+      <c r="J22" s="554"/>
+      <c r="K22" s="554"/>
+      <c r="L22" s="554"/>
+      <c r="M22" s="554"/>
+      <c r="N22" s="555"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -12884,10 +12907,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
-      <c r="B42" s="549" t="s">
+      <c r="B42" s="551" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="549"/>
+      <c r="C42" s="551"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -13011,13 +13034,13 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="550" t="s">
+      <c r="K48" s="552" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="550"/>
+      <c r="L48" s="552"/>
       <c r="M48" s="19">
         <f ca="1">NOW()</f>
-        <v>44711.993432986113</v>
+        <v>44713.001845370367</v>
       </c>
       <c r="N48" s="14"/>
     </row>
@@ -13032,13 +13055,13 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="550" t="s">
+      <c r="K49" s="552" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="550"/>
+      <c r="L49" s="552"/>
       <c r="M49" s="19">
         <f ca="1">NOW()</f>
-        <v>44711.993432986113</v>
+        <v>44713.001845370367</v>
       </c>
       <c r="N49" s="14"/>
     </row>
@@ -13088,7 +13111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -13101,54 +13124,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557" t="s">
+      <c r="A2" s="559" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="558"/>
-      <c r="C2" s="561" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="563" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="562"/>
-      <c r="E2" s="562"/>
-      <c r="F2" s="562"/>
-      <c r="G2" s="562"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="562"/>
-      <c r="J2" s="562"/>
-      <c r="K2" s="562"/>
-      <c r="L2" s="562"/>
-      <c r="M2" s="562"/>
-      <c r="N2" s="562"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="564"/>
+      <c r="L2" s="564"/>
+      <c r="M2" s="564"/>
+      <c r="N2" s="564"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="565">
+      <c r="P2" s="567">
         <v>44698</v>
       </c>
-      <c r="Q2" s="566"/>
+      <c r="Q2" s="568"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="559"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="564"/>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="564"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="564"/>
-      <c r="M3" s="564"/>
-      <c r="N3" s="564"/>
+      <c r="A3" s="561"/>
+      <c r="B3" s="562"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="566"/>
+      <c r="F3" s="566"/>
+      <c r="G3" s="566"/>
+      <c r="H3" s="566"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="566"/>
+      <c r="L3" s="566"/>
+      <c r="M3" s="566"/>
+      <c r="N3" s="566"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="567">
+      <c r="P3" s="569">
         <v>44698</v>
       </c>
-      <c r="Q3" s="568"/>
+      <c r="Q3" s="570"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -14187,10 +14210,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A76" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14207,50 +14230,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="557" t="s">
+      <c r="A2" s="559" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="558"/>
-      <c r="C2" s="561" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="563" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="562"/>
-      <c r="E2" s="562"/>
-      <c r="F2" s="562"/>
-      <c r="G2" s="562"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="562"/>
-      <c r="J2" s="562"/>
-      <c r="K2" s="562"/>
-      <c r="L2" s="562"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="564"/>
+      <c r="L2" s="564"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="565">
+      <c r="N2" s="567">
         <v>44698</v>
       </c>
-      <c r="O2" s="566"/>
+      <c r="O2" s="568"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="559"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="564"/>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="564"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="564"/>
+      <c r="A3" s="561"/>
+      <c r="B3" s="562"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="566"/>
+      <c r="F3" s="566"/>
+      <c r="G3" s="566"/>
+      <c r="H3" s="566"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="566"/>
+      <c r="L3" s="566"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="567">
+      <c r="N3" s="569">
         <v>44698</v>
       </c>
-      <c r="O3" s="568"/>
+      <c r="O3" s="570"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -17830,7 +17853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
@@ -17853,62 +17876,62 @@
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="557" t="s">
+      <c r="A2" s="559" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="558"/>
-      <c r="C2" s="562" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="564" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="562"/>
-      <c r="E2" s="562"/>
-      <c r="F2" s="562"/>
-      <c r="G2" s="562"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="562"/>
-      <c r="J2" s="562"/>
-      <c r="K2" s="562"/>
-      <c r="L2" s="562"/>
-      <c r="M2" s="562"/>
-      <c r="N2" s="562"/>
-      <c r="O2" s="562"/>
-      <c r="P2" s="562"/>
-      <c r="Q2" s="562"/>
-      <c r="R2" s="562"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="564"/>
+      <c r="L2" s="564"/>
+      <c r="M2" s="564"/>
+      <c r="N2" s="564"/>
+      <c r="O2" s="564"/>
+      <c r="P2" s="564"/>
+      <c r="Q2" s="564"/>
+      <c r="R2" s="564"/>
       <c r="S2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="565">
+      <c r="T2" s="567">
         <v>44698</v>
       </c>
-      <c r="U2" s="566"/>
+      <c r="U2" s="568"/>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="559"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="564"/>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="564"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="564"/>
-      <c r="M3" s="564"/>
-      <c r="N3" s="564"/>
-      <c r="O3" s="564"/>
-      <c r="P3" s="564"/>
-      <c r="Q3" s="564"/>
-      <c r="R3" s="564"/>
+      <c r="A3" s="561"/>
+      <c r="B3" s="562"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="566"/>
+      <c r="F3" s="566"/>
+      <c r="G3" s="566"/>
+      <c r="H3" s="566"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="566"/>
+      <c r="L3" s="566"/>
+      <c r="M3" s="566"/>
+      <c r="N3" s="566"/>
+      <c r="O3" s="566"/>
+      <c r="P3" s="566"/>
+      <c r="Q3" s="566"/>
+      <c r="R3" s="566"/>
       <c r="S3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="567">
+      <c r="T3" s="569">
         <v>44698</v>
       </c>
-      <c r="U3" s="568"/>
+      <c r="U3" s="570"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:21" ht="21" x14ac:dyDescent="0.35">
@@ -17980,24 +18003,24 @@
       <c r="B6" s="544" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="572" t="s">
+      <c r="C6" s="583" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="573"/>
-      <c r="E6" s="573"/>
-      <c r="F6" s="573"/>
-      <c r="G6" s="573"/>
-      <c r="H6" s="574"/>
-      <c r="I6" s="579" t="s">
+      <c r="D6" s="584"/>
+      <c r="E6" s="584"/>
+      <c r="F6" s="584"/>
+      <c r="G6" s="584"/>
+      <c r="H6" s="585"/>
+      <c r="I6" s="588" t="s">
         <v>378</v>
       </c>
-      <c r="J6" s="580"/>
-      <c r="K6" s="580"/>
-      <c r="L6" s="580"/>
-      <c r="M6" s="580"/>
-      <c r="N6" s="580"/>
-      <c r="O6" s="580"/>
-      <c r="P6" s="581"/>
+      <c r="J6" s="589"/>
+      <c r="K6" s="589"/>
+      <c r="L6" s="589"/>
+      <c r="M6" s="589"/>
+      <c r="N6" s="589"/>
+      <c r="O6" s="589"/>
+      <c r="P6" s="590"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="548"/>
       <c r="S6" s="548"/>
@@ -18010,21 +18033,21 @@
       <c r="B7" s="544" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="572" t="s">
+      <c r="C7" s="583" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="573"/>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="582" t="s">
+      <c r="D7" s="584"/>
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="591" t="s">
         <v>379</v>
       </c>
-      <c r="J7" s="583"/>
-      <c r="K7" s="583"/>
-      <c r="L7" s="583"/>
-      <c r="M7" s="584"/>
+      <c r="J7" s="592"/>
+      <c r="K7" s="592"/>
+      <c r="L7" s="592"/>
+      <c r="M7" s="593"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="48"/>
@@ -18040,21 +18063,21 @@
       <c r="B8" s="544" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="575" t="s">
+      <c r="C8" s="586" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="576"/>
-      <c r="E8" s="573" t="s">
+      <c r="D8" s="587"/>
+      <c r="E8" s="584" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="577"/>
-      <c r="G8" s="577"/>
-      <c r="H8" s="578"/>
-      <c r="I8" s="585" t="s">
+      <c r="F8" s="572"/>
+      <c r="G8" s="572"/>
+      <c r="H8" s="573"/>
+      <c r="I8" s="594" t="s">
         <v>380</v>
       </c>
-      <c r="J8" s="586"/>
-      <c r="K8" s="587"/>
+      <c r="J8" s="595"/>
+      <c r="K8" s="596"/>
       <c r="L8" s="540"/>
       <c r="M8" s="540"/>
       <c r="N8" s="48"/>
@@ -18072,27 +18095,31 @@
       <c r="B9" s="544" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="588" t="s">
+      <c r="C9" s="571" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="577"/>
-      <c r="E9" s="578"/>
-      <c r="F9" s="569" t="s">
+      <c r="D9" s="572"/>
+      <c r="E9" s="573"/>
+      <c r="F9" s="580" t="s">
         <v>375</v>
       </c>
-      <c r="G9" s="570"/>
-      <c r="H9" s="570"/>
-      <c r="I9" s="571"/>
-      <c r="J9" s="592" t="s">
+      <c r="G9" s="581"/>
+      <c r="H9" s="581"/>
+      <c r="I9" s="582"/>
+      <c r="J9" s="577" t="s">
         <v>381</v>
       </c>
-      <c r="K9" s="593"/>
-      <c r="L9" s="594"/>
-      <c r="M9" s="546"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="547"/>
-      <c r="P9" s="547"/>
-      <c r="Q9" s="547"/>
+      <c r="K9" s="578"/>
+      <c r="L9" s="579"/>
+      <c r="M9" s="613" t="s">
+        <v>402</v>
+      </c>
+      <c r="N9" s="614"/>
+      <c r="O9" s="615" t="s">
+        <v>403</v>
+      </c>
+      <c r="P9" s="616"/>
+      <c r="Q9" s="617"/>
       <c r="R9" s="548"/>
       <c r="S9" s="548"/>
       <c r="T9" s="548"/>
@@ -18104,20 +18131,20 @@
       <c r="B10" s="544" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="588" t="s">
+      <c r="C10" s="571" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="577"/>
-      <c r="E10" s="577"/>
-      <c r="F10" s="577"/>
-      <c r="G10" s="577"/>
-      <c r="H10" s="578"/>
-      <c r="I10" s="589" t="s">
+      <c r="D10" s="572"/>
+      <c r="E10" s="572"/>
+      <c r="F10" s="572"/>
+      <c r="G10" s="572"/>
+      <c r="H10" s="573"/>
+      <c r="I10" s="574" t="s">
         <v>382</v>
       </c>
-      <c r="J10" s="590"/>
-      <c r="K10" s="590"/>
-      <c r="L10" s="591"/>
+      <c r="J10" s="575"/>
+      <c r="K10" s="575"/>
+      <c r="L10" s="576"/>
       <c r="M10" s="546"/>
       <c r="N10" s="48"/>
       <c r="O10" s="547"/>
@@ -18285,13 +18312,7 @@
       <c r="Q20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:R3"/>
+  <mergeCells count="18">
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="F9:I9"/>
@@ -18302,6 +18323,14 @@
     <mergeCell ref="I6:P6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
@@ -18309,10 +18338,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="K16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18324,68 +18353,68 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557" t="s">
+      <c r="A2" s="559" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="558"/>
-      <c r="C2" s="561" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="563" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="562"/>
-      <c r="E2" s="562"/>
-      <c r="F2" s="562"/>
-      <c r="G2" s="562"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="562"/>
-      <c r="J2" s="562"/>
-      <c r="K2" s="562"/>
-      <c r="L2" s="562"/>
-      <c r="M2" s="562"/>
-      <c r="N2" s="562"/>
-      <c r="O2" s="562"/>
-      <c r="P2" s="562"/>
-      <c r="Q2" s="562"/>
-      <c r="R2" s="562"/>
-      <c r="S2" s="562"/>
-      <c r="T2" s="562"/>
-      <c r="U2" s="562"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="564"/>
+      <c r="L2" s="564"/>
+      <c r="M2" s="564"/>
+      <c r="N2" s="564"/>
+      <c r="O2" s="564"/>
+      <c r="P2" s="564"/>
+      <c r="Q2" s="564"/>
+      <c r="R2" s="564"/>
+      <c r="S2" s="564"/>
+      <c r="T2" s="564"/>
+      <c r="U2" s="564"/>
       <c r="V2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="565">
+      <c r="W2" s="567">
         <v>44698</v>
       </c>
-      <c r="X2" s="566"/>
+      <c r="X2" s="568"/>
     </row>
     <row r="3" spans="1:24" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="559"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="564"/>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="564"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="564"/>
-      <c r="M3" s="564"/>
-      <c r="N3" s="564"/>
-      <c r="O3" s="564"/>
-      <c r="P3" s="564"/>
-      <c r="Q3" s="564"/>
-      <c r="R3" s="564"/>
-      <c r="S3" s="564"/>
-      <c r="T3" s="564"/>
-      <c r="U3" s="564"/>
+      <c r="A3" s="561"/>
+      <c r="B3" s="562"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="566"/>
+      <c r="F3" s="566"/>
+      <c r="G3" s="566"/>
+      <c r="H3" s="566"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="566"/>
+      <c r="L3" s="566"/>
+      <c r="M3" s="566"/>
+      <c r="N3" s="566"/>
+      <c r="O3" s="566"/>
+      <c r="P3" s="566"/>
+      <c r="Q3" s="566"/>
+      <c r="R3" s="566"/>
+      <c r="S3" s="566"/>
+      <c r="T3" s="566"/>
+      <c r="U3" s="566"/>
       <c r="V3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="567">
+      <c r="W3" s="569">
         <v>44698</v>
       </c>
-      <c r="X3" s="568"/>
+      <c r="X3" s="570"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -18419,26 +18448,26 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="602"/>
-      <c r="E5" s="603"/>
-      <c r="F5" s="603"/>
-      <c r="G5" s="603"/>
-      <c r="H5" s="603"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="603"/>
-      <c r="L5" s="603"/>
-      <c r="M5" s="603"/>
-      <c r="N5" s="603"/>
-      <c r="O5" s="603"/>
-      <c r="P5" s="603"/>
-      <c r="Q5" s="603"/>
-      <c r="R5" s="603"/>
-      <c r="S5" s="603"/>
-      <c r="T5" s="603"/>
-      <c r="U5" s="603"/>
-      <c r="V5" s="603"/>
-      <c r="W5" s="604"/>
+      <c r="D5" s="604"/>
+      <c r="E5" s="605"/>
+      <c r="F5" s="605"/>
+      <c r="G5" s="605"/>
+      <c r="H5" s="605"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="605"/>
+      <c r="M5" s="605"/>
+      <c r="N5" s="605"/>
+      <c r="O5" s="605"/>
+      <c r="P5" s="605"/>
+      <c r="Q5" s="605"/>
+      <c r="R5" s="605"/>
+      <c r="S5" s="605"/>
+      <c r="T5" s="605"/>
+      <c r="U5" s="605"/>
+      <c r="V5" s="605"/>
+      <c r="W5" s="606"/>
       <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -18447,104 +18476,104 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="605"/>
-      <c r="E6" s="606"/>
-      <c r="F6" s="606"/>
-      <c r="G6" s="606"/>
-      <c r="H6" s="606"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="606"/>
-      <c r="M6" s="606"/>
-      <c r="N6" s="606"/>
-      <c r="O6" s="606"/>
-      <c r="P6" s="606"/>
-      <c r="Q6" s="606"/>
-      <c r="R6" s="606"/>
-      <c r="S6" s="606"/>
-      <c r="T6" s="606"/>
-      <c r="U6" s="606"/>
-      <c r="V6" s="606"/>
-      <c r="W6" s="607"/>
+      <c r="D6" s="607"/>
+      <c r="E6" s="608"/>
+      <c r="F6" s="608"/>
+      <c r="G6" s="608"/>
+      <c r="H6" s="608"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="608"/>
+      <c r="K6" s="608"/>
+      <c r="L6" s="608"/>
+      <c r="M6" s="608"/>
+      <c r="N6" s="608"/>
+      <c r="O6" s="608"/>
+      <c r="P6" s="608"/>
+      <c r="Q6" s="608"/>
+      <c r="R6" s="608"/>
+      <c r="S6" s="608"/>
+      <c r="T6" s="608"/>
+      <c r="U6" s="608"/>
+      <c r="V6" s="608"/>
+      <c r="W6" s="609"/>
       <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="605"/>
-      <c r="E7" s="606"/>
-      <c r="F7" s="606"/>
-      <c r="G7" s="606"/>
-      <c r="H7" s="606"/>
-      <c r="I7" s="606"/>
-      <c r="J7" s="606"/>
-      <c r="K7" s="606"/>
-      <c r="L7" s="606"/>
-      <c r="M7" s="606"/>
-      <c r="N7" s="606"/>
-      <c r="O7" s="606"/>
-      <c r="P7" s="606"/>
-      <c r="Q7" s="606"/>
-      <c r="R7" s="606"/>
-      <c r="S7" s="606"/>
-      <c r="T7" s="606"/>
-      <c r="U7" s="606"/>
-      <c r="V7" s="606"/>
-      <c r="W7" s="607"/>
+      <c r="D7" s="607"/>
+      <c r="E7" s="608"/>
+      <c r="F7" s="608"/>
+      <c r="G7" s="608"/>
+      <c r="H7" s="608"/>
+      <c r="I7" s="608"/>
+      <c r="J7" s="608"/>
+      <c r="K7" s="608"/>
+      <c r="L7" s="608"/>
+      <c r="M7" s="608"/>
+      <c r="N7" s="608"/>
+      <c r="O7" s="608"/>
+      <c r="P7" s="608"/>
+      <c r="Q7" s="608"/>
+      <c r="R7" s="608"/>
+      <c r="S7" s="608"/>
+      <c r="T7" s="608"/>
+      <c r="U7" s="608"/>
+      <c r="V7" s="608"/>
+      <c r="W7" s="609"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="605"/>
-      <c r="E8" s="606"/>
-      <c r="F8" s="606"/>
-      <c r="G8" s="606"/>
-      <c r="H8" s="606"/>
-      <c r="I8" s="606"/>
-      <c r="J8" s="606"/>
-      <c r="K8" s="606"/>
-      <c r="L8" s="606"/>
-      <c r="M8" s="606"/>
-      <c r="N8" s="606"/>
-      <c r="O8" s="606"/>
-      <c r="P8" s="606"/>
-      <c r="Q8" s="606"/>
-      <c r="R8" s="606"/>
-      <c r="S8" s="606"/>
-      <c r="T8" s="606"/>
-      <c r="U8" s="606"/>
-      <c r="V8" s="606"/>
-      <c r="W8" s="607"/>
+      <c r="D8" s="607"/>
+      <c r="E8" s="608"/>
+      <c r="F8" s="608"/>
+      <c r="G8" s="608"/>
+      <c r="H8" s="608"/>
+      <c r="I8" s="608"/>
+      <c r="J8" s="608"/>
+      <c r="K8" s="608"/>
+      <c r="L8" s="608"/>
+      <c r="M8" s="608"/>
+      <c r="N8" s="608"/>
+      <c r="O8" s="608"/>
+      <c r="P8" s="608"/>
+      <c r="Q8" s="608"/>
+      <c r="R8" s="608"/>
+      <c r="S8" s="608"/>
+      <c r="T8" s="608"/>
+      <c r="U8" s="608"/>
+      <c r="V8" s="608"/>
+      <c r="W8" s="609"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="608"/>
-      <c r="E9" s="609"/>
-      <c r="F9" s="609"/>
-      <c r="G9" s="609"/>
-      <c r="H9" s="609"/>
-      <c r="I9" s="609"/>
-      <c r="J9" s="609"/>
-      <c r="K9" s="609"/>
-      <c r="L9" s="609"/>
-      <c r="M9" s="609"/>
-      <c r="N9" s="609"/>
-      <c r="O9" s="609"/>
-      <c r="P9" s="609"/>
-      <c r="Q9" s="609"/>
-      <c r="R9" s="609"/>
-      <c r="S9" s="609"/>
-      <c r="T9" s="609"/>
-      <c r="U9" s="609"/>
-      <c r="V9" s="609"/>
-      <c r="W9" s="610"/>
+      <c r="D9" s="610"/>
+      <c r="E9" s="611"/>
+      <c r="F9" s="611"/>
+      <c r="G9" s="611"/>
+      <c r="H9" s="611"/>
+      <c r="I9" s="611"/>
+      <c r="J9" s="611"/>
+      <c r="K9" s="611"/>
+      <c r="L9" s="611"/>
+      <c r="M9" s="611"/>
+      <c r="N9" s="611"/>
+      <c r="O9" s="611"/>
+      <c r="P9" s="611"/>
+      <c r="Q9" s="611"/>
+      <c r="R9" s="611"/>
+      <c r="S9" s="611"/>
+      <c r="T9" s="611"/>
+      <c r="U9" s="611"/>
+      <c r="V9" s="611"/>
+      <c r="W9" s="612"/>
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -18574,58 +18603,58 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="595" t="s">
+      <c r="A11" s="597" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="596"/>
-      <c r="C11" s="596"/>
-      <c r="D11" s="596"/>
-      <c r="E11" s="596"/>
-      <c r="F11" s="596"/>
-      <c r="G11" s="596"/>
-      <c r="H11" s="596"/>
-      <c r="I11" s="596"/>
-      <c r="J11" s="596"/>
-      <c r="K11" s="596"/>
-      <c r="L11" s="596"/>
-      <c r="M11" s="596"/>
-      <c r="N11" s="596"/>
-      <c r="O11" s="596"/>
-      <c r="P11" s="596"/>
-      <c r="Q11" s="596"/>
-      <c r="R11" s="596"/>
-      <c r="S11" s="596"/>
-      <c r="T11" s="596"/>
-      <c r="U11" s="596"/>
-      <c r="V11" s="596"/>
-      <c r="W11" s="596"/>
-      <c r="X11" s="597"/>
+      <c r="B11" s="598"/>
+      <c r="C11" s="598"/>
+      <c r="D11" s="598"/>
+      <c r="E11" s="598"/>
+      <c r="F11" s="598"/>
+      <c r="G11" s="598"/>
+      <c r="H11" s="598"/>
+      <c r="I11" s="598"/>
+      <c r="J11" s="598"/>
+      <c r="K11" s="598"/>
+      <c r="L11" s="598"/>
+      <c r="M11" s="598"/>
+      <c r="N11" s="598"/>
+      <c r="O11" s="598"/>
+      <c r="P11" s="598"/>
+      <c r="Q11" s="598"/>
+      <c r="R11" s="598"/>
+      <c r="S11" s="598"/>
+      <c r="T11" s="598"/>
+      <c r="U11" s="598"/>
+      <c r="V11" s="598"/>
+      <c r="W11" s="598"/>
+      <c r="X11" s="599"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="598"/>
-      <c r="B12" s="599"/>
-      <c r="C12" s="599"/>
-      <c r="D12" s="599"/>
-      <c r="E12" s="599"/>
-      <c r="F12" s="599"/>
-      <c r="G12" s="599"/>
-      <c r="H12" s="599"/>
-      <c r="I12" s="600"/>
-      <c r="J12" s="599"/>
-      <c r="K12" s="599"/>
-      <c r="L12" s="599"/>
-      <c r="M12" s="599"/>
-      <c r="N12" s="599"/>
-      <c r="O12" s="599"/>
-      <c r="P12" s="599"/>
-      <c r="Q12" s="599"/>
-      <c r="R12" s="599"/>
-      <c r="S12" s="599"/>
-      <c r="T12" s="599"/>
-      <c r="U12" s="599"/>
-      <c r="V12" s="599"/>
-      <c r="W12" s="599"/>
-      <c r="X12" s="601"/>
+      <c r="A12" s="600"/>
+      <c r="B12" s="601"/>
+      <c r="C12" s="601"/>
+      <c r="D12" s="601"/>
+      <c r="E12" s="601"/>
+      <c r="F12" s="601"/>
+      <c r="G12" s="601"/>
+      <c r="H12" s="601"/>
+      <c r="I12" s="602"/>
+      <c r="J12" s="601"/>
+      <c r="K12" s="601"/>
+      <c r="L12" s="601"/>
+      <c r="M12" s="601"/>
+      <c r="N12" s="601"/>
+      <c r="O12" s="601"/>
+      <c r="P12" s="601"/>
+      <c r="Q12" s="601"/>
+      <c r="R12" s="601"/>
+      <c r="S12" s="601"/>
+      <c r="T12" s="601"/>
+      <c r="U12" s="601"/>
+      <c r="V12" s="601"/>
+      <c r="W12" s="601"/>
+      <c r="X12" s="603"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
@@ -20436,10 +20465,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q242"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20449,54 +20478,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557" t="s">
+      <c r="A2" s="559" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="558"/>
-      <c r="C2" s="561" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="563" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="562"/>
-      <c r="E2" s="562"/>
-      <c r="F2" s="562"/>
-      <c r="G2" s="562"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="562"/>
-      <c r="J2" s="562"/>
-      <c r="K2" s="562"/>
-      <c r="L2" s="562"/>
-      <c r="M2" s="562"/>
-      <c r="N2" s="562"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="564"/>
+      <c r="L2" s="564"/>
+      <c r="M2" s="564"/>
+      <c r="N2" s="564"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="565">
+      <c r="P2" s="567">
         <v>44698</v>
       </c>
-      <c r="Q2" s="566"/>
+      <c r="Q2" s="568"/>
     </row>
     <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="559"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="564"/>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="564"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="564"/>
-      <c r="M3" s="564"/>
-      <c r="N3" s="564"/>
+      <c r="A3" s="561"/>
+      <c r="B3" s="562"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="566"/>
+      <c r="F3" s="566"/>
+      <c r="G3" s="566"/>
+      <c r="H3" s="566"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="566"/>
+      <c r="L3" s="566"/>
+      <c r="M3" s="566"/>
+      <c r="N3" s="566"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="567">
+      <c r="P3" s="569">
         <v>44698</v>
       </c>
-      <c r="Q3" s="568"/>
+      <c r="Q3" s="570"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -22026,10 +22055,10 @@
       <c r="E206" s="410"/>
     </row>
     <row r="240" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A240" s="611" t="s">
+      <c r="A240" s="549" t="s">
         <v>184</v>
       </c>
-      <c r="B240" s="612"/>
+      <c r="B240" s="550"/>
     </row>
     <row r="242" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A242" s="537" t="s">
@@ -22077,10 +22106,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O349"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22095,50 +22124,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557" t="s">
+      <c r="A2" s="559" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="558"/>
-      <c r="C2" s="561" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="563" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="562"/>
-      <c r="E2" s="562"/>
-      <c r="F2" s="562"/>
-      <c r="G2" s="562"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="562"/>
-      <c r="J2" s="562"/>
-      <c r="K2" s="562"/>
-      <c r="L2" s="562"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="564"/>
+      <c r="L2" s="564"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="565">
+      <c r="N2" s="567">
         <v>44698</v>
       </c>
-      <c r="O2" s="566"/>
+      <c r="O2" s="568"/>
     </row>
     <row r="3" spans="1:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="559"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="564"/>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="564"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="564"/>
+      <c r="A3" s="561"/>
+      <c r="B3" s="562"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="566"/>
+      <c r="F3" s="566"/>
+      <c r="G3" s="566"/>
+      <c r="H3" s="566"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="566"/>
+      <c r="L3" s="566"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="567">
+      <c r="N3" s="569">
         <v>44702</v>
       </c>
-      <c r="O3" s="568"/>
+      <c r="O3" s="570"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -23096,10 +23125,18 @@
       <c r="C36" s="418" t="s">
         <v>400</v>
       </c>
-      <c r="D36" s="418"/>
-      <c r="E36" s="419"/>
-      <c r="F36" s="419"/>
-      <c r="G36" s="419"/>
+      <c r="D36" s="418" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" s="419" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="419" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="419" t="s">
+        <v>144</v>
+      </c>
       <c r="H36" s="418" t="s">
         <v>147</v>
       </c>
@@ -23160,8 +23197,12 @@
       <c r="E38" s="419" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="419"/>
-      <c r="G38" s="419"/>
+      <c r="F38" s="419" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="419" t="s">
+        <v>145</v>
+      </c>
       <c r="H38" s="418" t="s">
         <v>147</v>
       </c>

--- a/02.DesignDocument/Project_Management.xlsx
+++ b/02.DesignDocument/Project_Management.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\htdocs\YadnarThike\02.DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\yadanar_thike\02.DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D16DC-4DBC-4258-98CB-6B6F2D4B11ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Screen Design'!$A$1:$Q$297</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1274,7 +1275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -3162,33 +3163,6 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3211,6 +3185,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3238,6 +3218,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3288,27 +3304,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3344,7 +3345,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEF0383-2F02-5166-046E-39160DBF55AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,7 +3408,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2F3EC-D7CC-A755-7F92-8A981AAE9ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3465,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A1CB4-BB53-8D25-DB6A-12ED4759F1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3528,7 @@
         <xdr:cNvPr id="87" name="Rectangle 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94611E8-1812-5B4C-017A-153E4C34388C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,7 +3